--- a/rappler.xlsx
+++ b/rappler.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +440,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>Url</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>date_published</t>
+          <t>Publish Date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Related Topics</t>
         </is>
       </c>
     </row>
@@ -461,39 +470,977 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PMA hazing leads to cadet’s 8-month hospital stay</t>
+          <t>YouTube removes nearly 11,000 propaganda channels linked to China, Russia, others</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/philippines/luzon/military-academy-hazing-cadet-hospital-2025/</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-07-09T08:51:24+08:00</t>
-        </is>
+          <t>https://www.rappler.com/technology/youtube-propaganda-channel-removal-china-russia-second-quarter-2025/</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45860.37956018518</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">BAGUIO, Philippines – A 22-year-old cadet at the Philippine Military Academy (PMA) was allegedly subjected to weeks of physical abuse and psychological torment inside the campus in 2024, an ordeal that has now reached prosecutors after internal sanctions imposed by the military school.
-The victim stayed in a hospital for eight months as a result.
-The PMA confirmed on Monday, July 7, that the 4th class cadet was harmed in September 2024 while staying at Yap Hall, and said the case has been referred for possible criminal prosecution.
-“Nonetheless, we confirm that a thorough and impartial investigation was completed in accordance with our military justice system,” said Lieutenant Jesse Nestor Saludo, head of the PMA’s Public Affairs Office.
-The PMA said the cadets involved have been sanctioned under the Armed Forces and Cadet Corps regulations.
-Saludo said two were suspended while a squad leader was given the highest maximum demerit, confinement days, and punishment hours which he is continuously serving to date because it was his command responsibility.
-The police have brought the complaint to the local prosecutor’s office for possible charges under the Anti-Hazing Act of 2018.
-The incident followed the 2023 conviction of three PMA cadets for the 2019 hazing death of Darwin Dormitorio. The court sentenced them to reclusion perpetua, or up to 40 years in prison. Dormitorio’s death triggered public outcry and prompted institutional changes within the military school.
-The alleged 2024 abuse became public after the cadet filed a police blotter report on July 2 at Baguio City’s Police Station 4. 
-The complainant alleged that he was physically assaulted, forced to perform extreme physical exercises, and subjected to “animalistic tripping” by upperclassmen and classmates between September 2 and September 29, 2024.
-Police identified four cadets as suspects: one 1st class cadet, one from the 2nd class, and two 4th class cadets. 
-The victim alleged that the mistreatment began after an upperclassman ordered others to hit him under the pretense of training.
-The cadet also said he was frequently disturbed during sentinel duties and compelled to perform drills that resulted in physical collapse. On September 29, 2024, he was allegedly struck by a 1st class cadet and nearly lost consciousness.
-He was initially taken to the V. Luna Medical Center in Quezon City for treatment and later transferred to the PMA Station Hospital in Baguio, where he stayed until June 30, 2025. He remains on indefinite leave while awaiting a final discharge from the Armed Forces of the Philippines Medical Board.
-The PMA said it has not received a copy of the police report or formal civilian complaint but reiterated its position that it “does not condone maltreatment.” 
-It said reforms introduced since 2018 have improved training policies, supervision, and monitoring systems.
-The PMA urged the public to “continue placing their trust in the institution,” adding that it remains “unwavering in its commitment to providing quality education and training, and to developing principled and competent leaders who will honorably serve the Armed Forces of the Philippines and our nation.” – Rappler.com
-</t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MANILA, Philippines – Google announced on Monday, July 21, it removed nearly 11,000 YouTube channels and other accounts in the second quarter of 2025 for “coordinated influence operation campaigns” on the service. In a bulletin post for Q2 2025 , it listed some 7,700 channels linked to Chinese propaganda. These included the termination of 1,545 YouTube channels in April, 3,592 YouTube channels in May, and 2,598 YouTube channels and the blockage of one domain from eligibility to appear on Google News surfaces and Discover in June. “The coordinated inauthentic network uploaded content in Chinese and English about China and US foreign affairs,” the post said. Meanwhile, more than 2,000 YouTube channels were removed in Q2 2025 for “coordinated influence operations linked to Russia.” These included content in multiple languages showing support for Russia and criticism for Ukraine, Poland, NATO, and the West. In May, the company also removed 20 YouTube channels, 4 Ads accounts, and 1 Blogger blog linked to Russian influence ops. In this case, the campaign was “linked to the Russian state-controlled media outlet RT and was sharing content in Spanish, English, Serbian, and Russian that was supportive of Russia and critical of Ukraine and the West.” Other removed influence campaigns were linked to Azerbaijan, Iran, Israel, Ghana, Romania, and Turkey and appeared to target political rivals or, as in Israel’s case here, to posit support for Israel and criticize Palestine. Google’s Threat Analysis Group removed more than 23,000 accounts in the first quarter of 2025, most notably more than 11,900 China-linked YouTube channels which discussed Chinese and US foreign affairs. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>disinformation and misinformation,Fighting disinformation,Google,Misinformation on Youtube,Networked propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[DECODED] Déjà vu: Parallels between US and Philippine propaganda</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/newsletters/decoded-parallels-between-united-states-philippine-propaganda/</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45714.41666666666</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Have you been keeping up with all the issues surrounding USAID, or the US Agency for International Development? In my latest Decoded story , I wrote about the lies and conspiracy theories about the agency, and how these were spreading online following the Trump administration’s moves to shut it down. USAID is the US government’s arm that provides humanitarian assistance to several countries. But according to some social media posts, USAID is a criminal organization, a radical-left psy-op, and a vehicle that backs liberal or progressive groups that promote American propaganda. Sounds familiar? We know that all too well. In the Philippines, independent media outlets have long been attacked for receiving funding from US-based organizations, including USAID and the National Endowment for Democracy (NED). These outlets are accused of their supposed pro-US or Western bias, and of supposedly serving as fronts for the US Central Intelligence Agency (CIA). This isn’t the first time that American propaganda and disinformation have penetrated Philippine online spaces. Last year, I wrote about how Filipinos echoed American lies — from both sides of the political spectrum — about the assassination attempt on then-presidential candidate Donald Trump. After all, it is true that the Philippines is America’s guinea pig when it comes to social media propaganda and information operations. That’s because over 7 in 10 people in the Philippines are on social media, and these platforms are barely regulated in the country. Philippine and US politics also have many similarities. As Cambridge Analytica whistleblower Christopher Wylie put it , we had “a president who was Trump before Trump was Trump.” Concepts surrounding disinformation, propaganda, and fake news turned mainstream around 2016, following the presidential victories of Rodrigo Duterte and Donald Trump. Duterte “ institutionalized ” disinformation with sock puppet accounts and fake networks , while the first Trump victory was preceded by Russian information operations and outrageous conspiracy theories . In this 2019 Rappler exclusive, Wylie said the Philippines was the company’s “ petri dish ”  for testing their strategies before implementing them in Western countries. In the infamous Cambridge Analytica scandal, the Philippines ranked second to the US in terms of the number of Facebook users whose data was compromised. Duterte and Trump are also both sharp-tongued populists who frequently hurled attacks towards critics and sowed distrust in democratic institutions. Duterte falsely claimed in 2017 that the CIA funds Rappler, and now Trump is baselessly claiming that USAID is run by “radical left lunatics.” There’s no denying that America’s been a strong influence on the Philippines, for better or for worse. These patterns aren’t limited to the Philippines and the US. Rappler CEO Maria Ressa previously talked about how 2024 was a “ super-election year ” with 74 national elections globally, which saw the loss of many of the world’s incumbents and the proliferation of more insidious voter manipulation on social media. Next week, our lead forensics researcher Pauline Macaraeg will be publishing a story on the rise of right-wing populist narratives in Canada as the country prepares for the federal election slated for October 20 this year. Any other parallels you’ve noticed? Let us know by sending us an email at hello@thenerve.co. – Rappler.com [DECODED] What the Pepsi Paloma movie could mean for Tito Sotto’s Senate bid While the film’s trailer doesn’t name Tito Sotto, data from The Nerve shows that 30% of recent online discussions about him revolve around Paloma . [DECODED] The lies, attacks on USAID spreading in the Philippines Conspiracy theories claim USAID backs media outlets and organizations that promote US interests and liberal agendas . [DECODED] Understanding voters’ behavior for the 2025 senatorial elections A survey by The Nerve classifies 2,700 respondents who are Rappler readers into four groups: practical working class, economy-conscious professionals, young progressives, and law-and-order rural supporters . The Nerve is a data forensics company that enables changemakers to navigate real-world trends and issues through narrative and network investigations. Taking the best of human and machine, we enable partners to unlock powerful insights that shape informed decisions. Composed of a team of data scientists, strategists, award-winning storytellers, and designers, the company is on a mission to deliver data with real-world impact. Visit and bookmark Rappler’s 2025 Philippine elections site for the latest news, explainers, analyses, multimedia content, and data on the senatorial, party list, and local contests. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Decoded,Disinformation,Donald Trump,Fighting disinformation,foreign aid,Networked propaganda,Rodrigo Duterte,US foreign aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[DECODED] Do politicians need facts when they have propaganda armies?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/elections/decoded-politicians-need-facts-propaganda-armies/</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45686.41666666666</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. What comes to mind when you think of disinformation and propaganda? Chances are, you’ll start thinking of power-hungry politicians spreading lies about their legacy or bloggers and influencers incessantly attacking opposition leaders and other figures critical of the administration. Maybe you remember the 2022 presidential elections, which saw the son of a dictator win the support of millions of Filipinos and eventually the presidency. As a digital forensics researcher who wrote several stories about election-related propaganda in the first few months of 2022, that’s what I remember the most about that period. Now we’re back in an election landscape as we prepare for the upcoming 2025 midterm polls and brace for more disinformation and propaganda-fueled campaigns. Reinnard Balonzo, one of Rappler’s Aries Rufo Journalism fellows for 2024, wrote a two-part story about the media and information landscape in the Bicol region. His stories showed that political disinformation is a multifaceted problem. First, he pointed out the pitfalls of the region’s media landscape — where local media paints politicians as heroes, where there aren’t enough independent media organizations, and where community journalists are under attack. He also talked about how political movements exploit poor Bicolanos . Welfare programs in the region are used for politicians’ premature campaigns and volunteer-led youth organizations openly endorse certain leaders. Many Bicolanos also get their information from social media platforms rife with disinformation because they can’t afford anything else. I’m not a fan of the “bobotante” narrative that pins the blame on poor voters; the situation’s always more complicated than that. These Bicolanos often have little choice but to become victims of political machineries. And we all know how political machineries endorsing national candidates can be vicious. In my latest Decoded story , I explored how the Duterte supporter base on social media came to the defense of Vice President Sara after everything she went through in 2024 . This included an investigation into her alleged misuse of confidential funds , three  impeachment  complaints , and a drop in approval ratings . But to her most loyal supporters, the Vice President is an indestructible leader who’s being unfairly persecuted. What made writing this story so interesting was that all of this unfolded in the wake of Duterte’s public breakup with President Ferdinand Marcos Jr. The Dutertes and Marcoses are both notorious for their disinformation and propaganda networks on social media, so I wanted to see who was winning the battle on Facebook. (Hint: It’s not the President.) Sure, Duterte has three more years to go until her vice presidential term ends, but she could also be laying the groundwork for the next presidential election as early as now. And if there’s anything we at The Nerve learned about studying disinformation on social media, it’s that we need to keep an eye out before it’s too late. Have you seen any political disinformation or propaganda narratives we should be looking into? Let us know by sending us an email at hello@thenerve.co. – Rappler.com [DECODED] Duterte social media army very much alive, roars to defend embattled Sara Duterte On Facebook, pro-Duterte accounts portray Vice President Sara Duterte as a larger-than-life, indestructible leader . [DECODED] Goodbye fact-checkers? Hello to more lies! By dismissing fact-checking as ‘biased,’ Zuckerberg undermines the work of journalists . [DECODED] What songs and artists did Filipinos listen to in 2024? Spotify chart data shows that Filipino hip-hop and P-pop acts were among the most-streamed for listeners across the country . The Nerve is a data forensics company that enables changemakers to navigate real-world trends and issues through narrative and network investigations. Taking the best of human and machine, we enable partners to unlock powerful insights that shape informed decisions. Composed of a team of data scientists, strategists, award-winning storytellers, and designers, the company is on a mission to deliver data with real-world impact. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025 Philippine elections,Bicol,Decoded,disinformation and misinformation,Fighting disinformation,Philippine politics,Sara Duterte,social media,social media influencers</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[DECODED] Who’s afraid of Gen Z?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/newsletters/decoded-who-is-afraid-gen-z/</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45644.41666666666</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Let’s face it: Gen Z might just be the most misunderstood generation in recent history. Hi! I’m Gaby Baizas, a 27-year-old digital forensics researcher for Rappler and The Nerve — and the only Gen Z in our digital forensics team. I’m here to share what we’ve uncovered about my generation, one story at a time. Over the past year, we’ve explored how Gen Zs think about some of the most pressing issues today. If you’re Gen Z, I hope these stories resonate with you. If you’re from another generation, I hope they give you a deeper understanding of what makes us tick. Around this time last year, I wrote an in-depth data story that looked into the socioeconomic factors that impacted Gen Z’s attitudes on work and money. I’ve always heard older generations share their misgivings about our work ethics and attitudes. But I understood that these shifts in workplace behaviors didn’t just come out of nowhere; they were brought about by a dwindling economy and fears that we might not be able to afford basic needs or emergencies. When we officially launched Decoded in July, our lead forensics researcher Pauline Macaraeg wrote about how these financial fears bled into young couples’ decisions to not have children. The DINK (dual income, no kids) phenomenon shows that Gen Z and even millennial couples have a deep understanding of the financial and personal commitments that come with starting a family. Brands could learn from Gen Z’s beliefs and preferences, too. We’ve also written about how sustainability matters to Gen Z TikTok users in Southeast Asia, among the most vulnerable regions to climate change . TikTok users prefer smaller brands and influencers when it comes to eco-friendly products and practices, and are often skeptical of larger companies that might engage in greenwashing practices. But one of the most significant findings we’ve written about is how Gen Z’s high social media use can make us susceptible to online manipulation. Sure, Gen Zs like me spend a lot of time on social media and are more familiar with newer technologies, but that doesn’t mean we’re immune to propaganda online. For instance, Rappler digital communications specialist Laurice Angeles wrote about how she first learned about ADHD through social media , and how this prompted her to seek professional help. While platforms like TikTok could raise awareness on certain health conditions, Gen Z users who substitute medical appointments with social media advice could put themselves and their health at risk. After all, social media platforms are rife with unverified claims. If you’ve been keeping up with The Nerve’s work, you might be familiar with our forensics research on disinformation. In our last newsletter, Don Kevin Hapal, who led the project, discussed our study on the US information ecosystem. Ahead of last November’s election, we found a growing generational divide: while older voters stuck to more traditional news sources, younger voters were relying heavily on social media. This means young Americans voters are exposed to hyperpartisan manipulation and disinformation online, which might also be why they also turned out to be the most divided on key election issues, and who they voted for in the elections. (You can download the full report here .) No matter how you feel about Gen Z, there’s no denying that this generation really found its voice this year. We’ve dominated discourse on global conflicts, raised awareness on environmental issues, and led cultural revolutions that have become too big and significant for other generations to ignore. What do you think about Gen Z? If you’re interested in Nerve and have ideas on how we can work together, feel free to email us at hello@thenerve.co. For more information, you can also visit our website . – Rappler.com The Nerve is a data forensics company that enables changemakers to navigate real-world trends and issues through narrative and network investigations. Taking the best of human and machine, we enable partners to unlock powerful insights that shape informed decisions. Composed of a team of data scientists, strategists, award-winning storytellers, and designers, the company is on a mission to deliver data with real-world impact. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>disinformation and misinformation,Networked propaganda,Philippine economy,social media,social media platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pro-China propaganda pivots, targets civil society as tensions mount</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/pro-china-propaganda-pivots-targets-philippines-civil-society-tensions-mount/</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45532.48958333334</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. This story was made in collaboration with data forensics company The Nerve . In the ongoing saga that sees the Philippines on the receiving end of Chinese harassment, China-linked propaganda pushes the narrative that the country is caught in a proxy war initiated by the United States. The official Facebook accounts of China state-affiliated entities and media are among the sources of these propaganda narratives online, as found in a scan of posts from June 2022 to July 2024, under the administration of President Ferdinand Marcos Jr. The scan was conducted by Rappler and data forensics company The Nerve. These narratives include blaming the US for China’s rift with other countries, targeting the so-called “Western media.” Such propaganda highlights China’s supposed sovereignty over countries they claim as their own and emphasizes the importance of a regional alliance among Asian countries against the West. They also target civil society movements that attempt to stand up to Chinese harassment in the West Philippine Sea. With the continuing Chinese harassment of Filipino vessels and the Philippine Coast Guard (PCG), however, the pro-China narratives are trumped by the overwhelming anti-China sentiment from individuals trooping to social media to voice their support. Akbayan Party president Rafaela David, who is also a co-convenor of civilian-led advocacy Atin Ito, said that the China propaganda campaign “is designed to belittle the courage of the ordinary Filipinos and the efforts of legitimate civil society organizations.” The public sentiment also lines up with the Philippine government’s more decisive actions against China’s harassment and other acts of intimidation. This stronger stance of government under President Marcos is different from the often inconsistent, if not outrightly dismissive, Duterte administration. The increasing tension between the Philippines and China has inspired ordinary citizens to voice out their disapproval of China’s moves. But a coalition of civil society organizations took this a notch higher by actually sailing out to sea to assert ordinary Filipinos’ rights. The Atin Ito coalition has done two civilian missions so far. The civilian-led convoy first set sail in December 2023 to Ayungin Shoal to deliver supplies to military and Philippine Coast Guard (PCG) outposts, but eventually had to turn back due to the “ constant shadowing ” of China vessels. In May 2024, the convoy went on another civilian supply mission to deliver food and fuel to Filipino fishermen “to show solidarity and support to the community who are most affected by what China is doing in our own waters.” David said that the mission sought to “normalize and regularize civilian access” in the West Philippine Sea to counter China’s militarization. “Let it be made clear, Filipinos have agency [and] we do not need other foreign powers to compel us to do what is the inherent responsibility of every Filipino citizen [which is] to defend our country and protect our own rights,” David told Rappler. But Facebook pages found to have links to China paint another story. For these propaganda arms, the Atin Ito coalition and its missions are pawns supposedly deployed by the US and the Philippine governments. State-controlled media China Daily on May 15, posted a Facebook video baselessly claiming that the coalition “is actually secretly funded by the Philippines and the US governments,” as it questioned how a small civic group was able to mobilize resources for these missions. The one-minute video linked the Atin Ito efforts to a so-called Project Myoushu, an initiative that started in 2022 at the Gordian Knot Center for National Security Innovation at Stanford University. The Gordian Knot Center’s website states that the project is sponsored by the US Office of Naval Research. In a separate video posted a month later on June 15, China Daily presented more details about the alleged project, saying it is “funded by the Philippines and the US governments to bolster the Philippines’ position in the South China Sea.” According to Ray Powell, analyst and Project Myoushu lead, the project wanted to take a “fresh look” at the South China Sea issue and saw that most of the country’s “maritime aggressions were enabled by the fact that most of them took place out of the public view.” The China Daily video said that the project “portrays China as an aggressor, aiming to suppress narratives that challenge the Western discourse.” These baseless claims have also been shared in various online communities via coordinated, inauthentic behavior. Rappler found that a handful of Facebook accounts had coordinately shared popular posts from China-affiliated pages, amplifying propaganda surrounding the Atin Ito coalition. Such posts were being seeded into three significant communities — groups supporting China or the BRICS countries (led by Brazil, Russia, India, China, and South Africa), Philippine political groups, and buy-and-sell groups. The pro-China/BRICS and Philippine political Facebook groups explicitly include names of politicians, parties, and other institutions supportive of China. Some Philippine political groups mention President Marcos and his party, Partido Federal ng Pilipinas, as these groups were named in the lead up to the 2022 elections, where Marcos and Sara Duterte forged ties. A previous Rappler investigation found that it did not take long for the Marcos and Duterte networks to crack after the President took a more pro-US foreign policy approach. However, pro-China propaganda still found its way to a number of buy-and-sell groups, which are extremely active and likely not closely moderated, despite some groups having a “no-spam” rule. The smallest of these buy-and-sell groups has over 19,700 members, while the largest has over 486,500 members. These groups can have hundreds or thousands of new posts every day, making it easier for unrelated posts to slip through the cracks. The scan by Rappler and The Nerve showed that CRI Filipino Service, tagged by Facebook as “China state-controlled media,” was the first China-linked page that mentioned Project Myoushu. It posted on December 19, 2023 an announcement about a forum that aimed to tackle how “US Project Myoushu-PBBM rapes RP.” The speakers are known to have links with China. Three of the named speakers “were among the network of supposed experts who would push for Beijing’s narratives” and “would be consistently cited and interviewed in Chinese state media,” according to the book, Unrequited Love: Duterte’s China Embrace by journalists Marites Vitug and Camille Elemia. Previous Rappler findings showed that pro-China propaganda in the Philippines often came from bloggers and websites that claimed academic expertise and legitimacy. CRI Filipino Service went on to post about Project Myoushu four more times — another one in December 2023, once in January 2024, and twice in May 2024. In a post published on May 15, 2024, CRI Filipino claimed that Project Myoushu uses social media to spread false information about normal Chinese vessel activities in the South China Sea. The Chinese embassy in Manila also explicitly mentioned Project Myoushu in a post on May 16, 2024. It posted a link to a Global Times opinion piece that tagged the Atin Ito coalition as “far from being genuinely civilian,” claiming that it was “another act in the US’ Project Myoushu.” China-linked or affiliated pages are not the only ones posting allegations against the Atin Ito coalition and the bigger Project Myoushu conspiracy. A search on Facebook showed that the narrative related to Project Myoushu has been carried by individual bloggers and pages that have links to, or show apparent support for, Rodrigo Duterte, his allies, or the previous administration as a whole. One of the individuals who consistently posts about the project and its link to the Atin Ito coalition is a writer named Elmer Jugalbot. On May 15, Chinese state-run news site CGTN’s Facebook page published a video interview with Jugalbot , where he claimed that the civilian mission was funded by the US through Project Myoushu. Jugalbot, who identifies himself as a “political commentator,” has been cited in articles published by China-run or China-linked media, including CRI Filipino Service. He has also been featured in several videos published by SMNI News, owned by fugitive and Duterte ally Apollo Quiboloy. Before this, a certain Jugalbot was referred to by a 2018 news report as a “ businessman ”. Atin Ito’s David denied that the civilian group has any links with Project Myoushu, claiming that these allegations from China-linked pages “are as fictitious as their 9-dash line.” “Such absurd lies only show that they are threatened by ordinary Filipinos who dared to come together and hold accountable a superpower like China,” she told Rappler. Project Myoushu’s Powell also said “there is no connection whatsoever” between the project and the Atin Ito coalition. He said that the online narrative “suggests an orchestrated messaging campaign” that is aligned with China. Atin Ito’s David said that China’s narrative comes as no surprise, given how the civilian movement in the Philippines has since increased. “China’s lies seek to divide us, and sow doubt among civilian groups who found the collective courage to stand up against a bully like China,” she said. “By seeking to discredit legitimate civilian dissent to their illegal activities, they aim to dampen Filipinos’ resolve to stand up for what is rightfully ours.” The claims against civilian missions carried out by the Atin Ito coalition are just part of a bigger narrative deployed on social media as tensions escalate. For many Filipino netizens, it’s a no-brainer to support the cause and express patriotism through social media comments on Philippine-based media organizations’ news reports about the tensions. But Rappler and The Nerve also found a handful of social media comments that framed the issue as if the Philippines was starting a war that it is not ready for. Several Facebook users alluded to China as a global superpower that had all the resources, while the Philippines had nothing to show. There is also the narrative that alleges that the Philippines is just caught in a proxy war initiated by the US. Information released by authorities indicating incidents committed by Chinese vessels or the CCG against Filipino vessels were tagged as “Western war-mongering propaganda” and “another drama directed by the US.” They also accuse the US of “not supporting the Philippines but…escalating the tension.” Patterns of inauthentic behavior were also observed in the accounts posting this content. One account was found spamming rapid, continuous, and repetitive comments showing screenshots of anti-US content to different posts — a technique previously identified as part of the Russian “Firehose of Falsehood” Propaganda Model . While China-linked pages are now increasingly extending their narrative to also focus on civic society, and even warmongering, ordinary Filipinos online are hitting back by also consistently asserting Philippine rights and condemning Chinese harassment. This is evident on TikTok, where videos expressing support for Atin Ito and condemning Chinese aggression are among the most talked about and most liked. The Nerve analyzed 568 TikTok videos containing hashtags related to the West Philippine Sea by processing their audio, converting them into text, and applying natural language processing for narrative analysis. ( EDITOR’S NOTE: An earlier version of this story said 359 TikTok videos were analyzed. This has been corrected. ) Among the videos that were played the most were reports on the successful ventures of the Atin Ito movement and the favorable reaction of the international community toward the Philippines. Memes were also among the most shared videos, including posts making fun of Vice President Sara Duterte for her “no comment” quip when asked about the ongoing bullying by China. Political analyst and professor of political science Arjan Aguirre said that perhaps one of the reasons why pro-China propaganda carried by official outlets does not sway Filipinos — or the general public — is because “they are devoid of effective communicative devices.” He said that the messages are “usually poorly constructed” or there is an “effort to limit the scope of the discussion to topics that are innocuous to them.” “In fact in the subconscious of many of us, we already know that movements need resources and if it is true that the US is funding this movement, people would just feel good about the info that someone is helping us against China,” he said. “This is another layer, a pragmatic sense, that I’m getting or sensing about the issue.” Can we expect China to take its propaganda efforts up a notch? – Rappler.com This investigation used Nerve’s suite of forensic solutions including video and network analysis. If you’re interested in working with the Nerve, send an email to hello@thenerve.co. The Nerve is a data forensics company that enables changemakers to navigate real-world trends and issues through narrative &amp; network investigations. Taking the best of human and machine, we enable partners to unlock powerful insights that shape informed decisions. Composed of a team of data scientists, strategists, award-winning storytellers and designers, the company is on a mission to deliver data with real-world impact. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Decoded,Networked propaganda,social media,social media platforms,South China Sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Meta says it removed China-based propaganda operation targeting US midterms</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/technology/social-media/meta-removes-china-based-propaganda-operation-targeting-united-states-midterms/</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44832.03802083333</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. META. The logo of Meta Platforms is seen in Davos, Switzerland, on May 22, 2022. Arnd Wiegmann/Reuters Meta Platforms said on Tuesday, September 27, it disrupted the first known China-based influence operation focused on targeting users in the United States with political content ahead of the midterm elections in November. The network maintained fake accounts across Meta’s social media platforms Facebook and Instagram, as well as competitor service Twitter, but was small and did not attract much of a following, Meta said in a report summarizing its findings. Still, the report noted, the discovery was significant because it suggested a shift toward more direct interference in US domestic politics compared with previous known Chinese propaganda efforts. “The Chinese operations we’ve taken down before talked primarily about America to the world, primarily in South Asia, not to Americans about themselves,” Meta global threat intelligence lead Ben Nimmo told a press briefing. “Essentially the message was ‘America bad, China good,'” he said of those operations, while the new operation pushed messages aimed at Americans on both sides of divisive issues like abortion and gun rights. Another Meta executive at the briefing said the company did not have enough evidence to say who in China was behind the activity. Asked about Meta’s findings at a news conference, U.S. Attorney General Merrick Garland said his office was “very concerned” about intelligence reports of election interference by foreign governments “starting back some time ago and continuing all the way into the present.” A Twitter spokesperson said the company was aware of the information in Meta’s report and also took down the accounts. According to Meta’s report, the Chinese fake accounts posed as liberal and conservative Americans in different states. They posted political memes and lurked in the comments of public figures’ posts since November 2021. A sample screenshot showed one account commenting on a Facebook post by Republican Senator Marco Rubio, asking him to stop gun violence and using the hashtag #RubioChildrenKiller. The same network also set up fake accounts that posed as people in the Czech Republic criticizing the Czech government over its approach to China, according to the report. Meta also said it had intercepted the largest and most complex Russian-based operation since the war in Ukraine began, describing it as a sprawling network of more than 60 websites impersonating legitimate news organizations, along with about 4,000 social media accounts and petitions on sites like US-based campaign group Avaaz. That operation primarily targeted users in Germany, as well as France, Italy, Ukraine and the United Kingdom, and spent more than $100,000 on ads promoting pro-Russian messages. On a few occasions, Russian embassies in Europe and Asia amplified the content. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Networked propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tracking the Marcos disinformation and propaganda machinery</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/iq/stories-tracking-marcos-disinformation-propaganda-machinery/</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44665.125</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MANILA, Philippines – As the 2022 polls inch closer, the online landscape becomes more difficult to navigate due to the deluge of disinformation that has favored the frontrunner of the presidential race – the dictator’s son, Ferdinand “Bongbong” Marcos Jr. Marcos has maintained a wide lead over his opponents even though he took longer to ramp up ad spending , is perpetually absent during presidential debates organized by major media organizations and the poll body, and has faced plenty of controversies involving his candidacy , his educational background , and his estate tax liability , among others. How does he sustain and gain support online? His camp and his supporters employ tactics that involve spreading lies and utilizing networks that platforms are too slow to stop. It is a years-long effort that will come to a head on May 9, when Filipinos will cast their votes. Here are Rappler investigations and reports on the many ways propaganda and disinformation related to the Marcoses thrive on social media, how platforms either respond or allow it to happen, and how the Marcos family benefits from the lies and manipulation. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022 PH presidential race,Disinformation,Ferdinand E. Marcos,Ferdinand Marcos Jr.,Marcos family,Networked propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quiboloy’s SMNI fuels disinformation, online attacks on gov’t critics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/technology/social-media/apollo-quiboloy-sonshine-media-network-disinformation-attacks-government-critics/</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44598.33333333334</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. This story was made in collaboration with data consultancy TheNerve . MANILA, Philippines – Almost two years after ABS-CBN went off-air , the National Telecommunications Commission (NTC) distributed to other entities the frequencies previously assigned to the media giant. Among those awarded the frequency bands is Sonshine Media Network International (SMNI) , owned by President Rodrigo Duterte’s embattled friend, preacher Apollo Quiboloy. Quiboloy has long been mired in scandals, having been accused of land grabbing and indicted for sex trafficking , landing him on the most wanted list of the United States Federal Bureau of Investigation. A Rappler investigative series also found that ex-members of his church, the Kingdom of Jesus Christ (KOJC), were deep in debt due to his financial demands and had suffered emotional and psychological abuse. Read Rappler’s investigative series on Quiboloy here: Now, his church’s broadcasting arm is receiving government favor in the form of airwaves despite its failure to abide by journalistic standards. The Facebook page of its news and public affairs network, SMNI News, is at the core of the network of accounts, pages, and websites that red-tag government critics and attack the media. It also has a history of sharing misleading information and lending its platforms to hyper-partisan figures. On several occasions, SMNI News has been used as a platform to attack journalists and red-tag government critics. When ABS-CBN was denied a franchise after repeated threats from President Duterte, SMNI News published a report on Quiboloy urging the network’s supporters not to blame the government, but the network’s management for “not [doing] their job.” On SMNI’s Usaping Bayan program, host Mike Abe also told ABS-CBN’s supporters that, no matter how much they rally, Congress would not be able to easily renew ABS-CBN’s franchise. SMNI News has also allotted considerable airtime to congressmen Mike Defensor and Rodante Marcoleta , two key legislators who blocked ABS-CBN’s franchise renewal. They host SMNI’s Point of Order program, which they used to revisit ABS-CBN’s alleged violations a year after the license denial. Despite Defensor and Marcoleta’s claims, other government officials have cleared ABS-CBN of alleged violations, saying the network had regularly complied with tax requirements, labor standards, and franchise terms. Quiboloy himself compared ABS-CBN to the Communist Party of the Philippines-New People’s Army (CPP-NPA) due to their alleged “bias.” This came after supporters from a Marcos-Duterte motorcade crowded ABS-CBN vehicles, visibly annoying crew members. When Rappler CEO Maria Ressa received her Nobel Peace Prize in Norway, she talked about the persecution endured by journalists from Rappler and other newsrooms worldwide. In another Usaping Bayan broadcast, Abe had called Ressa a liar, slammed her for being dramatic in front of the international community, and questioned her Filipino citizenship. Ressa is a dual citizen who holds both Filipino and US citizenship. Attacks against journalists are repeated by SMNI’s readers. Duterte supporters often share SMNI’s content and slam mainstream media outlets for supposedly being “biased” against the administration, and for supposedly not reporting on certain government accomplishments. SMNI News is in the middle of the network of pages, accounts, and websites that have shared and created posts that attacked the media. Rappler scanned public posts from January 1, 2016, to October 31, 2021, to study posts with mentions of attack words we have collected over years of monitoring online harassment against the press. These words included “presstitute (a portmanteau of press and prostitute),” “bayaran (paid hacks),” and “bias,” among others. The maps above show the network of pages, accounts, and websites that harassed journalists online from 2020 to 2021. The blue circles represent the sources and sharers of the posts that contained attack keywords. The bigger the circle, the more it was shared by other actors in the network. The dark blue circles are the sources, or those who produced content, while the light blue circles represent those who shared content from the sources. SMNI News’ influence in the network became bigger starting in 2020. This was also the year that its Facebook page’s followers and page likes started to ramp up, based on data from CrowdTangle. Its Facebook page now has over 400,000 likes and more than 900,000 followers, as of February 3, 2022. An earlier Rappler investigation also found that SMNI News was among the top content sources of red-tagging networks. Clips of SMNI News’ reports about the CPP-NPA were shared by a network of pages and accounts that justified violence by branding activists and government critics as “terrorists.” SMNI News’ reports often only featured voices from government officials and allies. These reports were then shared by pages and accounts that captioned their posts with statements that blamed the media and institutions, like the Commission on Human Rights, for the supposed communist threat in the country – which they exaggerate. These posts also often contained unverified claims and presented them as facts, such as the accusation that actress Angel Locsin’s sister was a member of the NPA , and that the mainstream media had supposedly been “infiltrated” by communists . Leftist groups, particularly those that belonged to the Makabayan bloc , were also a top target of these accounts. The posts that shared SMNI News’ posts antagonized leftist groups and justified the attacks made on its members, drowning out the real stories of activists being harassed and killed . SMNI News pushed this narrative offline too. During the filing of candidacies for the 2022 polls, SMNI’s staff repeatedly asked members of the Makabayan bloc about their alleged communist ties – a line of questioning critics had flagged as dangerous and tantamount to red-tagging. SMNI News has also reported misleading and outright false claims, which have been fact-checked by third-party fact-checkers. These included a quote card of Vice President and presidential contender Leni Robredo which lacked context, as well as a report that claimed dictator’s son Ferdinand “Bongbong” Marcos Jr. “passed” his bachelor’s degree in social studies at the University of Oxford . The network has also lent their platforms to politicians and personalities who often make false claims – in effect, SMNI does not directly make the claims, the interviewees do. In an Usaping Bayan broadcast in 2020, Senator Imee Marcos falsely claimed that the equipment of the Bataan Nuclear Power Plant was gone – a claim Rappler later fact-checked . SMNI News also gives commentary programs to public officials and bloggers , including RJ Nieto of Thinking Pinoy and Sass Sasot, who use their platforms to spread government propaganda. SMNI News has distanced itself from the mainstream media. Though it usually publishes content in favor of the Duterte administration, it describes itself as “a true alternative network that broadcasts the uncompromising message of truth giving emphasis to responsible journalism and broadcasting; driven with the purpose to satisfy man’s spiritual need leading to transformation and excellent service,” as stated in its Facebook page. SMNI is also a member of ​​Kapisanan ng mga Brodkaster ng Pilipinas (KBP), whose broadcast code provides networks and media outfits ethical guidelines and standards for both news and commentary programs. The KBP encourages the public to submit complaints via their website whenever member stations violate guidelines listed in the code. Those who violate the code are subject to penalties and other sanctions. Individuals who violate the code can receive temporary suspensions and can have their accreditation revoked, while stations can be censured and given temporary suspensions of member privileges. However, SMNI News continues to broadcast freely, and its hosts continue to amplify lies and propaganda even on social media. SMNI’s strategy of featuring pro-administration figures and propaganda should not come as a surprise, as Quiboloy is a longtime friend and spiritual adviser of President Duterte. The network’s roots trace back to early radio and television programs by the media ministry of Quiboloy’s KOJC. Legally known as the Swara Sug Media Corporation, SMNI was first granted a franchise when bills lapsed into law in 1995. In May 2016, the network launched SMNI News, and in 2019 Duterte signed their franchise extension , allowing them to operate for another 25 years, or until 2044. Quiboloy actively campaigned for Duterte and lent him a private plane during the 2016 national election. The pastor even predicted a landslide victory for Duterte, saying he was the leader the Philippines needed to “slay corruption, drug addiction, and poverty.” Duterte also admitted that he received other lavish gifts from Quiboloy, including properties and cars, but said that these donations were made “in the name of God.” Most recently, Quiboloy officially endorsed the tandem of dictator’s son Ferdinand “Bongbong” Marcos Jr. and presidential daughter Sara Duterte for the upcoming 2022 election. He predicted that Marcos and Duterte, the current survey frontrunners, would also enjoy a landslide win. Both Quiboloy and Duterte enjoy exaggerated, cultish devotion from their followers, to the extent that their wrongdoings are tolerated or go unchecked. Before Rodrigo Duterte was sworn into office, Quiboloy had said he would not use their longtime friendship to meddle with issues of “national interest.” Duterte had said the same about his friendships, saying “My loyalty to you as a friend ends where my loyalty to my country begins.” Over five years later, the NTC, the same executive agency that shut down media giant ABS-CBN, granted Quiboloy’s SMNI a wider reach with highly-coveted frequencies – never mind if its network incites hate and spreads propaganda. – with reports from Gemma B. Mendoza, Don Kevin Hapal, Dylan Salcedo/Rappler.com This study was made in collaboration with TheNerve , a Manila-based consultancy that specializes in analyzing data to bring forth powerful insights and narratives. Believing that data can deliver real-world impact, the company enables its partners across a wide range of industries to cut through the clutter and extract value and meaning from various datasets. The insights guide partners’ business decisions and help them engage with their communities better. Composed of a team of data scientists, business strategists, award-winning storytellers, and designers, the company is on a mission to transform data science into data relevance. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>#FactsFirstPH research,digital forensics,Fighting disinformation,media industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Study finds signs of ‘networked political manipulation’ on social media</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/elections/study-finds-sign-networked-political-manipulation-social-media-digital-public-pulse-project/</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44594.4956712963</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Nico Villarete/Rappler MANILA, Philippines – The Digital Public Pulse (DPP) project’s landscape analysis of YouTube, Facebook, and Twitter found five indicators of “networked political manipulation” in relation to the 2022 elections. The researchers at the Philippine Media Monitoring Laboratory announced their findings on Wednesday, February 2. This is the fourth report of the first phase of the DPP project, in which they performed a cross-platform analysis of the digital election landscape in the three of the most popular social media platforms in the Philippines. The data used were public posts from each platform containing election-related keywords from May to October 2021. The researchers pointed to the following as indicators of “networked political manipulation” on social media: The study said that these accounts have contributed to the growth in the influence of politicians in social media, yet they are not necessarily covered by election-related policies. The freedom of these accounts to spread partisan content without the need to disclose their identities has also helped shield them from scrutiny and accountability. These “anti-democratic” actors, as the researchers called them, also often hijacked political discourse on social media by both attacking and copying social institutions like the media. Among the most common tactics of these accounts were baselessly accusing the media of being biased and mimicking the format of news and surveys to feign credibility. The researchers said that the platforms deal with networked manipulation in different ways, but all three have conducted takedowns of inauthentic accounts. Facebook defines it as “ coordinated inauthentic behavior ,” while YouTube characterizes it as “ coordinated influence operations .” Twitter deals with it under its platform manipulation policy. “There are a lot of actions made by the platforms…. But I think, coming from a political-economic perspective, platform commercial interest will always be in conflict with democratic ideals,” Marie Fatima Gaw, a co-lead of the DPP study, said during the presentation. Gaw mentioned Facebook whistleblower Frances Haugen ’s statement on how Meta leaders refuse to make Facebook and Instagram safer even though they know how to, because they prioritize profits before their users. “There are safeguards they can do, but they’re doing it for show somehow. We want to expect more from platforms because they earn a lot from us,” Gaw said. The cross-platform analysis wrapped up the DPP project’s first phase that detailed the Philippine election digital landscape. The first three reports focused on identifying the influential networks of accounts participating in the election discourse on YouTube , Twitter , and Facebook , respectively. The second phase of the project will further flesh out the topics discussed through content analysis, then the third phase will be an in-depth qualitative analysis of the discourse online. The Philippine Media Monitoring Lab is a consortium of researchers in the fields of communication, political science, and data science. The DPP project is co-led by Gaw and Jon Benedik Bunquin, both assistant professors from the University of the Philippines Diliman’s Communication Research department. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2022 PH Elections - News,2022 Philippine Elections,digital forensics,Disinformation,social media platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook group sheds Philippine history brand, now spreads Marcos propaganda</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/elections/facebook-group-sheds-philippine-history-brand-spreads-marcos-family-propaganda/</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44581.33489583333</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. REBRAND. Popular Facebook group 'Philippine History' renames itself to 'BBM Sara at Philippine History' two years after it was first created. Rappler screenshot MANILA, Philippines – The popular Facebook group “Philippine History,” once an online community where members shared nostalgic posts of old Manila and Philippine antiques, has now been rebranded into a space for pro-Marcos propaganda and disinformation. In November 2021, the group was renamed “BBM Sara at Philippine History” so that members could “fulfil their duty as Filipino citizens,” as one administrator said. While administrators used to discourage members from sharing political posts in the group, now they encourage members to “promote [candidates] as [they] see fit.” Even before the group was renamed and repurposed, however, administrators had stated that they were pro-Marcos, but it was rare for them to share posts related to the family. Now that the group has been rebranded, administrators are allowing Marcos propaganda to proliferate and criticize members who do not share the same political views. The group was created in October 2019 and has 542,423 members, as of writing. Members and administrators have shared posts in favor of the Marcoses as well as Sara Duterte, Ferdinand “Bongbong” Marcos Jr.’s running mate in the 2022 elections. Angelo A. Bernardo Jr., who first joined the group around two years ago, recently left due to the influx of posts favoring Marcos and Duterte. “The Philippine History group members then posted a lot of historical articles, photos, memorabilia and articles from the past…. Now it’s mostly Marcos, Duterte posts, with a few historical posts every now and then,” he said. The practice of renaming accounts, pages, and groups with large followings to promote politicians is not new to Filipinos. Rappler readers spotted a number of Facebook pages and groups changing their names to promote possible candidates for the 2022 polls – all done several months before the official filing of candidacies last October. Apart from posts that favor the Marcos family, there are a number of posts in the group – some shared by the administrators themselves – containing false information and misleading content flagged by Facebook and third-party fact-checkers. These include posts about the popular Tallano gold myth and claims that the late dictator Ferdinand Marcos scored 98.01% in the 1939 Bar Examinations, as well as false information on COVID-19 and volcano alert levels . Bernardo said a number of members have also been commenting on different posts complaining about the recent change. Other members tell them they are free to leave the group if they don’t approve of the posts being shared. Even administrators have encouraged critics to leave the group and have kicked out members who share different beliefs. Rappler reported in 2019 about how the Marcos propaganda network on  Facebook has long been seeding false narratives about the family in an attempt to rewrite history. Rappler’s database also monitored several other pages and groups that glorified Marcos Martial Law, some of which had branded themselves as channels that post content related to Philippine history. Some history pages monitored by Rappler explicitly include the Marcos name, and aim to highlight the positive achievements of the late dictator and to promote Marcos Jr. ahead of the 2022 elections. Other history pages and groups in the database did not include Marcos in their display names, but have previously shared posts supporting the family and/or dubious claims about them. These include the group “REAL PHILIPPINE HISTORY” and the pages “REAL Philippine History” and “Philippine History Untold.” Two Marcos history pages on Facebook monitored by Rappler’s tools in 2019 are no longer available, as of writing. Marcos supporter networks have also proliferated on other platforms, such as YouTube , TikTok, and Twitter , with gaps in tech companies’ policies allowing disinformation to thrive. (READ: Anti-disinfo coalition pushes YouTube, Tiktok to crack down on false content ) The Marcoses have burnished their image since they were ousted from Malacañang almost 40 years ago. Marcos Jr. approached controversial political data company Cambridge Analytica to “rebrand” the family’s image, a report that his spokesperson Vic Rodriguez denied. Most recently, Rodriguez also claimed he was unaware of the Tallano gold myth that had made rounds on many social media apps and websites. The myth claims the gold is now with the Marcos family and will be distributed to Filipinos if Marcos Jr. is elected president –  Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>#FactsFirstPH research,2022 PH Elections – News,2022 PH vice presidential race,2022 Philippine Elections,digital forensics,Disinformation,Facebook,Ferdinand Marcos Jr.,Networked propaganda,Sara Duterte,social media platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The story is not the ‘hack’; it’s the propaganda</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/plus-membership-program/exclusive-content/story-not-comelec-hack-propaganda/</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44575.41666666666</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Because this is the Philippines, we really shouldn’t think that the official election period would usher in quietly, with a curtain raiser, a calendar story of sorts, doing the trick. The election period started on Sunday, January 9, exactly four months before election day. True enough, even before the week is over, the newsroom has had to be sharper and more discerning in our treatment of several stories. Hello again! I’m Miriam Grace A. Go, the investigative and research head at Rappler. I also set the agenda for our #PHVote coverage. And here I’d like to share how, just as soon as the election period kicked off, we were reminded that the responsible thing for us to do is to not add to the noise and the murk that intensify during this politically-charged season. On Monday afternoon, January 10, the Manila Bulletin ran a story, claiming that the servers of the Commission on Elections (Comelec) were hacked, and that the data downloaded included “information that could affect 2022 elections.” Normally, when another legitimate news site has an exclusive, Rappler doesn’t mind following up on this and crediting the other publication for being first to break the story. Except this “scoop” raised red flags. Comelec itself pointed out loopholes in the Manila Bulletin report, but I’ll share some more reasons Rappler decided to approach the claim with caution: In 2016, Rappler ran stories about the Comelec’s voters database getting hacked because we were able to confirm it independently, having examined the leaked data ourselves. The hackers responsible for it also came forward . (READ: Experts fear identity theft, scams due to Comelec leak ) This time around, with only screenshots available as alleged proof, we agreed with our head of digital strategy Gemma Bagayaua-Mendoza , who said, “reporting on something like this without verifying independently is irresponsible.” This is the link to our story in 2016 where we examined the leaked data. Our report then was not based only on screenshots because reporting on something like this without verifying independently is irresponsible. @paterno_II  https://t.co/5b430LJRWH  https://t.co/3m2NIKrxI7 Besides, the timing of the supposed bombshell was curious, when the spotlight was on Marcos failing – refusing? – to appear before the Comelec to answer petitions to cancel his candidacy or disqualify him. (In case you didn’t know, his lawyer told an infuriated Commissioner Rowena Ganzon that Marcos couldn’t show himself even for a moment in a Zoom hearing because he feared he might spread the virus to other people. Thus, the trending #Zoomicron.) Referring to the hack, Comelec spokesman James Jimenez said: “Because the information was very suss from the very beginning, hindi naman puwedeng basta-bastang dambahan iyong information nila (it’s not right that we just accept their information hook, line, and sinker).” Still, journalists, election watchdogs, and voters themselves should be on the lookout for indications of the election system having vulnerabilities. Or, sometimes, it’s not even the system flaws but how the slightest indication of these are used to feed disinformation. Clearly, there’s another aspect of campaigns and elections that responsible citizens should be watching: propaganda. It spells the difference between informed voters and blind followers, between a credible exercise and one weakened by lingering doubts. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022 PH Elections - News,2022 Philippine Elections,Comelec,Networked propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[ANALYSIS] Viber: The next frontier for political propaganda in the Philippines?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/analysis-viber-next-frontier-political-propaganda-philippines/</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44549.49818287037</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. As is well-known, Facebook is widely used across Southeast Asia, especially in the Philippines, where 99% of internet users have Facebook accounts and 98% use Facebook Messenger , mostly to communicate with family and friends. In comparison, the use of the messaging app Viber is very low – only 5% of internet users use it. However, Viber use is rapidly growing in the Philippines and with it, its political significance grows, too. The Propaganda Lab at the Center for Media Engagement at UT Austin conducted 21 interviews in the Philippines, Indonesia, Myanmar, and Ukraine , and found that Viber is being used for the spread of political propaganda in the Philippines in particular . While Facebook remains widely used for propaganda in Indonesia, for instance, our interviewees in the Philippines articulated that Viber has been “invaded” by Duterte’s government. So, will Viber be the next hotbed of disinformation or misinformation exploited by an authoritarian leader? Disinformation and political propaganda are rampant on Facebook across Southeast Asia but similar phenomena on encrypted messaging applications (EMAs) are underexplored. Apps that use end-to-end encryption (E2E), which tout that only the sender and receiver can see what messages say, are growingly popular across the globe . Troublingly, they are increasingly becoming spaces for mis- and disinformation just like “traditional” social media. They have even led violence to erupt in the offline world, such as mob lynchings in India after disinformation spread on WhatsApp , and played a role in anti-democratic movements, such as the Capitol riot in the United States . The emerging use of Viber, an app that offers E2E in 1-on-1 and group chats (though not in channels or communities) , looks like the next frontier for political propaganda and disinformation in the Philippines and Southeast Asia writ large. For instance, representatives from the Presidential Communications Operations Office interviewed by us explained that the government established Viber groups that include over two million users to distribute information from the government to Filipinos. In addition to government announcements, these groups serve as an avenue to encourage support for President Duterte on a platform that is sure to reach a widespread audience. According to two representatives from the communications office, their goal is to make the president visible – even “ubiquitous.” They aim to make content as entertaining as possible, tailored specifically to younger audiences. One example is sticker campaigns. Graphic designers in the communications department have designed sticker packs with President Duterte’s image paired with politically motivated phrases – people in his office would call this increasing support, but a cybersecurity strategist we spoke to (who is also a former politician), called these “Duterte ads.” He considered these strategies to be more than just spreading presidential news – he explicitly called it “propaganda.” In addition to calculated strategies like sticker packs, government officials thoughtfully select which platforms to engage on as well. “We use Facebook Messenger to blast information to the public.” Although they “try to blast it on all platforms,” they particularly aim to target young folks (millennials and younger) through emerging platforms like TikTok and Viber. This is strategic – the number of TikTok users in the Philippines is increasing , just like Viber. “Filipinos want to go to social media as an escape,” one of the officials told us, “so you must package your content in the most entertaining and trendiest way possible to relate, especially to the millennials.” Their strategies are deliberately coordinated in order to reach the most emerging users. The representatives we spoke to were adamant that such content was not pushed by trolls. “For us, social media is just an additional task of our public information officers.” In fact, a main part of their job description includes content creation and social media management. The creation of in-house social media teams signals how vital social media has become for the Duterte regime. “We don’t hire external outfits or groups to run our social media,” they told us. However, while the people we spoke with who work in Duterte’s communications office would (and did) vehemently deny the use of troll farms, it has been exposed in investigative reporting and academic work alike . The use of Viber differs greatly across different cultures and countries. In Myanmar, for instance, it’s not widely used, and in Indonesia WhatsApp reigns. In general, EMAs are often used to connect individuals into small groups from families to community social groups; with the unintended side effect, however that – “lots of disinformation spreads between family and friends,” as a cybersecurity strategist told us. Hence the additional question arises if Viber will not only be the next outlet for disinformation in the Philippines but also co-opted by troll farms. One man we spoke to in Indonesia (we would refer to him as a troll, but they call themselves “buzzers”) told us about his strategies for political propaganda on traditional social media like Facebook and YouTube: he and his team each run 50 or more accounts, orchestrating fake arguments between the accounts about political candidates. Ultimately, all of the “people” (fake accounts) concede and support the candidate the buzzer/troll was hired to increase support for. This strategy, he told us, is not possible on EMAs. However, he and other interviewees explained that by pushing out positive information about one candidate and negative disinformation about the other, they can still affect public opinion and likely, elections. Ultimately our research has discovered that EMAs are falling prey to exploitation just as other social media sites have. However, there is another side to this challenge, namely the receptiveness and potential engagements of EMA users to disinformation and propaganda. In the Philippines in particular, citizens have been trying to push back against an authoritarian leader – so while online spaces such as Viber and TikTok present opportunities for state actors to manipulate young folks, who are allegedly especially at risk for believing fake news , this research also wants to highlight the opportunities for pushback. For example, EMAs are useful to communicate in private and mock government propaganda or engage in fact-checking to expose government propaganda. For this, researchers must keep a finger on the pulse of disinformation campaigns on emerging platforms since actors, such as the Filipino government, adapt to the ever-changing social media trends for their own goals. – Rappler.com Katlyn Glover is a researcher and graduate student at the Propaganda Lab at the Center for Media Engagement at the University of Texas at Austin, where she researches disinformation and political propaganda on emerging technologies. Zelly Martin Geurink is a researcher and PhD student at the Propaganda Lab at the Center for Media Engagement at the University of Texas at Austin, where she researches disinformation and political propaganda, especially as they pertain to women. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Disinformation,mobile phone technologies,social media platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>New war: How the propaganda network shifted from targeting 'addicts' to activists</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/how-propaganda-network-created-online-environment-justifies-shifted-killing-activists/</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44472.02684027778</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Zara Alvarez served as a human rights defender and paralegal in the Negros islands for Karapatan for more than a decade. She worked tirelessly despite threats and intimidation in a province that’s been witness to decades of war between state forces and insurgents. Alvarez would see her face on posters linking her to the communist underground and she was, in fact, imprisoned for two years. Nothing prepared her for the bloody Duterte years. In 2018, Alvarez was one of 600 activists tagged as terrorists by the Department of Justice. What followed was persistent red-tagging and harassment – she got attacked online and was constantly followed while she worked. Two years later, in August 2020, while walking in the streets of Bacolod City, unidentified men shot Alvarez dead. She was 39. The story of Alvarez illustrates the direct connection between information operations online and physical attacks, a rehash of the government’s war on drugs where supposed drug users and dealers are demonized online to justify attacks against them in the real world. Rappler’s research team found out that from drug war narratives, the focus of government’s coordinated online propaganda network has shifted to red-tagging, which lumps activists with terrorists and turns the communist insurgency into a problem that’s bigger than what it really is. President Rodrigo Duterte himself has enabled this through his speeches and policies. It’s worth noting that prior to the government’s attacks on the Left, Duterte was friends with them for decades – since he was mayor of Davao. The national democratic movement backed his presidential bid in 2016, and after his election, Duterte appointed prominent leftist leaders to his Cabinet. He reopened peace negotiations with the National Democratic Front and declared the longest ceasefire with communist insurgents in three decades. But the talks eventually broke down, as the military gained ascendancy in the Duterte government. By the end of 2017, Duterte’s administration sought to tag more than 600 activists and members of the Communist Party of the Philippines (CPP) as “terrorists.” The list included alleged CPP chairman Benito Tiamzon, Anakpawis chairman Randall Echanis (who would be killed in his home in 2020), ex-Bayan Muna representative Satur Ocampo, and hundreds of John Does . (READ: “ The end of the affair? Duterte’s romance with the Reds ”) To track red-tagging narratives online from January 2016 to August 2021, Rappler used an initial dataset of posts attacking progressive groups and activists on Facebook, plotted an initial roster of red-tagging entities, and used natural language processing to identify keywords commonly associated with the term. These include keywords like “NPA,” “Left Activists,” and “CPP.” The graph above shows a timeline of posts with mentions of keywords typically used for red-tagging from 2016 to 2020. While there have been posts in 2016 and 2017 about the insurgency and military propaganda against the Left, information operations intensified in 2018, when it became clear that the Duterte government was abandoning a negotiated settlement of the insurgency and implementing a militarist approach to crush the guerrillas and their supposed front organizations. In November 2018, for instance, Duterte signed Memorandum 32 that deployed more soldiers and cops in the Negros islands , Samar, and Bicol – known insurgency hotbeds. That same month, Alvarez and the rest of Karapatan-Negros lost a colleague with the murder of human rights lawyer Benjamin Ramos in Kabankalan City. Ramos would be among the first of many Karapatan members and lawyers who would be murdered under the Duterte administration. The following month, in December 2018, the Duterte administration issued an executive order creating a national task force to address the causes of armed conflict with communists at the local level. This task force came to be known as the National Task Force to End Local Communist Armed Conflict (NTF-ELCAC), the main counter-insurgency vehicle that brings together all government agencies for one goal: crush the communists by the time Duterte ends his term in June 2022. “ Doon nagsimula ang malalagim na araw namin (That was when our bloodiest days started),” Clarizza Singson of Karapatan-Negros said as she recounted the incidents between the Sagay massacre in October to the police operations in Guihulngan City in December 2018. Singson had worked with Alvarez for almost a decade before the latter was killed in 2020. These attacks, particularly against Karapatan members, come not as a surprise, considering that the Duterte government and the Philippine military believe that human rights groups are front organizations of the armed movement. As Rappler’s scan showed, the government’s campaign against insurgents was complemented by increased activity online. The biggest surge in red-tagging posts was observed in 2020, as the government deliberated on, and eventually adopted, the Anti-Terrorism Act of 2020 or the Anti-Terror Law . The network map above shows Facebook pages and groups amplifying content related to red-tagging and activism. Pages and groups cluster together when they share content from the same sources. The cluster in blue is the main cluster – mainly pushing out harmful red-tagging content and anti-activist propaganda. Note how the clusters became denser starting in 2018, caused by the increased connectedness of the nodes, showing increased networked behavior. Using natural language processing, we looked at the general themes pushed out by the main red-tagging cluster. The narratives pushed out by the main red-tagging cluster show a focus on creating an enabling environment for violence where activists are painted as “terrorists” and the communist insurgency is a problem bigger than what it is. The tactic is reminiscent of the propaganda playbook for the Duterte administration’s brutal war on drugs and how it justified the killings of alleged drug pushers. (READ: [OPINION] First they came for the pushers and addicts. Now, the Leftists ) While the scan also spotted the usual news reports on civilian-military operations, the bulk of the posts used hateful and harmful language targeting activists and progressive groups. These groups were also frequently tagged as legal fronts of the communist New People’s Army (NPA). Even following her death, Alvarez was not spared from false claims that tagged her as part of the armed movement. Some posts even claimed that the NPA killed her so they could put the “blame [on] the government.” This claim was even echoed by NTF-ELCAC’s former spokesperson Antonio Parlade when he said in a statemen t, posted on NTF-ELCAC’s official Facebook page , that Alvarez “joined the NPA for two years until 2015.” Previous investigations by Rappler show similar demonizing language from dubious, anonymously-managed pages known for perpetuating lies and for red-tagging individuals and groups, amplified by police pages and accounts. (READ: With anti-terror law, police-sponsored hate and disinformation even more dangerous ) Organizations with top mentions in the scan include progressive groups like Bayan Muna, Makabayan, Gabriela, League of Filipino Students (LFS), and Karapatan. There were also significant mentions of state universities like the University of the Philippines (UP) and the Polytechnic University of the Philippines (PUP), which are accused of being “recruitment grounds” for rebels, and a nest for activists-turned-terrorists. On the other hand, groups like the Liberal Party and the CBCP tend to be accused of defending and coddling “terrorists.” Threats and red-tagging often target big progressive voices in Congress, like Kabataan Partylist Representative Sarah Elago and Bayan Muna Representative Carlos Zarate. Akbayan Senator Risa Hontiveros was also often called out for her alleged silence on crimes committed by the NPA. High-profile activists like former Bayan Muna representative Teddy Casiño, as well as celebrity-turned-activist Angel Locsin, were also often targeted and linked to the NPAs. No less than Parlade himself alleged that Locsin’s sister is an NPA – a claim Locsin has consistently denied. And aside from military and NTF-ELCAC spokespersons, the propaganda network would quote “ex-rebels” in their propaganda and red-tagging. These “ex-rebels” are often used to “expose” how rebel recruitment is done in schools, and to supposedly unmask activists who are allegedly members of the armed rebellion. While all these are happening online, activists who are not as popular as the targets of the online information operations are being killed on the ground. Taking from the same tokhang playbook, some police operations that targeted grassroots organizers and local leaders of progressive groups resulted in “ nanlaban” deaths. This included the “bloody Sunday” operations in Calabarzon in March 2021 that left nine activists dead. “ Sanay na kami sa death threat kasi minsan three times a day. Minsan once a week. Minsan once a month…Pero syempre hindi ‘yun empty threats. Pinapatay at namamatay mga kasama ko ,” Singson said. (We are used to death threats. Sometimes, we get it three times a day. Sometimes, once a week or once a month. But these threats are not empty threats. My colleagues are being killed and have been killed.) According to her, they were subjected to surveillance, trumped-up cases, arrests, raids, direct threats, and other forms of harassment. Since Duterte became president in 2016, at least 16 Karapatan members have been killed. They have adjusted by strengthening their security protocols and learning how surveillance works. They employed a buddy system, changed their schedules, and avoided going outside their homes during the day. In Singson’s case, they went as far as abandoning their home and uprooting her whole family – her two young sons included – to live in rented apartments. The slain Alvarez experienced close surveillance. According to Singson, unidentified individuals would openly follow and take photos of her even in public spaces. The necessary adjustments and new security measures disrupted their lives. The tactic of using the drug war playbook against activists seemed to have worked as well. Singson said the way they hid and protected themselves felt like they were being hunted as criminals. “Yung mga bata ayaw namin isubject sa ganung buhay na nanonormalize ang fear, terror, at killings… Para kaming wanted criminal. Daig pa namin ang wanted criminal,” Singson added. (We don’t want to subject the kids to that kind of life where fear, terror, and killings are normalized. We were like wanted criminals.) When Alvarez was gunned down, Singson and her other colleagues in the province received messages from anonymous perpetrators: “You’re next.” Singson fought back against the kind of attacks they experienced. She filed a case at the cybercrime division of the National Bureau of Investigation to track those who, on her Facebook account, threatened to have her head severed. She took screenshots and printed out all the hate messages and death threats she received. But nothing came out of it. According to her, the cybercrime division concluded that the accounts used to attack her were hacked and that was the end of the story. Rappler’s network analysis showed that the online narratives are seeded through a mix of old and new bloggers and “alternative” news sources, with different clusters focused on either funneling to the general public (through hyperlocal and political pages), or niche but engaged communities (e.g., military, police, and their supporters), which become vectors for distribution. At the center of the campaign is the official Facebook page of NTF-ELCAC. Content from other state media like the Philippine News Agency and PTV is also often pushed to spread red-tagging narratives. Previous Rappler investigation has documented how official government platforms, including the hugely-funded NTF-ELCAC , were being used to attack and red-tag local media. (READ: Gov’t platforms being used to attack, red-tag media ) SMNI News, the broadcasting arm of Filipino televangelist and pro-Duterte church leader Pastor Apollo C. Quiboloy, has also been an active source of news content related to the communist rebellion, often shared by the red-tagging cluster. Official military channels are also among top content creators amplified by the cluster, such as the official Civil Relations Service Armed Forces of the Philippines. Army officer Colonel Harold Cabunoc’s Facebook page is also among the most active in creating military and anti-insurgency propaganda. The colonel has also had a history of red-tagging online , and has also been red-tagging slain activists. Other pages shown to be actively pushing out military propaganda are IDOL KU ‘TO, LAMRAG SINIRANGAN, and Pinoy Red Watch. “Alternative” news sources were also actively being funneled by the cluster, including websites pinaslatestnews.xyz, and socialnewstrendph.xqz. These websites post “news” content related to communists, and “report” about government propaganda against activists and progressive groups. Other pages often amplified by the main cluster include known propaganda pages Mocha Uson Blog and VovPH . Content from these sources is shared in hundreds of Facebook pages and groups, mostly political but also including community and interest hubs, with captions that actively call out activists as terrorists, and highlight the narratives identified above. While the main cluster effectively distributes these content to the general public, other clusters showed similar content, also mostly coming from “alternative” news websites and “news aggregators” that are funneled into Facebook groups with special interest in military and anti-insurgency activities, such as Team AFP, Philippine Armed Forces, and the “CITIZENS ANTI-DRUGS CRIMES AND CORRUPTION OF THE PHILS.” While the online and on-the-ground attacks were public and blatant,  support for human rights and progressive groups was muted online. Karapatan secretary-general Cristina Palabay claimed their network and community continuously expanded since 2018 when the attacks against them and other progressive groups increased. “Sa international, after the NTF-ELCAC, dumami rin ang kaibigan namin,” Palabay said. (In the international scene, after the creation of NTF-ELCAC, we gained a lot of supporters.) But this widespread support and network group has yet to translate online. In the digital space, their stories are often told exclusively by select media and the network of progressive groups and human rights activists. The network map above shows the network of pages and groups that amplified content with mentions of 16 Karapatan members killed during the Duterte administration. While progressive groups have their own network of pages and distribution channels, as seen above, they are small in comparison to the red-tagging and propaganda network. In the visualization below, we compare the amplifying agents (Facebook pages and groups sharing their content) of NTF-ELCAC and progressive group Karapatan, as captured by Rappler’s SharkTank in 2020. The two entities were chosen because they were the most distributed content sources for government propaganda and in conversations on activists killed. The scan showed a huge difference in the size of the networks that amplify both channels – painting a picture of an environment where stories of slain activists like Alvarez remain within the echo chambers of other activists online and are effectively drowned out by government propaganda that blurs the lines between activism and terrorism. What makes this enabling online environment more dangerous is how it reinforces the lack of public accountability for the harassment and killings of human rights workers, lawyers, and activists. It also further weakens mechanisms that are supposed to protect individuals who are already vulnerable to attacks such as Alvarez, who asked the Supreme Court for protective writs because she was being harassed. She died before the court came up with a decision on her appeal. – Rappler.com Data visualizations by Akira Medina, Dylan Salcedo How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>activist groups in PH,Disinformation,Facebook,human rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Investigating troll farms: What to look out for</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/iq/investigating-troll-farms-what-to-look-out-for/</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44394.04302083333</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Shutterstock What do people need to watch out for when investigating troll operations? Twelve Philippine senators recently filed a resolution, seeking an investigation into reports that public funds are being used for troll farms. Senate Resolution 768 says Filipinos should know why the national government focuses on spending money on these operations rather than on pressing issues, such as COVID-19 assistance, healthcare, food security, jobs protection, and education. The senators who signed the resolution are Senate President Vicente Sotto III, Senate President Pro Tempore Ralph Recto, Senate Minority Leader Franklin Drilon, and senators Francis Pangilinan, Nancy Binay, Leila de Lima, Richard Gordon, Risa Hontiveros, Panfilo Lacson, Manny Pacquiao, Grace Poe, and Joel Villanueva. Troll farms, the spread of disinformation, and the weaponization of social media are not new to Filipinos. Social media was a key factor in Rodrigo Duterte’s victory in the 2016 presidential polls, and international experts have dubbed the Philippines as “ patient  zero ” when it comes to digital disinformation. The Philippines ranked first in the world for time spent using social media in 2021 , according to We Are Social and Hootsuite’s annual report . This marks the sixth consecutive year the country received this ranking. The senators said the rise in social media and internet usage paved the way for the propagation of internet trolls. If senators will investigate these online operations that spread lies, hate, and disinformation, then here are some of the questions they should ask. What better way to mobilize troll armies than by tapping influential figures or people in positions of power for wider reach? One way the Duterte administration harnesses support for the President is by legitimizing vitriolic attacks on its critics in a bid to control online sentiment. High-profile pro-Duterte propagandists , including Mocha Uson and RJ Nieto , were given government positions or were hired as consultants using public funds. In 2020, Facebook also removed a network of accounts using false identities and which were found to have links to the Philippine military or police . With the anti-terror law , these accounts had been spreading lies and hate against perceived enemies of the State. Celebrities have also been found to be spreading propaganda and fake news, lending legitimacy to questionable sites and fake networks. However, beyond identifying the operators behind these networks, investigators need to ensure these people are held to account. In 2019, Facebook took down a network of accounts that were engaged in inauthentic behavior, and this was traced to Nic Gabunada, Duterte’s social media manager in his 2016 presidential campaign. In June 2021, he was hired by the Department of Finance as a communications strategy consultant. The subject as well as the target of troll army operations can provide more leads on the people behind them. The United States-based network analysis firm Graphika found that the pages involved in Gabunada’s fake network – unsurprisingly – spread pro-government content as well as conspiracy theories about political opponents. In a separate report, Graphika found that a Chinese fake account network had a significant focus on Senator Imee Marcos . Rappler also previously reported on other fake networks supporting the Marcos family , and how widespread disinformation on the Marcoses has attempted to rewrite Philippine history. Most recently, information crowdsourced by Rappler showed Facebook pages and groups as well as Twitter accounts with large followings were renamed to promote potential candidates for 2022. The reports show the practice benefits mostly allies of President Duterte, including his daughter Davao City Mayor Sara Duterte, Cabinet Secretary Karlo Nograles, and Taguig City 1st District Representative Alan Peter Cayetano. The top social media platforms in the Philippines are YouTube, Facebook, Instagram, Twitter, and TikTok. Any of these platforms can be a possible battleground for disinformation operations, especially as the 2022 elections approach. Unclear policies on YouTube , the country’s most popular platform, have resulted in an abundance of false claims on the platform. Videos on Marcos gold claims as well as misleading videos by pro-Duterte vloggers are very common on YouTube. Facebook’s third party fact-checking program does not stop misinformation and disinformation from spreading on its chat app, Messenger. Private messages and channels allow false posts to spread undetected by the platform. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Democracy &amp; Disinformation,Networked propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>How Vietnam's 'influencer' army wages information warfare on Facebook</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/technology/features/vietnam-influencer-army-force-47-information-warfare-facebook/</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44389.34663194444</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. FORCE 47. Sen Hồng or Pink Lotus is among the 'Force 47' state propaganda pages in Vietnam Gelo Gonzales/Rappler In Vietnam, where the state is fighting a fierce online battle against political dissent, social media “influencers” are more likely to be soldiers than celebrities. Force 47, as the Vietnamese army’s online information warfare unit is known, consists of thousands of soldiers who, in addition to their normal duties, are tasked with setting up, moderating and posting on pro-state Facebook groups, to correct “wrong views” online. According to a Reuters review of provincial-level state media reports and broadcasts by the army’s official television station, Force 47 has since its inception in 2016 set up hundreds of Facebook groups and pages, and published thousands of pro-government articles and posts. Social media researchers say the group may be the largest and most sophisticated influence network in Southeast Asia. And it is now playing a prominent role in the country’s intensifying conflict with Facebook. After being approached by Reuters this week, a Facebook source said the company had removed a group called “E47”, which had mobilized both military and non-military members to report posts they did not like to Facebook in an effort to have them taken down. The source said the group was connected to a list of Force 47 groups identified by Reuters. A Facebook spokesperson confirmed that some groups and accounts were taken down on Thursday for “coordinating attempts to mass report content.” A company source said the action was one of Facebook’s largest takedowns initiated under its mass reporting policy. But many of the Force 47 accounts and groups identified by Reuters remain active. Since they are operated by users under their real names, they do not violate Facebook policies, the company source said. Vietnam’s foreign ministry, which handles enquiries to the government from foreign media, did not immediately respond to a request for comment on the takedown. Unlike in neighboring China, Facebook is not blocked in Vietnam, where it has 60 million to 70 million users. It is Vietnam’s main platform for e-commerce and generates around $1 billion in annual revenue for the company. It has also become the main platform for political dissent, launching Facebook and the government into a constant tussle over the removal of content deemed to be “anti-state.” Vietnam has undergone sweeping economic reforms and social change in recent decades, but the ruling Communist Party retains a tight grip over media and tolerates little dissent. Last year, Vietnam slowed traffic on Facebook’s local servers to a crawl until it agreed to significantly increase the censorship of political content in Vietnam. Months later, authorities threatened to shut down Facebook in Vietnam entirely if it did not locally restrict access to more content. In a statement to Reuters, a Facebook spokesperson said the company’s goal was to keep its services in Vietnam online “for as many people as possible to express themselves, connect with friends and run their business.” “We’ve been open and transparent about our decisions in response to the rapid rise in attempts to block our services in Vietnam,” the spokesperson said. Vietnam does not have the wherewithal to sustain a Chinese-style “Great Firewall” and develop local social media alternatives, said Dien Luong, a visiting fellow at the ISEAS-Yusof Ishak Institute in Singapore. “This has paved the way for Facebook to become the platform of choice for Force 47 to safeguard the party line, shape public opinion and spread state propaganda.” There is no official definition of what constitutes a “wrong view” in Vietnam. But activists, journalists, bloggers and – increasingly  –  Facebook users, have all received hefty jail terms in recent years for spreading “anti-state propaganda”, or opinions which counter those promoted by the Party. Last week, Le Van Dung, a prominent activist who regularly broadcasts live to thousands of followers on Facebook, was arrested after more than a month on the run, according to a police statement. Dung, who goes by “Le Dung Vova” was detained on charges of “making, storing, spreading information, materials and items for the purpose of opposing the state,” under Article 117 of Vietnam’s Penal Code. He faces up to 20 years in prison if found guilty. Force 47 takes its name from Directive 47, a policy document issued by the army’s General Political Department on January 8, 2016. Analysts say it was created as an alternative to hiring civilian “opinion shapers” – or “du luan vien” – that had operated on a smaller, less successful scale. “Since the ‘du luan vien’ were not as well trained in Party ideology or as conservative as military officials, their performance was not as good as expected,” said Nguyen The Phuong, a researcher at the Saigon Center for International Studies. “Force 47 is also less costly. Military officials consider it part of their job and don’t ask for an allowance.” The size of Force 47 is not clear, but in 2017, the general in charge of the unit at the time, Nguyen Trong Nghia, said it had 10,000 “red and competent” members. The true number could be much higher: the Reuters review of known Force 47 Facebook groups showed tens of thousands of users. The Facebook source said the E47 group it had taken action against was made up of an active membership of military and non-military members. Nghia now heads the main propaganda arm of the Party. Vietnam’s information ministry recently promulgated a social media code of conduct that closely resembles Force 47 directives, urging people to post about “good deeds” and banning anything that affects “the interests of the state.” In March, conferences were held at military bases across Vietnam to mark five years since the creation of Force 47. State media reports about the meetings named at least 15 Facebook pages and groups it said were controlled by Force 47 which collectively had over 300,000 followers, according to a Reuters analysis of those groups. Rather than being a single army unit, Force 47 soldiers appear to carry out their activities alongside their usual duties and create locally targeted content, the reports revealed. In addition to Facebook, Force 47 creates anonymous Gmail and Yahoo email addresses, and accounts on Google’s YouTube and Twitter, according to the reports. YouTube said it had terminated nine channels on Friday for violating its policies on spam, including a channel identified by Reuters as a suspected Force 47 operation. Twitter said it had not seen any activity by Force 47. Many of the Facebook groups reviewed by Reuters played on patriotic sentiments with names such as “I love the Socialist Republic of Vietnam”, “Vietnam in my Heart”, “Voice of the Fatherland” and “Believe in the Party”. Some groups, such as “Keeping company with Force 47” and “Roses of Force 47” were obvious in their affiliation, while others – such as “Pink Lotus” and a few groups that used the names of local towns in their titles – were more subtle. The posts varied in content, with many extolling Vietnam’s army, founding leader Ho Chi Minh, or Party chief Nguyen Phu Trong. Others showed screenshots of “wrong information” posted by other Facebook users, marked with a large red “X”. “These developments unfolding in Vietnam are scary and have expanded with impunity,” said Dhevy Sivaprakasam, Asia-Pacific policy counsel at internet rights group Access Now. “We are witnessing the creation of a reality where people are not safe to speak freely online, and where there’s no concept of individual privacy.” – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Disinformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Duterte wants vaccine deniers arrested | Evening wRap</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/june-22-2021-evening-edition/</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44369.56296296296</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Today on Rappler – the latest news in the Philippines and around the world: President Rodrigo Duterte on Monday, June 21, threatens to arrest Filipinos who refuse to get vaccinated. President Rodrigo Duterte calls the International Criminal Court ‘bullshit,’ a week after the body’s chief prosecutor recommended opening a formal investigation into his drug war. The Department of Finance defends its hiring of Nicanor Gabunada Jr., a public relations practitioner tagged by Facebook as the operator behind a fake news, pro-Duterte propaganda network. Hong Kong leader Carrie Lam hits back against critics of the Chinese territory’s attacks against pro-democracy tabloid Apple Daily. The future looks bright for the all-cadet Gilas Pilipinas after it wraps up the FIBA Asia Cup Qualifiers without a loss. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>COVID-19 vaccines,Department of Finance,FIBA Asia Cup,Hong Kong,Hong Kong Security Law,International Criminal Court,Networked propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The fake social media accounts amplifying Chinese propaganda</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/technology/features/pro-china-fake-social-media-accounts-coda-story/</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44340.38846064815</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Teona Tsintsadze for Coda Story An army of suspicious “super-spreader” social media accounts stationed around the world is helping Chinese diplomats amplify the country’s perspective on current events, according to a new investigation. The findings of seven months of research were published in a study by the Oxford Internet Institute last week, analyzing every tweet and Facebook post by Chinese diplomats and 10 of the nation’s largest state-controlled media outlets between June 2020 and January 2021. The researchers examined 189 accounts attributed to China’s embassies, ambassadors, consuls, and other embassy staff. It discovered an extraordinarily high level of engagement on social media: Chinese diplomats tweeted 201,382 times, averaging 778 times a day for a nine-month period. Their posts were liked nearly seven million times and retweeted 1.3 million times. Many of the shared posts helped amplify content from China’s state-backed media, enabling the diplomats to act as bridges between state media and local communities. The investigation has also found evidence showing that social media audiences engage with Chinese diplomatic Twitter accounts in large numbers. Chinese diplomatic accounts were retweeted more than 735,664 times between June 2020 and January 2021. Moreover, this engagement is dominated by a small number of “super-spreader” accounts, which rapidly engage with content posted by Chinese diplomats. At least 270 Chinese envoys in 126 countries are active on Twitter and Facebook. In a separate collaboration with the Associated Press, Oxford Internet Institute researchers uncovered evidence of a pro-China amplification machine based in the U.K., with a coordinated inauthentic network of 62 accounts dedicated to promoting content by Chinese diplomats stationed in London. Between June 2020 and January 2021, it accounted for nearly half of all retweets of China’s ambassador to the U.K. “The network nearly doubled the ambassador’s retweet counts, lending him a false sense of popularity and artificial support, which may make his positions seem more credible,” said Marcel Schliebs, the report’s lead researcher. Many of the accounts impersonate British citizens by claiming they support football clubs in London or Manchester, and frequently use language suggesting they are U.K.-based. While some accounts showed obvious signs of coordination, the researchers said they could not definitively conclude whether the 62 in question were controlled by one or more operators. While Twitter last year disclosed the takedown of nearly 29,000 accounts linked to a China-backed information campaign between August 2019 and June 2020, the process can take months. “Twitter should establish clear criteria of what constitutes coordinated inauthentic behavior and monitor accounts with suspicious engagement more closely,” said Schliebs. In response to the Associated Press findings, the Chinese embassy in London said it was aware of concerns about posting on Twitter. “If it is against the rules of social media to retweet the Chinese embassy’s tweets, then shouldn’t these rules be more applicable to retweets of malicious rumours, smears and false information against China? We hope relevant companies will not adopt double standards,” it said in a statement. – Rappler.com Ramsha Jahangir is an award-winning journalist at Pakistan’s DAWN newspaper. She covers technology, human rights, disinformation and digital politics. This article has been republished from Coda Story with permission. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WATCH: How the propaganda machine took a beating when #OustDuterteNow trended</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/video-how-propaganda-machine-took-beating-oust-duterte-trended/</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44041.41827546297</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Analysts say the Duterte administration’s response to the raging health crisis carries a high political cost. The outbreak hits several of the President’s main constituencies in both the middle class and overseas Filipino workers. Ateneo School of Government Dean Ronald Mendoza says that if government is unable to respond effectively, “we may witness change in political support.” Another analyst, University of the Philippines political science professor Ela Atienza, says Duterte and his team may have touted the war on drugs, massive infrastructure programs, and development in regions outside Metro Manila as legacies of his administration, but it’s clear the pandemic “has changed the agenda for the rest of his term.” Watch this video and find out how Rappler documented the beating that the propaganda machine took at the hands of unaligned, unpoliticized individuals. Data shows the #OustDuterteNow trend was largely organic and participatory, with little signs of manipulation or coordination. This pointed to a groundswell of negative public sentiments against the President’s handling of the crisis. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Duterte Year 4,Rodrigo Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Duterte’s troll armies drown out COVID-19 dissent in the Philippines</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/technology/features/philippine-troll-armies-coda-story/</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44034.33354166667</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Visuals by Sofiya Viznaya for Coda Story On a sweltering Monday morning in Manila, Nic Gabunada is sitting at his laptop, working from home. Gabunada is a former CEO of Omnicom Media Group Philippines and currently executive director of his own communications and marketing company. Before this, he served for two years as the head of President Rodrigo Duterte’s social media team and played an integral part of his 2016 election campaign. In March 2019, Gabunada was linked to a network of 200 pages removed by Facebook for “coordinated inauthentic behaviour.” This opaque charge is most commonly levelled by the company at foreign influence and troll campaigns. So far, Gabunada is the only individual to have ever been named by the platform as the organizer of such an operation. Despite the actions against his network, Gabunada’s methods have changed politics in the Philippines, where troll farms continue to churn out pro-government messages and attack opposition figures. What is more, Gabunada believes that global platforms face a losing battle in trying to stem the spread of fake news. “No one can control what people can say on social media,” he told me, during a telephone conversation. This is a particular concern during a global health crisis. As Covid-19 has rampaged across the globe, so too have anti-science narratives and conspiracy theories related to the virus. The Philippines has reported 21,895 confirmed cases of coronavirus and 1,003 deaths, so far. The government’s handling of the situation has split the population and online discourse has become increasingly heated, with wild accusations and threats of violence made, often using troll accounts. “Right now in the Philippines – we see offensive posts from both sides,” said Gabunada, referring to the deluge of relentless vitriol raging between pro and anti-Duterte supporters on various social media platforms on a daily basis. “There are newly created accounts on Facebook and Twitter participating in the exchange around the government’s Covid-19 response, but they still belong to one of two sides of the debate – anti or pro.” Amidst one of the longest lockdowns in the world, Gabunada, like many of Manila’s 12.5 million inhabitants, watches all of this from home quarantine. As a healthy distraction, he has taken up kitchen gardening, growing vegetables at home. As the coronavirus continues to plague the Philippines – the country’s health ministry recently reported its fifth straight day of over a thousand infections – the government has moved to silence all criticism. A new anti-terrorism bill which took effect last week has been singled out by rights groups who say it could give the president unprecedented power to target dissent rather than terrorism. The bill permits warrantless arrests and allows authorities to detain individuals for weeks without charge, surveillance for up to 90 days and mandates punishment as severe as lifetime imprisonment without parole. At least nine petitions to revoke parts or the entirety of the law have been filed in the supreme court. The new legislation follows a crackdown on the media’s ability to report on the government. In June, Maria Ressa, founder and executive editor of the news website Rappler, and a former colleague were convicted of cyber libel over a 2012 story that alleged drugs and human trafficking links between a businessman and a top judge by a court in Manila, a charge that they both deny. Both have been fined $8,000 and could now face up to six years in prison. Against this backdrop of repression, Duterte and his administration freely spread political and medical disinformation to Filipino citizens. In early February, the country recorded the first Covid-19 death outside China. The president’s reaction was to hold a press briefing, in which he assured everyone that the pandemic would “die a natural death, even without vaccines.” The following month, however, he delivered an impromptu national address, in which he told police to kill quarantine violators. “My orders to the police and military,” he said, “If there is trouble or the situation arises where your life’s on the line, shoot them dead.” As the crisis has played out, social media posts in support of his confused approach have become increasingly visible. Twitter accounts have been posting pro-Duterte propaganda, including lauding him for his “humility, respect, and gratefulness” and praising the anti-terrorism bill . While many of the tweets appear to be the product of troll operations or bots, Gabunada maintains that the proliferation of pro-government social media hashtags are from legitimate supporters of Duterte. “It is the nature of social media to encourage sharing of opinions and messages,” he said, by way of explanation. However, in April, Twitter suspended hundreds of accounts tweeting under specific hashtags defending the Philippine government’s response to the coronavirus pandemic . According to the Washington Post, the accounts were “posting duplicate content across multiple accounts, creating duplicate or multiple accounts, and sending large numbers of unsolicited replies or mentions.” Most of the accounts posting pro-Duterte hashtags had “suspicious elements” such as bot-like numbers on Twitter account names and few followers. Many users were also new, with the accounts created in March or April. Earlier this month, Facebook released a statement, saying that it was looking into “reports of suspicious activity” in the Philippines, after students, journalists and opposition figures found a deluge of impostor accounts made under their names prompting an investigation by government agencies. While the imposter accounts have yet to publish any posts, opposition senator Francis Pangilinan said he suspected the accounts targeted those who oppose Duterte’s anti-terror bill. The weaponizing of social media can be traced back to the election in 2016. A 2017 Oxford University study found that Duterte spent $200,000 to hire up to 500 trolls during his presidential campaign the previous year. His social media strategy was overseen by Gabunada, who was working as a private contractor. According to Gabunada, Facebook became a cheap and convenient vehicle for the Duterte campaign when the platform struck deals with local cellular operators, making it free to use in the Philippines for anyone with a smartphone. Now, the Philippines has become home to hundreds of troll farms. In March, Reporters Without Borders released a study that explained how supporters of the president acting as “cyber-troll armies” are using “call center hubs” to disseminate “fake or maliciously edited content” and to conduct “targeted harassment campaigns” against opposition figures. A NATO report published earlier this year found that troll farm employees can earn up to $1,000 per month working on political campaigns. The average monthly salary in the Philippines is $278 per month. In an effort to maintain distance from political figures and parties, these operations are also run by private contractors hired by political candidates. But Gabunada says that the 2016 campaign also saw the rise of an online army made up of genuine Duterte supporters. “At the end of the day, you wanted to convert people into campaigners and voters. Fake accounts can’t vote and paid trolls may not necessarily be there when a campaign needs to mobilize them,” he explained. “We organized a network of volunteers to campaign and then we programmed a series of messages to post and amplify on social media accounts. We communicated with these organized groups and encouraged them to create their own Facebook groups and pages – all carrying the Duterte messages and getting as many within their circle to join them.” Pro-Duterte troll farms have lately come up against a growing number of fact-checking groups and ordinary Filipinos dedicated to debunking misleading claims. Jecon Dreisbach, 24, is a former volunteer at a fact-checking organization named the Consortium of Democracy and Disinformation. Today, he works as an independent researcher and educator, specializing in issues of nationalism, politics and the media. One of the biggest fake stories he has recently uncovered involved an April 2020 report by the Philippine News Agency that claimed “80% of Filipinos are satisfied with the government’s response to Covid-19.” The piece cited a survey conducted by a fake polling company based in Bulgaria. Vietnam is economically less-fortunate than the Philippines. Yet, they didn't enforce oppressive policies. What did they do? Enforce public health drives such as coming up with free disinfectants for everyone, among other things. Life went on. Dito? De facto martial law. For their efforts, activists such as Dreisbach frequently become the targets of coordinated online harassment campaigns. “Whenever my criticisms of Duterte go viral, I get trolled,” he said. One notable post threatened Dreisbach with a lawsuit, stating that his fact-checking work was “instigating people to overthrow the government during a state of public emergency.” Matagal ko nang alam na iyong posts ko ay archived na sa pro-Duterte (Youth) Google drive. Kung may mangyari man sa akin, hanapin niyo ako sa lahat ng kampo ng pulis at militar. Hindi ako natatakot sa inyo. Patuloy kong ipaglalaban ang mga pinahirapan at ginutom ng rehimeng ito. pic.twitter.com/dwk4QaH4rF And that is not the worst of it. On May 13, a Duterte supporter posted a tweet threatening to cut off the head of journalist Barnaby Lo. Lo notified the Philippines’ National Bureau of Investigation, but so far the case has not been pursued. While acknowledging that the Philippines is “at a critical juncture in its political history,” Dreisbach remains surprisingly stoic. “It is my constitutional right to express my opinions against the Duterte regime,” he told me. To everyone who stood up for me after someone threatened to cut my head off… The NBI did respond, but said they’re busy w/ child cybersex cases now. I also got a half-apology👇. I realized there are bigger injustices, so I’ve decided not to pursue my complaint. Thanks guys! https://t.co/NK58w3nUqU  pic.twitter.com/hArnQnkjPU Dreisbach also believes that the tide is turning. He largely attributes this change to the government’s handling of the coronavirus and its aggressive use of online platforms to spread misinformation and silence opposition voices. “I am hopeful that Filipinos will be more critical of the policies and disinformation propaganda implemented by the regime,” he said. “Duterte may take advantage of the vulnerabilities we experience in this pandemic to advance his authoritarian desires, but the sovereign Filipino people will march for their fundamental human rights and justice.” – Rappler.com Lynzy Billing is a journalist and photographer based between Afghanistan and the Philippines.  This article has been republished from Coda Story with permission.  How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Networked propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gov’t platforms being used to attack, red-tag media</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/260602-government-platforms-being-used-attack-red-tag-media/</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>43963.20050925926</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supposedly at the helm of the Presidential Task Force on Media Security, the PCOO reposts misleading content against media from an anti-communist government page     MANILA, Philippines – Official Facebook pages of the Duterte government shared content that targeted local media just a week after the celebration of 2020 World Press Freedom Day. But this is not the first time verified government pages have done this.  On May 8, the Facebook page of National Task Force to End Local Communist Armed Conflict (NTF-ELCAC) posted a series of infographics that incorrectly said media giant ABS-CBN’s franchise was not renewed because “they have issues with the law.” (READ:   EXPLAINER: FICTAP Issues vs ABS-CBN’s franchise renewal   )   A few hours later, it shared another post that accused Rappler CEO Maria Ressa of spreading "fake news" in her interview with ABC News where she mistakenly said that ABS-CBN has 11 million workers instead of 11,000. Ressa   explained that it was a slip of the tongue: "my mind raced ahead to the market cap ... which was in hundreds of millions of dollars."  She   apologized   for the error. (READ:   NTF-ELCAC 'black propaganda' vs Maria Ressa, ABS-CBN sparks outrage   )   NTF-ELCAC’s posts were shared by the verified pages of the Presidential Communications Operations Office (PCOO) and Radio Television Malacañang (RTVM) just hours after they were posted.  Journalists, academics, and media groups condemned this behavior and called it “black propaganda offensive.” They said it's an abuse of authority on the part of NTF-ELCAC that willfully endangers ABS-CBN's workforce and Ressa. (READ: Media, academics condemn NTF-ELCAC's attacks vs ABS-CBN and Maria Ressa ) This also shows how government is using its platforms, massive resources, and public funds to hit back at critics and perceived enemies.  ‘Crossposting’ of content   By sharing NTF-ELCAC’s posts against ABS-CBN and Ressa, PCOO and RTVM amplified its reach from thousands to millions. More importantly, it linked legitimate concerns regarding press freedom in the Philippines with the government's war against communist rebels.   The NTF-ELCAC page has 25,246 followers and 23,779 likes as of writing. In comparison, the official PCOO page has over 2.1 million followers and 1.7 million likes, while RTVM has 239,000 followers and 159,000 likes.   Though the posts against ABS-CBN and Ressa have since been taken down by the 3 pages, the government has yet to apologize for the incident. The attacks by these government pages have already spread and done damage difficult to rectify.  On May 9, both Presidential Spokesperson Harry Roque and PCOO Secretary Martin Andanar disowned NTF-ELCAC’s posts and said that it was not the official position of their offices.  Like the Office of Presidential Spokesperson (OPS) and PCOO, the NTF-ELCAC is under the Office of the President. It also has a member from the PCOO: Undersecretary Lorraine Badoy, who serves as its spokesperson.  Outspoken against Duterte critics, Badoy previously called research outfit Ibon Foundation a communist front and tagged a number of activists as ranking members of the CPP-NPA-NDFP . She had been previously called out for posting inaccurate claims on her social media accounts. On May 11, following a backlash, Andanar released Department Order No. 20-009 which limits crossposting , or sharing other pages’ content, on the PCOO Facebook page. The department order said that only the livestreams of news events and briefings of President Rodrigo Duterte, Chief Legal Counsel Salvador Panelo, Roque, and its attached media agencies shall be crossposted on the PCOO page. Andanar also said they have identified the individual who crossposted NTF-ELCAC’s content on PCOO’s page but did not name who was responsible. He vowed proper action will be taken and that the office will “uphold accountability on matters like this in order to minimize such unfortunate instances from happening again in the future.” In the past, the official pages of PCOO, RTVM, and NTF-ELCAC had repeatedly amplified each other’s posts. When sharing each other's content, these 3 pages always crossposted within the same day they were originally posted.  From July 2018 up to April 2020, these 3 pages shared each other’s content at least 35 times – not including the posts that have been taken down. RTVM posts were shared the most by the two pages.           Meanwhile, RTVM and PCOO just started sharing NTF-ELCAC’s posts fairly recently – starting in April 2020. Out of the 4 crossposted content from NTF-ELCAC, two mentioned a media organization.   The first one called out Inquirer.net for allegedly publishing a story that “misleads the public,” while the other post shared photos of online news magazine Pinoy Weekly and tagged it as “propaganda materials.” NTF-ELCAC shared on April 20 both posts about the   arrest of Anakpawis volunteers   while they were on the way to a relief operation in Norzagaray, Bulacan.  The table does not include the posts against ABS-CBN and Ressa because they were already taken down as of writing. However, based on screenshots, it was also evident that both PCOO and RTVM shared NTF-ELCAC’s posts within 24 hours.     Screenshots from PCOO and RTVM Facebook page  Red-tagging, disinformation   NTF-ELCAC was established through Duterte’s   Executive Order (EO) No. 70   . The task force “aims to implement an efficient mechanism and structure for the whole-of-nation approach to realize the aspiration of the Filipino people to attain inclusive and sustainable peace.”   The Facebook page of NTF-ELCAC was created on November 4, 2019. Its posts vary – from government advisories, anti-communist advisories, and Duterte administration accomplishments, to warnings against the spreading of false information on social media.   In May 2020, however, it started posting content against the renewal of the ABS-CBN franchise. When asked why an anti-communist task force was posting content about ABS-CBN, it claimed that the issue is being used by the Left “to sow chaos and agitate and divide the Filipino people,” PCOO Undersecretary Badoy said.  The Supreme Court defined red-tagging as “the act of labeling, branding, naming and accusing individuals and/or organizations of being left-leaning, subversives, communists or terrorists (used as) a strategy…by State agents, particularly law enforcement agencies and the military, against those perceived to be ‘threats’ or ‘enemies of the State.’” (READ: Lives in danger as red-tagging campaign intensifies ) Using data captured by Sharktank, Rappler’s own social media monitoring tool, we found that the posts of NTF-ELCAC were also often amplified by pages known to post content that red-tags progressive groups and individuals. The visualization below shows how NTF-ELCAC is connected to the Facebook pages and groups that systematically share each other's content. (NTF-ELCAC is the red node at the lower right side.)  If an arrow from node A points to node B, it means node B shared content posted by node A. The bigger the node and the circle, the more engagements it received within the network. Sharktank identified two amplifiers of NTF-ELCAC’s posts that had previously shared content linking individuals and groups to communist organizations in the country: WeSupportAFP and PNP.TagapagUgnay (PNP Police Community Relations Group-PULISerbis). These pages shared NTF-ELCAC’s posts at least thrice from July 1, 2019 to April 22, 2020. These pages are connected to an even larger network of accounts that systematically propagate each other's content. Click on the circles to see each channel’s name, URL, and how they are connected to other channels. Rappler fact checked a post originally published by PNP.TagapagUgnay, a page officially operated by the Philippine National Police (PNP), which falsely claimed that Kabataan Partylist representative Sarah Elago called for people power in relation to the enhanced community quarantine in late April 2020. The page has since deleted the post. The PNP said it will investigate the matter but has yet to give an update on the investigation. Other pages within this network also published this false claim.  Meanwhile, NTF-ELCAC often shared content from other official government websites such as PNA and PIA. It also amplified posts of the Facebook page of the National Security Council and Kalinaw News, the Facebook page of the Philippine Army’s online news platform.   The latest   State of Media Freedom in PH   report from the Freedom for Media, Freedom for All (FMFA) Network said red-tagging is one of the tactics used by the Duterte administration to stifle the media.   FMFA’s report explained that on the ground, the National Intelligence Coordinating Agency has been holding forums for members of the community media in regions where journalists were “compelled” to sign off to a “Manifesto of Commitment” to declare their support for the implementation of Duterte’s EO No. 70.   If they declined, the report said, it would have been seen as an act of defiance. (READ:   Press freedom takes a hit in PH during coronavirus pandemic   )  There had been incidents, too, where members of the media were publicly linked to the Communist Party of the Philippines (CPP), the New People’s Army (NPA), or the National Democratic Front (NDF). (READ:  Altermidya correspondent, 4 human rights leaders arrested in Tacloban  )  On January 25, NTF-ELCAC posted a quote card of Badoy linking columnist Tonyo Cruz to the CPP-NPA-NDF. The quote was lifted from an article she wrote for PNA that was published the same day.   A history of attacks against media  The PCOO is supposed to be at the helm of the Presidential Task Force on Media Security, a task force mandated to ensure the safety of journalists in the country. But NTF-ELCAC’s posts were not the first time a government agency used its official platforms to target members of the media.  In 2017, the official Facebook page of the Office of the Presidential Spokesperson (OPS)   posted a negative comment   targeting journalists during a livestream of a briefing attended by media.    Screenshot of OPS statement   The comment, which insulted a certain Pia (not clear whether Rappler’s Pia Rañada or ABS-CBN’s Pia Gutierrez) and Lourd Devera (Lourd de Veyra) was later taken down. Malacañang said the comment was posted by someone no longer connected with the OPS, but it did not apologize for the incident. (READ:   Presidential Spokesman Facebook account posts troll-like comment   )   In 2019, blogger Mark Lopez   went on Radio Pilipinas   , a radio station owned by the Philippine Broadcasting Service under the Presidential Communications Group, to call for a protest against Rappler.   Mocha Uson, who has been appointed twice by Duterte – as PCOO assistant secretary in 2017 and again as deputy executive director of the Overseas Workers Welfare Administration in 2019 – has also repeatedly used her platform to push negative posts about the media.   Uson was the first to aggressively push the term “presstitute,” a derogatory term for members of the media who are critical of Duterte. Uson’s page has millions of followers. (READ:   Press freedom after 2 years of Duterte   )   Worrisome state of press freedom   In 2020, the Philippines ranked two places lower at 136th out of 180 countries on the Reporters Without Borders' (RSF)   World Press Freedom Index   .   The report said two factors that pushed down the country’s rank was its state troll armies that   weaponize disinformation   on social media, and its intolerance of critical journalism. (READ:   Philippines slips 2 places in World Press Freedom Index   )   Intimidation, arrests, and murders of journalists in the country have also remained rampant, according to   FMFA’s report   . From January 1, 2019 to April 30, 2020, there were 61 reported incidents of threats and attacks against the media, including 3 journalists who were killed. Thirty of the 61 incidents were allegedly done by state agents.   When state powers wage a propaganda offensive against members of the media, this stifles the people’s right to a free press, which, in turn, threatens a working democracy.  – with Gemma Bagayaua-Mendoza and Loreben Tuquero/Rappler.com  </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Coronavirus response: Online outrage drowns out Duterte propaganda machine</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/coronavirus-response-online-outrage-drowns-duterte-propaganda-machine/</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>43945.38333333333</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Against the royal blue and rich red of the Philippine flag, President Rodrigo Duterte stood behind a podium bearing the presidential seal, eyes focused on the camera as its lens zoomed in slowly, closing in for a tighter shot. Frustrated over the events that took place on April 1 in Quezon City, a sudden announcement was given at past 9:30 pm, that the Chief Executive was to give a speech. Less than 10 minutes after the notice was sent to media, Duterte appeared on Filipinos’ screens to deliver a stern warning. A furious Duterte said he would not hesitate to take action following the arrest of 21 Quezon City residents who were apprehended for demanding government help and protesting without a permit. The protest, which Duterte accused lefitst group Kadamay of instigating, had manifested weeks of mounting desperation spurred by the government’s slow response to aid residents who were left hungry and out of work due to the lockdown in Luzon. Lashing out at the Left, the President warned they would be detained. Then he took it a notch up. “ I will not hesitate. My orders are sa pulis, pati military, pati mga barangay na pagka ginulo at nagkaroon ng okasyon na lumaban at ang buhay ninyo ay nalagay sa alanganin, shoot them dead ,” he said. “ Naintindihan ninyo? Patay. Eh kaysa mag-gulo kayo diyan, eh ‘di ilibing ko na kay o,” Duterte said. (I will not hesitate. My orders are to the police and military, also the barangay, that if there is trouble or the situation arises that people fight and your lives are on the line, shoot them dead. Do you understand? Dead. Instead of causing trouble, I’ll send you to the grave.) Outrage over Duterte’s remarks was swift. Social media timelines flooded with users who were shocked and angered over the President’s remarks, calling for his ouster. By his next address two days later on April 3, Duterte claimed he hadn’t issued a “shoot to kill” order. “ I never said in public shoot to kill, period. Sinabi ko…if you think that your life is in danger, maging biyuda ang asawa mo na maganda, mag-asawa uli, at ang mga anak mo mawalaan ng tatay, ‘pag tiningnan mo na delikado ang buhay mo, patay, unahan mo na, patayin mo ,” he said. (I never said shoot to kill, period. I said…if you think that your life is in danger, your beautiful wife will become a widow, marry again, and your children will become fatherless, if you think your life is at stake, kill, go ahead, kill them.) He then directly addressed the calls for his ouster. “ Bakit pa ako magpayag na magbarilan tayo? Kaya ganun. Huwag na ‘yang ‘Oust Duterte’ na mga fake news ,” he said. (Why would I allow us to shoot one another? So there. Never mind that ‘Oust Duterte’ that’s fake news.) But by then, widespread online protest had already taken place. Outrage over Duterte’s remarks were widespread with #OustDuterteNow trending worldwide with almost 500,000 tweets. To see how the public responded to the President’s speeches online, Rappler’s data team collected a sample of 15,000 tweets with mentions of Duterte and related words from March 30 to April 2, 2020, and clustered these according to topic using natural language processing. Compounded with analysis from US-based Graphika that dove into the specific hashtags that trended, the data shows that these critical movements were not only large but organic – flooding out even the administration’s supporters known for their coordinated campaigns to mob critics and whitewash the government’s lapses on social media. While critical tweets against Duterte and his administration peaked on April 1, frustrations were already boiling from March 30, when he addressed the nation to give updates on the government’s COVID-19 response. It was the first Monday after Duterte signed a law granting himself special powers to contain the spread of the virus. Filipinos were told to expect a message from the President tentatively set at 4 pm. Filipinos waited for an hour, and then another, and then 5 more. It was past 11 pm when Duterte’s message went live on their screens. “ May mga doktor na, mga nurses, attendants, namatay. Sila ‘yung nasawi ang buhay para lang makatulong sa kapwa. Napakasuwerte nila. Namatay sila para sa bayan ,” Duterte said early into his pre-recorded address. (There are doctors, nurses, attendants who died. They were the ones who died helping others. They are so lucky. They died for the country.) The statement, intended to praise health workers who have risked their lives, quickly drew backlash both online and in the front lines of the outbreak. Doctors, nurses, and health workers did not need the sort of “praise” from the President, Mikey*, a doctor at a coronavirus designated hospital told Rappler. “I’m doing this because it is my duty, but I did not sign up to die,” she said. “I don’t want to die.” Online, Duterte’s remarks drew fierce criticism with many users pointing out doctors died due to inadequate protection and the government’s failure to provide life-saving protective equipment early on in the outbreak. Like other speeches, the President’s remarks targeted critics and focused on threats, instead of facts and concrete plans on the outbreak. Filipinos once again took to social media to express their anger at the government’s handling of the crisis. Rappler found that the two speeches on March 30 and April 1 made for the core of online conversations on Duterte. Tweets were largely critical of the Duterte administration, with the one of the largest clusters hitting the President’s remarks on how health workers are “lucky to die” for the country. Filipino Twitter called the President out, saying he “should not romanticize their deaths” and that the remarks were “insensitive” to medical workers who risked their lives. On the sidelines are criticisms on other fronts. As early as 6 pm on March 30, #DuterteStandardTime trended on Philippine Twitter as people waited for the Duterte speech broadcast 7 hours late. Online users criticized his tardiness at such a crucial time, calling it a trend for the President. “As both head of state and head of government, the President is expected to not only provide direction and lead government but also provide a sense of unity among citizens, particularly during periods of crisis,” University of the Philippines Political Science professor Ela Atienza said. She added, “Unfortunately, President Duterte’s statements, timing of public statements, and style of delivery have not provided reassurance and trust in government.” Public sentiment manifested this as others online also criticized the lack of concrete plans in his speeches. With Filipinos halfway into the lockdown first set to end on April 12, the public demanded clearer directions from the government on what to do and expect. (Duterte later extended the lockdown until April 30 and then again to May 15 for certain areas , including Metro Manila.) Conversations were also dedicated to calls for greater transparency on the breakdown for the P275-billion response fund related to the Bayanihan law. Aside from these topics, the bulk of the 15,000 tweets sampled that centered on Duterte consisted of general reactions to his speech and mostly of people cursing the President and the government, accusing the administration of being “incompetent.” The day’s events on March 30 catalyzed reactions on social media. By April 1, public outrage against Duterte and his administration peaked after he ordered cops and soldiers to “shoot dead” people who broke quarantine protocols. The timing of it could not have been worse. Duterte’s words, delivered during an impromptu televised message on April 1, came hours after the National Bureau of Investigation (NBI) summoned the popular Pasig City Mayor Vico Sotto for a possible violation of the Bayanihan Act, the law which granted Duterte special powers. The NBI did not disclose which specific Pasig policy was under investigation. Sotto had earlier appealed to Malacañang if he could allow tricycles to operate in his city to ferry frontliners and people with emergencies – a pitch that several executive officials rejected. The incident followed with Duterte scolding local government units, warning them to “ stand down ” and abide by orders issued by his office and the government’s coronavirus task force. While the President made no direct mention of Sotto, conversations had related the two incidents to one another. This triggered widespread protests online, with #ProtectVico trending on Twitter (the second time the hashtag trended within two weeks), condemning the government for politicizing response to the crisis. By the time Duterte delivered his April 1 speech, public sentiment against him pushed to a tipping point: #OustDuterteNow trended worldwide on Twitter at 9 pm – the same hour his speech took place – generating almost 500,000 tweets. Analysis by Graphika showed that #OustDuterteNow was a largely organic movement, with little signs of manipulation. Their mapping of the hashtag below shows a wide range of interest groups engaging with the hashtag, with the majority of these segments being largely non-political and clustered instead on entertainment and cultural topics. Among accounts that engaged in discussion critical of Duterte were users from various interest groups like Philippine K-pop, celebrity fan groups, LGBT groups, western pop celebrities, and Philippine culture, celebrities, music. Others that participated were from the Philippine opposition and activists. This suggested a wider online dissatisfaction with Duterte beyond the usual online activists. Atienza said widespread public frustration seen on social media may be because unlike other issues that have hounded Duterte’s administration – such as the drug war or his preference for warmer ties with China – the coronavirus outbreak affects each Filipino. “The pandemic affects everyone, or at least threatens everyone, not just a sector of the population. The threat of the pandemic is so real that there is a feeling of urgency and greater demand for government to act fast and be accountable,” Atienza said. Yet despite this, according to Atienza, Duterte and other government officials have been unable to foster a sense of unity. In response, Filipinos who have increasingly turned to social media during the lockdown took to speaking out against Duterte and his administration. The rather sparse and more loosely connected map (shown below) reflects the traction of #OustDuterte among users grouped by interest on Twitter. The majority of the map showed conversations consisted largely of entertainment and cultural interest segments that lack the density typically observed in politically coordinated accounts. This was evidence that politically focused groups did not appear to be the main organizing force behind the campaign. Ateneo School of Government Dean Ronald Mendoza said public frustration seen in online discussions reflected how the government’s weaknesses were made more obvious during the coronavirus crisis. “Crises test the government’s ability to facilitate collective action (even across its own line agencies) typically exposing the lingering need to boost whole-of-government response capabilities,” Mendoza said. He added, “The government’s seeming insensitivity to the realities of ordinary working citizens who were quarantined, combined with delayed plans to provide income support… all may have also exacerbated the sense that government was insensitive and disconnected from reality.” The sense of frustration and Filipinos’ apprehension over uncertainty brought by the pandemic drowned out any response that attempted to express support for the government’s response. Meanwhile, Graphika’s analysis also showed that about 80% of the accounts that participated in discussion critical of Duterte have more than 100 followers and over 60% of these accounts produced just one tweet using #OustDuterte. The most shared tweets using #OustDuterte also did not originate from influential or celebrity accounts but were posts from seemingly normal users that went viral. About 80% of the accounts that used the hashtag have more than 100 followers and over 60% of accounts produced just one tweet using #OustDuterte. Data showed the #OustDuterteNow trend was largely organic and participatory with little signs of manipulation or coordination. This pointed to a groundswell of negative public sentiments against the President’s handling of the crisis, with users who typically did not discuss politics joining in on these conversations. Signs that propaganda tactics were failing were seen in mid-March when discontent online began to stir. Duterte’s supporters tried several times to resort to old efforts of drowning conversations with praises of the President and mobbing perceived enemies on social media. But these were shut down by angry Filipinos. In fact, at the peak of the online outrage against Duterte, #IStandWithThePresident also trended online, generating more than 130,000 tweets at its height (including tweets that mocked the hashtag). This, however, was largely drowned out by #OustDuterteNow. Another attempt to push out messages against those critical of the administration also contributed to the build up of public frustration by April. On March 18, administration officials and supporters blasted Sotto for allowing tricycle drivers to operate while Luzon was on lockdown. This included blogger-propagandist Mocha Uson who called Sotto “ pabebe ” (childish) on her Facebook page. Uson’s page has a following of some 5 million users. This was in keeping with the type of systematic and sustained response seen in the past 3 years against journalists and critics of the President: officials around Duterte hit perceived critics on the ground, while online supporters pounded them en masse. This time around, however, this attempt was not met with the usual silence. #ProtectVico quickly trended online, generating over 37,000 tweets from almost 22,900 users. It then snowballed into an online campaign targeting Mocha Uson, with users encouraging everyone to report her blog on Facebook in an attempt to close it down. On March 20, her Facebook page became unavailable . People speculated that she might have deactivated the page herself. In celebration, #MochaUsonIsOverParty trended on Twitter, with 24,000 tweets from over 11,800 distinct accounts. Campaigners then started targeting other blogs notorious for spreading pro-Duterte propaganda, such as Crabbler, Mark Lopez, and Mr Riyoh. Like #OustDuterteNow, the data suggests that #ProtectVico and #MochaUsonIsOverParty was largely organic with little signs of manipulation. Over 80% of the accounts have between 100-1,000 followers and over 65% of accounts produced just one tweet using either (or possibly both) combination of hashtags. This laid the groundwork for widespread dissatisfaction seen online on April 1. The most retweeted tweets to feature either hashtag were in support of Sotto’s actions to control the COVID-19 outbreak or were used to counter criticism from blogger Mocha Uson. Some users went as far as requesting social media administrators to suspend her accounts. These posts were popular across all groups including both the culture and entertainment segments critical of Duterte – the same ones that participated in the bulk of conversations on April 1. Later on April 10, Twitter “hundreds of accounts” tweeting under specific hashtags meant to defend the Philippine government response to the coronavirus pandemic. An email from Twitter to The Washington Post , said the accounts in question violated Twitter’s policies against platform manipulation and spamming. This includes posting duplicate content across multiple accounts, making duplicate or multiple accounts, and sending a large number of unsolicited replies or mentions. The Washington Post  report noted that hashtags in support of Duterte followed after public outcry over government actions against the poor during the coronavirus quarantine. These hashtags included #IStandWithThePresident and #YesToABSCBNShutdown. The mass takedown by Twitter was part of a wider effort of other social media platforms to get rid of accounts that spread disinformation during the pandemic. It’s also the first announced case of Twitter actually taking down a network connected to the propaganda machine. When it came to the Duterte administration’s handling of the outbreak – genuine online users drowned out propaganda tactics. As the coronavirus pandemic rages, political analysts say the outbreak may be Duterte’s biggest test yet. Now more than ever, Filipinos are demanding transparency and accountability in government’s response. The stakes are high as missteps in government’s response could mean the loss of lives due to the disease. For Mendoza, the crisis carries a high political cost for Duterte as the outbreak hits several of his main constituencies in both the middle class and overseas Filipino workers. “If government is unable to respond effectively to mitigate the crisis impact, then we may witness change in political support,” he said. According to Atienza, Duterte and his team may have touted the war on drugs, massive infrastructure programs, and development in regions outside Metro Manila as legacies of his administration, but what is clear is the pandemic “has changed the agenda for the rest of his term.” “President Duterte’s leadership style appears not fit for this crisis. This is a different kind of crisis that requires reliance on experts and stakeholders as well as making sure people are involved and not left behind,” she added. “Whether he likes it or not, he will now be judged based on what he and his administration had done and did not do during the pandemic,” Atienza said. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Networked propaganda,Rodrigo Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Government offensive: Info operations attack media to manage SEA Games PR crisis</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/246186-government-offensive-info-operations-attack-media-manage-pr-crisis-sea-games-2019/</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>43801.58028935185</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">From #Seagames2019fail to #Seagamesnotafailure – Rappler maps how the conversations on the SEA Games pan out on social media By Don Kevin Hapal  Published 9:55 PM, December 02, 2019 </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Networked propaganda: False narratives from the Marcos arsenal</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/245540-networked-propaganda-false-narratives-from-the-marcos-arsenal/</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>43791.46261574074</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conclusion: For the Marcos comeback playbook, facts don't matter  READ: Part 1 | Networked Propaganda: How the Marcoses are using social media to reclaim Malacañang    READ: Part 2 | Networked Propaganda: How the Marcoses are rewriting history    MANILA, Philippines – “Perception is real, the truth is not.” Imelda Marcos said this in a recently released documentary, The Kingmaker . This seems to be the ethos of the Marcos comeback playbook. Beyond justifying the family’s wealth and denying massive corruption during the Martial Law period, the Marcos propaganda network focused its energies on hyping up “achievements” of the Martial Law regime, denying abuses, and vilifying rivals. The facts don't matter. “Achievements” were either exaggerated or manufactured. That these were not previously reported on were explained as being the fault of “biased” media, which supposedly kept the information “hidden” from the public.  Exaggerated achievements  Much of the content touting the supposed “achievements” of the Ferdinand Marcos presidency were copied and reposted over and over like chainmail. The lists typically included a litany of infrastructure projects that the Marcoses built. Such lists included a combination of true and many false and misleading claims. For instance, it's not true that Marcos built the first airport in Asia. Further, Ninoy Aquino International Airport, the country’s main airport and formerly known as the Manila International Airport, had already existed before Marcos took office.    Often reiterated and rehashed was the claim that the Philippines was the "richest country in Asia" during the Marcos years. It never was. The peso-dollar exchange rate during that time supposedly stood at P1.50-P2 to the dollar . This is not true. Official data from the Bangko Sentral ng Pilipinas (BSP) showed the Philippine peso was already valued at P3.91 per dollar when Marcos came into power in 1965. By the time he was ousted in 1986, one dollar was equivalent to P20.46 – depreciating by 423.46%.  Even foreign-funded programs were touted as Marcos achievements. These included supplemental feeding programs such as the nutribun and bulgur for students in public elementary schools. Bulgur grains and the ingredients for nutribun were actually supplied by the United States Agency for International Development (USAID) as part of its Food for Peace Program.  False dichotomy  Reviving the Marcos name came at the expense of the family’s nemesis, the family of the late senator Benigno "Ninoy" Aquino Jr and the press. In a bid to proclaim Marcos as the “best president” the Philippines ever had, weaponized memes framed the narrative as a Marcos vs Aquino play. Some went as far as claiming that the “dilawans” have been in power for the past 30 years.      This is misleading at best. When the Marcos dictatorship fell in 1986 due to the EDSA People Power revolt, Aquino’s widow, Corazon “Cory” Cojuangco Aquino assumed the presidency. Fast forward to 2016, another Aquino was the outgoing president – Benigno Simeon Aquino III, the only son of Ninoy and Cory. Three presidents served in office in between the tenure of the two Aquinos: Fidel Ramos, Joseph Estrada, and Gloria Macapagal Arroyo. Of all the post-EDSA presidents, the longest serving was Arroyo, who assumed part of the remaining term of Estrada after the latter was ousted in 2001, and got elected for another 6 years. Memetic propaganda essentially erased or disregarded achievements and economic growth that happened during the tenure not just by the Aquinos, but of all post-EDSA presidents combined. Ironically, all the 3 other presidents – Ramos, Estrada and Arroyo – supported the bid of Rodrigo Duterte for the presidency in 2016.  'Hidden' history  “Hidden history” and the “biased” press, according to the narrative, were also to blame for unknown or “unreported” sins of the Aquino family. One of the charges leveled against the Aquinos pertained to Hacienda Luisita, which was exempted from the Comprehensive Agrarian Reform Program enacted during Cory Aquino’s term. While this claim is rooted in real events, the way it is presented is misleading. The Hacienda Luisita case got a lot coverage from mainstream media. One claim that was widely circulated by one of the pro-Marcos Duterte propagandists was that the Central Intelligence Agency (CIA) of the United States supposedly "revealed" recently that Cory Aquino requested the US for airstrikes against Filipinos in 1989. This was misleading. While Cory did ask for US air support during the 1989 coup d’etat, these requests were not hidden or "recently revealed." They were headlined in major local and international publications at the time.       Some of these claims bordered on the ridiculous. A popular claim that Rappler spotted more than once was that Ninoy Aquino was a naturalized Malaysian citizen and that he was carrying both a Filipino and a Malaysian passport when he died. There is no proof that this ever happened. Malaysia was officially recognized as a sovereign country only in 1957. The naturalization law of Malaysia also requires an individual born outside Malaysia to have resided in the country for at least 10 years to acquire citizenship. Aquino, who was born in 1932, would have had to fulfill this requirement to gain citizenship. Another claim that went viral said that Cory wore Imelda Marcos’ necklace , which has allegedly been missing from the collection of the Presidential Commission on Good Government. Others said Kris Aquino, and even former chief justice Maria Lourdes Sereno wore the necklace. None of these were true. Nevertheless, these claims got thousands of shares on social media.  Lying about Martial law abuses  This is not to say that all the false narratives about the late dictator or the Martial Law era came from the Marcoses themselves. They persisted, some historians said, because the family never publicly denied them. In fact, the Marcoses also made their own false claims about the period.   MARTIAL LAW. Ex-senator Bongbong Marcos interviews ex-defense minister and Senate president Juan Ponce Enrile. Screenshots from Bongbong's YouTube account  On September 20 and 21, 2018, the 46th anniversary of the declaration of Martial Law, Bongbong sat down with former Marcos defense minister Juan Ponce Enrile to talk about his father's 20-year rule. Rappler debunked 3 of Enrile’s false claims from their conversation: that the Marcos government only executed one person, that there were no massacres, and that the Jabidah massacre was a mere invention. (READ: LIST: False claims of Juan Ponce Enrile on Martial Law ) In a radio interview in January, Imee Marcos claimed that she was a minor during the Martial Law period. As such, she said, she could not admit guilt over the events that happened during that time. Again, this was a lie. Imee was about to turn 17 when her father declared Martial Law, which means she was no longer a minor for 13 out of 14 years of Martial Law. The list of lies and misleading claims continue to this day. And for the Marcoses, the playbook appears to be working. In May 2019, despite being exposed by most of mainstream media for lying about her academic achievements, Imee Marcos won a seat in the Philippine Senate. – with Vernise Tantuco /Rappler.com  </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Networked Propaganda: How the Marcoses are rewriting history</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/245402-networked-propaganda-marcoses-rewriting-history/</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>43790.53876157408</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Part 2: Messages posted on groups and pages monitored by Rappler's Sharktank typically also glorified the virtues of authoritarian rule  READ: Part 1 | Networked Propaganda: How the Marcoses are using social media to reclaim Malacañang    MANILA, Philippines – From the time Rappler started ramping up its fact-checking efforts, it has spotted hundreds of dubious claims related to the Marcoses and Martial Law on social media. Claims ranged from those that attempted to explain away the Marcos wealth – to those that “exposed” the sins of their nemesis: the family of the late Senator Benigno “Ninoy” Aquino Jr, whose assassination triggered the dictator’s downfall. Apart from attempting to erase the history of abuse and corruption by the Marcoses during the Martial Law years, the claims have  recurring themes. What is often described as "shocking" information is generally portrayed as having been “hidden” from the public by historians and the “biased” press. Messages posted in groups and pages monitored by Rappler's Sharktank typically glorified the virtues of authoritarian rule. To a significant extent, the campaign focused on disputing or revising historical accounts about the Marcoses' ill-gotten wealth. The table below lists pages and groups where dubious claims tracked and fact checked by Rappler's fact check team have been shared. All together, these content generated over a million shares, reactions, and comments on Facebook.       Denying Marcos kleptocracy  One example of this is a claim posted in May 2014, ahead of the 2016 elections, by popular Facebook page Pinoy Rap Radio, which also tried to dispute the truth about the Marcos wealth. If Ferdinand Marcos stole billions from Filipinos, one of the page’s posts argued, why was it that succeeding presidents after him “can not show any proof at all?” The author also claimed that Imelda Marcos, the widow of the dictator, “won every corruption case” that was hurled at her.   Both claims were lies even as authorities have been reluctant to arrest Imelda . In a 2003 ruling, the Philippine Supreme Court forfeited seized Marcos assets after finding that Ferdinand and Imelda Marcos failed to justify the acquisition of their assets which exceeded their salaries as public officials. (For updates on the Marcos cases, read: What's the latest on cases vs Imelda Marcos, family? ) The truth did not stop the post from getting widely circulated on Facebook – it got more than 331,000 shares, more than 38,000 comments, and more than 369,000 reactions before it was finally spotted and fact checked by Rappler on November 15, 2018. Pinoy Rap Radio was not the only viral content page involved. Months after Pinoy Rap Radio’s post denying Marcos’ guilt, various accounts and pages on Facebook reposted the claim. Pages that iterate this same message include Blessed Be Philippines, Team Marcos-The Universal Movement, The Pandora's Box, and Batang Marcos, among others.        Created on October 25, 2016 and among the pages that have repeatedly posted false claims about the Marcos wealth, Batang Marcos is managed by 4 administrators based in Macau, according to its page transparency tab. Among dubious content it posted was a claim about the Tallano royal family of the Maharlika kingdom that supposedly encompassed the entire Philippine archipelago and neighboring countries during the pre-colonial era. The tons of gold allegedly owned by the Marcoses – ranging from fantastic claims of hundreds of thousands of tons to a million tons – were supposedly given by the Tallano family to the Marcoses. This claim is reiterated by Bible-quoting social media influencer Sangkay Janjan, who has posted a number of videos exagerating Marcos achievements and justifying their wealth on his Facebook page and YouTube channel. In one video, Sangkay Janjan even flashes a map of the alleged Maharlika kingdom.    These are all false claims. There is no proof that such a kingdom ever existed , according to historians. Nor is there proof that a royal family named Tallano ever ruled over this kingdom. Even Tadhana: The History of the Filipino , the series of history books that Marcos bylined to herald his New Society, never mentioned Maharlika.  Millions reached, no denials  Altogether, these false claims have logged millions of impressions on Facebook and YouTube. One of the Batang Marcos posts about Maharlika and the Tallanos got as many as 80,000 shares before it got fact checked by Rappler. Sangkay Janjan’s YouTube video with the Maharlika kingdom map has been viewed over a million times. Videos on YouTube that claim the Marcoses own a million tons of gold and that this gold will “save the world” have also gotten over 1 million views as of writing. The number of followers of Facebook pages, groups, influencer accounts, and YouTube channels involved in this massive propaganda effort amount to millions. The people behind these channels appear impervious to fact checks. Pinoy Rap Radio did not respond to Rappler’s requests for an explanation about how they came to their conclusion. After Rappler published its fact check on the Pinoy Rap Radio claim denying Marcos corruption, the page administrators merely deleted the post without issuing corrections. They also deleted similar content posted on their page. Rappler sought to interview Sangkay Janjan about the content he has been posting but he did not agree to an interview. Instead of issuing a correction in relation to a fact check done by Rappler , he defiantly posted a live video further exaggerating Marcos achievements. It does not help that the Marcoses never denied nor commented on these claims. They have not granted Rappler’s request for an interview regarding these false claims and the activities of their campaign team on social media. Imelda herself fanned this myth because she has been featured in interviews talking about the amount of gold her family supposedly owns . The Marcoses and President Duterte have also been saying that the Marcos family intends to give away their wealth without acknowledging the corruption charges.  Vulnerable spot  There could be a method to this madness. Reports about the Marcos wealth obtained illegally or through corruption have been a politically vulnerable spot for the family. Imelda Marcos was convicted of 7 counts of graft in November 2018. In 2003, the Philippine Supreme Court rendered final judgment forfeiting in favor of the Philippine government funds that were recovered from the Marcoses’ Swiss deposits amounting to US$658,175,373.60 as of January 31, 2002.   POST-CONVICTION FREEDOM. File photo of former First Lady and Ilocos Norte Representative Imelda Marcos during a November 16, 2018, hearing at the Sandiganbayan, which granted her bail despite conviction of 7 counts of graft. Photo by Jire Carreon/Rappler The government's petition for forfeiture was granted by the High Court on grounds that the total amount of the Swiss deposits was "considerably out of proportion to the known lawful income of the Marcoses ." Thus, disputing these or revising historical accounts about the Marcos wealth have been integral to the Marcos strategy of strengthening, if not consolidating, political dominance. And it seems that the strategy is working. Two years after the Marcos propaganda campaign ramped up on social media , Bongbong Marcos almost won the vice-presidential race in a very narrow contest. The results are still being contested. (To be concluded) –  with Vernise Tantuco/ Rappler.com     READ: Conclusion | Networked propaganda: False narratives from the Marcos arsenal       Editor's Note:   As a matter of policy, Rappler does not hyperlink to channels and content proven to have been false or which have been used to spread disinformation or misinformation to avoid amplifying these false claims.  </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Networked propaganda: How the Marcoses are using social media to reclaim Malacañang</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/245290-marcos-networked-propaganda-social-media/</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>43789.55070601852</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disinformation, coordinated amplification, use of an extensive network of anonymously-managed pages and groups are part of the Marcos comeback playbook MANILA, Philippines – Massive amounts of propaganda and targeted disinformation produced and amplified by an extensive network of websites, Facebook pages and groups, YouTube channels, and social media influencers appear to be part of a systematic campaign to burnish the image of the Marcoses and pave the way for their further rise in Philippine politics. The content that this network circulated included numerous claims that sought to alter public perception of the Marcoses by either downplaying or outrightly denying kleptocracy and human rights violations during the Martial Law years, exaggerating Marcos achievements, and vilifying critics, rivals, and mainstream media. Many of these claims have since been debunked and proven to be false. A number of pages and accounts that are part of this network have also been taken down by Facebook for posting "spammy content" and  "coordinated inauthentic behavior." The campaign ramped up two years ahead of the 2016 elections and continues to produce and amplify content on a scale that rivals the volume of content circulated by mainstream media groups to date. It involves a network of Marcos and Duterte fan pages and groups, meme and viral content pages, pages circulating claims of allegedly “hidden facts” in Philippine history, and pages attacking and undermining mainstream media. Personal accounts and pages managed by key social media influencers known for staunchly defending President Duterte and his administration’s policies also took part in the campaign. The pages and groups involved were observed to be systematically sharing and amplifying each other’s content, along with content from known pro-Duterte and pro-Marcos social media influencers. Made with Flourish  Fan pages &amp; groups  The campaign ramp up included the creation of hundreds of fan groups and pages supporting the Marcos family. As of September 5, 2019, the Sharktank, a Rappler database, has tracked over 360 pages and over 280 groups supporting the family – whether it’s now-senator Imee Marcos, Ferdinand “Bongbong” Marcos Jr, their late father, or family matriarch Imelda Marcos. (The Sharktank is a Rappler database built to monitor Philippine conversation channels within Facebook – through public pages, public groups, and publicly available posts.) The graph below shows the dates the pages were activated based on the first post from these pages that the Sharktank spotted. Made with Flourish On the other hand, the graph below shows the dates when groups were activated based on the first post from these pages that the Sharktank spotted. Made with Flourish The only other local politicians who rival the Marcoses in terms of number of fan groups and pages are President Duterte himself, and Senator Bong Go. Rappler has tracked around 1,800 Duterte fan pages and hundreds of fan groups to date. Initial Duterte fan pages were created as part of the ramp up for the 2016 presidential elections. Most, however, were created after Duterte assumed office. Rappler has also detected similar messaging in relation to Martial Law and the Marcos dictatorship across pro-Duterte and pro-Marcos pages. As the graph shows, while a few Marcos pages were created much earlier, the creation of new pages per month really started to ramp up in 2014, around the time former first lady Imelda Marcos first mentioned she wanted her son to run for president. It was in July 2014, during her 85th birthday celebration , that Imelda Marcos hinted at a plan for a Marcos return to Malacañang. She said her son Bongbong, who was already senator at the time, was “qualified” to contest the presidency in 2016. The graph above also indicates that new fan pages were created even after the 2016 elections. Further ramp up happened ahead of the 2019 elections when another Marcos offspring, Imee Marcos, ran for the Philippine Senate.  Reclaim Malacañang  Imelda, in 2014, said she still has a “vision” to help the Filipino people and that returning to Malacanang would be a great help in implementing her projects.   POWER BID. Vice presidential candidate Bongbong Marcos joins Ilocos Norte 2nd District Representative Imelda Marcos and Ilocos Norte Governor Imee Marcos after they file their certificates of candidacy for local elective positions during the 2016 elections. Photo from the Provincial Government of Ilocos Norte But this was not the first time that the Marcoses attempted a return to Malacañang. Since they were evicted in 1986, Imelda herself attempted to return to the Palace twice. The first attempt was in 1992, when she ran for president under her husband’s Kilusang Bagong Lipunan party. She lost the race , tying at 5th place with then-Senate president Jovito Salonga, getting 10% of the votes. The second time was supposed to be in 1998, but she withdrew days before the elections . She did not have a chance to win anyway at the time. Already convicted of two counts of graft by then, an exit poll of Social Weather Stations ranked her 9th out of 11 candidates , with only 0.9% saying they would vote for her.  (The Supreme Court voided her conviction months after the polls. For more on the Marcos cases, READ: What's the latest on cases vs Imelda Marcos, family? ) Between 1986 to 2009, no Marcos made it to national office. Bongbong Marcos himself also attempted to bag a national post in 1995 when he ran for senator under the Kilusang Bagong Lipunan party founded by his father and as part of the Nationalist People's Coalition ticket. He finished the race ranking a miserable 16th place with more than 8 million votes. From that point, it took more than a decade before a Marcos sought national office again. It was not until 2010 when Bongbong finally won a Senate seat. He ranked 7th place , with 13,169,634 votes. Winning the Senate is one thing. The question was whether a Marcos was ready for the final goal: getting Malacañang back. It was doubly difficult because in the 2010 elections, the son of Marcos nemesis, Benigno "Ninoy" Aquino Jr, Benigno Simeon “Noynoy” Aquino III, won as president on an anti-corruption platform. Social media was a handy trick in the bag. (To be continued) – with Vernise Tantuco and Akira Medina/ Rappler.com      READ: Part 2 | Networked Propaganda: How the Marcoses are rewriting history  READ: Conclusion | Networked propaganda: False narratives from the Marcos arsenal     </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tip of the iceberg: Tracing the network of spammy pages in Facebook takedown</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/215256-tracing-spammy-pages-network-facebook-takedown/</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>43400.5</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Many of the pages in these networks have shared false or misleading articles By Rappler Research Team  Published 8:00 PM, October 27, 2018 </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Isaiah Thomas out for rest of playoffs</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/sports/nba/170476-boston-celtics-isaiah-thomas-playoffs-hip-injury/</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>42876.11682870371</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. AFP BOSTON, USA – Boston Celtics guard Isaiah Thomas will be sidelined for the rest of the postseason after aggravating a hip injury during game two of the Eastern Conference finals, the NBA team announced on Saturday, May 20. The 28-year-old Thomas initially injured his hip in a game against the Minnesota Timberwolves on March 15, and then aggravated it during game 6 of the second round series against the Washington Wizards. “Isaiah has worked tirelessly to manage this injury since it first occurred,” said Celtics team doctor Brian McKeon. “The swelling increased during the first two games against Cleveland, and in order to avoid more significant long-term damage to his hip, we could no longer allow him to continue.” Thomas has been diagnosed with a femoral-acetabular impingement which affects the ball joint in the hip socket. Thomas did not travel with the team to Cleveland for game 3 on Sunday. The Cavaliers lead the series, 2-0. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Disinformation,Networked propaganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[ANALYSIS] Viber: The next frontier for political propaganda in the Philippines?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/analysis-viber-next-frontier-political-propaganda-philippines/</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44549.49818287037</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. As is well-known, Facebook is widely used across Southeast Asia, especially in the Philippines, where 99% of internet users have Facebook accounts and 98% use Facebook Messenger , mostly to communicate with family and friends. In comparison, the use of the messaging app Viber is very low – only 5% of internet users use it. However, Viber use is rapidly growing in the Philippines and with it, its political significance grows, too. The Propaganda Lab at the Center for Media Engagement at UT Austin conducted 21 interviews in the Philippines, Indonesia, Myanmar, and Ukraine , and found that Viber is being used for the spread of political propaganda in the Philippines in particular . While Facebook remains widely used for propaganda in Indonesia, for instance, our interviewees in the Philippines articulated that Viber has been “invaded” by Duterte’s government. So, will Viber be the next hotbed of disinformation or misinformation exploited by an authoritarian leader? Disinformation and political propaganda are rampant on Facebook across Southeast Asia but similar phenomena on encrypted messaging applications (EMAs) are underexplored. Apps that use end-to-end encryption (E2E), which tout that only the sender and receiver can see what messages say, are growingly popular across the globe . Troublingly, they are increasingly becoming spaces for mis- and disinformation just like “traditional” social media. They have even led violence to erupt in the offline world, such as mob lynchings in India after disinformation spread on WhatsApp , and played a role in anti-democratic movements, such as the Capitol riot in the United States . The emerging use of Viber, an app that offers E2E in 1-on-1 and group chats (though not in channels or communities) , looks like the next frontier for political propaganda and disinformation in the Philippines and Southeast Asia writ large. For instance, representatives from the Presidential Communications Operations Office interviewed by us explained that the government established Viber groups that include over two million users to distribute information from the government to Filipinos. In addition to government announcements, these groups serve as an avenue to encourage support for President Duterte on a platform that is sure to reach a widespread audience. According to two representatives from the communications office, their goal is to make the president visible – even “ubiquitous.” They aim to make content as entertaining as possible, tailored specifically to younger audiences. One example is sticker campaigns. Graphic designers in the communications department have designed sticker packs with President Duterte’s image paired with politically motivated phrases – people in his office would call this increasing support, but a cybersecurity strategist we spoke to (who is also a former politician), called these “Duterte ads.” He considered these strategies to be more than just spreading presidential news – he explicitly called it “propaganda.” In addition to calculated strategies like sticker packs, government officials thoughtfully select which platforms to engage on as well. “We use Facebook Messenger to blast information to the public.” Although they “try to blast it on all platforms,” they particularly aim to target young folks (millennials and younger) through emerging platforms like TikTok and Viber. This is strategic – the number of TikTok users in the Philippines is increasing , just like Viber. “Filipinos want to go to social media as an escape,” one of the officials told us, “so you must package your content in the most entertaining and trendiest way possible to relate, especially to the millennials.” Their strategies are deliberately coordinated in order to reach the most emerging users. The representatives we spoke to were adamant that such content was not pushed by trolls. “For us, social media is just an additional task of our public information officers.” In fact, a main part of their job description includes content creation and social media management. The creation of in-house social media teams signals how vital social media has become for the Duterte regime. “We don’t hire external outfits or groups to run our social media,” they told us. However, while the people we spoke with who work in Duterte’s communications office would (and did) vehemently deny the use of troll farms, it has been exposed in investigative reporting and academic work alike . The use of Viber differs greatly across different cultures and countries. In Myanmar, for instance, it’s not widely used, and in Indonesia WhatsApp reigns. In general, EMAs are often used to connect individuals into small groups from families to community social groups; with the unintended side effect, however that – “lots of disinformation spreads between family and friends,” as a cybersecurity strategist told us. Hence the additional question arises if Viber will not only be the next outlet for disinformation in the Philippines but also co-opted by troll farms. One man we spoke to in Indonesia (we would refer to him as a troll, but they call themselves “buzzers”) told us about his strategies for political propaganda on traditional social media like Facebook and YouTube: he and his team each run 50 or more accounts, orchestrating fake arguments between the accounts about political candidates. Ultimately, all of the “people” (fake accounts) concede and support the candidate the buzzer/troll was hired to increase support for. This strategy, he told us, is not possible on EMAs. However, he and other interviewees explained that by pushing out positive information about one candidate and negative disinformation about the other, they can still affect public opinion and likely, elections. Ultimately our research has discovered that EMAs are falling prey to exploitation just as other social media sites have. However, there is another side to this challenge, namely the receptiveness and potential engagements of EMA users to disinformation and propaganda. In the Philippines in particular, citizens have been trying to push back against an authoritarian leader – so while online spaces such as Viber and TikTok present opportunities for state actors to manipulate young folks, who are allegedly especially at risk for believing fake news , this research also wants to highlight the opportunities for pushback. For example, EMAs are useful to communicate in private and mock government propaganda or engage in fact-checking to expose government propaganda. For this, researchers must keep a finger on the pulse of disinformation campaigns on emerging platforms since actors, such as the Filipino government, adapt to the ever-changing social media trends for their own goals. – Rappler.com Katlyn Glover is a researcher and graduate student at the Propaganda Lab at the Center for Media Engagement at the University of Texas at Austin, where she researches disinformation and political propaganda on emerging technologies. Zelly Martin Geurink is a researcher and PhD student at the Propaganda Lab at the Center for Media Engagement at the University of Texas at Austin, where she researches disinformation and political propaganda, especially as they pertain to women. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Disinformation,mobile phone technologies,social media platforms</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bulls to retire Derrick Rose's No. 1 jersey</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/sports/nba/chicago-bulls-retire-derrick-rose-jersey/</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45891.39377314815</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CHICAGOu2019S OWN. Derrick Rose played at the peak of his powers with the Chicago Bulls. NBA.COM The Chicago Bulls will retire former NBA MVP Derrick Rose’s No. 1 jersey on January 24, the team announced Thursday, August 21. The Bulls will host the Boston Celtics that night at the United Center. Rose, 36, announced his retirement from the league over social media last September. The No. 1 jersey has not been worn by a Bulls player since Rose was traded to the New York Knicks in 2016. Michael Carter-Williams and Anthony Morrow were issued the number but switched after fan backlash. Rose will be the fifth player in Bulls history to have his number retired, joining Jerry Sloan (No. 4), Bob Love (10), Michael Jordan (23), and Scottie Pippen (33). Rose was selected by his hometown Bulls with the top overall pick in the 2008 NBA Draft and was named the 2008-09 Rookie of the Year. At 22, Rose became the youngest player in league history to be named the NBA MVP during the 2010-11 season. Chicago was 245-161 (.603) in games in which Rose played. In his MVP season, he led the Bulls to their first Eastern Conference Finals appearance since 1998 — the final season of the Bulls’ second NBA championship three-peat. Rose’s career took a turn for the worse after he tore an ACL during the first round of the 2012 playoffs. He sat out the following season and was limited to 10 games in 2013-14. A three-time All-Star, Rose posted career averages of 17.4 points, 5.2 assists, and 3.2 rebounds in 723 career games (518 starts) with the Bulls, Knicks, Cleveland Cavaliers, Minnesota Timberwolves, Detroit Pistons, and Memphis Grizzlies. Injuries limited Rose to 24 games (seven starts) with the Grizzlies in 2023-24 as he averaged 8.0 points, 3.3 assists, and 1.9 rebounds. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Adidas visits Indigenous Mexican town to apologize for sandal design</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/life-and-style/style/adidas-visits-indigenous-mexican-town-apology-sandal-design/</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45891.38153935185</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Traditional Indigenous sandal are pictured in a workshop as Juan Aquino makes a sandal in Villa Hidalgo Yalalag while the Mexican government stepped in on Friday to mediate a dispute between Indigenous artisans from Oaxaca and Adidas over cultural appropriation claims involving the "Oaxaca Slip On" shoe, designed by Willy Chavarria, in Villa Hidalgo Yalalag, Oaxaca, Mexico, August 9, 2025. REUTERS/Jorge Luis Plata VILLA HIDALGO YALALAG, Mexico — Adidas ADSGn.DE executives visited a small Indigenous town in the mountains of southern Mexico on Thursday to offer an apology over a sandal-inspired shoe design that Mexico’s government had blasted as cultural appropriation. The German sportswear company sent representatives from its Mexican unit to Villa Hidalgo Yalalag, a town in Oaxaca state, to deliver the comments in person after issuing a written apology last week. The issue related to the “Oaxaca Slip On,” designed by Mexican-American designer Willy Chavarria, which locals say closely resembles their traditional handmade huarache sandals. “We understand this situation may have caused discomfort, and for that reason, we offer a public apology,” Karen Gonzalez, head of Legal and Compliance at Adidas Mexico, told a few dozen people gathered at an outdoor sports field. The event included traditional music and attendees in Indigenous attire. Gonzalez said Adidas would in future seek collaboration with Villa Hidalgo Yalalag to ensure respect for its cultural heritage. The community is home to fewer than 2,000 people. “Thank you very much for keeping your word,” said Mayor Eric Fabian. “(Our cultural heritage) is something we safeguard very carefully. Yalalag lives from its crafts,” he added. The controversy drew national attention earlier this month when Mexican President Claudia Sheinbaum criticized Adidas and announced plans to explore legal avenues to protect Indigenous communities from alleged cultural appropriation by big companies. Mexico has previously accused other big-name global fashion players of exploiting Indigenous designs without consent. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>fashion brands,fashion industry,Mexico,sports brands</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Kathryn Bernardo returns to TV with Dreamscape Entertainment after 15 years</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/entertainment/celebrities/kathryn-bernardo-tv-comeback-dreamscape-entertainment/</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45891.37671296296</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RETURN. Kathryn Bernardo is heading back to TV with Dreamscape Entertainment. ABS-CBN MANILA, Philippines – Asia’s Superstar is returning to the small screen! Kathryn Bernardo will be returning to ABS-CBN primetime television, reuniting with Dreamscape Entertainment after 15 years. ABS-CBN officially announced her comeback on Friday, August 22. “The wait is over. SHE IS BACK AND READY. The Asia’s Superstar, Kathryn Bernardo, is now ready for her grandest comeback,” Dreamscape wrote on YouTube. This marks the Filipina actress’ first TV project with Dreamscape in 15 years, after she starred in her breakout role as Mara David in the 2010 hit drama Mara Clara , where she starred alongside Julia Montes, who played her rival Clara del Valle. The series was a remake of the 1992 classic. Details about the new series are still under wraps, such as the cast, storyline, or production timeline. The 30-second video teaser of Bernardo’s comeback was released on social media, showing Bernardo in a glam shoot. Her most recent television role was in the 2022 romantic comedy 2 Good 2 Be True , with former love team partner Daniel Padilla. On the big screen, Bernardo headlined The Hows of Us (2018), Hello, Love, Goodbye (2019), and its 2024 sequel Hello, Love, Again , now the highest-grossing Filipino film of all time. She also starred in A Very Good Girl (2023) with Dolly de Leon and previously appeared in films like Barcelona: A Love Untold (2016). She is also a judge in Pilipinas Got Talent . Dreamscape Entertainment, ABS-CBN’s drama production unit, is known for popular teleseryes, such as including FPJ’s Ang Probinsyano, Batang Quiapo, Lavender Fields, Dirty Linen, Senior High, and more. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ABS-CBN,Filipino celebrities,Tv Shows</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[Pastilan] Floods come, budgets swell</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/pastilan-floods-come-budgets-swell/</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45891.36858796296</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Sam Calleja/Rappler Candating, a riverside barangay in Pampanga’s 4th District, might look as though it has been singled out for some cruel fate. The people of that village in Arayat probably know the cycle by now: floodwater in their homes, mud in their lives. But what they should not have to endure is the further indignity of watching their plight converted into a feeding trough for corrupt people in government and their favored contractors. Senator Ping Lacson , consulting what might be called the ledgers of farce, laid out the numbers before the Senate. In 2018, he said, a slope protection in Candating was built for P20 million. Five years later, its repairs — not new construction, just repairs – cost P91 million. By 2024, the cost had swollen further to P183 million, as if this public works farce, when diced into smaller servings, could be mistaken for respectability. And then, Lacson added, another P100 million was waiting in the wings, halted only by Malacañang’s late intervention. One is tempted to ask: Do we call this “infrastructure”? No, this looks like an open-air theater of decay, staged with concrete props on a riverbank stage. The pattern is pitiless. The floods come, the walls crumble, and the budgets swell. One collapses, the other cashes in. And the same contractor, identified by Lacson as Eddmari Construction and Trading, keeps bagging the contracts. It seems Eddmari Construction has been everywhere, and not merely within the confines of the Department of Public Works and Highways (DPWH). The Pampanga-based firm has acquired a national footprint, appearing wherever there is ruin to be rebuilt or funds to be disbursed. Its record is hardly spotless: once delisted as an accredited government builder , it had six projects terminated by the National Housing Authority in 2018. That was, for all intents and purposes, an institutional rebuke not easily earned, though apparently just as easily forgotten. Yet Eddmari’s case shows that blacklisting in this country is more like a pause button than a stop sign. In 2019, or a year later, the Duterte administration awarded it with a P2.2-billion contract to demolish damaged structure and clear debris in war-torn Marawi City , through a “negotiated procurement” scheme that would be farcical if it weren’t so ruinous. A May 24, 2018 report by Karol Ilagan and Malou Mangahas of the Philippine Center for Investigative Journalism (PCIJ) noted that Eddmari had also apparently secured contracts to build transitional shelters in Marawi. The PCIJ’s analysis of PhilGEPS data showed that in 2017 alone, Eddmari ranked 9th among 325 NHA contractors, cornering at least P962 million worth of projects from just three contracts. PCIJ cited a November 16, 2017 report by the state-run Philippine Information Agency (PIA), which listed Eddmari as one of the firms building transitional houses in Barangay Sagonsongan in Marawi. Yet, based on that 2018 PCIJ report, no notices of award or bidding documents could be found on the “transparency” websites of the NHA, DPWH, PhilGEPS, or the local governments of Marawi City and Lanao del Sur. Fast forward to December 2024: the Bases Conversion and Development Authority (BCDA), under president and CEO Joshua Bingcang, awarded the same firm a P240.78-million contract for the construction of the Bangko Sentral ng Pilipinas Access Road in New Clark City within the Clark Freeport and Special Economic Zone. So it stands: a firm once blacklisted by the NHA reemerges, phoenix-like, in the government’s portfolio. It is an emblem of how impermeable, and how shamelessly durable, the system remains. Eddmari’s hometown ties are uncomfortably close to rulers of Pampanga’s 4th District. Its current congressional representative is Anna York Cristina Puyat Bondoc, whose family has controlled Pampanga’s 4th District with dynastic regularity since the late 1980s. The congresswoman’s father, Emigdio, held the post until his untimely death in 1997. Her brother, Juan Pablo, then assumed the seat until 2004, after which Anna herself took over until 2013. Juan Pablo returned from 2013 to 2022, even rising to House deputy majority leader during the Duterte administration, before Anna reclaimed the position in 2022. Anna now serves as vice chairperson of the House appropriations committee, a body that controls, among other things, the lifeblood of public works spending of the Marcos administration. Interestingly, the congresswoman’s husband, Jayson S. Sagum, is the mayor of San Luis, a municipality located in the district she represents. It so happens that Eddmari Construction, the firm that repeatedly wins projects in Pampanga and elsewhere, lists its office address in San Juan, San Luis. And it so happens, too, that Eddmari is run by one Edgardo A. Sagum. One is, of course, enjoined to avoid hasty conclusions. But one may be forgiven for asking questions, as one might when encountering a string of curious coincidences in any detective novel. Are we seriously expected to believe this is all mere coincidence? What emerges is a template for national dysfunction. Floods in Luzon. War in Marawi. “Development” projects scattered across the archipelago. The sequence never changes: catastrophe is declared, a favored contractor is summoned, contracts are padded, transparency evaporates, accountability vanishes, and the people remain no safer than before. We are told, without blushing, that these are infrastructure projects. Let us not pervert the language. Flood control that controls nothing but the flow of taxpayers’ money is not flood control. It is failure that has been built into the very system. Filipinos, not just the residents of Arayat, suffer not from heaven’s curse, but from a government that has domesticated disaster into a business model. In this country, ruin is more profitable – disaster is not a misfortune but an investment opportunity. Pastilan. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>BCDA,Budget Watch,Central Luzon,Clark Freeport Zone,DPWH,flood,flood control,Marawi rehabilitation,National Housing Authority,Philippine infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OPPO Reno14 Series 5G now available nationwide</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/brandrap/oppo-reno-14-series-5g-release/</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45891.34430555555</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Editor’s note: This press release is sponsored by OPPO and was handled by BrandRap, the sales and marketing arm of Rappler. No member of the news and editorial team participated in the publishing of this piece. The OPPO Reno14 Series 5G is now officially available in the Philippines, bringing next-level AI-powered imaging and creator-ready performance to anyone who wants to capture, connect, and share more. Built with powerful AI features and a design that puts creators first, the OPPO Reno14 Series 5G is your all-in-one creative companion. Still deciding if this is your next content device? Here are five reasons why. Low-light is no longer a problem. The OPPO Reno14 Series 5G’s Ultra-Clear Low-Light Camera System, plus a 3-Flash Design, delivers bright, sharp, natural-looking images in difficult lighting. Expect clean portraits and crisp Livephoto captures without harsh glare. Skip complicated post-production. AI Editor 2.0 creates quick, polished cuts using scene recognition. AI Recompose helps you fix framing and balance in a few taps, so your focus stays on the story. Take the shot where most phones stop. Rated IP66, IP68, and IP69, the OPPO Reno14 Series 5G lets you record 4K videos underwater. Use Underwater Mode for stable, clear footage during freshwater trips and pool sessions. Sometimes the best moments happen from a distance. The OPPO Reno14 Pro 5G features a 50MP telephoto lens with a dedicated flash that lets you zoom in closer without sacrificing detail, even in low light. From concerts to cityscapes, every capture is sharp and vibrant. Your #MainZoomMoment every time. From creators building their next reel to everyday users saving life’s milestones, the OPPO Reno14 Series 5G unlocks new possibilities with smooth performance, durable design, and creator-focused AI. It’s a phone that keeps up with your lifestyle and elevates your storytelling. Find the OPPO Reno14 Series 5G in all authorized OPPO Brand Stores and official OPPO online stores in Shopee , Lazada , and TikTok Shop . Redeem a limited-edition Make Your Moment carry-on and sticker set at select OPPO stores while supplies last. This is your moment. Capture it without limits with the OPPO Reno14 Series 5G. Visit www.oppo.com/ph/ or follow OPPO Philippines on Facebook , YouTube , and TikTok . – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>consumer electronics,electronics and gadgets,Oppo</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Negros Island’s first public cancer care hub opens in Bacolod</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/negros-island-region-first-public-cancer-care-hub-opens-bacolod-city/</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45891.34392361111</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CANCER CARE HUB. The Cancer Care Center is inaugurated in Bacolod City. It is the first government-run cancer hub in the Negros Island Region. Ambo Delilan/Rappler NEGROS OCCIDENTAL, Philippines – A government-run cancer care center in Bacolod City has opened its doors, offering what doctors and patients say is a lifeline for thousands battling the disease in the Negros Island Region (NIR). The Corazon Locsin Montelibano Memorial Regional Hospital (CLMMRH) inaugurated its P35 million Cancer Care Center (CCC) on Wednesday, August 20, the first public facility of its kind in the Negros Island Region (NIR). For patients like Nena (not her real name), a 48-year-old government employee battling Stage 2 breast cancer, the center brings hope closer to home. “I know this is no easy journey. Money is one among the challenges, but I have no choice. I have to face this reality, but I am determined as well to ace the battle,” she said. “Cancer, as I was told, is treatable. Thus, this CCC is a boon for us, more so with the poor or jobless ones, who are also having a silent battle against ‘Big C’ like us.” Dubbed the “Home of Hope,” the two-story facility can accommodate up to 40 cancer patients daily and is equipped for intravenous chemotherapy, biopsies, lumbar punctures, intrathecal chemotherapy and child life services. “This is much, much better compared to the usual six beds within the main hospital since we started offering chemotherapy in 2022,” said Dr. Norman Cabaya, an oncologist and focal person for the CCC. Radiotherapy is not yet available, but Cabaya said patients are referred free of charge to the Riverside Medical Center under a partnership agreement. Cabaya said they were waiting for funding approval from the Department of Health for radiotherapy service at CCC. “But, for sure, it will be soon,” he said. Dr. Joan Cerrada, CLMMRH chief, said the center aims to provide affordable treatment accessible through the Cancer Assistance Fund, PhilHealth’s Z-Benefit packages, and the Cancer and Supportive-Palliative Medicines Access Program (CSPMAP). Since March, 500 cancer patients have received support under CSPMAP, 1,000 through the Cancer Assistance Fund with up to P150,000 each, and 100 under the Z-Benefit packages. PhilHealth’s Z-Benefit packages cover breast cancer (up to P1.4 million), cervical cancer (P120,000), colon cancer (P150,000 to P300,000), rectal cancer (P150,000 to P400,000), prostate cancer (P100,000), and acute lymphocytic and lymphoblastic leukemia (up to P500,000), according to PhilHealth-Bacolod head Edgar Yocariza. Lung cancer, however, is not yet included despite being among the most prevalent types. Cancer is the second leading cause of death in the country after heart disease, according to the DOH. The Philippine Statistics Authority (PSA) reported 69,909 cancer deaths nationwide in 2023 and 42,870 from January to September 2024. Bacolod Mayor Greg Gasataya said the facility would serve the Negros Island Region, and not just residents of the city. Health officials said the CCC is designed to expand access to treatment in Negros Occidental, Negros Oriental, and Siquijor. “CLMMRH, as our regional apex hospital, must not only treat patients within its walls; it must also cultivate a network that ensures no cancer patient is left behind,” said DOH-NIR Director Razel Nikka Hao. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>cancer,Department of Health,diseases and ailments,hospitals in the Philippines,Negros Island Region,public health</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Binay father and son acquitted in Makati car park building cases</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/metro-manila/jejomar-binay-father-son-acquitted-makati-car-park-building-cases/</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45891.33361111111</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MAYORS BOTH. Then-Makati mayor Junjun Binay greets his father, then-vice president Jejomar Binay, after the latter files his certificate of candidacy for president on October 12, 2015. Rappler MANILA, Philippines – The anti-graft court Sandiganbayan has cleared former vice president Jejomar Binay and his son Jejomar Jr. (Junjun), both ex-mayors of Makati City, of graft, falsification of public documents, and malversation of public funds over the allegedly overpriced car park building at city hall. Also acquitted on Friday, August 22, were the Binays’ co-accused, including 20 city government officials and two private contractors: Efren Canlas of Hilmarc’s Construction Company and Orlando Mateo of Mana Architecture and Interior Design. The Sandiganbayan said their guilt were not proven beyond reasonable doubt. The car park building, worth P2.2 billion, consisted of five phases. The first three were implemented when Jejomar Sr. was mayor, and the last two when Junjun succeeded his father, who had since been elected vice president in 2010. In 2015, a year before the presidential poll, a prolonged Senate investigation into the project was widely believed to have dragged down Jejomar Sr.’s earlier lead in pre-election surveys for president. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Corruption in the Philippines,Jejomar Binay,LGUs in the Philippines,National Capital Region,Sandiganbayan</t>
         </is>
       </c>
     </row>

--- a/rappler.xlsx
+++ b/rappler.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,25 +470,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>YouTube removes nearly 11,000 propaganda channels linked to China, Russia, others</t>
+          <t>SC denies Alice Guo's challenge of Senate subpoena. Why does it matter?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/technology/youtube-propaganda-channel-removal-china-russia-second-quarter-2025/</t>
+          <t>https://www.rappler.com/newsbreak/explainers/supreme-court-denies-alice-guo-challenge-senate-subpoena-importance/</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45860.37956018518</v>
+        <v>45885.08333333334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MANILA, Philippines – Google announced on Monday, July 21, it removed nearly 11,000 YouTube channels and other accounts in the second quarter of 2025 for “coordinated influence operation campaigns” on the service. In a bulletin post for Q2 2025 , it listed some 7,700 channels linked to Chinese propaganda. These included the termination of 1,545 YouTube channels in April, 3,592 YouTube channels in May, and 2,598 YouTube channels and the blockage of one domain from eligibility to appear on Google News surfaces and Discover in June. “The coordinated inauthentic network uploaded content in Chinese and English about China and US foreign affairs,” the post said. Meanwhile, more than 2,000 YouTube channels were removed in Q2 2025 for “coordinated influence operations linked to Russia.” These included content in multiple languages showing support for Russia and criticism for Ukraine, Poland, NATO, and the West. In May, the company also removed 20 YouTube channels, 4 Ads accounts, and 1 Blogger blog linked to Russian influence ops. In this case, the campaign was “linked to the Russian state-controlled media outlet RT and was sharing content in Spanish, English, Serbian, and Russian that was supportive of Russia and critical of Ukraine and the West.” Other removed influence campaigns were linked to Azerbaijan, Iran, Israel, Ghana, Romania, and Turkey and appeared to target political rivals or, as in Israel’s case here, to posit support for Israel and criticize Palestine. Google’s Threat Analysis Group removed more than 23,000 accounts in the first quarter of 2025, most notably more than 11,900 China-linked YouTube channels which discussed Chinese and US foreign affairs. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. EMBATTLED. Dismissed Bamban, Tarlac mayor Alice Guo attends the Senate public hearing on human trafficking, cyber crimes and other related abuses in connection with POGO operations, on September 9, 2024. Angie de Silva/Rappler The Supreme Court (SC) has dismissed the petition filed by former Bamban, Tarlac mayor Alice Guo against the Senate subpoena that required her to appear during the chamber’s months-long probe into Philippine offshore gaming operators (POGOs). “The Supreme Court (SC) has upheld the subpoena issued by the Senate Committee on Women, Children, Family Relations, and Gender Equality (Committee) requiring former Bamban Mayor Alice Guo (Guo) to testify in its investigation,” the SC said on Friday, August 15. The SC en banc voted to deny Guo’s petition, discussed the merits of the case, and did not declare the petition moot and academic. The Senate has already wrapped up its probe into the issue and the 19th Congress had already adjourned. Associate Justice Japar Dimaampao wrote the decision. Guo, in July 2024, filed her petition with the SC after she was subpoenaed by Senate women committee chairperson Senator Risa Hontiveros for skipping a hearing. Later, Guo was cited in contempt by the panel for her continued absence. The former mayor claimed that the Senate panel violated her constitutional rights, her right to due process, and her right to privacy. In the ruling, the High Court said it followed the 1987 Constitution and the Senate Rules of Procedure in Guo’s case. The SC said the former mayor’s rights were not violated and that the probe was “a legitimate exercise of legislative power aimed at protecting the public interest and upholding the law.” A point of contention in the case was the Senate’s power to hold investigations, including its probe into the abuses and crimes surrounding POGOs. The SC reiterated that under Article VI, Section 21 of the Constitution, the upper chamber and its committees can conduct probes in aid of legislation. The Senate, according to the High Court, may do this as long as it follows the available rules and respects the rights of the people involved. “The SC found that the Committee’s investigation into illegal POGO operations in Bamban, Tarlac, was within its authority. The questions asked about Guo’s identity, family, relationships, assets, and businesses were relevant and necessary to the inquiry,” the High Court said. According to the SC, the issuance of the subpoena and related actions were within Senate rules. It was also found that Guo “retained her right against self-incrimination, which she chose not to exercise.” “This ruling strengthens the Senate’s ability to uncover the truth in matters of urgent public interest, such as the infiltration of illegal POGO operations and the alarming allegations surrounding former Bamban Mayor Guo Hua Ping, alias ‘Alice Guo’,” Hontiveros said in a statement. “The decision reaffirms what the Constitution clearly provides: that legislative inquiries in aid of legislation—when conducted under our established rules—are a vital tool for accountability and the creation of policies which protect public interest and guard our nation’s sovereignty,” she added. Apart from the legitimacy of the probe, Guo also challenged the contempt against her. During its probes, the Senate and the House of Representatives may cite persons in contempt and detain them if they snub hearings or are uncooperative during inquiries, just like what happened to Guo. A person held in contempt may be held under custody “until he/she agrees to produce the required documents, or to be sworn or to testify, or otherwise purge himself/herself of that contempt.” “Regarding contempt, the Committee cited Guo for leaving the Philippines despite notice of the next hearing, and for refusing to answer even basic questions during one of the hearings she attended. The SC affirmed that citing individuals for contempt is part of the Senate’s legislative powers,” the High Court said. In previous decisions, the SC said that the Senate can detain a person held in contempt for only as long as the inquiry was ongoing. Guo also raised the issue of privacy. The SC said public officials have limited expectation of privacy when their acts involve official functions or matters of national interest. “Documents such as Guo’s birth certificate, SALNs (Statement of Assets, Liabilities, and Net Worth), and business records were essential to the investigation and thus lawfully disclosed, even under the Data Privacy Act of 2012,” the SC explained. In the ruling, the SC also reiterated that in legislative probes, there are two key safeguards: one, the chambers must follow their published rules of procedure, and two, the chambers must respect the Bill of Rights. “The SC clarified that the purpose of a legislative inquiry is not to find guilt, but to ensure effective legislation,” it added. Guo is currently detained due to multiple cases, including trafficking and money laundering over her alleged ties to an anomalous POGO in her town. Back in June, a local court ruled that Guo is “undoubtedly Chinese,” and erased her mayorship from the records, saying she was never qualified to begin with. – Rappler.com  How does this make you feel? </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>disinformation and misinformation,Fighting disinformation,Google,Misinformation on Youtube,Networked propaganda</t>
+          <t>Alice Guo,Congress of the Philippines,Philippine judiciary,POGOs,Senate of the Philippines</t>
         </is>
       </c>
     </row>
@@ -498,25 +498,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[DECODED] Déjà vu: Parallels between US and Philippine propaganda</t>
+          <t>WATCH: House reactivates quad committee that probed Duterte-era crimes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/voices/newsletters/decoded-parallels-between-united-states-philippine-propaganda/</t>
+          <t>https://www.rappler.com/philippines/video-house-representatives-reactivates-quad-committee-probed-duterte-era-crimes/</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45714.41666666666</v>
+        <v>45874.53071759259</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Have you been keeping up with all the issues surrounding USAID, or the US Agency for International Development? In my latest Decoded story , I wrote about the lies and conspiracy theories about the agency, and how these were spreading online following the Trump administration’s moves to shut it down. USAID is the US government’s arm that provides humanitarian assistance to several countries. But according to some social media posts, USAID is a criminal organization, a radical-left psy-op, and a vehicle that backs liberal or progressive groups that promote American propaganda. Sounds familiar? We know that all too well. In the Philippines, independent media outlets have long been attacked for receiving funding from US-based organizations, including USAID and the National Endowment for Democracy (NED). These outlets are accused of their supposed pro-US or Western bias, and of supposedly serving as fronts for the US Central Intelligence Agency (CIA). This isn’t the first time that American propaganda and disinformation have penetrated Philippine online spaces. Last year, I wrote about how Filipinos echoed American lies — from both sides of the political spectrum — about the assassination attempt on then-presidential candidate Donald Trump. After all, it is true that the Philippines is America’s guinea pig when it comes to social media propaganda and information operations. That’s because over 7 in 10 people in the Philippines are on social media, and these platforms are barely regulated in the country. Philippine and US politics also have many similarities. As Cambridge Analytica whistleblower Christopher Wylie put it , we had “a president who was Trump before Trump was Trump.” Concepts surrounding disinformation, propaganda, and fake news turned mainstream around 2016, following the presidential victories of Rodrigo Duterte and Donald Trump. Duterte “ institutionalized ” disinformation with sock puppet accounts and fake networks , while the first Trump victory was preceded by Russian information operations and outrageous conspiracy theories . In this 2019 Rappler exclusive, Wylie said the Philippines was the company’s “ petri dish ”  for testing their strategies before implementing them in Western countries. In the infamous Cambridge Analytica scandal, the Philippines ranked second to the US in terms of the number of Facebook users whose data was compromised. Duterte and Trump are also both sharp-tongued populists who frequently hurled attacks towards critics and sowed distrust in democratic institutions. Duterte falsely claimed in 2017 that the CIA funds Rappler, and now Trump is baselessly claiming that USAID is run by “radical left lunatics.” There’s no denying that America’s been a strong influence on the Philippines, for better or for worse. These patterns aren’t limited to the Philippines and the US. Rappler CEO Maria Ressa previously talked about how 2024 was a “ super-election year ” with 74 national elections globally, which saw the loss of many of the world’s incumbents and the proliferation of more insidious voter manipulation on social media. Next week, our lead forensics researcher Pauline Macaraeg will be publishing a story on the rise of right-wing populist narratives in Canada as the country prepares for the federal election slated for October 20 this year. Any other parallels you’ve noticed? Let us know by sending us an email at hello@thenerve.co. – Rappler.com [DECODED] What the Pepsi Paloma movie could mean for Tito Sotto’s Senate bid While the film’s trailer doesn’t name Tito Sotto, data from The Nerve shows that 30% of recent online discussions about him revolve around Paloma . [DECODED] The lies, attacks on USAID spreading in the Philippines Conspiracy theories claim USAID backs media outlets and organizations that promote US interests and liberal agendas . [DECODED] Understanding voters’ behavior for the 2025 senatorial elections A survey by The Nerve classifies 2,700 respondents who are Rappler readers into four groups: practical working class, economy-conscious professionals, young progressives, and law-and-order rural supporters . The Nerve is a data forensics company that enables changemakers to navigate real-world trends and issues through narrative and network investigations. Taking the best of human and machine, we enable partners to unlock powerful insights that shape informed decisions. Composed of a team of data scientists, strategists, award-winning storytellers, and designers, the company is on a mission to deliver data with real-world impact. Visit and bookmark Rappler’s 2025 Philippine elections site for the latest news, explainers, analyses, multimedia content, and data on the senatorial, party list, and local contests. How does this make you feel? </t>
+          <t xml:space="preserve">MANILA, Philippines – The House of Representatives approved the reconstitution of the quad committee, the mega panel that investigated crimes that became rampant under the administration of former president Rodrigo Duterte. The House adopted on Tuesday, August 5, House Resolution No. 106, which seeks to address “emerging and unresolved issues brought forth by the joint investigation of the previous quad committee during the 19th Congress.” The so-called “quad comm 2.0” is expected to revisit its probe into Duterte’s drug war, state-sanctioned killings, and illicit activities tied to Philippine offshore gaming operators . It is also expected to zero in on the status of the missing sabungeros (cockfighters) . The committee will be led by four congressmen, including Manila 6th District Representative Bienvenido Abante, the only remaining original co-chairman from the quad committee of the 19th Congress. He remains the chairperson of the House’s human rights panel. Joining him as co-chairs are Bukidnon 2nd District Representative Jonathan Keith Flores (dangerous drugs committee), Manila 2nd District Representative Rolando Valeriano (public order committee), and Bicol Saro Representative Terry Ridon (public accounts committee). Watch an excerpt of Abante’s privilege speech and the approval of the House resolution on the reactivation of the quad committee. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Decoded,Disinformation,Donald Trump,Fighting disinformation,foreign aid,Networked propaganda,Rodrigo Duterte,US foreign aid</t>
+          <t>Duterte administration,extrajudicial killings,POGOs,Rodrigo Duterte,war on drugs</t>
         </is>
       </c>
     </row>
@@ -526,25 +526,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[DECODED] Do politicians need facts when they have propaganda armies?</t>
+          <t>5 things to watch out for in the 20th Congress</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/philippines/elections/decoded-politicians-need-facts-propaganda-armies/</t>
+          <t>https://www.rappler.com/philippines/20th-congress-issues-watch/</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45686.41666666666</v>
+        <v>45865.4033449074</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. What comes to mind when you think of disinformation and propaganda? Chances are, you’ll start thinking of power-hungry politicians spreading lies about their legacy or bloggers and influencers incessantly attacking opposition leaders and other figures critical of the administration. Maybe you remember the 2022 presidential elections, which saw the son of a dictator win the support of millions of Filipinos and eventually the presidency. As a digital forensics researcher who wrote several stories about election-related propaganda in the first few months of 2022, that’s what I remember the most about that period. Now we’re back in an election landscape as we prepare for the upcoming 2025 midterm polls and brace for more disinformation and propaganda-fueled campaigns. Reinnard Balonzo, one of Rappler’s Aries Rufo Journalism fellows for 2024, wrote a two-part story about the media and information landscape in the Bicol region. His stories showed that political disinformation is a multifaceted problem. First, he pointed out the pitfalls of the region’s media landscape — where local media paints politicians as heroes, where there aren’t enough independent media organizations, and where community journalists are under attack. He also talked about how political movements exploit poor Bicolanos . Welfare programs in the region are used for politicians’ premature campaigns and volunteer-led youth organizations openly endorse certain leaders. Many Bicolanos also get their information from social media platforms rife with disinformation because they can’t afford anything else. I’m not a fan of the “bobotante” narrative that pins the blame on poor voters; the situation’s always more complicated than that. These Bicolanos often have little choice but to become victims of political machineries. And we all know how political machineries endorsing national candidates can be vicious. In my latest Decoded story , I explored how the Duterte supporter base on social media came to the defense of Vice President Sara after everything she went through in 2024 . This included an investigation into her alleged misuse of confidential funds , three  impeachment  complaints , and a drop in approval ratings . But to her most loyal supporters, the Vice President is an indestructible leader who’s being unfairly persecuted. What made writing this story so interesting was that all of this unfolded in the wake of Duterte’s public breakup with President Ferdinand Marcos Jr. The Dutertes and Marcoses are both notorious for their disinformation and propaganda networks on social media, so I wanted to see who was winning the battle on Facebook. (Hint: It’s not the President.) Sure, Duterte has three more years to go until her vice presidential term ends, but she could also be laying the groundwork for the next presidential election as early as now. And if there’s anything we at The Nerve learned about studying disinformation on social media, it’s that we need to keep an eye out before it’s too late. Have you seen any political disinformation or propaganda narratives we should be looking into? Let us know by sending us an email at hello@thenerve.co. – Rappler.com [DECODED] Duterte social media army very much alive, roars to defend embattled Sara Duterte On Facebook, pro-Duterte accounts portray Vice President Sara Duterte as a larger-than-life, indestructible leader . [DECODED] Goodbye fact-checkers? Hello to more lies! By dismissing fact-checking as ‘biased,’ Zuckerberg undermines the work of journalists . [DECODED] What songs and artists did Filipinos listen to in 2024? Spotify chart data shows that Filipino hip-hop and P-pop acts were among the most-streamed for listeners across the country . The Nerve is a data forensics company that enables changemakers to navigate real-world trends and issues through narrative and network investigations. Taking the best of human and machine, we enable partners to unlock powerful insights that shape informed decisions. Composed of a team of data scientists, strategists, award-winning storytellers, and designers, the company is on a mission to deliver data with real-world impact. How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Luigi Almuena/PCIJ The next round of the Marcos-Duterte family feud was expected to play out in Congress. But the Dutertes scored a win — and the possibility of a reprieve until February 2026 or even longer — in Friday’s Supreme Court ruling that temporarily banned an impeachment trial. The Marcos-controlled House impeached Duterte last February, but a divided Senate has been delaying a trial, citing technicalities and remanding the impeachment complaint to the House. Now the high court has unanimously ruled that the House impeachment complaint, filed on February 5, was invalid because the constitution bans the filing of an impeachment complaint against the same official during a one-year period. (The court said that last December, the House already archived — and dismissed — three impeachment complaints filed by private citizens against the Vice President.) Some observers say that the ruling signals a thawing of the Marcos-Duterte family feud — a sign of a truce that allows the Marcoses to ease the growing tensions between the two families. So will the trial even take place? Does a Congress in thrall to the country’s two most powerful families have the gumption to hold  Sara Duterte to account for allegedly misusing more than P600 million in confidential funds, making death threats against the President and his family members, and for possible involvement in drug-war related killings? How will the tiny progressive bloc in the 20th Congress, caught between two feuding families, play its cards? And what does all this mean for the country’s tarnished record of accountability? The 2025 national budget, critics said, was the “most corrupt” in Philippine history. They flagged the huge cuts to the Department of Education and zero funds for the Philippine Health Insurance Corporation even as public money was directed to pork-barrel type projects that fattened the legislators’ patronage pots in an election year. These include increased funding for public works projects and cash aid programs. Most of this redirection took place in secret bicameral meetings between the House and the Senate. At least three petitions challenging the budget’s constitutionality are now in the Supreme Court. Good governance advocate Cielo Magno is pushing an #OpenBicam campaign to open closed-door bicam meetings — the most secretive stage of the budget process — to the public. Leyte Representatuve Martin Romualdez, who is poised to retain his position as House speaker, expressed openness to the proposal. Some senators have also voiced support. But is Congress ready for transparency? The most sensational public hearings in the 19th Congress were held by the “quadcom,” four House committees that held joint hearings on the police reward system during former president Rodrigo Duterte’s drug war and cracked open the workings of POGOs, illegal gaming operations said to be hubs for online scams and human trafficking. Live coverage of the quadcom hearings was avidly watched online and on TV. A high point was when Duterte threatened to hit former Senator Antonio Trillanes IV during one of the hearings. The House panel also got Duterte to say he took full responsibility for the killings. The quadcom ended its hearings with the five proposed bills on extrajudicial killings, POGOs, land fraud, identity falsification, and espionage. The quadcom is expected to reconvene and expand its focus to other issues, including the case of the missing cockfighters and online gambling regulation. Will the quadcom continue to generate interest? And will its hearing produce real changes, not just political theater? The 20th Congress, like the 19th, will likely be a battleground between the two most powerful families in the country — the Marcoses and the Dutertes. As House Speaker during the 19th Congress, presidential cousin Romualdez presided over the Duterte impeachment, passed a controversial budget, and approved a proposed constitutional amendment easing restrictions on foreign ownership of local businesses. The Marcos government’s ability to advance its political and legislative agenda hinges on whether Romualdez can keep being Speaker. So far, reports say he has the votes of at least 291 out of 317 representatives despite grumblings from lawmakers from the Visayas and Mindanao, known Duterte bailiwicks. In the Senate, Escudero and Vicente Sotto III have butted heads over the stalled impeachment trial. Sotto has also raised concerns over budget insertions that were supposedly intended to get some senators to support Escudero’s leadership. In 1987, the Philippines was emerging from dictatorship and entering a new era of restored democracy — one that promised to break away from the elite rule that marked Ferdinand Marcos Sr.’s regime. The Constitution ratified that year mandated Congress to pass a law prohibiting political dynasties. But nearly four decades later, no such law exists and families still rule. The result of the last midterm elections confirm the increasing hold of families: 19 of the 24 senators and 80% of district representatives come from political clans. In addition, at least 18 obese political dynasties , families that have four or more elective positions, are now in power. Despite this, electoral reform advocates, who have long opposed political dynasties, noted small signs of progress: Some challengers won against dynasties, others came close, and a few longstanding clans lost seats. Some lawmakers — including Erwin Tulfo, himself from a political family — have voiced support for reviving efforts to pass an anti-dynasty law, following strong advocacy against families during the campaign. Will the 20th Congress be able to pass an anti-dynasty law, something that all other Congresses post-EDSA failed to do?  – Rappler.com This article has been republished with permission from the Philippine Center for Investigative Journalism . How does this make you feel? </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025 Philippine elections,Bicol,Decoded,disinformation and misinformation,Fighting disinformation,Philippine politics,Sara Duterte,social media,social media influencers</t>
+          <t>#ScamAlert,Budget Watch,Chiz Escudero,Ferdinand Martin Gomez Romualdez,gambling,House of Representatives,human trafficking,Martin Romualdez,online gambling,online scams,Philippine national budget 2026,POGOs,political dynasties,Sara Duterte,Sara Duterte impeachment,Senate of the Philippines,State of the Nation Address - Philippines,war on drugs</t>
         </is>
       </c>
     </row>
@@ -554,25 +554,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[DECODED] Who’s afraid of Gen Z?</t>
+          <t>WATCH: Saan dumadaan ang perang na-scam?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/voices/newsletters/decoded-who-is-afraid-gen-z/</t>
+          <t>https://www.rappler.com/newsbreak/podcasts-videos/video-where-scammed-money-goes-cryptocurrency/</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45644.41666666666</v>
+        <v>45863.238125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Let’s face it: Gen Z might just be the most misunderstood generation in recent history. Hi! I’m Gaby Baizas, a 27-year-old digital forensics researcher for Rappler and The Nerve — and the only Gen Z in our digital forensics team. I’m here to share what we’ve uncovered about my generation, one story at a time. Over the past year, we’ve explored how Gen Zs think about some of the most pressing issues today. If you’re Gen Z, I hope these stories resonate with you. If you’re from another generation, I hope they give you a deeper understanding of what makes us tick. Around this time last year, I wrote an in-depth data story that looked into the socioeconomic factors that impacted Gen Z’s attitudes on work and money. I’ve always heard older generations share their misgivings about our work ethics and attitudes. But I understood that these shifts in workplace behaviors didn’t just come out of nowhere; they were brought about by a dwindling economy and fears that we might not be able to afford basic needs or emergencies. When we officially launched Decoded in July, our lead forensics researcher Pauline Macaraeg wrote about how these financial fears bled into young couples’ decisions to not have children. The DINK (dual income, no kids) phenomenon shows that Gen Z and even millennial couples have a deep understanding of the financial and personal commitments that come with starting a family. Brands could learn from Gen Z’s beliefs and preferences, too. We’ve also written about how sustainability matters to Gen Z TikTok users in Southeast Asia, among the most vulnerable regions to climate change . TikTok users prefer smaller brands and influencers when it comes to eco-friendly products and practices, and are often skeptical of larger companies that might engage in greenwashing practices. But one of the most significant findings we’ve written about is how Gen Z’s high social media use can make us susceptible to online manipulation. Sure, Gen Zs like me spend a lot of time on social media and are more familiar with newer technologies, but that doesn’t mean we’re immune to propaganda online. For instance, Rappler digital communications specialist Laurice Angeles wrote about how she first learned about ADHD through social media , and how this prompted her to seek professional help. While platforms like TikTok could raise awareness on certain health conditions, Gen Z users who substitute medical appointments with social media advice could put themselves and their health at risk. After all, social media platforms are rife with unverified claims. If you’ve been keeping up with The Nerve’s work, you might be familiar with our forensics research on disinformation. In our last newsletter, Don Kevin Hapal, who led the project, discussed our study on the US information ecosystem. Ahead of last November’s election, we found a growing generational divide: while older voters stuck to more traditional news sources, younger voters were relying heavily on social media. This means young Americans voters are exposed to hyperpartisan manipulation and disinformation online, which might also be why they also turned out to be the most divided on key election issues, and who they voted for in the elections. (You can download the full report here .) No matter how you feel about Gen Z, there’s no denying that this generation really found its voice this year. We’ve dominated discourse on global conflicts, raised awareness on environmental issues, and led cultural revolutions that have become too big and significant for other generations to ignore. What do you think about Gen Z? If you’re interested in Nerve and have ideas on how we can work together, feel free to email us at hello@thenerve.co. For more information, you can also visit our website . – Rappler.com The Nerve is a data forensics company that enables changemakers to navigate real-world trends and issues through narrative and network investigations. Taking the best of human and machine, we enable partners to unlock powerful insights that shape informed decisions. Composed of a team of data scientists, strategists, award-winning storytellers, and designers, the company is on a mission to deliver data with real-world impact. How does this make you feel? </t>
+          <t xml:space="preserve">MANILA, Philippines – Ang perang nasa-scam ay dumadaan daw sa isang underground money system, kaya nahihirapan ang mga imbestigador na hanapin at ibalik sana sa mga biktima. Paano naaabuso ang cryptocurrency, at ano ang papel ng mga casino junket, sa sistemang ito ng money laundering? Panuorin sa report na ito ni Lian Buan. Basahin din ang in-depth report tungkol dito: “How dirty money flows through PH crypto and underground banking casinos.”  Saan ba dumadaan ang mga perang nasa scam at bakit hirap na hirap tayong tuntunin ito? Short answer to a complex question: sa underground system gamit ang mga casino junket at cryptocurrency. I’ll try to explain it using the murder case of Chinese businessman Anson Que. Bakit? Kasi ‘yung pinagdaanan ng ransom money para kay Anson Que ay similar din daw sa underground banking infrastructure na dinadaanan ng mga scamming money. Paano nangyayari ‘yun? Imagine this is $2.5 million at ready na akong ipang-ransom ito para sa mahal ko sa buhay. Pero ang gusto ng mga kidnappers, gumamit ako ng crypto para hindi ma-trace. Then I would have to use casino junket operators who are operating what are called OTCs or over the counter. Sila ‘yung mga ito. Puwede kong dito ilagay ang pera ko para maging crypto. Ang mga OTC na ito, ang siyang bahala para magbigay nito sa mga kidnapper. But let’s suppose na ang gusto ng mga kidnapper ay makuha nila ang pera na nasa US dollars na at hindi crypto. So gagamit ang OTC ng tinatawag na crypto exchange, na ginagamit naman lahat ng crypto investors. Dito sa crypto exchange mangyayari ang palitan, mula dito manggagaling ang pera papunta sa kidnapper, at ang OTC na ang bahala na papunta sa mga bulsa nila dito. But in all of this that happened, ito lang ‘yung recorded on transaction. And everything else, including this, hindi na makikita ng financial trail investigators. Ang ginamit na crypto sa pagbayad ng ransom money kay Anson Que, ay Tether. Paano ko nalaman? Meron kasing mga public search engine tulad nito na puwedeng mag-track ng mga crypto transactions basta alam mo kung ano ‘yung account at ano ‘yung transaction ID. Mula sa mga dokumento sa kaso, nalaman ko kung ano yung account at nakapag-generate ang mga public search engine na ito ng isang statement of account na pinapakita na USDT or Tether ‘yung cryptocurrency na ginamit. At nag-match ‘yung mga sinabing dineposit ng anak ni Anson Que doon sa statement of account na nag-generate nito. But that’s all that I can know. Hindi ko malalaman kung sino ang may-ari ng account at hindi ko rin malalaman kung nasaan ‘yung mga account na ito. And generally, that’s the point of crypto: it’s decentralized, walang mga middlemen, walang mga bank. In a utopia, madaling ma-access ang mga financial services. In a dystopia, lahat tayo ninanakawan pero hindi natin alam kung saan napupunta. But Tether is centralized. And in the past, it has helped law enforcement agents track and freeze stolen money. My sources tell me this is the same underground infrastructure na dinadaanan ng mga na-scam na pera mula sa Pilipinas. Take for example the case of the Bamban, Tarlac, scam hubs. Nakita ko rin sa mga dokumento na napansin ng mga investigator na ‘yung mga illegal Philippine offshore gaming operators at maging ‘yung real estate company ni Alice Guo, hindi dumaan sa formal banking system. It makes them so suspicious kasi paano nila mapapaandar ang operasyon nila kung wala silang pera sa kanilang mga bangko. What makes the Anson Que case more remarkable, pinangalanan ng mga police ‘yung casino junket operator na nag-facilitate ng ransom. Ito ay ‘yung 9 Dynasty. At yung 9 Dynasty ay may connection ng matagal na binabantayan sa isang POGO na na-raid noong 2023. Ang isa sa mga Chinese big boss ng mga illegal POGO dito sa Pilipinas na si Huang Zhiyang na hanggang ngayon ay pugante pa rin, nahanapan sa bahay niya ng mga gamit na may marka ng 9 Dynasty. At ‘yung may-ari ng 9 Dynasty ay minsan nang napikturan kasama ng ninong ni Cassandra Ong na hanggang ngayon ay hindi pa rin natin nakikita. This is one big global network of organized crime and we are but just one of the many stops. ‘Yung may-ari ng 9 dynasty na si Mark Ong o si Liduan Wang, hindi natuloy ‘yung pagiging naturalized Filipino citizen niya dahil hinarang ni Senator Risa Hontiveros noon at kalaunan ay vineto din ni President Ferdinand Marcos Jr. All of this is bad news for the honest to goodness people na gusto lang namang mag-invest sa cryptocurrency. Pero bad news din to sa mga nascam kasi isang lupalop ng mundo natin hahanapin ang pera nila? – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>disinformation and misinformation,Networked propaganda,Philippine economy,social media,social media platforms</t>
+          <t>cryptocurrency,gambling,POGOs</t>
         </is>
       </c>
     </row>
@@ -582,25 +582,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pro-China propaganda pivots, targets civil society as tensions mount</t>
+          <t>[ANALYSIS] Why the Konektadong Pinoy Act should not be signed in its present form</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/investigative/pro-china-propaganda-pivots-targets-philippines-civil-society-tensions-mount/</t>
+          <t>https://www.rappler.com/business/opinion-why-konektadong-pinoy-act-should-not-be-signed-present-form/</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45532.48958333334</v>
+        <v>45861.22278935185</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. This story was made in collaboration with data forensics company The Nerve . In the ongoing saga that sees the Philippines on the receiving end of Chinese harassment, China-linked propaganda pushes the narrative that the country is caught in a proxy war initiated by the United States. The official Facebook accounts of China state-affiliated entities and media are among the sources of these propaganda narratives online, as found in a scan of posts from June 2022 to July 2024, under the administration of President Ferdinand Marcos Jr. The scan was conducted by Rappler and data forensics company The Nerve. These narratives include blaming the US for China’s rift with other countries, targeting the so-called “Western media.” Such propaganda highlights China’s supposed sovereignty over countries they claim as their own and emphasizes the importance of a regional alliance among Asian countries against the West. They also target civil society movements that attempt to stand up to Chinese harassment in the West Philippine Sea. With the continuing Chinese harassment of Filipino vessels and the Philippine Coast Guard (PCG), however, the pro-China narratives are trumped by the overwhelming anti-China sentiment from individuals trooping to social media to voice their support. Akbayan Party president Rafaela David, who is also a co-convenor of civilian-led advocacy Atin Ito, said that the China propaganda campaign “is designed to belittle the courage of the ordinary Filipinos and the efforts of legitimate civil society organizations.” The public sentiment also lines up with the Philippine government’s more decisive actions against China’s harassment and other acts of intimidation. This stronger stance of government under President Marcos is different from the often inconsistent, if not outrightly dismissive, Duterte administration. The increasing tension between the Philippines and China has inspired ordinary citizens to voice out their disapproval of China’s moves. But a coalition of civil society organizations took this a notch higher by actually sailing out to sea to assert ordinary Filipinos’ rights. The Atin Ito coalition has done two civilian missions so far. The civilian-led convoy first set sail in December 2023 to Ayungin Shoal to deliver supplies to military and Philippine Coast Guard (PCG) outposts, but eventually had to turn back due to the “ constant shadowing ” of China vessels. In May 2024, the convoy went on another civilian supply mission to deliver food and fuel to Filipino fishermen “to show solidarity and support to the community who are most affected by what China is doing in our own waters.” David said that the mission sought to “normalize and regularize civilian access” in the West Philippine Sea to counter China’s militarization. “Let it be made clear, Filipinos have agency [and] we do not need other foreign powers to compel us to do what is the inherent responsibility of every Filipino citizen [which is] to defend our country and protect our own rights,” David told Rappler. But Facebook pages found to have links to China paint another story. For these propaganda arms, the Atin Ito coalition and its missions are pawns supposedly deployed by the US and the Philippine governments. State-controlled media China Daily on May 15, posted a Facebook video baselessly claiming that the coalition “is actually secretly funded by the Philippines and the US governments,” as it questioned how a small civic group was able to mobilize resources for these missions. The one-minute video linked the Atin Ito efforts to a so-called Project Myoushu, an initiative that started in 2022 at the Gordian Knot Center for National Security Innovation at Stanford University. The Gordian Knot Center’s website states that the project is sponsored by the US Office of Naval Research. In a separate video posted a month later on June 15, China Daily presented more details about the alleged project, saying it is “funded by the Philippines and the US governments to bolster the Philippines’ position in the South China Sea.” According to Ray Powell, analyst and Project Myoushu lead, the project wanted to take a “fresh look” at the South China Sea issue and saw that most of the country’s “maritime aggressions were enabled by the fact that most of them took place out of the public view.” The China Daily video said that the project “portrays China as an aggressor, aiming to suppress narratives that challenge the Western discourse.” These baseless claims have also been shared in various online communities via coordinated, inauthentic behavior. Rappler found that a handful of Facebook accounts had coordinately shared popular posts from China-affiliated pages, amplifying propaganda surrounding the Atin Ito coalition. Such posts were being seeded into three significant communities — groups supporting China or the BRICS countries (led by Brazil, Russia, India, China, and South Africa), Philippine political groups, and buy-and-sell groups. The pro-China/BRICS and Philippine political Facebook groups explicitly include names of politicians, parties, and other institutions supportive of China. Some Philippine political groups mention President Marcos and his party, Partido Federal ng Pilipinas, as these groups were named in the lead up to the 2022 elections, where Marcos and Sara Duterte forged ties. A previous Rappler investigation found that it did not take long for the Marcos and Duterte networks to crack after the President took a more pro-US foreign policy approach. However, pro-China propaganda still found its way to a number of buy-and-sell groups, which are extremely active and likely not closely moderated, despite some groups having a “no-spam” rule. The smallest of these buy-and-sell groups has over 19,700 members, while the largest has over 486,500 members. These groups can have hundreds or thousands of new posts every day, making it easier for unrelated posts to slip through the cracks. The scan by Rappler and The Nerve showed that CRI Filipino Service, tagged by Facebook as “China state-controlled media,” was the first China-linked page that mentioned Project Myoushu. It posted on December 19, 2023 an announcement about a forum that aimed to tackle how “US Project Myoushu-PBBM rapes RP.” The speakers are known to have links with China. Three of the named speakers “were among the network of supposed experts who would push for Beijing’s narratives” and “would be consistently cited and interviewed in Chinese state media,” according to the book, Unrequited Love: Duterte’s China Embrace by journalists Marites Vitug and Camille Elemia. Previous Rappler findings showed that pro-China propaganda in the Philippines often came from bloggers and websites that claimed academic expertise and legitimacy. CRI Filipino Service went on to post about Project Myoushu four more times — another one in December 2023, once in January 2024, and twice in May 2024. In a post published on May 15, 2024, CRI Filipino claimed that Project Myoushu uses social media to spread false information about normal Chinese vessel activities in the South China Sea. The Chinese embassy in Manila also explicitly mentioned Project Myoushu in a post on May 16, 2024. It posted a link to a Global Times opinion piece that tagged the Atin Ito coalition as “far from being genuinely civilian,” claiming that it was “another act in the US’ Project Myoushu.” China-linked or affiliated pages are not the only ones posting allegations against the Atin Ito coalition and the bigger Project Myoushu conspiracy. A search on Facebook showed that the narrative related to Project Myoushu has been carried by individual bloggers and pages that have links to, or show apparent support for, Rodrigo Duterte, his allies, or the previous administration as a whole. One of the individuals who consistently posts about the project and its link to the Atin Ito coalition is a writer named Elmer Jugalbot. On May 15, Chinese state-run news site CGTN’s Facebook page published a video interview with Jugalbot , where he claimed that the civilian mission was funded by the US through Project Myoushu. Jugalbot, who identifies himself as a “political commentator,” has been cited in articles published by China-run or China-linked media, including CRI Filipino Service. He has also been featured in several videos published by SMNI News, owned by fugitive and Duterte ally Apollo Quiboloy. Before this, a certain Jugalbot was referred to by a 2018 news report as a “ businessman ”. Atin Ito’s David denied that the civilian group has any links with Project Myoushu, claiming that these allegations from China-linked pages “are as fictitious as their 9-dash line.” “Such absurd lies only show that they are threatened by ordinary Filipinos who dared to come together and hold accountable a superpower like China,” she told Rappler. Project Myoushu’s Powell also said “there is no connection whatsoever” between the project and the Atin Ito coalition. He said that the online narrative “suggests an orchestrated messaging campaign” that is aligned with China. Atin Ito’s David said that China’s narrative comes as no surprise, given how the civilian movement in the Philippines has since increased. “China’s lies seek to divide us, and sow doubt among civilian groups who found the collective courage to stand up against a bully like China,” she said. “By seeking to discredit legitimate civilian dissent to their illegal activities, they aim to dampen Filipinos’ resolve to stand up for what is rightfully ours.” The claims against civilian missions carried out by the Atin Ito coalition are just part of a bigger narrative deployed on social media as tensions escalate. For many Filipino netizens, it’s a no-brainer to support the cause and express patriotism through social media comments on Philippine-based media organizations’ news reports about the tensions. But Rappler and The Nerve also found a handful of social media comments that framed the issue as if the Philippines was starting a war that it is not ready for. Several Facebook users alluded to China as a global superpower that had all the resources, while the Philippines had nothing to show. There is also the narrative that alleges that the Philippines is just caught in a proxy war initiated by the US. Information released by authorities indicating incidents committed by Chinese vessels or the CCG against Filipino vessels were tagged as “Western war-mongering propaganda” and “another drama directed by the US.” They also accuse the US of “not supporting the Philippines but…escalating the tension.” Patterns of inauthentic behavior were also observed in the accounts posting this content. One account was found spamming rapid, continuous, and repetitive comments showing screenshots of anti-US content to different posts — a technique previously identified as part of the Russian “Firehose of Falsehood” Propaganda Model . While China-linked pages are now increasingly extending their narrative to also focus on civic society, and even warmongering, ordinary Filipinos online are hitting back by also consistently asserting Philippine rights and condemning Chinese harassment. This is evident on TikTok, where videos expressing support for Atin Ito and condemning Chinese aggression are among the most talked about and most liked. The Nerve analyzed 568 TikTok videos containing hashtags related to the West Philippine Sea by processing their audio, converting them into text, and applying natural language processing for narrative analysis. ( EDITOR’S NOTE: An earlier version of this story said 359 TikTok videos were analyzed. This has been corrected. ) Among the videos that were played the most were reports on the successful ventures of the Atin Ito movement and the favorable reaction of the international community toward the Philippines. Memes were also among the most shared videos, including posts making fun of Vice President Sara Duterte for her “no comment” quip when asked about the ongoing bullying by China. Political analyst and professor of political science Arjan Aguirre said that perhaps one of the reasons why pro-China propaganda carried by official outlets does not sway Filipinos — or the general public — is because “they are devoid of effective communicative devices.” He said that the messages are “usually poorly constructed” or there is an “effort to limit the scope of the discussion to topics that are innocuous to them.” “In fact in the subconscious of many of us, we already know that movements need resources and if it is true that the US is funding this movement, people would just feel good about the info that someone is helping us against China,” he said. “This is another layer, a pragmatic sense, that I’m getting or sensing about the issue.” Can we expect China to take its propaganda efforts up a notch? – Rappler.com This investigation used Nerve’s suite of forensic solutions including video and network analysis. If you’re interested in working with the Nerve, send an email to hello@thenerve.co. The Nerve is a data forensics company that enables changemakers to navigate real-world trends and issues through narrative &amp; network investigations. Taking the best of human and machine, we enable partners to unlock powerful insights that shape informed decisions. Composed of a team of data scientists, strategists, award-winning storytellers and designers, the company is on a mission to deliver data with real-world impact. How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. David Castuciano/Rappler President Ferdinand Marcos Jr. is strongly urged not to sign the submitted version of the Konektadong Pinoy Act . From its present form, certain provisions of the bill may unintentionally expose the country to a range of cybersecurity risks, simultaneously creating vulnerabilities that could threaten the quality and state of our social and economic life resulting from irresponsible exploitation and grave abuse. Also, as China watchers are pointing out, it bears traces of the subtle and covert but deceitful ploy of China that it previously rolled out in the political sphere to make inroads into the internet and communication space of Japan, which was foiled, but which Brazil is currently struggling with as an unwitting target. Indeed, the bill’s aim of expanding internet access and modernizing the country’s digital infrastructure is no doubt overdue and exigently necessary. The country truly deserves to be connected, faster and better. Nevertheless, the need for the bill to be enhanced with stronger safeguards and corresponding amendments from its present form is arguably essential for the government to truly achieve its vision of universal connectivity that will boost the country’s quality of information and communication infrastructure in addition to bringing its competitive edge to the rest of the world into a higher level. Hand in hand with its national security issues is the economic and social risks that it may create. Of important significance, new players are exempted from registration or authorization for satellite direct access services from the Department of Information and Communications Technology (DICT) or the National Telecommunications Commission (NTC). This means that new players, especially foreign-owned Data Transmission Industry Participants (DTIPs) and satellite operatorsm, can connect directly to Filipino users and use broadcast spectrum even without a telco partner or a congressional franchise. This contradicts the bill’s principle of “technology neutrality” and creates a “dangerous backdoor” for unregulated entities to operate. The infrastructure of foreign-owned entities, if already existing, could also be located and operated outside the Philippines, and yet all the same given preferential treatment that deviates from the normal standards of vetting process or oversight regulation. Under these circumstances, the quality of information is not just at risk but its unhindered availability to users can produce undesirable outcomes. One does not need to have a rocket-science intellectual acumen to understand, much less to imagine, the grave consequences it may cause to the less-schooled and economically challenged segment of the population — not to forget the gullibility and unrestrained curiosity of minors. Wild as it may be but entirely possible, casinos would now be readily found right inside the pockets of anyone with a smartphone. Anyone can gamble anywhere at any hour of the day. Minors can also gamble while in school, where they should be studying, if unsupervised. This situation could easily end up in resurrecting as well as contribute to the proliferation of illegal POGO (Philippine Offshore Gaming Operators) activities since internet and communication services can be available even in far-flung places of the archipelago. POGO operators could also literally locate themselves now in hard-to-find or inaccessible rural centers and be protected by their natural cover of isolation. Authorities already find it hard to discover the illegal sites of POGO operations even in the more easily accessible suburban areas, what more if they are hidden and protected in the rugged terrains of far-flung places? We have seen what the POGOs have produced: it has led to human trafficking, financial scams, prostitution, torture, money laundering, and illegal drug trade with its accompanying crimes. Ariel Tubayan, vice president of Globe Telecom’s Legal Policy Group and Roy Ibay, vice president of Smart Telecom’s Regulatory Affairs, who recently both spoke for the side of the Philippine Chamber of Telco Operators (PCTO) at the Monday Circle Forum , provided further insights on what legal and constitutional dangers the bill could expose their association and relevant local players, the public and even the government. (READ: Road to faster internet? Congress moves to ease ISP restrictions ) On their part, the bill significantly places the legal and financial status of their rank to a disadvantage. They are exposed to uneven playing field and unfair competition. Their ranks continue to bear the burden of extensive regulation, while new entrants operate with less scrutiny. For instance, the bill does not require new entrants to serve geographically isolated and disadvantaged areas (GIDAs). New players may just have to focus their ventures solely on profitable urban centers, leaving rural communities still underserved. Conversely, the government may lose its emergency powers to ensure continuity or control over connectivity in times of national emergency and protect public interest when so required in its present form. Furthermore, the bill may also unnecessarily open the country to violate treaty agreements relative to satellite frequency use and concomitant prior notification requirements. Needless to say, the present form of the bill is lacking on substance built on strong legal foundations, fair policy, and mutual accountability. Thus, President Marcos Jr. should veto the bill that is now awaiting his signature and give the PCTO and other related stakeholders like the Federation of International Cable TV Associations of the Philippines and the Philippine ICT Organization a chance to share their added insights for a new version that will aptly achieve the vision for universal connectivity in the country — and be passed by the 20th Congress. – Rappler.com (The article has been prepared for general circulation for the reading public and must not be construed as an offer, or solicitation of an offer to buy or sell any securities or financial instruments whether referred to herein or otherwise.  Moreover, the public should be aware that the writer or any investing parties mentioned in the column may have a conflict of interest that could affect the objectivity of their reported or mentioned investment activity.   You may reach the writer at densomera@yahoo.com) How does this make you feel? </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Decoded,Networked propaganda,social media,social media platforms,South China Sea</t>
+          <t>Congress of the Philippines,DICT,Internet infrastructure,internet safety,NTC,POGOs,telecom</t>
         </is>
       </c>
     </row>
@@ -610,25 +610,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Meta says it removed China-based propaganda operation targeting US midterms</t>
+          <t>How dirty money flows through PH crypto and underground banking casinos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/technology/social-media/meta-removes-china-based-propaganda-operation-targeting-united-states-midterms/</t>
+          <t>https://www.rappler.com/newsbreak/in-depth/money-laundering-philippines-cryptocurrency-underground-banking-casinos/</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44832.03802083333</v>
+        <v>45860.41783564815</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. META. The logo of Meta Platforms is seen in Davos, Switzerland, on May 22, 2022. Arnd Wiegmann/Reuters Meta Platforms said on Tuesday, September 27, it disrupted the first known China-based influence operation focused on targeting users in the United States with political content ahead of the midterm elections in November. The network maintained fake accounts across Meta’s social media platforms Facebook and Instagram, as well as competitor service Twitter, but was small and did not attract much of a following, Meta said in a report summarizing its findings. Still, the report noted, the discovery was significant because it suggested a shift toward more direct interference in US domestic politics compared with previous known Chinese propaganda efforts. “The Chinese operations we’ve taken down before talked primarily about America to the world, primarily in South Asia, not to Americans about themselves,” Meta global threat intelligence lead Ben Nimmo told a press briefing. “Essentially the message was ‘America bad, China good,'” he said of those operations, while the new operation pushed messages aimed at Americans on both sides of divisive issues like abortion and gun rights. Another Meta executive at the briefing said the company did not have enough evidence to say who in China was behind the activity. Asked about Meta’s findings at a news conference, U.S. Attorney General Merrick Garland said his office was “very concerned” about intelligence reports of election interference by foreign governments “starting back some time ago and continuing all the way into the present.” A Twitter spokesperson said the company was aware of the information in Meta’s report and also took down the accounts. According to Meta’s report, the Chinese fake accounts posed as liberal and conservative Americans in different states. They posted political memes and lurked in the comments of public figures’ posts since November 2021. A sample screenshot showed one account commenting on a Facebook post by Republican Senator Marco Rubio, asking him to stop gun violence and using the hashtag #RubioChildrenKiller. The same network also set up fake accounts that posed as people in the Czech Republic criticizing the Czech government over its approach to China, according to the report. Meta also said it had intercepted the largest and most complex Russian-based operation since the war in Ukraine began, describing it as a sprawling network of more than 60 websites impersonating legitimate news organizations, along with about 4,000 social media accounts and petitions on sites like US-based campaign group Avaaz. That operation primarily targeted users in Germany, as well as France, Italy, Ukraine and the United Kingdom, and spent more than $100,000 on ads promoting pro-Russian messages. On a few occasions, Russian embassies in Europe and Asia amplified the content. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. “Exchange the money for U,” the kidnappers of Chinese businessman Anson Que told his distraught son on April 7, referring to the cryptocurrency Ucoin because the casino junkets have stopped processing big deposits. It was the seventh day of Anson in captivity, and the ransom money had been negotiated to $5 million, or around P285 million. By April 7, the son had already deposited P60 million to the kidnapper’s e-wallets using the casino service of the 9 Dynasty junket group, he said in his affidavit, a copy of which was obtained by Rappler. After several big deposits, the casino service stopped accommodating the son. Frustrated, the kidnappers who were using Anson’s WeChat account told the son to look for “underground money lenders,” so he can transact in Ucoin. The son was able to obtain and deposit 2.5 million USDT from April 7 to April 8, based on his own accounting, and which we cross-matched with data on Blockchair, a public search engine that can track crypto transactions. USDT, a cryptocurrency known as Tether, is a type of stablecoin. Being a stablecoin means the value is not as volatile as other cryptocurrencies like Bitcoin, and it aims to always maintain a 1:1 equivalent to fiat currencies like the dollar. It means that the son’s 2.5 million USDT was equivalent to 2.5 million US dollars. The 2.5 million USDT was taken out of the kidnappers’ accounts on the same day, based on Blockchair data. Following the transaction IDs of the staggered transfers, it seems the kidnappers moved the coins to another account on April 8. Anson Que and his driver were found dead on April 9 , despite a total equivalent of P200 million in ransom money paid. “The AMLC [Anti Money Laundering Council] is actively collaborating with the PNP [Philippine National Police] to gather evidence on the unlawful activities, tracing the ransom funds in all their forms, and pursuing forfeiture proceedings,” said AMLC in a statement on May 12. The son has “yet to formally hear from the authorities regarding the current status of their efforts,” said his lawyer Kit Belmonte in a message to Rappler on Tuesday, July 22. Cyrptocurrency’s allure is that it is decentralized , doing away with “middlemen” institutions like banks and promising to be more accessible. Tether, however, is centralized and as such, it has been able to help law enforcement track and freeze dirty USDTs. This is a big debate in the crypto world particularly due to concerns that it betrays the principles of decentralized finance or DeFi. But for the Philippines, which has been used as a scam haven of Southeast Asia through the years, there is yearning for more efficient tracking of laundered money. “We recognize that tracing and recovering the ransom funds is a difficult and complex undertaking, especially given the nature of cryptocurrency. That said, we are aware of positive developments in tracing at least portions of the funds, and we continue to monitor the situation closely, including the forfeiture proceedings previously noted by the AMLC,” said Belmonte. The blurred money trail is the main reason why pig-butchering scams lure victims into investing in cryptocurrency. The term pig-butchering comes from the practice of scammers who build trust and maintain relationships with potential victims, “fattening” them like pigs before targeting them for fraud. If they scam crypto, then they can launder crypto. “Without the ability to launder money, there would be significantly less incentive to engage in cryptocurrency-related crimes,” reads an internal briefing on 9Dynasty compiled by Philippine intelligence officers and their international law enforcement partners. “Contemporary criminals and clandestine monetary transactions utilize over-the-counter (OTC) casino services and encrypted applications, such as Telegram, to mask the origins of their funds,” said the briefer. “The primary objective remains unchanged: to transfer funds to destinations where the original illicit source cannot be identified and ultimately to a service that permits the exchange of cryptocurrency for cash — typically, this corresponds to cryptocurrency exchanges,” the briefer added. After being pressured to look for Ucoins from “underground money lenders,” the son was able to buy most of his USDTs from 9 Dynasty and White Horse services at another casino, according to his affidavit. The son submitted this counter-affidavit to answer an accusation by an arrested suspect that he masterminded the kidnapping of his father. The son was cleared on June 18 by prosecutors “due to lack of evidence.” According to the internal briefer, the OTC casino services act as broker, or essentially the middleman account between the two traders. In the last phase, the OTC broker conducts the currency exchange and transfers it back to the traders. “Only the OTC transaction is visible as a recorded transaction,” said the briefer. “Public reports suggest that around ₱200 million in ransom was routed through e-wallets tied to casino junket operators, shell accounts, and possibly cryptocurrency — potentially obscuring the money trail,” the anti-money laundering division of the Securities and Exchange Commission (SEC) told Rappler in a statement. The SEC division declined to be interviewed, or answer detailed questions, citing the ongoing investigation. It’s not the first time that 9 Dynasty has been on the radar of Philippine authorities. When the Presidential Anti-Organized Crime Commission (PAOCC) raided a cryptocurrency scam hub in Pasay in August 2023, they found that the company, SA Rivendell Gaming Corporation, share the same Filipino directors as a company called 9 Dynasty Group Inc., which registered with the SEC as a tour and leisure group in 2021. The company email used to incorporate 9 Dynasty Group Inc. has an “avia management” domain, according to its certificate of incorporation. Avia Leisure Group, a junket operator, is run by Chinese national Liduan Wang, known as Mark Ong, according to SEC documents presented by Senator Risa Hontiveros on January 20, when she opposed the law that would naturalize Wang . President Ferdinand Marcos Jr. vetoed Wang’s naturalization in April, citing “alarming and revealing warnings.” A junket operator provides high-rollers all-around service for gamblers, including arranging their hotel accommodations. They also operate an OTC or over-the-counter service at casinos, a source told Rappler, adding that “it’s a bank by itself, but it’s an underground bank.” Wang is an incorporator of 9 Dynasty Holding Inc., a separately-registered firm. All of these were enough for the police to tag Wang in Que’s ransom route. “Ang nagmamay-ari po ng 9 Dynasty ay isang Mark Ong na isang Chinoy, Tsino na ang nasa likod ng 9 Dynasty. Ang kanya pong totoong pangalan Liduang Wang,” said police spokesperson Jean Fajardo in a press conference on May 5. “Ang 9 Dynasty ay hindi po ordinaryong casino…At ito po ang kanyang mga activities at mga negosyo po: sugal, pera-padala, crypto exchange at lahat po ‘yan ay dinadaan sa sarili po nilang 9 Dynasty e-wallets na wala pong lisensya mula sa BSP at hindi rin po registrado sa Anti-Money Laundering Council,” Fajardo added. (The owner of 9 Dynasty is Mark Ong, a Chinese, who’s behind 9 Dynasty. His real name is Liduang Wang. 9 Dynasty is not an ordinary casino. Its activities and businesses include gambling, money transfer, crypto exchange and all of that go through its own 9 Dynasty e-wallets which have no license from the Central Bank of the Philippines, and not registered with the Anti-Money Laundering Council.) Huang Zhiyang , the Chinese fugitive who set up the businesses that housed scam hubs in Clark, Pampanga and Bamban, Tarlac, was found with 9 Dynasty paraphernalia in his home, said Hontiveros in June as she was pushing for the anti-POGO (Philippine offshore gaming operators) bill, or a measure that would institutionalize and even expand the ban on offshore online gambling. The money trail design follows a global blueprint that has been noticed in the scamming world. “Chinese organized crime syndicates, the same ones behind the rise of Scam Inc., have also become the underground bankers for the whole world,” said journalist Sue-Lin Wong in an episode of The Economist podcast series, “Scam Inc.” 9 Dynasty and White Horse Club notified its channels that it left the Philippine market on May 7, or two days after the police press conference. “However, the AMLC remains steadfast in its commitment to probe their alleged money laundering activities,” said AMLC, adding that “the investigation extends beyond the kidnappers who directed the ransom payment process. It also targets casino players within these junket operations who initially received the ransom funds via their e-wallets.” Philippine authorities are still monitoring 9 Dynasty’s supposed footprints in the Philippines after its announced exit, particularly its utilization of another crypto wallet that services Southeast Asia, a source told Rappler. The SEC amended its rules on crypto-asset service providers or CASPs on May 30 so that they can “improve traceability and reduce the risk of illicit use.” According to the SEC, citing data from reputable blockchain analysis firm Chainalysis, the Philippines received a total of US$40 billion worth of cryptocurrency from 2023 to 2024. “We will leverage our regulatory tools and data-sharing capabilities to support the investigation and ensure that any illegal schemes, whether involving digital or traditional financial channels, are effectively identified and dismantled,” the SEC said. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Networked propaganda</t>
+          <t>Anti-Money Laundering Council,crimes in the Philippines,gambling,kidnapping,money laundering,organized crime,Philippine National Police,POGOs,police</t>
         </is>
       </c>
     </row>
@@ -638,25 +638,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tracking the Marcos disinformation and propaganda machinery</t>
+          <t>WATCH: Lending apps designed like POGO prey on 15,000 Filipinos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/iq/stories-tracking-marcos-disinformation-propaganda-machinery/</t>
+          <t>https://www.rappler.com/philippines/video-lending-apps-pogo-style-target-filipinos/</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44665.125</v>
+        <v>45856.22137731482</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MANILA, Philippines – As the 2022 polls inch closer, the online landscape becomes more difficult to navigate due to the deluge of disinformation that has favored the frontrunner of the presidential race – the dictator’s son, Ferdinand “Bongbong” Marcos Jr. Marcos has maintained a wide lead over his opponents even though he took longer to ramp up ad spending , is perpetually absent during presidential debates organized by major media organizations and the poll body, and has faced plenty of controversies involving his candidacy , his educational background , and his estate tax liability , among others. How does he sustain and gain support online? His camp and his supporters employ tactics that involve spreading lies and utilizing networks that platforms are too slow to stop. It is a years-long effort that will come to a head on May 9, when Filipinos will cast their votes. Here are Rappler investigations and reports on the many ways propaganda and disinformation related to the Marcoses thrive on social media, how platforms either respond or allow it to happen, and how the Marcos family benefits from the lies and manipulation. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">Trigger warning: This post contains a mention of suicide. MANILA, Philippines – Digital lending in the Philippines is a $1-billion industry, according to the Presidential Anti-Organized Crime Commission (PAOCC), but abusive lending apps are proliferating following a business structure that’s designed much like the POGO (Philippine offshore gaming operator) scam hubs. At least 15,000 Filipinos have fallen victims so far, and some have taken their own lives due to harassment. There are 55 online lending apps (OLAs) being complained for “predatory interest rates” on loans that are taken out of a very loosely-regulated scheme, many using convenient digital wallets. “When borrowers struggle to repay, often just days after taking the loan, they are met with not understanding but abuse,” PAOCC said. The abusers are employed “keyboard warriors” who seem to be being recruited by one group, PAOCC chief Gilbert Cruz told Rappler, showing similarity in structure with POGOs.  In recent raids, PAOCC found text blasters and IMSI-catchers, which is how the OLAs get mobile phone data. “POGO have pre-registered sim cards, which is also prevalent in OLAs. They also have keyboard warriors who are tech-savvy,” Cruz said in a mix of English and Filipino. The keyboard warriors use AI or artificial intelligence to generate false photos and videos that they then use to blackmail the borrowers. Brandon, not his real name, is one of such keyboard warriors, who said they were incentivized to harass and secure payments. Brandon said they could get as high as a P10,000 commission per borrower within the two-week timeframe, on top of their minimum wage. At least 172 OLA workers were arrested by PAOCC recently and underwent inquest for violations of data privacy, the Truth in Lending Act, cybercrime, and possibly grave threat. Watch this report by Rappler multimedia reporter Lian Buan. – Rappler.com The Department of Health has national crisis hotlines to assist people with mental health concerns: 1553 or 1-800-1888-1553; 0919-057-1553 (Smart/TNT); and 0917-899-USAP (8727) (Globe/TM).  You can also access free online psychosocial support via www.ncmhusaptayo.com . How does this make you feel? </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022 PH presidential race,Disinformation,Ferdinand E. Marcos,Ferdinand Marcos Jr.,Marcos family,Networked propaganda</t>
+          <t>Apps,lending industry,online scams,organized crime</t>
         </is>
       </c>
     </row>
@@ -666,25 +666,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quiboloy’s SMNI fuels disinformation, online attacks on gov’t critics</t>
+          <t>[EDITORIAL] Bakit umeeksena pa rin ang NTF-ELCAC?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/technology/social-media/apollo-quiboloy-sonshine-media-network-disinformation-attacks-government-critics/</t>
+          <t>https://www.rappler.com/voices/editorials/why-ntf-elcac-anti-insurgency-task-force-still-operates-impunity/</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44598.33333333334</v>
+        <v>45852.29940972223</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. This story was made in collaboration with data consultancy TheNerve . MANILA, Philippines – Almost two years after ABS-CBN went off-air , the National Telecommunications Commission (NTC) distributed to other entities the frequencies previously assigned to the media giant. Among those awarded the frequency bands is Sonshine Media Network International (SMNI) , owned by President Rodrigo Duterte’s embattled friend, preacher Apollo Quiboloy. Quiboloy has long been mired in scandals, having been accused of land grabbing and indicted for sex trafficking , landing him on the most wanted list of the United States Federal Bureau of Investigation. A Rappler investigative series also found that ex-members of his church, the Kingdom of Jesus Christ (KOJC), were deep in debt due to his financial demands and had suffered emotional and psychological abuse. Read Rappler’s investigative series on Quiboloy here: Now, his church’s broadcasting arm is receiving government favor in the form of airwaves despite its failure to abide by journalistic standards. The Facebook page of its news and public affairs network, SMNI News, is at the core of the network of accounts, pages, and websites that red-tag government critics and attack the media. It also has a history of sharing misleading information and lending its platforms to hyper-partisan figures. On several occasions, SMNI News has been used as a platform to attack journalists and red-tag government critics. When ABS-CBN was denied a franchise after repeated threats from President Duterte, SMNI News published a report on Quiboloy urging the network’s supporters not to blame the government, but the network’s management for “not [doing] their job.” On SMNI’s Usaping Bayan program, host Mike Abe also told ABS-CBN’s supporters that, no matter how much they rally, Congress would not be able to easily renew ABS-CBN’s franchise. SMNI News has also allotted considerable airtime to congressmen Mike Defensor and Rodante Marcoleta , two key legislators who blocked ABS-CBN’s franchise renewal. They host SMNI’s Point of Order program, which they used to revisit ABS-CBN’s alleged violations a year after the license denial. Despite Defensor and Marcoleta’s claims, other government officials have cleared ABS-CBN of alleged violations, saying the network had regularly complied with tax requirements, labor standards, and franchise terms. Quiboloy himself compared ABS-CBN to the Communist Party of the Philippines-New People’s Army (CPP-NPA) due to their alleged “bias.” This came after supporters from a Marcos-Duterte motorcade crowded ABS-CBN vehicles, visibly annoying crew members. When Rappler CEO Maria Ressa received her Nobel Peace Prize in Norway, she talked about the persecution endured by journalists from Rappler and other newsrooms worldwide. In another Usaping Bayan broadcast, Abe had called Ressa a liar, slammed her for being dramatic in front of the international community, and questioned her Filipino citizenship. Ressa is a dual citizen who holds both Filipino and US citizenship. Attacks against journalists are repeated by SMNI’s readers. Duterte supporters often share SMNI’s content and slam mainstream media outlets for supposedly being “biased” against the administration, and for supposedly not reporting on certain government accomplishments. SMNI News is in the middle of the network of pages, accounts, and websites that have shared and created posts that attacked the media. Rappler scanned public posts from January 1, 2016, to October 31, 2021, to study posts with mentions of attack words we have collected over years of monitoring online harassment against the press. These words included “presstitute (a portmanteau of press and prostitute),” “bayaran (paid hacks),” and “bias,” among others. The maps above show the network of pages, accounts, and websites that harassed journalists online from 2020 to 2021. The blue circles represent the sources and sharers of the posts that contained attack keywords. The bigger the circle, the more it was shared by other actors in the network. The dark blue circles are the sources, or those who produced content, while the light blue circles represent those who shared content from the sources. SMNI News’ influence in the network became bigger starting in 2020. This was also the year that its Facebook page’s followers and page likes started to ramp up, based on data from CrowdTangle. Its Facebook page now has over 400,000 likes and more than 900,000 followers, as of February 3, 2022. An earlier Rappler investigation also found that SMNI News was among the top content sources of red-tagging networks. Clips of SMNI News’ reports about the CPP-NPA were shared by a network of pages and accounts that justified violence by branding activists and government critics as “terrorists.” SMNI News’ reports often only featured voices from government officials and allies. These reports were then shared by pages and accounts that captioned their posts with statements that blamed the media and institutions, like the Commission on Human Rights, for the supposed communist threat in the country – which they exaggerate. These posts also often contained unverified claims and presented them as facts, such as the accusation that actress Angel Locsin’s sister was a member of the NPA , and that the mainstream media had supposedly been “infiltrated” by communists . Leftist groups, particularly those that belonged to the Makabayan bloc , were also a top target of these accounts. The posts that shared SMNI News’ posts antagonized leftist groups and justified the attacks made on its members, drowning out the real stories of activists being harassed and killed . SMNI News pushed this narrative offline too. During the filing of candidacies for the 2022 polls, SMNI’s staff repeatedly asked members of the Makabayan bloc about their alleged communist ties – a line of questioning critics had flagged as dangerous and tantamount to red-tagging. SMNI News has also reported misleading and outright false claims, which have been fact-checked by third-party fact-checkers. These included a quote card of Vice President and presidential contender Leni Robredo which lacked context, as well as a report that claimed dictator’s son Ferdinand “Bongbong” Marcos Jr. “passed” his bachelor’s degree in social studies at the University of Oxford . The network has also lent their platforms to politicians and personalities who often make false claims – in effect, SMNI does not directly make the claims, the interviewees do. In an Usaping Bayan broadcast in 2020, Senator Imee Marcos falsely claimed that the equipment of the Bataan Nuclear Power Plant was gone – a claim Rappler later fact-checked . SMNI News also gives commentary programs to public officials and bloggers , including RJ Nieto of Thinking Pinoy and Sass Sasot, who use their platforms to spread government propaganda. SMNI News has distanced itself from the mainstream media. Though it usually publishes content in favor of the Duterte administration, it describes itself as “a true alternative network that broadcasts the uncompromising message of truth giving emphasis to responsible journalism and broadcasting; driven with the purpose to satisfy man’s spiritual need leading to transformation and excellent service,” as stated in its Facebook page. SMNI is also a member of ​​Kapisanan ng mga Brodkaster ng Pilipinas (KBP), whose broadcast code provides networks and media outfits ethical guidelines and standards for both news and commentary programs. The KBP encourages the public to submit complaints via their website whenever member stations violate guidelines listed in the code. Those who violate the code are subject to penalties and other sanctions. Individuals who violate the code can receive temporary suspensions and can have their accreditation revoked, while stations can be censured and given temporary suspensions of member privileges. However, SMNI News continues to broadcast freely, and its hosts continue to amplify lies and propaganda even on social media. SMNI’s strategy of featuring pro-administration figures and propaganda should not come as a surprise, as Quiboloy is a longtime friend and spiritual adviser of President Duterte. The network’s roots trace back to early radio and television programs by the media ministry of Quiboloy’s KOJC. Legally known as the Swara Sug Media Corporation, SMNI was first granted a franchise when bills lapsed into law in 1995. In May 2016, the network launched SMNI News, and in 2019 Duterte signed their franchise extension , allowing them to operate for another 25 years, or until 2044. Quiboloy actively campaigned for Duterte and lent him a private plane during the 2016 national election. The pastor even predicted a landslide victory for Duterte, saying he was the leader the Philippines needed to “slay corruption, drug addiction, and poverty.” Duterte also admitted that he received other lavish gifts from Quiboloy, including properties and cars, but said that these donations were made “in the name of God.” Most recently, Quiboloy officially endorsed the tandem of dictator’s son Ferdinand “Bongbong” Marcos Jr. and presidential daughter Sara Duterte for the upcoming 2022 election. He predicted that Marcos and Duterte, the current survey frontrunners, would also enjoy a landslide win. Both Quiboloy and Duterte enjoy exaggerated, cultish devotion from their followers, to the extent that their wrongdoings are tolerated or go unchecked. Before Rodrigo Duterte was sworn into office, Quiboloy had said he would not use their longtime friendship to meddle with issues of “national interest.” Duterte had said the same about his friendships, saying “My loyalty to you as a friend ends where my loyalty to my country begins.” Over five years later, the NTC, the same executive agency that shut down media giant ABS-CBN, granted Quiboloy’s SMNI a wider reach with highly-coveted frequencies – never mind if its network incites hate and spreads propaganda. – with reports from Gemma B. Mendoza, Don Kevin Hapal, Dylan Salcedo/Rappler.com This study was made in collaboration with TheNerve , a Manila-based consultancy that specializes in analyzing data to bring forth powerful insights and narratives. Believing that data can deliver real-world impact, the company enables its partners across a wide range of industries to cut through the clutter and extract value and meaning from various datasets. The insights guide partners’ business decisions and help them engage with their communities better. Composed of a team of data scientists, business strategists, award-winning storytellers, and designers, the company is on a mission to transform data science into data relevance. How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Nico Villarete Maraming latak ang Duterte administration na parang anay sa body politic ng Pilipinas hanggang ngayon: andiyan ang misogyny na ramdam na ramdam nitong nakaraang kampanya ng eleksiyon; ang mga POGO na naging haven ng mga sindikato ng human trafficking at scams; at ang drug war na kumitil ng 30,000 na buhay at nag-iwan ng hindi-mahugasang mantsa sa kaluluwa ng kapulisan. Pero hindi magpapahuli sa bagsik ang isa pang pamana ni Digong sa larangan ng pagsupil ng karapatang pantao: ang National Task Force to End Local Communist Armed Conflict (NTF-ELCAC), ang pinaigting na red-tagging sa ilalim ng task force, at ang Anti-Terrorism Law . Sabi Irene Khan, ang United Nations special rapporteur on freedom of expression and opinion, “walang makabuluhang pagbabago” sa freedom of speech sa PIlipinas, sa kabila ng “ilang pagsisikap.” Noong Pebrero 2024, inirekomenda ni Khan ang abolisyon ng NTF-ELCAC , pero patuloy ang task force sa red-tagging, at paninindak ng mga kritiko at social change advocates. Ngayo’y nagsusulputan na rin ang dokumentadong mga kuwento ng pandurukot, enforced disappearances at fake surrenders . Sampal sa Marcos administration — na nagsabing may rule of law — ang task force na tila black ops unit na routinely umanong nagsasagawa ng mga iligal na aktibidad. At tila wala ring saklolong maaasahan sa sistema ng hustisya: limang taon nang nakapiit ang community journalist na si Frenchie Mae Cumpio at ang child rights activist na si Sally Ujano . Ito’y sa kabila ng landmark decision ng Korte Suprema na ang red-tagging ay “threat to a person’s right to life, liberty, or security.” At ano pa ba ang lalala sa malupit na berdugo? Eh ‘di malupit na berdugong bobo. Walang-puso na ngang inaresto ang senior citizen na si Prudencio Calubid Jr., 81 years old, it turns out na mistaken identity pala ito at hindi siya ang komunistang lider na hina-hunting. Aba’y ngayon, gusto pang ibalik sa kalaboso ng estado ang pobreng matanda. May iba pang rekomendasyon si Khan na mahalagang tandaan nating nagmamahal sa kalayaang magpahayag: Balikan natin ang sinabi ni Khan na may positibong mga senyales mula sa administrasyon ni Pangulong Ferdinand Marcos Jr. tulad ng pagpapalaya kay dating senador Leila de Lima at ang acquittal ni Nobel Peace Prize laureate at Rappler CEO na si Maria Ressa sa tax fraud charges. Pero hindi raw ito sapat, sabi ni Khan. Ginoong Marcos, gayong nangangarap kang maging bahagi ng Security Council ng United Nations ang Pilipinas, lubus-lubusin mo na. Pagalawin na nang mabilis ang mga gulong ng hustisya, at baklasin na ang mga batas at ahensiyang tulad ng NTF-ELCAC na tahasang bumabangga sa mga binitiwan mong polisiya sa human rights. Naipadala mo nga sa The Hague ang big boss, bakit iiwan pa ang latak? – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>#FactsFirstPH research,digital forensics,Fighting disinformation,media industry</t>
+          <t>human rights,Leila de Lima,Marcos Jr. administration,POGOs,political prisoners,red-tagging</t>
         </is>
       </c>
     </row>
@@ -694,25 +694,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Study finds signs of ‘networked political manipulation’ on social media</t>
+          <t>Court rules Alice Guo 'undoubtedly Chinese,' erases mayorship</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/philippines/elections/study-finds-sign-networked-political-manipulation-social-media-digital-public-pulse-project/</t>
+          <t>https://www.rappler.com/philippines/court-rules-alice-guo-undoubtedly-chinese-erases-mayorship/</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44594.4956712963</v>
+        <v>45837.05212962963</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Nico Villarete/Rappler MANILA, Philippines – The Digital Public Pulse (DPP) project’s landscape analysis of YouTube, Facebook, and Twitter found five indicators of “networked political manipulation” in relation to the 2022 elections. The researchers at the Philippine Media Monitoring Laboratory announced their findings on Wednesday, February 2. This is the fourth report of the first phase of the DPP project, in which they performed a cross-platform analysis of the digital election landscape in the three of the most popular social media platforms in the Philippines. The data used were public posts from each platform containing election-related keywords from May to October 2021. The researchers pointed to the following as indicators of “networked political manipulation” on social media: The study said that these accounts have contributed to the growth in the influence of politicians in social media, yet they are not necessarily covered by election-related policies. The freedom of these accounts to spread partisan content without the need to disclose their identities has also helped shield them from scrutiny and accountability. These “anti-democratic” actors, as the researchers called them, also often hijacked political discourse on social media by both attacking and copying social institutions like the media. Among the most common tactics of these accounts were baselessly accusing the media of being biased and mimicking the format of news and surveys to feign credibility. The researchers said that the platforms deal with networked manipulation in different ways, but all three have conducted takedowns of inauthentic accounts. Facebook defines it as “ coordinated inauthentic behavior ,” while YouTube characterizes it as “ coordinated influence operations .” Twitter deals with it under its platform manipulation policy. “There are a lot of actions made by the platforms…. But I think, coming from a political-economic perspective, platform commercial interest will always be in conflict with democratic ideals,” Marie Fatima Gaw, a co-lead of the DPP study, said during the presentation. Gaw mentioned Facebook whistleblower Frances Haugen ’s statement on how Meta leaders refuse to make Facebook and Instagram safer even though they know how to, because they prioritize profits before their users. “There are safeguards they can do, but they’re doing it for show somehow. We want to expect more from platforms because they earn a lot from us,” Gaw said. The cross-platform analysis wrapped up the DPP project’s first phase that detailed the Philippine election digital landscape. The first three reports focused on identifying the influential networks of accounts participating in the election discourse on YouTube , Twitter , and Facebook , respectively. The second phase of the project will further flesh out the topics discussed through content analysis, then the third phase will be an in-depth qualitative analysis of the discourse online. The Philippine Media Monitoring Lab is a consortium of researchers in the fields of communication, political science, and data science. The DPP project is co-led by Gaw and Jon Benedik Bunquin, both assistant professors from the University of the Philippines Diliman’s Communication Research department. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. FORMALLY CHARGED. Dismissed Bamban, Tarlac mayor Alice Guo attends the resumption of the senate hearing on illegal POGO activities and human trafficking, on September 17, 2024. Alecs Ongcal/Rappler MANILA, Philippines – A local court in the Philippines has ruled that Alice Guo is “undoubtedly Chinese” and erased her mayorship from the records, judging she was never qualified to begin with. “Alice Leal Guo is found disqualified from and is hereby adjudged guilty of usurping and exercising the Office of the Mayor of Bamban, Tarlac. Accordingly, she is hereby ousted and altogether excluded therefrom,” Judge Liwliwa Hidalgo-Bucu of the Manila Regional Trial Court (RTC) Branch 34 said in a decision dated June 27. The court granted the quo warranto petition filed by th e Office of the Solicitor General. A quo warranto proceeding is not only meant to oust a public official, it is also meant to declare the person never having held office in the first place because of ineligibility. Guo ran and won as mayor of the small town of Bamban, Tarlac in 2022. Only natural-born Filipinos can run for office under the Philippine Constitution, but the court said “Guo Hua Ping is undoubtedly a Chinese citizen, born by Chinese parents namely: Guo Jian Zhong and Lin Wenyi.” The court gave weight to two main evidence of the Philippine government: that there exist no birth, death and even marriage records for Alice Guo’s alleged parents, and a signature expert testifying that Alice Guo’s fingerprint matches with the Chinese national Guo Hua Ping. “She and her parents are holders of Chinese passports,” said the court. Guo has been detained for nearly 10 months on the non-bailable charge of qualified human trafficking. She is separately charged of money laundering and graft. All are related to her role in the scam hub in Bamban, Tarlac. Guo has maintained she merely leased her property to the POGO (Philippine Offshore Gaming Operator). An earlier Rappler investigation found that Guo’s business partners in Bamban extend to a transnational criminal network involved mainly in pig-butchering and crypto scams. Guo did not present any witness in the trial, only her birth certificate and passport. The court said that those are not conclusive proof of Filipino citizenship especially if they “contain dubious entries, which are not supported by concrete and credible evidence, such as the purported names of her supposed father and mother, their births and date of marriage.” Guo, in her testimonies before the Senate, said her mother is a full-blooded Filipino named Amelia Leal but that she had never met her. She was allegedly the lovechild of her father Angelito Guo and his maid Amelia. In her birth certificate, it says Guo was born on July 12, 1986 in Tarlac to parents Angelito and Amelia who were allegedly married in 1952. The birth certificate was registered only in 2005, or when Guo was already 19 years old. The court is convinced with government evidence that Guo is Guo Hua Ping, a Chinese girl who arrived in the Philippines from Fujian, China on July 12, 1999 with her parents Guo Juan Zhong and Lin Wenyi. Guo Hua Ping was only 9 years old then, and was given an investor’s visa as the minor dependent of her parents who were granted Special Investors Resident Visa. Guo Hua Ping’s fingerprints match with Alice Guo, said Alfredo Kahanding, chief of the Dactyloscopy Division of the National Bureau of Investigation. Guo disputed Kahanding’s testimony, casting doubt on his methodology. The court sided with Kahanding that “fingerprint evidence is infallible and faultless” because no two people, even identical twins, have the same fingerprint, and that fingerprints cannot be forged. By the time the court decided, not only had Guo already been dismissed by the Ombudsman, the 2025 midterm elections were also already finished, which meant Bamban had a new mayor. But the court said it would not render the petition moot because “it is not a simple question” but a matter of national security. “Just imagine a foreign individual, who was allowed to stay in the Philippines, was able to circumvent the law by posing herself as Filipino citizen in order to meet the citizenship requirement to enter public office and ultimately, assumed the powers and functions of Mayor of Bamban, Tarlac. Such a situation posed a risk to national security which is far more than real,” said the court. “Alice Leal Guo is nothing more but a usurper of the Office of the Mayor of Bamban, Tarlac. It follows, therefore, that her proclamation was deemed void,” said the court. Guo has been accused of being a Chinese spy, an accusation she vehemently denied. Residents of Bamban are fond of Guo for a leadership marked by an abundance of aid to her constituents. The second placer in 2022, Joey Salting, joined the petition wanting to be declared the rightful mayor for that term however the Supreme Court already abandoned the second placer rule. Salting won as mayor of Bamban in the 2025 elections, and will start his three-year term on June 30. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022 PH Elections - News,2022 Philippine Elections,digital forensics,Disinformation,social media platforms</t>
+          <t>China,organized crime,POGOs,Tarlac</t>
         </is>
       </c>
     </row>
@@ -722,25 +722,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Facebook group sheds Philippine history brand, now spreads Marcos propaganda</t>
+          <t>Netherlands denies Harry Roque's asylum bid – DOJ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/philippines/elections/facebook-group-sheds-philippine-history-brand-spreads-marcos-family-propaganda/</t>
+          <t>https://www.rappler.com/philippines/netherlands-denies-harry-roque-asylum-bid/</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44581.33489583333</v>
+        <v>45826.27502314815</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. REBRAND. Popular Facebook group 'Philippine History' renames itself to 'BBM Sara at Philippine History' two years after it was first created. Rappler screenshot MANILA, Philippines – The popular Facebook group “Philippine History,” once an online community where members shared nostalgic posts of old Manila and Philippine antiques, has now been rebranded into a space for pro-Marcos propaganda and disinformation. In November 2021, the group was renamed “BBM Sara at Philippine History” so that members could “fulfil their duty as Filipino citizens,” as one administrator said. While administrators used to discourage members from sharing political posts in the group, now they encourage members to “promote [candidates] as [they] see fit.” Even before the group was renamed and repurposed, however, administrators had stated that they were pro-Marcos, but it was rare for them to share posts related to the family. Now that the group has been rebranded, administrators are allowing Marcos propaganda to proliferate and criticize members who do not share the same political views. The group was created in October 2019 and has 542,423 members, as of writing. Members and administrators have shared posts in favor of the Marcoses as well as Sara Duterte, Ferdinand “Bongbong” Marcos Jr.’s running mate in the 2022 elections. Angelo A. Bernardo Jr., who first joined the group around two years ago, recently left due to the influx of posts favoring Marcos and Duterte. “The Philippine History group members then posted a lot of historical articles, photos, memorabilia and articles from the past…. Now it’s mostly Marcos, Duterte posts, with a few historical posts every now and then,” he said. The practice of renaming accounts, pages, and groups with large followings to promote politicians is not new to Filipinos. Rappler readers spotted a number of Facebook pages and groups changing their names to promote possible candidates for the 2022 polls – all done several months before the official filing of candidacies last October. Apart from posts that favor the Marcos family, there are a number of posts in the group – some shared by the administrators themselves – containing false information and misleading content flagged by Facebook and third-party fact-checkers. These include posts about the popular Tallano gold myth and claims that the late dictator Ferdinand Marcos scored 98.01% in the 1939 Bar Examinations, as well as false information on COVID-19 and volcano alert levels . Bernardo said a number of members have also been commenting on different posts complaining about the recent change. Other members tell them they are free to leave the group if they don’t approve of the posts being shared. Even administrators have encouraged critics to leave the group and have kicked out members who share different beliefs. Rappler reported in 2019 about how the Marcos propaganda network on  Facebook has long been seeding false narratives about the family in an attempt to rewrite history. Rappler’s database also monitored several other pages and groups that glorified Marcos Martial Law, some of which had branded themselves as channels that post content related to Philippine history. Some history pages monitored by Rappler explicitly include the Marcos name, and aim to highlight the positive achievements of the late dictator and to promote Marcos Jr. ahead of the 2022 elections. Other history pages and groups in the database did not include Marcos in their display names, but have previously shared posts supporting the family and/or dubious claims about them. These include the group “REAL PHILIPPINE HISTORY” and the pages “REAL Philippine History” and “Philippine History Untold.” Two Marcos history pages on Facebook monitored by Rappler’s tools in 2019 are no longer available, as of writing. Marcos supporter networks have also proliferated on other platforms, such as YouTube , TikTok, and Twitter , with gaps in tech companies’ policies allowing disinformation to thrive. (READ: Anti-disinfo coalition pushes YouTube, Tiktok to crack down on false content ) The Marcoses have burnished their image since they were ousted from Malacañang almost 40 years ago. Marcos Jr. approached controversial political data company Cambridge Analytica to “rebrand” the family’s image, a report that his spokesperson Vic Rodriguez denied. Most recently, Rodriguez also claimed he was unaware of the Tallano gold myth that had made rounds on many social media apps and websites. The myth claims the gold is now with the Marcos family and will be distributed to Filipinos if Marcos Jr. is elected president –  Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. HOT SEAT. Former presidential spokesman Harry Roque is interrogated over his supposed ties to the raided POGO firm Lucky South 99. House of Representatives MANILA, Philippines – The Netherlands has denied the asylum bid of former presidential spokesperson Harry Roque , Department of Justice (DOJ) Secretary Jesus Crispin “Boying” Remulla confirmed  on Wednesday, June 18. “ Ang alam ko hindi siya nabigyan ng Netherlands kaya nasa Germany na ang pagbibigay nito kung sa baka sakali (As far as I know the Netherlands did not grant his asylum that’s why it’s now up to Germany if he will be given one),” Remulla told reporters. Asylum is protection given by a country to a person who has left their home country as a political refugee. Shortly after the arrest of former president Rodrigo Duterte in March, Roque appeared in The Hague, after months of being away from the public eye. He announced then he would apply for asylum in the Netherlands. At the time, Roque was able to roam around the globe because his only arrest order was a congressional detention order after the House of Representatives cited him in contempt. Prior to The Hague, Roque traveled under the radar, reportedly to Dubai and China . Things are different now for Roque because he is the subject of an arrest warrant issued by a court in Angeles City, Pampanga, over charges of qualified trafficking in persons. The non-bailable offense stemmed from Roque’s alleged ties with a Philippine offshore gaming operator in Pampanga. Back in April, DOJ Undersecretary Nicholas Felix Ty said Remulla had given him instructions to deal with Roque’s case and to block the asylum bid. For now, Remulla said the Philippine government is waiting for the cancellation of Roque’s passport. “ Hihintayin natin. Puwede namang file-an ng extradition ‘yan pagdating ng panahon, pero baka ‘di na kailangan kasi ka-cancel-in naman ang passport niya. ‘Pag naging undocumented alien ‘yan ay puwede nang kunin ng Interpol, ” Remulla told reporters. (We will wait. We can file an extradition case when the time comes, although it might not be necessary because his passport will be canceled. If he becomes an undocumented alien, he can be arrested by the Interpol.) Remulla might be referring to the Philippine government’s strategy in deporting another fugitive, former lawmaker Arnolfo “Arnie” Teves , who sought refuge in Timor-Leste. After going through the extradition route, the Philippine government later relied on the deportation process, helped facilitated by the Timorese government, in bringing Teves home. A local court had canceled the passport of Teves, who faces local cases. He was arrested through the Interpol. Meanwhile, in a statement, Roque denied that his asylum bid had been junked, calling the administration of President Ferdinand Marcos Jr. a “purveyor of fake news.” “My trip to Germany was a pre-planned activity. Together with Maharlika, the visit was upon the invitation of the Filipino community in Germany, where I administered the (oath-taking) of the proud members of the Hakbang ng Maisug Germany,” the former spokesperson said. “I am now back at The Hague in the Netherlands,” he added. Another possibility, which Roque has also denied, is that his asylum application was referred by the Netherlands to another European country. Under the European Union’s Dublin Regulation, an asylum process is mainstreamed by determining which country is responsible for the application. This is determined by a number of factors such as possession of visa in that country. Roque told Rappler he entered the Netherlands first, but it wasn’t the Netherlands which gave him his visa. Roque said he’s in the Netherlands now and that there’s “no referral” that happened. – with reports from Lian Buan/Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>#FactsFirstPH research,2022 PH Elections – News,2022 PH vice presidential race,2022 Philippine Elections,digital forensics,Disinformation,Facebook,Ferdinand Marcos Jr.,Networked propaganda,Sara Duterte,social media platforms</t>
+          <t>Harry Roque,Netherlands,POGOs</t>
         </is>
       </c>
     </row>
@@ -750,25 +750,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The story is not the ‘hack’; it’s the propaganda</t>
+          <t>2 POGO workers die, hundreds get sick in detention</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/plus-membership-program/exclusive-content/story-not-comelec-hack-propaganda/</t>
+          <t>https://www.rappler.com/philippines/pogo-detainees-die-getting-sick-paocc/</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44575.41666666666</v>
+        <v>45818.99479166666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Because this is the Philippines, we really shouldn’t think that the official election period would usher in quietly, with a curtain raiser, a calendar story of sorts, doing the trick. The election period started on Sunday, January 9, exactly four months before election day. True enough, even before the week is over, the newsroom has had to be sharper and more discerning in our treatment of several stories. Hello again! I’m Miriam Grace A. Go, the investigative and research head at Rappler. I also set the agenda for our #PHVote coverage. And here I’d like to share how, just as soon as the election period kicked off, we were reminded that the responsible thing for us to do is to not add to the noise and the murk that intensify during this politically-charged season. On Monday afternoon, January 10, the Manila Bulletin ran a story, claiming that the servers of the Commission on Elections (Comelec) were hacked, and that the data downloaded included “information that could affect 2022 elections.” Normally, when another legitimate news site has an exclusive, Rappler doesn’t mind following up on this and crediting the other publication for being first to break the story. Except this “scoop” raised red flags. Comelec itself pointed out loopholes in the Manila Bulletin report, but I’ll share some more reasons Rappler decided to approach the claim with caution: In 2016, Rappler ran stories about the Comelec’s voters database getting hacked because we were able to confirm it independently, having examined the leaked data ourselves. The hackers responsible for it also came forward . (READ: Experts fear identity theft, scams due to Comelec leak ) This time around, with only screenshots available as alleged proof, we agreed with our head of digital strategy Gemma Bagayaua-Mendoza , who said, “reporting on something like this without verifying independently is irresponsible.” This is the link to our story in 2016 where we examined the leaked data. Our report then was not based only on screenshots because reporting on something like this without verifying independently is irresponsible. @paterno_II  https://t.co/5b430LJRWH  https://t.co/3m2NIKrxI7 Besides, the timing of the supposed bombshell was curious, when the spotlight was on Marcos failing – refusing? – to appear before the Comelec to answer petitions to cancel his candidacy or disqualify him. (In case you didn’t know, his lawyer told an infuriated Commissioner Rowena Ganzon that Marcos couldn’t show himself even for a moment in a Zoom hearing because he feared he might spread the virus to other people. Thus, the trending #Zoomicron.) Referring to the hack, Comelec spokesman James Jimenez said: “Because the information was very suss from the very beginning, hindi naman puwedeng basta-bastang dambahan iyong information nila (it’s not right that we just accept their information hook, line, and sinker).” Still, journalists, election watchdogs, and voters themselves should be on the lookout for indications of the election system having vulnerabilities. Or, sometimes, it’s not even the system flaws but how the slightest indication of these are used to feed disinformation. Clearly, there’s another aspect of campaigns and elections that responsible citizens should be watching: propaganda. It spells the difference between informed voters and blind followers, between a credible exercise and one weakened by lingering doubts. How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. HEALTH CRISIS. Alleged ex-POGO workers detained at a PAOCC detention center are getting sick, two have died. Courtesy of PAOCC MANILA, Philippines – Two foreign nationals who were apprehended for working in illegal Philippine Offshore Gaming Operators (POGOs) have died due to illness while in detention, while as many as 300 other detainees have fallen sick, according to the Presidential Anti-Organized Crime Commission (PAOCC). “Dalawa ang namatay, parehas ay lalaki, isang Chinese noong 2023, at isang taga-Myanmar nitong 2025. Allegedly parehas ay may HIV at nagkaroong ng respiratory complications. Na-coordinate sa kanilang mga pamilya at parehas ay na-cremate,” PAOCC spokesperson Ernesto Tendero told Rappler. (Two men have died, one a Chinese national in 2023, and the other from Myanmar in 2025. Allegedly they were people living with HIV and had respiratory complications. This has been coordinated with their families, and both have been cremated.) There are currently 640 former POGO workers detained at the PAOCC satellite office in Pasay, a building that was previously a POGO hub raided and seized by the commission that has led the government’s crackdown on the now-banned POGOs and crypto-scam hubs. But they are over capacity, and an outbreak has happened infecting 300 detainees, said PAOCC chief Gilbert Cruz. “Punong puno na kami, wala na kaming mapaglagyan ng mga nahuhuli, nagkakasakit na, and then just two months ago nagkaroon ng mini-pandemic sa loob ng facility so inaddress muna namin ‘yun, almost 300 ‘yung nagkasakit na pinadala namin sa ospital for treatment ng infection,” Cruz told reporters. (We are full, we have no more space for people we arrest, they are getting sick, and then just two months ago we had an outbreak inside the facility so we addressed that first, almost 300 got sick whom we sent to the hospital for treatment of the infection.) Because of this, PAOCC has stopped any operation meanwhile to hunt down illegal POGO workers on the loose. They estimate there are still 9,000 former POGO workers who are undocumented and untraceable, and are just loitering around and might be resorting to a new illegitimate business. “Due to overcrowding, enforcement actions against an estimated 9,000 illegal foreign workers have been temporarily suspended,” Cruz reported to the House of Representatives quad committee on June 9. Tendero said the most common illness contracted by the current detainees are HIV and hepatitis B. Cruz said they are spending P2 million a month for food and healthcare of their detainees. The detainees are held there on immigration violations, pending deportation. This was the most efficient way for the government to raid illegal POGOs and apprehend the foreign workers, otherwise if they wait for a court warrant they could be letting go of hundreds of thousands of workers let into the country to allegedly work in these scam hubs. But the crisis inside the detention facility is concerning, and could spur complaints against PAOCC for violating detainees’ rights. There have been some writ of habeas corpus petitions filed against PAOCC by a number of its detainees in order to secure release. Tendero said PAOCC has doctors and nurses available doing in-house medical and dental clinics once a week. Cruz said this problem would be solved if deportation becomes faster, telling the quad committee that the process has been “slow and inefficient.” “Ang kailangang bilisan dito ‘yung pagbibigay ng clearance, kailangan kapag may huli tayo, dapat automatic makuha agad ang record niyan kung may criminal history, dun nagtatagal eh,” Cruz said. (What we need to expedite is the processing of clearance, if we arrest someone we automatically need to get their records and see if they have criminal history, that’s where we are slow.) The Bureau of Immigration (BI) was not specifically mentioned, although their role in the campaign has been highlighted many times because of their special powers to apprehend foreign nationals on the basis of being an undesirable alien. Immigration Commissioner Joel Anthony Viado has been under fire due to complaints from “concerned employees” that he allegedly ordered to release favored POGO detainees. The BI has the power to release the detainees on bail. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022 PH Elections - News,2022 Philippine Elections,Comelec,Networked propaganda</t>
+          <t>Bureau of Immigration,human rights,Persons Deprived of Liberty</t>
         </is>
       </c>
     </row>
@@ -778,25 +778,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[ANALYSIS] Viber: The next frontier for political propaganda in the Philippines?</t>
+          <t>Immigration chief accused of favoring POGOs, as 9,000 ex-workers loiter</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/voices/thought-leaders/analysis-viber-next-frontier-political-propaganda-philippines/</t>
+          <t>https://www.rappler.com/philippines/bureau-immigration-joel-anthony-viado-accused-favoring-pogo/</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44549.49818287037</v>
+        <v>45817.40690972222</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. As is well-known, Facebook is widely used across Southeast Asia, especially in the Philippines, where 99% of internet users have Facebook accounts and 98% use Facebook Messenger , mostly to communicate with family and friends. In comparison, the use of the messaging app Viber is very low – only 5% of internet users use it. However, Viber use is rapidly growing in the Philippines and with it, its political significance grows, too. The Propaganda Lab at the Center for Media Engagement at UT Austin conducted 21 interviews in the Philippines, Indonesia, Myanmar, and Ukraine , and found that Viber is being used for the spread of political propaganda in the Philippines in particular . While Facebook remains widely used for propaganda in Indonesia, for instance, our interviewees in the Philippines articulated that Viber has been “invaded” by Duterte’s government. So, will Viber be the next hotbed of disinformation or misinformation exploited by an authoritarian leader? Disinformation and political propaganda are rampant on Facebook across Southeast Asia but similar phenomena on encrypted messaging applications (EMAs) are underexplored. Apps that use end-to-end encryption (E2E), which tout that only the sender and receiver can see what messages say, are growingly popular across the globe . Troublingly, they are increasingly becoming spaces for mis- and disinformation just like “traditional” social media. They have even led violence to erupt in the offline world, such as mob lynchings in India after disinformation spread on WhatsApp , and played a role in anti-democratic movements, such as the Capitol riot in the United States . The emerging use of Viber, an app that offers E2E in 1-on-1 and group chats (though not in channels or communities) , looks like the next frontier for political propaganda and disinformation in the Philippines and Southeast Asia writ large. For instance, representatives from the Presidential Communications Operations Office interviewed by us explained that the government established Viber groups that include over two million users to distribute information from the government to Filipinos. In addition to government announcements, these groups serve as an avenue to encourage support for President Duterte on a platform that is sure to reach a widespread audience. According to two representatives from the communications office, their goal is to make the president visible – even “ubiquitous.” They aim to make content as entertaining as possible, tailored specifically to younger audiences. One example is sticker campaigns. Graphic designers in the communications department have designed sticker packs with President Duterte’s image paired with politically motivated phrases – people in his office would call this increasing support, but a cybersecurity strategist we spoke to (who is also a former politician), called these “Duterte ads.” He considered these strategies to be more than just spreading presidential news – he explicitly called it “propaganda.” In addition to calculated strategies like sticker packs, government officials thoughtfully select which platforms to engage on as well. “We use Facebook Messenger to blast information to the public.” Although they “try to blast it on all platforms,” they particularly aim to target young folks (millennials and younger) through emerging platforms like TikTok and Viber. This is strategic – the number of TikTok users in the Philippines is increasing , just like Viber. “Filipinos want to go to social media as an escape,” one of the officials told us, “so you must package your content in the most entertaining and trendiest way possible to relate, especially to the millennials.” Their strategies are deliberately coordinated in order to reach the most emerging users. The representatives we spoke to were adamant that such content was not pushed by trolls. “For us, social media is just an additional task of our public information officers.” In fact, a main part of their job description includes content creation and social media management. The creation of in-house social media teams signals how vital social media has become for the Duterte regime. “We don’t hire external outfits or groups to run our social media,” they told us. However, while the people we spoke with who work in Duterte’s communications office would (and did) vehemently deny the use of troll farms, it has been exposed in investigative reporting and academic work alike . The use of Viber differs greatly across different cultures and countries. In Myanmar, for instance, it’s not widely used, and in Indonesia WhatsApp reigns. In general, EMAs are often used to connect individuals into small groups from families to community social groups; with the unintended side effect, however that – “lots of disinformation spreads between family and friends,” as a cybersecurity strategist told us. Hence the additional question arises if Viber will not only be the next outlet for disinformation in the Philippines but also co-opted by troll farms. One man we spoke to in Indonesia (we would refer to him as a troll, but they call themselves “buzzers”) told us about his strategies for political propaganda on traditional social media like Facebook and YouTube: he and his team each run 50 or more accounts, orchestrating fake arguments between the accounts about political candidates. Ultimately, all of the “people” (fake accounts) concede and support the candidate the buzzer/troll was hired to increase support for. This strategy, he told us, is not possible on EMAs. However, he and other interviewees explained that by pushing out positive information about one candidate and negative disinformation about the other, they can still affect public opinion and likely, elections. Ultimately our research has discovered that EMAs are falling prey to exploitation just as other social media sites have. However, there is another side to this challenge, namely the receptiveness and potential engagements of EMA users to disinformation and propaganda. In the Philippines in particular, citizens have been trying to push back against an authoritarian leader – so while online spaces such as Viber and TikTok present opportunities for state actors to manipulate young folks, who are allegedly especially at risk for believing fake news , this research also wants to highlight the opportunities for pushback. For example, EMAs are useful to communicate in private and mock government propaganda or engage in fact-checking to expose government propaganda. For this, researchers must keep a finger on the pulse of disinformation campaigns on emerging platforms since actors, such as the Filipino government, adapt to the ever-changing social media trends for their own goals. – Rappler.com Katlyn Glover is a researcher and graduate student at the Propaganda Lab at the Center for Media Engagement at the University of Texas at Austin, where she researches disinformation and political propaganda on emerging technologies. Zelly Martin Geurink is a researcher and PhD student at the Propaganda Lab at the Center for Media Engagement at the University of Texas at Austin, where she researches disinformation and political propaganda, especially as they pertain to women. How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. DEPORTED. The Bureau of Immigration deports 115 foreigners, mostly former POGO workers, on June 8, 2025. Photo courtesy of BI MANILA, Philippines – Immigration Commissioner Joel Anthony Viado is facing allegations of giving special treatment to Philippine offshore gaming operator (POGO) bosses, a brewing scandal within the bureau not helped by the fact that authorities have been struggling to catch and deport around 9,000 illegal former POGO workers. Documents were sent to reporters over the weekend showing that “concerned employees” reported to President Ferdinand Marcos Jr the alleged “serious trend” involving Viado.  “I unequivocally state that all the allegations contained in the alleged white paper are patently false,” Viado said in a statement on Monday, June 9. It’s not a good look for the bureau, and even to other relevant agencies, that there does not seem to be any strong and cohesive plan to hunt down the 9,000, which Presidential Anti-Organized Crime Commission (PAOCC) chief Gilbert Cruz described as “pakalat-kalat” (just loitering around). The problem , authorities said, was created when POGO was outlawed a year ago and the passports and other documents of the foreign workers were canceled, revoked, or just simply taken by employers. Because they are undocumented, it’s hard to track them down. Because there is no more POGO, they have resorted to untraceable illegitimate business. This frustrated lawmakers on Monday who bemoaned that they have already submitted their recommendations just before the Christmas holidays in 2024. “Ang nakakalungkot dito, para bang sa pakikinig ko ay wala tayong masyadong magawa sa mga pakalat-kalat na foreign workers…pero mukhang wala tayong halos magawa,” said outgoing Manila 6th District Representative Bienvenido “Benny” Abante on Monday, the resumption of hearing of the House of Representatives quad committee. (What’s sad is that from listening, it seems we can’t do anything about these loitering foreign workers, it looks like we can’t do anything.) One of the allegations against Viado in the letter sent to Marcos was a deportation operation of 10 Vietnamese POGO workers in February 2025. The Vietnamese embassy sent a note verbale to complain that there was no coordination with the embassy, and the flight was to Cambodia and not Vietnam. “They were deported but the Bureau of Immigration (BI) deported them not on a direct flight, but on a flight that has a layover…They [the Vietnamese government] were not able to receive these nationals and what in fact happened was that these Vietnamese, instead of being deported to their country, they escaped,” said Leilani Feliciano of the Department of Foreign Affairs (DFA) consular office. Apart from the deportation, the letter to Marcos also accused Viado of swiftly issuing release orders, or “negotiating the release” of several dozen POGO bosses apprehended by PAOCC. He was also accused of selling quota visas mostly to Chinese nationals. Viado said it is a smear campaign. He did not attend Monday’s quad committee hearing, instead he said in a statement that a senior BI official “who tried to pressure the Office of the Commissioner to release a Chinese national linked to a powerful political figure from the previous administration” who’s behind the reports. Immigration’s clearance and certificate acting chief Vicente Uncad was asked about these accusations against Viado, but he said “unfortunately I’m not familiar with the issue.” “To contextualize, nandito pa rin kasi ang technology, nandito pa rin ‘yung infrastructure (the technology and infrastructure are still here), the big bosses left but the workers are still very much around, they cannot now leave just easily because they have no documents, and they cannot register legitimate businesses because they have no documents,” said National Bureau of Investigation (NBI) spokesperson Ferdinand Lavin. “This is beginning to be a problem, this later on could become a national security issue,”  said Abante. Without mentioning BI, PAOCC chief Gilbert Cruz said they have been having a hard time deporting the foreign workers they apprehended because “coordination with foreign embassies for travel documents remains slow and inefficient.” Because they cannot deport, Cruz said their detention facility in Pasay is now overcrowded and they are having a challenging time funding the food and healthcare of their 640 foreign detainees, one of whom has died after contracting a disease. “Due to overcrowding, enforcement actions against an estimated 9,000 illegal foreign workers have been temporarily suspended,” said Cruz, but he clarified that this only pertains to PAOCC. Law enforcement agencies can carry on with their operations. “Punong puno na kami, wala na kami mapaglagyan, nagkakasakit na, in-address muna namin ‘yun.. Sa utos naman ng ating Presidente, hindi lang naman PAOCC ang gagalaw dito but other law enforcement agencies,” said Cruz. PAOCC has taken custody of a former POGO hub in Pasay which they have made into their satellite office, and a detention facility. (We are full, we don’t have space anymore, they are getting sick, we addressed that first. Based on the order of the president, PAOCC should not be the only one to move, but other law enforcement agencies as well.) NBI’s Lavin said it is hard to apprehend only on their own, because they cannot arrest without legal basis unless they catch the foreign workers in the act of scamming or running an illegal business. Some of the raids against POGOs were done on immigration orders because it’s more efficient to arrest for violating their visas, than on the basis of POGO as the latter requires evidence-building. Lavin said he welcomes the proposed creation of a superbody “with the BI on board, the DTI [Department of Trade and Industry] on board and the DFA on board because if huhulihin lang namin na walang klarong violation, kung undocumented lang din, we need the Immigration with us.” (Because if we will arrest without a clear violation, if only on the basis of being undocumented, we need the immigration with us.) On Sunday, June 8, Viado said they deported 115 foreign nationals, most were former foreign workers. The fragmentation of law enforcement agencies in the POGO aftermath is reminiscent of the same situation during the raids, when accusations of leaks and collusions particularly from within the police were abound. Lawmakers suggested that the Department of the Interior and Local Government (DILG) issue a memorandum to local officials to scan their communities if any of the undocumented foreign workers are within their jurisdiction. “Let’s look for that 9,000 because they could either be criminals or they could either be spies..there’s a threat to national security. Dapat kumilos kayo (act now), you have to be proactive, assuming they are spies, we have 9,000 spies roaming around the country getting information here and there, baka magulat na lang tayo ang kapitbahay natin espiya na (we might be shocked one day our neighbor is a spy),” said outgoing Surigao del Norte 2nd District Representative Ace Barbers. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Disinformation,mobile phone technologies,social media platforms</t>
+          <t>Bureau of Immigration,National Bureau of Investigation</t>
         </is>
       </c>
     </row>
@@ -806,25 +806,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>New war: How the propaganda network shifted from targeting 'addicts' to activists</t>
+          <t>Why is Porac Mayor Jing Capil still standing despite 2 disqualifications?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/investigative/how-propaganda-network-created-online-environment-justifies-shifted-killing-activists/</t>
+          <t>https://www.rappler.com/newsbreak/explainers/porac-mayor-jaime-capil-disqualified-comelec-pogo/</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44472.02684027778</v>
+        <v>45807.21942129629</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Zara Alvarez served as a human rights defender and paralegal in the Negros islands for Karapatan for more than a decade. She worked tirelessly despite threats and intimidation in a province that’s been witness to decades of war between state forces and insurgents. Alvarez would see her face on posters linking her to the communist underground and she was, in fact, imprisoned for two years. Nothing prepared her for the bloody Duterte years. In 2018, Alvarez was one of 600 activists tagged as terrorists by the Department of Justice. What followed was persistent red-tagging and harassment – she got attacked online and was constantly followed while she worked. Two years later, in August 2020, while walking in the streets of Bacolod City, unidentified men shot Alvarez dead. She was 39. The story of Alvarez illustrates the direct connection between information operations online and physical attacks, a rehash of the government’s war on drugs where supposed drug users and dealers are demonized online to justify attacks against them in the real world. Rappler’s research team found out that from drug war narratives, the focus of government’s coordinated online propaganda network has shifted to red-tagging, which lumps activists with terrorists and turns the communist insurgency into a problem that’s bigger than what it really is. President Rodrigo Duterte himself has enabled this through his speeches and policies. It’s worth noting that prior to the government’s attacks on the Left, Duterte was friends with them for decades – since he was mayor of Davao. The national democratic movement backed his presidential bid in 2016, and after his election, Duterte appointed prominent leftist leaders to his Cabinet. He reopened peace negotiations with the National Democratic Front and declared the longest ceasefire with communist insurgents in three decades. But the talks eventually broke down, as the military gained ascendancy in the Duterte government. By the end of 2017, Duterte’s administration sought to tag more than 600 activists and members of the Communist Party of the Philippines (CPP) as “terrorists.” The list included alleged CPP chairman Benito Tiamzon, Anakpawis chairman Randall Echanis (who would be killed in his home in 2020), ex-Bayan Muna representative Satur Ocampo, and hundreds of John Does . (READ: “ The end of the affair? Duterte’s romance with the Reds ”) To track red-tagging narratives online from January 2016 to August 2021, Rappler used an initial dataset of posts attacking progressive groups and activists on Facebook, plotted an initial roster of red-tagging entities, and used natural language processing to identify keywords commonly associated with the term. These include keywords like “NPA,” “Left Activists,” and “CPP.” The graph above shows a timeline of posts with mentions of keywords typically used for red-tagging from 2016 to 2020. While there have been posts in 2016 and 2017 about the insurgency and military propaganda against the Left, information operations intensified in 2018, when it became clear that the Duterte government was abandoning a negotiated settlement of the insurgency and implementing a militarist approach to crush the guerrillas and their supposed front organizations. In November 2018, for instance, Duterte signed Memorandum 32 that deployed more soldiers and cops in the Negros islands , Samar, and Bicol – known insurgency hotbeds. That same month, Alvarez and the rest of Karapatan-Negros lost a colleague with the murder of human rights lawyer Benjamin Ramos in Kabankalan City. Ramos would be among the first of many Karapatan members and lawyers who would be murdered under the Duterte administration. The following month, in December 2018, the Duterte administration issued an executive order creating a national task force to address the causes of armed conflict with communists at the local level. This task force came to be known as the National Task Force to End Local Communist Armed Conflict (NTF-ELCAC), the main counter-insurgency vehicle that brings together all government agencies for one goal: crush the communists by the time Duterte ends his term in June 2022. “ Doon nagsimula ang malalagim na araw namin (That was when our bloodiest days started),” Clarizza Singson of Karapatan-Negros said as she recounted the incidents between the Sagay massacre in October to the police operations in Guihulngan City in December 2018. Singson had worked with Alvarez for almost a decade before the latter was killed in 2020. These attacks, particularly against Karapatan members, come not as a surprise, considering that the Duterte government and the Philippine military believe that human rights groups are front organizations of the armed movement. As Rappler’s scan showed, the government’s campaign against insurgents was complemented by increased activity online. The biggest surge in red-tagging posts was observed in 2020, as the government deliberated on, and eventually adopted, the Anti-Terrorism Act of 2020 or the Anti-Terror Law . The network map above shows Facebook pages and groups amplifying content related to red-tagging and activism. Pages and groups cluster together when they share content from the same sources. The cluster in blue is the main cluster – mainly pushing out harmful red-tagging content and anti-activist propaganda. Note how the clusters became denser starting in 2018, caused by the increased connectedness of the nodes, showing increased networked behavior. Using natural language processing, we looked at the general themes pushed out by the main red-tagging cluster. The narratives pushed out by the main red-tagging cluster show a focus on creating an enabling environment for violence where activists are painted as “terrorists” and the communist insurgency is a problem bigger than what it is. The tactic is reminiscent of the propaganda playbook for the Duterte administration’s brutal war on drugs and how it justified the killings of alleged drug pushers. (READ: [OPINION] First they came for the pushers and addicts. Now, the Leftists ) While the scan also spotted the usual news reports on civilian-military operations, the bulk of the posts used hateful and harmful language targeting activists and progressive groups. These groups were also frequently tagged as legal fronts of the communist New People’s Army (NPA). Even following her death, Alvarez was not spared from false claims that tagged her as part of the armed movement. Some posts even claimed that the NPA killed her so they could put the “blame [on] the government.” This claim was even echoed by NTF-ELCAC’s former spokesperson Antonio Parlade when he said in a statemen t, posted on NTF-ELCAC’s official Facebook page , that Alvarez “joined the NPA for two years until 2015.” Previous investigations by Rappler show similar demonizing language from dubious, anonymously-managed pages known for perpetuating lies and for red-tagging individuals and groups, amplified by police pages and accounts. (READ: With anti-terror law, police-sponsored hate and disinformation even more dangerous ) Organizations with top mentions in the scan include progressive groups like Bayan Muna, Makabayan, Gabriela, League of Filipino Students (LFS), and Karapatan. There were also significant mentions of state universities like the University of the Philippines (UP) and the Polytechnic University of the Philippines (PUP), which are accused of being “recruitment grounds” for rebels, and a nest for activists-turned-terrorists. On the other hand, groups like the Liberal Party and the CBCP tend to be accused of defending and coddling “terrorists.” Threats and red-tagging often target big progressive voices in Congress, like Kabataan Partylist Representative Sarah Elago and Bayan Muna Representative Carlos Zarate. Akbayan Senator Risa Hontiveros was also often called out for her alleged silence on crimes committed by the NPA. High-profile activists like former Bayan Muna representative Teddy Casiño, as well as celebrity-turned-activist Angel Locsin, were also often targeted and linked to the NPAs. No less than Parlade himself alleged that Locsin’s sister is an NPA – a claim Locsin has consistently denied. And aside from military and NTF-ELCAC spokespersons, the propaganda network would quote “ex-rebels” in their propaganda and red-tagging. These “ex-rebels” are often used to “expose” how rebel recruitment is done in schools, and to supposedly unmask activists who are allegedly members of the armed rebellion. While all these are happening online, activists who are not as popular as the targets of the online information operations are being killed on the ground. Taking from the same tokhang playbook, some police operations that targeted grassroots organizers and local leaders of progressive groups resulted in “ nanlaban” deaths. This included the “bloody Sunday” operations in Calabarzon in March 2021 that left nine activists dead. “ Sanay na kami sa death threat kasi minsan three times a day. Minsan once a week. Minsan once a month…Pero syempre hindi ‘yun empty threats. Pinapatay at namamatay mga kasama ko ,” Singson said. (We are used to death threats. Sometimes, we get it three times a day. Sometimes, once a week or once a month. But these threats are not empty threats. My colleagues are being killed and have been killed.) According to her, they were subjected to surveillance, trumped-up cases, arrests, raids, direct threats, and other forms of harassment. Since Duterte became president in 2016, at least 16 Karapatan members have been killed. They have adjusted by strengthening their security protocols and learning how surveillance works. They employed a buddy system, changed their schedules, and avoided going outside their homes during the day. In Singson’s case, they went as far as abandoning their home and uprooting her whole family – her two young sons included – to live in rented apartments. The slain Alvarez experienced close surveillance. According to Singson, unidentified individuals would openly follow and take photos of her even in public spaces. The necessary adjustments and new security measures disrupted their lives. The tactic of using the drug war playbook against activists seemed to have worked as well. Singson said the way they hid and protected themselves felt like they were being hunted as criminals. “Yung mga bata ayaw namin isubject sa ganung buhay na nanonormalize ang fear, terror, at killings… Para kaming wanted criminal. Daig pa namin ang wanted criminal,” Singson added. (We don’t want to subject the kids to that kind of life where fear, terror, and killings are normalized. We were like wanted criminals.) When Alvarez was gunned down, Singson and her other colleagues in the province received messages from anonymous perpetrators: “You’re next.” Singson fought back against the kind of attacks they experienced. She filed a case at the cybercrime division of the National Bureau of Investigation to track those who, on her Facebook account, threatened to have her head severed. She took screenshots and printed out all the hate messages and death threats she received. But nothing came out of it. According to her, the cybercrime division concluded that the accounts used to attack her were hacked and that was the end of the story. Rappler’s network analysis showed that the online narratives are seeded through a mix of old and new bloggers and “alternative” news sources, with different clusters focused on either funneling to the general public (through hyperlocal and political pages), or niche but engaged communities (e.g., military, police, and their supporters), which become vectors for distribution. At the center of the campaign is the official Facebook page of NTF-ELCAC. Content from other state media like the Philippine News Agency and PTV is also often pushed to spread red-tagging narratives. Previous Rappler investigation has documented how official government platforms, including the hugely-funded NTF-ELCAC , were being used to attack and red-tag local media. (READ: Gov’t platforms being used to attack, red-tag media ) SMNI News, the broadcasting arm of Filipino televangelist and pro-Duterte church leader Pastor Apollo C. Quiboloy, has also been an active source of news content related to the communist rebellion, often shared by the red-tagging cluster. Official military channels are also among top content creators amplified by the cluster, such as the official Civil Relations Service Armed Forces of the Philippines. Army officer Colonel Harold Cabunoc’s Facebook page is also among the most active in creating military and anti-insurgency propaganda. The colonel has also had a history of red-tagging online , and has also been red-tagging slain activists. Other pages shown to be actively pushing out military propaganda are IDOL KU ‘TO, LAMRAG SINIRANGAN, and Pinoy Red Watch. “Alternative” news sources were also actively being funneled by the cluster, including websites pinaslatestnews.xyz, and socialnewstrendph.xqz. These websites post “news” content related to communists, and “report” about government propaganda against activists and progressive groups. Other pages often amplified by the main cluster include known propaganda pages Mocha Uson Blog and VovPH . Content from these sources is shared in hundreds of Facebook pages and groups, mostly political but also including community and interest hubs, with captions that actively call out activists as terrorists, and highlight the narratives identified above. While the main cluster effectively distributes these content to the general public, other clusters showed similar content, also mostly coming from “alternative” news websites and “news aggregators” that are funneled into Facebook groups with special interest in military and anti-insurgency activities, such as Team AFP, Philippine Armed Forces, and the “CITIZENS ANTI-DRUGS CRIMES AND CORRUPTION OF THE PHILS.” While the online and on-the-ground attacks were public and blatant,  support for human rights and progressive groups was muted online. Karapatan secretary-general Cristina Palabay claimed their network and community continuously expanded since 2018 when the attacks against them and other progressive groups increased. “Sa international, after the NTF-ELCAC, dumami rin ang kaibigan namin,” Palabay said. (In the international scene, after the creation of NTF-ELCAC, we gained a lot of supporters.) But this widespread support and network group has yet to translate online. In the digital space, their stories are often told exclusively by select media and the network of progressive groups and human rights activists. The network map above shows the network of pages and groups that amplified content with mentions of 16 Karapatan members killed during the Duterte administration. While progressive groups have their own network of pages and distribution channels, as seen above, they are small in comparison to the red-tagging and propaganda network. In the visualization below, we compare the amplifying agents (Facebook pages and groups sharing their content) of NTF-ELCAC and progressive group Karapatan, as captured by Rappler’s SharkTank in 2020. The two entities were chosen because they were the most distributed content sources for government propaganda and in conversations on activists killed. The scan showed a huge difference in the size of the networks that amplify both channels – painting a picture of an environment where stories of slain activists like Alvarez remain within the echo chambers of other activists online and are effectively drowned out by government propaganda that blurs the lines between activism and terrorism. What makes this enabling online environment more dangerous is how it reinforces the lack of public accountability for the harassment and killings of human rights workers, lawyers, and activists. It also further weakens mechanisms that are supposed to protect individuals who are already vulnerable to attacks such as Alvarez, who asked the Supreme Court for protective writs because she was being harassed. She died before the court came up with a decision on her appeal. – Rappler.com Data visualizations by Akira Medina, Dylan Salcedo How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. EMBATTLED. Jaime Capil, former Porac mayor who's running for reelection in spite of an Ombudsman dismissal, talks to Rappler on April 11, 2025. Errol Almario/Rappler Every proclamation is a happy occasion for election winners, but in Porac, Pampanga, it was filled with tension when the lawyer of the losing candidate tried to stop the raising of victorious hands. Jaime “Jing” Capil got 39,939 votes against the second placer Mike Tapang who got 23,063 votes. But Tapang had earlier filed a disqualification case against Capil at the Commission on Elections (Comelec) citing as basis an earlier administrative decision by the Office of the Ombudsman. In April, the Ombudsman found Capil guilty of gross neglect of duty for letting an alleged scam farm thrive in his backyard. The Ombudsman’s decision came with a penalty of perpetual disqualification from public office. During the proclamation ceremony, the Comelec’s officer told Tapang’s lawyer: “Legal counsel, I already read that kind of petition filed by Mr. Tapang, but as for now, for this juncture, I don’t have any order to suspend the proclamation….” Before she could finish her sentence, the room which was filled with Capil’s supporters erupted into applause. Capil was proclaimed mayor, against all odds. The odds continue, however, because on Thursday, May 29, the Comelec Second Division granted Tapang’s petition and disqualified Capil from running in the 2025 mayoral elections in Porac. Dated May 28, the order was clear: to “consider the votes cast in favor of [Capil] stray.” Capil had some oxygen left in his tank because on the same day, Comelec chairperson George Garcia said the second division order is not immediately executory. “‘Yan po ay subject pa sa motion for reconsideration, hindi pa puwede maipatupad kung ano man ‘yung mga nakalagay…… Ang timeline pa rin namin sa lahat ay June 30 pa rin lalong-lalo na doon sa mga na-suspend namin ‘yung mga proclamation,” Garcia said. (That’s still subject to a motion for reconsideration, whatever is in the order cannot be implemented just yet. Our timeline remains for June 30, especially those whose proclamations we suspended.) Capil will file the motion for reconsideration Friday, May 30, he told Rappler. “The Ombudsman case, which is the basis of the Comelec case, is not final so Comelec cannot disqualify me on this basis. I am presumed innocent. My votes cannot be considered stray,” he said in a text message. Section 12 of the Omnibus Election Code disqualifies a candidate with a case only if that case has reached final judgment, and only if that case is subversion, rebellion, a case involving moral turpitude, and one that comes with a sentence of more than 18 months in prison. This is a very narrow criteria which is why candidates can even run while in prison — cases in point, Rodrigo Duterte who won as mayor and Apollo Quiboloy who lost as senator, to name a few. What was unique in Capil’s case was that the Ombudsman decision carried with it an accessory penalty of perpetual disqualification from public office. That’s what makes the Office of the Ombudsman really powerful — they handle cases directly related to duties as public officials, and criminal cases like graft, plunder, or malversation almost always carry with them a “twin” administrative case. Administrative cases can be decided on their level, whereas the criminal twin case have to go to the court or to the Sandiganbayan. Administrative guilt also almost always comes with a perpetual disqualification penalty. But in the history of Philippine politics, public officials who are perpetually disqualified by the Ombudsman get to run, win, leave office temporarily, and assume office again because the appeals they file tend to preserve the status quo. Sometimes they win in the Court of Appeals, turning fates in their favor. The Office of the Ombudsman detailed Capil’s role in the construction of the Lucky South 99 POGO (Philippine offshore gaming operator) hub in Porac, Pampanga, later raided for alleged scamming and trafficking. This is the root of separate trafficking charges against Cassandra Ong and Harry Roque. According to the Ombudsman, Capil’s role in approving the requisite documents for Lucky South, and not moving to shut it down despite several supposed warnings by police and inspection teams, make him a “principal by direct participation.” Capil had denied all this, telling Rappler in an earlier interview that his colleagues in the municipal hall seemed to have “singled him out.” Tapang, the second placer who stands to benefit if Capil is disqualified, was actually a councilor of Porac during those years. Tapang, the rest of the councilors, and the vice mayor at the time, were all cleared in the April resolution. Tapang also got the endorsement of Pampanga kingpin Bong Pineda, patriarch of the Pineda dynasty, which kept its grip on the capitol in the last midterms. Capil told the Comelec that “decisions of the Ombudsman have not attained finality and could not and should not be used as a weapon to frustrate the will of the voting public.” But in this recent decision, the Comelec Second Division relied on another law, the Local Government Code. Section 40 of Republic Act No. 7160 contains more criteria for disqualification compared to the Election Code, among them — “those removed from office as a result of an administrative case” are disqualified from running for any elective local position. “The above-quoted provision did not qualify whether the removal from office as a result of an administrative case has attained finality or not. The law is clear, categorical, and unqualified: once a person is removed from office as a result of an administrative case, he or she is disqualified from running for any elective local position,” said the order by Commissioners Rey Bulay, Nelson Celis, and Noli Pipo. Capil pointed to an October 2024 resolution by the Supreme Court en banc on the consolidated cases of many candidates with the same predicament as Capil — they had their own Ombudsman disqualifications. They were challenging the Comelec’s Resolution No. 11044-A in September 2024 ordering the administrative cancelation of the certificates of candidacy of those in situations where “there is an executory decision of the Ombudsman imposing a penalty of disqualification.” The Supreme Court issued a TRO or temporary restraining order on that Comelec resolution. That petition argued that the Ombudsman’s own internal rules do not declare that all of its decisions are final, citing Section 7, Rule III. It says that apart from those with penalties of public censure or reprimand, suspension of not more than one month, or fine equivalent to one month’s salary, “in all other cases, the decision may be appealed.” What this means is it’s all up in the air, as winning candidates, their opponents, and the Comelec go to different venues, sometimes simultaneously, to fight protracted legal battles. It’s not the first time this has happened , certainly not the only one, and will likely not be the last, given our legal landscape. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>activist groups in PH,Disinformation,Facebook,human rights</t>
+          <t>2025 Philippine local election,Comelec,Office of the Ombudsman,Philippine justice system,POGOs,Supreme Court of the Philippines</t>
         </is>
       </c>
     </row>
@@ -834,25 +834,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Investigating troll farms: What to look out for</t>
+          <t>Philippines eyes Interpol, cancelation of passport as options to bring Roque home</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/iq/investigating-troll-farms-what-to-look-out-for/</t>
+          <t>https://www.rappler.com/philippines/interpol-government-option-arrest-harry-roque/</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44394.04302083333</v>
+        <v>45798.26834490741</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Shutterstock What do people need to watch out for when investigating troll operations? Twelve Philippine senators recently filed a resolution, seeking an investigation into reports that public funds are being used for troll farms. Senate Resolution 768 says Filipinos should know why the national government focuses on spending money on these operations rather than on pressing issues, such as COVID-19 assistance, healthcare, food security, jobs protection, and education. The senators who signed the resolution are Senate President Vicente Sotto III, Senate President Pro Tempore Ralph Recto, Senate Minority Leader Franklin Drilon, and senators Francis Pangilinan, Nancy Binay, Leila de Lima, Richard Gordon, Risa Hontiveros, Panfilo Lacson, Manny Pacquiao, Grace Poe, and Joel Villanueva. Troll farms, the spread of disinformation, and the weaponization of social media are not new to Filipinos. Social media was a key factor in Rodrigo Duterte’s victory in the 2016 presidential polls, and international experts have dubbed the Philippines as “ patient  zero ” when it comes to digital disinformation. The Philippines ranked first in the world for time spent using social media in 2021 , according to We Are Social and Hootsuite’s annual report . This marks the sixth consecutive year the country received this ranking. The senators said the rise in social media and internet usage paved the way for the propagation of internet trolls. If senators will investigate these online operations that spread lies, hate, and disinformation, then here are some of the questions they should ask. What better way to mobilize troll armies than by tapping influential figures or people in positions of power for wider reach? One way the Duterte administration harnesses support for the President is by legitimizing vitriolic attacks on its critics in a bid to control online sentiment. High-profile pro-Duterte propagandists , including Mocha Uson and RJ Nieto , were given government positions or were hired as consultants using public funds. In 2020, Facebook also removed a network of accounts using false identities and which were found to have links to the Philippine military or police . With the anti-terror law , these accounts had been spreading lies and hate against perceived enemies of the State. Celebrities have also been found to be spreading propaganda and fake news, lending legitimacy to questionable sites and fake networks. However, beyond identifying the operators behind these networks, investigators need to ensure these people are held to account. In 2019, Facebook took down a network of accounts that were engaged in inauthentic behavior, and this was traced to Nic Gabunada, Duterte’s social media manager in his 2016 presidential campaign. In June 2021, he was hired by the Department of Finance as a communications strategy consultant. The subject as well as the target of troll army operations can provide more leads on the people behind them. The United States-based network analysis firm Graphika found that the pages involved in Gabunada’s fake network – unsurprisingly – spread pro-government content as well as conspiracy theories about political opponents. In a separate report, Graphika found that a Chinese fake account network had a significant focus on Senator Imee Marcos . Rappler also previously reported on other fake networks supporting the Marcos family , and how widespread disinformation on the Marcoses has attempted to rewrite Philippine history. Most recently, information crowdsourced by Rappler showed Facebook pages and groups as well as Twitter accounts with large followings were renamed to promote potential candidates for 2022. The reports show the practice benefits mostly allies of President Duterte, including his daughter Davao City Mayor Sara Duterte, Cabinet Secretary Karlo Nograles, and Taguig City 1st District Representative Alan Peter Cayetano. The top social media platforms in the Philippines are YouTube, Facebook, Instagram, Twitter, and TikTok. Any of these platforms can be a possible battleground for disinformation operations, especially as the 2022 elections approach. Unclear policies on YouTube , the country’s most popular platform, have resulted in an abundance of false claims on the platform. Videos on Marcos gold claims as well as misleading videos by pro-Duterte vloggers are very common on YouTube. Facebook’s third party fact-checking program does not stop misinformation and disinformation from spreading on its chat app, Messenger. Private messages and channels allow false posts to spread undetected by the platform. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. IN THE HAGUE. Former presidential spokesperson Harry Roque, who faces a local criminal complaint, arrives in the Hague, Netherlands, where Duterte is detained. Harry Roque/ Facebook MANILA, Philippines – Philippine authorities are looking at “many options” to arrest former presidential spokesperson Harry Roque, among them requesting the International Criminal Police Organization (Interpol) to issue a red notice alert on him, highlighting the complex nature of international law when it comes to asylum-seekers. “We are still preparing the documents needed for an Interpol request for a red notice. Yet, over and beyond Interpol, and upon consultation with the international law experts in the DOJ, there are many more options to consider,” Mico Clavano, spokesperson of the Department of Justice (DOJ), told reporters Tuesday night, May 20. Justice Secretary Jesus Crispin “Boying” Remulla said that the DOJ has also applied to cancel the passport or alleged several other passports of Roque. If Roque’s passport is canceled, he will lose a legal status which the DOJ hopes would make it easier to bring Roque home from The Hague, where the erstwhile human rights lawyer is seeking asylum. “ [Kapag na-cancel ang passport] siyempre, undocumented alien na siya. Depende ‘yan sa grant of asylum kung ibibigay sa kanya ng Netherlands, but I doubt it because Netherlands is one of those countries who go against trafficking,” Remulla told reporters on Monday, May 26. He said the application was filed on Friday, May 23. (If your passport is canceled, he becomes an undocumented alien. That depends whether the Netherlands will grant him asylum, but I doubt it because Netherlands is one of those countries who go against trafficking) Roque was ordered arrested by a court in Angeles City, Pampanga, on May 15, over charges of qualified human trafficking , a non-bailable offense, related to his lawyering role in the alleged scam farm raided in Porac, Pampanga. The scam farm, the charges said, trafficked mostly foreign workers and forced them to engage in scamming operations inside the compound in Porac. But Roque had been insisting on his rights under the international law principle of non-refoulement as an asylum-seeker in the Netherlands. Non-refoulement generally means states are bound by an obligation not to deport an asylum seeker to their origin country, and this covers Roque’s application period. Malacañang earlier said that this right is not absolute, as non-refoulement is generally understood to mean not deporting a person who will face persecution. The main question is whether a court-issued warrant against Roque for qualified trafficking is considered political persecution. “Mukhang si Atty. Harry Roque na lang naman ang naniniwala sa kanyang pananaw na may political persecution, ” Press Undersecretary Claire Castro said in a news briefing Wednesday, May 21. (It looks like Attorney Harry Roque is the only one who believes his view that there is political persecution.) Meanwhile, Roque said on Monday that the application to cancel his passport was “premature” because he is currently challenging his warrant at the Angeles court. “Cancelling my passport, I reiterate, is part of the Marcos Jr. administration’s efforts to silence me as a vocal critic and ally of the Dutertes,” said Roque in a statement. Salvador Panelo, former Duterte chief presidential legal counsel and Roque’s colleague in the Rodrigo Duterte Cabinet, said that Roque is not being persecuted. “If his basis for saying that he is politically persecuted is because he is a critic of the [Marcos] administration, then this claim of political persecution will not lie for the reason there are other harsher critics of the administration who are not being persecuted nor prosecuted,” Panelo said in a statement Tuesday. According to the Netherlands’ simplified asylum procedure, an asylum residence permit is granted to someone who has “a well-founded fear of persecution in your country of origin because of your race, religion, nationality, political opinion or because you belong to a specific social group.” There are seven steps in the Netherlands’ asylum application process before they reach a decision, and it’s unclear which step in that process Roque is. “He should come back and face the charges. The burden of proof lies on the government, he is constitutionally presumed innocent. Let the government prove its case,” said Panelo. Clavano said “the DOJ is in the process of identifying the best course of action.” The Philippines and the Netherlands have no extradition treaty. While extraditions are still possible without a treaty, the process is more complicated. In East Timor which has no extradition treaty with the Philippines, Manila also relied on Interpol to arrest former lawmaker Arnolfo “Arnie” Teves Jr , who is wanted here for murder. But to this day, the Philippines has not been able to bring Teves home because the former lawmaker won his appeal to stay in East Timor. Before the Interpol’s red notice on Teves, the DOJ had considered using the United Nations Convention on Transnational Organized Crime or UNTOC, a treaty that both the Philippines and East Timor are signatories to, and has its own extradition framework. For Roque, Clavano said the UNTOC is “most likely not applicable to the circumstances present here.” Roque taunted the DOJ from The Hague where he is maintaining his social media presence through vlogs and livestreams . Nahihilo ako sa mga taga-DOJ. Manggigipit na lang, hindi pa sila magkasundo. Ang gulo ‘nyo naman, manggigipit na lang kayo wala pa kayong isang boses, nahihilo na ang biktima ng inyong panggigipit.” (I’m so confused with the DOJ. They cannot even agree on the ways to harass me. You guys are confusing, you are harassing me but don’t have a single voice, the victim of your harassment is so confused.) Roque surfaced in The Hague in March, after months of traveling discreetly to avoid the congressional hearings investigating his role in the Porac scam farm masquerading as a Philippine offshore gaming operator (POGO). Roque has admitted to lawyering for the real estate firm that leased land to the POGO, although prosecutors have alleged that this was a layered structure meant to deceive, and Roque was essentially helping the big boss. Roque’s closest revealed interaction with the POGO itself was helping them arrange meetings with the Philippine Amusement and Gaming Corporation (Pagcor) to renew their license. In a vlog from The Hague, Roque said if he is detained for qualified trafficking over calls he made to help a POGO, “ wala na mag-aabogasya (no one would ever want to become a lawyer).” The charge sheet says “Roque had knowledge of or was willfully blind to the fact that the business and the client he was assisting was engaging in labor trafficking for purposes of financial gain through online scamming.” The Interpol, which counts the Philippines among its member, has figured a lot in Philippine affairs. The most prominent was the arrest former president Rodrigo Duterte in Manila on a warrant of the International Criminal Court (ICC) over crimes against humanity charges. The Interpol was also at play when the Philippines arrested an Iranian beauty queen at the Ninoy Aquino International Airport (NAIA) in 2019. Bahareh Zarebahari claimed she was being persecuted for her opposition to the Iranian government. The Philippines granted her asylum three weeks after her arrest. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Democracy &amp; Disinformation,Networked propaganda</t>
+          <t>Department of Justice,international law,Netherlands,POGOs,Rodrigo Duterte</t>
         </is>
       </c>
     </row>
@@ -862,25 +862,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>How Vietnam's 'influencer' army wages information warfare on Facebook</t>
+          <t>Court orders arrest of Harry Roque, Cassandra Ong for trafficking</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/technology/features/vietnam-influencer-army-force-47-information-warfare-facebook/</t>
+          <t>https://www.rappler.com/philippines/arrest-warrant-harry-roque-cassandra-ong-porac-pogo/</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44389.34663194444</v>
+        <v>45792.33880787037</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. FORCE 47. Sen Hồng or Pink Lotus is among the 'Force 47' state propaganda pages in Vietnam Gelo Gonzales/Rappler In Vietnam, where the state is fighting a fierce online battle against political dissent, social media “influencers” are more likely to be soldiers than celebrities. Force 47, as the Vietnamese army’s online information warfare unit is known, consists of thousands of soldiers who, in addition to their normal duties, are tasked with setting up, moderating and posting on pro-state Facebook groups, to correct “wrong views” online. According to a Reuters review of provincial-level state media reports and broadcasts by the army’s official television station, Force 47 has since its inception in 2016 set up hundreds of Facebook groups and pages, and published thousands of pro-government articles and posts. Social media researchers say the group may be the largest and most sophisticated influence network in Southeast Asia. And it is now playing a prominent role in the country’s intensifying conflict with Facebook. After being approached by Reuters this week, a Facebook source said the company had removed a group called “E47”, which had mobilized both military and non-military members to report posts they did not like to Facebook in an effort to have them taken down. The source said the group was connected to a list of Force 47 groups identified by Reuters. A Facebook spokesperson confirmed that some groups and accounts were taken down on Thursday for “coordinating attempts to mass report content.” A company source said the action was one of Facebook’s largest takedowns initiated under its mass reporting policy. But many of the Force 47 accounts and groups identified by Reuters remain active. Since they are operated by users under their real names, they do not violate Facebook policies, the company source said. Vietnam’s foreign ministry, which handles enquiries to the government from foreign media, did not immediately respond to a request for comment on the takedown. Unlike in neighboring China, Facebook is not blocked in Vietnam, where it has 60 million to 70 million users. It is Vietnam’s main platform for e-commerce and generates around $1 billion in annual revenue for the company. It has also become the main platform for political dissent, launching Facebook and the government into a constant tussle over the removal of content deemed to be “anti-state.” Vietnam has undergone sweeping economic reforms and social change in recent decades, but the ruling Communist Party retains a tight grip over media and tolerates little dissent. Last year, Vietnam slowed traffic on Facebook’s local servers to a crawl until it agreed to significantly increase the censorship of political content in Vietnam. Months later, authorities threatened to shut down Facebook in Vietnam entirely if it did not locally restrict access to more content. In a statement to Reuters, a Facebook spokesperson said the company’s goal was to keep its services in Vietnam online “for as many people as possible to express themselves, connect with friends and run their business.” “We’ve been open and transparent about our decisions in response to the rapid rise in attempts to block our services in Vietnam,” the spokesperson said. Vietnam does not have the wherewithal to sustain a Chinese-style “Great Firewall” and develop local social media alternatives, said Dien Luong, a visiting fellow at the ISEAS-Yusof Ishak Institute in Singapore. “This has paved the way for Facebook to become the platform of choice for Force 47 to safeguard the party line, shape public opinion and spread state propaganda.” There is no official definition of what constitutes a “wrong view” in Vietnam. But activists, journalists, bloggers and – increasingly  –  Facebook users, have all received hefty jail terms in recent years for spreading “anti-state propaganda”, or opinions which counter those promoted by the Party. Last week, Le Van Dung, a prominent activist who regularly broadcasts live to thousands of followers on Facebook, was arrested after more than a month on the run, according to a police statement. Dung, who goes by “Le Dung Vova” was detained on charges of “making, storing, spreading information, materials and items for the purpose of opposing the state,” under Article 117 of Vietnam’s Penal Code. He faces up to 20 years in prison if found guilty. Force 47 takes its name from Directive 47, a policy document issued by the army’s General Political Department on January 8, 2016. Analysts say it was created as an alternative to hiring civilian “opinion shapers” – or “du luan vien” – that had operated on a smaller, less successful scale. “Since the ‘du luan vien’ were not as well trained in Party ideology or as conservative as military officials, their performance was not as good as expected,” said Nguyen The Phuong, a researcher at the Saigon Center for International Studies. “Force 47 is also less costly. Military officials consider it part of their job and don’t ask for an allowance.” The size of Force 47 is not clear, but in 2017, the general in charge of the unit at the time, Nguyen Trong Nghia, said it had 10,000 “red and competent” members. The true number could be much higher: the Reuters review of known Force 47 Facebook groups showed tens of thousands of users. The Facebook source said the E47 group it had taken action against was made up of an active membership of military and non-military members. Nghia now heads the main propaganda arm of the Party. Vietnam’s information ministry recently promulgated a social media code of conduct that closely resembles Force 47 directives, urging people to post about “good deeds” and banning anything that affects “the interests of the state.” In March, conferences were held at military bases across Vietnam to mark five years since the creation of Force 47. State media reports about the meetings named at least 15 Facebook pages and groups it said were controlled by Force 47 which collectively had over 300,000 followers, according to a Reuters analysis of those groups. Rather than being a single army unit, Force 47 soldiers appear to carry out their activities alongside their usual duties and create locally targeted content, the reports revealed. In addition to Facebook, Force 47 creates anonymous Gmail and Yahoo email addresses, and accounts on Google’s YouTube and Twitter, according to the reports. YouTube said it had terminated nine channels on Friday for violating its policies on spam, including a channel identified by Reuters as a suspected Force 47 operation. Twitter said it had not seen any activity by Force 47. Many of the Facebook groups reviewed by Reuters played on patriotic sentiments with names such as “I love the Socialist Republic of Vietnam”, “Vietnam in my Heart”, “Voice of the Fatherland” and “Believe in the Party”. Some groups, such as “Keeping company with Force 47” and “Roses of Force 47” were obvious in their affiliation, while others – such as “Pink Lotus” and a few groups that used the names of local towns in their titles – were more subtle. The posts varied in content, with many extolling Vietnam’s army, founding leader Ho Chi Minh, or Party chief Nguyen Phu Trong. Others showed screenshots of “wrong information” posted by other Facebook users, marked with a large red “X”. “These developments unfolding in Vietnam are scary and have expanded with impunity,” said Dhevy Sivaprakasam, Asia-Pacific policy counsel at internet rights group Access Now. “We are witnessing the creation of a reality where people are not safe to speak freely online, and where there’s no concept of individual privacy.” – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ROQUE. Former presidential spokesman Harry Roque attends the resumption of the Senate investigation into Philippine offshore gaming operators on July 29, 2024. Angie de Silva/Rappler MANILA, Philippines – An Angeles City, Pampanga court ordered the arrest of former presidential spokesperson Harry Roque and Filipino-Chinese businesswoman Cassandra Ong for the charges of qualified trafficking in persons, Rappler has confirmed with the Department of Justice (DOJ) on Thursday, May 15. DOJ Undersecretary Nicholas Felix Ty, head of the inter-agency task force against trafficking, confirmed this to Rappler Thursday. It is non-bailable. Roque, Ong and the other respondents may file a petition for bail. The warrant was signed on May 8 by the Angeles City Regional Trial Court (RTC) Branch 118 judge, according to the order that Rappler obtained. “After careful evaluation of the 11 separate informations, the resolution, and the supporting documents attached to each and every case record, this Court finds probable cause to hold all the aforenamed accused for trial for the offenses for which they are respectively charged,” said the order. Aside from Roque and Ong, the “godfather” and “big boss” Duanren Wu was also ordered arrested, but he has been in hiding since the congressional hearings started. “After careful evaluation of the 11 separate informations, the resolution, and the supporting documents attached to each and every case record, this Court finds probable cause to hold all the aforenamed accused for trial for the offenses for which they are respectively charged,” said the order. The DOJ said on Friday, May 16, that they will go through diplomatic channels to fine-tune the enforcement of the warrant against Roque. “We want to clarify that this is a matter of prosecution for a crime in the Philippines. He is one of many accused in the case. He is not being singled out. We should look at this as a venue wherein he can clear his name if indeed he does believe in his innocence,” DOJ spokesperson Mico Clavano told reporters Friday. Roque has been insisting on the principle of non-refoulement or his right not to be deported to the Philippines while his asylum application is ongoing. Press Undersecretary Claire Castro said on Friday that it is not an absolute right. “ Siya po ang dapat magpatunay na ang pagkuha sa kaniya gamit man ang Interpol o kooperasyon sa Interpol, siya ang magpatunay ang pagdala dito sa Pilipinas ay because of mere harassment. So, may kondisyon po iyon….kung mayroon naman pong valid warrant of arrest at may kaso siyang dapat kaharapin, hindi po siya dapat magtago sa kaniyang petition for asylum ,” Castro said in a news briefing Friday. (He should be the one to prove that if ever he is brought here either via Interpol or with cooperation with Interpol, he should prove that it is because of mere harassment. There’s a condition…and if there is a valid warrant of arrest and he has charges to face, he should not hide behind his petition for asylum.) The charges stemmed from the raided Philippine offshore gaming operator (POGO) in Porac, Pampanga, which prosecutors allege operated a massive scam farm that trafficked workers. Roque has admitted to lawyering for the real estate firm Whirlwind in an ejectment case, which was the company that leased to the Lucky South 99 POGO. Although Roque also admitted to helping Ong arrange meetings with the Philippine Amusement and Gaming Corporation (Pagcor) to renew the POGO license, Roque maintained these acts did not amount to human trafficking. Wu owns Whirlwind, and Ong is his goddaughter. The Filipino incorporators, employees, and a consultant were also ordered arrested, including former government official Dennis Cunanan. Cunanan is also charged in the qualified trafficking case in the Bamban, Tarlac POGO, over which Alice Guo is currently being tried. Aside from Roque, Ong and Wu, there are 46 others also ordered arrested. Roque is in The Hague applying for asylum. The Philippines and the Netherlands have no extradition treaty. In the statement he sent from The Hague when he was charged on April 28, Roque said: “There is no evidence that I recruited, transferred, transported, or harbored Chinese or Filipino workers for forced labor and prostitution. It is likewise ludicrous to say that I have exploited workers through force, coercion, fraud, deception, or abuse of power.” Senator Risa Hontiveros welcomed the court decision and said that Roque “must be compelled to return to the Philippines.” “If he doesn’t, not only would he be evading an arrest order from Congress, he would also be defying a lawful order from a court. Abogado siya kaya alam niya na mali ang ginagawa niyang pag-iwas sa batas (He’s a lawyer so he knows evading the law is wrong). Hontiveros noted that Ong faces an arrest order, and their Senate investigation revealed her connection with Li Duan Wang who attempted, but failed, to obtain Filipino citizenship. President Ferdinand Marcos Jr. had vetoed the bill granting the Chinese businessman Filipino citizenship. “These dubious personalities seem to be interconnected. Kaya importante na mapanagot ang mga mapatunayang may sala. Kung hindi, mag-iibang anyo lang sila at makakapambiktima na naman ng mga kababayan natin ,” she said. (So it’s important to hold accountable those found proven to be at guilty. If not, they will only take on a different form and they will again victimize our countrymen.) – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Disinformation</t>
+          <t>Cassandra Ong,Harry Roque,human trafficking,Pampanga</t>
         </is>
       </c>
     </row>
@@ -890,25 +890,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Duterte wants vaccine deniers arrested | Evening wRap</t>
+          <t>Post-Guo, Tarlac deals with its own 'Uniteam' breakup, clash of dynasties</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/video/daily-wrap/june-22-2021-evening-edition/</t>
+          <t>https://www.rappler.com/philippines/elections/tarlac-post-alice-guo-breakup-dynasties-clash-2025/</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44369.56296296296</v>
+        <v>45779.27783564815</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today on Rappler – the latest news in the Philippines and around the world: President Rodrigo Duterte on Monday, June 21, threatens to arrest Filipinos who refuse to get vaccinated. President Rodrigo Duterte calls the International Criminal Court ‘bullshit,’ a week after the body’s chief prosecutor recommended opening a formal investigation into his drug war. The Department of Finance defends its hiring of Nicanor Gabunada Jr., a public relations practitioner tagged by Facebook as the operator behind a fake news, pro-Duterte propaganda network. Hong Kong leader Carrie Lam hits back against critics of the Chinese territory’s attacks against pro-democracy tabloid Apple Daily. The future looks bright for the all-cadet Gilas Pilipinas after it wraps up the FIBA Asia Cup Qualifiers without a loss. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. TEAM YAP VS TEAM ANGELES. Posters of the warring factions backed by NPC and PFP in the Tarlac provincial elections for 2025. Lian Buan/Rappler TARLAC, Philippines – At the public market of Bamban, vendor Rowena Santiago has only one standard for the next mayor she will vote for — already a compromise, she said — that the candidate complete even just a fourth of what Alice Guo had done. “Kahit 1/4 lang ng nagawa ni Mayor Guo puwede na (To do even just a fourth of what Mayor Guo has done, that’s good enough for me),” Santiago told Rappler. Other vendors said the same. “Mayor Guo was a good mayor, you cannot fault anything about her leadership, I’m looking for someone like her,” Marissa Gomez said in Filipino. That Guo had been accused of being a Chinese spy is unfortunate, but Santiago said she’s willing to look past it because “lahat naman ng tao may baho (everyone has faults.)” Guo is in prison while on trial for the non-bailable human trafficking charge, and for another money laundering charge, over the POGO (Philippine offshore gaming operators) hub just behind the municipal hall, that allegedly hid a massive scam farm. But what constituents remember is that Guo was a charmer , always close to the people. Her governance was marked by a lot of distributed aid, and it was under her mayorship that popular fastfood chains rose, giving a second-class municipality signs of rapid progress. In the 2025 midterm elections, Guo’s predecessor — and once political backer — Jon Feliciano is running again for mayor with the same “AG” or “ Asenso Garantisado ” (Guaranteed Progress) branding. In one campaign speech, he told his supporters he wants to continue Guo’s programs “ na sa akin nag-umpisa (that I started).” Even the NPC’s mayoral bet Joey Salting, whom Guo defeated in 2022, is keeping the AG brand. In Tarlac, controversies over scam farms and alleged espionage are not the big issues that they are on the national scene. People here are more preoccupied with gut-level problems, most basic of which are worsening rotating power outages, unsanitary public markets, and fewer college subsidies for students. On top of that, residents have to deal with the heating up local politics — a mini version of a Uniteam breakup, where the clashes are not only among former party-mates, but among families too, in the shadow of the Big Boss, the late Eduardo “Danding” Cojuangco Jr . Tarlac is largely a turf of the NPC (Nationalist People’s Coalition), a party founded by the Tarlac native “Boss Danding,” a Marcos crony. The ruling Yap family has been NPC’s Tarlac caretakers, and since 1998, no other person outside of the Yap family has been governor of Tarlac. The capitol has been passed on from the patriarch Jose V. “Aping” Yap, to children Victor Yap, then Susan Yap, who is term-limited for 2025. They are now fielding the third generation Yap to take over the capitol. Susan’s son, Christian Tell A. Yap, outgoing Tarlac 2nd District Representative, is running for governor against outgoing Paniqui Mayor Max Roxas, who jumped from the NPC to Marcos’ Partido Federal ng Pilipinas (PFP). Although it’s Yap vs Roxas for the capitol, the 2025 elections in Tarlac can be more specifically called Team Yap vs Team Angeles. The campaign battlecry is “ Yap pa rin (Stay with Yap)” versus “ Angeles naman (It’s Angeles’ turn).” The Angeles family is also a rising dynasty. Outgoing Tarlac City Mayor Cristy Angeles bolted from the NPC, and is now PFP’s Tarlac chair. Cristy is running to become 2nd District representative against former governor Victor Yap. Cristy’s husband Victor Angeles, who owns government contractor Northern Builders, is running as Tarlac City mayor against Susan Yap. Tarlac City has denied that Northern Builders even made a bid in his wife’s city hall. The Angeles’ daughter KT is running for Tarlac City vice mayor. “It’s war,” Ver Buan — considered a local historian and Danding Cojuangco’s close friend — told Rappler. (Editor’s Note: Ver Buan is not related to the author) . “There’s no more referee,” said local political strategist Ninoy Palomar, referring to the death of Danding Cojuangco in 2020, followed by the death of his son, former Tarlac 1st District representative Carlos “Charlie” Cojuangco in 2022. “ Laban na rin sa Facebook. Parang ganun eh. Parang ang Tarlac ngayon, sumasama ‘dun sa kausuhan na battle of Facebook, ” Buan added. ( It’s a war on Facebook, it seems that way. Tarlac has become like that, hopping on the battle of Facebook trend.) The social media bickering between supporters of both camps has become so heated that it has sidelined the issue of alleged Chinese espionage through POGOs, said campus journalist Ashley Nicole Ilagan. That alleged Chinese spies, so far not related to Guo, donated motorcycles to the Tarlac city hall under Cristy Angeles, is rarely discussed in the electoral space if at all, said Ilagan. “‘Yung major political issue po na tinitingnan ngayon, eh ano ba ‘yung nagawa ng mga Yap? Ano ba ‘yung nagawa ng mga Angeles?” said Ilagan, the editor in chief of The Work, publication of the Tarlac State University (TSU). (The major political issue that people are looking at now is gauging what have the Yaps done? What have the Angeleses done?) The late former president Corazon Aquino, Danding Cojuangco’s cousin, brought in the Aquinos to the clan by marrying the late former senator and democracy icon, Benigno “Ninoy” Aquino. Kris Aquino’s son by ex-husband James Yap — James “Bimby” Aquino Yap — has been campaigning with Susan Yap lately (the Yaps are not related to Bimby’s father, who is from Negros Occidental). But on the other end of this powerful clan war, the Teodoro couple has backed Team Angeles. Like Kris, Defense Secretary Gilbert “Gibo” Teodoro Jr. is a direct Cojuangco bloodline. They are niece and nephew, respectively, of Boss Danding. Gibo’s wife, Nikki Teodoro, who is special envoy to UNICEF, power-flexed in encouraging people to support Team Angeles, saying there’s nothing to fear going up against the local administration slate of the Yaps because “ kami ang admin (we are the administration),” referring to their current positions in the national government. “ Kami ang nasa admin, kami ni Gibo ang nakaupo sa admin, hindi sila, ano ang takot ninyo? (We are the ones in the administration, Gibo and I are the ones sitting in the administration, not them, what do you fear?)” she said in a speech in February. She also declared, “ Ang boss ko si PBBM (my boss is PBBM).” If there’s anyone mentioning POGOs, it’s Gibo Teodoro who said in a speech in front of PFP bets in January that he won’t allow Guo’s enablers to keep their positions, in an apparent dig at the Yaps. NPC kicked out Guo from the party after the scandal broke out. “Hindi ako makapapayag na payagan ang mga nagtakip-mata, tumulong o naging kasabwat ng isang napakalaking sindikato na namugad ng mga kalaban ng bansa sa Bamban na manatili sa puwesto,” said Gibo Teodoro. (I will not allow those who either turned blind, aided, or were complicit in operations of a big syndicate that sheltered the state’s enemies in Bamban, to keep their positions.) The Yaps have defended the local government from the POGO controversy, saying it should have been the accountability of the Philippine Amusement and Gaming Corporation (Pagcor). “Bakit ‘yung POGO hindi makita [ng Pagcor] kung nag-sa-scam na? Bandang huli tinuro pa ‘yung local government, samantala sila naman ang nag-implement,” said Victor Yap during a debate hosted by TSU on April 29 , but which Team Angeles did not attend. (Why didn’t Pagcor see that the POGO was already scamming people? And at the end they even blamed the local government, when it’s them tasked with implemenation.) Christian Yap said he supports more local government oversight on industries entering the province, to avoid a repeat of the POGO mess. Benigno “Noynoy” Aquino III and Gibo Teodoro ran against each other for the presidency in 2010, and this latest episode of this clan war has led locals to think that Team Yap versus Team Angeles is just another proxy war. Paniqui, the hometown of gubernatorial bet Max Roxas of Team Angeles, has its own family drama too. Max’s children are running for mayor and vice mayor against their first cousins — creating a Roxas versus Roxas situation. This rift dragged yet another Cojuangco into the family drama — Danding’s daughter Lisa Cojuangco-Cruz was supposed to run for Paniqui mayor against Max’s daughter Bien, but she later withdrew, leaving Max’s niece Kat, running under the banner of NPC, up against her cousin. For vice governor, Team Angeles is fielding longtime former vice governor Marcelino “Bogs” Aganon, who’s running against NPC’s Estelita Aquino, the outgoing longtime mayor of Moncada. Aquino is fielding son RB in Moncada. There’s also the NPC’s Tesoro family in San Manuel. Both are in the first district. Running unopposed as first district representative is NPC’s Jaime Cojuangco, son of Charlie Cojuangco and grandson of Danding. “Mukhang family-owned na po talaga itong probinsiya namin ,” said Ilagan, who added that based on consultations they have had with grassroots communities, voters choose who can help them. “Wala naman daw po silang choice (They tell us they don’t have a choice anyway),” said Ilagan. In 2022, although there were already cracks in the once-united NPC, most of them backed the Marcos-Duterte Uniteam . In fact, President Ferdinand Marcos Jr. and Vice President Sara Duterte won in the province. Tarlac, a province with 936,000 voters, tends to vote for the ruling party, at least since 2016. In the elections coming out of the Noynoy Aquino presidency, it was his bets or the Liberal Party’s Mar Roxas and Leni Robredo who won in the province. Tarlac also voted many “yellow” senators in 2016; and placed mostly Duterte allies in 2019 and 2022. With the bitter split of Marcos and Duterte, Tarlac or the “melting pot of the North” can be an indicator of who supports which side in the lead-up to the 2028 presidential elections. That is if it can survive its own war first. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>COVID-19 vaccines,Department of Finance,FIBA Asia Cup,Hong Kong,Hong Kong Security Law,International Criminal Court,Networked propaganda</t>
+          <t>2025 Philippine local election,Alice Guo,Central Luzon,Corazon Aquino,Danding Cojuangco,Gibo Teodoro,Kris Aquino,Ninoy Aquino,Noynoy Aquino administration,POGOs,political dynasties,political parties,Tarlac</t>
         </is>
       </c>
     </row>
@@ -918,25 +918,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The fake social media accounts amplifying Chinese propaganda</t>
+          <t>Philippine government will block Harry Roque's asylum bid – DOJ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/technology/features/pro-china-fake-social-media-accounts-coda-story/</t>
+          <t>https://www.rappler.com/philippines/government-will-block-harry-roque-asylum-bid/</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44340.38846064815</v>
+        <v>45776.96527777778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Teona Tsintsadze for Coda Story An army of suspicious “super-spreader” social media accounts stationed around the world is helping Chinese diplomats amplify the country’s perspective on current events, according to a new investigation. The findings of seven months of research were published in a study by the Oxford Internet Institute last week, analyzing every tweet and Facebook post by Chinese diplomats and 10 of the nation’s largest state-controlled media outlets between June 2020 and January 2021. The researchers examined 189 accounts attributed to China’s embassies, ambassadors, consuls, and other embassy staff. It discovered an extraordinarily high level of engagement on social media: Chinese diplomats tweeted 201,382 times, averaging 778 times a day for a nine-month period. Their posts were liked nearly seven million times and retweeted 1.3 million times. Many of the shared posts helped amplify content from China’s state-backed media, enabling the diplomats to act as bridges between state media and local communities. The investigation has also found evidence showing that social media audiences engage with Chinese diplomatic Twitter accounts in large numbers. Chinese diplomatic accounts were retweeted more than 735,664 times between June 2020 and January 2021. Moreover, this engagement is dominated by a small number of “super-spreader” accounts, which rapidly engage with content posted by Chinese diplomats. At least 270 Chinese envoys in 126 countries are active on Twitter and Facebook. In a separate collaboration with the Associated Press, Oxford Internet Institute researchers uncovered evidence of a pro-China amplification machine based in the U.K., with a coordinated inauthentic network of 62 accounts dedicated to promoting content by Chinese diplomats stationed in London. Between June 2020 and January 2021, it accounted for nearly half of all retweets of China’s ambassador to the U.K. “The network nearly doubled the ambassador’s retweet counts, lending him a false sense of popularity and artificial support, which may make his positions seem more credible,” said Marcel Schliebs, the report’s lead researcher. Many of the accounts impersonate British citizens by claiming they support football clubs in London or Manchester, and frequently use language suggesting they are U.K.-based. While some accounts showed obvious signs of coordination, the researchers said they could not definitively conclude whether the 62 in question were controlled by one or more operators. While Twitter last year disclosed the takedown of nearly 29,000 accounts linked to a China-backed information campaign between August 2019 and June 2020, the process can take months. “Twitter should establish clear criteria of what constitutes coordinated inauthentic behavior and monitor accounts with suspicious engagement more closely,” said Schliebs. In response to the Associated Press findings, the Chinese embassy in London said it was aware of concerns about posting on Twitter. “If it is against the rules of social media to retweet the Chinese embassy’s tweets, then shouldn’t these rules be more applicable to retweets of malicious rumours, smears and false information against China? We hope relevant companies will not adopt double standards,” it said in a statement. – Rappler.com Ramsha Jahangir is an award-winning journalist at Pakistan’s DAWN newspaper. She covers technology, human rights, disinformation and digital politics. This article has been republished from Coda Story with permission. How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ROQUE. Harry Roque gives an interview in front of the ICC in The Hague, Netherlands. Screenshot from Roque's Livestream MANILA, Philippines – The Philippine government will block the asylum application of former presidential spokesperson Harry Roque , a Department of Justice (DOJ) official announced. Undersecretary Nicholas Felix Ty said DOJ chief Jesus Crispin “Boying” Remulla had given him instructions to deal with Roque’s case. “The instructions from the secretary directly to me is that we will notify the government of the Netherlands once the arrest warrant is issued. We don’t want to preempt any warrant of arrest issued by the court because that is up to the court, but the moment it does, we will duly notify the government of the Netherlands of this development,” Ty said in an interview with ABS-CBN News on Tuesday, April 29. On April 28, prosecutors charged Roque with qualified human trafficking at an Angeles City Regional Trial Court in Pampanga for his alleged involvement in the raided scam farm in Porac, Pampanga. His case is non-bailable. Apart from him, Cassandra Ong and 48 others who are allegedly owners, officers, or key employees of the Whirlwind mother company and the Lucky South 99 Philippine Offshore Gaming Operator, were also charged. Roque has applied for asylum in The Hague, Netherlands as he avoids arrest. However, some experts have already said that his asylum request might be standing on shaky ground.  The former spokesperson is up for arrest because of a House of Representatives order. After his initial detention in 2024, he was ordered arrested again in September 2024 after he was cited in contempt due for snubbing the chamber’s subpoena. He made a public appearance on March 14 in The Hague, Netherlands, where former president Rodrigo Duterte is detained due to a crimes against humanity case with the International Criminal Court. If the Angeles court issues an arrest warrant against Roque, this would add to the long list of grounds to bring the former Duterte official back to the country. Once the court issues a warrant, the Philippine government can seek the Interpol’s help to issue a red notice. This will notify Interpol members to facilitate the arrest of a person listed under the red notice. The Netherlands is an Interpol member-country . – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Department of Justice,POGOs</t>
         </is>
       </c>
     </row>
@@ -946,25 +946,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WATCH: How the propaganda machine took a beating when #OustDuterteNow trended</t>
+          <t>Harry Roque, Cassandra Ong charged with non-bailable trafficking over Porac POGO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/philippines/video-how-propaganda-machine-took-beating-oust-duterte-trended/</t>
+          <t>https://www.rappler.com/philippines/harry-roque-cassandra-ong-charged-angeles-court-human-trafficking/</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44041.41827546297</v>
+        <v>45775.34628472223</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Analysts say the Duterte administration’s response to the raging health crisis carries a high political cost. The outbreak hits several of the President’s main constituencies in both the middle class and overseas Filipino workers. Ateneo School of Government Dean Ronald Mendoza says that if government is unable to respond effectively, “we may witness change in political support.” Another analyst, University of the Philippines political science professor Ela Atienza, says Duterte and his team may have touted the war on drugs, massive infrastructure programs, and development in regions outside Metro Manila as legacies of his administration, but it’s clear the pandemic “has changed the agenda for the rest of his term.” Watch this video and find out how Rappler documented the beating that the propaganda machine took at the hands of unaligned, unpoliticized individuals. Data shows the #OustDuterteNow trend was largely organic and participatory, with little signs of manipulation or coordination. This pointed to a groundswell of negative public sentiments against the President’s handling of the crisis. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. IN THE HAGUE. Former presidential spokesperson Harry Roque, who faces a local criminal complaint, arrives in the Hague, Netherlands, where Duterte is detained. Harry Roque/ Facebook MANILA, Philippines – Former presidential spokesperson Harry Roque, who is seeking asylum in the Netherlands, has been formally charged with qualified human trafficking on Monday, April 28, at the Angeles City Regional Trial Court (RTC) in Pampanga, over his alleged involvement in the raided scam farm in Porac, Pampanga. It is non-bailable. Charged together with him are Cassandra Ong and 48 others who are allegedly owners, officers, or key employees of the Whirlwind mother company and the Lucky South 99 POGO (Philippine Offshore Gaming Operator), accused of running a scam farm that trafficked workers. Prosecutors said the “crime was committed by a syndicate and in large scale, as it was carried out by a group of 3 or more persons conspiring and confederating with another,” according to the charge sheet, so that it falls within Section 6 of the law, a non-bailable offense. In a message on Monday, Roque said, “Have not received any resolution.” He maintained that his involvement with Ong and Whirlwind does not amount to human trafficking. “There is no evidence that I recruited, transferred, transported, or harbored Chinese or Filipino workers for forced labor and prostitution,” he said in a statement. Roque also said the charges were examples of “unjust prosecution.” “The Marcos Jr. administration is hell-bent on manufacturing cases against me and latest filing of a qualified human trafficking case is no exception,” he said. A judge in Angeles will now determine whether there is probable cause to issue an arrest warrant against Roque, Ong, and others. If and when a warrant is issued, the Philippine government will face the question of how to enforce it against Roque, who is in The Hague undergoing asylum application procedures based on his claim of political persecution. There is no extradition treaty between the Philippines and the Netherlands. Roque has admitted to lawyering for Whirlwind in an ejectment case, and assisting Ong in meetings with Philippine Amusement and Gaming Corporation (Pagcor) so Lucky South can renew its POGO license. Roque, a law professor, has repeatedly claimed these actions did not mean trafficking. Prosecutors said Roque “gained/profited” from “aggressively pursuing the renewal of the supposed IGL [Internet Gaming License] of Lucky South 99.” “Roque knowingly facilitated or contributed to the activities for the purpose of organizing the trafficking or exploitation of workers,” said the Department of Justice (DOJ) resolution dated April 7. Section 6(c) of the Anti-Trafficking Act, under which Roque is now charged, defines qualified trafficking as an offense committed by more than three people against more than three victims. Roque and Ong are charged together with 48 others, while law enforcers have secured affidavits from 12 trafficking victims. It is Section 6 that renders the offense non-bailable. Prosecutors said Roque either “had knowledge” that his client was trafficking workers, or he “was willfully blind” to that fact. “His indispensable cooperation and participation makes him equally liable with his co-respondents,” read part of the resolution. Ong has told the House quad committee that she did not run the POGO, although multiple documents name her as the representative of Lucky South. A CCTV operator whose affidavit was also secured stated that Ong was the day-to-day manager of Lucky South, and would often be referred to as the big boss. The true “big boss,” the employee said, was Ong’s godfather Duanren Wu. Wu is now in hiding, and is also charged. Dennis Cunanan, a former government top official who is linked to the pork barrel scam scandal, and who was consultant for Lucky South 99 in its Pagcor dealings, is also charged. This is Ong’s first court charge, as she was dropped by the DOJ in the money laundering case against Alice Guo in Bamban, Tarlac. She was freed from House detention just before Christmas 2024. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Duterte Year 4,Rodrigo Duterte</t>
+          <t>Cassandra Ong,Harry Roque,Netherlands</t>
         </is>
       </c>
     </row>
@@ -974,25 +974,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duterte’s troll armies drown out COVID-19 dissent in the Philippines</t>
+          <t>In the shadow of a scam farm, dismissed Porac mayor confident of election sweep</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/technology/features/philippine-troll-armies-coda-story/</t>
+          <t>https://www.rappler.com/philippines/elections/jaime-jing-capil-2025-reelection-dismissed-porac-scam-farm/</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44034.33354166667</v>
+        <v>45755.46942129629</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Visuals by Sofiya Viznaya for Coda Story On a sweltering Monday morning in Manila, Nic Gabunada is sitting at his laptop, working from home. Gabunada is a former CEO of Omnicom Media Group Philippines and currently executive director of his own communications and marketing company. Before this, he served for two years as the head of President Rodrigo Duterte’s social media team and played an integral part of his 2016 election campaign. In March 2019, Gabunada was linked to a network of 200 pages removed by Facebook for “coordinated inauthentic behaviour.” This opaque charge is most commonly levelled by the company at foreign influence and troll campaigns. So far, Gabunada is the only individual to have ever been named by the platform as the organizer of such an operation. Despite the actions against his network, Gabunada’s methods have changed politics in the Philippines, where troll farms continue to churn out pro-government messages and attack opposition figures. What is more, Gabunada believes that global platforms face a losing battle in trying to stem the spread of fake news. “No one can control what people can say on social media,” he told me, during a telephone conversation. This is a particular concern during a global health crisis. As Covid-19 has rampaged across the globe, so too have anti-science narratives and conspiracy theories related to the virus. The Philippines has reported 21,895 confirmed cases of coronavirus and 1,003 deaths, so far. The government’s handling of the situation has split the population and online discourse has become increasingly heated, with wild accusations and threats of violence made, often using troll accounts. “Right now in the Philippines – we see offensive posts from both sides,” said Gabunada, referring to the deluge of relentless vitriol raging between pro and anti-Duterte supporters on various social media platforms on a daily basis. “There are newly created accounts on Facebook and Twitter participating in the exchange around the government’s Covid-19 response, but they still belong to one of two sides of the debate – anti or pro.” Amidst one of the longest lockdowns in the world, Gabunada, like many of Manila’s 12.5 million inhabitants, watches all of this from home quarantine. As a healthy distraction, he has taken up kitchen gardening, growing vegetables at home. As the coronavirus continues to plague the Philippines – the country’s health ministry recently reported its fifth straight day of over a thousand infections – the government has moved to silence all criticism. A new anti-terrorism bill which took effect last week has been singled out by rights groups who say it could give the president unprecedented power to target dissent rather than terrorism. The bill permits warrantless arrests and allows authorities to detain individuals for weeks without charge, surveillance for up to 90 days and mandates punishment as severe as lifetime imprisonment without parole. At least nine petitions to revoke parts or the entirety of the law have been filed in the supreme court. The new legislation follows a crackdown on the media’s ability to report on the government. In June, Maria Ressa, founder and executive editor of the news website Rappler, and a former colleague were convicted of cyber libel over a 2012 story that alleged drugs and human trafficking links between a businessman and a top judge by a court in Manila, a charge that they both deny. Both have been fined $8,000 and could now face up to six years in prison. Against this backdrop of repression, Duterte and his administration freely spread political and medical disinformation to Filipino citizens. In early February, the country recorded the first Covid-19 death outside China. The president’s reaction was to hold a press briefing, in which he assured everyone that the pandemic would “die a natural death, even without vaccines.” The following month, however, he delivered an impromptu national address, in which he told police to kill quarantine violators. “My orders to the police and military,” he said, “If there is trouble or the situation arises where your life’s on the line, shoot them dead.” As the crisis has played out, social media posts in support of his confused approach have become increasingly visible. Twitter accounts have been posting pro-Duterte propaganda, including lauding him for his “humility, respect, and gratefulness” and praising the anti-terrorism bill . While many of the tweets appear to be the product of troll operations or bots, Gabunada maintains that the proliferation of pro-government social media hashtags are from legitimate supporters of Duterte. “It is the nature of social media to encourage sharing of opinions and messages,” he said, by way of explanation. However, in April, Twitter suspended hundreds of accounts tweeting under specific hashtags defending the Philippine government’s response to the coronavirus pandemic . According to the Washington Post, the accounts were “posting duplicate content across multiple accounts, creating duplicate or multiple accounts, and sending large numbers of unsolicited replies or mentions.” Most of the accounts posting pro-Duterte hashtags had “suspicious elements” such as bot-like numbers on Twitter account names and few followers. Many users were also new, with the accounts created in March or April. Earlier this month, Facebook released a statement, saying that it was looking into “reports of suspicious activity” in the Philippines, after students, journalists and opposition figures found a deluge of impostor accounts made under their names prompting an investigation by government agencies. While the imposter accounts have yet to publish any posts, opposition senator Francis Pangilinan said he suspected the accounts targeted those who oppose Duterte’s anti-terror bill. The weaponizing of social media can be traced back to the election in 2016. A 2017 Oxford University study found that Duterte spent $200,000 to hire up to 500 trolls during his presidential campaign the previous year. His social media strategy was overseen by Gabunada, who was working as a private contractor. According to Gabunada, Facebook became a cheap and convenient vehicle for the Duterte campaign when the platform struck deals with local cellular operators, making it free to use in the Philippines for anyone with a smartphone. Now, the Philippines has become home to hundreds of troll farms. In March, Reporters Without Borders released a study that explained how supporters of the president acting as “cyber-troll armies” are using “call center hubs” to disseminate “fake or maliciously edited content” and to conduct “targeted harassment campaigns” against opposition figures. A NATO report published earlier this year found that troll farm employees can earn up to $1,000 per month working on political campaigns. The average monthly salary in the Philippines is $278 per month. In an effort to maintain distance from political figures and parties, these operations are also run by private contractors hired by political candidates. But Gabunada says that the 2016 campaign also saw the rise of an online army made up of genuine Duterte supporters. “At the end of the day, you wanted to convert people into campaigners and voters. Fake accounts can’t vote and paid trolls may not necessarily be there when a campaign needs to mobilize them,” he explained. “We organized a network of volunteers to campaign and then we programmed a series of messages to post and amplify on social media accounts. We communicated with these organized groups and encouraged them to create their own Facebook groups and pages – all carrying the Duterte messages and getting as many within their circle to join them.” Pro-Duterte troll farms have lately come up against a growing number of fact-checking groups and ordinary Filipinos dedicated to debunking misleading claims. Jecon Dreisbach, 24, is a former volunteer at a fact-checking organization named the Consortium of Democracy and Disinformation. Today, he works as an independent researcher and educator, specializing in issues of nationalism, politics and the media. One of the biggest fake stories he has recently uncovered involved an April 2020 report by the Philippine News Agency that claimed “80% of Filipinos are satisfied with the government’s response to Covid-19.” The piece cited a survey conducted by a fake polling company based in Bulgaria. Vietnam is economically less-fortunate than the Philippines. Yet, they didn't enforce oppressive policies. What did they do? Enforce public health drives such as coming up with free disinfectants for everyone, among other things. Life went on. Dito? De facto martial law. For their efforts, activists such as Dreisbach frequently become the targets of coordinated online harassment campaigns. “Whenever my criticisms of Duterte go viral, I get trolled,” he said. One notable post threatened Dreisbach with a lawsuit, stating that his fact-checking work was “instigating people to overthrow the government during a state of public emergency.” Matagal ko nang alam na iyong posts ko ay archived na sa pro-Duterte (Youth) Google drive. Kung may mangyari man sa akin, hanapin niyo ako sa lahat ng kampo ng pulis at militar. Hindi ako natatakot sa inyo. Patuloy kong ipaglalaban ang mga pinahirapan at ginutom ng rehimeng ito. pic.twitter.com/dwk4QaH4rF And that is not the worst of it. On May 13, a Duterte supporter posted a tweet threatening to cut off the head of journalist Barnaby Lo. Lo notified the Philippines’ National Bureau of Investigation, but so far the case has not been pursued. While acknowledging that the Philippines is “at a critical juncture in its political history,” Dreisbach remains surprisingly stoic. “It is my constitutional right to express my opinions against the Duterte regime,” he told me. To everyone who stood up for me after someone threatened to cut my head off… The NBI did respond, but said they’re busy w/ child cybersex cases now. I also got a half-apology👇. I realized there are bigger injustices, so I’ve decided not to pursue my complaint. Thanks guys! https://t.co/NK58w3nUqU  pic.twitter.com/hArnQnkjPU Dreisbach also believes that the tide is turning. He largely attributes this change to the government’s handling of the coronavirus and its aggressive use of online platforms to spread misinformation and silence opposition voices. “I am hopeful that Filipinos will be more critical of the policies and disinformation propaganda implemented by the regime,” he said. “Duterte may take advantage of the vulnerabilities we experience in this pandemic to advance his authoritarian desires, but the sovereign Filipino people will march for their fundamental human rights and justice.” – Rappler.com Lynzy Billing is a journalist and photographer based between Afghanistan and the Philippines.  This article has been republished from Coda Story with permission.  How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. PAMPANGA, Philippines – The roads of Porac, Pampanga are peppered with green and yellow tarpaulins, from small to large ones, bearing the name of an apparent crowd favorite, Jaime “Jing” V. Capil, seeking a comeback to the municipal hall where former subordinates claim it was him who “concealed” the operations of what turned out to be a massive scam farm. Capil, a mayor of Porac since 2019, was dismissed by the Ombudsman on April 4, a punishment that carries perpetual disqualification. But Capil said he is prepared to appeal all the way to the Supreme Court, and that “ tuloy ang inyong mayor sa eleksiyon, tuloy ang 10-0 (your mayor will carry on in the elections, a 10-0 sweep will be done),” referring to his 10-person slate composed of his daughter Jen running for vice mayor, and eight councilors. The local election code only disqualifies a candidate who’s been convicted by final judgment. An administrative penalty of perpetual disqualification was another way, but the way our justice system is set up has allowed public officials like Capil to continue running and hold office, while they appeal their cases — in some instances, taking years. A quick scan around town shows a preference for Capil. The residents Rappler talked to all mentioned Capil as their choice of mayor, also fondly called by his initials “JVC.” When we asked why, they said look around — concrete roads, lampposts, a hospital, a mini park, they credit these all to him. That he had been dismissed for gross neglect of duty for allowing a scam farm, where prostitution and trafficking allegedly thrived, won’t change their minds. “ Kahit may nangyaring ganun, wala na po akong ano sa mga bagay na ganun, ang importante ay ‘yung nagawa niyang mabuti, ‘yun ang mahalaga (Even if something like that happened, things like that are nothing…what’s important is the good he’s done, that’s what’s important),” said a resident named John. Another resident whom we chanced upon buying food at a local eatery does not believe that Capil was accountable for the scam farm. “ My own observation, siyempre nasa mababang lebel siya, eh sino ba ang nasa taas? ” said Danilo Calma. So nagamit lang siya I guess (My own observation, of course he’s of a lower level, so who’s higher? I guess he was just used.) Capil told Rappler in an interview in his campaign headquarters on Friday, April 11, that he was “singled out.” “ Parang ako ay napagkaisahan na parang ako ay ano, parang singled out ako…kaya nga po alam ko ay ito’y pulitika,” said Capil. (I was ganged up on, I was singled out…that’s why I know this is politically-motivated.) Capil’s first-term win in 2019 was a feat because he defeated Mark Lapid by a landslide , a household name by virtue of his father, the actor and Senator Lito Lapid. Mark was also former Pampanga governor. Porac is a first class municipality, and a promising site for development. Away from the busy roads, the big white municipal hall stands alone in an empty, open field. In his first full year as mayor, Capil boasted of his accomplishments to state auditors, among them an elementary school and roofing for the market. But there was something else that he did. In October 2019, Capil took his councilors to a cafe called Cioccolo, which stands by the Angeles City entrance of the sprawling Thai Royal Court compound. At the cafe, Capil introduced the councilors to the compound owner, local businessman Ruperto Cruz, and the young savvy businesswoman Cassandra Ong , according to the counter-affidavit of Capil’s former vice mayor, and now mayoralty rival, Charlie Santos. Capil does not deny meeting Ong. Ong has been accused of colluding with the disgraced Bamban, Tarlac mayor Alice Guo of designing and establishing scam farms by exploiting regulatory frameworks. Ong, however, has been cleared of money laundering charges related to the Bamban scam farm. She still faces separate complaints for the Porac case. A month after the cafe meeting, Ong went to the municipal office to apply for a Letter of No Objection (LONO), an LGU requirement by the Philippine Amusement and Gaming Corporation (Pagcor) to set up a POGO (Philippine offshore gaming operator) hub. The POGO would later become the infamous Lucky South 99 , a 10-hectare compound of 48 buildings within the Cruz-owned estate, and which allegedly operated a massive scam farm. After Ong applied for the LONO, the Sangguniang Bayan held a meeting at the Fortune Seafood restaurant in Clark, and there they agreed to unanimously approve the LONO. Capil was the final signatory of the LONO. But the LONO dated November 5, 2019, indicated that Lucky South 99 is a BPO or Business Process Outsourcing provider, and not a POGO, according to a copy obtained by Rappler. Capil granted a business permit to Lucky South, the BPO, in 2020; and in 2021, he renewed the permit for Lucky South, the POGO. Capil claimed in his affidavits that his issuance of mayor’s permits to Lucky South was a ministerial task, and that there was good faith assumption that it was already vetted by the Business Permits and Licensing Office (BPLO). “It is only upon the BPLO’s recommendation that he affixes his signature thereon,” says the Ombudsman resolution, citing Capil’s claims. But the licensing officer Emerald Vital disputed the claim that she had ever recommended approving Lucky South’s permits. Vital said her role was merely to check whether the documents were complete, and to assess fees and taxes. Vital said there was no “concrete evidence which could show that she recommended or caused the issuance of mayor’s business permits in favor of Lucky South 99.” In fact, said Vital, she was part of an inspection team that recommended to Capil as early as 2020 that Lucky South’s permit be revoked because it was “operating as POGO without proper authority.” “Following the submission of the report to Mayor Capil, she received no further instruction. She opines that Mayor Capil is in the best position to explain why no action was taken on the Joint Inspection Team’s recommendation,” said the resolution, citing Vital’s affidavit. “[Santos] claims that Mayor Capil systematically and methodically concealed POGO operation in Porac. He was fully aware that the LONO issued to Lucky South 99 was for BPO and not POGO,” said the resolution. Capil told Rappler that the testimonies of Vital and Santos are all lies, and claimed they were both pressured. “Siyempre kung sasabihan ba naman siya na sige, kahit magsinungaling ka at mapapawalang-sala ka, i-ano natin si Mayor. At hindi ko naman siya tao, di ba niya gagawin ‘yun? Napakadali lang na magsalita, tuturuan ka lang ng abogado. Di ba? Kaya mga kasinungalingan po ‘yung sinasabi nila,” said Capil, explaining that Vital wasn’t his own hire in the municipal hall. (Of course if someone tells you to just lie so you can be absolved, and let the mayor take the fall. She’s not my own staff, wouldn’t she do it? It’s easy to talk, you’ll just have a lawyer coach you. Right? What they’re saying are all lies.) In a clarificatory hearing, Capil “admitted having previous knowledge that while initially, Lucky South 99’s applications for LONO and business permit were for BPO operations, their operations would eventually evolve to POGO,” said the resolution. The Ombudsman absolved everyone else in the municipal office, except Capil whom it charged of gross neglect of duty, deserving to be stripped of retirement benefits. The resolution says Capil cannot escape accountability by claiming that the questionable acts were delegated tasks to subordinates, as the Ombudsman said the former mayor himself acted  “as principal by direct participation.” Capil believes that his political detractors thought they can eliminate him through the dismissal. “I’m confident na ako po ay makakatakbo (I am confident that I can run),” said Capil. If he wins, said Capil, he may no longer accept investments from gambling. “I wish po [hindi ako pumayag noon] kasi wala naman talagang gaano kalaking investment na naibigay sa amin, problema pa. At hindi naman din kami nakapag-generate ng employment,” said Capil.  “Kaya kahit wala man siya, walang effect po sa amin eh. Tapos ito pa ‘yung nangyari sa amin,” Capil added. (I wish I did not entertain them before because the town did not get a big return on investment, only problems. They also did not generate employment. So even if the POGO is gone now, it has no effect on us. It only cost us this fate.) After a raid on the Lucky South compound in June 2024, anti-organized crime authorities said the Porac ring leaders appeared more dangerous and ruthless . An inventory of baseball bats that they alleged to have been used for torture were kept in a neat line inside the mess hall. The second floor housed pleasure rooms. Stripper heels, kinky outfits, and unused condoms were scattered on the floor with the shattered glass. Ong, who was detained by prodding lawmakers for months, insisted there were no torture chambers. A criminal complaint for trafficking against her, her Chinese big bosses who are now nowhere to be found, and against Harry Roque, are still pending before prosecutors. (Roque was dragged into the case for helping Ong set up meetings with Pagcor to renew their POGO license.) According to Porac police, they wrote Capil in July 2021 to inform him “of suspected illegal activities such as serious illegal detention, cyber-related criminal activities, prostitution, and illegal drugs involving Chinese nationals in the business premises of Lucky South 99.” Capil said this July 2021 letter never reached him. Police again wrote in August 2023, and Capil responded by sending an inspection team to the premises but it “yielded negative result of any criminal activity.” For the Ombudsman, all of the evidence from the cafe meeting and his not acting on his own staff’s recommendation to revoke the permit, are proof of Capil’s “subtle collaboration” with bad guys. “These significant and undisputed circumstances happened under the close watch of Mayor Capil as overall administrator of Porac LGU which clearly demonstrated his predisposition to favor the grant and continued operation of Lucky South 99 as POGO in Porac at all costs despite the unfavorable odds against it,” said the resolution. Jen Capil, who also served as chief of staff to her father, said that the mayor denied Lucky South its permit in January 2024 when it was found with a violation of the fire code. “Para sa akin, kung talagang in collaboration siya with the POGOS, ‘yung small thing na ‘yun, puwede niyang palampasin. Pero he did not ,” Jen Capil told Rappler. ( For me, if he was really in collaboration with the POGOs, he could have let that small thing go. But he did not.) Vendor Marissa Sanchez said she was deeply affected by the news of dismissal. “ Hindi ako makatulog, pray, pray (I couldn’t sleep, I just prayed and prayed),” said Sanchez. Jerlie Estabillo calls Capil her “love-love” for cleaning and getting rid of the bad odor of her barangay. “ Wala pong katotohanan ang paratang, nalulungkot po ako pero I love Jing Capil (There’s no truth to the accusations, I am so sad but I love Jing Capil),” said Estabillo. Criminal complaints of graft have been filed against Capil, a separate proceeding at the Department of Justice. But if the public outpouring of love is any indication, Capil may just win another term as mayor, even in the shadow of an exploitative scam farm. “ Meron nga pong kasabihan na (there’s a saying) vox populi, vox dei — the voice of the people is the voice of God,” he said. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Networked propaganda</t>
+          <t>2025 Philippine local election,local elections,Local governments,Pampanga,POGOs</t>
         </is>
       </c>
     </row>
@@ -1002,25 +1002,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gov’t platforms being used to attack, red-tag media</t>
+          <t>5 Chinese men with Lucky South 99 links caught trying to flee in Tawi-Tawi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/investigative/260602-government-platforms-being-used-attack-red-tag-media/</t>
+          <t>https://www.rappler.com/philippines/mindanao/chinese-lucky-south-99-links-caught-tawi-tawi/</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>43963.20050925926</v>
+        <v>45755.33961805556</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supposedly at the helm of the Presidential Task Force on Media Security, the PCOO reposts misleading content against media from an anti-communist government page     MANILA, Philippines – Official Facebook pages of the Duterte government shared content that targeted local media just a week after the celebration of 2020 World Press Freedom Day. But this is not the first time verified government pages have done this.  On May 8, the Facebook page of National Task Force to End Local Communist Armed Conflict (NTF-ELCAC) posted a series of infographics that incorrectly said media giant ABS-CBN’s franchise was not renewed because “they have issues with the law.” (READ:   EXPLAINER: FICTAP Issues vs ABS-CBN’s franchise renewal   )   A few hours later, it shared another post that accused Rappler CEO Maria Ressa of spreading "fake news" in her interview with ABC News where she mistakenly said that ABS-CBN has 11 million workers instead of 11,000. Ressa   explained that it was a slip of the tongue: "my mind raced ahead to the market cap ... which was in hundreds of millions of dollars."  She   apologized   for the error. (READ:   NTF-ELCAC 'black propaganda' vs Maria Ressa, ABS-CBN sparks outrage   )   NTF-ELCAC’s posts were shared by the verified pages of the Presidential Communications Operations Office (PCOO) and Radio Television Malacañang (RTVM) just hours after they were posted.  Journalists, academics, and media groups condemned this behavior and called it “black propaganda offensive.” They said it's an abuse of authority on the part of NTF-ELCAC that willfully endangers ABS-CBN's workforce and Ressa. (READ: Media, academics condemn NTF-ELCAC's attacks vs ABS-CBN and Maria Ressa ) This also shows how government is using its platforms, massive resources, and public funds to hit back at critics and perceived enemies.  ‘Crossposting’ of content   By sharing NTF-ELCAC’s posts against ABS-CBN and Ressa, PCOO and RTVM amplified its reach from thousands to millions. More importantly, it linked legitimate concerns regarding press freedom in the Philippines with the government's war against communist rebels.   The NTF-ELCAC page has 25,246 followers and 23,779 likes as of writing. In comparison, the official PCOO page has over 2.1 million followers and 1.7 million likes, while RTVM has 239,000 followers and 159,000 likes.   Though the posts against ABS-CBN and Ressa have since been taken down by the 3 pages, the government has yet to apologize for the incident. The attacks by these government pages have already spread and done damage difficult to rectify.  On May 9, both Presidential Spokesperson Harry Roque and PCOO Secretary Martin Andanar disowned NTF-ELCAC’s posts and said that it was not the official position of their offices.  Like the Office of Presidential Spokesperson (OPS) and PCOO, the NTF-ELCAC is under the Office of the President. It also has a member from the PCOO: Undersecretary Lorraine Badoy, who serves as its spokesperson.  Outspoken against Duterte critics, Badoy previously called research outfit Ibon Foundation a communist front and tagged a number of activists as ranking members of the CPP-NPA-NDFP . She had been previously called out for posting inaccurate claims on her social media accounts. On May 11, following a backlash, Andanar released Department Order No. 20-009 which limits crossposting , or sharing other pages’ content, on the PCOO Facebook page. The department order said that only the livestreams of news events and briefings of President Rodrigo Duterte, Chief Legal Counsel Salvador Panelo, Roque, and its attached media agencies shall be crossposted on the PCOO page. Andanar also said they have identified the individual who crossposted NTF-ELCAC’s content on PCOO’s page but did not name who was responsible. He vowed proper action will be taken and that the office will “uphold accountability on matters like this in order to minimize such unfortunate instances from happening again in the future.” In the past, the official pages of PCOO, RTVM, and NTF-ELCAC had repeatedly amplified each other’s posts. When sharing each other's content, these 3 pages always crossposted within the same day they were originally posted.  From July 2018 up to April 2020, these 3 pages shared each other’s content at least 35 times – not including the posts that have been taken down. RTVM posts were shared the most by the two pages.           Meanwhile, RTVM and PCOO just started sharing NTF-ELCAC’s posts fairly recently – starting in April 2020. Out of the 4 crossposted content from NTF-ELCAC, two mentioned a media organization.   The first one called out Inquirer.net for allegedly publishing a story that “misleads the public,” while the other post shared photos of online news magazine Pinoy Weekly and tagged it as “propaganda materials.” NTF-ELCAC shared on April 20 both posts about the   arrest of Anakpawis volunteers   while they were on the way to a relief operation in Norzagaray, Bulacan.  The table does not include the posts against ABS-CBN and Ressa because they were already taken down as of writing. However, based on screenshots, it was also evident that both PCOO and RTVM shared NTF-ELCAC’s posts within 24 hours.     Screenshots from PCOO and RTVM Facebook page  Red-tagging, disinformation   NTF-ELCAC was established through Duterte’s   Executive Order (EO) No. 70   . The task force “aims to implement an efficient mechanism and structure for the whole-of-nation approach to realize the aspiration of the Filipino people to attain inclusive and sustainable peace.”   The Facebook page of NTF-ELCAC was created on November 4, 2019. Its posts vary – from government advisories, anti-communist advisories, and Duterte administration accomplishments, to warnings against the spreading of false information on social media.   In May 2020, however, it started posting content against the renewal of the ABS-CBN franchise. When asked why an anti-communist task force was posting content about ABS-CBN, it claimed that the issue is being used by the Left “to sow chaos and agitate and divide the Filipino people,” PCOO Undersecretary Badoy said.  The Supreme Court defined red-tagging as “the act of labeling, branding, naming and accusing individuals and/or organizations of being left-leaning, subversives, communists or terrorists (used as) a strategy…by State agents, particularly law enforcement agencies and the military, against those perceived to be ‘threats’ or ‘enemies of the State.’” (READ: Lives in danger as red-tagging campaign intensifies ) Using data captured by Sharktank, Rappler’s own social media monitoring tool, we found that the posts of NTF-ELCAC were also often amplified by pages known to post content that red-tags progressive groups and individuals. The visualization below shows how NTF-ELCAC is connected to the Facebook pages and groups that systematically share each other's content. (NTF-ELCAC is the red node at the lower right side.)  If an arrow from node A points to node B, it means node B shared content posted by node A. The bigger the node and the circle, the more engagements it received within the network. Sharktank identified two amplifiers of NTF-ELCAC’s posts that had previously shared content linking individuals and groups to communist organizations in the country: WeSupportAFP and PNP.TagapagUgnay (PNP Police Community Relations Group-PULISerbis). These pages shared NTF-ELCAC’s posts at least thrice from July 1, 2019 to April 22, 2020. These pages are connected to an even larger network of accounts that systematically propagate each other's content. Click on the circles to see each channel’s name, URL, and how they are connected to other channels. Rappler fact checked a post originally published by PNP.TagapagUgnay, a page officially operated by the Philippine National Police (PNP), which falsely claimed that Kabataan Partylist representative Sarah Elago called for people power in relation to the enhanced community quarantine in late April 2020. The page has since deleted the post. The PNP said it will investigate the matter but has yet to give an update on the investigation. Other pages within this network also published this false claim.  Meanwhile, NTF-ELCAC often shared content from other official government websites such as PNA and PIA. It also amplified posts of the Facebook page of the National Security Council and Kalinaw News, the Facebook page of the Philippine Army’s online news platform.   The latest   State of Media Freedom in PH   report from the Freedom for Media, Freedom for All (FMFA) Network said red-tagging is one of the tactics used by the Duterte administration to stifle the media.   FMFA’s report explained that on the ground, the National Intelligence Coordinating Agency has been holding forums for members of the community media in regions where journalists were “compelled” to sign off to a “Manifesto of Commitment” to declare their support for the implementation of Duterte’s EO No. 70.   If they declined, the report said, it would have been seen as an act of defiance. (READ:   Press freedom takes a hit in PH during coronavirus pandemic   )  There had been incidents, too, where members of the media were publicly linked to the Communist Party of the Philippines (CPP), the New People’s Army (NPA), or the National Democratic Front (NDF). (READ:  Altermidya correspondent, 4 human rights leaders arrested in Tacloban  )  On January 25, NTF-ELCAC posted a quote card of Badoy linking columnist Tonyo Cruz to the CPP-NPA-NDF. The quote was lifted from an article she wrote for PNA that was published the same day.   A history of attacks against media  The PCOO is supposed to be at the helm of the Presidential Task Force on Media Security, a task force mandated to ensure the safety of journalists in the country. But NTF-ELCAC’s posts were not the first time a government agency used its official platforms to target members of the media.  In 2017, the official Facebook page of the Office of the Presidential Spokesperson (OPS)   posted a negative comment   targeting journalists during a livestream of a briefing attended by media.    Screenshot of OPS statement   The comment, which insulted a certain Pia (not clear whether Rappler’s Pia Rañada or ABS-CBN’s Pia Gutierrez) and Lourd Devera (Lourd de Veyra) was later taken down. Malacañang said the comment was posted by someone no longer connected with the OPS, but it did not apologize for the incident. (READ:   Presidential Spokesman Facebook account posts troll-like comment   )   In 2019, blogger Mark Lopez   went on Radio Pilipinas   , a radio station owned by the Philippine Broadcasting Service under the Presidential Communications Group, to call for a protest against Rappler.   Mocha Uson, who has been appointed twice by Duterte – as PCOO assistant secretary in 2017 and again as deputy executive director of the Overseas Workers Welfare Administration in 2019 – has also repeatedly used her platform to push negative posts about the media.   Uson was the first to aggressively push the term “presstitute,” a derogatory term for members of the media who are critical of Duterte. Uson’s page has millions of followers. (READ:   Press freedom after 2 years of Duterte   )   Worrisome state of press freedom   In 2020, the Philippines ranked two places lower at 136th out of 180 countries on the Reporters Without Borders' (RSF)   World Press Freedom Index   .   The report said two factors that pushed down the country’s rank was its state troll armies that   weaponize disinformation   on social media, and its intolerance of critical journalism. (READ:   Philippines slips 2 places in World Press Freedom Index   )   Intimidation, arrests, and murders of journalists in the country have also remained rampant, according to   FMFA’s report   . From January 1, 2019 to April 30, 2020, there were 61 reported incidents of threats and attacks against the media, including 3 journalists who were killed. Thirty of the 61 incidents were allegedly done by state agents.   When state powers wage a propaganda offensive against members of the media, this stifles the people’s right to a free press, which, in turn, threatens a working democracy.  – with Gemma Bagayaua-Mendoza and Loreben Tuquero/Rappler.com  </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Shutterstock MANILA, Philippines – Authorities arrested five Chinese nationals wanted for illegal activities linked to the offshore gaming operations of Lucky South 99 after they attempted to flee the country via southern maritime routes, the Bureau of Immigration (BI) said on Tuesday, April 8. The five men – Ying Guanzhen, 31; Yang Jinlong, 29; Liu Xin, 28; Shen Kan, 36; and Luo Honglin – were caught on March 21 after their boat broke down off the coast of Barangay Sikullis in Languyan, Tawi-Tawi, while attempting to escape from Sulu. They were rescued by the Philippine National Police (PNP) and brought to the Languyan Municipal Police Station in Tawi-Tawi before being transferred to Zamboanga. The immigration bureau said they were flown to Manila on Tuesday to face charges. They have been detained at the BI holding facility at Camp Bagong Diwa in Taguig City. The BI said the men were linked to Lucky South 99, a Philippine offshore gaming operator (POGO) that was raided earlier for alleged criminal activities. The firm was implicated in various illicit activities such as human trafficking, illegal gambling, and other criminal operations. Authorities raided its facilities in Porac, Pampanga, rescuing numerous foreign nationals and uncovering evidence of unlawful activities, and it figured prominently in a congressional investigation in 2024. The BI said the five Chinese were with three Filipinos as they attempted to evade arrest using the country’s southern backdoor route. BI Commissioner Joel Anthony Viado said, “This arrest underscores the importance of our strong collaboration with government intelligence sources in ensuring that our borders are not exploited by fugitives and undocumented foreign nationals.” According to the police, the five fugitives were assisted by a “transporter,” or a person who facilitates illegal travel across borders. The BI said the transporters were unaware of the fugitives’ identities, and were only tasked with operating the boat. Authorities also discovered suspicious green substances aboard the vessel, prompting an investigation into possible drug trafficking. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BARMM,Bureau of Immigration,crimes in the Philippines,Philippine National Police,POGOs</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1030,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Coronavirus response: Online outrage drowns out Duterte propaganda machine</t>
+          <t>PH gov't embroiled in ownership war over Porac POGO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/in-depth/coronavirus-response-online-outrage-drowns-duterte-propaganda-machine/</t>
+          <t>https://www.rappler.com/philippines/porac-lucky-south-pogo-ownership-forfeiture-april-2025/</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43945.38333333333</v>
+        <v>45755.02804398148</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Against the royal blue and rich red of the Philippine flag, President Rodrigo Duterte stood behind a podium bearing the presidential seal, eyes focused on the camera as its lens zoomed in slowly, closing in for a tighter shot. Frustrated over the events that took place on April 1 in Quezon City, a sudden announcement was given at past 9:30 pm, that the Chief Executive was to give a speech. Less than 10 minutes after the notice was sent to media, Duterte appeared on Filipinos’ screens to deliver a stern warning. A furious Duterte said he would not hesitate to take action following the arrest of 21 Quezon City residents who were apprehended for demanding government help and protesting without a permit. The protest, which Duterte accused lefitst group Kadamay of instigating, had manifested weeks of mounting desperation spurred by the government’s slow response to aid residents who were left hungry and out of work due to the lockdown in Luzon. Lashing out at the Left, the President warned they would be detained. Then he took it a notch up. “ I will not hesitate. My orders are sa pulis, pati military, pati mga barangay na pagka ginulo at nagkaroon ng okasyon na lumaban at ang buhay ninyo ay nalagay sa alanganin, shoot them dead ,” he said. “ Naintindihan ninyo? Patay. Eh kaysa mag-gulo kayo diyan, eh ‘di ilibing ko na kay o,” Duterte said. (I will not hesitate. My orders are to the police and military, also the barangay, that if there is trouble or the situation arises that people fight and your lives are on the line, shoot them dead. Do you understand? Dead. Instead of causing trouble, I’ll send you to the grave.) Outrage over Duterte’s remarks was swift. Social media timelines flooded with users who were shocked and angered over the President’s remarks, calling for his ouster. By his next address two days later on April 3, Duterte claimed he hadn’t issued a “shoot to kill” order. “ I never said in public shoot to kill, period. Sinabi ko…if you think that your life is in danger, maging biyuda ang asawa mo na maganda, mag-asawa uli, at ang mga anak mo mawalaan ng tatay, ‘pag tiningnan mo na delikado ang buhay mo, patay, unahan mo na, patayin mo ,” he said. (I never said shoot to kill, period. I said…if you think that your life is in danger, your beautiful wife will become a widow, marry again, and your children will become fatherless, if you think your life is at stake, kill, go ahead, kill them.) He then directly addressed the calls for his ouster. “ Bakit pa ako magpayag na magbarilan tayo? Kaya ganun. Huwag na ‘yang ‘Oust Duterte’ na mga fake news ,” he said. (Why would I allow us to shoot one another? So there. Never mind that ‘Oust Duterte’ that’s fake news.) But by then, widespread online protest had already taken place. Outrage over Duterte’s remarks were widespread with #OustDuterteNow trending worldwide with almost 500,000 tweets. To see how the public responded to the President’s speeches online, Rappler’s data team collected a sample of 15,000 tweets with mentions of Duterte and related words from March 30 to April 2, 2020, and clustered these according to topic using natural language processing. Compounded with analysis from US-based Graphika that dove into the specific hashtags that trended, the data shows that these critical movements were not only large but organic – flooding out even the administration’s supporters known for their coordinated campaigns to mob critics and whitewash the government’s lapses on social media. While critical tweets against Duterte and his administration peaked on April 1, frustrations were already boiling from March 30, when he addressed the nation to give updates on the government’s COVID-19 response. It was the first Monday after Duterte signed a law granting himself special powers to contain the spread of the virus. Filipinos were told to expect a message from the President tentatively set at 4 pm. Filipinos waited for an hour, and then another, and then 5 more. It was past 11 pm when Duterte’s message went live on their screens. “ May mga doktor na, mga nurses, attendants, namatay. Sila ‘yung nasawi ang buhay para lang makatulong sa kapwa. Napakasuwerte nila. Namatay sila para sa bayan ,” Duterte said early into his pre-recorded address. (There are doctors, nurses, attendants who died. They were the ones who died helping others. They are so lucky. They died for the country.) The statement, intended to praise health workers who have risked their lives, quickly drew backlash both online and in the front lines of the outbreak. Doctors, nurses, and health workers did not need the sort of “praise” from the President, Mikey*, a doctor at a coronavirus designated hospital told Rappler. “I’m doing this because it is my duty, but I did not sign up to die,” she said. “I don’t want to die.” Online, Duterte’s remarks drew fierce criticism with many users pointing out doctors died due to inadequate protection and the government’s failure to provide life-saving protective equipment early on in the outbreak. Like other speeches, the President’s remarks targeted critics and focused on threats, instead of facts and concrete plans on the outbreak. Filipinos once again took to social media to express their anger at the government’s handling of the crisis. Rappler found that the two speeches on March 30 and April 1 made for the core of online conversations on Duterte. Tweets were largely critical of the Duterte administration, with the one of the largest clusters hitting the President’s remarks on how health workers are “lucky to die” for the country. Filipino Twitter called the President out, saying he “should not romanticize their deaths” and that the remarks were “insensitive” to medical workers who risked their lives. On the sidelines are criticisms on other fronts. As early as 6 pm on March 30, #DuterteStandardTime trended on Philippine Twitter as people waited for the Duterte speech broadcast 7 hours late. Online users criticized his tardiness at such a crucial time, calling it a trend for the President. “As both head of state and head of government, the President is expected to not only provide direction and lead government but also provide a sense of unity among citizens, particularly during periods of crisis,” University of the Philippines Political Science professor Ela Atienza said. She added, “Unfortunately, President Duterte’s statements, timing of public statements, and style of delivery have not provided reassurance and trust in government.” Public sentiment manifested this as others online also criticized the lack of concrete plans in his speeches. With Filipinos halfway into the lockdown first set to end on April 12, the public demanded clearer directions from the government on what to do and expect. (Duterte later extended the lockdown until April 30 and then again to May 15 for certain areas , including Metro Manila.) Conversations were also dedicated to calls for greater transparency on the breakdown for the P275-billion response fund related to the Bayanihan law. Aside from these topics, the bulk of the 15,000 tweets sampled that centered on Duterte consisted of general reactions to his speech and mostly of people cursing the President and the government, accusing the administration of being “incompetent.” The day’s events on March 30 catalyzed reactions on social media. By April 1, public outrage against Duterte and his administration peaked after he ordered cops and soldiers to “shoot dead” people who broke quarantine protocols. The timing of it could not have been worse. Duterte’s words, delivered during an impromptu televised message on April 1, came hours after the National Bureau of Investigation (NBI) summoned the popular Pasig City Mayor Vico Sotto for a possible violation of the Bayanihan Act, the law which granted Duterte special powers. The NBI did not disclose which specific Pasig policy was under investigation. Sotto had earlier appealed to Malacañang if he could allow tricycles to operate in his city to ferry frontliners and people with emergencies – a pitch that several executive officials rejected. The incident followed with Duterte scolding local government units, warning them to “ stand down ” and abide by orders issued by his office and the government’s coronavirus task force. While the President made no direct mention of Sotto, conversations had related the two incidents to one another. This triggered widespread protests online, with #ProtectVico trending on Twitter (the second time the hashtag trended within two weeks), condemning the government for politicizing response to the crisis. By the time Duterte delivered his April 1 speech, public sentiment against him pushed to a tipping point: #OustDuterteNow trended worldwide on Twitter at 9 pm – the same hour his speech took place – generating almost 500,000 tweets. Analysis by Graphika showed that #OustDuterteNow was a largely organic movement, with little signs of manipulation. Their mapping of the hashtag below shows a wide range of interest groups engaging with the hashtag, with the majority of these segments being largely non-political and clustered instead on entertainment and cultural topics. Among accounts that engaged in discussion critical of Duterte were users from various interest groups like Philippine K-pop, celebrity fan groups, LGBT groups, western pop celebrities, and Philippine culture, celebrities, music. Others that participated were from the Philippine opposition and activists. This suggested a wider online dissatisfaction with Duterte beyond the usual online activists. Atienza said widespread public frustration seen on social media may be because unlike other issues that have hounded Duterte’s administration – such as the drug war or his preference for warmer ties with China – the coronavirus outbreak affects each Filipino. “The pandemic affects everyone, or at least threatens everyone, not just a sector of the population. The threat of the pandemic is so real that there is a feeling of urgency and greater demand for government to act fast and be accountable,” Atienza said. Yet despite this, according to Atienza, Duterte and other government officials have been unable to foster a sense of unity. In response, Filipinos who have increasingly turned to social media during the lockdown took to speaking out against Duterte and his administration. The rather sparse and more loosely connected map (shown below) reflects the traction of #OustDuterte among users grouped by interest on Twitter. The majority of the map showed conversations consisted largely of entertainment and cultural interest segments that lack the density typically observed in politically coordinated accounts. This was evidence that politically focused groups did not appear to be the main organizing force behind the campaign. Ateneo School of Government Dean Ronald Mendoza said public frustration seen in online discussions reflected how the government’s weaknesses were made more obvious during the coronavirus crisis. “Crises test the government’s ability to facilitate collective action (even across its own line agencies) typically exposing the lingering need to boost whole-of-government response capabilities,” Mendoza said. He added, “The government’s seeming insensitivity to the realities of ordinary working citizens who were quarantined, combined with delayed plans to provide income support… all may have also exacerbated the sense that government was insensitive and disconnected from reality.” The sense of frustration and Filipinos’ apprehension over uncertainty brought by the pandemic drowned out any response that attempted to express support for the government’s response. Meanwhile, Graphika’s analysis also showed that about 80% of the accounts that participated in discussion critical of Duterte have more than 100 followers and over 60% of these accounts produced just one tweet using #OustDuterte. The most shared tweets using #OustDuterte also did not originate from influential or celebrity accounts but were posts from seemingly normal users that went viral. About 80% of the accounts that used the hashtag have more than 100 followers and over 60% of accounts produced just one tweet using #OustDuterte. Data showed the #OustDuterteNow trend was largely organic and participatory with little signs of manipulation or coordination. This pointed to a groundswell of negative public sentiments against the President’s handling of the crisis, with users who typically did not discuss politics joining in on these conversations. Signs that propaganda tactics were failing were seen in mid-March when discontent online began to stir. Duterte’s supporters tried several times to resort to old efforts of drowning conversations with praises of the President and mobbing perceived enemies on social media. But these were shut down by angry Filipinos. In fact, at the peak of the online outrage against Duterte, #IStandWithThePresident also trended online, generating more than 130,000 tweets at its height (including tweets that mocked the hashtag). This, however, was largely drowned out by #OustDuterteNow. Another attempt to push out messages against those critical of the administration also contributed to the build up of public frustration by April. On March 18, administration officials and supporters blasted Sotto for allowing tricycle drivers to operate while Luzon was on lockdown. This included blogger-propagandist Mocha Uson who called Sotto “ pabebe ” (childish) on her Facebook page. Uson’s page has a following of some 5 million users. This was in keeping with the type of systematic and sustained response seen in the past 3 years against journalists and critics of the President: officials around Duterte hit perceived critics on the ground, while online supporters pounded them en masse. This time around, however, this attempt was not met with the usual silence. #ProtectVico quickly trended online, generating over 37,000 tweets from almost 22,900 users. It then snowballed into an online campaign targeting Mocha Uson, with users encouraging everyone to report her blog on Facebook in an attempt to close it down. On March 20, her Facebook page became unavailable . People speculated that she might have deactivated the page herself. In celebration, #MochaUsonIsOverParty trended on Twitter, with 24,000 tweets from over 11,800 distinct accounts. Campaigners then started targeting other blogs notorious for spreading pro-Duterte propaganda, such as Crabbler, Mark Lopez, and Mr Riyoh. Like #OustDuterteNow, the data suggests that #ProtectVico and #MochaUsonIsOverParty was largely organic with little signs of manipulation. Over 80% of the accounts have between 100-1,000 followers and over 65% of accounts produced just one tweet using either (or possibly both) combination of hashtags. This laid the groundwork for widespread dissatisfaction seen online on April 1. The most retweeted tweets to feature either hashtag were in support of Sotto’s actions to control the COVID-19 outbreak or were used to counter criticism from blogger Mocha Uson. Some users went as far as requesting social media administrators to suspend her accounts. These posts were popular across all groups including both the culture and entertainment segments critical of Duterte – the same ones that participated in the bulk of conversations on April 1. Later on April 10, Twitter “hundreds of accounts” tweeting under specific hashtags meant to defend the Philippine government response to the coronavirus pandemic. An email from Twitter to The Washington Post , said the accounts in question violated Twitter’s policies against platform manipulation and spamming. This includes posting duplicate content across multiple accounts, making duplicate or multiple accounts, and sending a large number of unsolicited replies or mentions. The Washington Post  report noted that hashtags in support of Duterte followed after public outcry over government actions against the poor during the coronavirus quarantine. These hashtags included #IStandWithThePresident and #YesToABSCBNShutdown. The mass takedown by Twitter was part of a wider effort of other social media platforms to get rid of accounts that spread disinformation during the pandemic. It’s also the first announced case of Twitter actually taking down a network connected to the propaganda machine. When it came to the Duterte administration’s handling of the outbreak – genuine online users drowned out propaganda tactics. As the coronavirus pandemic rages, political analysts say the outbreak may be Duterte’s biggest test yet. Now more than ever, Filipinos are demanding transparency and accountability in government’s response. The stakes are high as missteps in government’s response could mean the loss of lives due to the disease. For Mendoza, the crisis carries a high political cost for Duterte as the outbreak hits several of his main constituencies in both the middle class and overseas Filipino workers. “If government is unable to respond effectively to mitigate the crisis impact, then we may witness change in political support,” he said. According to Atienza, Duterte and his team may have touted the war on drugs, massive infrastructure programs, and development in regions outside Metro Manila as legacies of his administration, but what is clear is the pandemic “has changed the agenda for the rest of his term.” “President Duterte’s leadership style appears not fit for this crisis. This is a different kind of crisis that requires reliance on experts and stakeholders as well as making sure people are involved and not left behind,” she added. “Whether he likes it or not, he will now be judged based on what he and his administration had done and did not do during the pandemic,” Atienza said. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. VILLAS. The alleged homes of the big bosses of the Lucky South 99 POGO in Porac, Pampanga. Photo by Franz Lopez/Rappler PAMPANGA, Philippines – The Philippine government is trying to forfeit the 10-hectare alleged scam farm in Porac, Pampanga, but is currently embroiled in an ownership dispute with the original Kapampangan owners of the property. Officials from different government agencies visited the compound on Monday, April 7, to prepare to answer a show cause order issued against them by a local court in Porac. “This is in connection to a show cause order issued by the municipal trial court of Porac, Pampanga, after a complaint was filed by the Cruz family,” Prosecutor Sonny Ocampo of the Department of Justice (DOJ) told Rappler at the site on Monday. The padlocked compound had been left in its raided state, shattered glass are still on the floor and food are decaying on the work tables. Government agents have secured it  although a tarpaulin by the claimants indicate that there is a heated legal battle over ownership. Officials could not yet give a valuation of the property, but in comparison, the smaller Bamban compound in Tarlac had been valued at P7 billion, although Ocampo said the buildings and structures in Alice Guo’s Baofu compound appear more expensive. Heirs of local businessman Ruperto Cruz , the original owner of the compound, moved to hold the government in contempt for asserting that it has the right to keep custody of the alleged scam farm compound, which they call part of criminal evidence. Cruz owns the sprawling Thai Royal Court compound, but sold part of it to Whirlwind Corporation, the real estate company owned by the Chinese boss Duanren Wu, the godfather of Katherine Cassandra On g, who was never found by authorities since the raid in June 2024. It was Whirlwind which leased the property to Lucky South 99 POGO (Philippine Offshore Gaming Operator), a corporate layering design found in most alleged scam farms including the one in Bamban, Tarlac. The Cruz family had wanted to eject Whirlwind from their property even before the raid. Whirlwind’s lawyer for the ejectment case was Harry Roque . In August 2024, the heirs secured a writ of execution on the property, which would have had the effect of physical turnover of the lots to them. “At the time that the sheriff will be serving the writ of execution, we did not allow it, because this property is under the possession and control, in custody of the Presidential Anti-Organized Crime Commission (PAOCC) and the Criminal Investigation Detection Group (CIDG),” said Ocampo. The standoff resulted in the current show cause order. Ocampo said that they have yet to initiate the formal proceedings for forfeiture. The DOJ has not yet resolved the criminal human trafficking complaints against Wu, Ong, Roque and other Whirlwind and Lucky South 99 officials. Ong has been released from congressional detention, and Roque is now seeking asylum in The Hague. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Networked propaganda,Rodrigo Duterte</t>
+          <t>Department of Justice,Pampanga</t>
         </is>
       </c>
     </row>
@@ -1058,25 +1058,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Government offensive: Info operations attack media to manage SEA Games PR crisis</t>
+          <t>Ombudsman dismisses Porac, Pampanga mayor over POGO mess</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/investigative/246186-government-offensive-info-operations-attack-media-manage-pr-crisis-sea-games-2019/</t>
+          <t>https://www.rappler.com/philippines/ombudsman-dismisses-porac-pampanga-mayor-jaime-capil-pogo/</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43801.58028935185</v>
+        <v>45751.59517361111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">From #Seagames2019fail to #Seagamesnotafailure – Rappler maps how the conversations on the SEA Games pan out on social media By Don Kevin Hapal  Published 9:55 PM, December 02, 2019 </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. LUCKY SOUTH. Photo taken inside the Lucky South 99 POGO compound in a recent operation in Porac, Pampanga. Rappler MANILA, Philippines – The Office of the Ombudsman has dismissed Porac, Pampanga Mayor Jaime “Jing” Capil from service over his alleged ties to a local Philippine offshore gaming operator (POGO) exposed in his town last year. In a resolution dated April 3, but was made public on Friday, April 4, the Ombudsman found Capil guilty of gross neglect of duty, imposing on him the penalty of dismissal from service, including the cancellation of his government service eligibility, forfeiture of retirement benefits, and perpetual disqualification from reemployment in the government. Meanwhile, the Ombudsman dismissed the complaint against the other respondents who are former members of the Porac local government. It was the Department of the Interior and Local Government (DILG) which filed the complaint against the Porac officials following the authorities’ June 2024 operation against the Lucky South 99 POGO located in Porac. Authorities operated on the POGO due to allegations of human trafficking. POGO player Katherine Cassandra Ong , who is at the center of a legislative probe, was allegedly connected to Lucky South. Following the complaint, the Ombudsman ordered the suspension of Capil and other officials to ensure fairness in its probe. The Ombudsman explained that there was “clear substantial evidence” to conclude that Capil committed the allegation for his actions as the mayor. Capil’s granting and issuing of mayor’s business permit in favor of Lucky South 99 POGO for 2021, 2022, and 2023 despite its non-compliance with mandatory requirements “are blatant substantiation of the legal transgressions that he committed,” the Ombudsman said. The office noted the POGO had no letter of no objection to operate as POGO issued by the local government and had no corresponding Securities and Exchange Commission registration to operate as POGO. The Ombudsman also noted Capil’s “conscious failure to monitor, supervise and intervene to prevent or, at the least, stop the reported atrocious illegal activities committed within the premises of his constituents.” “These significant and undisputed circumstances happened under the close watch of Mayor Capil as overall administrator of Porac LGU which clearly demonstrated his predisposition to favor the grant and continued operation of Lucky South 99 as POGO in Porac at all costs despite the unfavorable odds against it,” the Ombudsman said. “In fact, it required the intervention by the national government through the raid of PAOCC on the premises of Lucky South 99 for said anomalies and criminal activities to be exposed, and for the known perpetrators to be eventually prosecuted and brought to justice,” it added. In a statement, Capil said he will face his dismissal and will seek appropriate remedies. “ Para po sa mga Poraquenong walang sawang nagmamahal, sumusuporta, at nagtatanggol sa akin at sa buong Team Bayung Porac, wag po kayong magaalala, TULOY PO ANG ATING KANDIDATURA. Higit kailan man, sa eleksyon na ito ay kailangan namin ang inyong buong suporta (To Poraqueños who give love, support, and look after me endlessly, to my Team Bayung Porac, do not worry, our candidacy pushes through. More than ever, we need your support especially in these elections),” Capil added. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Central Luzon,LGUs in the Philippines,Office of the Ombudsman,Pampanga</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Networked propaganda: False narratives from the Marcos arsenal</t>
+          <t>[WATCH] Hindi ito Marites: Love scam syndicates are the new underworld</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/investigative/245540-networked-propaganda-false-narratives-from-the-marcos-arsenal/</t>
+          <t>https://www.rappler.com/voices/hindi-ito-marites-love-scam-syndicates-pig-butchering/</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>43791.46261574074</v>
+        <v>45742.45084490741</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conclusion: For the Marcos comeback playbook, facts don't matter  READ: Part 1 | Networked Propaganda: How the Marcoses are using social media to reclaim Malacañang    READ: Part 2 | Networked Propaganda: How the Marcoses are rewriting history    MANILA, Philippines – “Perception is real, the truth is not.” Imelda Marcos said this in a recently released documentary, The Kingmaker . This seems to be the ethos of the Marcos comeback playbook. Beyond justifying the family’s wealth and denying massive corruption during the Martial Law period, the Marcos propaganda network focused its energies on hyping up “achievements” of the Martial Law regime, denying abuses, and vilifying rivals. The facts don't matter. “Achievements” were either exaggerated or manufactured. That these were not previously reported on were explained as being the fault of “biased” media, which supposedly kept the information “hidden” from the public.  Exaggerated achievements  Much of the content touting the supposed “achievements” of the Ferdinand Marcos presidency were copied and reposted over and over like chainmail. The lists typically included a litany of infrastructure projects that the Marcoses built. Such lists included a combination of true and many false and misleading claims. For instance, it's not true that Marcos built the first airport in Asia. Further, Ninoy Aquino International Airport, the country’s main airport and formerly known as the Manila International Airport, had already existed before Marcos took office.    Often reiterated and rehashed was the claim that the Philippines was the "richest country in Asia" during the Marcos years. It never was. The peso-dollar exchange rate during that time supposedly stood at P1.50-P2 to the dollar . This is not true. Official data from the Bangko Sentral ng Pilipinas (BSP) showed the Philippine peso was already valued at P3.91 per dollar when Marcos came into power in 1965. By the time he was ousted in 1986, one dollar was equivalent to P20.46 – depreciating by 423.46%.  Even foreign-funded programs were touted as Marcos achievements. These included supplemental feeding programs such as the nutribun and bulgur for students in public elementary schools. Bulgur grains and the ingredients for nutribun were actually supplied by the United States Agency for International Development (USAID) as part of its Food for Peace Program.  False dichotomy  Reviving the Marcos name came at the expense of the family’s nemesis, the family of the late senator Benigno "Ninoy" Aquino Jr and the press. In a bid to proclaim Marcos as the “best president” the Philippines ever had, weaponized memes framed the narrative as a Marcos vs Aquino play. Some went as far as claiming that the “dilawans” have been in power for the past 30 years.      This is misleading at best. When the Marcos dictatorship fell in 1986 due to the EDSA People Power revolt, Aquino’s widow, Corazon “Cory” Cojuangco Aquino assumed the presidency. Fast forward to 2016, another Aquino was the outgoing president – Benigno Simeon Aquino III, the only son of Ninoy and Cory. Three presidents served in office in between the tenure of the two Aquinos: Fidel Ramos, Joseph Estrada, and Gloria Macapagal Arroyo. Of all the post-EDSA presidents, the longest serving was Arroyo, who assumed part of the remaining term of Estrada after the latter was ousted in 2001, and got elected for another 6 years. Memetic propaganda essentially erased or disregarded achievements and economic growth that happened during the tenure not just by the Aquinos, but of all post-EDSA presidents combined. Ironically, all the 3 other presidents – Ramos, Estrada and Arroyo – supported the bid of Rodrigo Duterte for the presidency in 2016.  'Hidden' history  “Hidden history” and the “biased” press, according to the narrative, were also to blame for unknown or “unreported” sins of the Aquino family. One of the charges leveled against the Aquinos pertained to Hacienda Luisita, which was exempted from the Comprehensive Agrarian Reform Program enacted during Cory Aquino’s term. While this claim is rooted in real events, the way it is presented is misleading. The Hacienda Luisita case got a lot coverage from mainstream media. One claim that was widely circulated by one of the pro-Marcos Duterte propagandists was that the Central Intelligence Agency (CIA) of the United States supposedly "revealed" recently that Cory Aquino requested the US for airstrikes against Filipinos in 1989. This was misleading. While Cory did ask for US air support during the 1989 coup d’etat, these requests were not hidden or "recently revealed." They were headlined in major local and international publications at the time.       Some of these claims bordered on the ridiculous. A popular claim that Rappler spotted more than once was that Ninoy Aquino was a naturalized Malaysian citizen and that he was carrying both a Filipino and a Malaysian passport when he died. There is no proof that this ever happened. Malaysia was officially recognized as a sovereign country only in 1957. The naturalization law of Malaysia also requires an individual born outside Malaysia to have resided in the country for at least 10 years to acquire citizenship. Aquino, who was born in 1932, would have had to fulfill this requirement to gain citizenship. Another claim that went viral said that Cory wore Imelda Marcos’ necklace , which has allegedly been missing from the collection of the Presidential Commission on Good Government. Others said Kris Aquino, and even former chief justice Maria Lourdes Sereno wore the necklace. None of these were true. Nevertheless, these claims got thousands of shares on social media.  Lying about Martial law abuses  This is not to say that all the false narratives about the late dictator or the Martial Law era came from the Marcoses themselves. They persisted, some historians said, because the family never publicly denied them. In fact, the Marcoses also made their own false claims about the period.   MARTIAL LAW. Ex-senator Bongbong Marcos interviews ex-defense minister and Senate president Juan Ponce Enrile. Screenshots from Bongbong's YouTube account  On September 20 and 21, 2018, the 46th anniversary of the declaration of Martial Law, Bongbong sat down with former Marcos defense minister Juan Ponce Enrile to talk about his father's 20-year rule. Rappler debunked 3 of Enrile’s false claims from their conversation: that the Marcos government only executed one person, that there were no massacres, and that the Jabidah massacre was a mere invention. (READ: LIST: False claims of Juan Ponce Enrile on Martial Law ) In a radio interview in January, Imee Marcos claimed that she was a minor during the Martial Law period. As such, she said, she could not admit guilt over the events that happened during that time. Again, this was a lie. Imee was about to turn 17 when her father declared Martial Law, which means she was no longer a minor for 13 out of 14 years of Martial Law. The list of lies and misleading claims continue to this day. And for the Marcoses, the playbook appears to be working. In May 2019, despite being exposed by most of mainstream media for lying about her academic achievements, Imee Marcos won a seat in the Philippine Senate. – with Vernise Tantuco /Rappler.com  </t>
+          <t xml:space="preserve">Have you heard of “pig butchering”? This is one of the most nefarious scams going around today, and it thrives on the universal human need for love. It starts innocently enough: someone sends you a message and befriends you. They seem interested in you and make you feel special. Then, once they’ve earned your trust, they make their pitch: they know of a lucrative investment in online currency, and they entice you to join in. The next thing you know, you’ve been swindled of your life’s savings. Find out about “pig butchering,” and how to watch against it, from Rappler editor-at-large Marites Vitug. Hindi ito Marites! – Rappler.com Presenter, writer: Marites Vitug Producer: JC Gotinga Video editor: Emerald Hidalgo Graphic artists: David Castucianio, Guia Abogado, Marian Hukom Supervising producer: Beth Frondoso How does this make you feel? </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>crimes in the Philippines,investment scams,organized crime,POGOs</t>
         </is>
       </c>
     </row>
@@ -1114,25 +1114,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Networked Propaganda: How the Marcoses are rewriting history</t>
+          <t>[OPINION] China is set to be an election issue, and there are pitfalls ahead</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/investigative/245402-networked-propaganda-marcoses-rewriting-history/</t>
+          <t>https://www.rappler.com/voices/thought-leaders/opinion-china-2025-election-issue-pitfalls-ahead/</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>43790.53876157408</v>
+        <v>45741.20337962963</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part 2: Messages posted on groups and pages monitored by Rappler's Sharktank typically also glorified the virtues of authoritarian rule  READ: Part 1 | Networked Propaganda: How the Marcoses are using social media to reclaim Malacañang    MANILA, Philippines – From the time Rappler started ramping up its fact-checking efforts, it has spotted hundreds of dubious claims related to the Marcoses and Martial Law on social media. Claims ranged from those that attempted to explain away the Marcos wealth – to those that “exposed” the sins of their nemesis: the family of the late Senator Benigno “Ninoy” Aquino Jr, whose assassination triggered the dictator’s downfall. Apart from attempting to erase the history of abuse and corruption by the Marcoses during the Martial Law years, the claims have  recurring themes. What is often described as "shocking" information is generally portrayed as having been “hidden” from the public by historians and the “biased” press. Messages posted in groups and pages monitored by Rappler's Sharktank typically glorified the virtues of authoritarian rule. To a significant extent, the campaign focused on disputing or revising historical accounts about the Marcoses' ill-gotten wealth. The table below lists pages and groups where dubious claims tracked and fact checked by Rappler's fact check team have been shared. All together, these content generated over a million shares, reactions, and comments on Facebook.       Denying Marcos kleptocracy  One example of this is a claim posted in May 2014, ahead of the 2016 elections, by popular Facebook page Pinoy Rap Radio, which also tried to dispute the truth about the Marcos wealth. If Ferdinand Marcos stole billions from Filipinos, one of the page’s posts argued, why was it that succeeding presidents after him “can not show any proof at all?” The author also claimed that Imelda Marcos, the widow of the dictator, “won every corruption case” that was hurled at her.   Both claims were lies even as authorities have been reluctant to arrest Imelda . In a 2003 ruling, the Philippine Supreme Court forfeited seized Marcos assets after finding that Ferdinand and Imelda Marcos failed to justify the acquisition of their assets which exceeded their salaries as public officials. (For updates on the Marcos cases, read: What's the latest on cases vs Imelda Marcos, family? ) The truth did not stop the post from getting widely circulated on Facebook – it got more than 331,000 shares, more than 38,000 comments, and more than 369,000 reactions before it was finally spotted and fact checked by Rappler on November 15, 2018. Pinoy Rap Radio was not the only viral content page involved. Months after Pinoy Rap Radio’s post denying Marcos’ guilt, various accounts and pages on Facebook reposted the claim. Pages that iterate this same message include Blessed Be Philippines, Team Marcos-The Universal Movement, The Pandora's Box, and Batang Marcos, among others.        Created on October 25, 2016 and among the pages that have repeatedly posted false claims about the Marcos wealth, Batang Marcos is managed by 4 administrators based in Macau, according to its page transparency tab. Among dubious content it posted was a claim about the Tallano royal family of the Maharlika kingdom that supposedly encompassed the entire Philippine archipelago and neighboring countries during the pre-colonial era. The tons of gold allegedly owned by the Marcoses – ranging from fantastic claims of hundreds of thousands of tons to a million tons – were supposedly given by the Tallano family to the Marcoses. This claim is reiterated by Bible-quoting social media influencer Sangkay Janjan, who has posted a number of videos exagerating Marcos achievements and justifying their wealth on his Facebook page and YouTube channel. In one video, Sangkay Janjan even flashes a map of the alleged Maharlika kingdom.    These are all false claims. There is no proof that such a kingdom ever existed , according to historians. Nor is there proof that a royal family named Tallano ever ruled over this kingdom. Even Tadhana: The History of the Filipino , the series of history books that Marcos bylined to herald his New Society, never mentioned Maharlika.  Millions reached, no denials  Altogether, these false claims have logged millions of impressions on Facebook and YouTube. One of the Batang Marcos posts about Maharlika and the Tallanos got as many as 80,000 shares before it got fact checked by Rappler. Sangkay Janjan’s YouTube video with the Maharlika kingdom map has been viewed over a million times. Videos on YouTube that claim the Marcoses own a million tons of gold and that this gold will “save the world” have also gotten over 1 million views as of writing. The number of followers of Facebook pages, groups, influencer accounts, and YouTube channels involved in this massive propaganda effort amount to millions. The people behind these channels appear impervious to fact checks. Pinoy Rap Radio did not respond to Rappler’s requests for an explanation about how they came to their conclusion. After Rappler published its fact check on the Pinoy Rap Radio claim denying Marcos corruption, the page administrators merely deleted the post without issuing corrections. They also deleted similar content posted on their page. Rappler sought to interview Sangkay Janjan about the content he has been posting but he did not agree to an interview. Instead of issuing a correction in relation to a fact check done by Rappler , he defiantly posted a live video further exaggerating Marcos achievements. It does not help that the Marcoses never denied nor commented on these claims. They have not granted Rappler’s request for an interview regarding these false claims and the activities of their campaign team on social media. Imelda herself fanned this myth because she has been featured in interviews talking about the amount of gold her family supposedly owns . The Marcoses and President Duterte have also been saying that the Marcos family intends to give away their wealth without acknowledging the corruption charges.  Vulnerable spot  There could be a method to this madness. Reports about the Marcos wealth obtained illegally or through corruption have been a politically vulnerable spot for the family. Imelda Marcos was convicted of 7 counts of graft in November 2018. In 2003, the Philippine Supreme Court rendered final judgment forfeiting in favor of the Philippine government funds that were recovered from the Marcoses’ Swiss deposits amounting to US$658,175,373.60 as of January 31, 2002.   POST-CONVICTION FREEDOM. File photo of former First Lady and Ilocos Norte Representative Imelda Marcos during a November 16, 2018, hearing at the Sandiganbayan, which granted her bail despite conviction of 7 counts of graft. Photo by Jire Carreon/Rappler The government's petition for forfeiture was granted by the High Court on grounds that the total amount of the Swiss deposits was "considerably out of proportion to the known lawful income of the Marcoses ." Thus, disputing these or revising historical accounts about the Marcos wealth have been integral to the Marcos strategy of strengthening, if not consolidating, political dominance. And it seems that the strategy is working. Two years after the Marcos propaganda campaign ramped up on social media , Bongbong Marcos almost won the vice-presidential race in a very narrow contest. The results are still being contested. (To be concluded) –  with Vernise Tantuco/ Rappler.com     READ: Conclusion | Networked propaganda: False narratives from the Marcos arsenal       Editor's Note:   As a matter of policy, Rappler does not hyperlink to channels and content proven to have been false or which have been used to spread disinformation or misinformation to avoid amplifying these false claims.  </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Our relationship with China has reached its most turbulent point yet. Arguably, we are still dealing with the aftermath of Duterte’s unhealthy China pivot. Manila and Beijing have grown more assertive in their claims within contested waters. And locally, the POGO crisis has exposed its extensive links to transnational crime, raising serious questions about the extent of Chinese influence in the country. Given this context, reaching the chilliest point in Philippine-China relations seemed inevitable. But this is not to suggest that engaging with China is futile and unwise. On the contrary, as spaces for building mutual trust shrink amid rising tensions, it is all the more important to explore new avenues that could serve as entry points for improving ties. The upcoming midterm elections present an opportunity to do just that, especially with the spotlight on the country’s China policy amid recent developments. As this unfolds, the electorate should be cautious of the tendency to over-politicize China-related issues at the expense of a more thoughtful approach to improving bilateral relations. The early days of the Marcos presidency showed promising signs of continuity with Duterte’s China policy. Chinese Foreign Minister Wang Yi’s visit in July 2022, just days after Marcos assumed office, marked the administration’s first official diplomatic engagement . This was followed months later by a productive state visit to China, where both sides signed several agreements, including one to establish a direct line of communication in the West Philippine Sea. A month later, the initial rapport was quick to give way to mutual doubts as the Marcos administration unveiled plans to establish four new EDCA sites under the country’s alliance with the United States. This came amid China’s more frequent maritime activities in contested waters and heightened tensions in the Taiwan strait, which provided the Marcos government with a strategic rationale for the move. On the domestic front, POGOs in the country, which expanded in number under Duterte’s China accommodation, were raided and shut down as they were found to be local hubs for various types of transnational crime . The turning point came with the high-profile involvement of former Bamban Mayor Alice Guo, a local chief executive whose influence and position allowed a particular POGO hub in the province of Tarlac to stay under the radar until its recent exposé. Senate investigations into Guo’s case essentially brought awareness to the domestic consequences of Duterte’s China pivot. President Marcos eventually made the right yet overdue decision to ban POGOs, acknowledging their harmful and unsustainable presence in the country. Coupled with the nation’s ongoing conflict with China, the POGO fiasco surfaced questions about China’s growing influence operations , which ultimately cultivated a deep sense of alarm about the extent of Beijing’s reach in the daily lives of the average Filipino. Inadvertently, these events also collectively emboldened nascent sinophobic tendencies as the nation grappled with both the unknown and the untrusted. To this end, those seeking power can easily exploit these tendencies to present themselves as champions of righteousness, risking the oversimplification of complex issues that deserve serious consideration. Marcos has portrayed the upcoming mid-term elections as a choice between going back to the dark ages of the Dutertes, or moving forward with the promise of a “Bagong Pilipinas.” If recent polls are any indication, the Marcos government is likely to retain strong popular support for the president’s agenda. On the foreign policy front, this means reinforcing the administration’s anti-China rhetoric — a strategy that resonates with the Filipino public’s longstanding distrust and negative sentiment toward China. Indeed, this is a low-hanging fruit for any political aspirant. Early in the campaign period, senatorial candidates were ready to express their support towards this agenda. President Marcos himself has drawn the line for both the electorate and the aspirants. For him, the upcoming elections is a simple choice between his slate of patriotic public servants ready to fight against foreign intrusion, and “Chinese lackeys” who are quick to entrust the Philippines as a province of China. This is where potential dangers may emerge. If we are to treat our China policy as a key election issue this time around, framing it within the limiting context of pro versus anti positions sacrifices a deeper understanding of China’s rise and its consequences for the Philippines. Similarly, this zero-sum perspective potentially reduces China-related issues to fleeting populist narratives that fail to address perennial problems in our bilateral relations. Duterte’s infamous jet-ski rhetoric is a classic example of these potential dangers. It is not the first time we have seen grand promises of defending what’s ours against intruders we repeatedly fail to (or refuse to) understand. On the other end of the spectrum is Marcos’ earlier loyalty to his predecessor’s policy of appeasing China. His complete about-face signals that foreign policy issues are deemed convenient by these elites only when they serve immediate factional interests. Clearly, promises of being for or against China do not always guarantee outcomes — let alone peace with our neighbors. It is therefore important to look beyond the usual populist foreign policy discourses and seek concrete ways forward. Contrary to claims that China is set to be front and center this upcoming elections, domestic “gut issues” are still poised to dominate the Pinoy electorate’s decision calculus. Polls indicate that food security, job security, and corruption remain the top concerns for voters. Should we insist on China figuring prominently this coming elections, our inquiries and skepticisms must touch on the intersection of foreign policy and these gut issues . For example, while tensions at sea can easily be articulated in the context of ensuring food security for the country, current discourses seldom touch on this aspect. How exactly does the current insecurity in the West Philippine Sea impact food prices inland, and more importantly, the livelihood of our fisherfolk? In light of this objective, what are concrete ways for China and the Philippines to jointly reap the bounty of the ocean, while still being faithful to realities of our respective claims? Meanwhile, lessons from the POGO crisis and China’s expanding influence operations in critical sectors present an opportunity to assess the effectiveness of existing oversight, regulatory, and counterintelligence capabilities, particularly their ability to identify real and tangible threats. Raising the alarm should extend beyond suspected activities from China to all suspicious activities within our borders. This issue cuts to the core of anti-corruption efforts and public security — matters that directly affect the daily lives of Filipino voters. Ultimately, asserting that China figures prominently in Philippine politics is also acknowledging China’s growing importance. This is especially true for neighbors which have learned to co-exist long before our current territorial disputes. Moving beyond a simple good-versus-bad narrative, the upcoming elections is also an opportunity to explore how we can improve the sorry state of our bilateral relations with China, without sacrificing an inch of Philippine territory. We have yet to see a serious discussion around this potential “sweet spot” towards our China policy. As campaign promises seem to be creating localized “China Threat” narratives in the Philippines, educated voters should seek to inquire into the possibility of a clear and balanced approach this time around — something that we have yet to see inform our overall engagement with our most important neighbor. – Rappler.com Enrico V. Gloria is an assistant professor of international relations (on study leave ) at the University of the Philippines, Diliman, and a PhD candidate at the Department of International Relations at Tsinghua University. He writes about China’s rise, the bilateral relationship between China and the Philippines, as well as their respective foreign policies. His research has appeared in The Pacific Review, Philippine Political Science Journal, Chinese Studies Journal , and the Journal of Contemporary China , among others . How does this make you feel? </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>China,maritime security,Philippines-China relations,POGOs</t>
         </is>
       </c>
     </row>
@@ -1142,25 +1142,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Networked propaganda: How the Marcoses are using social media to reclaim Malacañang</t>
+          <t>Harry Roque’s asylum claim stands on shaky ground</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/investigative/245290-marcos-networked-propaganda-social-media/</t>
+          <t>https://www.rappler.com/newsbreak/explainers/analysis-harry-roque-asylum-claim-stands-on-shaky-ground/</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43789.55070601852</v>
+        <v>45738.25090277778</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disinformation, coordinated amplification, use of an extensive network of anonymously-managed pages and groups are part of the Marcos comeback playbook MANILA, Philippines – Massive amounts of propaganda and targeted disinformation produced and amplified by an extensive network of websites, Facebook pages and groups, YouTube channels, and social media influencers appear to be part of a systematic campaign to burnish the image of the Marcoses and pave the way for their further rise in Philippine politics. The content that this network circulated included numerous claims that sought to alter public perception of the Marcoses by either downplaying or outrightly denying kleptocracy and human rights violations during the Martial Law years, exaggerating Marcos achievements, and vilifying critics, rivals, and mainstream media. Many of these claims have since been debunked and proven to be false. A number of pages and accounts that are part of this network have also been taken down by Facebook for posting "spammy content" and  "coordinated inauthentic behavior." The campaign ramped up two years ahead of the 2016 elections and continues to produce and amplify content on a scale that rivals the volume of content circulated by mainstream media groups to date. It involves a network of Marcos and Duterte fan pages and groups, meme and viral content pages, pages circulating claims of allegedly “hidden facts” in Philippine history, and pages attacking and undermining mainstream media. Personal accounts and pages managed by key social media influencers known for staunchly defending President Duterte and his administration’s policies also took part in the campaign. The pages and groups involved were observed to be systematically sharing and amplifying each other’s content, along with content from known pro-Duterte and pro-Marcos social media influencers. Made with Flourish  Fan pages &amp; groups  The campaign ramp up included the creation of hundreds of fan groups and pages supporting the Marcos family. As of September 5, 2019, the Sharktank, a Rappler database, has tracked over 360 pages and over 280 groups supporting the family – whether it’s now-senator Imee Marcos, Ferdinand “Bongbong” Marcos Jr, their late father, or family matriarch Imelda Marcos. (The Sharktank is a Rappler database built to monitor Philippine conversation channels within Facebook – through public pages, public groups, and publicly available posts.) The graph below shows the dates the pages were activated based on the first post from these pages that the Sharktank spotted. Made with Flourish On the other hand, the graph below shows the dates when groups were activated based on the first post from these pages that the Sharktank spotted. Made with Flourish The only other local politicians who rival the Marcoses in terms of number of fan groups and pages are President Duterte himself, and Senator Bong Go. Rappler has tracked around 1,800 Duterte fan pages and hundreds of fan groups to date. Initial Duterte fan pages were created as part of the ramp up for the 2016 presidential elections. Most, however, were created after Duterte assumed office. Rappler has also detected similar messaging in relation to Martial Law and the Marcos dictatorship across pro-Duterte and pro-Marcos pages. As the graph shows, while a few Marcos pages were created much earlier, the creation of new pages per month really started to ramp up in 2014, around the time former first lady Imelda Marcos first mentioned she wanted her son to run for president. It was in July 2014, during her 85th birthday celebration , that Imelda Marcos hinted at a plan for a Marcos return to Malacañang. She said her son Bongbong, who was already senator at the time, was “qualified” to contest the presidency in 2016. The graph above also indicates that new fan pages were created even after the 2016 elections. Further ramp up happened ahead of the 2019 elections when another Marcos offspring, Imee Marcos, ran for the Philippine Senate.  Reclaim Malacañang  Imelda, in 2014, said she still has a “vision” to help the Filipino people and that returning to Malacanang would be a great help in implementing her projects.   POWER BID. Vice presidential candidate Bongbong Marcos joins Ilocos Norte 2nd District Representative Imelda Marcos and Ilocos Norte Governor Imee Marcos after they file their certificates of candidacy for local elective positions during the 2016 elections. Photo from the Provincial Government of Ilocos Norte But this was not the first time that the Marcoses attempted a return to Malacañang. Since they were evicted in 1986, Imelda herself attempted to return to the Palace twice. The first attempt was in 1992, when she ran for president under her husband’s Kilusang Bagong Lipunan party. She lost the race , tying at 5th place with then-Senate president Jovito Salonga, getting 10% of the votes. The second time was supposed to be in 1998, but she withdrew days before the elections . She did not have a chance to win anyway at the time. Already convicted of two counts of graft by then, an exit poll of Social Weather Stations ranked her 9th out of 11 candidates , with only 0.9% saying they would vote for her.  (The Supreme Court voided her conviction months after the polls. For more on the Marcos cases, READ: What's the latest on cases vs Imelda Marcos, family? ) Between 1986 to 2009, no Marcos made it to national office. Bongbong Marcos himself also attempted to bag a national post in 1995 when he ran for senator under the Kilusang Bagong Lipunan party founded by his father and as part of the Nationalist People's Coalition ticket. He finished the race ranking a miserable 16th place with more than 8 million votes. From that point, it took more than a decade before a Marcos sought national office again. It was not until 2010 when Bongbong finally won a Senate seat. He ranked 7th place , with 13,169,634 votes. Winning the Senate is one thing. The question was whether a Marcos was ready for the final goal: getting Malacañang back. It was doubly difficult because in the 2010 elections, the son of Marcos nemesis, Benigno "Ninoy" Aquino Jr, Benigno Simeon “Noynoy” Aquino III, won as president on an anti-corruption platform. Social media was a handy trick in the bag. (To be continued) – with Vernise Tantuco and Akira Medina/ Rappler.com      READ: Part 2 | Networked Propaganda: How the Marcoses are rewriting history  READ: Conclusion | Networked propaganda: False narratives from the Marcos arsenal     </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ROQUE. Harry Roque gives an interview in front of the ICC in The Hague, Netherlands. Screenshot from Roque's Livestream On March 17, 2025, former presidential spokesperson Harry Roque declared that he was in the process of claiming asylum in the Netherlands . He expressed confidence that he would be able to prove that he is the victim of political persecution through unjust prosecution. He claimed that once the application is received, he would be protected from refoulement — meaning, his deportation would be prevented if that would lead to harm or persecution. However, Roque omitted an important fact: he must establish the basis of his asylum claim. In other words: Is his asylum claim worthy of being entertained to begin with? Is he deserving of protection? The protection of refugees and individuals facing serious harm is a fundamental pillar of international human rights law. The 1951 Refugee Convention and its 1967 Protocol serve as the global foundation for refugee protection. It establishes the criteria for determining refugee status and prohibiting refoulement or the forced return of individuals to countries where they face persecution or harm. Although states may apply these principles differently in their domestic legal frameworks, they generally follow a similar structure: an asylum seeker must demonstrate a well-founded fear of persecution or a risk of serious harm to qualify for protection. The 1951 Refugee Convention defines a refugee as a person who, “owing to well-founded fear of being persecuted for reasons of race, religion, nationality, membership of a particular social group or political opinion, is outside the country of his nationality and is unable or, owing to such fear, is unwilling to avail himself of the protection of that country.” Under Article 33 of the Convention, states must not return ( refoule ) refugees to a place where their life or freedom would be threatened. At the domestic level, countries incorporate these obligations into their national asylum systems. The Netherlands applies them through the Aliens Act 2000. These two legal frameworks involve individual determination processes carried out by independent immigration authorities. A well-founded fear of persecution is the core requirement for refugee status. This standard is both subjective (based on the applicant’s personal fear) and objective (based on the real risk of harm). Courts and asylum tribunals assess the following: The United States Supreme Court and the European Court of Justice (Elgafaji, 2009) have emphasized that a refugee does not need to prove they will certainly be persecuted — rather, a real risk suffices. This broad interpretation ensures protection for those facing genuine threats, even in the absence of direct individual targeting. For those who do not qualify as refugees, Dutch asylum law provides subsidiary protection based on the risk of serious harm. This concept includes three categories: Dutch courts apply the Elgafaji test to determine whether an individual faces a general risk of indiscriminate violence in a conflict zone, even if they are not personally targeted. The Dutch Immigration and Naturalisation Service (IND) evaluates whether an applicant faces serious harm based on: Individuals who meet the criteria for serious harm receive a subsidiary protection permit valid for five years, after which they can apply for permanent residence. (READ: [The Slingshot] Open letter to the Dutch IND* in Ter Apel ) Roque brought up the concept of refoulement and his right against it. He is correct in that once a state deems his refugee or asylum claim receivable, the host state may not refoule or return him to the Philippines, where he allegedly faces persecution or harm. However, he omitted an important fact: He has to establish the basis of his asylum claim — his claim for asylum needs to satisfy the tests set out in the legal frameworks as explained above. There are two sets of legal frameworks through which he can pursue his claim. The first one is through the refugee regime, and the second or subsidiary is through a request for protection from serious harm. For his claim under the refugee regime to succeed, he must demonstrate that he has a well-founded fear. It is both subjective (that is, based on his personal fear of persecution on one of the five Convention grounds) and objective (that is, the real risk of harm — will he be risking persecution). Under the first regime, Roque’s credibility will be analyzed. For this, Dutch authorities will no doubt use government and UNHCR country condition reports regarding the Philippines. It will examine evidence that Roque will submit and, depending on the inquisitorial powers the asylum tribunal will exercise, third-party evidence may also be incorporated in the evaluation of his claim. Moreover, Roque must, under this regime, demonstrate that he is being persecuted based on one of the Convention grounds: race, religion, nationality, political opinion, or social group. The dearth of information that is publicly available that allegedly implicates Roque in human trafficking schemes in the last few months may spell doom against him. Roque is of course well within his rights to address these concerns directly before the tribunal — he will have his day in court. It is no secret that the European Union and most western democracies — including the United States, the UK, and Canada — have been critical of the drug war and the proliferation of human trafficking during the Duterte years. I suspect that the asylum claim, specifically Roque’s credibility, will be analyzed against this backdrop. Out of the five Convention grounds, the closest that Roque can mount would be persecution on the basis of political opinion. For this, context is king. We go back to the backdrop of why Roque faces potential prosecution in the Philippines — it does not bode well for establishing a strong context for his case that he fled the Philippines and eluded arrest while facing allegations of links to human trafficking, and that congressional investigations were in progress. Turning now to the second regime, a possible claim for protection against serious harm, it is clear that Roque does not face the death penalty or execution. The Philippines has gotten rid of the death penalty. The question of torture as well as inhuman or degrading punishment may also be raised. Frankly, while the deteriorating human rights situation under the Duterte years were in the spotlight, the situation has significantly calmed down — though we will not say that problems no longer exist. His best defense is possibly claiming that he is being targeted because of his political affiliation. But, just like under a refugee claim, it is highly unlikely that this would succeed because of the context of his potential prosecution. Persecution via prosecution, or the weaponization of the law, is certainly a legitimate basis of claim. However, I can only think of one figure who actually would have fit this bill: Leila de Lima. Certainly, not Mr. Roque. – Rappler.com Lou Janssen Dangzalan is a Filipino-Canadian immigration lawyer. He is an alumnus of UST, Ateneo, the National University of Singapore, and the University of Ottawa, where he attended law school in French. His practice is based in Toronto, Canada. He may be reached at info @ ljd-law.ca. How does this make you feel? </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>human rights,human trafficking,Philippines-Netherland relations,POGOs</t>
         </is>
       </c>
     </row>
@@ -1170,25 +1170,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tip of the iceberg: Tracing the network of spammy pages in Facebook takedown</t>
+          <t>DND eyes 2 islands in Zambales, Bataan as military reservations</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/newsbreak/investigative/215256-tracing-spammy-pages-network-facebook-takedown/</t>
+          <t>https://www.rappler.com/philippines/dnd-eyes-grande-chiquita-islands-zambales-bataan-military-reservations/</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43400.5</v>
+        <v>45736.23207175926</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Many of the pages in these networks have shared false or misleading articles By Rappler Research Team  Published 8:00 PM, October 27, 2018 </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. GRANDE ISLAND. An aerial view of the Grande Island recreational facility taken in 1983. PH2 R. Manary via Wikimedia Commons MANILA, Philippines – The Department of National Defense (DND) said on Thursday, March 20, that it is eyeing Grande Island in Subic Bay, Zambales , and Chiquita Islands in Bataan as military reservations, following the arrest of several people over suspected cybercrimes in one of the small but strategic islands. The DND said in a press statement that a total of six foreigners and two Filipinos were arrested in Grande Island, after a warrant of arrest was served on Chinese national Qiu Feng, whose real name is Ye Tianwu (also known as Qing Feng) on Wednesday morning, March 19. The DND described Grande Island as “a strategic vantage point with a clear view of key sea lanes in the West Philippine Sea, including Bajo de Masinloc (Scarborough Shoal).” “The Department looks forward to working with the concerned agencies, including the Subic Bay Metropolitan Authority (SBMA), in exploring the possibility of declaring Grande Island, along with nearby Chiquita Island, as military reservations,” the department said. “This will ultimately help secure the operations of the Subic Special Economic and Freeport Zone including the Riviera Wharf and the Subic Bay International Airport, in consonance with the ongoing development of the naval operating base of the Philippine Navy to strengthen and maintain our strategic presence along our western seaboard,” it added. Both Grande and Chiquita islands are located in Subic Bay, which was once a sprawling US base until the Philippines rejected a lease extension in 1991. The US military pulled out a year later and the strategically located facility has since been transformed into the Subic Freeport Zone. Ye was arrested for violations of Republic Act (RA) 8799 or the Securities Regulation Code, and RA 10175 or the Cybercrime Prevention Act of 2012.  The arrest was carried out by a composite team of the Armed Forces of the Philippines, the National Bureau of Investigation, and the SBMA. The others arrested were Xu Xining, Ye Xiaocan, Su Anlong, He Peng,  Cambodian Ang Deck/Dick, and Melvin Mañosa Aguillon Jr. and Jeffrey Espiridion. Mutiple cellphones and laptops, one caliber 9mm firearm, and 16 rounds of 9mm ammunition were seized during the arrest. “The arrest exposes the unlawful nature, including suspected espionage and kidnapping activities related to Philippine Offshore Gaming Operations (POGO), for which some foreign nationals are using Grande Island under the guise of private enterprises,” the DND said. “Such activities, which may be part of larger criminal network operations, pose a serious threat to our national security,” the agency added. As early as 2019, the Philippine military had sounded the alarm about plans of the administration of then-president Rodrigo Duterte to allow Chinese investors to develop Grande and Chiquita Islands, as well as Fuga Island in Aparri, Cagayan, as these could compromise national security. During the previous administration, then-defense secretary Delfin Lorenzana had said that Chinese plans to build economic and tourism zones on the three islands would make the Philippines vulnerable to Chinese spying. Chinese company Fong Zhi Enterprise Corporation had planned to  build a $2-billion “smart city” on Fuga Island. Following the uproar over the plan, the Philippine Navy and the Cagayan Economic Zone Authority formalized a plan to build a naval detachment on Fuga Island , which was established in August 2020. The planned Chinese project was not pursued. – with a report from Reuters / Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>China,Cybercrime law,POGOs,Subic Bay Freeport Zone,West Philippine Sea,Zambales</t>
         </is>
       </c>
     </row>
@@ -1198,25 +1198,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Isaiah Thomas out for rest of playoffs</t>
+          <t>Authorities raid POGO hub at RCBC Plaza in Makati</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/sports/nba/170476-boston-celtics-isaiah-thomas-playoffs-hip-injury/</t>
+          <t>https://www.rappler.com/philippines/metro-manila/authorities-raid-pogo-rcbc-plaza-makati-march-19-2025/</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>42876.11682870371</v>
+        <v>45735.54594907408</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. AFP BOSTON, USA – Boston Celtics guard Isaiah Thomas will be sidelined for the rest of the postseason after aggravating a hip injury during game two of the Eastern Conference finals, the NBA team announced on Saturday, May 20. The 28-year-old Thomas initially injured his hip in a game against the Minnesota Timberwolves on March 15, and then aggravated it during game 6 of the second round series against the Washington Wizards. “Isaiah has worked tirelessly to manage this injury since it first occurred,” said Celtics team doctor Brian McKeon. “The swelling increased during the first two games against Cleveland, and in order to avoid more significant long-term damage to his hip, we could no longer allow him to continue.” Thomas has been diagnosed with a femoral-acetabular impingement which affects the ball joint in the hip socket. Thomas did not travel with the team to Cleveland for game 3 on Sunday. The Cavaliers lead the series, 2-0. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. BUILDING. RCBC Plaza logo is mounted on the wall of the RCBC Plaza in Makati City. James Patrick Cruz/Rappler MANILA, Philippines – In the heart of Makati’s financial district — where a skyscraper houses multinational firms and embassies — authorities found an illegal Philippine offshore gaming operator (POGO) hub in hiding. Philippine authorities raided the POGO hub on the 21st floor of Yuchengco Tower, Rizal Commercial Banking Corporation (RCBC) Plaza, Ayala Avenue, Makati City, on Wednesday, March 19. The Presidential Anti-Organized Crime Commission (PAOCC) and the Philippine National Police Criminal Investigation and Detection Group (CIDG) apprehended around 200 individuals of various nationalities, including Filipinos, Chinese, Japanese, Malaysians, Taiwanese, Brazilians, and Hong Kong nationals. Authorities were initially serving an arrest warrant for a certain Dennis E. Esguerra, who was facing robbery charges. The warrant was issued by Judge Rico Sebastian D. Liwanag of the National Capital Region’s Regional Trial Court, Branch 136, Makati City, on February 28. The business, identified as Flying Future Company, was found facilitating online gaming services in multiple countries, including Japan, China, Germany, France, Indonesia, Spain, Thailand, Vietnam, and Portugal. PAOCC Undersecretary Gilbert Cruz also said that the company was involved in cryptocurrency transactions. For three years, this POGO operated under the radar in the Makati Central Business District, in the same building complex where the embassies of South Africa, Canada, and Australia are located. Taipei Economic and Cultural Office is also located here. Since the POGO ban, Cruz said operators have been blending into “plain sight,” disguising their operations to avoid detection. Cruz said that the operation of a POGO in the same building as crucial business establishments poses a “security risk.” Although the POGO operator claimed to have a special class business process outsourcing (BPO) permit, Cruz clarified that it lacked proper accreditation from the Philippine Amusement and Gaming Corporation (PAGCOR). Adding to the alarm, authorities found text blasters and an international mobile subscriber identity (IMSI) catcher — devices capable of intercepting mobile phone traffic and tracking users. Cruz said that they were investigating if the POGO hub was also involved in scamming. Inside, the office resembled a typical corporate setup — conference rooms, a canteen, coffee shops, and even a training room for new hires. RCBC Plaza, in a statement released on Thursday, March 20, said that its management conducted due diligence on Flying Future’s application, noting that the company identified itself as an “IT support company.” RCBC also said that its tenant Flying Future had the necessary business permit from the Makati City government. RCBC Plaza General Manager Marjorie Abot further noted that Flying Future was not among the POGO companies whose licenses were revoked and ordered shut by Pagcor on March 31, 2024. Given this, she said, there was no reason for RCBC Plaza to question the nature of the tenant’s business. RCBC Plaza and its management said they will fully cooperate with government agencies and authorities in the investigation. In 2024, Marcos announced the complete ban of POGOs which have been plagued with scandals related to money laundering, immigration bribery, illegal recruitment, and human trafficking. Despite the ban, authorities continue to uncover operational POGOs . Early this March, PAOCC raided a POGO at PBCom Tower in Makati — but its workers managed to flee before the raid. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Disinformation,Networked propaganda</t>
+          <t>Makati City</t>
         </is>
       </c>
     </row>
@@ -1226,25 +1226,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[ANALYSIS] Viber: The next frontier for political propaganda in the Philippines?</t>
+          <t>POGO service provider co-owned by CEZA bizmen gave visa to alleged spy</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/voices/thought-leaders/analysis-viber-next-frontier-political-propaganda-philippines/</t>
+          <t>https://www.rappler.com/philippines/pogo-service-provider-co-owned-ceza-businessmen-gave-visa-alleged-spy/</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44549.49818287037</v>
+        <v>45721.52929398148</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. As is well-known, Facebook is widely used across Southeast Asia, especially in the Philippines, where 99% of internet users have Facebook accounts and 98% use Facebook Messenger , mostly to communicate with family and friends. In comparison, the use of the messaging app Viber is very low – only 5% of internet users use it. However, Viber use is rapidly growing in the Philippines and with it, its political significance grows, too. The Propaganda Lab at the Center for Media Engagement at UT Austin conducted 21 interviews in the Philippines, Indonesia, Myanmar, and Ukraine , and found that Viber is being used for the spread of political propaganda in the Philippines in particular . While Facebook remains widely used for propaganda in Indonesia, for instance, our interviewees in the Philippines articulated that Viber has been “invaded” by Duterte’s government. So, will Viber be the next hotbed of disinformation or misinformation exploited by an authoritarian leader? Disinformation and political propaganda are rampant on Facebook across Southeast Asia but similar phenomena on encrypted messaging applications (EMAs) are underexplored. Apps that use end-to-end encryption (E2E), which tout that only the sender and receiver can see what messages say, are growingly popular across the globe . Troublingly, they are increasingly becoming spaces for mis- and disinformation just like “traditional” social media. They have even led violence to erupt in the offline world, such as mob lynchings in India after disinformation spread on WhatsApp , and played a role in anti-democratic movements, such as the Capitol riot in the United States . The emerging use of Viber, an app that offers E2E in 1-on-1 and group chats (though not in channels or communities) , looks like the next frontier for political propaganda and disinformation in the Philippines and Southeast Asia writ large. For instance, representatives from the Presidential Communications Operations Office interviewed by us explained that the government established Viber groups that include over two million users to distribute information from the government to Filipinos. In addition to government announcements, these groups serve as an avenue to encourage support for President Duterte on a platform that is sure to reach a widespread audience. According to two representatives from the communications office, their goal is to make the president visible – even “ubiquitous.” They aim to make content as entertaining as possible, tailored specifically to younger audiences. One example is sticker campaigns. Graphic designers in the communications department have designed sticker packs with President Duterte’s image paired with politically motivated phrases – people in his office would call this increasing support, but a cybersecurity strategist we spoke to (who is also a former politician), called these “Duterte ads.” He considered these strategies to be more than just spreading presidential news – he explicitly called it “propaganda.” In addition to calculated strategies like sticker packs, government officials thoughtfully select which platforms to engage on as well. “We use Facebook Messenger to blast information to the public.” Although they “try to blast it on all platforms,” they particularly aim to target young folks (millennials and younger) through emerging platforms like TikTok and Viber. This is strategic – the number of TikTok users in the Philippines is increasing , just like Viber. “Filipinos want to go to social media as an escape,” one of the officials told us, “so you must package your content in the most entertaining and trendiest way possible to relate, especially to the millennials.” Their strategies are deliberately coordinated in order to reach the most emerging users. The representatives we spoke to were adamant that such content was not pushed by trolls. “For us, social media is just an additional task of our public information officers.” In fact, a main part of their job description includes content creation and social media management. The creation of in-house social media teams signals how vital social media has become for the Duterte regime. “We don’t hire external outfits or groups to run our social media,” they told us. However, while the people we spoke with who work in Duterte’s communications office would (and did) vehemently deny the use of troll farms, it has been exposed in investigative reporting and academic work alike . The use of Viber differs greatly across different cultures and countries. In Myanmar, for instance, it’s not widely used, and in Indonesia WhatsApp reigns. In general, EMAs are often used to connect individuals into small groups from families to community social groups; with the unintended side effect, however that – “lots of disinformation spreads between family and friends,” as a cybersecurity strategist told us. Hence the additional question arises if Viber will not only be the next outlet for disinformation in the Philippines but also co-opted by troll farms. One man we spoke to in Indonesia (we would refer to him as a troll, but they call themselves “buzzers”) told us about his strategies for political propaganda on traditional social media like Facebook and YouTube: he and his team each run 50 or more accounts, orchestrating fake arguments between the accounts about political candidates. Ultimately, all of the “people” (fake accounts) concede and support the candidate the buzzer/troll was hired to increase support for. This strategy, he told us, is not possible on EMAs. However, he and other interviewees explained that by pushing out positive information about one candidate and negative disinformation about the other, they can still affect public opinion and likely, elections. Ultimately our research has discovered that EMAs are falling prey to exploitation just as other social media sites have. However, there is another side to this challenge, namely the receptiveness and potential engagements of EMA users to disinformation and propaganda. In the Philippines in particular, citizens have been trying to push back against an authoritarian leader – so while online spaces such as Viber and TikTok present opportunities for state actors to manipulate young folks, who are allegedly especially at risk for believing fake news , this research also wants to highlight the opportunities for pushback. For example, EMAs are useful to communicate in private and mock government propaganda or engage in fact-checking to expose government propaganda. For this, researchers must keep a finger on the pulse of disinformation campaigns on emerging platforms since actors, such as the Filipino government, adapt to the ever-changing social media trends for their own goals. – Rappler.com Katlyn Glover is a researcher and graduate student at the Propaganda Lab at the Center for Media Engagement at the University of Texas at Austin, where she researches disinformation and political propaganda on emerging technologies. Zelly Martin Geurink is a researcher and PhD student at the Propaganda Lab at the Center for Media Engagement at the University of Texas at Austin, where she researches disinformation and political propaganda, especially as they pertain to women. How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Immigration operatives take Yuhang Liu from the police camp in July 2024 after finding him to be an overstaying alien. Photo courtesy of Bureau of Immigration MANILA, Philippines – It was a defunct POGO (Philippine offshore gaming operators) service provider co-owned by businessmen based in the Cagayan Economic Zone Authority (CEZA) which sponsored an employment visa to a Chinese national who would eventually be arrested, and is now suspected by the government as being a spy, testimonies and documents show. Immigration intelligence chief Fortunato Manahan disclosed to the Senate in a hearing on March 4 that one of the 10 suspected Chinese spies in the Philippines was given a 9G or pre-arranged employment visa by the Bureau of Immigration through a company called Invech Treasure Processing Corporation. “The first subject, arrested May 29, 2024, place of arrest Makati, the visa issued on 17 May 2019, and valid until march 25, 2021, it’s a 9g visa, company is Invech Treasure Processing Corporation,” Manahan said on March 4. Documents from the Philippine Amusement and Gaming Corporation show that Invech was among accredited service providers for POGOs as of an October 2021 list, and it was also among the POGO service providers canceled by the regulator as of August 2024. “[This] corroborates our theory that POGOs were used to facilitate espionage,” Senator Risa Hontiveros said during the hearing referring to the Invech employee. Filings with the Securities and Exchange Commission (SEC) obtained by Rappler on Wednesday, March 5, show that Invech incorporated in December 2016 as a technology solutions company based out of Bonifacio Global City (BGC). It had five incorporators, two of whom registered their residences in CEZA. The ownership has changed a bit, but the two CEZA businessmen remain as shareholder as of the company’s 2023 General Information Sheet, which is the latest filing with the SEC. CEZA is noteworthy because it had also previously given visa to She Zhijiang , a notorious gambling tycoon who is now claiming to be a Chinese spy. She is serving jailtime in Thailand, and from his prison cell he claimed to have been abandoned by the Chinese Communist Party (CCP) and urged Alice Guo – whom he accused of also being a spy – to rethink her alleged loyalty to CCP. Guo has vehemently denied this accusation. Based on Manahan’s description, the alleged spy given visa by Invech is Yuhang Liu who was arrested May 29, 2024 in Makati after allegedly forcing a victim to deliver hacking equipment to him. In 2019, police arrested kidnapping suspects – most of them Chinese – at the Invech building in BGC for allegedly kidnapping former POGO workers, Philstar reported . Manahan said there have been 10 alleged Chinese spies apprehended by government since 2024. “Since last year and up to the recent arrest of the National Bureau of Investigation of those suspected to be involved in espionage, the total number of suspected espionage who are nationals of [China] – total of ten as of this day,” said Manahan. Philippines authorities are also investigating a separate case of another set of alleged spies whose philanthropic work in the Philippines includes giving donations to the city government of Tarlac – the same province as Guo – and the Manila city police. The Philippine government has launched a more intense crackdown on alleged Chinese espionage, with a new push for legislation to counter such incidents. Another separate case showed that the equipment used by the alleged spies are so powerful it could take data from a device without getting hold of such device, and that the equipment can produce coordinates. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Disinformation,mobile phone technologies,social media platforms</t>
+          <t>Cagayan,China,GOCCs,POGOs</t>
         </is>
       </c>
     </row>
@@ -1254,25 +1254,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bulls to retire Derrick Rose's No. 1 jersey</t>
+          <t>How POGO, PNP got entangled in teen's kidnapping case</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/sports/nba/chicago-bulls-retire-derrick-rose-jersey/</t>
+          <t>https://www.rappler.com/newsbreak/in-depth/how-pogo-pnp-got-entangled-teen-kidnapping-case/</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45891.39377314815</v>
+        <v>45721.41666666666</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CHICAGOu2019S OWN. Derrick Rose played at the peak of his powers with the Chicago Bulls. NBA.COM The Chicago Bulls will retire former NBA MVP Derrick Rose’s No. 1 jersey on January 24, the team announced Thursday, August 21. The Bulls will host the Boston Celtics that night at the United Center. Rose, 36, announced his retirement from the league over social media last September. The No. 1 jersey has not been worn by a Bulls player since Rose was traded to the New York Knicks in 2016. Michael Carter-Williams and Anthony Morrow were issued the number but switched after fan backlash. Rose will be the fifth player in Bulls history to have his number retired, joining Jerry Sloan (No. 4), Bob Love (10), Michael Jordan (23), and Scottie Pippen (33). Rose was selected by his hometown Bulls with the top overall pick in the 2008 NBA Draft and was named the 2008-09 Rookie of the Year. At 22, Rose became the youngest player in league history to be named the NBA MVP during the 2010-11 season. Chicago was 245-161 (.603) in games in which Rose played. In his MVP season, he led the Bulls to their first Eastern Conference Finals appearance since 1998 — the final season of the Bulls’ second NBA championship three-peat. Rose’s career took a turn for the worse after he tore an ACL during the first round of the 2012 playoffs. He sat out the following season and was limited to 10 games in 2013-14. A three-time All-Star, Rose posted career averages of 17.4 points, 5.2 assists, and 3.2 rebounds in 723 career games (518 starts) with the Bulls, Knicks, Cleveland Cavaliers, Minnesota Timberwolves, Detroit Pistons, and Memphis Grizzlies. Injuries limited Rose to 24 games (seven starts) with the Grizzlies in 2023-24 as he averaged 8.0 points, 3.3 assists, and 1.9 rebounds. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Alejandro Edoria/ Rappler When Philippine authorities reported last week the kidnapping of a 14-year-old male , Interior Secretary Juanito Victor “Jonvic” Remulla was quick to say that this was no ordinary case. Kidnappers cut a part of the teen’s right pinky finger, and the victim was rescued by police at a street in Parañaque City. The kidnapping, perpetrated allegedly by Chinese abductors, was related to Philippine offshore gaming operators (POGOs), according to Remulla. “We suspect that the victim came from a family that previously operated a POGO. We are definite that syndicates behind the abduction are also former POGO operators. We are sure that the syndicate is still here in the country,” said Remulla. A contrary narrative also came quick in the Manila Times  that published a story citing a source who said that the teen was not rescued by police, but was instead turned over to them after a $1-million ransom was paid. “It’s an ongoing operation. Full details to be disclosed very soon. Safe to say the informant remains on background. I’m putting my name on the line. We are close to solving this case,” Remulla told Rappler on Tuesday, March 5, when asked about the newspaper report. “We will stand by the statement made by our SILG (Secretary of the Interior and Local Government) that it was a rescue operation and no ransom was paid. That word of our SILG will suffice to be a lie to all these rumors,” Philippine National Police (PNP) spokesperson Police Brigadier General Jean Fajardo said. Remulla said that the syndicate behind the kidnapping had also been operating POGOs since 2016. “And since they were banned, some of the operators remained here and entered these operations. This syndicate rose in January, after the POGOs’ closure, they ventured into kidnapping,” said Remulla. Police did not arrest any suspect. PNP Anti-kidnapping group (AKG) chief Police Colonel Elmer Ragay said the syndicate mainly operates in Luzon — with traces in Metro Manila to Angeles City in Pampanga, up to further North Luzon. Ragay said that as early as 2003, some members of the syndicates were already arrested, but several of them still remain at large and continue operating. Police have a matrix that shows interconnections of at least five groups all run by foreigners. However, not all five are related to POGOs, Ragay clarified. In 2024, there were at least 32 incidents of kidnapping, and at least eight of those were related to POGOs because the victims were former POGO employees, said Ragay. In 2025, two kidnapping incidents out of a total eight, so far, are believed to be connected to POGOs. All the victims of kidnapping this year — including the teen — have been released. Police have been able to solve five of the eight cases. Aside from a crackdown on POGOs, which was a regulatory invention during the time of former president Rodrigo Duterte, the Marcos government, particularly Interior Secretary Remulla, has also scrutinized what became of the PNP under the Duterte strongman rule. In the Palace briefing, Remulla said the teen’s kidnappers had protection from former bodyguards who used to be either with the police force or the armed forces. The retired uniformed personnel allegedly provided cover for the kidnapping, but Remulla couldn’t say how many guards were involved, citing confidentiality. Remulla was asked during the Palace briefing whether the alleged POGO connection was to be blamed on the Duterte administration because of the interconnections of the police, POGOs, and crimes. “We have no aspersions to that effect. What we said was these kidnappers came from POGOs. So, wherever they came from, whoever gave their licenses is immaterial to us. What is material is where they came from, who they are, what they used to do, and what they’re doing now,” Remulla said. The PNP was put under more heat when on March 1 — just days after joining Remulla for the Palace briefing on the teen’s kidnapping — Ragay was relieved from his post . PNP chief Rommel Marbil relieved Ragay, following reports and social media posts that questioned the legality of the teen’s rescue. He explained that although the PNP brands the operation a success, a review must be done to answer the public’s questions. In less than a week, Ragay’s relief was recalled supposedly to follow an election rule that prohibits the transfer of public officials, including PNP personnel, during the election period. Fajardo said Ragay’s reinstatement will not affect their probe into the kidnapping incident, as AKG was not part of the investigating team. “Our investigation is ongoing because we have to make it clear that the investigation does not only involve [Police Colonel] Ragay, this involves the whole operation [that] was initiated by the AKG,” Fajardo said. Remulla said the teen’s parents found out at 3:45 pm on February 20 that their son had not come home yet, despite being dismissed from school at 2:40 pm. Later, the teen’s car service was found abandoned off ramp along C5 road’s southbound lane. The parents reported the incident the next day. Investigating authorities found the family driver dead in another vehicle in San Rafael, Bulacan, north of Metro Manila. “That vehicle yielded information regarding the syndicate which operates in this manner. Now, the contents of that include pictures, conversations, cellphone numbers, strategies, casings of how they would do the job. Now the driver is already deceased so he cannot be considered a person of interest,” Remulla said. The perpetrators later communicated with the family and demanded a $20-million ransom, but the parents declined. On February 22, the perpetrators sent a video to the family showing the teen’s finger being cut. The next day, after requesting for proof of life, the kidnappers sent a video to the family, which showed the teen singing his younger sibling’s favorite song. On February 24, the PNP AKG traced the abductor’s cellphone signal. “You have to understand that this group is very sophisticated. The place where they made the phone calls and the teen’s location were different, and they used plenty of phone numbers,” Remulla said. Early afternoon on February 25, authorities traced and followed the perpetrators’ phone signal, only to then find the teen in his pajamas with his hands bound, standing in the middle of a street. “The choice was pursuing the vehicle or securing the child. Obviously, the AKG prioritized the kid,” the interior chief explained. Philippine authorities reiterated that the teen’s parents did not pay for the ransom money, even though the motive was primarily financial. “It’s just money, that’s really all. There’s no revenge. There’s no revenge; they were just a crime syndicate,” said Remulla. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Philippine National Police,POGOs</t>
         </is>
       </c>
     </row>
@@ -1282,25 +1282,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Adidas visits Indigenous Mexican town to apologize for sandal design</t>
+          <t>Harry Roque failed to go to the US, went to China?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/life-and-style/style/adidas-visits-indigenous-mexican-town-apology-sandal-design/</t>
+          <t>https://www.rappler.com/philippines/harry-roque-failed-enter-united-states-went-china/</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45891.38153935185</v>
+        <v>45720.15699074074</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Traditional Indigenous sandal are pictured in a workshop as Juan Aquino makes a sandal in Villa Hidalgo Yalalag while the Mexican government stepped in on Friday to mediate a dispute between Indigenous artisans from Oaxaca and Adidas over cultural appropriation claims involving the "Oaxaca Slip On" shoe, designed by Willy Chavarria, in Villa Hidalgo Yalalag, Oaxaca, Mexico, August 9, 2025. REUTERS/Jorge Luis Plata VILLA HIDALGO YALALAG, Mexico — Adidas ADSGn.DE executives visited a small Indigenous town in the mountains of southern Mexico on Thursday to offer an apology over a sandal-inspired shoe design that Mexico’s government had blasted as cultural appropriation. The German sportswear company sent representatives from its Mexican unit to Villa Hidalgo Yalalag, a town in Oaxaca state, to deliver the comments in person after issuing a written apology last week. The issue related to the “Oaxaca Slip On,” designed by Mexican-American designer Willy Chavarria, which locals say closely resembles their traditional handmade huarache sandals. “We understand this situation may have caused discomfort, and for that reason, we offer a public apology,” Karen Gonzalez, head of Legal and Compliance at Adidas Mexico, told a few dozen people gathered at an outdoor sports field. The event included traditional music and attendees in Indigenous attire. Gonzalez said Adidas would in future seek collaboration with Villa Hidalgo Yalalag to ensure respect for its cultural heritage. The community is home to fewer than 2,000 people. “Thank you very much for keeping your word,” said Mayor Eric Fabian. “(Our cultural heritage) is something we safeguard very carefully. Yalalag lives from its crafts,” he added. The controversy drew national attention earlier this month when Mexican President Claudia Sheinbaum criticized Adidas and announced plans to explore legal avenues to protect Indigenous communities from alleged cultural appropriation by big companies. Mexico has previously accused other big-name global fashion players of exploiting Indigenous designs without consent. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. PRESENT. Former presidential spokesman Harry Roque, attends the resumption of the Senate investigation on Philippine Offshore Gaming Operators (POGOs), on July 29, 2024. Angie de Silva/Rappler MANILA, Philippines – Harry Roque, who is facing a criminal complaint for human trafficking related to an alleged scam farm in Pampanga, traveled from the United Arab Emirates (UAE) to China, Senator Risa Hontiveros said on Tuesday, March 4. “According to my sources, Harry Roque flew in to Shanghai from Dubai on December 8, 2024, stayed in Shanghai for just one day, and then flew out to the casino city of Macau. Sino kaya ang tumutulong sa kanya? (Who is helping him?),” Hontiveros said on Tuesday during a Senate hearing on Alice Guo and other people leaving the country despite being on a watchlist. It was not certain if Roque is still in China. Representatives from the Bureau of Immigration (BI) could not answer Hontiveros during Tuesday’s hearing. “We have information, but we don’t have validated proof [that he entered China],” said BI intelligence chief Fortunato Manahan. He also said they had a lead before that Roque tried to go to the United States from Japan but that he was “denied flight, denied check-in” in Japan, according to Manahan. The sequence for Roque’s travel was unclear as of writing. “Where, for God’s sake, is Harry Roque? Parang libre na lang siyang mag-post ng kung anu-ano sa social media  na parang kinukutsa pa ang administrasyon at mga otoridad natin (He’s just free to post anything on social media poking fun at the administration and our authorities),” said Hontiveros. Without admitting or denying the travels mentioned by different government officials, Roque said in a statement on Facebook posted Tuesday. “I am being pursued not as a criminal or fugitive but as a resource person. Having said this, I have no hold departure order and have the right to travel. Mahirap ba itong intindihin (Is this hard to understand), Senator Risa?” Roque was put on the immigration lookout in August 2024 . Police filed the criminal complaint for human trafficking against him in October that year, related to his lawyering for the real estate firm Whirlwind in Porac, Pampanga, the lessor of the alleged scam farm there. There’s also a congressional warrant against him after lawmakers scrutinized his lawyering for the Philippine Offshore Gaming Operator (POGO) there, and not just the lessor. However, there are no known court-issued warrants against him to this day. There’s already a draft resolution on the trafficking complaint against him, said State Prosecutor Olivia Torrevillas. POGO actors without court-issued warrants leaving the Philippines has been an issue throughout this saga, putting into question why the DOJ does not ask the court for a precautionary hold departure order (PHDO), a mechanism available to prosecutors to secure flight-risk suspects who are not yet charged. Roque is regularly livestreaming on his Facebook page, and last year, when the DOJ said he had subscribed to his affidavit in Abu Dhabi, Roque told reporters via Zoom he already left the emirate. Roque was discovered to be in Abu Dhabi in the UAE when he had to subscribe to his affidavit at the Philippine embassy there — the affidavit was required so he can answer the trafficking complaint. But lawmakers had suspected he went to Dubai and just went to Abu Dhabi because the embassy is there. Tuesday’s hearing confirmed the Dubai destination for the first time. “The last information we had on the Roque couple — the wife left Singapore, bound for Dubai, and there was sighting of Harry Roque in Dubai. There’s also information that they left sometime December, but the information after that, sorry Madam chair,” Manahan said in a mix of English and Filipino. Who is, or was, in Dubai? Michael Yang, Rodrigo Duterte’s former economic adviser, for example. Lin Weixiong, Yang’s close business associate, also traveled there . Alice Guo’s Bamban business partner, Lin Baoying , who was convicted in Singapore for money laundering, has a property in Dubai too. Lin Baoying, a Chinese national, appears to have had a property in Macau too, which she sold and claimed was the sources of her deposits, according to a report on Channel News Asia. That Roque supposedly went to China, particularly Shanghai and Macau, also happened under the radar. The Bureau of Immigration claims Roque left the Philippines via unofficial channels , because they had no record of his departure. The National Intelligence Coordinating Agency (NICA) has a theory that Roque used the backdoor of Tawi-Tawi to leave the Philippines, saying that Roque had a domestic flight from Zamboanga to Tawi-Tawi in the morning of September 2, 2024. NICA Director Ferlu Silvio said that Mindanao has “porous borders,” and many ships sail back and forth Sabah to Philippines. In fact, Silvio said, Guo’s sister Shiela may have entered Kota Kinabalu first when they fled. “After Tawi-Tawi, we no longer heard anything. I don’t want to confirm [that that’s what happened] but that’s one of the possibilities,” Silvio said, referring to Roque. Silvio said they also had information that Roque went to Macau. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>fashion brands,fashion industry,Mexico,sports brands</t>
+          <t>Bureau of Immigration,China,Harry Roque,Macau,Risa Hontiveros,Senate of the Philippines,United Arab Emirates</t>
         </is>
       </c>
     </row>
@@ -1310,25 +1310,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kathryn Bernardo returns to TV with Dreamscape Entertainment after 15 years</t>
+          <t>PNP anti-kidnapping chief relieved after rescue operation issues surface</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/entertainment/celebrities/kathryn-bernardo-tv-comeback-dreamscape-entertainment/</t>
+          <t>https://www.rappler.com/philippines/pnp-anti-kidnapping-chief-relieved-issues-rescue-operation-surface/</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45891.37671296296</v>
+        <v>45717.48921296297</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RETURN. Kathryn Bernardo is heading back to TV with Dreamscape Entertainment. ABS-CBN MANILA, Philippines – Asia’s Superstar is returning to the small screen! Kathryn Bernardo will be returning to ABS-CBN primetime television, reuniting with Dreamscape Entertainment after 15 years. ABS-CBN officially announced her comeback on Friday, August 22. “The wait is over. SHE IS BACK AND READY. The Asia’s Superstar, Kathryn Bernardo, is now ready for her grandest comeback,” Dreamscape wrote on YouTube. This marks the Filipina actress’ first TV project with Dreamscape in 15 years, after she starred in her breakout role as Mara David in the 2010 hit drama Mara Clara , where she starred alongside Julia Montes, who played her rival Clara del Valle. The series was a remake of the 1992 classic. Details about the new series are still under wraps, such as the cast, storyline, or production timeline. The 30-second video teaser of Bernardo’s comeback was released on social media, showing Bernardo in a glam shoot. Her most recent television role was in the 2022 romantic comedy 2 Good 2 Be True , with former love team partner Daniel Padilla. On the big screen, Bernardo headlined The Hows of Us (2018), Hello, Love, Goodbye (2019), and its 2024 sequel Hello, Love, Again , now the highest-grossing Filipino film of all time. She also starred in A Very Good Girl (2023) with Dolly de Leon and previously appeared in films like Barcelona: A Love Untold (2016). She is also a judge in Pilipinas Got Talent . Dreamscape Entertainment, ABS-CBN’s drama production unit, is known for popular teleseryes, such as including FPJ’s Ang Probinsyano, Batang Quiapo, Lavender Fields, Dirty Linen, Senior High, and more. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CHIEF. This file photo shows PNP Anti Kidnapping Group head Police Colonel Elmer Ragay. PNP Anti-Kidnapping Group's Facebook page MANILA, Philippines – The Philippine National Police has put Police Colonel Elmer Ragay on administrative relief after issues on the legality of a recent rescue operation of the PNP’s Anti-Kidnapping Group (AKG) surfaced online. In a statement on Saturday, March 1, PNP chief Police General Rommel Francisco Marbil said an investigation into the said rescue operation was already underway. “ Bilang mga lingkod-bayan, dapat tayong maging bukas sa pagsisiyasat at tiyakin na ang ating mga aksyon ay sumasalamin sa pinakamataas na pamantayan ng integridad ,” Marbil said. “ Ang review na ito ay para malinawan ang mga pangyayari at mapatatag ang tiwala ng publiko sa PNP .” (As public servants, we should be open to being investigated and ensure that our actions reflect the highest standards of integrity. This review is being done to get a clearer picture of what happened and help the public trust the PNP.) Authorities rescued a 14-year-old international student who was abducted in a crime involving Chinese nationals with suspected links to the shuttered offshore gambling operations in the country. The boy was abducted on February 20 and rescued on February 25. He was picked up from school in Taguig City by their family driver, who ended up dead in another vehicle in Bulacan. Police said they were able to get pieces of evidence left in the abandoned family vehicle, such as IDs and mobile phone numbers. These allowed authorities to track the kidnappers using surveillance equipment. According to the PNP, there had been chatter online about the legality of the rescue operation, although it did not specify in its statement what issues were being raised. On top of their internal probe, the PNP assured that they would be cooperating with the Senate’s own investigation. The upper chamber initially scheduled a public hearing on March 3 into the “alleged rising kidnapping incidents in the country,” but according to the Senate website , this has been postponed. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ABS-CBN,Filipino celebrities,Tv Shows</t>
+          <t>POGOs</t>
         </is>
       </c>
     </row>
@@ -1338,25 +1338,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[Pastilan] Floods come, budgets swell</t>
+          <t>Arrest continues over scam farms despite Marcos' POGO ban</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/voices/thought-leaders/pastilan-floods-come-budgets-swell/</t>
+          <t>https://www.rappler.com/philippines/arrest-continues-scam-farms-marcos-jr-pogo-ban/</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45891.36858796296</v>
+        <v>45716.41112268518</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Sam Calleja/Rappler Candating, a riverside barangay in Pampanga’s 4th District, might look as though it has been singled out for some cruel fate. The people of that village in Arayat probably know the cycle by now: floodwater in their homes, mud in their lives. But what they should not have to endure is the further indignity of watching their plight converted into a feeding trough for corrupt people in government and their favored contractors. Senator Ping Lacson , consulting what might be called the ledgers of farce, laid out the numbers before the Senate. In 2018, he said, a slope protection in Candating was built for P20 million. Five years later, its repairs — not new construction, just repairs – cost P91 million. By 2024, the cost had swollen further to P183 million, as if this public works farce, when diced into smaller servings, could be mistaken for respectability. And then, Lacson added, another P100 million was waiting in the wings, halted only by Malacañang’s late intervention. One is tempted to ask: Do we call this “infrastructure”? No, this looks like an open-air theater of decay, staged with concrete props on a riverbank stage. The pattern is pitiless. The floods come, the walls crumble, and the budgets swell. One collapses, the other cashes in. And the same contractor, identified by Lacson as Eddmari Construction and Trading, keeps bagging the contracts. It seems Eddmari Construction has been everywhere, and not merely within the confines of the Department of Public Works and Highways (DPWH). The Pampanga-based firm has acquired a national footprint, appearing wherever there is ruin to be rebuilt or funds to be disbursed. Its record is hardly spotless: once delisted as an accredited government builder , it had six projects terminated by the National Housing Authority in 2018. That was, for all intents and purposes, an institutional rebuke not easily earned, though apparently just as easily forgotten. Yet Eddmari’s case shows that blacklisting in this country is more like a pause button than a stop sign. In 2019, or a year later, the Duterte administration awarded it with a P2.2-billion contract to demolish damaged structure and clear debris in war-torn Marawi City , through a “negotiated procurement” scheme that would be farcical if it weren’t so ruinous. A May 24, 2018 report by Karol Ilagan and Malou Mangahas of the Philippine Center for Investigative Journalism (PCIJ) noted that Eddmari had also apparently secured contracts to build transitional shelters in Marawi. The PCIJ’s analysis of PhilGEPS data showed that in 2017 alone, Eddmari ranked 9th among 325 NHA contractors, cornering at least P962 million worth of projects from just three contracts. PCIJ cited a November 16, 2017 report by the state-run Philippine Information Agency (PIA), which listed Eddmari as one of the firms building transitional houses in Barangay Sagonsongan in Marawi. Yet, based on that 2018 PCIJ report, no notices of award or bidding documents could be found on the “transparency” websites of the NHA, DPWH, PhilGEPS, or the local governments of Marawi City and Lanao del Sur. Fast forward to December 2024: the Bases Conversion and Development Authority (BCDA), under president and CEO Joshua Bingcang, awarded the same firm a P240.78-million contract for the construction of the Bangko Sentral ng Pilipinas Access Road in New Clark City within the Clark Freeport and Special Economic Zone. So it stands: a firm once blacklisted by the NHA reemerges, phoenix-like, in the government’s portfolio. It is an emblem of how impermeable, and how shamelessly durable, the system remains. Eddmari’s hometown ties are uncomfortably close to rulers of Pampanga’s 4th District. Its current congressional representative is Anna York Cristina Puyat Bondoc, whose family has controlled Pampanga’s 4th District with dynastic regularity since the late 1980s. The congresswoman’s father, Emigdio, held the post until his untimely death in 1997. Her brother, Juan Pablo, then assumed the seat until 2004, after which Anna herself took over until 2013. Juan Pablo returned from 2013 to 2022, even rising to House deputy majority leader during the Duterte administration, before Anna reclaimed the position in 2022. Anna now serves as vice chairperson of the House appropriations committee, a body that controls, among other things, the lifeblood of public works spending of the Marcos administration. Interestingly, the congresswoman’s husband, Jayson S. Sagum, is the mayor of San Luis, a municipality located in the district she represents. It so happens that Eddmari Construction, the firm that repeatedly wins projects in Pampanga and elsewhere, lists its office address in San Juan, San Luis. And it so happens, too, that Eddmari is run by one Edgardo A. Sagum. One is, of course, enjoined to avoid hasty conclusions. But one may be forgiven for asking questions, as one might when encountering a string of curious coincidences in any detective novel. Are we seriously expected to believe this is all mere coincidence? What emerges is a template for national dysfunction. Floods in Luzon. War in Marawi. “Development” projects scattered across the archipelago. The sequence never changes: catastrophe is declared, a favored contractor is summoned, contracts are padded, transparency evaporates, accountability vanishes, and the people remain no safer than before. We are told, without blushing, that these are infrastructure projects. Let us not pervert the language. Flood control that controls nothing but the flow of taxpayers’ money is not flood control. It is failure that has been built into the very system. Filipinos, not just the residents of Arayat, suffer not from heaven’s curse, but from a government that has domesticated disaster into a business model. In this country, ruin is more profitable – disaster is not a misfortune but an investment opportunity. Pastilan. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ARRESTED. The National Bureau of Investigation presents 20 foreigners allegedly involved in online scamming operations during a press conference in Pasay City on February 28, 2025. Jire Carreon/Rappler MANILA, Philippines – Despite the supposed ban imposed by President Ferdinand Marcos Jr., authorities arrested foreigners anew linked to Philippine offshore gaming operators (POGO) scamming. National Bureau of Investigation (NBI) Director Jaime Santiago said on Friday, February 28, that the bureau nabbed 20 foreigners for alleged violation of section 4(b)(1) (social engineering schemes) of Republic Act No. 12010 or anti-financial account scamming act (AFASA), in relation to RA No. 1075 or the cybercrime prevention act. The NBI did not release the names of the foreigners, but it said their operation stemmed from a complaint from the wife of a Chinese victim, who said her husband was being held against his will. The wife said her husband worked as a customer service representative for a POGO company, which operated under the trade name “LWE,” located in Aseana 3, West Tower, Parañaque City. Following the complaint, NBI operatives raided the company and rescued the victim. In the operation, the authorities nabbed the alleged captor, Liu Zhi Tao, also known as “Ren Jia.” While in the company, the NBI discovered that the POGO hub was fully operational and that foreigners were allegedly engaged in online scamming activitiez. This led to the arrest of the 20 foreigners, including Ren Jia, who faces an additional illegal detention case. The foreigners have already undergone inquest proceedings before the Parañaque City prosecutor’s office. Inquest is a special type of preliminary investigation because it can only be applied to people arrested without warrants. In warrantless arrests, nabbed individuals must be charged within 36 hours, based on rules. In the early days of POGO raids, arrested ordinary POGO workers were held under government custody, and later deported, while the big bosses were slapped with harsher cases like serious illegal detention and money laundering. What the NBI filed against the Parañaque POGO workers was a relatively new law, signed by President Ferdinand Marcos Jr. only in July 2024. It was part of the priority measures of the Legislative-Executive Development Advisory Council or the President’s priority bills. Under AFASA, banks and other financial institutions are mandated to implement necessary security measures and fraud management systems to secure their clients’ accounts. The new law also gives the Bangko Sentral ng Pilipinas the power to probe and inquire into financial accounts that may be involved in alleged illegal activities. AFASA gave the Central Bank a free pass from rules on bank secrecy and data privacy in investigating bank accounts, e-wallets, and other financial accounts suspected to be involved in alleged crimes. In his third State of the Nation Address, Marcos announced his government’s total ban on POGOs , a 180-degree turn from the policy of his predecessor, Rodrigo Duterte, who embraced the Chinese-linked enterprise. Marcos ordered the ban amid the successive raids on these gaming operators linked to a pile of crimes, like trafficking, money laundering, and illegal detention . Under the order, the Philippine Amusement and Gaming Corporation was tasked to wind down and cease POGO operations by the end of 2024. But despite this ban, arrests still continue. Just a few months after Marcos’ directive, the Presidential Anti-Organized Crime Commission (PAOCC) raided a scam hub in Pasay City in October 2024 , located just beside the World Trade Center. The people behind POGOs also appear to find ways to circumvent government policies as they still exist despite the crackdown. PAOCC director Winnie Quidato revealed during a Senate hearing in November 2024 that some big POGO companies are splintering into smaller groups, with some branding themselves as business process outsourcing companies to continue their operations. Some POGOs are now operating in smaller units which appear to be guerrilla groups . “So they employ different styles but most of them are becoming guerrilla groups working in 10s, 20s, whereas before they were operating in thousands. So just like what we found in Parañaque when we raided the Parañaque group, we saw a subdivision where POGOs occupied 45 houses within the subdivision,” Quidato said. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BCDA,Budget Watch,Central Luzon,Clark Freeport Zone,DPWH,flood,flood control,Marawi rehabilitation,National Housing Authority,Philippine infrastructure</t>
+          <t>Ferdinand Marcos Jr.,National Bureau of Investigation</t>
         </is>
       </c>
     </row>
@@ -1366,25 +1366,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>OPPO Reno14 Series 5G now available nationwide</t>
+          <t>Imee Marcos, Lito Lapid are banned from Panagbenga parades | The wRap</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/brandrap/oppo-reno-14-series-5g-release/</t>
+          <t>https://www.rappler.com/video/daily-wrap/february-27-2025/</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45891.34430555555</v>
+        <v>45715.55309027778</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Editor’s note: This press release is sponsored by OPPO and was handled by BrandRap, the sales and marketing arm of Rappler. No member of the news and editorial team participated in the publishing of this piece. The OPPO Reno14 Series 5G is now officially available in the Philippines, bringing next-level AI-powered imaging and creator-ready performance to anyone who wants to capture, connect, and share more. Built with powerful AI features and a design that puts creators first, the OPPO Reno14 Series 5G is your all-in-one creative companion. Still deciding if this is your next content device? Here are five reasons why. Low-light is no longer a problem. The OPPO Reno14 Series 5G’s Ultra-Clear Low-Light Camera System, plus a 3-Flash Design, delivers bright, sharp, natural-looking images in difficult lighting. Expect clean portraits and crisp Livephoto captures without harsh glare. Skip complicated post-production. AI Editor 2.0 creates quick, polished cuts using scene recognition. AI Recompose helps you fix framing and balance in a few taps, so your focus stays on the story. Take the shot where most phones stop. Rated IP66, IP68, and IP69, the OPPO Reno14 Series 5G lets you record 4K videos underwater. Use Underwater Mode for stable, clear footage during freshwater trips and pool sessions. Sometimes the best moments happen from a distance. The OPPO Reno14 Pro 5G features a 50MP telephoto lens with a dedicated flash that lets you zoom in closer without sacrificing detail, even in low light. From concerts to cityscapes, every capture is sharp and vibrant. Your #MainZoomMoment every time. From creators building their next reel to everyday users saving life’s milestones, the OPPO Reno14 Series 5G unlocks new possibilities with smooth performance, durable design, and creator-focused AI. It’s a phone that keeps up with your lifestyle and elevates your storytelling. Find the OPPO Reno14 Series 5G in all authorized OPPO Brand Stores and official OPPO online stores in Shopee , Lazada , and TikTok Shop . Redeem a limited-edition Make Your Moment carry-on and sticker set at select OPPO stores while supplies last. This is your moment. Capture it without limits with the OPPO Reno14 Series 5G. Visit www.oppo.com/ph/ or follow OPPO Philippines on Facebook , YouTube , and TikTok . – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: The Panagbenga ‘Politicians’ will now be banned from joining Baguio’s flower festival, whether it’s an election year or not. Authorities say a kidnapped foreign student of an international school was rescued Tuesday night, February 26. The kidnapper left the child in the middle of a street in Parañaque City. The Vatican says Pope Francis has shown ‘further, slight improvement’ in his health condition. It is seen as a sign of progress as the 88-year-old Pope battles double pneumonia. Delegates walk out of Russia’s speech to the UN Human Rights Council in Geneva on Wednesday, February 26, in support of Ukraine. American actor Michelle Trachtenberg, known for her roles in the ‘Buffy the Vampire Slayer’ and  ‘Gossip Girl,’ passed away on Wednesday, February 26. -Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>consumer electronics,electronics and gadgets,Oppo</t>
+          <t>American actors,Lito Lapid,POGOs,Pope Francis,Russia-Ukraine crisis,United Nations</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1394,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Negros Island’s first public cancer care hub opens in Bacolod</t>
+          <t>Foreign student of int'l school kidnapped, rescued in crime involving ex-POGOs</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/philippines/visayas/negros-island-region-first-public-cancer-care-hub-opens-bacolod-city/</t>
+          <t>https://www.rappler.com/philippines/student-international-school-kidnapped-rescued-crime-involving-pogos/</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45891.34392361111</v>
+        <v>45714.52866898148</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CANCER CARE HUB. The Cancer Care Center is inaugurated in Bacolod City. It is the first government-run cancer hub in the Negros Island Region. Ambo Delilan/Rappler NEGROS OCCIDENTAL, Philippines – A government-run cancer care center in Bacolod City has opened its doors, offering what doctors and patients say is a lifeline for thousands battling the disease in the Negros Island Region (NIR). The Corazon Locsin Montelibano Memorial Regional Hospital (CLMMRH) inaugurated its P35 million Cancer Care Center (CCC) on Wednesday, August 20, the first public facility of its kind in the Negros Island Region (NIR). For patients like Nena (not her real name), a 48-year-old government employee battling Stage 2 breast cancer, the center brings hope closer to home. “I know this is no easy journey. Money is one among the challenges, but I have no choice. I have to face this reality, but I am determined as well to ace the battle,” she said. “Cancer, as I was told, is treatable. Thus, this CCC is a boon for us, more so with the poor or jobless ones, who are also having a silent battle against ‘Big C’ like us.” Dubbed the “Home of Hope,” the two-story facility can accommodate up to 40 cancer patients daily and is equipped for intravenous chemotherapy, biopsies, lumbar punctures, intrathecal chemotherapy and child life services. “This is much, much better compared to the usual six beds within the main hospital since we started offering chemotherapy in 2022,” said Dr. Norman Cabaya, an oncologist and focal person for the CCC. Radiotherapy is not yet available, but Cabaya said patients are referred free of charge to the Riverside Medical Center under a partnership agreement. Cabaya said they were waiting for funding approval from the Department of Health for radiotherapy service at CCC. “But, for sure, it will be soon,” he said. Dr. Joan Cerrada, CLMMRH chief, said the center aims to provide affordable treatment accessible through the Cancer Assistance Fund, PhilHealth’s Z-Benefit packages, and the Cancer and Supportive-Palliative Medicines Access Program (CSPMAP). Since March, 500 cancer patients have received support under CSPMAP, 1,000 through the Cancer Assistance Fund with up to P150,000 each, and 100 under the Z-Benefit packages. PhilHealth’s Z-Benefit packages cover breast cancer (up to P1.4 million), cervical cancer (P120,000), colon cancer (P150,000 to P300,000), rectal cancer (P150,000 to P400,000), prostate cancer (P100,000), and acute lymphocytic and lymphoblastic leukemia (up to P500,000), according to PhilHealth-Bacolod head Edgar Yocariza. Lung cancer, however, is not yet included despite being among the most prevalent types. Cancer is the second leading cause of death in the country after heart disease, according to the DOH. The Philippine Statistics Authority (PSA) reported 69,909 cancer deaths nationwide in 2023 and 42,870 from January to September 2024. Bacolod Mayor Greg Gasataya said the facility would serve the Negros Island Region, and not just residents of the city. Health officials said the CCC is designed to expand access to treatment in Negros Occidental, Negros Oriental, and Siquijor. “CLMMRH, as our regional apex hospital, must not only treat patients within its walls; it must also cultivate a network that ensures no cancer patient is left behind,” said DOH-NIR Director Razel Nikka Hao. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RESCUED. Interior Secretary Jonvic Remulla and two other police officials brief the media in Malacañang on the kidnap-for-ransom case of a senior high student of an international school rescued on February 25, 2025. Presidential Communications Office FB MANILA, Philippines – A foreign student of an international school in the Philippines lost part of his right pinky finger after he was abducted last week in a crime involving Chinese nationals who used to be engaged in now-shuttered offshore gambling operations in the country. Authorities announced on Wednesday, February 26, that the student of a “prestigious” international school in upscale Bonifacio Global City in Metro Manila was rescued by the Philippine National Police (PNP) Anti-Kidnapping Group (AKG) on Tuesday night after the kidnappers, with the cops closing in on them, decided to leave the child on the middle of a street in Parañaque City. The child was wearing pajamas and his right hand bandaged when rescued. A local Chinese newspaper in Manila had initially reported the child to be a 14-year-old male Malaysian-Chinese and a senior high school student of a British school in Taguig City. The paper later took down the report and authorities have not confirmed these details. Information from a leaked letter from the school’s principal said the victim was a “senior school student.” The boy was abducted at 3:45 pm on Thursday, February 20, after his class was dismissed at 2:40 pm and was picked up by the family driver using their Ford Everest SUV. The driver was found dead in another vehicle by authorities a day later or Friday in San Rafael town in Bulacan province, north of Metro Manila. Police obtained pieces of evidence left in the abandoned vehicle such IDs and mobile phone numbers. These allowed authorities to track the kidnappers using surveillance equipment. In a press briefing in Malacañang, Interior Secretary Jonvic Remulla said a $20-million ransom was initially demanded by the kidnappers who later brought it down to $1 million. He said that the child’s parents did not give in and that no ransom was paid in the end even though the kidnappers, days after the kidnapping, sent them a video of the child’s right pinky finger being partially severed using scissors. After the gruesome video was sent, negotiations continued between the kidnappers and the parents who then demanded proof of life. The kidnappers then sent another video of the boy, his right hand heavily bandaged, singing the favorite song of his younger sibling. Remulla said they suspect that those behind the kidnapping used to be involved in Philippine offshore gaming operators or POGOs which President Ferdinand Marcos Jr., in his State of the Nation Address last year, ordered shut down by end of 2024. “We suspect na ang biktima ay galing sa pamilya na nag-ooperate ng POGO dati (We suspect that the victim is from a family that used to operate a POGO),” he said. The kidnappers communicated in Chinese with the parents through the Chinese social media app, WeChat. “So, this is not a Philippine enterprise. It’s a criminal gang that is an offshoot or remnants of a POGO operation here,” he said. Asked whether there were other motives, Remulla said: “It’s just money. There’s no revenge. It’s really just a crime syndicate.” He also revealed that the perpetrators used their former bodyguards who were rogue members of the Armed Forces of the Philippines (AFP) and the PNP who had gone on AWOL (absent without leave) and are no longer in service. Remulla said the President instructed them to go after the members of the kidnapping syndicate so that justice would be served to the family. He said the AKG team had a choice of rescuing the abandoned victim or going after the kidnappers, and decided to secure the child and bring him to his father. “ Yung bata ay matapang, ‘di siya umiiyak, masayang nakita ang kanyang magulang (The child is brave, he/she was not crying and was happy upon seeing his/her parents),” Remulla, who did not disclose whether the child was a boy or girl, said. Police officials said the syndicate was also involved in previous kidnap cases involving mainly Chinese and had operated in central and northern Luzon. Senator Win Gatchalian, who has been involved in probing POGOs along with Senator Risa Hontiveros, said the incident was “a loud wake-up call for schools to tighten security and protect our learners at all costs.” He reiterated his call for the “critical and urgent need to wipe out POGOs once and for all.” “Communities, parents, and local government units must unite to ensure that no child falls victim to these crimes ever again….We cannot and must not allow their criminal operations to continue spreading fear, lawlessness, and danger in our communities,” he said.  In an interview with GMA News, Chinese-Filipino civic leader and anti-crime fighter Teresita Ang-See expressed shock over the “very sadistic type of kidnapping.” “It’s a very inhumane way of treating the victim and we have never encountered that before,” See, founder of the Movement for the Restoration of Peace and Order, said. She also said that the victim’s family driver used to work in a big POGO business in Clark, and that the driver had been with the boy’s family for only a month. She alleged it was the driver who gave information to the suspected syndicate so that they would be able to kidnap the boy. Remulla confirmed See’s information on Thursday. “He [driver] was in cahoots with the perpetrators of the crime. He was part of the syndicate,” the interior secretary told ABS-CBN, citing evidence found in the driver’s mobile phone. See, however, in an interview with ABS-CBN, said she does not believe that the victim’s parents’ were previously involved in POGOs. “They are not involved in any POGO business. It was the driver, the tipster, who conducted the kidnapping himself,” she said. “It was POGO-related in so much as the driver was an ex-POGO driver in Clark. So, he needed income, he was persuaded [by the syndicate], ‘So why don’t you look for potential victims?’” See said kidnapping cases were on the rise following the shutting down of POGOs, and that most of the perpetrators are still the Chinese syndicates. See lamented that government has been caught “flat-footed” after ordering the shutdown of POGOs, and that the police force is now spread too thin, especially following the start of the national campaign period for the May 12 mid-term elections. “ Hindi sila (They’re not) prepared what to do. Mga Filipino drivers are without jobs. [It’s] Not just the Chinese [who] are without jobs,” See said. Police Colonel Elmer Ragay, director of the PNP AKG, said in the Palace briefing there were 32 kidnapping incidents last year with a solution rate of 25%. There have been 8 kidnapping incidents so far in 2025, five of which have been solved. Remulla attributed the new kidnapping cases to the closure of POGO operations which deprived syndicates of a “lucrative” livelihood. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cancer,Department of Health,diseases and ailments,hospitals in the Philippines,Negros Island Region,public health</t>
+          <t>crimes in the Philippines,DILG,education in the Philippines,gambling,kidnapping,Philippine National Police</t>
         </is>
       </c>
     </row>
@@ -1422,25 +1422,6037 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Binay father and son acquitted in Makati car park building cases</t>
+          <t>Philippines is off the financial 'gray list' — but at what cost to human rights?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.rappler.com/philippines/metro-manila/jejomar-binay-father-son-acquitted-makati-car-park-building-cases/</t>
+          <t>https://www.rappler.com/newsbreak/explainers/philippines-off-financial-gray-list-cost-human-rights/</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45891.33361111111</v>
+        <v>45712.33256944444</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MAYORS BOTH. Then-Makati mayor Junjun Binay greets his father, then-vice president Jejomar Binay, after the latter files his certificate of candidacy for president on October 12, 2015. Rappler MANILA, Philippines – The anti-graft court Sandiganbayan has cleared former vice president Jejomar Binay and his son Jejomar Jr. (Junjun), both ex-mayors of Makati City, of graft, falsification of public documents, and malversation of public funds over the allegedly overpriced car park building at city hall. Also acquitted on Friday, August 22, were the Binays’ co-accused, including 20 city government officials and two private contractors: Efren Canlas of Hilmarc’s Construction Company and Orlando Mateo of Mana Architecture and Interior Design. The Sandiganbayan said their guilt were not proven beyond reasonable doubt. The car park building, worth P2.2 billion, consisted of five phases. The first three were implemented when Jejomar Sr. was mayor, and the last two when Junjun succeeded his father, who had since been elected vice president in 2010. In 2015, a year before the presidential poll, a prolonged Senate investigation into the project was widely believed to have dragged down Jejomar Sr.’s earlier lead in pre-election surveys for president. – Rappler.com How does this make you feel? </t>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. STOP ATTACKS. Human rights advocates, labor leaders, and development workers from ADI, CERNET, NUPL Cebu, and Bayan Central Visayas speak to the media during a press conference in Cebu City on May 17, 2024. Jacqueline Hernandez/Rappler The Philippines is finally off the world’s financial “gray list ,” which for years, has been said to limit trade and transactions for Filipinos. But there is growing concern that persecuting human rights defenders was — and will be — used by the Philippine government to keep this status. The Philippines was put on the Financial Action Task Force (FATF) gray list in 2021, which branded the country as being unable to stop or track illicit financial flows — whether in terrorism or dirty money — through scams and illegal gambling. The government wanted to be taken off that list by 2024, but failed in its bid in light of money laundering red flags from casino junkets, which are connected to scandals involving Philippine offshore gaming operators (POGOs). At the opening of 2025 – we were off that list, but how? Did we solve our money laundering problems? Did we solve our terrorism problems? According to the human rights community, it’s because the government filed a slew of terror-financing cases against human rights defenders and progressive nongovernment organizations or NGOs. “Philippine authorities appear to be stepping up terrorism financing prosecutions to get off of FATF’s ‘grey list’ and its potential financial cost. This seems to be the government’s latest bad reason to bring baseless charges against civil society groups and activists in violation of their rights,” Bryony Lau, deputy Asia director at Human Rights Watch (HRW), said in a statement. There was a 371% increase in terror financing complaints filed by the government in 2024, said the National Union of Peoples’ Lawyers (NUPL) and the Council for People’s Development and Governance (CPDG). “These criminal charges target officers and members of people’s organizations and their networks engaged in human rights and disaster-preparedness training, agrarian reform advocacy, environmental protection, and the delivery of humanitarian and development aid in conflict areas,” said the NUPL Panay chapter in a statement. The Philippine Center for Investigative Journalism (PCIJ) obtained a police memorandum about a case buildup for terror financing against an activist. The memorandum, which came from a regional chief of the Criminal Investigation and Detection Group, referenced the operation to “Project ‘Exit the Greylist.'” The group of human rights lawyers also criticized the FATF for not involving civil society organizations (CSOs) in its processes, calling the intergovernmental body potentially “disastrous for the people of those countries” it reviews. “FATF recommendations lack human rights and humanitarian safeguards that could effectively restrain authoritarian abuse,” said NUPL Panay. The FATF was established in 1989 by the G7 countries — Canada, France, Germany, Italy, Japan, the United Kingdom and the United States. It has grown into a body of 40 members, with 200 countries committing to be measured by its standards, and pledging to implement recommendations. Its mandate, in simple terms, is to protect the world from money laundering and terrorism financing. Countries take the FATF list seriously because they can then use it as leverage for their trade and other transactions. Malacañang said this latest “milestone” benefits Overseas Filipino Workers (OFWs), which projects the FATF as a universally-accepted glowing standard for financial systems. But in the global human rights community, FATF has been flagged for years now as a potential tool of repressive governments. “The Task Force lent a veneer of legitimacy to States that, without due respect for their international human rights obligations, turned soft law to hard law by implementing the provisions of recommendation through wholesale measures that strictly regulate civil society,” said the 2019 report of the United Nations Special Rapporteur on the promotion and protection of human rights and fundamental freedoms while countering terrorism. In 2021, a Reuters investigation found that in countries like Uganda, Serbia, India, Tanzania, and Nigeria, FATF recommendations were used as justification to pass laws that, in turn, were used to investigate journalists and human rights defenders. In 2023, FATF responded to these criticisms by revising one of its recommendations (‘Recommendation 8’) so that it now advised countries to think of “proportionate and risk-based measures” in investigating NGOs it suspected to be terrorism conduits. But for HRW, the damage has been done because the Philippine government has already drafted its 2023-2027 national strategy against money laundering and terrorism financing. The result of the strategy was, as HRW said, the prosecution by government using testimonies of alleged rebel defectors — “the same flimsy evidence that the military and the police have long used in politically motivated prosecutions of leftist human rights, environmental, and Indigenous activists, religious workers, journalists, and others.” “FATF should not stay silent while the government is misusing its terrorism financing recommendations to harass civil society groups and activists,” HRW’s Lau said. – Rappler.com How does this make you feel? </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Corruption in the Philippines,Jejomar Binay,LGUs in the Philippines,National Capital Region,Sandiganbayan</t>
+          <t>finance industry,human rights defenders,money laundering,Philippine anti-terrorism law,POGOs,terrorism</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Duterte-allied PDP-Laban Senate bets kick off campaign | The wRap</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/february-13-2025/</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45701.59131944444</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Candidates heat up the Senate race with simultaneous sorties Thursday, February 13. The House quad committee clears the suspended officials of Porac, Pampanga of wrongdoing in connection with illegal offshore gaming operations or POGO. Celebrity doctor Willie Ong withdraws from the 2025 senatorial race due to health concerns. President Ferdinand Marcos Jr. on Thursday, February 13, appoints Vivencio ‘Vince’ Dizon as the new Transportation secretary, starting February 21. A Pasay court dismisses actor Sandro Muhlach’s complaints of acts of lasciviousness against GMA independent contractors Jojo Nones and Richard Cruz, he accused of rape. -Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ferdinand Marcos Jr.,POGOs,Rodrigo Duterte,Vince Dizon,Willie Ong</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>House quad comm clears Porac officials in Lucky South 99 probe</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/house-committee-clears-porac-officials-lucky-south-99-probe/</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45701.09141203704</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CLEARED. Suspended Porac, Pampanga officials led by Mayor Jaime Capil shows copies of a House panel certification clearing them of any involvement in illegal POGO operations, during a press conference in Angeles City on Wednesday, February 12, 2025. Joann Manabat/Rappler ANGELES, Philippines – The House of Representatives’ quad committee on Tuesday, February 11, cleared suspended Porac, Pampanga Mayor Jaime Capil, along with the vice mayor and four councilors, of any wrongdoing in connection with illegal offshore gaming operations in their town. The certification was signed by House quad committee chairperson and Surigao del Norte 2nd District Representative Robert Ace Barbers after the panel’s investigation into illegal activities involving Philippine offshore gaming operators (POGOs), including Lucky South 99 in Porac. “In so far as our exhaustive investigations done in aid of legislation regarding the POGO, being undertaken by the joint committee in the House of Representatives especially on illegal POGO operations in Porac, Pampanga, more particularly on the illegal operations of Lucky South 99 , we found no involvement whatsoever nor any wrongdoing committed by Mayor Jaime V. Capil,” read part of the certification. Also cleared were suspended Vice Mayor Francis Laurence Tamayo and councilors Rafael Canlapan, Adrian Carreon, Essel Joy David, and John Nuevy Venzon. Barbers told Rappler, “Those are our findings. But that does not preclude the agencies such as PNP or NBI from conducting their own investigation. We didn’t see anything. We cannot decide and write a committee report based on presumptions.” For his part, Capil told a news conference on Wednesday, February 12, “ We are happy. This is a vindication on our part. You know what our team went through. It’s a relief to us. We are not involved in any illegal operations of POGO. This has a big impact, especially on our constituents. This will prove that we didn’t do anything wrong. This is the answer to what they were all saying.” Capil said he regularly attended hearings called by the quad committee, in the Senate, and in the provincial government, and has never been cited for contempt. He said he was only absent once, due to his town’s fiesta celebration. The certification comes ahead of the start of the election campaign period for local candidates. Capil is seeking a third term alongside his daughter, Trisha Angelie, who is his running mate. Capil and the other local officials remain suspended, though. He said he has yet to meet with his legal team to seek the lifting of their suspension based on the clearance issued by the House quad committee. In October 2024, the Office of the Ombudsman issued a preventive suspension order against the officials, including the late councilor Regin Clarete, who passed away in May 2023. Clarete was replaced by his sister, Myla Clarete, who is now the acting mayor while Capil serves his six-month suspension. The Porac officials were accused of gross neglect of duty in connection with POGO operations, with the Department of the Interior and Local Government (DILG) alleging that they failed to act on reports of criminal activity at Lucky South 99, which was raided over human trafficking allegations. They were also accused of overlooking business permit irregularities, allowing licenses to expire, and ignoring warnings about the operation’s legality. In October, the Ombudsman said there were sufficient grounds to hold that the evidence of guilt is strong against the officials. The interior department alleged that the officials failed to act even after Lucky South 99’s license from the Philippine Amusement and Gaming Corporation (PAGCOR) expired. The DILG also said the officials did not respond to reports of criminal activity at the establishment, and several validation requests and letters from the Philippine National Police detailing allegations of serious illegal detention, cybercrime, and prostitution went unaddressed. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>crimes in the Philippines,House of Representatives,human trafficking,LGUs in the Philippines,Pampanga</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PH authorities crack down on lending apps that have 'ties' to Chinese scammers</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/crack-down-lending-apps-ties-chinese-scammers/</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45688.50725694445</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RAID. The National Bureau of Investigation, Presidential Anti-Organized Crime Commission, and Securities and Exchange Commission raid an online lending company in Makati City on January 31, 2025. Jairo Bolledo/Rappler Trigger warning: Mentions of suicide MANILA, Philippines – Philippine authorities started a renewed crackdown on online lending applications (OLA) that have alleged connections to Chinese scammers. “ Meron kasi [kaming] tinitignan dito na may possibility na ‘yong ibang mga dating nag-o-operate ng POGO is nag-switch na sa ganitong loan scamming (We’re looking at the possibility that those who previously operated POGOs had already switched to these types of loan scamming),” Presidential Anti-Organized Crime Commission (PAOCC) Executive Director Gilbert Cruz told reporters on Friday, January 31. “ May mga nahuli na kasi tayo before na nagpapatakbo [ay] mga Chinese nationals. So, we will be checking on this grupo na ‘to, kung ito is the same group na involved before. Kasi ‘yong mga una namin na na-check, mga grupo rin sila na mga magpo-POGO e ,” the PAOCC chief added. (We raided some lending businesses before that were run by Chinese nationals. So, we will be checking on this group if this is the same group that was involved before. Because the first ones that we checked are groups involved in POGOs as well.) “ Aware naman po kami na karamihan po sa operator ng OLA ay mga Chinese operators po. At ang sakit po noon na sila po nakikinabang sa mga Pilipino, pero ang mga trabahador nila, Pilipino rin na kapwa namin, [ang] nangha-harass (We are aware that most of the OLA operators are Chinese. It’s painful because they benefit from Filipinos’ money, and their employees are Filipinos who harass their fellow Filipinos),” Kikay Bautista of the United OLA Victims Movements said. Through search warrants issued by the Makati Regional Trial Court Branch 147, the National Bureau of Investigation (NBI), PAOCC, and the Securities and Exchange Commission (SEC) raided WeWill Tech Corp. in Makati City. The authorities said that through Filipino employees, the corporation harasses its clients who have loaned money from applications Peso Wallet App and Credit Cash App. Of the 131 Filipino employees apprehended in the company’s Makati office, those proven to have been involved in harassment would be held under custody and subjected to inquest proceedings . Inquest is an expedited version of a preliminary investigation done if the subjects were arrested without an arrest warrant. According to the rules, subjects should also be charged with a crime in less than 36 hours under inquest. “ Sobrang lala na po. Marami na pong ‘yong mga [nagtangkang] magpakamatay…. Nasira ‘yong buhay, ayun po, nagkaroon ng depression. Kaya sobrang lala na talaga at kailangan nang simulang puksain ‘yong mga ganitong klaseng online lending application ,” Ric Espino of the NBI Anti-Organized and Transnational Crime Division, told reporters. (It’s become too much. Because of these applications, many people have committed suicide. Some lives were destroyed, too, while some people suffered from depression. It’s too much, and that’s why we need to crack down on these types of lending applications.) The NBI said the apprehended individuals might face cases for alleged violation of the Data Privacy Act and for cyber libel, among others. Catherine (not her real name) witnessed the NBI, PAOCC, and SEC’s joint operation on Friday. She was among the victims of the raided corporation. Aside from the harassment, victims like Catherine raised the alarm over the firms’ excessive loan interests. In her case, she originally loaned P20,000, but after signing up, it became P1,500. In the end, only P900 went into her account, but she was still forced to pay the whole amount of P20,000. She had a week to pay off her debt. But even before her due, she already started experiencing harassment from the firm: “ Tine-text po nila ‘yong pamilya ko, pakisuyo daw na kausapin ako kasi scammer daw po ako. Nakakahiya po kasi hina-harass po ako e. Nakakatakot po, lalo na sabi po nila ‘yong patong na daw po ako sa ulo. Tapos pupuntahan daw po sa bahay, pati po ‘yong pamilya ko .” (They were texting my family, telling them that they should talk to me because I was a scammer. I was ashamed because I was being harassed. I was also afraid, most especially when they told me I had a bounty on my head and that they would also come for my family.) Espino said that just like in previous cases of hostile lending companies, the subject of their warrant also asked their clients for access to the list of contacts and even the phone’s photo gallery. There were times, according to the NBI official, that some clients were blackmailed using private photos accessed through their phones. Cruz said the loan’s interest was around 35% per week, dragging victims down under more debts. According to the PAOCC, there are five stages of harassment that victims endure from online lending applications: – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Makati City,National Bureau of Investigation,POGOs,SEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[WATCH] Rappler Investigates: The deep web of POGOs</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/podcasts-videos/documentary-investigates-deep-web-trail-pogos/</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45688.28459490741</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">From Alice Guo , Rappler followed the paper trail of Philippine Offshore Gaming Operators ( POGOs ) and found layers and layers of companies that extend to a transnational scam network. Together, the ring leaders of this network brought in hundreds of thousands of offshore gaming workers. More than 10,000 of them have already been deported due to the total POGO ban. In one case, a scam farm raided in the Isle of Man turns out to have set up shop in the Philippines first. With a license to transact business, one of their officers registered an address in Clark, Pampanga, near Sun Valley, one of the first scam farms to be raided. Sun Valley’s incorporators include the children of a prominent Chinese gaming tycoon, who also own the Island Cove POGO in Cavite. The full scope of the network is yet to be seen, but one thing for certain — the problem did not start, and will not end, with Alice Guo. Watch this documentary. – Rappler.com Reporter: Lian Buan Producer: Cara Angeline Oliver Videographers: Ulysis Pontanares, Franz Lopez, Errol Almario Video editor: Jaene Zaplan Graphics and animation: David Castuciano, Nico Villarete Associate producer: JC Gotinga Supervising producer: Beth Frondoso Investigative head: Chay Hofileña How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Alice Guo,Ferdinand Marcos Jr.,gambling,gaming,investment scams,online scams,Rodrigo Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Hontiveros on grant of PH citizenship to Li Duan Wang: ‘Hindi pa ba tayo natuto?’</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/hontiveros-statement-chinese-businessman-li-duan-wang-filipino-citizenship/</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. OPPOSITION SENATOR. Senate Deputy Minority Leader Risa Hontiveros explains her vote against granting Filipino citizenship to Chinese businessman Li Duan Wang on January 27, 2025. Senate PRIB MANILA, Philippines – With a vote of 19-1, the Senate on Monday night, January 27, approved a bill granting Filipino citizenship to Chinese businessman Li Duan Wang, despite serious concerns raised by Senate Deputy Minority Leader Risa Hontiveros . In her explanation of her no vote to the bill granting Filipino citizenship to Wang, Hontiveros reiterated the “huge red flags” that she had raised during her interpellation of House Bill No. 8839, which was sponsored by Senator Francis Tolentino. She said ignoring these questions would mean that lawmakers failed to learn from the experience with dismissed Bamban mayor Alice Guo . The opposition senator enumerated the points she had previously raised that, she believed, should have been enough to deny Wang Filipino citizenship: “Hindi pa ba tayo natuto sa panloloko ni Guo Hua Ping, alias Alice Guo, o kay Yang Jianxin, alias Tony Yang? Hindi pa ba tayo nadala sa mga abusadong dayuhang nagpanggap na Pilipino para pagkakitaan ang taumbayan at dungisan ang ating mga sistema?” Hontiveros asked. “Susugal pa ba tayo muli sa isang taong ikinubli sa Kongreso ang kanyang mga kaduda-dudang kaugnayan?” She added. (Haven’t we learned from the deception of Guo Hua Ping, alias Alice Guo ? Haven’t we learned from the abusive foreigners who pretended to be Filipinos to make money out of our people and taint our system? Should we again gamble on a person who hid his questionable connections from Congress?) Hontiveros clarified that she has not deemed Wang guilty of any crime but she believed that these red flags were enough for Congress not to grant him Filipino citizenship that easily. She said Wang, instead, should be investigated. “Sa buong paniniwala ko, ang nararapat gawin ng gobyerno ay imbestigahan si Li Duan Wang — hindi magpasa ng batas para ituring siyang isa sa atin,” she said. (It is my belief that what the government should do is to investigate Li Duan Wang — and not pass a law that would make him one of our own.) – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Alice Guo,Francis Tolentino,POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>'Spies' and spas: How PH is doubling down on 'red flag' Chinese investors</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/explainers/how-philippines-doubling-down-red-flag-chinese-investors/</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45683.14583333334</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ESPIONAGE. Avia International Club is a leisure club being linked to the Yatai Spa, which has raised suspicions it is being used for espionage. Screenshot from the Yatai website In Newport City in Pasay, there is a spa that offers a buffet, which Philippine undercover informants have been monitoring. It’s part of a still unsolved puzzle of China’s alleged infiltration, and even possibly cyber attacks, against the Philippines through spies and influence agents disguising as investors. So when a Chinese businessman’s application for Filipino citizenship reached the Senate (as citizenship grants have to be enacted by law), Senator Risa Hontiveros sounded the alarm that one of the businessman’s companies was in the same building as that spa. The spa in Newport has markings of Yatai. Although Yatai — which literally means “Asia Pacific” — is a common brand name for the Chinese, Hontiveros had said before that there is reason to believe this is the She Zhijiang -owned Yatai International Holding Group. This Yatai group is what global operatives have identified as being behind alleged crimes like human trafficking and cyber fraud. It’s why the Chinese-born She is wanted in China, detained in Thailand, and sanctioned by the United Kingdom. She, who also holds a Cambodian citizenship, has confessed to being a spy for China, and has accused Alice Guo of being a fellow spy, which the disgraced former Bamban, Tarlac mayor has denied . The spa ad also has the markings of a “9 dynasty group,” which, according to the Presidential Anti-Organized Crime Commission (PAOCC), has the same incorporators as the offshore gaming firm SA Rivendell Global Gaming Corporation in Pasay City, that was raided in August 2023. The Chinese businessman wanting a Filipino citizenship is Li Duan Wang aka Mark Ong, who owns Avia Leisure Group that operates KTVs, lounges, coffee shops, etc. Its main business is to provide leisure spaces to high-rollers who are part of a junket. Junket in the gambling world means an organized trip for VIP players to casinos in a foreign country — it’s like a holiday package, with accommodation and entertainment. Hontiveros said that Ong’s leisure club has “exclusively Chinese clientele” with no walk-ins allowed. Ong’s Avia used to be a floor above the Yatai spa. Defending Ong, Senator Francis Tolentino said during the citizenship hearing on January 20 : “I think the mere presence of a company which, after occupying premises should not blot or involve a subsequent or a prior lessee in concluding that the presence of said entity of ill-repute can tarnish the other tenants.” Hontiveros also questioned why the 9 Dynasty junket group listed Ong as the operator, and Avia as the address. Tolentino said: “ Ang nangyayari po, Mr. President, nagdadala lang siya ng player. ‘Yun po ‘yung kanyang naging role doon, pero hindi siya ang may-ari nitong 9 Dynasty .” (What happens Mr. President is that he brings in players, that’s his role, but he does not own 9 Dynasty.) Hontiveros said Ong did not disclose in his citizenship applications his ties to Avia and 9 Dynasty. It also worried Hontiveros that Yatai advertises Avia as its subsidiary. Ong likewise declared himself a Filipino when they registered Avia in the Securities and Exchange Commission. Tolentino described this as unintentional omission. “You cannot be a Filipino citizen while applying to be one. Both facts cannot be true at the same time. This clear lie already suggests bad faith on the part of the applicant,” Hontiveros said. Ong became more suspect to Hontiveros because of a photo showing him with Duanren Wu, the owner of the real estate company in Porac, Pampanga that hosted the alleged POGO scam farm raided in 2024. Wu is evading criminal investigations here. “It should not inspire confidence in us senators that [Ong] is an associate of a fugitive and a POGO boss embroiled in human trafficking . Sana suriing mabuti ng mga kapwa ko senador itong background ni [Ong] kasi nagwawagayway ang mga red flag ng aplikante ( I hope my colleagues closely examine Ong’s background because the red flags are up),” Hontiveros said. “Guilt cannot be inferred solely by association, photographs, or a photo with someone accused of a crime,” Tolentino said in the hearing. Wu’s goddaughter is Katherine Cassandra Ong , who has publicly declared a romantic relationship with Wesley Guo, the brother of Alice Guo. This network eventually connects to Michael Yang, former presidential economic adviser to Rodrigo Duterte. Yang’s middle brother Hongjiang Yang holds a joint bank account with one of the owners of the company in the compound in Bamban, Tarlac. Hontiveros had earlier said that She’s files included a dossier on Tony Yang , the eldest brother of Michael Yang. Tony Yang attended the Senate hearing on November 26 and said through an interpreter that he does not know She and that he had no idea how his information ended up with She. Hontiveros also showed a photo of She with Michael Yang. “It further deepens what we already know — Michael Yang is a key actor in Chinese intelligence operations here,” said Hontiveros. Duterte had previously described Yang as a crucial link to entice Chinese businesses. Michael Yang left the Philippines for Dubai in May, when he was beginning to be investigated by the House quad committee. The concerns over the ties to Yatai and 9 Dynasty are bolstered by intelligence that Chinese investments have been used as fronts for espionage. “There has been a confluence of the expansion of Chinese economic investment activities, with the expansion of the nexus of espionage and criminal activities,” Ashley Acedillo, Deputy Director General of the National Intelligence Coordinating Agency (NICA), told the Senate on November 26, 2024. Without declaring that She was involved, Acedillo said that the Philippines had been a target of the so-called APT (Advanced Persistent Threat) groups. Acedillo said these cyber attacks bypass telecommunications towers through pretend cell sites operated by hackers. But our mobile phones are not capable of detecting that these cell sites are not legitimate. Facing extradition to China, She is trying to peddle his story that he holds valuable information useful to “countries who want to advocate for peace,” Wang Fu Gui, who is the files custodian of She, told the Senate. Wang said that She’s files contain information on APT and more. “APT is just a small portion of the many more information within Mr. She, I apologize if I can only give you the minimum information,” Wang told the Senate through an interpreter. Hontiveros also sounded the alarm that Ong is a member of an association based in the Philippines that, according to her, “is part of the united front work of the Communist Party of China.” This comes after the joint force of the Department of Justice and Bureau of Immigration caught a man they called a Chinese spy who embedded himself in the Philippines for more than a decade, and obtained a permanent residence status via marriage to a Filipina. Operatives said the man was caught with an equipment powerful enough it can take data remotely from a device without taking hold of it. During the hearing, Hontiveros asked, “Do you think it should disqualify an applicant from Filipino citizenship if he is a member of a group that could possibly be involved in malign foreign influence?” “He has no association with the Communist Party of China or even if there is a Communist Party of the Philippines right now,” said Tolentino. Hontiveros has called on the Senate to deny Ong Filipino citizenship. Hontiveros’ efforts complement those of her counterparts at the House of Representatives quad committee, who recommended that charges be filed against Chinese businessmen in Pampanga who own the warehouse where seized shabu was found. In a statement on January 20, the National Security Council urged Congress to “prioritize the passage of the amendments to the Espionage Act as well as the Countering Foreign Interference and Malign Influence bill.” – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>gambling,investments,national security,Philippines-China relations,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Arrest of suspected Chinese spy: What we know so far</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/what-we-know-so-far-arrest-suspected-chinese-spy-january-2025/</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45677.54247685185</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SUSPECTS. An NBI operative presents alleged Chinese spy Deng Yuanqing (center) and his two Filipino 'cohorts' during a press conference at the Department of Justice on January 20, 2025. Rappler MANILA, Philippines – Authorities arrested on Friday, January 17, a Chinese man and his two Filipino “cohorts” in Makati City for allegedly gathering sensitive data around military facilities and vital infrastructure, and thus posing national security threats. The suspected Chinese spy, Deng Yuanqing, was presented to the media on Monday, January 20, along with the Filipinos who had since executed extrajudicial affidavits that they were ordered to drive the Chinese and his equipment around specific areas in Luzon. Jeremy Lotoc, chief of the cybercrime division of the National Bureau of Investigation (NBI), said agents seized maps from the suspects, indicating plans to go to the Visayas and Mindanao after finishing their rounds of Luzon. These are what we know so far about Deng, his connections, and his activities in the Philippines, based on the information provided by Lotoc, NBI Director Jaime Santiago, and Armed Forces of the Philippines chief General Romeo Brawner Jr. during the press conference, as well as information from official online sites. The suspect is a graduate of the People’s Liberation Army University of Science and Technology or PLAUST, which has since been renamed the Army Engineering University in 2017. The PLA is the military of the Chinese Communist Party. Deng is a specialist in control or automation engineering, a field of discipline where systems are designed to “regulate the behavior of other devices or systems” despite constraints . All types of control systems “serve the same purpose: to control outputs.”  Deng has been in the Philippines for five years or more, but is considered a “sleeper” agent because he was able to blend in various groups — “hindi pansinin” (didn’t call attention to himself). Authorities found him through a combination of technology and human intelligence, the same way they found illegal POGOs (Philippine offshore gaming operators) in various parts of the country that were being used for scams and spying activities. The equipment seized from him “is capable of producing coordinates…[therefore] can be used for drone control to identify our topography and terrain,” Lotoc said. NBI Director Santiago said they found an application on Deng’s equipment for remotely accessing devices over the internet. In other words, the suspect could siphon off data without going inside the facilities and without getting hold of the targeted devices. Santiago said the data captured by the equipment were transmitted to China in real time since the equipment was “using real-time kinematic and global navigation satellite system.” Real-time kinematic GPS is a “powerful technology” that can “provide positioning data that is accurate to within centimeters, making it ideal for a wide range of applications.” The NBI chief said that when they seized the equipment from the suspect, they saw a profile, with name written in Chinese, “actively siphoning the data off the equipment.” Authorities are doing further investigation to know if Deng’s activities are part of the “overall espionage effort by China,” or if he’s connected to a criminal syndicate. Deng is part of a group of five Chinese so far composed of a software engineer, a hardware engineer, a financier who is currently in China, and a couple who have already been identified. A phone confiscated from him stored images of “deposit slips” reflecting amounts that ranged from P1.5 million to P12 million a week that were transferred to shell companies. In 2024, Rappler disclosed efforts by Philippine intelligence operatives to track down a Chinese man , who once served as Manila bureau chief of a Chinese daily, for his suspicious activities. From 2021 to 2024, Zhang “Steve” Song — Manila bureau chief for the Wenhui Daily — “established a significant network in various strategic institutions,” according to a May 2024 Philippine intelligence report seen by Rappler. Through Deng’s control system, he had gathered data from sites being used under the Enhanced Defense Cooperation Agreement between the Philippines and the United States, according to Brawner. Lotoc also enumerated some of the facilities mapped by the suspect in Batangas and Laguna, provinces immediately south of Metro Manila. They included power plants, petrochemical plants, substations of the National Grid Corporation of the Philippines , navigational lighthouses, military signal frequency repeater. He also mentioned the Malampaya gas field in Palawan. (Rappler will publish the complete list once we get a copy.) Brawner said militaries, when planning an attack, study the topography, entry and exit points, and the configuration of buildings inside the target area or facility. Based on the data seized from Deng, but probably already transmitted to China, “ nakuha (he was able to get) [those] very specific details.” This was the second time authorities arrested a Chinese man using the same technology on Philippine facilities. The first suspect arrested in 2024 didn’t tap any local guide or driver — he both drove his vehicle and operated his equipment. Before these two incidents, there had been five times authorities detected and seized drones hovering over vital facilities, Brawner confirmed. Brawner said the armed forces had further tightened security around their facilities after they noticed that POGOs were “suddenly” sprouting around EDCA sites. Complaints of espionage have been filed against Deng and his Filipino companions because their activities were considered “in prejudice of national defense,” Brawner said. They are charged under Commonwealth Act 616 , the espionage law that took effect in 1941 during World War II. Bookmark this page for updates. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Armed Forces of the Philippines,Chinese spies,EDCA,Philippines-China relations,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[Rappler Investigates] Unfinished business</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/newsletters/investigates-unfinished-business-trump-matobato-alice-guo/</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45673.41666666666</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Alejandro Edoria/Rappler We’re midway through the first month of 2025. I hope you’re sufficiently reinvigorated and ready to take on new challenges of the new year. There’s been a lot of pessimism going around, especially if we look at the latest political developments worldwide. For one, there’s great apprehension over Donald Trump taking over the US presidency by next week, January 20. What would that spell for democracy, migration, cultural diversity, and right-wing tendencies? Then there’s the resignation of Canada’s Prime Minister Justin Trudeau that signals a likely vacuum in progressive leadership. And in our own region, there’s the arrest of impeached South Korean president Yoon Suk-yeol , who declared martial law last December. Right here at home, the unresolved questions — on the impeachment of Vice President Sara Duterte over her misuse of confidential funds, and the unclear endgame of investigations into Philippine offshore gaming operators, former Bamban mayor Alice Guo, as well as extrajudicial killings under Rodrigo Duterte — remain hanging. Everything seems to be in limbo as the election period , not yet the campaign period, has officially started. (READ | In Numbers: 2025 Philippine elections ) REMEMBER EDGAR MATOBATO? Against this somber backdrop, the name Edgar Matobato resurfaced in a recent New York Times story. It reminded me of an earlier interview done with him in 2023, kept for safety, and considered for a more appropriate time to release. Appearing older than his real age back then, thinner owing to a succession of illnesses, and soft-spoken with a Visayan accent, Edgar was far from the killer he described his previous self to be. He was very graphic in his description of how he, along with members of the Davao Death Squad, mercilessly chopped people into pieces and buried them in a quarry in Davao. As if possessed, they killed to prove their gutsiness and daring, and they followed orders without question. A code of silence, omerta , bound all of them until the spirits of three teenagers, who were raped then killed, returned to haunt him. I invited Father Flavie Villanueva, who started Project Paghilom, to review that interview with Edgar, and share with viewers his impressions and thoughts. Some of what he said struck me: “ Noong una, hindi ko lubos maisip bakit gano’n ka-brutal . But if you would also look at their background, similar to other henchmen, ano sila e, matador, butcher, sa mga nakilala ko. So, ibig sabihin, parang kung gaano nila katayin ‘yong hayop, gano’n din ang pagtrato nila sa kanilang mga biktima. Hayop, hindi tao. ” (At first, I couldn’t fully understand the need for such brutality. But if you would also look at their background, similar to other henchmen, they were butchers, those I knew. This means that how they butcher an animal is no different from how they treat their victims. Animals, not people.) Watch Part 1 of the interview here , and read the full transcript too. Part 2 will air later in the day and an accompanying transcript will also be published. REMEMBER ALICE GUO AND CRIME GANGS? Another personality from the more recent past, Alice Guo, and her alleged ties to Chinese crime gangs — if not espionage — are also unfinished business. In November 2024, the Senate held its last hearing without Guo in attendance, as it coincided with a hearing of her trafficking case in a Pasig City trial court. A few days ago, senior reporter Lian Buan wrote that 62 counts of money laundering charges will be filed by the Department of Justice against Guo, who is accused of being behind the scam farm in her hometown. A recent investigation done in partnership with the Organized Crime and Corruption Reporting Project also showed that the supposed “big boss” of criminal activities, a Chinese named Huang Zhiyang , plays a significant role in scam operations operating from Southeast Asia. He had used his Cyprus passport to incorporate a real estate Bamban company, Baofu Land Development Incorporated. How much longer will this case drag on, given the distractions afforded by the coming midterm elections? – Rappler.com Rappler Investigates is a bimonthly newsletter of our top picks delivered straight to your inbox every other Thursday. To subscribe, visit rappler.com/profile and click the Newsletters tab. You need a Rappler account and you must log in to manage your newsletter subscriptions. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Alice Guo,Donald Trump,Edgar Matobato,POGOs,United States,war on drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Alice Guo, Bamban bosses face new money laundering charges</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/alice-guo-bamban-tarlac-bosses-money-laundering-charges-january-2025/</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45672.14331018519</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. PRESENT. Dismissed Bamban, Tarlac mayor Alice Guo attends the Senate hearing on illegal POGO activities, on September 24, 2024. Senate PRIB MANILA, Philippines – The Department of Justice (DOJ) will file 62 counts of money laundering charges against dismissed Bamban, Tarlac mayor Alice Guo, according to a new indictment that also accused her of being the “architect” of the alleged scam farm in Bamban, Tarlac. “The involvement of respondent Alice Leal Guo in the grand scheme cannot be overemphasized. She appears to be its brainchild and/or architect,” says the indictment dated December 20, a copy of which was obtained by Rappler on Wednesday, January 15. Rappler has reached out to Guo’s lawyer for comment, and will update this once we get a response. A panel of prosecutors recommended 26 counts of Section 4(a) of the Anti-Money Laundering Act or transacting money or property; five counts of Section 4(b) or converting, transfering, disposing of, moving, acquiring, possessing or using money or property; and 31 counts of Section 4(d) or attempting to conspire to commit money laundering. The complaints under Section 4(c) or concealing the true nature of money or property were dismissed. Aside from Guo, the 31 counts of attempting to conspire to commit money laundering were also recommended against Guo’s parents and siblings, as well as the officials of the companies involved in the Bamban operation, including Guo’s real estate company Baofu, and the two Philippine Offshore Gaming Operators (POGOs) that leased there. The complaint included Katherine Cassandra Ong, but prosecutors cleared her in this case saying that they “find no iota of her connection, participation, or involvement in the criminal offenses attributable to the aforesaid five companies.” The complaint accused Ong of funding the construction of the buildings inside Baofu. On paper, she is an authorized representative of the POGO in Porac, Pampanga, and an official of the leasing company Whirlwind. She is also the girlfriend of Guo’s brother Wesley. Ong was released from House detention before the 2024 Christmas holidays. She faces a separate human trafficking complaint related wholly to the Porac operation. Guo has told the Senate that the “big boss” of the alleged criminal activities, which she denied knowledge of, was Huang Zhiyang — a Chinese native who is wanted in China for illegal gambling. Huang is included in the 31 counts of money laundering. Rappler’s series of investigations has found that Huang is a significant player in what appears to be a transnational network of scamming activities that operate out of Southeast Asia. Our latest investigation found that Huang was a beneficiary of the now-scrapped Cyprus golden passport program , and it was his Cypriot passport that was used to incorporate the Bamban company. Huang was considered to have waived his right to defense in his case. He holds multiple passports and could be anywhere in the world. He left the Philippines shortly after the government raid on the Bamban compound. Prosecutors highlighted Guo’s act of purchasing the parcels of land, and then ensuring the operational expenses of the buildings that were eventually constructed were paid. Guo told prosecutors that paying the electricity bills was her way of ensuring that her name and credit standing were not tainted, since some of the accounts were under her name as the leasing incorporator. She claims she divested before she ran and won as mayor in 2022. But it was a red flag to prosecutors that Baofu, the leasing company, “stopped using the banking system in September 2020 despite continuous operation.” When Baofu stopped using the banking system, the first POGO — Hongsheng — started operating . The theory of operatives is that money flows through these scam farms using cryptocurrency, or other illicit underground models. In Bamban, prosecutors found it suspect that some money flowed through Guo’s other family-owned companies related to the supply chain of pork, some of which are registered under her family members’ names as well. “It is very apparent that proceeds from the unlawful activity were diverted and channeled through Alice Go’s other businesses, specifically QJ Farm and Seed Genetics, Alice Guo herself, or other entities,” said the indictment, describing these companies as “transit accounts.” Money earned through the scam farm were allegedly funneled into the other Guo companies, a portion of which would then be used to pay for the operating expenses. This “inter-account money transfers” led to the prosecution theory that “these companies appear to be part of the grand design to provide a place where the POGO hub should be operated and persons would be trafficked and forced to perform investment and love scam activities for substantial gain.” “This is undeniable since the buildings that have been constructed at the site resembled prison-like facilities with strict security,” said the indictment. The Baofu compound is now under government custody. – Rappler.com For more of Rappler’s stories in its ongoing POGO investigation, visit this page. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Central Luzon,Department of Justice,human trafficking,money laundering,POGOs,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Before the PH, Alice Guo's 'big boss' invested in Cyprus to get the shady golden passport</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/huang-zhiyang-alice-guo-boss-cyprus-golden-passport/</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45671.29166666666</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Done in partnership with the Organized Crime and Corruption Reporting Project (OCCRP) Chinese national Huang Zhiyang, the alleged “big boss” behind Alice Guo who has been linked to two raided scam farms in Central Luzon, invested in Cyprus so he could get the shady “golden passport” which he then used to incorporate the real estate company in Bamban, Tarlac. Huang is now wanted in the Philippines for human trafficking, and sued for a separate money laundering case. He also has a standing warrant in China for illegal gambling. “Huang Zhiyang appears to be one of the biggest POGO (Philippine offshore gaming operators) bosses because of the extent of his involvement in offshore gaming operations across different locations,” said Undersecretary Gilbert Cruz, chief of the Presidential Anti-Organized Crime Commission (PAOCC). If the Philippines is looking to recover, or at least preserve, some assets in connection with the Bamban case, Huang has 2 million euros in Cyprus that he has not been able to redeem yet ever since he was named in the POGO scandal here. “It’s a possibility but that would entail going through court processes of Cyprus. Priority remains to be his arrest via red notice,” Justice Undersecretary Nicholas Ty, head of the Philippine Interagency Council Against Trafficking, told Rappler. A red notice or alert is issued by the International Criminal Police Organization or Interpol to request law enforcers worldwide to find “and provisionally arrest a person pending extradition, surrender, or similar legal action.” The Senate committee led by opposition lawmaker Risa Hontiveros, which will soon publish its report on POGOs, told Rappler it is also studying whether the report could include recommendations on how to utilize Huang’s Cyprus assets. The Cypriot government is open to such a possibility. The Unit for Combating Money Laundering and Financial Intelligence Unit of Cyprus (MOKAS) told OCCRP : “This can be done following the execution of a foreign request received by a country which investigates a criminal offence.” These new discoveries about Huang’s Cyprus investments show just how far this shady, and potentially criminal, network reaches — even hijacking regulations of other countries that unwittingly end up hosting fugitives. “Huang Zhiyang is not an ordinary criminal based on the criminal network that he has developed both in the Philippines and other countries,” said Cruz. Cyprus’ golden passport program has been exposed over the past few years as having enabled the entry of criminals, and other politically-exposed persons. Rappler has reached out to Huang’s Philippine lawyers through an email sent on November 15. We were instructed via phone call on November 19 to send the email to an office manager, which we did on the same day. We followed up again via email on December 6 and January 14, but have yet to receive a response. We will update this story once we do. Huang obtained his Cypriot passport in January 2019, a copy of his passport obtained by Rappler shows. According to the incorporation documents of Baofu real estate company filed with the Securities and Exchange Commission, Huang used his Cypriot passport to put up the company along with Guo, and two other Chinese — Zhang Ruijin and Lin Baoying who were convicted of money laundering in Singapore. Huang went to Cyprus at a time when the country was promoting its golden passport program to lure investors in exchange for citizenship. Huang took up the offer in April 2018, and invested 2 million euros ($2.5 million or P120 million that year) in Zimaco Holdings Limited, a real estate development company, according to company records. Zimaco Holdings is the developer of student accommodations in the University of Nicosia in Cyprus. This earned him a ticket to the program and qualified him for citizenship via the golden passport program. Cyprus scrapped the program in October 2020 after it was exposed to have provided passage to criminals. President Ferdinand Marcos Jr. had abolished POGOs and some forms of offshore gaming since the scandal. Huang Zhiyang was born in January 1976 in Fujian, China, according to his many passports . Rappler is in possession of four of these. His first foreign passport, at least according to the ones we have, was from St. Kitts and Nevis, a tax haven in the Caribbean. Huang Zhiyang left the Philippines on March 27, 2024, according to his travel records that Rappler verified with the justice department. This was two weeks after the PAOCC and the police raided the Zun Yuan POGO inside the Baofu compound on March 13 this year. Guo, Huang, Zhang, and Lin incorporated Baofu in May 2019. A year before that in September 2018, Huang incorporated the Sun Valley Clark Hub Corporation with the naturalized Cambodian Dingkai Wang, who is said to be linked to scam farms in Cambodia via another associate. Sun Valley was also raided in 2023, but Wang and Huang were not indicted. The periods would show that between 2018 to 2019, Huang was busy making investments in Cyprus and in the Philippines. Before he left in March 2024, Huang enjoyed five years of doing business here, particularly in Central Luzon, where Guo said her business partner owned many restaurants. Guo, whose family owns a dozen businesses related to the supply chain of pork, said she sold pork to Huang’s restaurants. This is how they met, the detained former mayor of Bamban told the Senate. At the Senate, Guo said that Huang and the Singapore money laundering convicts were merely investors. She said: “ Ang katwiran ko po that time, since akin naman po ‘yung lupa, majority po nasa akin, wala pong mawawala po sa akin.” (My reason that time, I own the land, I own the majority, I will not lose anything.) We sent questions to Guo’s lawyer Stephen David on November 20, which we followed up on December 5 and January 14, but received no reply. But Huang was more than just a mere investor, as he was Baofu’s chief financial officer, according to the money laundering complaint filed with the DOJ. Guo said she divested from Baofu to run for the 2022 mayorship, although this is contested by operatives who submitted proof of the false divestment. After the purported divestment, Huang remained second majority shareholder of Baofu, and owned 14% of the company as of May 2024, according to their financial statement filed with the Philippine Securities and Exchange Commission. “These individuals were being charged for their participation in the unlawful activities to generate dirty money by scamming the public through trafficking,” said the money laundering complaint against Guo, Huang, and 34 others. “Totality of the evidence would show that the Respondents knew that illegal online activities, i.e. love, investment and cryptocurrency scams, were the only activities happening inside the Baofu POGO hub from its establishment until its closure by the State as a consequence of the raid conducted last 13 March 2024,” the complaint added. Foreign workers inside the Baofu compound claimed they were subjected to torture when they refused to do their tasks. They also claimed they did not sign up for the job. One worker said he just visited a friend in the Baofu compound, but ended up being called to the administrative office to work. When he refused, the victim was forced to pay P300,000, he told the DOJ. “Since victim could not pay, he was compelled to work as a love scammer. He never received compensation for the work that he has rendered. Instead, he received beatings each time he failed to meet the mandatory quota,” said the DOJ’s human trafficking indictment against Guo, Huang, and others. Huang was considered to have waived his right to answer the allegations, said the DOJ because of “non-appearance and non-submission or improper submission of their respective Counter-Affidavits.” Huang had wanted to swear on his counter-affidavit via a video call. Huang was declared an undesirable alien by the Bureau of Immigration last June, Rappler has confirmed. The Philippines had already frozen five of Huang’s bank accounts. The Baofu compound is also currently under government custody. Zhang and Lin, on the other hand, were deported to Cambodia in July 2024 after they finished serving their sentences in Singapore. According to the Philippine Department of Foreign Affairs, Zhang had also invested $US35 million (P2 billion) in a Philippine company while his partner Lin owned a property in the country worth $5.7 million (P329 million). – Rappler.com For more of Rappler’s stories in its ongoing POGO investigation, visit this page. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Alice Guo,China,online scams</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[In This Economy] The Philippine economy in 2024, and prospects for 2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/in-this-economy-philippines-prospects-2024-2025/</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45660.19495370371</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Happy New Year! Before we dive into 2025, let me take stock of the Philippine economy in 2024, and offer some ideas about where we’re headed this year. I’m quite sad to note that the economy grew quite slowly in 2024 — certainly much slower than what we need to go back to the pre-pandemic trend. Average quarterly growth for the first nine months of 2024 was just 5.8%. For context, we need more than 10% growth per year if we are to go back to the pre-pandemic trajectory by 2028, the end of President Ferdinand Marcos Jr.’s term. In February, I projected that we may, in fact, never get back to the old trajectory. Figure 1 shows that the economy now seems to be on a permanently different path than the one before the pandemic. Figure 1. Source: PSA Slower growth also means that, yet again, the Philippines failed to graduate into an upper-middle income country — a promise that has been broken yearly since 2018. The economic managers revised their projection for the nth time, and said we might finally attain that coveted status by 2025 . Let’s see. Various institutions project the Philippines to grow by around 6.1% in 2025, which is at the lower end of the government’s target range of 6-8%. Note that the projections already likely include the usual boost in spending seen in election years. That means that if it were not an election year, total growth in 2025 could very well be below 6% — a shame. Thankfully, inflation continued to abate in 2024. It’s down to 2.5% in November 2024, comfortably within the government’s 2-4% target range (Figure 2). But that doesn’t mean at all that prices have gone down. Lower inflation does not mean lower prices. For instance, food prices in November 2024 were almost 15% higher compared to the middle of 2022. I highly doubt that over the same period wages have increased that much for the vast majority of Filipinos. Thus, the not-so-happy holidays for most Filipinos, according to the Social Weather Stations. Figure 2 . Failure to manage rice supplies made inflation a lot higher in 2024 than it needed to be. Marcos’ failure to plan and prepare properly for the brutal El Niño season also contributed to unstable rice prices. In case you missed it, Marcos signed in May a new law that gives back to government greater power to control rice supplies and prices. This does not bode well for the future. Government did a bad job managing rice supplies in past decades, and we refuse to heed the lessons of history. Prepare for more rice troubles. Lower inflation in 2024 led the Bangko Sentral ng Pilipinas to reduce its policy interest rate for the first time in four years. The raging fire that was inflation has died out, and there’s no need for a firehose anymore. Speaking of prices, the National Economic and Development Authority drew tons of flak in 2024 for saying that P63 was enough to feed a person a day (at least to meet daily required caloric intake). This is utterly unrealistic, and I suggested that NEDA ought to seriously update its poverty methodology . There are talks that this might happen in 2025, and I suspect official poverty figures to rise. For the rest of this piece let me focus on troubling policies pursued by the Marcos Jr. administration — policies that are harmful to the country’s development agenda. First is the administration’s attempt at economic charter change. They branded it as “necessary” to attract foreign direct investments. But, in fact, study after study showed that other things are much more crucial: promoting ease of doing business and rule of law, reducing the cost of power, easier taxes, and combatting corruption. In April, some of my colleagues and I published a discussion paper on the economic charter change debates, which were fraught with too much hand-waving and too little empirical evidence. Speaking of investments, Marcos signed the CREATE MORE Act in November, a law meant to improve the country’s standing as an investment destination. However, it might prove to be nothing more than a bonanza for big firms in the country and a huge drain on the already limited fiscal space of government. In July, Marcos ended his State of the Nation Address with a firm declaration that he’s banning POGOs or Philippine offshore gaming operations — an industry that flourished during the time of former president Rodrigo Duterte. This announcement was met with thunderous applause, but I cast doubt as to its effectiveness. Bans never truly work, and true enough, many POGOs have since disguised as restaurants, resorts, and BPOs or business process outsourcing outfits to evade authorities. The intense public scrutiny of POGOs in 2024 led me to think: Are POGOs the only kind of foreign direct investments we can attract in droves? Did POGOs go to the Philippines precisely because of our weak rule of law , which they thought they might exploit? If so, that’s quite a tragic thought. The 2024 budget is the first national budget that allowed the government to take money away from government corporations and treat them as surpluses that can be used to fund budget items in the so-called “ unprogrammed appropriations .” This led to the Department of Finance’s extortion of nearly P90 billion in funds from the Philippine Health Insurance Corp. or PhilHealth. PhilHealth remitted P60 billion so far, and was stopped by a temporary restraining order from the Supreme Court. But, in fact, I discovered from the Bureau of the Treasury’s spreadsheets that the Marcos administration also swept at least P30 billion from the Philippine Deposit Insurance Corp. or PDIC in May. We don’t know if other transfers from PDIC were made since then. The cash sweep of government corporations is a troubling development for many reasons. The government’s development projects aren’t supposed to be funded this way, and government corporations need that money for their own purposes. This calls to mind 2023’s Maharlika Investment Fund , which was funded by extorting capital from state-owned banks and even the profits of the Bangko Sentral ng Pilipinas. I’m also reminded of the way Ferdinand E. Marcos abused government banks and other financial institutions to fund crony capitalism in the 1970s and 1980s, leading to the ruin of the economy back then — a phenomenon I discussed in loving detail in my book,  False Nostalgia . Finally, Marcos and Congress crafted a budget for 2025 that promises to bring about an explosion of patronage-driven local infrastructure projects and transfers in aid of the 2025 electoral bids of many politicians. Many other economists, budget analysts, and I called it the worst and most corrupt budget in years. Right at the very end of 2024, on December 30, Marcos signed the budget law which removed state subsidies to PhilHealth , reduced by P50 billion the budget for 4Ps or the government’s flagship anti-poverty program, cut by P10 billion the computerization budget of the Department of Education, and so on. In short, the 2025 budget that Congress created and Marcos approved is a big f*ck you to the Filipino people. Too bad for Marcos, since he and his government will likely face tons of cases in 2025 concerning this disastrous budget he approved. A fundamental flaw is that the 2025 budget is unconstitutional , because it’s the first budget ever that did not allocate the lion’s share to the education sector (the Department of Public Works and Highways took the more than P1-trillion cake). All in all, 2024 is a wake-up call to Filipinos that the Marcos administration is brazenly and shamelessly corrupting and playing around with taxpayers’ money. May the 2025 polls be a chance to exact accountability from all who bastardized public funds — but given our voting history, I’m not too optimistic this will happen. – Rappler.com JC Punongbayan, PhD is an assistant professor at the UP School of Economics and the author of  False Nostalgia: The Marcos “Golden Age” Myths and How to Debunk Them . In 2024, he received The Outstanding Young Men (TOYM) Award for economics. Follow him on Instagram ( @jcpunongbayan ) and Usapang Econ Podcast . How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Department of Education,DPWH,Ferdinand Marcos Jr.,Maharlika fund,PhilHealth,Philippine inflation rate,Philippine national budget 2025,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>The stories that shook the regions in 2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/stories-regions-2024/</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45652.4353125</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CEBU, Philippines – 2024 was the year that took seismic tales from the provinces and towns to the big screens and chambers of the Congress of the Philippines and Malacañang. Rappler’s regions cluster made it a point to bring readers from distant places closer to the news that concerned their welfare and the country’s overall state of affairs — tackling multi-faceted issues on economics, politics, human rights, and the environment. On many occasions, our stories were gathered from social media posts by concerned netizens, tips from our readers on the Rappler Communities app, and talks with experts and the everyday Filipino. The challenge? Tying together these stories from different locales and contexts into a tapestry of information that may serve the people and its thought leaders: advocates, changemakers, academics and even the young nation builders of tomorrow. We dedicate our work to them. Here are those stories from the regions. Throughout the year, we spent days and weeks following the trail of human trafficking and violence left by suspected syndicates and their cohorts from the north of the country all the way down to the south. Our research and investigation brought us to Bamban, Tarlac in March, where the first of a series of “scam hub” raids conducted nationwide was launched. We looked at documents and evidence that linked Bamban Mayor Alice Guo to illegal Philippine offshore gaming operator (POGO) hubs. After President Ferdinand Marcos Jr.’s declaration of a ban on POGOs in July, the region cluster reported on the first illegal POGO hub uncovered in the Visayas — the Tourist Garden Hotel in Lapu-Lapu City, Cebu. It didn’t take long for our reporters to pick up on another POGO hub found in Cagayan de Oro, which Santa Rosa City Representative Dan Fernandez claimed had links to Tony Yang, the older brother of Rodrigo Duterte’s former economic adviser, Michael Yang. This year also saw the Department of Environment and Natural Resources (DENR) and local officials getting heat from lawmakers over the management of protected areas with evidence surprisingly coming from vloggers and social media posts. One particular case was the controversial resort being built on the Chocolate Hills of Bohol. The story went viral after content creator Ren The Adventurer’s aerial view video showed parts of the Captain’s Peak Resort’s structures were found on the foot of the hills. Another similar case of resort owners allegedly “defacing” natural resources was that of the painting of boulders and rocks along the Asia River in Murcia town, Negros Occidental. Local officials learned about what was being done to the river through viral social media posts. All eyes were on Davao City during the weeks-long confrontation between police and members of doomsday preacher Apollo Quiboloy’s Kingdom of Jesus Christ (KOJC). In August, tensions flared as KOJC members took to the streets to protest against police attempting to find and arrest Quiboloy. Police-Davao spokesperson Major Catherine dela Rey said in a news conference on August 29, that 60 police personnel were wounded as a result of the operations. Davao journalists also decried several instances of maltreatment and intimidation from Quiboloy’s supporters who criticized the media for being “biased.” Authorities later got the doomsday preacher in their custody on September 8. From October 1 to 8, the regions cluster visited the local offices of the Commission on Elections (Comelec) to report on the big and lesser-known names entering the political battlefield for the upcoming 2025 polls. Political dynasties were the “main course” for topics on our stories, starting off with Rodrigo “Rigo” Duterte II , son of Congressman Paolo Duterte and the former president’s namesake. Rigo is making his bid for a councilor post of the first district of Davao City. “Star for All Seasons” Vilma Santos is also running with her sons. Luis Manzano and Ryan Christian Santos-Recto formalized their candidacies for Batangas vice governor and 6th district representative, respectively. The mother is vying for Batangas governor. We also saw some interesting and controversial personalities like alleged Visayas drug lord Kerwin Espinosa , filing his certificate of candidacy for the Albuera, Leyte mayoral seat. In a press conference on October 5, Espinosa urged the International Criminal Court to investigate the death of his father, former Albuera mayor Rolando Espinosa Sr. He also asked former senator Leila de Lima to forgive him for linking her to the illegal drug trade in 2016. Near the end of the filing period, an unexpected reveal shook the polling center in Davao. No other than the former president Rodrigo Duterte himself filed his certificate of candidacy for his old post, Davao City mayor. He will be going up against former Civil Service Commission chairman and ex-Cabinet secretary  Karlo Nograles and Davao-based preacher Rodolfo Cubos, setting the stage for what’s to come in the city where the infamous drug war campaign began. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025 Philippine elections,Apollo Quiboloy,DENR,Duterte family,Filipino journalists,International Criminal Court,KOJC,Philippine National Police,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>The POGO menace does not end in 2024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/pogo-menace-does-not-end-2024/</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45650.51762731482</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO WORKERS. 180 Chinese nationals having been caught working at Smart Web Technology POGO hub without the proper immigration documents and running an alleged prostitution den, are processed for their deportation to Shanghai on December 14, 2023. Rappler MANILA, Philippines – In a hotpot restaurant of all places is where an alleged officer of the notorious POGO (Philippine Offshore Gaming Operators) hub in Bamban, Tarlac was found last week. Since the raid in March which blew open the case in Bamban and Alice Guo , authorities have been working on an operation to nab a previously unnamed Chinese who’s supposedly important in the company structure — Pan Meishu, 49 years old, who goes by the English name Hannah. Unlike the company owners — big boss Huang Zhiyang and Singapore money laundering convicts Lin Baoying and Zhang Ruijin — Pan did not leave the Philippines and was confident enough to be roaming around Pasay City on Thursday, December 19, when Immigration operatives found her. Pan is the financial officer of Zun Yuan, the POGO licensee allegedly used to mask a scam hub, according to the Presidential Anti-Organized Crime Commission (PAOCC). “Expect more arrests as we crackdown on illegal POGO operations,” Immigration Commissioner Joel Anthony Viado said.  “These companies doing illegal activities have no place in the country.” However, there’s a big disparity in the actual number of foreigners who worked in POGOs here. This is the basis of authorities in preparing for more operations in 2024, saying that the foreign workers will be splintering into disguise operations. In the estimates of the Bureau of Immigration (BI), the base count is more than 21,000 foreigners who have voluntarily downgraded their visas since the all-out POGO ban. There were 10,821 of them who have already left the county earlier in December, and the bureau has pegged 7,000 more to leave before the year ends. That’s a very small number compared to PAOCC’s estimate of 353,525 POGO workers, which they are basing on the number of alien employment permits (AEPs) given by the labor department specifically for POGOs. There were also 328,925 foreigners which were granted either a special working permit (SWP), Provisional Work Permit (PWP), or a 9G commercial visa from 2019 to 2024, according to the BI through an FOI (Freedom of Information) request by Rappler. This number could shrink because there might be an overlap with the PWP holders who have been upgraded to a visa. If there are hundreds of thousands of former POGO workers who will not leave the Philippines — where will they be working? “ Rogue POGOs na magtatago sa special class BPOs (rogue POGOs who will be hiding in special class BPOs),” said PAOCC chief Undersecretary Gilbert Cruz in an earlier interview. A BPO is a business process outsourcing firm. POGOs may also be small scale and will operate in hotels, resorts, and homes inside subdivisions. ( Read this earlier Rappler investigation about suspected POGO elements in subdivisions) “There are a lot of indications kung paano niyo po makikita na may operations sa isang lugar. Kung bahay po ‘yan, 24 hours kahit sa gabi bukas sa buong bahay ang ilaw, presence ng foreign nationals sa area, so madalas nagpapadeliver na lang ng pagkain, ang daming basura makikita nyo, nagpapadagdag ng internet connection, maraming red flags, maraming indicators,” said Cruz. (There are a lot of indications of how to spot an operation. If it’s a house, the light is on for 24 hours, there are a lot of foreign nationals in the area, they always have food delivered, there’s lots of trash, they keep installing new internet connections, there are many red flags, many indicators.) There are also the foreign workers inside the Cagayan Economic Zone Authority (CEZA) which, as an ecozone, is not under the jurisdiction of Philippine Amusement and Gaming Corporation (Pagcor). It’s still a grey area if they are covered by the POGO ban. CEZA is run by the Enriles, and its powerful charter that gives them some autonomy was authored by President Ferdinand Marcos Jr’s chief presidential counsel, Juan Ponce Enrile At the last Senate hearing on POGOs last November, CEZA insisted they were not covered by the ban because by their definition, the gaming operations of their licensees do not happen in the country. “There are offshore gaming licensees which are operating outside the country…We believe that the conduct of interactive gaming licensees of CEZA outside the country is not subjected with the provisions of the Executive Order, ” CEZA deputy administrator Marichelle De Guzman told the Senate in November 26. Senator Risa Hontiveros said then that this is still a question that needs to be clarified with Executive Secretary Lucas Bersamin. Asked if CEZA was covered by the ban, Cruz said: “ Ang alam ko diyan sa lahat, ang sabi naman ni Presidente that’s to all. Perhaps ‘yung export processing zones natin kasama sila sa magsasara.” (From what I know, it’s all, and the President said that’s to all. Perhaps even export processing zones are included in what needs to be closed). – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>year-end stories</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hundreds of Fontana workers face bleak Christmas with salary delays</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/fontana-leaisure-parks-workers-bleak-christmas-salary-delays/</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45650.44427083333</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. DERELICT. Fontana Leisure Parks and Casino features 278 residential villas, a water theme park, a casino, an Olympic-sized swimming pool, a hot spring, and a golf course. As of December 17, 2024, it has been without power due to non-payment of electricity bills. Joann Manabat/Rappler PAMPANGA, Philippines – Some 350 workers of Fontana Leisure Parks and Casino face a bleak Christmas due to salary delays since November this year. Allan Resma, safety officer and chairperson of the family welfare program for Fontana employees, said they had not received their salaries on November 15, November 30, and December 15, as well as the law-mandated 13th month pay. Resma said the management did not give them prior advisory nor the reason they were not getting paid, but only told them to wait. They were only informed that the decision to release their salaries was at the discretion of the management, he added. Fontana is in a state of dereliction. Under Fontana Development Corporation, it continues to operate despite 80% to 85% of the complex — including the villas, restaurants, casino, and water theme park — being cut off from power since December 17 due to unpaid electricity bills. Resma said the employees believe Fontana is being mismanaged by a group of Chinese nationals. He showed Rappler a list of Chinese managers, including acting general manager Wing Sze Lai, deputy general manager Dave Wei, senior executive assistant Tear Huang, assistant to the chair Choon Sung Park, and food and beverage director Judy Wan. In June 2024, authorities searched Fontana villas believed to have been rented out to the POGO business partners of dismissed Bamban mayor Alice Guo : Huang Zhiyang and Zhang Ruijin and Lin Baoying . Ruijin was convicted in Singapore’s largest money laundering case in April, while Baoying is expected by authorities to plead guilty in the same case. According to Dennis David, the human resource manager, the management of Fontana Development Corporation has refused to provide feedback on the employees delayed salaries. “Ang lungkot kasi tatlong sahod na kaming hindi sumusuweldo. Saan kukuha ng pagkain ’yan? Yung ibang empleyado namin putol na ’yung kuryente,” Resma told Rappler in an interview on December 18. (It’s just sad because we haven’t been paid three salaries. Where are they going to get food? Some of our employees, their electricity has been cut off.) He said employees are aware that the Social Security System, Pag-ibig, and Philhealth contributions deducted from their salaries had not been remitted to the agencies either for about a year already. The Department of Labor and Employment – Pampanga called Fontana’s David for a case conference on December 17, but he failed to attend despite being given proper notice. However, David confirmed with DOLE via phone call that the approval for the three consecutive payrolls was still pending. The next conference is set on January 6, 2025. If David or the responding party fails to appear, Resma said the employees may file a labor case. Resma said all Chinese nationals still residing in Fontana are properly documented, as those without proper documentation managed to escape following the June 2024 raid on one of the areas of Fontana’s 103-hectare property. Fontana was established in 1996 and is owned by Jack Lam. It was previously managed by Jimei International Management, which is chaired and led by Lam. Lam acquired Fontana in 2004 from Puregold’s Lucio Co, who had purchased it from Ruben Tan under RN Development Corporation in 1998. Once an exclusive, members-only vacation resort and country club for families, Fontana featured over 500 residential villas, a casino, a clubhouse, a water theme park, an Olympic-sized swimming pool, a sunken bar pool, a hot spring, and a golf course. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Central Luzon,Clark Freeport Zone,DOLE,Pampanga,Philippine labor,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Quad comm pushes for full legal attack vs. Harry Roque | The wRap</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/december-23-2024/</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45649.47969907407</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: The House of Representatives quad committee wants government agencies to mount a full legal attack against former Rodrigo Duterte spokesperson Harry Roque for his ties to Porac scam hub Lucky South 99 and his escape to the UAE in the face of congressional warrants. Vice President Sara Duterte and House Speaker Martin Romualdez’s trust and approval numbers take a double digit dive in the latest Pulse Asia survey. A recent Pulse Asia survey reveals Filipinos’ pre-election picks for the 2025 midterm elections. Broadcaster and ACT-CIS representative Erwin Tulfo leads the survey with 62% support, followed closely by Tito Sotto at 59%. The Commission on Elections junks the petition to disqualify arrested doomsday preacher Apollo Quiboloy from running for the 2025 senatorial elections. Israel orders the closure and evacuation of one of northern Gaza’s last functioning hospitals forcing medics to search for a way to bring hundreds of patients and staff to safety. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025 Philippine senatorial election,Apollo Quiboloy,Comelec,Israel-Hamas war,Martin Romualdez,POGOs,Pope Francis,public surveys,Sara Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>House quad comm pushes for full-scale legal offense vs Harry Roque</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-quad-committee-legal-recommendations-against-harry-roque-pogo/</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45649.02165509259</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ROQUE. Former presidential spokesman Harry Roque attends the resumption of the Senate investigation into Philippine offshore gaming operators on July 29, 2024. Angie de Silva/Rappler MANILA, Philippines – The House of Representatives quad committee wants government agencies to mount a full legal attack against lawyer Harry Roque, former spokesperson of ex-president Rodrigo Duterte, over his ties to a raided scam hub in Porac, Pampanga, and his fleeing the country in the face of congressional warrants. “A criminal Investigation should also be commenced to inquire into the extent of his involvement in the operation of Lucky South 99 and Whirlwind Corporation, among others,” said the quad committee in its progress report officially submitted December 19, a copy of which was obtained by Rappler on Monday, December 23. Roque is already facing criminal complaints for human trafficking and money laundering over his ties to the Lucky South 99 scam hub in Porac, although that is still pending with the Department of Justice (DOJ) and with no court warrants yet. The recommendation from the quad committee is an added push, although prosecutors have no obligation to follow. Roque managed to go abroad because there are no court warrants against him,, As per last update he was in the United Arab Emirates (UAE.) The quad committee said the “Bureau of Immigration should be investigated to determine who helped Atty. Herminio Harry Roque Jr escape undetected.” The committee also wants the Anti-Money Laundering Council (AMLC) “to initiate an investigation on the acquisition of his assets.” Malacañang, through Executive Secretary Lucas Bersamin, has already asked AMLC to freeze the assets of Roque’s family firm Biancham. The quad committee is backing that request, saying “a freeze order over the assets owned by Atty. Herminio Harry Roque Jr should be applied for provided it is shown that they are materially linked, relates to, or involves predicate offenses defined in the Anti-Money Laundering Act of 2001.” Roque is tied to the Porac scam hub by way of his lawyering for Whirlwind , the real estate company that rented out to the Lucky South 99 POGO (Philippine Offshore Gaming Operators). Roque has also admitted to helping Lucky South 99’s Katherine Cassandra Ong to set meetings with Philippine Amusement and Gaming Corporation so the POGO could renew its license. The quad committee has also flagged the increase in assets o f Roque’s family company. “There was a significant and suspicious increase in the corporation’s financial growth, with an increase in assets from Php 125,300 in 2014 to Php 67,775,300 in 2018,” said the progress report. Roque, the quad committee said, must be brought back to the Philippines as soon as possible. Without a court warrant, the legal grounds to coerce him to come home are very limited, if any. “If a criminal investigation has been commenced against Atty. Herminio Harry Roque, Ir. and he is in a country where the Philippines has an extradition treaty with, efforts should be made to bring him back based on that treaty. Otherwise, a diplomatic request for repatriation may suffice similar to the factual milieu of Katherine Cassandra Li Ong and Guo Hua Ping a.k.a. Alice Leal Guo,” said the quad committee. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Harry Roque,House of Representatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rappler’s most impactful stories of 2024</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/most-impactful-stories-2024/</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45648.26774305556</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MANILA, Philippines – At Rappler, we continue to believe journalism can make a difference. We tell our stories not for awards, fame, or controversy, but in the hope that they help lives. And so it is with great pride and heartfelt enthusiasm that I, along with Rappler editors, present our newsroom’s most impactful stories of 2024. You will see, reflected in these headlines, the issues that matter most to our readers and our newsroom. These stories can also be viewed as a wrap of the year that was — the year of the Uniteam rift, of the consecutive typhoons and disruptive heatwaves, of a religious cult leader fallen from grace, of deepfakes, scams victimizing millionaires and migrant workers, of Olympic glory, and much more. As with the 2023 list, we defined impact based on how the story catalyzed real-world change or amplified communities and voices long marginalized and ignored. We hope these stories resonate with you too. We want to do even better in 2025. You can help us by supporting our programs that sustain our operations and coverage budget: the Rappler+ membership program and our crowdfunding initiative . Thank you, our readers, Rappler+ members, and partners for believing, like we do, that independent journalism matters. Without further ado, here are the best stories our newsroom has to offer in 2024: After this investigative series by reporter Michelle Abad, the government suspended the abusive South Korea Seasonal Worker Program in at least seven localities, and finally acted on the case of scammed migrant workers spotlighted by the story. The story also prompted the migrant workers department to change a policy that had delayed the grant of financial aid to victimized Filipinos. In this report, researcher James Patrick Cruz finds that at least 16 elected officials are related to the family of President Ferdinand Marcos Jr. He then examines the implications of such concentrated power in a country with a Constitution that says political dynasties should be prohibited. The change in how the House of Representatives received former senator Leila de Lima this year, from the vicious attacks of many of its members during the Duterte presidency, is enough to give anyone whiplash. Political reporter Dwight de Leon lays out all the hypocrisy and fickleness of Philippine politics in this story. Restricted media access and carefully managed public appearances defined President Ferdinand Marcos Jr.’s first years in power, according to researcher Gaby Baizas. Such inaccessibility raises concerns about the erosion of transparency and accountability, key pillars of democratic governance. The year 2024 was a year of upheaval for Vice President Sara Duterte. Bonz Magsambol tracks her evolution since she parted ways with the Marcos administration, becoming more like her father, former president Rodrigo Duterte, in dealing with her critics in public. In a series of stories, we dig into the Land Transportation Office’s two IT systems, which cost motorists more fees and have opened loopholes for fraud. Reporting was based on the Department of Transportation’s investigations, documents, and interviews with whistleblowers. Investigative reporter Lian Buan reveals doomsday preacher Apollo Quiboloy’s collection of 19 firearms, worth over P2 million. The story not only exposed Quiboloy’s resources but also highlighted systemic vulnerabilities in firearm regulation, questioning whether legal mechanisms inadvertently enabled impunity. Did the government orchestrate the “surrender” of activists to win a propaganda war? After this two-part investigative story by Rappler, the Supreme Court did a rare move of granting, on their level, the privileges of the writs of amparo and habeas data. It issued a temporary protection order for the Bataan activists in the story, Jhed Tamano and Jonila Castro. This deep dive into the murky depths of TikTok showed how this top Gen Z information source has become a marketplace for shady health products. The author, Aries Rufo Journalism Fellow Jerry Yubal Jr., also identifies gaps in TikTok’s guidelines that allow this dangerous abuse of the platform to happen. A harrowing portrait of Bicol communities in the aftermath of Severe Tropical Storm Kristine, this story by Aries Rufo Journalism Fellow Reinnard Balonzo immediately mobilized donations of drinking water to storm victims. This documentary allows you to witness the hours before a pair of Philippine eagles, Uswag and Carlito, soar to freedom after confinement in wire cages in Leyte. Rappler’s new vertical video series, Inside Track , got our community talking about how Pharmally Pharmaceutical executives were able to buy luxurious real estate in Dubai. In another episode , reporter Lian Buan explains how illegal POGOs in Tarlac lead back to former president Rodrigo Duterte’s ex-economic adviser Michael Yang. This story fleshed out not only the human rights abuses in Philippine offshore gaming operations but their crossborder nature. Indonesian journalist Artika Farmita, a 2024 #FactsMatter Journalism Fellow, spotlighted the experience of an Indonesian former POGO worker to illustrate the fraud and abuse. The creation of the Negros Island Region affects people and governance in Western and Central Visayas, from where the new region was carved out. Its rebirth or revival was a vision championed by local leaders, and something that promised streamlined governance and economic progress. This story by Negros Occidental stringer Erwin Delilan shows how regional aspirations overcame decades of challenges and bureaucratic resistance to achieve tangible reforms. The capture of Apollo Quiboloy was a milestone in holding a very influential figure accountable for alleged abuses. Rappler Regions’ Mindanao coordinator Herbie Gomez shows in this report how the “surrender” was both a legal victory and a statement on the importance of pursuing justice even when faced with formidable opponents. The Supreme Court’s decision to exclude Sulu from Bangsamoro Autonomous Region in Muslim Mindanao impacts the predominantly Muslim region’s governance and political landscape, alters the region’s power dynamics, and could affect the Mindanao peace process. This story by Rappler Regions editor Herbie Gomez and justice reporter Jairo Bolledo goes beyond the breaking news story to explain the implications. The bloody war on drugs of former president Rodrigo Duterte did not only leave a massive death toll, but exacerbated jail congestion and the dire conditions of inmates. Rappler’s Lian Buan and James Patrick Cruz visit the drug suspects waiting for months for their day in court, and other detainees caught in the limbo of clogged court dockets at the Manila City Jail male dormitory. This story from data forensics firm The Nerve, a Rappler sister company, tracks the trends and public sentiment surrounding the top senatorial candidates for the midterm elections to show how social media is affecting political discourse. The Nerve unpacks an underreported trend we nevertheless see everywhere: how Millennials and Gen Zs are choosing the Dual Income, No Kids (DINK) lifestyle due to financial pressures and shifting priorities. This story is also unique in that it made use of AI-powered focus groups to generate meaningful societal insights. This documentary and data story shows the state of Metro Manila’s bike lanes through the lens of cycling enthusiast and environment reporter Iya Gozum. She spent almost 12 hours on the road, biking and shooting across 120 kilometers with Rappler’s Production team tailing her, to produce a conversation-driving narrative reflecting the daily struggles of bike commuters. This two-part collaboration by investigative reporter Lian Buan and environment reporter Iya Gozum looked into how commercial fishing companies pushed back against policies meant to prevent illegal, unreported, and unregulated fishing. The losers are the small fisherfolk, already among the poorest workers in the country. In this exclusive interview by sports editor Jasmine Payo and reporter Delfin Dioquino, Olympic gymnastics champion Carlos Yulo opens up on his frayed family relationships and other personal ordeals, prompting conversations on the gloom that comes with the glitter of a superstar athlete. The Philippines showed it’s here to fight the world’s best with full confidence after a historic Paris Olympics romp. But this feature by sports reporter JR Isaga also touches on the heartbreaks and struggles – from “wardrobe malfunctions” to a “toxic environment” – our elite athletes had to go through on the biggest sporting stage. Six Filipino para athletes competed in the Paris Olympics: swimmer Angel Otom, javelin thrower Cendy Asusano, wheelchair racer Jerrold Mangliwan, swimmer Ernie Gawilan, para archer Agustina Bantiloc, and taekwondo jin Allain Ganapin. Anchor Pató Gregorio speaks to the Paralympians about their struggles and their journey to the 2024 Paralympics. Senior reporter Paterno Esmaquel II’s video interview with Sister Cho Borromeo, a Franciscan nun who joined the 1986 People Power Revolution, was one of our most viral faith-related videos in 2024. It’s a powerful antidote to historical revisionism and, in a patriarchal church, a testament to the faith and courage of women. Journalists Gemma Mendoza and Gelo Gonzales find that a Russian scam network was behind the spread of a deepfake falsely depicting Rappler CEO Maria Ressa endorsing Bitcoin investments. It underscores the urgent need for stronger safeguards against AI video manipulation and collaborative efforts to maintain media credibility and public trust. This news-you-can-use story by tech editor Gelo Gonzales teaches readers how to identify deepfakes, a kind of AI-manipulation in video that is now being used for political propaganda, scams, and scares. The fall of millennial CEO Mica Tan has shaken elite circles. This story by business reporter Ralf Rivas details Tan’s humble beginnings, her journey in private equity investing, up to her tussles with regulators and investors. The Securities and Exchange Commission accused Tan of engaging in a Ponzi scheme, which she has denied. While this scheme is nothing new, Tan’s case is unique since it involved millionaires. The story also sheds light on the importance of auditors in detecting financial fraud. A day after Rappler published this report on a controversy involving incoming Management Association of the Philippines president Noel Bonoan, the former finance undersecretary decided to withdraw from assuming the top post of the prestigious business organization. The closure of sugar refiner Central Azucarera Don Pedro in Nasugbu, Batangas, affected thousands of sugarcane planters and field workers, and triggered netizens’ reactions to the government’s sugar regulatory policies. This report by editor Isagani de Castro Jr. was one of this year’s most-read business stories. This story from education reporter Bonz Magsambol examines the troubling issue of Filipino students’ poor performance in global education assessments. Education experts highlight the factors contributing to the dismal academic results and offer recommendations on how the government can address these challenges to improve how young Filipinos learn. In a country where classes are often canceled due to typhoons, climate change has thrown in heat waves that have added to learning disruptions in different parts of the country. While the government has since ordered a return to the old academic calendar to address this, reporter Bonz Magsambol asks an important question: why aren’t our classrooms climate-resilient? Rappler’s civic engagement arm, MovePH, was behind the first Philippine use of generative artificial intelligence to consult ordinary citizens for the purpose of both journalism and public policy. With the help of the office of Quezon City councilor Irene Belmonte, the exercise contributed to the crafting of an ordinance to pedestrianize the busy thoroughfare on Sundays. A well-intentioned policy aimed at easing financial strain among persons with disabilities is being exploited by scammers, to the detriment of businesses and disabled citizens themselves. Editor Acor Arceo deftly lays out the perspectives of various groups in this piece. Film critic Lé Baltar shed light on various attempts to censor two films released this year, Lost Sabungeros and Alipato at Muog. Together, the two stories show the state of freedom of expression in cinema and the challenges storytellers deal with when telling uncomfortable truths. As reliable sources started to float the imminent shutdown of CNN Philippines, business reporter Ralf Rivas immediately dug into the company’s financial statements, finding cash flow issues and revenue unable to keep up with mounting losses. The data-driven story revealed Philippine media’s dire financial struggles, amid news avoidance and generative AI. There are so many young people who play games, yet the majority of games are developed by the West and Japan, who are able to tell their culture through the medium. That’s why when a game like Until Then comes along, it’s important to highlight the significance of the representation of Filipino culture in a video game. Rappler editor-at-large Marites Vitug gives context and depth to a common problem experienced by Filipinos: the difficulty of obtaining a visa to the European Union. Many people could relate to the issue, judging by the 127 comments on this video’s YouTube page alone. In this exclusive, senior reporter Bea Cupin tells the story of Steve Zhang, allegedly a Chinese agent from China’s Ministry of State Security, posing as a foreign correspondent. The piece sparked discussions among defense and diplomacy circles, and has helped catalyze actions to protect the Philippines from malign influence and espionage operations. In 2025, the government is expected to push for legislation to update the country’s outdated espionage and foreign agents laws. Even as the Philippines tries to manage tensions in its western waters, it’s also looking up north, where China’s tensions with Taiwan spell trouble. Reporter Bea Cupin brings us to the new camp of the Philippine Marines’ 4th Brigade to give a human face to the highly technical and complex issue of a shift in military strategy under the Marcos administration. Did you know that Muslims determine the start of Ramadan, the Islamic fasting month, by looking at the moon? In this video, Rappler’s team, led by Paterno Esmaquel II, joins an Islamic moonsighting activity for the first time, going deeper into the lives of one of our country’s small yet significant minorities. Rappler visits the temple of the Church of Jesus Christ of Latter-day Saints, formerly known as the Mormon Church, and witnesses one of their efforts to forge interfaith harmony as a celebration of Christmas. Want to discuss any of these stories or tell us about other Rappler stories that made an impact on you? Share your thoughts on chat rooms in the Rappler Communities app, where our journalists can be directly reached. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Alice Guo,Apollo Quiboloy,artificial intelligence,Dubai,EDSA People Power Revolution,education in the Philippines,European Union,Ferdinand Marcos Jr.,Filipino culture,flood,Hindi Ito Marites,investment scams,journalism in the Philippines,Land Transportation Office,Leila de Lima,Manipulated Video,Negros Island Region,online scams,overseas Filipinos,Paris Olympics,Pharmally,Philippine Olympic team,Philippine politics,POGOs,PWDs in the Philippines,revolution,Sara Duterte,South Korea,Sulu,TikTok,video games,war on drugs,Western Visayas</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>WATCH: Top 5 News Stories This Week, December 15-21</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/video-top-5-news-stories-this-week-december-15-21/</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45647.17177083333</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The biggest POGO hub in the country is shut down; the House quad committee recommends charges against Rodrigo Duterte; a third impeachment complaint is filed against VP Sara Duterte; Mary Jane Veloso is back in the Philippines; the 2025 national budget bill is still hanging — these are the top news stories from December 15 to 21. Read the full stories here: #5 Biggest PH POGO hub in Island Cove, Cavite, closes down. Who owns it? #4 Duterte, Dela Rosa, Go liable for crimes against humanity — House of Representatives #3 Third impeachment complaint vs VP Sara asserts: ‘Removing her a moral obligation’ #2 After 14 long years, Mary Jane Veloso returns to the Philippines + Mary Jane Veloso reunites with family #1 Marcos postpones 2025 budget signing as groups decry DepEd, PhilHealth fund cuts + [In This Economy] Why the 2025 budget is a big ‘f*ck you’ to the Filipino people Watch the video for a quick run through these stories. – Rappler.com Producer, presenter, video editor: JC Gotinga Videographers: Jeff Digma, Ulysis Pontanares Graphic artists: Raffy de Guzman Supervising producer: Beth Frondoso How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Boying Remulla,Budget Watch,Cavite,Ferdinand Marcos Jr.,Juanito Victor Remulla,Mary Jane Veloso,overseas Filipinos,POGOs,Rodrigo Duterte,Sara Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Drama and discord that rocked the House of Representatives in 2024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/recap-summary-top-moments-issues-philippines-house-representatives-2024/</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45646.12603009259</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Rappler file photo, House of Representatives; Illustration by Alejandro Edoria/Rappler MANILA, Philippines – The house of cards tumbles down further. While House Speaker Martin Romualdez continues his grip on power in a 300-member-strong institution, the chamber’s worsening feud with the woman a heartbeat away from the presidency created political turmoil that’s unlikely to die down as the country heads to 2025. Rappler enumerates the key moments and issues that pushed the House of Representatives to the top of the news agenda for the year that was. President Ferdinand Marcos Jr. delivered his third State of the Nation Address (SONA) this year, an occasion marked by Vice President Sara Duterte’s absence (she claimed to be the “designated survivor” for the event) and his declaration to ban Philippine offshore gaming operators (POGOs), but ahead of the chief executive’s speech, the House attracted criticism for shelling out P20 million for the one-day gathering . The House insisted the expenses were justified — meals, rental of tech equipment, decorations, and uniforms of thousands of employees that will also be used after the event — but critics thought that it was “tone-deaf pageantry” amid the high prices of goods endured by Filipinos. It’s not Congress without the internal squabbles from time to time, and some lawmakers find themselves with no allies. SAGIP Representative Rodante Marcoleta, an ardent supporter of Vice President Sara Duterte, was booted out of five House committees. Davao City 1st District Representative Paolo Duterte had separate word wars with his 2025 congressional rival PBA Representative Migs Nograles over a drug test dare, and appropriations chairperson Zaldy Co over the reduced budget allocation for Duterte’s congressional district. Another Duterte ally, former House speaker and incumbent Davao del Norte 1st District Representative Pantaleon Alvarez, was the subject of an ethics complaint for once calling on the military to withdraw its support for President Ferdinand Marcos Jr. His supposed seditious statement, among other things, prompted the entire House to censure him. It was still a diluted punishment, as the House ethics panel originally proposed a 60-day suspension against him. Also on the receiving end of an ethics complaint is AGRI Representative Wilbert Lee, for grabbing the microphone from another congressman during the budget deliberations for the Department of Health. Marikina 2nd District Representative Stella Quimbo, who filed the complaint alongside BHW Representative Angelica Natasha Co, said she thought they were going to be assaulted by Lee during that moment. Filipinos opened 2024 with news of an aggressive push to amend or revise the 1987 Constitution. The effort — which appeared to have been started by the House — involved gathering signatures all over the country to enable a people’s initiative method as prescribed by the charter. Reports that people were paid P100 each to support the signature drive in various parts of the country added further controversy to the already delicate subject matter of amending the charter. The proposal also did not sit well with the Senate, who were bound to lose significant power under the version of a constituent assembly proposed by the House. The disagreements sparked a word war between both chambers, and the House even passed a resolution decrying the supposed “intense assault” by the Senate. In the end, the tight window to legislate due to preelection activities proved too difficult to overcome, delivering a slow death to the charter change agenda that has evaded success since the institution of the current Philippine republic post- 1986 EDSA uprising . Divorce was perhaps the most progressive measure passed by the House this year, but it was also the most divisive, with one-third of the entire body registering their no vote. It is languishing at the Senate and is unlikely to be passed before the 19th Congress ends, as it is not the President’s priority , but its approval in the lower chamber revived discussions on giving people in failed marriages a second shot at love. In December, the bicameral conference committee, half of which are House members, approved a reconciled budget proposal that some critics are calling one of the worst ever . There’s zero funding for state health insurer PhilHealth, P12-billion budget cut for the education department, but also substantial increases in the appropriations for Congress. The cash aid program conceptualized under Speaker Martin Romualdez’s leadership called AKAP also hurdled the bicam to the tune of P26 billion, despite criticisms that it’s similar to pork barrel . Under the administration of then-president Rodrigo Duterte, the House of Representatives treated then-senator Leila de Lima as a pariah, subjected to a sham inquiry , to bolster the trumped-up charges against the chief executive’s political nemesis. Eight years after that House investigation, she returned to the chamber now under a different leadership, and now more cordial towards her. The institution that launched a demolition job against her now values her voice as a subject matter expert on the pattern of vigilante killings that persisted under Duterte’s leadership. In early 2023, some lawmakers filed a House resolution seeking to defend former president Duterte against a potential investigation by the International Criminal Court. More than a year later, it’s difficult to imagine how anyone would file a proposal in support of the man from Davao City. Duterte was openly critical of the House’s charter change push , and as word wars between lawmakers and the former president’s family became more frequent, the hostilities just grew until it reached the point of no return. The feud culminated in Duterte’s appearance before the House to answer burning questions about his anti-narcotics campaign. It was tense at times, and he almost got physical with former senator Antonio Trillanes IV, a resource person during that hearing. The former president nonetheless was forced to maintain his cool amid constant reminders by lawmakers to follow proper decorum , unlike in the Senate where lawmakers struggled to reel him in . It was in the same November 13 hearing that Duterte admitted giving reward money to policemen — not necessarily for people they killed, but for “big crimes solved.” Before the year ended, the quad committee accused Duterte of orchestrating a “grand criminal enterprise” — by profiting from the drug war he enabled, and recommending that charges of crimes against humanity be filed against him and his allies, including senators Bong Go and Ronald “Bato” dela Rosa. Four individual committees convening as one to investigate the rise of POGOs, the proliferation of illegal drugs, the surge in state-sanctioned killings, and the operations of Chinese syndicates — that’s the concept behind the quad committee , which successfully captured public interest, amassing millions of online views — a feat comparable to the audience share of primetime soap operas. The hearings further elevated the political profiles of local congressmen, such as Ace Barbers, Dan Fernandez, Bienvenido Abante, and Caraps Paduano, and introduced the viewing public to neophyte lawmakers who possess the gift of gab, such as Rodge Gutierrez and Gerville Luistro. The inquiry also exposed the House’s penchant for contempt citations. Among those ordered arrested throughout the course of the months-long investigation were POGO-linked businesswoman Cassandra Ong , dismissed mayor Alice Guo , police colonel Hector Grijaldo , retired police officers Royina Garma and Edilberto Leonardo , prison officer Gerardo Padilla , businessman Tony Yang , and even former presidential spokesperson and congressman Harry Roque . One of the most notable people cited in contempt and ordered arrested by the House good government committee was Vice President Sara Duterte’s chief of staff Zuleika Lopez , for supposedly trying to stop the Commission on Audit from submitting to Congress its findings related to the secret funds of the OVP and the Department of Education when it was led by Duterte. Duterte subsequently defied House protocols to spend the night at Batasang Pambansa to be accessible to her top aide. She also secured the permission her brother, Congressman Duterte, to stay “indefinitely” at his office. “The House of Representatives is for all Filipinos. It is not a place to be abused or turned into a personal space, no matter who you are. If there is no respect for simple rules, how can we trust them to uphold the greater responsibilities entrusted to them by the people?” House leaders said in a strongly worded statement in November. It was during Duterte’s stay at the House when she went on an online rampage against President Marcos, First Lady Liza Araneta-Marcos, and Speaker Martin Romualdez, even divulging that she had arranged their assassination in the event that she was killed. While she had backtracked on her statement, the government viewed the threat as serious enough to warrant a full-blown investigation . The political conundrum of Sara Duterte stemmed from her use of public funds. Her refusal to sufficiently answer valid questions during her only appearance during House budget deliberations, and subsequent absences , did not do her any favors, resulting in a P1-billion deduction from her proposed 2025 budget. Worse, the House launched a full-blown investigation into Duterte’s handling of secret funds. The inquiry unearthed damning revelations — that Duterte showered field personnel with cash gifts , that the COA disallowed P73 million in her confidential expenses in 2022 and flagged another P164 million in 2023 , that her submissions to COA included allegedly fabricated receipts , and that she let her security personnel instead of special disbursing officers manage the secret funds . After months of speculation, opposition lawmakers finally pulled the trigger and endorsed impeachment complaints against Vice President Duterte in early December. The first one , filed by civic organizations fronted by former senator De Lima, got Akbayan’s backing, while the second one , filed by various left-leaning organizations, was supported by Makabayan lawmakers. A third one , filed by priests, was endorsed by two more ranking congressmen from the House minority. All complaints accused Duterte of betraying public trust, and invoked findings by the House good government committee on her alleged misuse of funds to bolster their case. The House adjourned for the holidays without endorsing the complaints to the justice committee, tightening the window for impeachment advocates to successfully remove Duterte from office. But without a resolution, the effort also casts a long shadow on the Vice President’s political future. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Budget Watch,confidential funds,House of Representatives,Leila de Lima,Martin Romualdez,POGOs,Rodrigo Duterte,Sara Duterte,war on drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Biggest PH POGO hub in Island Cove, Cavite, closes down. Who owns it?</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/island-cove-pogo-hub-owners-closed-down/</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45643.36194444444</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CLOSED. Interior Secretary Jonvic Remulla lead Pagcor chair Al Tengco, PAOCC chief Gilbert Cruz, PNP chief Rommel Marbil, and other heads of agencies in closing down Island Cove POGO hub on December 17, 2024. Photo by Lian Buan/Rappler CAVITE, Philippines – Dubbed as the biggest Philippine offshore gaming operator (POGO) hub in the country, the Island Cove in Kawit, Cavite, closed down in a high-profile ceremony on Tuesday, December 17, with a company official downplaying the owners’ link to the family of prominent Chinese junket operator Kim Wong. Interior Secretary Jonvic Remulla led other heads of agencies in inspecting, and then padlocking facilities inside the 30-hectare hub on Tuesday. He wanted to “make it clear that since the transfer of ownership of Island Cove to the lessors, the Remulla family has had no involvement whatsoever,” he said in a mix of english and Filipino. Philippine Amusement and Gaming Corporation (Pagcor) chief Al Tengco said the hub had no violation, but was only complying to the ban on all offshore gaming operations , including legal licensees. Tengco said the closure was to send a message that the all-out POGO ban of President Ferdinand Marcos Jr. spares no one. “Marami kasing katanungan sa araw-araw kung ‘yung pinaka-malaking hub sa Cavite ay ano na ba talaga ang estado sa pangkasalukuyan ,” said Tengco. (There are many questions on the current status of the biggest hub in Cavite.) Remulla said that as far as he remembered, their family already sold the property in 2018 to First Orient International Ventures Corporation, which then repurposed it into a POGO hub starting January 2019. First Orient was indeed owned by Justice Secretary Jesus Crispin Remulla and Pagcor director Gilbert Remulla and three others in 2018, according to the 2018 General Information Sheet submitted by the company to the Securities and Exchange Commission (SEC). By 2019, First Orient was owned by a new set of six officers, including Kevin and Kathryn Wong who we know from past reporting are Kim’s children; and Kimberly Wong who shares the same address as the other two. Wong was implicated in the 2016 Bangladesh Bank heist, one of the biggest cyber heists in the world where stolen money from the Central Bank of Bangladesh was funneled into Philippine bank RCBC and found its way to Wong’s casino. Wong claimed he did not know it was stolen money, and voluntarily returned $4.63 million. But First Orient general manager Ron Lim tried to conceal, or at least downplay, the Wongs’ ownership of the company. In 2019, Kevin Wong was being quoted as manager of Oriental Group which by that time was already planning operations in Island Cove, according to a Manila Standard report . “Different [company], no relation at all,” said Lim, and even added, “I think that’s a confusion because the name is First Orient, people thought it’s Oriental Group.” A Meralco press release in 2023 identified First Orient as its partner in putting up a substation on Island Cove, and the banner photo on the release shows Meralco officials with Kevin and Kimberly Wong. There is also another company by the name Island Cove Corporation which in 2022 was owned by Justice Secretary Jesus Crispin Remulla and four others, according to amended articles of incorporation filed with the SEC. By 2023, Island Cove Corporation was owned by the three Wongs plus three others. We showed Lim this 2023 Island Cove Corp General Information Sheet and asked if it was the same, but the general manager replied: “ Wala na yan (That’s no more), I think that company is dissolved already. It’s not us.” Rappler obtained First Orient’s SEC documents after the ceremony. We also showed Interior Secretary Jonvic Remulla the Island Cove Corporation documents, but he said he did not know the nitty-gritty of the company structure. “Sa totoo lang. hindi ako nakikialam sa negosyo ng tatay ko noon. Ang buhay ko noon ay nasa public service lang eh ,” he said. (Honestly I didn’t get involved in my father’s business back then. My life was just in public service.) There’s also a company called Island Cove Hotel and Leisure Park which was incorporated by the Remulla family, consistent with the interior secretary’s description of their former property as being a resort venue for seminars and conferences. Lim said First Orient acted as the lessor and it rented out a total of 57 buildings to four POGO licensees. We later verified with Pagcor that these licensees were Glarion Technologies Corporation, Merit Legend Solutions Incorporated, Squared Route Technologies Corporation, and Digital Jenius Incorporated. Interior Secretary Jonvic Remulla was adamant that the POGO hub was not granted any permit signed by him even when he was Cavite governor, nor his brothers — Justice Secretary Jesus Crispin Remulla and Pagcor director Gilbert Remulla. Marcos appointed Gilbert Remulla to the Pagcor board in 2022. “ Noong siya’y na-appoint, ito ay existing na at wala na siyang pinirmahan (when he was appointed, this was already existing and he did not sign anything) in whatever way or form to endorse the operation  of this island,” said Interior Secretary Jonvic Remulla. Lim said the hub employed 30,000 at its peak, but only employed 4,000 before closure. Reporters who were able to tour parts of the compound on foot saw a sprawling little town complete with its own leisure club, clinic, beauty center, hotel, restaurants, salons, residential houses, playgrounds, mid-rise buildings that served as dormitories and what looked like barracks. Interior Secretary Jonvic Remulla said that the hub was already disconnected from power last month, and its only occupants were some caretakers. Asked whether they received any adverse information at all about the operations of Island Cove, Presidential Anti-Organized Crime Commission (PAOCC) chief Undersecretary Gilbert Cruz said, “ May mga reports but hindi kami nagkaroon ng pagkakataon to validate (There were reports but we never had a chance to validate).” “ ‘Yun ‘yung sinasabi nilang totoo ba ‘yung kampanya ng presidente kasi hindi pa napapasara ang Island Cove, but now nai-ban, naipasara, at least nakita natin ang sincerity ng government in their plan of curbing or putting a stop to POGO operations,” said Cruz. (They always ask, is the President’s campaign really true because Island Cove has not been shut down, but now it’s been banned, it’s been closed, and at least we see the sincerity of the government in their plan of curbing or putting a stop to POGO operations.) – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Cavite,DILG,organized crime,Pagcor</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>House quad committee frees Cassandra Ong</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-representatives-quad-committee-frees-cassandra-ong-december-12-2024/</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45638.64072916667</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Lucky South 99 POGO point person Cassandra Ong waits for the start of the senate hearing on on Philippine Offshore Gaming Operations (POGOs), human trafficking, cyber fraud and other criminal activities. Senate Social Media Unit MANILA, Philippines – The House of Representatives quad committee has freed Cassandra Ong, the 24-year-old Philippine offshore gaming operator (POGO) worker tied to the alleged scam hub in Porac, Pampanga, who has been detained for almost four months now over contempt charge. The quad committee ordered to lift the contempt charge against Ong late night Thursday, December 12, as it wrapped its last hearing for the year. Ong had moved to lift the charge citing mental health problems due to being incarcerated at the Correctional Institute for Women (CIW), a facility for convicts. “I just signed earlier an order addressed to the CIW to release her, so maybe tomorrow (she will be freed),” quad committee chairperson Representative Ace Barbers told reporters past 10pm Thursday. Ong is a key figure in the POGO network of Porac, Pampanga and the similarly raided scam hub in Bamban, Tarlac linked to dismissed mayor Alice Guo, but she has stuck to her denials throughout the hearings. Documents show Ong acted as representative for the POGO licensee in Porac, and a registered officer of the leasing company. She’s also been described as some sort of a middle manager there. Her boyfriend is Guo’s brother. But Barbers said “ wala na kaming makukuhang iba pang information (we can no longer extract more information from her) and what she has said before the committee is sufficient enough for us to write our committee report.” Ong was transferred to the CIW end of September as part of a strategy to make her squeal more details about her bosses, with offers of witness protection. She maintained to the end that she was not a dummy. She faces multiple complaints of human trafficking and money laundering, all still pending before prosecutors. Without a resolution on those, she will regain freedom until and unless she is charged and then ordered arrested like Guo. The committee also lifted the contempt charge on Tony Yang, the eldest brother of Rodrigo Duterte’s former economic adviser Michael Yang, and said to be the architect of a shady Chinese network, However, Yang will continue to be detained on immigration charges. He had earlier been granted medical furlough. The committee lifted some more contempt charges, except the one against Duterte’s former spokesperson Harry Roque who still has not surfaced ever since the House ordered him arrested. Roque has confirmed he is abroad, and signed his counter-affidavit from the United Arab Emirates. Barbers said the contempt charge against him will last until their hearings terminate. They will resume hearings next year mid-January. Roque faces complaints too for human trafficking and money laundering for his role in the Porac POGO – having helped Ong set up meetings with the (Philippine Amusement and Gaming Corporation to renew its gaming license. Barbers said the committee still vetting one more witness to add to their information on POGOs, but could not reveal more details. “It’s an entirely new information, so we’re trying to assess and probably a witness will come out,” said Barbers. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>House of Representatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Philippine gambling revenue to hit record $6B this year</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/gambling-hits-record-revenue-this-year/</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45636.45230324074</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ROULETTE. The spinning wheel on a roulette table is seen at Japan Casino School in Tokyo, Japan, August 4, 2018. Toru Hanai/Reuters MANILA, Philippines – The Philippine gambling industry’s revenue is projected to reach a record of more than P350 billion ($6.03 billion) this year, driven by growth in the electronic gaming sector, the head of the country’s gaming regulator said on Tuesday, December 10. The forecast surpasses the P334 billion target set by the Philippine Amusement and Gaming Corporation (Pagcor ) and represents a significant increase from the previous year’s gross gaming revenue (GGR) of P285 billion. “Our GGR for the year, I think it’s over 350 billion pesos,” Pagcor Chairman Alejandro Tengco told reporters. GGR is a key industry metric that reflects the total amount wagered by players minus their winnings. A boost in the revenues of Pagcor, which is directly under the office of the Philippine president, bodes well for the Southeast Asian country because the bulk of its earnings form part of the national budget. Manila’s gambling scene, which features a smaller version of Las Vegas’s amusement strip with integrated casino resorts owned by companies like Japan’s Universal Entertainment Corp and Melco Resorts &amp; Entertainment Ltd, continues to attract high rollers from China, Japan, South Korea, and other countries. Tengco also announced that Pagcor is on track to revoke all licenses of offshore gambling firms by year-end in compliance with President Ferdinand Marcos Jr.’s July directive banning Philippine offshore gambling operators, or POGOs . The ban follows reports of POGO-related crimes, including human trafficking, torture, kidnapping, and fraudulent activities such as credit card scams and cryptocurrency investment fraud. The online gambling industry emerged in the Philippines in 2016, rapidly expanding as operators leveraged the country’s liberal gambling laws to target Chinese customers, where gambling is illegal. – Rappler.com $1 = P58 How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>gambling,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Cavite's biggest POGO hub ends operations ahead of year-end deadline</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/cavite-biggest-pogo-island-cove-ends-operations/</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45631.375</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CLOSED. The Island Cove POGO shut down its operations on November 30, 2024. Dennis Abrina/Rappler CAVITE, Philippines – The largest Philippine offshore gaming operator (POGO) in Cavite officially shut down operations way ahead of the government’s year-end deadline. The Island Cove POGO hub in Kawit, Cavite, ended its operations on November 30, based on signs posted on its facade. This is a month before the December 31 deadline set by the government on the closure of all POGOs and internet gaming licensees (IGLs) in the country. President Ferdinand Marcos Jr. first announced a ban on POGOs in his State of the Nation Address (SONA) in July. He issued Executive Order No. 74 in early November to guide the implementation of the  ban. The government started canceling the work visas of foreign POGO workers on October 15. Kawit Mayor Angelo Aguinaldo said in an interview in October that as many as 7,000 Cavite residents  will be affected by the Island Cove POGO closure. The Department of Labor and Employment earlier said that it does not expect all displaced POGO and IGL workers to get their desired jobs following the shutdown of their companies’ operations. The Senate probe into illegal POGOs in the country played a key role in the government’s decision to impose a POGO ban, especially after the committee chaired by Senator Risa Hontiveros exposed the questionable Filipino citizenship of dismissed Bamban, Tarlac mayor Alice Guo . – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Cavite</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Why did Harry Roque run to UAE unnoticed?</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/why-harry-roque-run-uae-unnoticed/</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ROQUE. Former presidential spokesman Harry Roque attends the resumption of the Senate investigation into Philippine offshore gaming operators on July 29, 2024. Angie de Silva/Rappler Harry Roque , former presidential spokesperson to Rodrigo Duterte , discreetly left the country for the United Arab Emirates (UAE) when he was faced with a congressional warrant. But he did so under the radar as immigration authorities could not find any record of port departure . To this day, there is no court-issued warrant for Roque and thus no legal barrier for him to leave the country, but the Bureau of Immigration (BI) is still mulling filing a potential case against him for falsification of records. Immigration chief Joel Viado said that based on their records, Roque did not leave the country, or even attempt to leave, via formal channels. “He most probably falsified immigration clearances to be accepted by his destination country,” Viado said. “It’s impossible that he left via formal ports. His name is in the BI’s Lookout Bulletin, and he is a very well-known public figure. You can spot him miles away,” he added. Roque’s travel to UAE was made known only when he had to go to the embassy in Abu Dhabi to swear to his counter-affidavit that he then submitted to the Philippine Department of Justice (DOJ) to answer a human trafficking complaint. Roque was part of a supplemental list of repondents filed by law enforcement in the complaint related to the raided scam farm in Porac, Pampanga. Roque is linked there by virtue of his lawyering for some of the company officials. Although he admits to lawyering for the lessor Whirlwind in an ejectment case, and then helping Lucky South 99 POGO representative Cassandra Ong to set meetings with Philippine Amusement and Gaming Corporation regulators, Roque denied that this necessarily makes him the lawyer of the scam farm, moreso liable for whatever crimes the company might have committed. Roque’s counter-affidavit shows he had subscribed to it before Philippine embassy officials in Abu Dhabi. “I’m no longer in Abu Dhabi. I went to Abu Dhabi para mag-subscribe ‘yan [to subscribe to my affidavit], but I’m no longer in Abu Dhabi,” the former presidential spokesperson said. “… I had to have my sworn statement notarized. I came to [the] UAE just for the purpose of notarizing that,” Roque said via Zoom. He confirmed that he is still outside the country. Abu Dhabi is where the embassy of the Philippines is, so it was required of him to go there to subscribe to his counter-affidavit. Could he have gone to Abu Dhabi from Dubai? Rumors had earlier swirled among quad committee members that Roque had already flown to Dubai, but these suspicions were never confirmed, and only fueled now because of his trip to the embassy in Abu Dhabi. Rappler has traced properties in Dubai that belong to other people linked to former president Rodrigo Duterte. Our earlier investigation showed that Duterte’s one-time economic adviser Michael Yang, and his close associate and Pharmally financial manager Lin Weixiong bought properties there in 2021. Yang had also flown to Dubai last May, his records showed. Rappler confirmed this with the justice department. Another Dubai property owner is Roque’s lessee in Benguet. Roque leased out their family townhouse in Benguet to a Chinese woman he had identified as Anna. In a later mission order on the townhouse, Immigration authorities arrested a man who identified himself as Cambodian, but who later turned out to be a Chinese citizen wanted for involvement in an investment scam. The Chinese fugitive was Anna’s partner, Roque had told the House of Representatives. Rappler obtained a copy of Anna’s passport. Dubai’s Land Registry confirmed that Anna, using the Chinese passport that we have on file, is registered as a property owner in Dubai. “ Ang Dubai ay isang POGO hub kaya baka mga POGO actors din ang tumulong sa kanya (Dubai is a POGO hub so POGO actos might have helped him escape),” Senator Risa Hontiveros, who led the Senate probe into POGOs, said. Roque’s wife Mylah was also in Abu Dhabi when they sought consular services, according to the Department of Foreign Affairs. Mylah Roque was also ordered arrested by the House quad committee although much later, in October. “The Philippine embassy in Abu Dhabi extended consular services to Mr. and Mrs. Roque, as required for documents executed abroad for use in the Philippines. They were able to present valid passports and appear to be staying in the UAE legally,” said Department of Foreign Affairs spokesperson Teresita Daza. Viado said that Roque’s last travel, based on Immigration records, was in July 2024 when he returned from Los Angeles, California. By August, the DOJ had included him in the Immigration Lookout Bulletin order (ILBO), still in relation to the Porac, Pampanga scam farm. The companies in Porac, the lessor Whirlwind, and the Lucky South 99 POGO had denied they were running a scam farm. By September, the House of Representatives quad committee had ordered Roque’s arrest and detention after the human rights lawyer stopped attending the hearings. Roque refused to submit documents of his own company, which had generated interest among quad committee members because of jumps in assets . Still, both the ILBO and the House warrant are not sufficient legal grounds to stop Roque from traveling abroad, even if he had departed via an official port. Only a court-issued warrant can result in a travel prohibition by virtue of a Hold Departure Order (HDO), which is issued by a judge after the warrant. The DOJ had said it will apply for a precautionary HDO (PHDO) against Roque, which is an option available to prosecutors when they think the subject of a complaint is a flight-risk. This can be applied even if there is no warrant yet, but it still needs to be approved by a judge. Prosecutor General Richard Fadullon said on Tuesday that they had already applied for a PHDO, although it’s unclear when this PHDO was issued, or if it was issued at all. “I will talk to the panel [of prosecutors] about it [PHDO],” said Fadullon. This was the exact same scenario of dismissed Bamban mayor Alice Guo, who left the country with only an ILBO and a House warrant. There was no PHDO against Guo, because the DOJ did not apply for it. Until now, there is still no clear information on to how Guo was able to pass through the authorities’ supposed strict security. “Unfortunately at this point, we cannot say with finality how she was able to depart from the Philippines. But the Bureau of Immigration commits to continue [the] investigation and continue coordinating with other concerned agencies in the Philippines and other immigration officials from other countries,” Viado said. The prosecutors are now at the preliminary investigation stage when they have to determine whether or not they would file a case against Roque and others for trafficking. The reason why Roque was required to file his counter-affidavit was to explain his side before the prosecution decides on the suit. Failure to do so would allow the prosecutors to submit the case for resolution or file it in court. “Now, even if he submits a counter-affidavit through his lawyers, doesn’t mean the panel will immediately accept that. Because number one, he’s not within the jurisdiction of our panel here in the Philippines,” Fadullon explained. “The only way that we can consider that, is, if he executes the affidavit and has it notarized or apostilled before the embassy of the country where he is at that particular time,” he added. But Roque insists that he no longer needs to appear again before a Philippine embassy to subscribe his affidavit. The issue of jurisdiction is important for practical reasons. The prosecutors are careful in accepting Roque’s affidavit because they have to ensure that they can bring him to court should they pursue the case. In other words, if the prosecution indicted Roque, they should be able to reach him to continue the case. If not, even if there’s a case filed in court, the tribunal may archive the case until the arrest of the accused. – with reports from the Organized Crime and Corruption Reporting Project (OCCRP) / Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bureau of Immigration,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>In The Public Square: Risa Hontiveros and the Opposition</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/in-the-public-square-episode-risa-hontiveros-opposition/</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45630.50052083333</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A week ago, Senator Risa Hontiveros formally ended the long-running legislative inquiry into Philippine overseas gaming operators (POGOs). She had led the probe as chair of the Senate committee on women, children, and family relations. The stunning revelations at the hearings have forced the public to view not only POGOs but the Rodrigo Duterte administration that encouraged them in a new light. The findings of the inquiry also thrust Senator Hontiveros, the only member of the political opposition in the Senate, even further into the limelight. What’s next for Senator Hontiveros? And what can we expect from the opposition? In this 100th episode of In The Public Square, Rappler columnist and editorial consultant John Nery is joined by none other than opposition senator Hontiveros herself. Watch the episode on Wednesday, December 4, at 8 pm. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Philippine politics,POGOs,Risa Hontiveros,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Not all displaced POGO workers seen to find desired work by December 31 – DOLE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/not-all-displaced-pogo-workers-seen-find-desired-work-by-end-2024-dole/</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45628.36930555556</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. JOB FAIR. Applicants who previously worked in Philippine Offshore Gaming Operators and Internet Gaming Licensee employees, queue at the Department of Labor and Employment job fair, at a mall in Pasay City on November 19, 2024. Rappler MANILA, Philippines – Not all of the tens of thousands of displaced Philippine offshore gaming operator (POGO) and Internet Gaming Licensee (IGL) workers are seen to get the jobs they want after the December 31 POGO closure deadline set by President Ferdinand Marcos Jr., the Department of Labor and Employment (DOLE) said on Monday, December 2. “ Hindi po namin puwedeng masiguro na 100% yung mga maapektuhan na manggagawa ay makakakuha kaagad ng kanilang nais na trabaho ,” said Labor Secretary Bienvenido Laguesma in a press briefing. (We cannot guarantee that 100% of the affected workers will be able to get the jobs they want.) Despite holding at least four job fairs for the displaced workers, the DOLE noticed that “not a lot” have been participating. Upon investigation, the department deduced the following reasons: some are not convinced that the December 31 deadline will push through, and many of the vacancies being offered at job fairs are entry-level. “ Siguro gusto nilang maghanap ng trabaho na similar doon sa kanilang ginagawa na magbibigay ng kaparehas o mas higit na mataas na benepisyo… Kaya kasama po doon sa adjustment na ginagawa ng DOLE, in particular National Capital Region, ay manghikayat ng mga employers na medyo higher-level ang mga [posisyon] at nang sa ganon ay medyo maenganyo magkaroon ng encouragement yung mga mag-a-apply na IGL, ” said Laguesma. (We think they are probably looking for jobs that are similar to what they were doing, which also has the same salary and benefits as before… That’s why one of the adjustments the DOLE is doing, in particular the National Capital Region, is to urge employers to offer higher-level positions, so that the IGL applicants will be more encouraged to apply.) The DOLE has finished profiling some 27,790 Filipino workers with existing IGL operations in Metro Manila, Central Luzon, Calabarzon, and Central Visayas. But the number of affected workers may reach up to 42,000, which also accounts for indirectly hired and utility workers. Marcos announced his administration’s ban on POGOs during his State of the Nation Address on July 22. He instructed the Philippine Amusement and Gaming Corporation to cease the operations of all POGOs by the end of the year. POGO operations have been plagued with crime and scandals related to money laundering, immigration bribery, illegal recruitment, and human trafficking. In the special job fairs conducted in October and November in Parañaque, Makati, Cavite, and Pasay, 202 IGL workers were hired on the spot, 708 employees enlisted for employment facilitation, and 118 were provided livelihood assistance. The DOLE cancelled over 36,000 alien employment permits of foreigners working in POGOs and IGLs. Laguesma said that there have been no discussions so far about extending the December 31 deadline. “ Tuloy-tuloy pa rin po kami kahit na sa January, February, na tutulong doon sa mga naapektuhang IGL (We will continue to assist the affected IGL workers even in January and February),” he said. The DOLE also said that it was possible that the workers were just not interested in the jobs offered in the fairs. Skills mismatch may be one reason, but another is “ geographical mismatch ,” which means an applicant may have the skills for a job, but the place of work is in another region. “On that score, we’re also advocating telecommuting, so that they will not be dislocated, and there will be no social cost, but there are just some jobs that really require a physical presence,” Laguesma said in a mix of Filipino and English. Philjobnet, the DOLE’s online portal for all job vacancies across industries, listed around 2 million vacancies from January to November. This is close to the 1.89 million-figure of unemployed Filipinos as of September. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>DOLE,Philippine labor</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Rappler Recap: No Alice Guo in Senate’s final hearing on POGO</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/recap-no-alice-guo-senate-final-hearing-pogo-november-2024/</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45622.39299768519</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – The Senate committee on women, children, family relations, and gender equality chaired by Senator Risa Hontiveros concluded its hearing on illegal Philippine offshore gaming operators on Tuesday, November 26. The probe’s main star, dismissed Bamban, Tarlac mayor Alice Guo , was absent as the Pasig City court handling her trafficking case did not allow her to appear in the final probe. The court explained in a letter to the Senate panel that the legislative inquiry coincided with the court’s hearing on the same day. Meanwhile, the probe proceeded as usual and focused on the allegation that Guo was a Chinese spy . The hearing also zoomed in on the actions taken so far by several agencies amid the crackdown on POGOs. Click the video above to watch the recap of Rappler reporter Jairo Bolledo as he reviewed the key events in the Senate’s final POGO hearing. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Senate's final POGO hearing: Absent Alice Guo, what's next after the probe</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/senate-final-pogo-hearing-absent-alice-guo-next-steps-after-probe-november-2024/</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45622.37366898148</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. EMBATTLED. Dismissed Bamban, Tarlac mayor Alice Guo attends the Senate public hearing on human trafficking, cyber crimes and other related abuses in connection with POGO operations, on September 9, 2024. Angie de Silva/Rappler MANILA, Philippines – After months of inquiry, the Senate hearing on illegal Philippine offshore gaming operators (POGOs) ended on Tuesday, November 26. The probe’s main star, dismissed mayor Alice Guo , was unfortunately absent due to a conflict in schedule. The Pasig City Regional Trial Court Branch 167 did not grant the Senate’s request to allow Guo to attend the legislative hearing as the dismissed official was also scheduled to appear before the court at the same time as the inquiry. UPDATE: Dismissed mayor Alice Guo will skip the Senate's final hearing on illegal POGOs today, November 26. There's a conflict in schedule as Guo will face a Pasig City court today, where her trafficking case is pending. @rapplerdotcom 📸Sen. Hontiveros' office pic.twitter.com/Cpn2Noin7E Despite this, the hearing still pushed through, with some key figures in the POGO probe like Shiela Guo , the dismissed mayor’s alleged sister, and Tony Yang , the brother of Michael Yang, in attendance. The two were also implicated in the probe like Guo. In the final inquiry, the Senate women’s committee chairperson Senator Risa Hontiveros made sense of the extent of alleged Chinese operations in the country. Hontiveros cited the findings and talked to retired rear admiral Rommel Ong, who studied how POGO operations and disinformation networks are intertwined with each other. “ Nagimbal din ako sa impormasyon (I was also shocked by the information ) which confirms some of my earlier theories that scam cities are used to sow disinformation campaigns to influence hearts and minds. Mukhang hindi lang sugal, scam, at trafficking ang pakay ng mga compound na ito, kundi fake news din (It seems these compounds not only cater to illegal gambling, scamming, and trafficking, but also disinformation),” the senator said. Hontiveros also doubled down on her earlier theory that Guo might be involved in alleged espionage. National Intelligence Coordinating Agency Deputy Director General Francisco “Ashley” Acedillo said that Guo could be considered an “agent of influence,” but clarified that there is no law or any convention in the country that defines the said term. “There are several ways to define an agent of influence. What is applicable on the part of Ms. Go Hua Ping is that she uses her influence, her stature, or her position to influence public opinion or decision-making to produce results beneficial to the country whose services they benefit from,” Acedillo explained. “So, to that effect, Madam Chair, that is applicable to her and therefore, she may be classified as such. Although we would like to acknowledge that there is no law currently that defines it as such. However, intelligence and counterintelligence convention, which falls under our purview, recognizes that convention, Madam Chair,” he added. Amid the probe into POGOs, alleged criminal She Zhijiang agreed to be interviewed by the news team of international news group Al Jazeera , where he revealed that he is actually a Chinese spy, recruited by China in 2016 in the Philippines. He also claimed that Guo was allegedly his fellow spy. The Senate POGO hearing did not only reveal how crimes like trafficking are incorporated into POGO operations, but also showed how local officials are allegedly involved in the scheme like Guo, the former mayor of Bamban, Tarlac. She was the main focus of the probe for months as her case showed how people in power used their mandate to allegedly allow illegal activities in POGO hubs. On top of these, Guo’s case also showed the problem of accountability in the Philippines after she successfully left the country despite the ongoing investigation into her activities. As the Senate wrapped up its inquiry, Hontiveros asked the Bureau of Immigration (BI) about Guo’s earlier escape. “Unfortunately at this point, we cannot say with finality how she was able to depart from the Philippines. But the Bureau of Immigration commits to continue on the investigation and continue coordinating with other concerned agencies in the Philippines and other immigration officials from other countries,” BI Commissioner Joel Anthony Viado said. Viado added that the bureau had already asked its foreign counterparts and is now awaiting more information about the escape of the Guo siblings. Back in August, Shiela said they fled the country by boat, which was also the claim of the dismissed mayor when she faced the Senate weeks later. However, the BI dispelled these claims just last month and said the Guos escaped via air, and not by sea. Guo’s escape became the trigger for President Ferdinand Marcos Jr. to fire his first immigration chief, Norman Tansingco, and replace him with Viado. Now that the probe has ended, the Hontiveros-led panel is expected to submit its findings via a committee report. After all, legislative inquiries are done in aid of legislation, either to add to, or improve on, the country’s existing laws. Even if the committee has yet to submit its report, the probe has already produced some results, like the discovery of more people allegedly involved in the scheme, and the filing of necessary complaints against Guo. On top of trafficking, the dismissed mayor also faces a pile of suits like money laundering and a quo warranto petition under the Office of the Solicitor General (OSG). How about for the other agencies concerned? The Securities and Exchange Commission, which is tasked to oversee corporate registration, said it is now implementing more stringent rules in corporate applications. Meanwhile, Philippine Statistics Authority Assistant National Statistician Marizza Grande said that apart from their probe into illegally obtained birth certificates, the PSA also blocked 100,720 birth certificates and civil registry documents. Of this number, 1,627 were birth certificates of foreigners, said Grande. “1,464 of these records have been endorsed to OSG for the filing of the petition for cancellation. So, ‘ yong isa na case nga po dito na na-file na namin with OSG, ito ‘yong cancellation ng birth certificate ng (one of the cases we filed with the OSG was the cancellation of the birth certificate of) former mayor Alice Guo. So that’s one of the immediate actions that we did. And currently we’re having data sharing with DFA [Department of Foreign Affairs], NBI [National Bureau of Investigation], and BI for those records that we have been blocking,” the PSA official explained. Marcos has also already issued his executive order that officially bans POGOs of all sorts in the country. But despite these changes, operators behind these businesses appear to find ways to circumvent the government’s current policies and still exist despite the crackdown against POGOs. Presidential Anti-Organized Crime Commission (PAOCC) director Winnie Quidato told the committee that some big POGO companies are splintering into smaller groups, with some branding themselves as business process outsourcing companies. “ So iba-iba po ang style po nila but most of them, nagiging mga guerrilla groups na into 10s, 20s where before they were operating in thousands. So just like what we found in Parañaque when we raided the Parañaque group, nakita po namin sa isang subdivision na mayroon silang inokupa na 45 houses within the subdivision ,” the PAOCC official said. (So they employ different styles but most of them are becoming guerrilla groups working in 10s, 20s, whereas before they were operating in thousands. So just like what we found in Parañaque when we raided the Parañaque group, we saw a subdivision where POGOs occupied 45 houses within the subdivision.) – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Alice Guo,Risa Hontiveros,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vaults in raided Bataan hub contain P112.5 million</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/vaults-raided-bataan-hub-central-one-contain-millions-pesos-november-2024/</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45616.5737962963</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SEARCH. A total of P76 million in cold cash, made up of pesos and other foreign currencies, along with documents, are discovered as authorities begin to break open 12 vaults at the raided Central One Bataan hub in Bagac, Bataan on November 20, 2024. Joann Manabat/Rappler BATAAN, Philippines – The vaults inside the raided Central One hub in Bataan contained P112.5 million made up of pesos and other foreign currencies, but the company claimed the cold cash is merely for operational expense. Authorities released the final figure on Thursday, November 21, far more than the initial estimate of P76.8 million on Wednesday night, November 20. Operatives opened the vaults in Central One on Wednesday, as part of the return of search warrant. Central One, a hub operating under the Authority of the Freeport Area of Bataan (AFAB), was raided last month on the basis of a search warrant requested by authorities because they suspected the hub to be illegally operating a gaming hub. Evidence of illegal operations cited so far by authorities are gaming apps notorious for being used in cryptocurrency scams. The opening of 12 vaults on Wednesday was still part of the search, yielding Philippine pesos, US dollars, Malaysian ringgits, and Singaporean dollars. Central One’s legal counsel, Don Chiong, said the cash is part of the company’s operations, noting that the funds may be used for employee salaries and payments to suppliers. “This is part of operations. It’s a big company employing 1,600 employees. So this money is used for operations, for salary, payment to various suppliers, etc. We are not hiding anything. We have to remember it’s the 13th month season,” Chiong added in Filipino. Chiong said they are cooperating with authorities to open the vaults. “We are here voluntarily. The only thing is the keys. There are some vaults that have passcodes and keys. Unfortunately, the keys are missing. But again, we are here to cooperate with authorities,” he added. A total of 14 vaults were discovered during a raid conducted by the PAOCC, CIDG, and the PNP Special Action Force last October 31. However, two of the vaults were found to be already open during the operation. The seized money and other items found in the vaults will be brought to Camp Crame in Quezon City before being transported to the Malolos court as part of the evidence. There were 42 foreign workers apprehended by the Bureau of Immigration, but 41 of them were granted bail on recognizance with the help of Bataan 2nd District Representative Albert Garcia. Rappler earlier reported that eight of the temporarily freed workers flew to Cebu on November 8 via a private plane. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bataan</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Raided Bataan hub workers, out on temporary freedom, flew to Cebu, manifest shows</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/manifest-shows-workers-central-one-gaming-hub-bataan-flew-cebu/</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45614.61887731482</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CENTRAL ONE. The raid on Central One was part of an investigation into the company posing as a business process outsourcing (BPO) firm but was suspected of operating illegal Philippine offshore gaming activities. Joann Manabat/Rappler PAMPANGA, Philippines – Eight foreign nationals from the raided gaming hub in Central One in Bataan, who have been granted bail on recognizance by the Bureau of Immigration (BI), have left on a private plane bound for Cebu, a passenger manifest obtained by Rappler shows. This is the latest development in the controversial operation that has pitted local officials against law enforcement, with Bataan 2nd District Representative Albert Garcia publicly defending the Central One workers against what he said was a “nightmare” raid led by the Presidential Anti-Organized Crime Commission (PAOCC). PAOCC and the police had a search warrant to conduct an operation on Central One on suspicions that it was operating an illegal scam hub. Garcia joined Central One’s lawyer Cherry Dela Cruz in acting as guarantors for a total of 41 Central One foreign workers, which resulted in the BI granting them bail on recognizance, or temporary freedom without having to post bail. The workers claimed they did not have enough money to produce the bail bond. The private plane to Cebu puts in doubt the indigency claim of the foreigners. Rappler obtained the passenger manifest showing that eight foreigners, a mix of Brazilians and Malaysians who have the same names as eight of the Bataan workers freed by BI, flew from the Clark International Airport (CRK) on November 8, bound for Cebu. The Luzon International Premiere Airport Development Corporation (LIPAD), which manages and operates CRK, confirmed the flight to Rappler, and the number of the passengers on the private plane. “Confirmed private flight from CRK to Cebu with eight passengers. We cannot validate the nationality of the passengers,” LIPAD corporate communications told Rappler on Monday, November 18. Asked for the whereabouts of her clients, for whom she also acted as guarantor to the BI, Dela Cruz declined to comment. PAOCC is closely monitoring the whereabouts of the foreigners, especially because Malacañang, via Executive Secretary Lucas Bersamin, already ordered the deportation of the Central One hub workers. Bersamin’s memorandum to the BI directing the bureau “to facilitate the summary deportation of the foreign nationals apprehended,” however, was signed only on November 12, or five days after they were granted bail on recognizance by the BI on November 7. It’s unclear whether Bersamin’s memorandum supersedes the bail. Rappler asked the BI for a status on the Central One workers but we have yet to get a response. We will update this story once we do. Part of the condition of their freedom is that they should report to the BI every second and fourth Monday of the month, the next being on November 25. The deportation of 42 foreign nationals followed a directive from Executive Secretary Lucas Bersamin on November 12. Handoyo Salman, an Indonesian national, is the only remaining Central One foreign worker detained at PAOCC’s Pasay facility because he is wanted in Indonesia for allegedly transmitting documents related to gambling and money laundering. Dela Cruz maintained that the 41 foreign nationals remain in their guidance and custody. Dela Cruz said that the 41 foreign nationals were “victims” of PAOCC, not of human trafficking. Dela Cruz said that the foreigners were detained for over 36 hours without being informed of the reasons for their arrest. They were denied their constitutional rights, including not being informed of the charges against them and not having their Miranda rights read, she said. “No one escaped as reported by PAOCC, no one wants to leave. They have been under so much stress, supposedly rescued but charged without knowing why,” Dela Cruz told Rappler on November 18. “Their rights were trampled on, they were brought to Manila without knowing why, and no one informed them that they were arrested and charged. They didn’t even know what case until they were turned over to BI. Not even reading to them their Miranda rights. They were detained for more than 36 hours, not knowing for what,” she added. PAOCC Undersecretary Gilbert Cruz said case build-up is ongoing against Central One, a facility authorized under Authority of the Freeport Area of Bataan.  They are registered with the Securities and Exchange Commission as a provider of “interactive and online recreational and amusement games and similar activities and live streaming content.” “PAOCC will monitor the progress of the directive issued by the Executive Secretary for BI to facilitate the deportation process,” Cruz said. “Additionally, it will closely monitor the development of the case against Central One being prepared by the PNP CIDG with the assistance of the DOJ-IACAT.” The raid on Central One was part of an investigation into the company allegedly posing as a business process outsourcing (BPO) firm but was suspected of operating illegal Philippine offshore gaming activities. Companies that provide ancillary services to POGOs and other offshore gaming licenses, including AFAB, are included in the ban stated under Executive Order No. 74. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bataan,Cebu,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Central One Bataan denies human trafficking allegations, says it operates legally under AFAB</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/central-one-bataan-denies-human-trafficking-allegations-operates-legally/</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45610.54662037037</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Bataan Governor Joet Garcia leads the joint meeting to address controversies surrounding the raid at Central One Bataan on November 13, 2024. Joann Manabat/rappler BATAAN, Philippines – Officials of Central One Bataan, the facility inside the freeport zone in Bagac, Bataan raided last month by law enforcers, denied allegations that it was involved in human trafficking and illegal activities and said that it has taken legal steps against that incident. In a press briefing held Wednesday, November 13, at the provincial government’s Tourism Pavillon in Balanga, Bataan, Central One said it has filed a motion to quash the search warrant used in the October 31 raid. This means it is asking the court to declare that warrant, and therefore that raid, as invalid. Aside from Central One officials, also present in that briefing were representatives of the Authority of the Freeport Area of Bataan (AFAB), Philippine Amusement and Gaming Corporation (PAGCOR), Philippine National Police and the Bataan provincial government led by Governor Joet Garcia. Central One legal counsel, Cherry Ann Dela Cruz, said that they operate legally within the framework set by the AFAB, which issued them a gaming license. However, Dela Cruz said, Central One operates strictly as a business process outsourcing (BPO) company and not as a Philippine offshore gaming operator (POGOs). Joseph Lobo, senior offshore gaming officer in the Policy Research Division of PAGCOR’s Offshore Gaming Licensing Department, said their agency has no authority over Central One. He said  Malacañang’s Executive Order 13 outlined the jurisdiction over online gaming by PAGCOR, Cagayan Economic Zone Authority (CEZA), Aurora Pacific Economic Zone and Freeport Authority (APECO), and AFAB. Because it is located inside the Bataan freeport, Central One falls under AFAB. Dela Cruz also refuted claims that foreign nationals at Central One were victims of trafficking, stating that all the  foreign workers were legally employed with valid alien employment permits and visas. The raid was conducted under the premise of investigating human trafficking, leading to the arrest of 42 foreign nationals, including an Indonesian, Handoyo Salman, and three Malaysians. Salman is wanted by the Indonesian National Police for allegedly distributing or transmitting electronic information and documents related to gambling and money laundering, according to data obtained by Rappler. The three Malaysians, whose names were withheld to protect their privacy, traveled to the Philippines to work after being penalized in their home country for offenses related to fraud and illegal gambling operations. Bureau of Immigration (BI) spokesperson Dana Sandoval told Rappler on November 4 that it was the  respective governments of these foreign nationals which informed the BI of their “fugitive status” upon learning that these persons were in the Philippines. The BI, on November 7, ordered the release of 41 foreign workers on recognizance, turning them over to Bataan 2nd District Representative Albert Garcia, who will be their guarantor. Dela Cruz said she and Congressman Garcia took responsibility for the welfare of the 41 foreign nationals excluding Salman. “ Hindi sila nakalabas, hindi namin sila pinyansahan kung wala kaming lehitimong dahilan para payagan mag piyansa. Especially in this case na sinasabi nilang rescued. Kung rescued sila, bakit niyo sila ikukulong? Inako namin ni Congressman Albert yung responsibilidad na pangalagaan yung 41 foreign nationals ,” Dela Cruz said. (They didn’t get out, we didn’t bail them out if we didn’t have a legitimate reason to allow bail. Especially in this case that they say rescued. If they were rescued, why would you imprison them? Congressman Albert and I assumed the responsibility of taking care of the 41 foreign nationals.) “Ang recognizance kasi inaako yung responsibilidad na siguraduhin na hindi makakatakas, hindi makakatakbo, hindi makakagawa ng ano mang krimen, anything. You take full responsibility for them . So hindi ito intervention, hindi nag intervene si Congressman Albert. Nag recognizance kami. As much as I want to do the recognizance myself, kinakailangan may politician or officers of government na would aid me in the recognizance. Pinakiusap ko yun kay Cong Abet dahil naniniwala kaming illegal. Hindi sila nirescue, hindi sila biktima, ” Dela Cruz added. (The recognizance was for taking responsibility to make sure that they can’t escape, they can’t run, they can’t commit any crime, anything. You take full responsibility for them. So this is not an intervention, Congressman Albert did not intervene. We had recognizance. As much as I want to do the recognizance myself, there must be a politician or officers of government who would aid me in the recognizance. I begged Congressman Albert for that because we believe it is illegal. They are not rescued, they are not victims.) Meanwhile Governor Garcia presented 12 Central One employees who claimed they were mistreated by law enforcement officers during the raid conducted by the Presidential Anti-Organized Crime Commission and the Philippine National Police Special Action Force, and Criminal Investigation and Detection Group. The governor said that while they are still reviewing the issues, several employees have already sought assistance from the public attorney’s office (PAO) including the Commission on Human Rights (CHR). On November 5, PAOCC spokesperson Winston Casio was suspended after he was seen in a CCTV footage slapping a Filipino worker during the raid. He later issued a public apology. Garcia said Central One was a legitimate BPO. He said that when they inspected the facility in June, they were provided with clarification not only from the management but also from the workers. –Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bataan,BPOs in the Philippines,Central Luzon,crimes in the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Foreigners of raided Bataan hub freed with help of Congressman Garcia</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/central-one-bataan-foreigners-released-albert-garcia/</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45607.99232638889</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. IN DEFENSE. Bataan 2nd District Representative Albert Garcia publicly defends the workers of the raided Central One hub in Bataan, on November 11, 2024. Screenshot from House of Representatives Livestream MANILA, Philippines – The Bureau of Immigration (BI) has ordered the temporary release of 41 foreign workers of the raided Central One in Bataan, with the help of Bataan 2nd District Representative Albert Garcia who acted as a guarantor for the release on recognizance. The BI released 41 foreigners on recognizance in a memorandum dated November 7, which means they are granted provisional liberty without paying bail, provided that they comply with the conditions, in this case to report to the bureau twice a month and to be put on a hold departure list. The 41 foreigners were apprehended during the raid on Central One in Bataan on suspicions that it was running a scam hub. Garcia acted as a guarantor, according to the memorandum, or a person who commits to some degree of accountability should the foreigners violate the conditions of their release. According to the BI memorandum, the 41 foreigners “are allegedly indigents and/or do not have the facility to post a bond for their provisional liberty.” The BI invoked its discretionary power to temporarily release aliens under arrest when certain factors are considered, including humanitarian considerations, and  that the foreigners are not a threat to public interest. Rappler has learned that one Indonesian was not released due to his being a fugitive in Indonesia over crimes related to gambling. Garcia also publicly backed Central One, a partly foreign-owned company registered under the Authority of the Freeport Area of Bataan (AFAB), in his privilege speech on Monday, November 11. “What unfolded [in the raid] was an ordeal that defies the principles of humane treatment and due process,” Garcia said, describing the operation as a “nightmare.” Joint operatives from the Presidential Anti-Organized Crime Commission (PAOCC) and the Philippine National Police (PNP) Special Action Force (SAF) and Criminal Investigation and Detection Group (CIDG) conducted the operation based on a search warrant issued by a judge in Malolos, Bulacan. Central One was incorporated by two Filipinos, one Singaporean and one Malaysian. In 2023, they amended the company’s incorporation so that its primary purpose was to “engage in any activity limited to interactive and online recreational and amusement games and similar activities and live streaming content, as well as engaging service providers for the purpose, being exclusive for or restricted to offshore and online transactions and limited only to Philippine passport holders.” During the raid, PAOCC spokesperson Winston Casio (currently suspended) said that Central One was operating a gaming operation without the necessary Philippine Amusement and Gaming Corporation (Pagcor) approval. AFAB’s charter says gaming operations under shall have “the approval and supervision” of Pagcor. Casio also said during the raid that they found gaming apps in the operations which are not Pagcor-sanctioned. “[In] Plain view, we have seen crypto currency and online investment scams and offshore gaming operations [in Central One]. We have seen the notorious Winbox platform. Winbox is a notorious online betting platform that is banned in many countries. We have seen it in plain view here in Central One,” said Casio immediately after the raid. Casio was suspended on November 5 after a video surfaced on social media showing him slapping a Filipino worker in Central One during the raid. Casio apologized for the incident, and explained that he and PAOCC personnel were insulted and provoked. Garcia called Casio “a bully stomping on the weak” who “does not deserve to be in that position and nor in any position of power.” He said Casio “will face all available legal and criminal action” for “maltreating my constituents.” “The incident indeed has a chilling effect on the workers and companies alike, casting a shadow on the very purpose of economic zones designed to foster growth and opportunity,” said Garcia. As of 2024, Central One’s beneficial owners are two Malaysian nationals with a combined ownership of 82%. Freeports and economic zones enjoy some autonomy from the national government in order to more efficiently generate profit for its localities, but the controversy over Philippine Offshore Gaming Operators (POGOs) has underscored how this autonomy can enable alleged crimes. Some freeports and economic zones, for one, can issue their own visas. Garcia said he supports the crackdown on illegal POGOs, but called for “prudence and fairness” in executing operations. AFAB gaming licenses are explicitly included in President Ferdinand Marcos Jr.’s ban on POGOs, according to the fine print of the recently issued Executive Order No. 74 . – With reports from Joann Manabat/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bataan,Central Luzon</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Marcos' EO 74 on POGO ban 'still unclear' on coverage</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/executive-order-74-pogo-ban-who-is-included/</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45605.31232638889</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RAID. Philippine authorities raid a scam hub with an IGL license in Pasay on October 3, 2024. Lian Buan/Rappler MANILA, Philippines – More than three months after his verbal order, President Ferdinand Marcos Jr. finally released Executive Order (EO) No. 74, the document that lays down the fine print on who is supposed to be included in the all-out ban on Philippine offshore gaming operators (POGOs) that he announced in his State of the Nation Address (SONA) in late July. The EO, signed on November 5, is much awaited by businesses and government agencies alike, to settle  questions about Marcos POGO announcement in his July 22 SONA – specifically if it covers special class business process outsourcing (BPOs) and the licenses issued by the Cagayan Economic Zone Authority (CEZA. But the fine print is still wanting, particularly with casinos and the Cagayan Economic Zone Authority (CEZA) founded by Juan Ponce Enrile, who is chief presidential legal counsel to Marcos in Malacañang. “While I laud the aims of the Executive Order, at nagpapasalamat din para sa reintegration program para sa mga displaced workers, may mga bagay pa rin sa EO na hindi malinaw (and thankful for the reintegration for displaced workers, there are still things in the EO that are unclear),” said Senator Risa Hontiveros on Saturday, November 9. First, the EO makes it clear that the ban covers both illegal and licensed POGOs, as well as those under the new name, internet gaming license or IGL. The illegal ones are self-explanatory, while the legal ones fall under Section 2(D) which says they must wind down before the end of the year. d. Cessation of operations. All POGOs/IGLs and other offshore gaming operations and other offshore gaming-related/auxiliary/ancillary services with issued licenses, permits or authorizations shall completely cease operations, including the winding up of their affairs, on 31 December 2024 or earlier. What makes this ban complicated is that there are many BPOs who provide services to POGO or IGL licensees, but are not POGO or IGL licensees themselves. A source at the Philippine Amusement and Gaming Corporation (Pagcor) had earlier told Rappler that they were awaiting the EO to have some clarity on the special class BPOs. While “special class BPOs” is not explicitly found in the language of the EO, the order says that the ban covers “other offshore gaming licensees.” The EO defines “other offshore gaming licensees” as including “gaming agents and accredited service providers providing ancillary services to offshore gaming licensees.” Hontiveros, however, raised one more concern. Section 1(b) of the EO says offshore gaming operations “exclude online games of chance conducted in Pagcor-operated casinos, licensed casinos, or integrated resorts with junket agreements.” ”Ibig sabihin ba nito, puwede magpatakbo ng POGO sa mga casino gaya ng City of Dreams? Gaya ng Fontana? O kahit sa mga resorts na may mga casino sa loob?” said Hontiveros. (Does this mean you can run POGOs inside casinos like City of Dreams? Like Fontana? Or  even in resorts that have casinos?) The other big question is whether the ban covers licensees under the Cagayan Economic Zone Authority (CEZA), which has its own offshore gaming regulatory framework by virtue its charter, Republic Act No. 7922 authored by former senator Enrile. Enrile’s daughter, Katrina Ponce Enrile, is the chief executive officer of CEZA. CEZA’s offshore gaming is called i-Gaming. Katrina Enrile told the House of Representatives on July 31 that “CEZA enjoys independence from Pagcor and other agencies of the national government in terms of licensing and regulation of gaming within its covered jurisdiction.” Even Hontiveros said that “ hindi pa din malinaw sa akin kung sakop ng ban ang CEZA at iba pang economic zones (it’s still unclear to me if the ban covers CEZA and other economic zones).” CEZA is not explicitly included in EO 74. In fact, the EO defines “other offshore gaming licenses” as those “authorized under their respective Charters and subject to the supervision and/or jurisdiction of Pagcor.” EO 74 even explicitly mentions AFAB (Authority of the Freeport Area of Bataan) as being under Pagcor supervision, while offshore gaming licenses inside the Aurora Pacific Economic Zone and Freeport Authority (APECO) has been transferred to Pagcor. “Note that CEZA is not under supervision of Pagcor given its charter. That’s why it was excluded in the EO,” Malacañang’s Communications Secretary Cesar Chavez told Rappler. So, are CEZA licensees covered by the ban? Pagcor and the Presidential Anti-Organized Crime Commission (PAOCC) deferred to Malacañang. Rappler has asked Justice Secretary Jesus Crispin “Boying” Remulla and Interior Secretary Juanito Victor “Jonvic” Remulla but both have not responded as of writing time. We will update this story once they do. Chavez told Rappler: “The Executive Secretary also released a Memo today directing CEZA to comply with the directive on the ban on POGOs.” The memorandum he was referring to was issued by Executive Secretary Lucas Bersamin, telling CEZA CEO Katrina Ponce Enrile on November 5 to “adhere to the directive” of the President regarding the ban. The language of the memorandum, however, still leaves room for interpretation. Consistent with Republic Act No. 7922 , also known as the ‘Cagayan Special Economic Zone Act of 1995,’ you are hereby instructed to adhere to the directive issued by the President during his State of the Nation Address on 22 July 2024 regarding the immediate ban of Philippine Offshore Gaming Operators or Internet Gaming Licensees in the Philippines, subject to applicable laws, rules and regulations. If the memorandum were to be consistent with the CEZA charter, the law under Section 6(c) authorizes CEZA to “approve, accept, accredit and allow any local or foreign business, enterprise or investment in the Zone subject only to such rules and regulations as CEZA may promulgate from time to time in conformity with the provisions of this Act and the limitations provided in the Constitution.” The Bureau of Immigration has been supervising the downgrading of visas for those who were given working visas directly related to POGOs and IGLs. How would that cover CEZA if, under Section 4(e) of their charter, they have the “responsibility and authority to grant such permanent resident status” to special investors and that those special investors and dependents “shall have the freedom of ingress and egress to and from the Zone without need of any special authorization from the Bureau of Immigration.” In fact, the controversial Chinese tycoon She Zhijiang who is in jail in Thailand for his illegal gambling syndicate — and who is a self-proclaimed Chinese spy — has been able to enter the country using a visa from CEZA, according to his travel records submitted to Senator Risa Hontiveros. Rappler asked Chavez for a more categorical statement: Should CEZA licensees also wind down and cease operations? Chavez simply repeated that: “In the memo of ES Bersamin, CEZA is instructed to adhere to the directive issued by the President during his SONA on July 22, 2024 regarding the ban on POGO.” Rappler asked the government’s lawyer, Solicitor General Menardo Guevarra. He said, “All POGOs, whether under the jurisdiction of the Pagcor or not, shall cease operations by 31 December 2024.” Asked also for a more categorical statement with regards to CEZA, Guevarra said, “I will not preempt the Palace.” “What this only underscores is that we need a clear law to move forward with a meaningful, clear, unequivocal, and comprehensive ban,” said Hontiveros, adding that the anti-POGO bill is pending in the Senate. See copies of EO 74 and the CEZA memorandum here:  Executive Order No. 74 re POGO ban by Lian Buan on Scribd  Memorandum to CEZA re POGO ban by Lian Buan on Scribd – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bureau of Immigration,Cagayan,Department of Justice,DILG,Malacañang,Office of the Solicitor General,Pagcor</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Kamala Harris concedes election, warns about potential dark times | The wRap</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/november-7-2024/</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45603.59930555556</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: US Vice President Kamala Harris concedes the presidential race on Wednesday, November 6, but vows to keep fighting for the ideals that powered her campaign. Democrats blame US president Joe Biden for Kamala Harris’ loss, as exit polls show working-class voters and Hispanics voted for Trump. The controversial raid of an alleged POGO in Malate, Manila triggers the relief of Police Major General Sidney Hernia from his post as the chief of the NCRPO. The Australian government is set to legislate a ban on social media for children under 16, in what it calls a world-leading package of measures that could become law in 2025. 2024 is ‘virtually certain’ to eclipse 2023 as the world’s warmest since records began. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Australia,Donald Trump,global warming,Philippine National Police,POGOs,US elections</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PDEA chief: Pharmally's Lin Weixiong is in our drug intel</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/pdea-chief-pharmally-lin-weixiong-in-drug-intel-november-2024/</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45603.52511574074</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. An intelligence report tags an Allan Lim (left) to the illegal drug trade, whom some operatives both former and current say is the same person as Pharmally's financial manager Lin Weixiong. Photo from the House Quad Committee MANILA, Philippines – Philippine Drug Enforcement Agency (PDEA) chief Virgilio Lazo said on Thursday, November 7, that Lin Weixiong — who is indicted for graft over the irregular pandemic contracts given to Pharmally Pharmaceutical — turns up as a drug personality in their intelligence. “We were able to talk to a confidential informant — he’s a reliable informant. When he talked to us, he hasn’t even seen the presentation of Colonel [Eduardo] Acierto before the Committee on Dangerous Drugs, when we took down [notes on] what he was telling us, it confirms some of the statements of Colonel Acierto,” said Lazo. For years, there’s been confusion on whether Lin Weixiong, the financial manager of the shady Pharmally company, is the same person as the Allan Lim that was in Acierto’s intelligence report . Acierto claims this is the same person, and in his report, he also named Michael Yang, Lin’s close business associate and former presidential economic adviser to Rodrigo Duterte. Acierto is still in hiding, and joined Thursday’s hearing through Zoom. “ Nako-confuse po tayo but we’re only talking of one and the same person, Allan Lin na cinonfirm ni Mrs. Rose Nono Lin na husband niya, ” said Lazo. (We’re being confused here but we’re only talking of one and the same person, Allan Lin who is confirmed by Mrs. Rose Nono Lin as her husband.) The confusion is largely due to former PDEA chief Wilkins Villanueva telling former president Duterte in a televised COVID-19 briefing in 2021 that the Lim in Acierto’s report is not the Lin of Pharmally. Villanueva repeated that finding on Thursday, saying that the Allan Lim who’s a supposed drug personality is not Lin. “Sa image identification Mr. Chair, I confirm na hindi sila pareho, I have that…ako ang gumawa ng image na ‘yan, ‘yan ang prinesent ko sa Malacañang, pinag-kumpara ko lang naman ‘yung dalawa Mr Chair, napakalaki ng diperensya,” Villanueva said, taking the heat from lawmakers who berated him claiming that he was acting in deference to Duterte. (In the image identification Mr. Chair, I confirm they are not the same, I have that, I made that image, I presented that to Malacañang, but when I compared the two Mr. Chair, there are big differences.) That’s also what Lin’s wife, businesswoman Rose Nono Lin said. Shown the same pictures, Rose said the man on the left with a moustache is not her husband, but the man on the right is. Rose was shown more photos of a man photographed with Duterte and Yang (as seen below) and she confirmed it is indeed her husband. But it’s not Allan Lim the alleged drug personality, Rose repeatedly said. Lazo, however, told the committee: “According to our informant, Allan Lim whose picture was identified  by Ms. Rose Lin as her husband, uses the names of Allan Lim, Allan Lin, Jeffrey Lim, Jeff Lin, Ayong, Weixiong Lin, Lin Weixiong, Lin Weixun, Wen Li Chen. These names are all confirmed by the different statements being made in the quad committee.” While Rose said that she has never known her husband to use the name “Allan,” she did say earlier in the hearing that he uses the name “Jeffrey.” Lazo’s testimony prompted lawmakers to pursue a line of interpellation to establish that maybe Rose would not know everything about her husband, whom she met around 2007 to 2008, and married in 2009. “ Alam mo lahat ng kanyang business transactions (Are you privy to all of his business transactions)?” asked human rights committee chairperson Bienvenido Abante. “ Hindi po (No),” said Rose. “ Sinasabi niya ba sa ‘yo lahat (Does he tell you everything)?” Abante asked. “Kung ano po ‘yung gusto niyang sabihin (Whatever he wants to tell me),” said Rose. Villanueva also repeated that in his years in PDEA, Yang has never turned up in intelligence on the drug trade. Acierto claimed that “I don’t think there was a proper investigation on the two.” “ Talagang clinear lang po nila agad (they just cleared them) without conducting proper investigation, because if they had done a proper investigation, they could have vetted my report that has attachments like warrants, records, Michael Yang’s tattoo. I don’t think they even invited Michael Yang or Allan Lim,” said Acierto. A Rappler investigation has found that the year after Pharmally copped P7.4 billion in net sales as the Duterte government’s favorite pandemic contractors, Lin bought two properties in Dubai worth P1 billion. One of the posh villas was co-owned by Yang. Rose has earlier told the Senate they also have a Philippine offshore gaming operator (POGO) business in Dubai. Yang’s last departure from the Philippines was in May 2024, going to Dubai. Yang has admitted to being a guarantor for Pharmally, although senators believe he was a financier. Yang and Lin, and including Rose, belong to a network of at least eight interconnected companies including Pharmally Pharmaceutical. One of the Lin couples’ businesses is a POGO named Xionwei Technology, whose service provider is the Cagayan de Oro City-based Oroone Inc., owned by Michael’s eldest brother Tony Yang. Tony Yang’s businesses are also under investigation for alleged links to smuggling and the drug trade. The House Quad Committee is pursuing the Lin couple from another angle: Rose is an incorporator of a warehouse company called Golden Sun 99, which also lists as incorporator a certain Aedy Yang. An Aedy Yang is an incorporator of another company called Empire 999 which is tied to the warehouse in Mexico, Pampanga, where authorities seized P3.6 billion worth of illegal drugs. Asked about it, Rose said she knows Aedy Yang but not the other Empire 999 owner called Willie Ong. “ Mr. Chair, hindi ko po alam [kung sino si Willie Ong] (Mr. Chair, I don’t know who Willie Ong is),” said Rose. 1-Rider Partylist Representative Rodge Gutierrez also pursued a lead of Rose’s connection to the Baofu compound of dismissed mayor Alice Guo in Bamban, Tarlac. The connection, according to Gutierrez, is through the company Xionwei, which Rose said holds a master license from the Philippine Amusement and Gaming Corporation (Pagcor). One of the service providers under Xionwei’s master license is a company called Brickhartz Technology, Rose confirmed, and even added that she would check which of her relatives are involved with Brickhartz. “ I am not sure po kung sino ang mga pamangkin ko ang nandiyan , if I am not mistaken (I am not sure who among my nieces or nephews is there, if I am not mistaken),” said Rose. Brickhartz, along with other service providers, was located in Baofu, according to matrix of the quad committee. Michael and Tony’s middle brother Hongjiang — who is also Rose’s co-incorporator in some companies — holds a joint bank account with the incorporator of Hongsheng, the first POGO raided inside Baofu. Sta. Rosa, Laguna Representative Dan Fernandez showed screenshots of a Facebook Messenger and Viber user named Rose Lin asking a person named Alvin about hiding properties in Porac, insinuating that Lin also has ties to the raided POGO in Porac, Pampanga. Rose vehemently denied that it was her, and even dared Fernandez: “Sakali po ba na mapatunayan na ang ginamit doon na messenger ay peke, maaari ‘nyo po ba akong tulungan para mai-track po ‘yun?” (If I can prove that the messenger used there is fake, can you help me track it down?)” Rappler tried to interview Rose when she left the House Thursday evening, but she begged off citing the continuing investigation. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Duterte administration,Michael Yang,PDEA,Pharmally,POGOs,war on drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Metro Manila top cop temporarily relieved over POGO mess</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/cop-sidney-hernia-temporarily-relieved-pogo-mess/</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45603.16671296296</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. NCRPO chief. Metro Manila top cop Police Major General Sidney Hernia during his first flag raising ceremony as National Capital Region Police Office director. NCRPO/ Facebook MANILA, Philippines – Police Major General Sidney Hernia was relieved from his post as the chief of the National Capital Region Police Office (NCRPO), following the controversial raid of an alleged Philippine offshore gaming operator (POGO) hub in Malate, Manila. The Philippine National Police (PNP) headquarters signed the order on November 6, and takes effect on Thursday, November 7. Interior Secretary Juanito Victor “Jonvic” Remulla confirmed Hernia’s relief to Rappler. He also confirmed the appointment of Police Brigadier General Reynaldo Tamondong as acting NCRPO chief, in the absence of Hernia. “He is under administrative investigation for his handling of the Malate raid,” Remulla told Rappler. This relief follows a messy operation led by the NCRPO on October 29, where a hub in Century Peak Tower was raided on the power of search warrants. The company owners condemned the raid and filed complaints against NCRPO officials and personnel, said National Police Commission (Napolcom) vice chairperson and executive officer Alberto Bernardo. The PNP also relieved three Anti-Cybercrime Group (ACG) personnel after they were shown turning the CCTV away from them, while they walked in the facility partially unclothed. During a press briefing on Thursday, PNP spokesperson Police Brigadier General Jean Fajardo said PNP ACG Police Major General Ronnie Francis Cariaga was also temporarily relieved from his post. The Malate operation also triggered a tiff between NCRPO and the Presidential Anti-Organized Crime Commission (PAOCC), as initial reports from the raid attributed the operation to PAOCC which the agency strongly denied. “Please do not associate PAOCC with flawed operations,” said Winston Casio, before he himself was suspended by PAOCC after a video of him surfaced slapping a worker during their raid in Bataan on October 31. Casio has apologized for the incident, and explained that he and PAOCC personnel were provoked by the worker who alleged insulted them and flashed them the dirty finger. Before he was NCRPO chief, Hernia was the chief of the PNP ACG which also figured in another controversial POGO raid in Las Piñas on June 27, 2023. The Department of Justice (DOJ) had also questioned the irregularities in this raid last year. The raided alleged POGO hub is located in the Hongtai compound in Las Piñas, where foreigners were eventually detained. Immediately after, in July 2023, four foreigners won their habeas corpus case in the Court of Appeals (CA), where the appellate court ordered the PNP to release them from custody. “There are patent irregularities which impair the legitimacy (under RA 11862, anti-human trafficking act) of the Law Enforcement Operation on June 27, 2023,” said the CA 10th Division. The CA took note that foreigners were detained at the Hong Tai compound instead of a proper custodial facility for foreigners being deported, such as the DOJ. On April 19, 2024, a court in Las Piñas granted the petitions of the foreign owners of the facilities to recover hundreds of millions of pesos worth of money seized during the raid. The order also mentioned that the DOJ has dismissed the criminal complaints against the foreigners. The seized money, which the court ordered returned, includes P117 million, US$12,000 (or P704,000), and other currencies. “To this date, however, it appears that there is no criminal case yet filed in Court against any of the respondents. All the foregoing considered, this Court thus, has no other judicious recourse but to grant the instant motion for the release of seized items,” said the court order dated April 19, 2024. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Philippine National Police,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Projections say Donald Trump wins US president again | The wRap</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/november-6-2024/</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45602.59791666667</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Donald Trump wins as United States president in a historic election. Based on projections, he garners 279 electoral votes out of 538 as of 6:42 pm on Wednesday, November 6, Manila time. Philippine President Ferdinand Marcos Jr. congratulates projected United States presidential winner Donald Trump. Presidential Anti-Organized Crime Commission spokesperson Winston Casio is suspended pending an administrative investigation after he was seen in a video slapping a worker in a hub they raided in Bataan. Lawmakers in the House of Representatives file a counterpart bill to postpone the first parliamentary elections in the Bangsamoro Autonomous Region in Muslim Mindanao (BARMM) by another year. The Department of Justice announces it placed 7 Office of the Vice President personnel on its immigration lookout bulletin order following a request from the House of Representatives. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>BARMM,Donald Trump,Office of the Vice President,POGOs,US elections</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PAOCC spox suspended after slapping worker during raid</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/paocc-spokesperson-winston-casio-suspended-after-slapping-worker-during-raid/</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45601.52216435185</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. FILE PHOTO: Winston Casio Joann Manabat/rappler Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio has been suspended pending an administrative investigation into an incident in Bataan where he was seen in a video slapping a worker in a hub that they raided last week. Executive Secretary Lucas Bersamin has confirmed on Tuesday, November 5, that Casio has been relieved while he is under administrative investigation. Casio himself confirmed it, telling reporters: “I apologize to the Filipino people who have put their trust in our agency.” PAOCC and its law enforcement partners from the Philippine National Police raided Central One on October 31 , a gaming hub that they suspect to be running scamming activities, and which is authorized under the Authority of the Freeport Area of Bataan (AFAB). It is not a POGO (Philippine offshore gaming operator) technically, as POGOs are licenses given by the Philippine Amusement and Gaming Corporation (Pagcor). Freeports and economic zones are loosely outside Pagcor’s jurisdiction. After the Bataan raid, a CCTV went viral on social media showing Casio slapping a Filipino worker. Before this footage was released, another video surfaced showing Casio in what looked like a tense confrontation with another worker in the hub’s common area. Casio said that the operatives were provoked, and were on the receiving ends of a dirty finger and insults. “No wrong can right another wrong; thus, I apologize for reacting as I did despite the provocation that we experienced during the raid we conducted at Central One Bataan last October 31, 2024. I should have simply filed the necessary charges against the person who flashed the dirty finger at us and insulted our office with vitriol,” Casio said in his statement. Casio was relieved of his position on Monday, November 4, following the incident. Most of the workers were on their regular 9 am to 6 pm shifts when the raid began at around 3 pm on October 31, as officials initially checked the left side of the complex. Workers, both Filipino and foreign nationals, were caught off guard because this same complex was toured and showcased by its owners months before, supposedly to show that they were different from illegal POGOs. While the operatives conducted their inspections, and workers were made to stay in common areas, a Filipino worker allegedly berated authorities. “I apologize to my principals, Executive Secretary Lucas P. Bersamin, the Chairman of PAOCC; and to Undersecretary Gilbert DC Cruz, PAOCC Executive Director. I have let them down,” Casio said. Over the weekend before the suspension, Casio released a strongly worded statement against the Philippine National Police – National Capital Regional Police Office and Anti-Cybercrime Group (ACG) over the latter’s raid of a hub in Malate on October 29. Casio was strongly reacting to some news reports attributing the raid to PAOCC. Representatives from the said hub have since come out to condemn the raid. Casio said this was a botched raid that PAOCC was “never consulted nor informed” about. “Please do not associate PAOCC with flawed operations. Moreover we never said that the raided POGO is the mother of all POGOs,” Casio said over the weekend. PNP has also relieved three ACG personnel over the Malate raid as CCTV footage showed partially unclothed cops walking in the hub, and some turning the cameras away from them. PNP in a statement said the building’s air conditioning units were off and thus was too hot, prompting cops to remove their shirts “creating an unprofessional appearance when viewed on CCTV cameras.” “This situation led them to twist and cover only the hallway cameras, while the cameras in the workstations where the devices were located remained operational,” said the PNP. By Monday, November 5, the video of Casio has also surfaced prompting PAOCC chief Cruz to issue a memorandum directing Casio to explain himself within 24 hours and informing him that he is “relieved of your responsibilities as spokesperson for PAOCC effective immediately and until the completion of the investigation.” PAOCC has been behind some of the biggest POGO raids, and which eventually resulted in an all-out ban. “As I embark on a period of reflection during this most humbling time, I subject myself to whatever administrative measures that the Commission will impose. No matter where this episode will lead me, I will continue to serve the Filipino people in whatever capacity,” said Casio. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>crimes in the Philippines,Philippine National Police</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>After pandemic deals, Pharmally bosses buy P1-B Dubai properties</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/pharmally-linked-personalities-buy-dubai-properties/</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45601.375</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. TIES. Undated photos of Lin Weixiong (left in both photos) and Michael Yang (right in both photos), who reportedly enjoy access to former president Rodrigo Duterte. SOURCED PHOTOS (Done in partnership with the Organized Crime and Corruption Reporting Project) Michael Yang, the former presidential economic adviser of Rodrigo Duterte, co-owned a multi-million-dollar property in Dubai which was acquired by his business partner Lin Weixiong in 2021. This was just a year after their company, Pharmally Pharmaceutical, won as much as P7.49 billion ($155 million)* in “irregular” pandemic projects in 2020 as the Duterte government’s most favored contractor. A joint investigation by Rappler and the Organized Crime and Corruption Reporting Project (OCCRP) found that 46-year-old Lin acquired two Dubai properties in 2021 worth a total of P1.04 billion or $21 million. One of these properties was co-owned by Yang, who admitted to being a guarantor for Pharmally back then. Senators believe Yang, now 48, was its financier. (READ: TIMELINE: Michael Yang and Lin Weixiong’s Philippine enterprise ) Information we found through a leaked dataset of Dubai property owners give us an idea of how these questionable Chinese businessmen used millions of dollars offshore, immediately after earning proportionate amounts by supplying government critical equipment during the raging pandemic, with some deliveries flagged for being delayed and substandard. In May 2024, the Office of the Ombudsman added Lin in its updated indictment , identifying him as the financial manager of Pharmally and accusing him of using the firm as a “dummy.” Lin now faces three counts of graft, alongside Pharmally owners and officers, and Duterte’s former budget executives who, according to the indictment, “irregularly awarded procurement contracts” to them. Both Yang and Lin already left the country last May 2024 — travel records indicated — after the Ombudsman issued its indictment. Lin spent some time in the Philippines, in Dubai and in Georgia from 2021 and the years until then, according to the statements and social media posts of his wife, Rose Nono Lin. Similar information on Yang could not be ascertained. That Michael Yang was not included in the indictment, even in its first version in August 2023 , has frustrated some senators who spent half a year holding hearings on the procurement mess. In August 2023 when Lin was still also not indicted, the chairperson of the investigating panel, former senator Richard Gordon, told ABS-CBN News : “How come there’s no mention of Michael Yang, how come there’s no mention of Lin Weixiong who went off to Dubai and was given a power of attorney by the corporation to withdraw the money, and he probably has withdrawn the money and taken it abroad.” Rappler has asked Ombudsman Samuel Martires for comment, but he has yet to respond to our messages sent on October 24 and 26. Ace Barbers, chairperson of the House quad committee that’s also now investigating Yang, told Rappler: “I believe [Yang should be indicted.] He’s a principal figure in the questionable Pharmally deal.” The Senate report published in February 2022 recommended the same charges — even plunder — against Yang, whom they found to have only started paying taxes in 2018 despite being in the Philippines since 1999. “Mr. Yang appears unfazed by his own acts and omissions, exposing him to Philippine laws against deportation, false testimony, plunder, and evasion of the timely and proper payment of taxes — a hubris borne out of his closeness to the president (Duterte) himself,” said the Senate blue ribbon committee report. We asked the Bureau of Internal Revenue (BIR) if an investigation on Yang has been opened, but the bureau has not gotten back to us after acknowledging our query on October 28. Yang’s lawyer Raymond Fortun acknowledged the request for comment we sent on October 30, and said he would forward our queries to Yang. We followed up again on November 4, but were told on Tuesday, November 5, that he has yet to receive a reply from his client. We also emailed Lin’s wife, Rose Nono Lin, in the email addresses listed in her certificate of candidacy and active Facebook page on October 29 and 31, but we have not received a response. We will update this story once they reply. Lin and Yang were previously named in an intelligence report as allegedly having links to the drug trade, a dossier that Duterte supposedly ignored, at least according to former police anti-drug operative Eduardo Acierto, who’s still in hiding , fearful that his revelations have put his life at risk. Rose Nono Lin denied in the Senate in 2021 that her husband is the same person tagged in the Acierto report. The information on the Dubai properties of Lin and Yang came from a new data leak to OCCRP that adds to the cross-border investigation on how the world’s criminals, kleptocrats, and other sanctioned individuals have stashed their money in Dubai real estate. “Dubai’s high-rises and villas have served as a safe haven for some of the world’s most wanted criminals, due in part to the secrecy its real estate sector affords,” wrote the OCCRP in May. (READ: Central figure in Philippines COVID corruption scandal spent $20M on Dubai property ) By the end of 2020, the undercapitalized Pharmally had copped net sales amounting to P7.4 billion or $155 million based on the average exchange rate that year. Lin had full access to this money, as prosecutors said he could “deposit, withdraw…and access credit facilities.” “After all, Pharmally can be regarded as [Lin’s] dummy under the law. Under these circumstances, a reasonable mind could not be faulted from entertaining a well-grounded belief that Lin was deeply involved in the irregular scheme, conspiring with all other officials of PS-DBM and Pharmally,” read the updated indictment issued in May 2024. With control over what had become the multi-million dollar Pharmally, Lin bought property at Al Thanayah Fourth in Emirates Hills in May 2021 for 60 million AED or $16 million (P804 million). Emirates Hills or the “Beverly Hills of Dubai” is a luxury residential estate with posh villas and a golf course. Using the exact address in the leaked database, we went as far as Google Street View would allow and located the villa hidden behind the palm trees. Lin’s travel records show he traveled to Dubai in February and April in 2021, or a month before the recorded date of purchase of the property in Al Thanayah Fourth. Lin left the country in May 2024 after the Ombudsman issued its indictment, and went to Hong Kong, Rappler verified through travel records in the justice department. Other questionable personalities have properties in Emirates Hills, too. In Al Thanayah Fourth specifically, a former Nigerian government official sacked for corruption also owns expensive property, as reported by Economy Post. In Emirates Hills, there’s also property that belongs to Lin Baoying , Alice Guo’s co-incorporator in the Baofu compound in Bamban, Tarlac. Both Guo and Lin Baoying are charged with human trafficking over the operations of an illegal POGO (Philippine offshore gaming operators) hub there, but only Guo has been detained. Lin Baoying left the country when the scandal was just beginning to blow up, and she was eventually arrested in 2023 in Singapore for money laundering. Lin Baoying has served her sentence in Singapore, and has since been deported to Cambodia . She bought the Emirates Hills property in March 2022. The same Dubai dataset of property owners showed that Lin and Yang sold this same multimillion-dollar property in October 2022 for 85 million AED or $23 million, equivalent to P1.2 billion based on the average exchange rate that year. This suggests that Yang became a co-owner of this property after Lin purchased it in 2021, and that they made a hefty 25 million AED ($6.8 million or P370 million) profit from this sale. Yang also traveled to Dubai in February and April 2021, within days of Lin, according to immigration records submitted to the Senate. Yang last left the country in May 2024 for Dubai, Rappler verified through his travel records in the justice department. One company in the Lin-Yang network of businesses is engaged precisely in real estate investments. That company is Paili Estate, which, when it incorporated in April 2018, had a subscribed capital of only P2.5 million, of which only P625,000 was paid-up. Even if based on the subscribed capital, that’s only $43,614 put up by its incorporators, which include Michael Yang, his brother Hongjiang Yang, and others. But come yearend 2022, or after the Dubai resale, Paili Estate was able to acquire over a billion pesos (or $19.3 million) worth of assets, financial statements filed with the Securities and Exchange Commission (SEC) showed. As of 2024, Lin Weixiong is 20% owner of Paili Estate, Michael Yang is 9.8% owner, and Lin’s 41-year-old wife, Rose Nono Lin, is the president and listed beneficial owner, according to SEC records. Born in 1978 in Fujian, China, Lin Weixiong has both Hong Kong and Chinese passports. His recent Chinese passport, which was issued in 2011 from Manila, expired in 2021. The indictment versus Pharmally also says Lin “declared himself to be a Chinese citizen.” But in 2018, when the company Xionwei Technology began its commercial operations two years after its incorporation in 2016, Lin Weixiong registered as a Filipino citizen with the SEC as the company’s 1% shareholder. It was Lin’s wife Rose who incorporated Xionwei in 2016 with four other Filipinos and one Chinese. Lin entered the picture, as far as SEC is concerned, only in 2018. The year 2018 is consequential because it was also the time that Xionwei got a POGO license, according to its financial statements. In fact, Xionwei’s service provider was a company called Oroone Inc., according to a certificate of accreditation issued by the Philippine Amusement and Gaming Corporation or Pagcor. Oroone Inc. is based in Cagayan de Oro City and owned by Michael’s eldest brother, Tony Yang , who used his Filipino name Antonio Maestrado Lim when he and other partners incorporated the company in November 2016, when Duterte was already president. Rose Lin and her partners incorporated Xionwei in 2016 with a capital of P50 million or $1 million. By the end of 2021, Xionwei’s total assets had surged to a whopping P377 million or $7.6 million. In the same year, in 2021, Lin Weixiong had not only bought and sold the Al Thanayah Fourth property with Michael Yang, he had also bought another villa at the similarly-luxurious District One Phase II Villas in Mohammed Bin Rashid City. Lin bought this property in June 2021 with another person for 17.3 million AED or P232 million ($4.7 million). By December 2021 when the Senate’s Pharmally hearings were heating up, Lin Weixiong was still in Dubai, according to Rose who showed up in the Senate on her husband’s behalf. “ May investment po kami sa Dubai….ang alam ko po nagso-source out po sila sa POGO (We have an investment in Dubai…as far as I know they source out to POGO),” Rose said on December 3, 2021. “There seems to be laundering in this activity from the proceeds of the Philippine Pharmally deal,” said Barbers. Before she put her TikTok account on private, Lin’s wife Rose uploaded videos of her, Lin Weixiong himself, and their family enjoying the Christmas and New Year holidays in 2023 up to January 2024 in Dubai — at the Palm Jumeirah, in particular, an artificial group of islets where luxurious hotels, resorts and restaurants stand. Rose Lin lost her congressional bid in 2022, but will try again in the 2025 midterm elections to be the representative of the 5th District of Quezon City. When she filed her certificate of candidacy on October 7, she refused to answer questions from the media. She is running under the Reform PH party, which was formed by former senator Gringo Honasan and other members of the Magdalo group. In this network of at least eight interconnected companies, Rose Lin is listed as either incorporator or officer of seven firms. Pharmally is the only company in this network that’s not under her name, although her husband is a financial manager. Xionwei was the first to incorporate on June 8, 2016 in Davao City, at a time when Rodrigo Duterte was in the same city as president-in-waiting. He took his oath as president 22 days later on June 30. The rest of the seven companies either amended their articles of incorporation or were incorporated during Duterte’s six-year term. This Lin-Yang network connects to the Alice Guo POGO enterprise through Hongjiang Yang , brother of Michael and Tony Yang. Hongjiang and Rose are business partners in two companies that are part of this network — Philippine Full Win Group of Companies and Paili Estate Group Corp. Duterte had visited Full Win’s Xiamen office before , when he was still Davao City mayor in 2015. According to the Court of Appeals resolution freezing the assets of the Guo-related businesses, Hongjiang has a joint bank account with Yuzheng Can, one of the incorporators of the Hongsheng POGO that was raided in February 2023 inside Alice Guo’s Baofu compound in Bamban, Tarlac . An earlier Rappler investigation showed that Guo’s business partners in Baofu extend to the transnational scam networks that operated in Cambodia and Hong Kong, and laundered illegal proceeds in Singapore. Lin and Yang are still active subjects of the ongoing House quad committee investigation, according to Barbers, who said that they “are continuously pursuing both in relation to their connection with the 560 kilos of shabu in a warehouse owned by their associate/partner in other businesses registered with our SEC.” – Rappler.com Currency conversions were based on the average exchange rate during the period of the purchase or sale, according to a table from the Bangko Sentral ng Pilipinas. Exchange rate as of November 5 is 1 US$ = P58.36 For more stories and investigations on POGOs , refer to this page. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bureau of Internal Revenue,Corruption in the Philippines,Dubai,House of Representatives,Michael Yang,Office of the Ombudsman,Pharmally,POGOs,Senate of the Philippines,United Arab Emirates</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TIMELINE: Michael Yang and Lin Weixiong's Philippine enterprise</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/iq/timeline-michael-yang-lin-weixiong-philippine-enterprise/</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45601.37430555555</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Lin Weixiong and Michael Yang photographed with former president Rodrigo Duterte. MANILA, Philippines – Michael Yang is a Chinese businessman so influential he managed to become presidential economic adviser during the time of Rodrigo Duterte. Through him, or at least according to state footage, Duterte also met one Yang associate: Lin Weixiong. These two men figured in the Pharmally Pharmaceutical Corporation procurement anomalies during the COVID-19 pandemic, although Lin Weixiong is the only one who has been indicted by the Office of the Ombudsman. Together they co-owned a multi-million dollar property in Dubai , where they profited P390 million after cornering billions of pesos in government contracts from the Duterte-time budget department. Here is a timeline of their Philippine activities and enterprise. 1999 – Yang reportedly arrives in the Philippines in the ’90s and first meets Duterte in Davao City in 1999. 2007 – Lin Weixiong meets Rose Nono Lin, who would later become his wife, according to Rose’s testimony in the Senate. 2008 –  Lin Weixiong gets a temporary resident visa in the Philippines, according to records submitted to the Senate. Lin would get a permanent visa in 2009, according to records submitted to the Senate. 2015 – The year before Duterte wins as Philippine president, he visits one of Yang’s companies in Xiamen, China. 2016 – Yang, Lin, and an interlocking group of associates begin to build their network of companies, beginning with Xionwei Incorporated in June 2016. Xionwei becomes a POGO (Philippine offshore gaming operator) in 2018. This network would expand to as many as eight interconnected companies under Duterte, including Pharmally Pharmaceutical. March 2017 – Pharmally executives, including Lin Weixiong, meet Duterte in Davao City. Yang is present in this meeting. May 2017 – A police intelligence report on the alleged drug trade involvement of Yang, and a certain Allan Lim, who is believed to be the same person as Lin Weixiong, surfaces. Lin’s wife Rose Nono Lin denies they are one and the same person. 2018 – Yang becomes Duterte’s presidential economic adviser. December 2018 – Former anti-drug operative Eduardo Acierto briefs Senator Richard Gordon about his intelligence report that says Yang allegedly is linked to the drug trade. April 2019 – Acierto is ordered arrested by a Manila court over a smuggled shabu case. September 2019 – Pharmally Pharmaceutical incorporates with a very small capital of only P625,000. March 2020 – The COVID-19 pandemic hits the world, including the Philippines, where the longest lockdown happens. April 2020-June 2021 – Pharmally Pharmaceutical corners at least P8-billion worth of contracts, and bags its first contracts in April 2020. May to June 2021 – Lin and Yang acquire P1.04 billion, or $21-million worth of real estate properties in Dubai. August 2021 – The country gets whiff of the anomalies after the Commission on Audit (COA) publishes its report flagging the mis-utilization by the Department of Health of pandemic funds. September 2021 – Michael Yang becomes a subject of the Senate hearings on Pharmally, after company executives identify him as a financier. He admits to being a guarantor. Lin Weixiong, a close business associate, is dragged into the controversy. November 2021 – Acierto, by this time already in hiding, resurfaces to repeat his accusations against Yang and Lin. June 2022 – Duterte ends his term as president as Ferdinand Marcos Jr. takes his oath as new president. August 2023 – The Office of the Ombudsman issues its first graft indictment against Pharmally Pharmaceutical officials. Yang and Lin are not included. May 2024 – The Office of the Ombudsman revises its indictment to include Lin. Yang is still excluded. By this month, Yang and Lin leave the Philippines on different days. August 2024 – Jimmy Guban , a detained former intelligence officer of the Bureau of Customs, faces the House of Representatives quad committee to link Yang one more time to the drug trade. September 18, 2024 – Former budget undersecretary Lloyd Christopher Lao, who signed many contracts awarded to Pharmally, is arrested over a separate, but related pandemic corruption case. He is able to post bail. September 19, 2024 – Michael’s eldest brother, Tony Yang, is arrested on the basis of being an undesirable alien. Lawmakers describe him as the architect of a shady network of companies including his brothers, and which connect through middle brother Hongjiang, to the Alice Guo POGO enterprise. Both the House and the Senate have indicated they will continue investigating the Yangs and their alleged involvement in criminal activities. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>COVID-19,Michael Yang,Office of the Ombudsman,Pharmally,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Marcos says he'd 'rather not' comment on Sara Duterte's tirades | The wRap</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/november-1-2024/</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45597.6</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: President Ferdinand Marcos Jr. declines to comment on Vice President Sara Duterte’s tirade regarding the remains of his father, the former president and late dictator. Four months after his verbal order to close down all Philippine offshore gaming operators or POGOs by the end of the year, President Ferdinand Marcos Jr. still has not issued an executive order. Donald Trump sues US TV network CBS over an interview of his rival Kamala Harris aired on its ’60 Minutes’ news program. NBA’s all-time leading scorer, LeBron James, endorses Democratic candidate Kamala Harris for president. Filipino basketball star Kiefer Ravena announces his engagement to beauty queen Diana Mackey on Thursday, October 31. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Filipino basketball players,POGOs,Sara Duterte,United States,US elections</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>With no EO, freeports and ecozones 'gray area' in Marcos POGO ban</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/pogo-ban-no-written-order-ceza-gray-area/</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45597.27534722222</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Commercial center inside CEZA. Photo from CEZA's Facebook page MANILA, Philippines – Four months after his verbal order to close down all Philippine offshore gaming operators (POGOs) by the end of the year, President Ferdinand Marcos Jr. still has not issued an executive order(EO) for his directive, multiple sources have confirmed to Rappler, resulting in a situation where iterations of gaming licenses issued by freeport and economic zones remain a “gray area.” “No EOs necessary. The ban is clear. All POGO licenses issued by Pagcor [Philippine Amusement and Gaming Corporation] are deemed canceled by December 31,” said Interior Secretary Jonvic Remulla. “IGLs (internet gaming licenses) issued by the different agencies are still a gray area until the President makes a direct order. Meanwhile we will concentrate on the legal and illegal POGOs,” Remulla added. A Pagcor source told Rappler that the agency was waiting for an EO. Freeport and economic zones enjoy some degree of autonomy, with some zones even able to issue their own visas. One big economic zone that has its own IGLs is the Cagayan Economic Zone Authority (CEZA) run by Katrina Ponce Enrile, daughter of Marcos Chief Presidential Legal Counsel Juan Ponce Enrile. Pagcor chairperson Alejandro Tengco told a Senate panel probing illegal POGOs in July — days after Marcos’ verbal directive — that CEZA was indeed a point of contention. Tengco said then, “ Doon lang po ako nakakakita ng kumplikasyon (That’s the only area where I can see a complication), but we will see how we can cover.” Tengco had said before that the Aurora Pacific Economic Zone and Freeport Authority (APECO) has no licensing operations, and the Authority of the Freeport Area of Bataan (AFAB) needs Pagcor’s approval before it can issue licenses. Rappler also asked Solicitor General Menardo Guevarra about the issue as Tengco had said back in July that both of them would discuss the issue further. Guevarra told Rappler: “[Chairman Tengco] hasn’t referred the matter to me. Baka [maybe] he took it up instead with the OGCC, the statutory counsel of GOCCs like the Pagcor.” The primary function of the Office of the Government Corporate Counsel is to serve as the principal law office of all government owned- or controlled corporations (GOCCs) their subsidiaries, and other corporate offspring; and government-acquired asset corporations. On Thursday, October 31, authorities raided a gaming hub that is licensed by the AFAB as a special class business process outsourcing. The POGO design is multi-layered such that many companies under that umbrella are, on paper, BPOs. Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio could not comment on the inclusion or non-inclusion of economic zones or freeport zones in the presidential ban, but said, “This raid is tangible proof that some investment promotion areas are being abused to allow offshore gaming activities that are bordering on scamming activities.” “It’s crucial that the national government works to address this whole gap,” said Casio. Tengco said during Senate’s July hearing that “ damay ang AFAB (AFAB is covered)” by the ban by virtue of its charter, whereas CEZA was a special case. “ Ito pong CEZA kasi ay mayroong sarili siyang charter, at naloloob sa charter niya, na bukod tangi ito lang ang export processing authority na mayroong kapangyarihang makapag-issue ng lisensya para sa anumang uri ng gaming operations ,” Tengco said before. (CEZA has its own charter, and in that charter, it is the only export processing authority which has the power to issue its own license for any kind of gaming operations.) The Bureau of Immigration is in the process of downgrading the visas of foreign workers who applied for visas to work in a POGO hub. The BI announced that POGO workers can voluntarily downgrade their visas from a work visa to a temporary visitor visa, so that after the downgrade, they are allowed to stay in the country for 59 more days “to wind down their affairs,” BI Commissioner Joel Anthony Viado said in early October. “Workers who fail to leave the country by December 31, 2024, will face deportation proceedings and be blacklisted from re-entering the Philippines,” said Viado. Whether the ban, as well as the potential deportation of workers, also applies to CEZA is up for contention in the absence of a written order from Malacañang, whose current chief legal counsel founded CEZA. Rappler has reached out to Malacañang, but Communications Secretary Cesar Chavez has yet to respond as of posting time. We will update this story once he does. – With reports from Joann Manabat and Bea Cupin/Rappler.com For more stories and investigations on POGOs , refer to this page. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Ferdinand Marcos Jr.,Juan Ponce Enrile,Pagcor</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Bataan POGO-like hub raided | The wRap</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/october-31-2024/</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45596.63611111111</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Authorities raid a suspected scam hub inside the freeport zone in Bagac, Bataan, and rescued around 900 workers. The Philippines is again on the list of countries most likely to let journalists’ killings go unpunished. President Ferdinand Marcos Jr declares the founding anniversary of religious group Iglesia ni Cristo or INC on July 27, 2025, a special non-working day nationwide. GMA actress Rita Daniela files an acts of lasciviousness complaint against her Widows’ War co-star Archie Alemania. In her affidavit, she says the incident happened after a house party in Quezon City. Korean superstar G-DRAGON makes his long awaited return with a brand new single, ‘POWER’ released Thursday, October 31. Described as a  ‘high energy, infectious K-pop record,’ the track showcases GDRAGON’s powerful vocals through infectious beats. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Ferdinand Marcos Jr.,k-pop,POGOs,sexual assault</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>POGO-like hub in Bataan freeport area raided</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/pogo-like-hub-in-bataan-freeport-area-raided/</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45596.39059027778</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RAID. Central One hub inside the freeport zone in Bagac, Bataan is raided on October 31, 2024, by the joint forces of PAOCC, PNP-SAF and PNP-CIDG. Photo by Joann Manabat/Rappler BATAAN, Philippines – Authorities raided on Thursday, October 31, a suspected scam hub inside the freeport zone in Bagac, Bataan, and rescued around 900 workers. Amid threats of a downpour due to Supertyphoon Leon, joint operatives from the Presidential Anti-Organized Crime Commission (PAOCC) and the Philippine National Police (PNP) Special Action Force (SAF) and Criminal Investigation and Detection Group (CIDG) entered the premises of Central One on Thursday, armed with a search warrant  that they secured from a Malolos court on October 29. The search warrant, signed by Judge Hermenegildo Dumlao II, says “there is probable cause to believe” that foreign workers in the hub are victims of human trafficking. The search warrant also authorizes the seizure of computers, laptops, cellphones, servers, and CCTV to potentially build evidence of “scamming activities and online recruitment.” Central One does not have a Philippine offshore gaming operator (POGO) license or an Interactive Gaming License (IGL), but it is authorized to operate under a master license from the Authority of the Freeport Area of Bataan (AFAB). According to an employee, they are “special class BPOs (business process outsourcing).” Freeport zones and economic zones enjoy some autonomy in their jurisdictions, much like how the Cagayan Economic Zone Authority (CEZA) has its own POGO design called i-Gaming. Although under different regulatory framework, the design is pretty much the same. AFAB confirmed that Central One is a registered enterprise operating in a FAB expansion area. “AFAB confirms that Central One Bataan PH, Inc. is registered with the Freeport Area of Bataan and is currently operating in a FAB Expansion Area located in Bagac, Bataan,” AFAB said in a statement sent to Rappler on Saturday, November 2. “AFAB, either independently or in collaboration with other regulatory bodies, regularly conducts inspections of our locators and registered enterprises to ensure compliance with the terms and conditions of their authority,” it added. Central One has six buildings and various amenities with a P600 million investment and a workforce of 1,500, including expatriates.  The workers were mostly Filipinos; only 57 were foreign nationals from Indonesia, Vietnam, Chinese, Brazil, among others. PAOCC spokesperson Winston Casio said the establishment has been operating for less than two years, and has not obtained any direct permits from the Philippine Amusement and Gaming Corporation (Pagcor). “They are operating an online gaming operation without necessary permit from Pagcor. Pangalawa (second), we already have reasonable ground to apply for cyber warrant in relation to crypto scamming and online sports betting scams,” Casio said. Central One manages operations for betting sites in countries such as Pakistan, Bangladesh, Malaysia, and Brazil. “The foreign incorporators and workers have violated their immigration status in various ways and will therefore be charged by the Bureau of Immigration,” Casio said. Leo, a Filipino working in the payment section, said they handle deposits and withdrawals in Bangladeshi Taka currency for casino players. “Nasa P6,500 kada kinsenas kami nagsusweldo hanggang P8,500 kung may incentives kami (we are paid P6,500 every payday or P8,500 if we have incentives),” Leo said. According to Casio, Central One is engaged in backend operations for various online gambling platforms, several of which are not registered with Pagcor. “Despite being located within the AFAB, the nature of their operations necessitates a Pagcor license. They facilitate money transfers for online betting applications and provide crypto services, both of which are currently not permitted by Pagcor or our banking system,” Casio said. The raid came as a surprise because last June, local officials of Bataan already inspected this hub and the company owners gamely toured the officials and showcased their facilities. POGOs and IGLs have been totally banned and should be winding down operations by the end of the year, following the announcement of President Ferdinand Marcos Jr last July. POGO workers have also been advised to voluntarily downgrade their working visas. But to this day, there is no executive order coming from Malacañang. –Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Bataan,BPOs in the Philippines,Central Luzon,crimes in the Philippines,human trafficking</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Duterte admissions make him liable for crimes against humanity – Abante | The wRap</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/october-29-2024/</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45594.6289699074</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: House human rights committee chairperson Bienvenido Abante says former president Rodrigo Duterte’s unapologetic admissions before the Senate about his role in drug war-related deaths make him liable for crimes against humanity. Malacañang issues a memorandum to the Anti-Money Laundering Council to freeze and preserve all assets of the seven companies suspected of being illegal POGOs now under investigation by the House of Representatives’ quad committee. Severe Tropical Storm Kristine, international name Trami, caused at least P2.1 billion worth of damage to agriculture and fisheries in the Bicol Region as of Monday, October 28. Members of P-pop group SB19 receive replicas of the 1734 Murillo-Velarde map from the Asian Institute of Journalism and Communication and NOW Group chairman Mel Velarde on Tuesday, October 29. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bicol,POGOs,SB19</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Malacanang wants assets of 7 companies being probed by House quad committee frozen</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/malacanang-freezes-assets-companies-probed-house-quad-committee-pogos/</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45593.57530092593</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. LUCKY SOUTH. Photo taken inside the Lucky South 99 POGO compound in a recent operation in Porac, Pampanga. Rappler Editor’s Note: A previous version of this story carried the headline, “Malacañang freezes assets of 7 companies being probed by House quad committee.” This has been corrected. It is only the Anti-Money Laundering Council that has the authority to freeze assets. PAMPANGA, Philippines – The Malacañang has issued a memorandum to the Anti-Money Laundering Council (AMLC) to freeze and preserve all assets of the seven companies that are under investigation by the House of Representatives’ quad committee. Based on the memorandum signed by Executive Secretary and Presidential Anti-Organized Crime Commission (PAOCC) chair Lucas Bersamin on October 22, released to the media on Monday, October 28, the seven firms are as follows: “Pursuant to the ongoing inquiry, in aid of legislation being conducted by the House of Representatives joint committees on illegal activities linked to illegal POGOs, the AMLC is hereby directed, subject to existing laws, rules and regulations, to apply with the appropriate court for the issuance of a freeze order or provisional asset reservation order covering all assets of the corporations, which are in any way related to an unlawful activity, as defined by Republic Act No. 9160,” the order stated. Under the anti-money laundering law, AMLC has the authority to freeze assets that, upon its own determination of probable cause, may likely be related to an unlawful activity. AMLC’s freeze order is only valid for 15 days, and within that period the owners have 72 hours to respond to the order. Any extension beyond the 15 days shall be by order of a court. In a separate letter addressed to Department of Justice (DOJ) Secretary Jesus Crispin Remulla and Bureau of Immigration (BI) Commissioner Joel Anthony Viado, the PAOCC also ordered the deportation of 192 foreign nationals, most of whom are Chinese, apprehended during a raid operation involving 3D Analyzer Information Technologies Incorporated. PAOCC directed the DOJ and BI to facilitate the transportation of the apprehended foreign nationals who were transferred to PAOCC’s temporary detention facility and to ensure their summary deportation while blacklisting them to prevent their re-entry into the Philippines. The quad committee, now on its ninth session, has been investigating since August controversies faced by the Duterte administration — illegal POGOs, his drug war, and the extrajudicial killings. – Rappler.com * Editor’s Note: An earlier version of this story mistook a Pampanga-based company for Yatai International Holdings Group, which is based in Thailand and is the one included in Malacañang’s memo. This has been corrected. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Anti-Money Laundering Council,Malacañang,organized crime</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[WATCH] Inside Track: Si Alice Guo, spy o ginamit ng kriminal?</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/podcasts-videos/video-alice-guo-spy-used-by-criminals/</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45593.09565972222</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nagkaroon ng bagong alas ang mga senador at kongresista nang ilabas ng 101 East Documentary ng Al Jazeera ang impormasyon na tila espiya daw ng Tsina si Alice Guo o si Guo Hua Ping. Ang paksa ng dokumentaryo ay ang Chinese crime gang leader na si She Zhijiang . Nabubulok siya ngayon sa kulungan sa Thailand dahil siya ang may ari ng Yatai International Holding Group, isang kumpanyang nahudyatan na may napakalaking human trafficking at cyber fraud network. Scamming, trafficking, torturing, at forced labor? You name it, nagawa na iyan ng mga kumpanya ni She Zhijiang. Ngayong gusto siyang iextradite sa Tsina, sabi niya isa daw siyang Chinese spy. Inatasan ni She si Wang Fu Gui, ang dati niyang kaselda sa Thailand na naging matalik niyang kaibigan, maging custodian ng kanyang files. Sa dokumentaryo, may ipinakita si Wang na mga dokumento bilang katibayan na si Alice Guo o si Guo Hua Ping ay kapwa espiya raw ni She. Hindi ito nagtapos sa dokumentaryo, humarap pa si Wang sa Senado at sinasabi niyang handang humarap si She Zhijiang sa Pilipinas kung kakailanganin dahil “naniniwala siyang hindi siya nakapinsala sa Pilipinas.” Minsan nang naghasik ng lagim si She dito sa Pilipinas. Noong 2015, may inarestong mahigit 100 foreign workers dahil sa illegal gambling. Ang may-ari ng kumpanyang iyon ay si Tang Kriangkai — alyas ni She Zhijiang. Maniniwala ba tayo sa akusasyon niya o pinapaikot na naman ba tayong mga Pilipino? – Rappler.com Reporter: Lian Buan Producer, video editor, graphic artist: Cara Angeline Oliver Videographer: Errol Almario, Franz Lopez Graphic artists: Nico Villarete, Alyssa Arizabal Associate producer: JC Gotinga Supervising editor: Chay Hofileña Supervising producer: Beth Frondoso How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>crimes in the Philippines,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[Ask The Tax Whiz] Effects of the POGO ban on rental properties</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/business/ask-the-tax-whiz-effects-pogo-ban-rental-properties/</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45590.10414351852</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Shutterstock Philippine Offshore Gaming Opertors (POGOs) gained momentum under the Duterte administration to boost revenue and jobs. However, due to illegal activities tied to POGO hubs, President Ferdinand Marcos Jr. announced a total ban during his July 2024 State of the Nation Address , promising to stop all operations by the end of the year. Not necessarily . Your rental income tax will depend on your gross rental income, and though a decrease in revenue may mean that you could face less tax liabilities, this does not mean that you will have an automatic decrease in overall tax obligations, since this depends on your overall income and allowable deductions. No , you cannot claim lost rental income as a deductible expense on your Income Tax Return (ITR). However, you can claim any deductions for costs associated with maintaining your vacant properties, as long as the property remains vacant during that taxable year. Examples of deductible expenses under Section 34 of the Tax Code include the following:  Yes , you would still need to pay VAT taxes. For commercial leases, any units rented out are immediately subject to VAT regardless of the owner’s gross annual receipts. In cases where the owner is a non-VAT registered person, and the gross annual receipts are less than ₱3 million, then they would be subject to a percentage tax of 3% in line with Section 116 of the Tax Code. The information provided in the article above is for general knowledge and information. We’re always happy to hear from you! If you want to know how these regulations affect your business, CONSULT ACG or email us at consult@acg.ph . How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bureau of Internal Revenue,real estate industry,taxes</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FBI agents in PH to probe American's abduction | The wRap</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/october-21-2024/</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45586.64</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: United States Federal Bureau of Investigation agents arrived in Sibuco town in Zamboanga del Norte to look into the October 17 abduction of American Elliot Eastman. The National Bureau of Investigation filed 16 criminal complaints against Tony Yang, the brother of former president Rodrigo Duterte’s economic adviser Michael Yang. Indonesia’s Prabowo Subianto on Sunday, October 20, took over as president of the world’s third-largest democracy. Kamala Harris entered the final full month of the US presidential election campaign vastly outspending Donald Trump. Liam Payne’s former partner, pop singer Cheryl Tweedy, joins the outpouring of grief over his death calling for restraint in coverage to protect his family. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>celebrity deaths,Indonesia,POGOs,US elections</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NBI files multiple criminal complaints vs Michael Yang's brother Tony</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/nbi-files-multiple-criminal-complaints-tony-yang/</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45583.64418981481</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. TONY YANG. Yang Jian Xin aka Tony Yang and Antonio Maestrado Lim, brother of former President Duterte economic adviser Michael Yang, attends the senate hearing on illegal POGO activities, on September 24, 2024. Senate PRIB MANILA, Philippines – The National Bureau of Investigation (NBI) has filed 16 criminal complaints against Tony Yang, brother of former president Rodrigo Duterte’s economic adviser Michael Yang, the NBI Northern Mindanao said on Friday, October 18. Some of the complaints filed with the Cagayan de Oro City prosecutor’s office against Yang, also known as Yang Jianxin or Antonio Lim, include the alleged falsification of public documents, perjury, and violation of anti-alias law. The NBI did not specify the rest of the 16 complaints. “In the course of the investigation, NBI-10 uncovered the fact that respondent uses these pseudonyms to put up several corporations and register them at the Securities and Exchange Commission in Cagayan de Oro City, to wit: Oroone Inc. [established in October 2016], Philippine Sanjia Steel Incorporated [established in September 2018], and Mis. Or Sand and Gravel Corporation [established in September 2016],” the NBI said. “Respondent concealed his identity as a Chinese national, obtained a Filipino birth certificate, and used his Filipino name/s as incorporator of these corporations, thus committing falsification in the corporations’ articles of incorporation and by-laws,” the bureau added. Immigration authorities arrested Yang on September 19 for being an undesirable alien. Yang’s steel mill corporation has been flagged by Philippine authorities due to alleged torture. Authorities also said that Yang’s businesses branched out to Philippine offshore gaming operators (POGO) through his company Oroone located inside the Alwana business park in Cagayan de Oro City. During the House quad committee hearing on September 28, the Philippine Drug Enforcement Agency (PDEA) confirmed that one of Yang’s business partners is a PDEA person of interest. Another Yang brother, Hongjiang Yang , is also allegedly connected to an illegal POGO after it was found that he held a joint bank account with Zhengcan Yu, one of the incorporators of Hong Sheng Gaming Corporation, the raided POGO in Bamban, Tarlac. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>National Bureau of Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[Rappler Investigates] When syndicates surround us</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/newsletters/investigates-when-syndicates-surround-us-drug-war-killings-pogo/</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45582.41666666666</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Marian Hukom/Rappler I’m back from a week-long leave and found it difficult to completely disconnect, given extended hearings on the drug war killings featuring retired police colonel Royina Garma, and the illegal activities of criminal syndicates linked to Philippine offshore gaming operators (POGOs). (Read: How Duterte’s 5 am call to Garma starts a nationwide drug war ) Last Friday, October 11, for example, I was debating whether to watch another Netflix episode of “Monsters” featuring the sensational case of the Menendez brothers who killed their wealthy and abusive parents, or the House quad committee hearings on extrajudicial killings. Guess which I chose? The telenovela at the House of Representatives. It wasn’t a wasted choice because the Friday session lasted way past midnight and featured bombshell disclosures by resource persons Kerwin Espinosa, who said he was forced by former Philippine National Police chief and now-Senator Ronald “Bato” dela Rosa to testify against former senator Leila de Lima, and Garma herself, who confirmed the reward system of former president Rodrigo Duterte for drug war kills. Kerwin, if you recall, was categorized as a “drug lord” on the Philippine Drug Enforcement Agency list, along with his father, Rolando, former mayor of Albuera in Leyte, who was killed in November 2016 in his detention cell in Baybay, also in Leyte. The mayoral aspirant of Albuera even cried while giving his testimony during the House quadcom hearing. That particular hearing pointed to a clear direction that subsequent House committee investigations will be taking: pivotal roles of resigned National Police Commission Commissioner Edilberto Leonardo, Senators Dela Rosa and former Duterte aide Bong Go, and the progenitor of the violent drug war itself, Rodrigo Duterte. Expect what was termed as “rumors” back then to become corroborated facts. Dela Rosa on Wednesday, October 16, told the media he would be conducting his own probe into the drug war and even invite the former president. Rhetorical question: will that hearing be credible and will it amount to anything meaningful — or will it be a complete waste of public funds? Be sure to read these other stories, too, if you want to catch up with fast-moving developments at the House: IN AKLAN. The eternal curse, or blessing, of journalists is that big news never eludes us. Wherever we go, something big is bound to erupt in our vicinity. Or stories would always find us, even if we’re temporarily and deliberately hitting the pause button. My break was no exception. While chatting with some of the locals in Malay, Aklan, one of them said a huge structure is being built by a Fil-Chi who’s been linked to past controversies. Heavy equipment is being used and work has been non-stop — away from the prying eyes of journalists. Is it a work-in-progress casino or another potential POGO that will be called by another name in the near future? The structure being built is allegedly adjacent to a property owned by a real estate magnate, who’s already among the country’s richest. Very sketchy information at this point, so if you know more and have heard about this, let me know. The locals are wary and worried about the kind of tourists that this structure will attract to their white beaches. While they were thankful for the six-month breather that their island got, courtesy of the Duterte administration, they lamented how the usual wealthy businessmen and politicians have taken control of the levers of livelihood in their area. (Read: INSIDE STORY: How Duterte decided on Boracay closure ) CHINESE CONNECTIONS. While the riveting tale continues at the House even as Congress is on break, our own digging and collaboration with colleagues from the Organized Crime and Corruption Reporting Project ( OCCRP ) produced this exclusive investigative story by Lian Buan: Chinese crime gangs penetrate PH through Alice Guo, POGOs . This report details the connections and extensive international network of cryptocurrency scammers and money launderers that extend all the way to Cambodia, Hong Kong, Singapore, the Caribbean, Mediterranean, and the United Kingdom. OCCRP published its own story, Alleged Hong Kong Crypto Swindler Tied to Singapore Money Laundering Syndicate , which shows the connections beyond Alice Guo (aka Guo Hua Ping) and her associates. Is she a spy — as alleged by arrested Chinese-turned-Cambodian She Zhijiang , who is linked to human trafficking and cyber fraud — or is Alice part of a vast criminal syndicate? Or is she both? We can’t tell with absolute certainty at this point. Any information you may have and wish to share via investigative@rappler.com can help us plug in more pieces in this huge puzzle. Your identity will be kept confidential. Tips and additional information will truly give our investigations a boost. Till Thursday after next! If you like what you’re reading on Rappler, help us continue doing these stories by supporting independent and quality journalism . Let us know too if there’s something we ought to be writing about, but aren’t. – Rappler.com Rappler Investigates is a bimonthly newsletter of our top picks delivered straight to your inbox every other Thursday. To subscribe, visit rappler.com/profile and click the Newsletters tab. You need a Rappler account and you must log in to manage your newsletter subscriptions. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>crimes in the Philippines,illegal drugs,Philippine National Police,Rodrigo Duterte,war on drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>In The Public Square: Making sense of the House 'quad' committee revelations</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/in-the-public-square-episode-making-sense-house-quad-committee-revelations/</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45581.50048611111</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – Has there been anything like it before, in the history of the House of Representatives? It’s not so much the fact that four major committees are conducting joint hearings, although that is unusual — it’s that the hearings have detonated one bombshell after another. What is happening at the so-called “Quad” Committee? And how do we make sense of it all? Since August, the House committees on dangerous drugs, human rights, public accounts, and public order &amp; safety have been jointly conducting a legislative inquiry into Philippine offshore gaming operators (POGOs), Chinese criminal syndicates, illegal drugs, and extrajudicial killings (EJKs). Some of the disclosures carry serious political consequences. In this episode of In The Public Square , Rappler columnist and editorial consultant John Nery is joined by veteran journalist Inday Espina-Varona — who has been keeping close watch on the hearings — and former Supreme Court spokesperson Ted Te — who is with the Free Legal Assistance Group and is especially interested in the revelations regarding EJKs. Watch the episode on Wednesday, October 16, at 8 pm. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>extrajudicial killings,House of Representatives,POGOs,war on drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Central Visayas cops: POGOs adopt new tactics – hiding in far-flung areas</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/pogos-new-tactics-hiding-far-flung-areas-police-regional-office-report/</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45580.47700231482</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SECLUDED. An aerial view of the Happy Bear Villa Resort in Moalboal town shows that it is located in a secluded and rural area. Happy Bear Villa Resort Facebook Page CEBU, Philippines – Police in Central Visayas identified changes in the modus operandi of illegal Philippine offshore gaming operator (POGO) hubs, as more are discovered in Cebu. On October 9, Bureau of Fire Protection (BFP) personnel discovered foreign nationals operating a suspected scamming hub inside the Happy Bear Villa Resort in Barangay Saavedra, Moalboal town, south of Cebu. Gerard Ace Pelare, spokesperson of the Police Regional Office Central Visayas, confirmed on Tuesday, October 15, that there were 38 undocumented Chinese nationals at the resort who were now under the custody of the Moalboal Police Station. Pelare said that unlike the previous POGO found on August 31 at the Tourist Garden Hotel in Lapu-Lapu City, the suspected perpetrators of these scamming hubs were adopting new strategies — moving from highly-urbanized cities to far-flung rural areas. “What we have discovered in Moalboal is that ilang gipili ang usa ka resort nga dili kaayo high-end (they have chosen a resort that is not very high-end). Then, it’s very secluded, it’s more or less 7 kilometers from the highway,” Pelare said. Pelare added that there were also fewer workers involved inside the hub in comparison to the number of workers at the Tourist Garden Hotel POGO, which had at least 160 foreign nationals . “But the same Chinese nationals or foreign nationals who are employed cannot exit the premises, they are enclosed in the area,” the spokesman said in a mix of English and Cebuano. According to police, one of the indicators of these POGO hubs is the presence of high-speed internet connection being serviced at an establishment. Prior discovering the Happy Bear Villa POGO, a telecommunications company tipped off the local government of Moalboal of an “unusual request” for the installation of a high-speed internet connection at the resort. Captain Brigido Paca, chief of the Moalboal Police Station, told Rappler on October 10, that the tip helped the local government and concerned agencies immediately begin their probe on suspicious activities in the area. Eventually, police were able to arrest the suspects who had no travel documents and had more than 200 smartphones, 4 laptops, and 34 personal computers. Pelare said on Tuesday that police have acquired a search warrant to seize the devices. “We are suspecting that they won’t be the last to be discovered…there will be a few more that are possibly still operating,” Pelare told reporters. The challenge, she said, is that police cannot simply enter private establishments without a search warrant. “Before you can be granted a search warrant, you need to prove to the court that you have evidence already and since they are adopting measures to hide their illegal activities, that is quite challenging for us,” Pelare added. For now, Central Visayas police are monitoring more areas in the region in coordination with the local governments and other enforcement agencies to quell the spread of POGOs nationwide . When asked if they would work with telecommunication agencies to identify suspicious establishments requesting high-speed internet connectivity, Pelare replied that they would consider it. Pelare also confirmed that the arrested Chinese nationals would face cases for violating the Alien Registration Act of 1950. As of this writing, police are still investigating the resort, the origins of the undocumented foreign nationals, and the illegal activities conducted there. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Cebu,Central Visayas,Philippine National Police</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Porac councilor suspended over Lucky South 99 POGO has been dead for over a year</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/porac-pampanga-councilor-regin-clarete-suspended-lucky-south-pogo-dead/</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45580.12563657408</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO. A photo taken from inside the Lucky South 99 POGO compound during a recent operation in June 2024. Rappler PAMPANGA, Philippines – One of the officials in Porac, Pampanga, suspended by the Office of the Ombudsman over the Lucky South 99 offshore gaming operations in the town has been dead for more than a year. The local officials were handed a preventive suspension order in connection with a complaint for gross neglect of duty filed by Interior and Local Government Undersecretary Juan Victor Llamas, due to the activities of the raided Philippine offshore gaming operator (POGO) in Porac. Among those suspended was Porac Councilor Regin Clarete, who died in May 2023. He was succeeded by his older sister, Myla Clarete, in the town council in September of that year. Myla, now the acting mayor of Porac, is the sister-in-law of former councilor Mike Tapang, who filed his certificate of candidacy for the town’s mayoralty with support from reputed Pampanga kingmaker Rodolfo “Bong” Pineda. Myla assumed office on October 10, two days after the preventive suspension of officials in the town, including Mayor Jaime “Jing” Capil and Vice Mayor Francis Laurence Tamayo. Also suspended were the following Porac officials: In the order, the ombudsman said that “given respondents’ power and authority, there is strong probability that they may influence witnesses or tamper with any evidence material to the case, and in order to likewise prevent any possible acts of malfeasance and/or misfeasance.” “They are hereby preventively suspended during the pendency of this case until its termination, but not to exceed the total period of six months, without pay,” read part of the order. Myla said, “Nothing will change in the normal operations of the municipality. Projects will continue. We won’t allow any delays in barangay projects.” The complaint was filed by Llamas against 11 public officials, including Regin, and six other former members of the town council. Jing Capil, the suspended mayor, is the second local chief executive to be preventively suspended due to POGOs. The first was the now dismissed Bamban mayor Alice Guo or Guo Hua Ping . “We did not receive the complaint and we’re not given the chance to reply. From all indications, we were not given due process,” he said. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LGUs in the Philippines,Office of the Ombudsman,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Alice Guo, POGOs linked to PH transnational crime | The wRap</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/october-14-2024/</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45579.59791666667</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: A Rappler investigation finds Alice Guo’s business partners are linked to an elaborate network of transnational scam and fraud operations. AGRI congressman Wilbert Lee faces an ethics complaint at the House of Representatives over a microphone-grabbing incident in September. The San Miguel-led New NAIA Infrastructure Corporation defends the 900% increase in the price of VIP access at the Ninoy Aquino International Airport. Leaders of the group of atomic bomb survivors awarded the Nobel Peace Prize warns the risk of nuclear war is rising, renewing their call to abolish nuclear weapons. Administrators of the Basilica Minore del Santo Niño de Cebu and its Augustinian friars implement a strict dress code, barring entry to those in ‘inappropriate attire.’ – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Catholic Church,House of Representatives,NAIA,Nobel laureates</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Chinese crime gangs penetrate PH through Alice Guo, POGOs</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/chinese-crime-gangs-penetrate-philippines-alice-guo-pogos/</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45579.33333333334</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Alice Guo’s business partners in Bamban, Tarlac extend to a transnational scam enterprise that operated in Southeast Asia and Hong Kong, with footprints in the Mediterranean, Caribbean, and the United Kingdom — trafficking thousands, defrauding victims through cryptocurrency scams, and laundering gambling money, a Rappler investigation shows. At least  four persons of interest, originally Chinese citizens, have been linked directly or indirectly to Guo, the detained and dismissed mayor of a once sleepy town in Tarlac. The direct ties were traced to her business deals, while the indirect associations emerged from her business partner. Guo’s business partners Huang Zhiyang and the couple Zhang Ruijin and Lin Baoying have been established as fugitives in congressional investigations , while Rappler’s examination of company records revealed another name: Dingkai Wang, who is connected to Huang through the raided Sun Valley Clark Hub Corporation in Mabalacat, Pampanga. The couple, who are holders of multiple passports, were convicted of money laundering, while Dingkai Wang, a naturalized Cambodian, is linked to fraud in Cambodia and Hong Kong. Huang Zhiyang, who is being hunted for his involvement in alleged high-stakes financial scams, helped Guo set up her business at a time when the Philippines became the next staging point of scam gangs that had been forced out of Cambodia and China. This was during the term of then-president Rodrigo Duterte, who opened the Philippines to Chinese trade and business. These persons of interest are linked to more personalities who have been the subjects of money laundering investigations in Singapore and sanctions by the United Kingdom. All of them are in the radar of United Nations agencies tracking cross-border crimes. This notorious network penetrated the Philippines through Guo and the Duterte-time creation, the now banned POGO (Philippine offshore gaming operator) hubs. Huang Zhiyang was Guo’s co-incorporator in a real estate company called Baofu Land Development Incorporated, set up on May 3, 2019. Baofu was the lessor of the two POGOs that were raided in 2023 and 2024, after trafficked and tortured victims escaped and filed complaints. Guo’s Baofu was not Huang’s only POGO venture in Central Luzon. Earlier in May 2018, Huang became a nominal shareholder in the incorporation of Sun Valley Clark located in the Clark Freeport Zone. Sun Valley is a cluster of commercial and residential buildings whose occupants engaged in crypto scam operations that used trafficked victims. The Philippine Amusement and Gaming Corporation (Pagcor) canceled its POGO license in May 2023. Guo told the Senate last May that she knows Huang only because she supplied him with pork, which he needed for his many restaurants in Clark, Pampanga. Addressing senators in Filipino on May 22, Guo said, “He has many restaurants, I was selling him pork. Our transactions were okay, he was kind.” She also described him as a nice person who always brought her gifts from his travels. The reason why Huang traveled so much was because he operated in different parts of the world. Born in Fujian province in China, Huang obtained his first foreign citizenship in 2015 from St. Kitts and Nevis, a country in the Caribbean notorious for being a tax haven and where a lot of criminals go using investors’ visas. On January 25, 2019, Huang — who already had businesses in the Philippines — obtained a passport in Cyprus, a country whose “golden visa” program allowed the quick entry of criminals until it was scrapped in 2020. Now facing multiple criminal charges, Guo wants to pin Huang Zhiyang. Like Huang, Dingkai Wang is from Fujian and became a nominal shareholder of Sun Valley in Pampanga. He has no direct links to Guo as far as we know, but is part of the Huang Zhiyang network. Dingkai became a naturalized Cambodian in February 2017, based on the royal decree of his naturalization. Dingkai used his Cambodian passport to apply for a retiree’s visa in the Philippines, our informed sources have confirmed, but they could not establish the exact date. After Sun Valley was raided in May 2023, he left the Philippines in September that same year for Japan. He did not have any derogatory record here, and has not returned since, according to our Immigration sources. Dingkai has connections to a big scam operation in Cambodia, and some ties to a cryptocurrency fraud in Hong Kong, according to company records obtained from the Hong Kong registry. In Cambodia, it was reportedly the Heng He group that operated scam compounds. The Heng He casino was sanctioned in 2023 by the United Kingdom under its global human rights mechanisms, for “providing support for and concealing evidence of an activity that violates the right not to be subjected to torture or cruel, inhuman or degrading treatment.” We discovered via the Hong Kong registry that Dingkai is connected to the Heng He group through other companies. Dingkai’s business partner in another Hong Kong company is a director of the Heng He Investment and Development Company Limited, among the group’s corporate arms, as verified through records in the Hong Kong registry and the director’s Cambodian naturalization decree. Testimonies of the victims of the Cambodian Heng He about trafficking and forced labor, resemble the stories of over a thousand victims in Sun Valley Clark who were rescued by the Presidential Anti-Organized Crime Commission (PAOCC) in May 2023. Rappler sent messages on October 1 to all of Sun Valley’s listed email addresses to ask whether they were aware of Huang Zhiyang and Dingkai Wang’s connections to shady networks, but they have yet to respond. Rappler also emailed on October 3 a Hong Kong company listed under Dingkai, but it also has yet to respond. READ:  Alleged Hong Kong Crypto Swindler Tied to Singapore Money Laundering Syndicate How exactly did scams that operated out of the Philippines, Cambodia, and other countries work? Rappler has learned that workers are fed a script of the different personas they’d assume to lure victims into a cryptocurrency scam. These were done mostly through dating sites, with the predator using photos of either an unknowing person whose social media profiles are public, or by models employed by the hub. They have life stories to choose from in an Excel sheet — both their personal history, or just their daily activities. In Sun Valley, there were stock photos as inane as a McFlurry, or as stimulating as a financial literacy book, ready to be sent to the victim who might ask what the predator is doing at a particular moment. Although Huang Zhiyang and Dingkai Wang were nominal shareholders in Sun Valley, two companies registered in the British Virgin Islands (BVI) — another tax haven — owned the majority, according to their incorporation records filed with the Philippine Securities and Exchange Commission (SEC). One of these is Hanyip Limited. A company of the same name registered in Hong Kong was founded by Dingkai, according to a document filed with Hong Kong’s company register. Hanyip raises suspicions because its listed address in the Hong Kong registry is the same office as Vico Capital Limited, owned by the same boss linked to a cryptocurrency trading platform in Hong Kong that went bankrupt. Heng He group’s Wang Dingben also registers companies to this address. The trading platform also allegedly defrauded thousands of people, local HK01 news  reported in 2022. For still unexplained reasons, neither Huang Zhiyang nor Dingkai Wang, nor any of the Sun Valley incorporators were included in the trafficking, cybercrime and illegal detention indictment of the justice department in May 2023 . In the complaints filed against the Bamban and Porac, Pampanga POGOs, all incorporators were sued under the theory that they were all part of a criminal system. Rappler asked the Department of Justice (DOJ) on October 3, October 7, and again on October 14, why the incorporators were not charged, but the different officials we asked have yet to respond. We will update this story once they do. The license of the raided POGO inside the hub has been forfeited, and the buildings in the complex have been locked, according to Clark Development Corporation, the government corporation that manages the Clark economic zone. After she bought hectares of land in Bamban, Guo said she offered an investment opportunity to her client Huang Zhiyang. That offer materialized in the form of Baofu. Huang used his newly-obtained Cypriot passport to put in P175,000, making him 14% owner, while Guo owned 50%. A Filipino, Rachelle Carreon, who is now detained , owned 10%. The remaining 26% was evenly shared between Huang’s connections, Zhang Ruijin and his girlfriend Lin Baoying. The pair would eventually be found guilty of laundering illegal money through luxury residentials, among others, in Singapore. Guo said that it was Huang Zhiyang who brought in Zhang and Lin. “ Ang kausap ko lang po ay si Huang Zhiyang, ang katuwiran ko po that time, since akin naman po ‘yung lupa, majority po nasa akin, wala pong mawawala po sa akin ,” Guo told the Senate in May. (I was only in talks with Huang Zhiyang, and my thinking at the time was, since I own the land, I own the majority, I wouldn’t lose anything.) At the time of the Baofu incorporation, Huang, Zhang, and Lin were all living in Fontana in Clark, Pampanga, according to SEC documents. With a foothold in the Philippines, the couple Lin and Zhang put up another company in London in January 2019, named Jinying Invest Company Limited. They listed the Philippines as their address, according to their filing with the United Kingdom’s Department for Business and Trade. The Singapore trial uncovered how Lin and Zhang’s network “had earned millions through online gambling platforms located in several under-regulated offshore jurisdictions,” including the Philippines, according to a newly-published report of the United Nations Office on Drugs and Crime (UNODC). The first POGO in Baofu to be raided was Hongsheng Gaming Technologies, busted by the Criminal Investigation and Detection Group in February 2023. Around this same period, the couple Zhang and Lin would settle at a luxurious residential enclave in Sentosa Cove in Singapore where they would be found guilty of laundering the dirty money they earned from their Philippine POGO operation. (Editor’s Note: An earlier version of this story said the 2023 raid was conducted by the Presidential Anti-Organized Crime Commission. This has been corrected.) It was in Sentosa, too, that the two were arrested in August 2023, according to a report by The Straits Times, for what Singaporean authorities described as the biggest money laundering case in their country. In this scheme, money from illegal sources overseas was stashed through banks, mansions, luxury cars, jewelries, and designer bags. “While the full extent and exact sources of their wealth is not known, the charges largely focused on laundering of funds acquired through illegal online gambling activities, specifically in the Philippines,” said the UNODC. Also in August 2023, local police in China had put out a wanted notice for Huang Zhiyang. Zibo police said Huang Zhiyang was among 15 suspects in cross-border online gambling crimes found to be “illegally staying abroad.” Though convicted in Singapore for money laundering, the couple Zhang Ruijin and Lin Baoying were sentenced to only 15 months. In June 2024, they were deported to Cambodia, according to Singapore’s Business Times .  They are also wanted in the Philippines, along with Huang Zhiyang, for human trafficking related to the POGO operations inside Baofu. The three have not been found, leaving Guo behind to be detained over non-bailable charges of human trafficking. The Philippine network ties back to Singapore through other links. One is through Wang Baosen, the third person to be convicted in the Singapore money laundering case. “According to court documents, Wang Baosen also admitted to working at Hongli International which was located in the Clark Freeport area in Pampanga, later moving to Bavet City, Cambodia,” said the UNODC report. Another link is through Dingkai Wang’s associates in his Hong Kong companies, including Su Jinkun, who lists multiple residential and correspondent addresses in Dubai, Hong Kong, and China that overlap with the fellow money laundering suspects of Zhang and Lin. Dingkai’s other business associate, Su Weiyi of the Hong Kong cryptocurrency exchange, also shares company ownerships with members of Singapore’s money laundering gang ( see diagram) . There is no evidence, however, of Su Weiyi being involved in money laundering himself. Documents from the Hong Kong register show that Su Weiyi is a director of several companies, including Atom International Investment Limited, whose holdings company based in the Cayman Islands is facing a petition for winding up. This refers to a process of compulsory liquidation to repay creditors. The petition was filed by users who were duped into investing in the Hongkong AAX crypto exchange. Company records in Hong Kong confirm these directorships. Su told the Financial Times in December 2022 that he was also just an investor in AAX. The Philippines was an attractive destination for scam syndicates fleeing the crackdowns in China and Cambodia. When PAOCC raided the Bamban POGO Zun Yuan in March 2024 , six Chinese fugitives were among the 201 Chinese citizens found to be working there. They were able to obtain visas to the Philippines because, according to the Bureau of Immigration, in the application process, the Philippines has no inkling of their criminal records. “Normally, these fugitives are tagged by their countries as wanted criminals after they have been issued visas and/or entered the country. In many cases, their governments inform the BI about their cases only after the fact that they have entered or been caught in the Philippines,” Immigration spokesperson Dana Sandoval told Rappler. The Philippines is currently requesting foreign governments for more efficient data-sharing, said Sandoval. “Is this latest influx part of that long-standing trend [of the Chinese diaspora] or is this something else? There is the potential that Chinese criminal elements have relocated to our country, having found a safe haven here,” Ashley Acedillo, director general of the National Intelligence Coordinating Agency, told the Senate on October 8. In a January 2024 report, the UNODC said casino syndicates “infiltrated” countries like the Philippines because we do not “possess a functioning, enforceable casino regulatory management and supervision system.” That’s a kind way of saying we have a highly corruptible system. Congress has recommended a slew of amendments to existing laws covering corporations, anti-drug policies, and cyber operations, spurred by leads showing the POGO network’s links to the illegal drug trade. “Itinayo ang mga POGO gamit ang salaping pinagbentahan ng iligal na droga. Ginamit ang salaping ito upang bilhin ang ating mga kawani ng gobyerno at mga opisyal. Sila ang nagsilbing protektor ng mga dayuhang ito…. ginisa tayo sa sarili nating mantika,” said House quad committee chairman Representative Ace Barbers. (POGOs were set up using money from illegal drugs. This same money was used to buy off government personnel and officials. They protected these foreigners…. we were taken advantage of.) – with reports from Joann Manabat/Rappler.com The Organized Crime and Corruption Reporting Project (OCCRP) contributed to this report . How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Alice Guo,Cambodia,Central Luzon,China,crimes in the Philippines,Hong Kong,Singapore,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Garma implicates Rodrigo Duterte in drug war killings | The wRap</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/october-11-2024/</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45576.58472222222</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Retired police colonel Royina Garma directly implicates former president Rodrigo Duterte in the extrajudicial killings committed by the police in the war on drugs. Kerwin Espinosa, the man accused by the Duterte government of being a drug lord, says Senator Ronald ‘Bato’ dela Rosa forced him to testify against former Senator Leila de Lima. Authorities arrest an alleged POGO ‘big boss’ tied to the scam hubs in Bamban, Tarlac and Porac, Pampanga. Lyu Dong was caught Thursday night, October 10, in Biñan, Laguna. Rafa Nadal calls time on his illustrious but injury-plagued career. The 22-time Grand Slam champion announces his retirement Thursday, October 10. French President Emmanuel Macron says he will fight hard to ensure Emily – the heroine of Netflix hit series ‘Emily in Paris’ – returns to the French capital from Rome. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bato dela Rosa,France,POGOs,Rodrigo Duterte,Tennis</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>House quad committee lawmakers file bills vs EJKs, POGOs</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-quad-committee-lawmakers-file-bills-against-extrajudicial-killings-pogos/</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45576.46869212963</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. JUSTICE. Families of victims of extrajudicial killings, human rights groups, stage a protest at the House of Representatives as the quad committee holds its eighth hearing on EJKs during the Duterte administration, on October 11, 2024. Jire Carreon/Rappler MANILA, Philippines – The House quad committee , the congressional mega panel in charge of probing alleged criminal activities that proliferated under the Duterte presidency, filed bills on Friday, October 11, seeking to institutionalize the ban on Philippine offshore gaming operators (POGOs) and classify extrajudicial killings (EJKs) as heinous crimes. The submission of the measures comes in the wake of allegations raised by supporters of the Dutertes that the investigations were meant to politically harass the powerful family from Davao. Lawmakers have denied this, insisting that the marathon hearings were in aid of legislation. The first measure wants to classify as heinous crimes extrajudicial killings “committed by a public officer, person in authority, agent of a person in authority, or any person who is acting under the actual or apparent authority of the state,” and slap them with a penalty of life imprisonment. The bill also seeks to grant reparations to legal heirs of EJK victims, amounting to P250,000 to P500,000 each, depending on the circumstances of their deaths. Non-monetary reparations in the form of “necessary services” that can be offered by relevant government agencies shall also be provided. Under the proposal, a nine-member Extrajudicial Killings Claims Board under the Commission of Human Rights will be created to take the lead in reviewing applications for claims. Drug suspects killed in police operations during the entire six years of the Rodrigo Duterte administration ranged from 6,000 to almost 8,000 , based on government tallies but human rights groups believe the actual figure is somewhere between 27,000 and 30,000. Duterte and his men are the subject of an ongoing investigation by the International Criminal Court. The second measure proposes a complete ban on “all forms of offshore gaming operations in the country.” While President Ferdinand Marcos Jr. already issued such a directive during his State of the Nation Address in July, the bill expands on what exactly is prohibited. The bill also lays out the following penalties for violators: Foreign nationals found guilty must be deported immediately, and public officers involved must be dismissed from employment and deprived of retirement benefits, as per the bill. The Philippines under Duterte’s leadership began processing licenses for POGO firms in 2016, in a bid to find another source of revenue for the government. By 2019, the number of POGO hubs soared to as high as 300. Despite reports of their involvement in criminal activities and the Anti-Money Laundering Council’s report that P14 billion in POGO transactions were related to suspicious activities, Duterte did not ban offshore gambling. The main proponents of both bills are those who have consistently figured in the quad comm hearings, namely: Senior Deputy Speaker Dong Gonzales, Deputy Speaker Jay-jay Suarez, House dangerous drugs committee chair Ace Barbers, public order and safety committee chair Dan Fernandez, human rights committee chair Bienvenido Abante, and public accounts committee chair Caraps Paduano. Other authors include lawmakers Romeo Acop, Johnny Pimentel, Gerville Luistro, Rodge Gutierrez, Francisco Paolo Ortega V, Jefferson Khonghun, and Jonathan Keith Flores.  – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>extrajudicial killings,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>POGO 'big boss' tied to Porac and Bamban scam hubs caught</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/pogo-big-boss-lyu-dong-caught-laguna-october-2024/</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45576.08038194444</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. IN CUSTODY. Lyu Dong, believed to be a POGO big boss tied to the big scam hubs in Bamban and Porac, is caught in a tense operation by authorities on October 10, 2024. Courtesy of PAOCC MANILA, Philippines – Authorities made a breakthrough on Thursday, October 10, when they caught Chinese national Lyu Dong, believed to be one of the big bosses of shady Philippine Offshore Gaming Operators (POGOs), particularly the scam hubs in Bamban, Tarlac and in Porac, Pampanga in Central Luzon. Lyu Dong was caught on the basis of an immigration mission order, in a tense operation evening of Thursday in Biñan, Laguna, south of the capital, by agents of the Presidential Anti-Organized Crime Commission (PAOCC),  Armed Forces of the Philippines Joint Special Operations Group, Intelligence Service of the Armed Forces of the Philippines, and Bureau of Immigration. “This arrest followed an extensive eight-month surveillance initiative focused on monitoring Dong’s activities and movements,” said PAOCC’s report to Executive Secretary Lucas Bersamin. On Friday, PAOCC, in its updated report on the arrest, said Lyu Dong’s real name, based on his passport, is Lin Xunhan. “It is important to highlight that former associates have attested to the fact that during his early years in the Philippines, he routinely utilized the identity and passport of an individual named LYU DONG in various transactions and social interactions,” PAOCC said. Lyu Dong does not appear in any company records of Lucky South 99 POGO in Porac, nor its lessor Whirlwind. He also does not appear in the company record of the Bamban POGO Hongsheng/Zun Yuan, and the lessor Baofu which is owned by dismissed mayor Alice Guo. But, according to PAOCC, Lyu Dong “is tied to notorious establishments such as Lucky South 99 and Hongsheng/Zun Yuan.” Lyu Dong arrived in the Philippines when he was 26 years old. He is now 39 years old. Lyu Dong was among those named in the search warrant when PAOCC raided Lucky South. Lyu Dong, using another alias “Boga” was also among those in the POGO who eventually moved a court in San Fernando, Pampanga to quash the search warrant. “Since 2016, Dong has systematically built a network of scam farms, often employing legal businesses as fronts to obscure his illicit activities. While some of these operations have been raided and shut down, many continue to thrive, complicating law enforcement efforts to dismantle his extensive criminal enterprise,” said PAOCC’s report. “These illicit enterprises have expanded across five regions within the country, earning him the moniker ‘Hao Hao’, which translates to ‘Boss of the Boss,’ and positioning him among the ranks of notorious POGO kingpins,” said PAOCC’s report. Lyu Dong has a presence in several areas in the country, according to PAOCC. Aside from cities in Metro Manila such as Pasay, Parañaque, Manila, and Makati, he also operated in Ilocos Sur in northern Philippines and in Cebu in Central Visayas. In the Porac scam hub , Whirlwind incorporator, aka the lessor, Duanren Wu is Congress’ person of interest because he is a former Chinese policeman who is allegedly also wanted in China. He is also the godfather of Cassandra Ong , and workers who testified in the House of Representatives believe that Wu is the big boss. Duanren Wu is yet to be found. The name of Lucky South 99’s president is Zhang Jie, a Chinese national who Senator Risa Hontiveros believes helped Guo, Ong and Guo’s siblings flee to Indonesia . There was a Zhang Jie caught in Laguna on Thursday with Lyu Dong, but he does not initally appear to be the same Zhang Jie, although the one in custody is confirmed to be on the Immigration blacklist. A total of 13 Chinese nationals were caught in Biñan. “The enforcement personnel discovered three 9mm caliber pistols in their possession during the operation,” said PAOCC’s report. In the Bamban POGO, at least 8 Filipinos plus Guo are in jail over the non-bailable charges of human trafficking. Guo has said that the big boss there was her co-incorporator, Huang Zhiyang, who is also wanted in China. Huang Zhiyang has also not been found. The human trafficking complaints against Ong, Wu and the Porac POGO officials are still pending before the Department of Justice. “The arrest of Lyu Dong reveals the vulnerabilities within the current system that scammers like [Lyu] Dong exploit. Moving forward, it’s imperative that authorities not only adapt their existing strategies but also develop comprehensive measures tailored to detect, dismantle, and prevent the proliferation of similar scams,” said PAOCC. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Alice Guo</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Marcos reclamation chair is a POGO sublessor | The wRap</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/october-10-2024/</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45575.57152777778</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: A Rappler investigation finds a company run by the country’s reclamation chief Alex Lopez is renting out office space to a POGO. Cebu City Vice Mayor Raymond Alvin Garcia officially takes over as mayor Wednesday, October 9. This, after the Ombudsman dismissed and perpetually disqualified Mayor Michael Rama from public office. Hurricane Milton exits Florida Thursday morning eastern time, after whipping up deadly tornadoes, destroying homes and knocking out power to more than 3 million. Singer-actress Julie Anne San Jose apologizes after getting flak for her controversial performance inside a Catholic church in Occidental Mindoro. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Central Visayas,Filipino celebrities,United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>38 undocumented foreign nationals arrested in Cebu resort</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/undocumented-foreign-nationals-arrested-resort-cebu-october-10-2024/</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45575.55731481482</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. VILLA. Police found 38 undocumented foreign nationals who were allegedly operating a suspected scamming hub at the Happy Bear Villa in Moalboal town, Southern Cebu on Thursday, October 10, 2024. Happy Bear Villa Moalboal Cebu Facebook Page CEBU, Philippines – Police in the town of Moalboal, Cebu arrested at least 38 undocumented foreign nationals who were seen operating a suspected scamming hub at a resort on Thursday, October 10. Bureau of Fire Protection (BFP) inspected the Happy Bear Villa on Wednesday, October 9, and found foreign nationals staying there. Police immediately went to the resort after receiving the report from the BFP. “During the inspection, actually, we were shocked to see undocumented foreigners in the area,” Gerard Ace Pelare, spokesperson of the Police Regional Office in Central Visayas, told reporters in a mix of English and Cebuano on Thursday. Pelare said that police have been working with local governments in conducting routine inspections in multiple areas in the region to combat the operations of illegal Philippine offshore gaming operators (POGOs). On September 20, Moalboal Mayor Inocentes Cabaron issued an executive order, directing barangay officials to monitor and report suspicious activities with similarities to illegal POGO operations in their respective areas. In August, 169 foreign nationals were caught running at least three scam farms inside the Tourist Garden Hotel in Barangay Agus, Lapu-Lapu City. “We found computers, cellphone gadgets, routers and that is one of the indicators [of a POGO] but it is still subject for verification,” Moalboal Police Captain Brigido Paca told Rappler on Thursday afternoon. Paca said that before the BFP did their inspection, they received a tip from a telecommunications company that said there was a resort in Barangay Saavedra that requested an installment for a high-speed internet connection. Police have identified this as a probable indicator of an illegal POGO. This resort was later identified as Happy Bear Villa. The Moalboal police captain said that they have coordinated with the offices of the Bureau of Immigration, Inter-Agency Council Against Trafficking, and other concerned law enforcement agencies to deepen their probe into the resort and the undocumented foreigners. As of writing, the 38 foreign nationals are detained at the resort, and police are still investigating the issue. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Central Visayas,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>WATCH: 'Ghost' owner of Bamban POGO surrenders, worries for 2 kids</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/video-merlie-joy-castro-ghost-owner-bamban-pogo-surrenders/</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45575.3806712963</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – Merlie Joy Castro, a vendor-turned-call center worker mother of two, turned herself over to the National Bureau of Investigation (NBI) I over non-bailable charges of human trafficking for being an alleged incorporator of the POGO in Bamban, Tarlac. She maintains she is a victim of identity theft. Lian Buan reports. – Rappler.com Reporter: Lian Buan Video editor, videographer: Ulysis Pontanares Producer: Cara Angeline Oliver Graphics : Nico Villarete, Guia Abogado How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Alice Guo</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Pasay scam hub's sublessor is firm of reclamation chair Alex Lopez</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/pasay-scam-hub-sublessor-reclamation-chair-alex-lopez/</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45575.35900462963</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SUBLEASE. The 3D Analyzer POGO hub operates from the first floor of this 2-story building near the Senate in Pasay City. Photo by Lian Buan/Rappler MANILA, Philippines – Philippine Reclamation Authority (PRA) chairman Alexander T. Lopez, a presidential appointee, is the sublessor to a POGO (Philippine Offshore Gaming Operators) company in Pasay which was found with traces of love scam operations , according to the sublease contract obtained by Rappler. The sublease contract, finalized in January 2024, shows Lopez in his capacity as chairman and CEO of Pacific Concrete Products Inc. that was renting out the building’s ground floor to the 3D Analyzer Information Technologies Inc., which was raided recently by government authorities. At the time of the raid, President Ferdinand Marcos Jr. had already banned POGOs. The entire property is owned by the Philippine National Construction Corp. or PNCC, a government-owned and controlled corporation (GOCC). The contract shows that Lopez’s Pacific Concrete Products Inc. has a 25-year lease with the PNCC. Lopez’s Pacific Concrete confirmed the sublease to Rappler, but said that 3D analyzer is just one among the long line of its sublessee. “Our company has been established since 1959, we are 65 years old, unlike other POGO scams you reported that’s new, there’s layering. We’re different, we are a Quadruple A contractor,” Pacific Concrete counsel Aldo Del Rosario told Rappler in a phone interview on Thursday, October 10. Rappler asked to get Lopez’s side, but PRA referred us to the Pacific Concrete counsel. “Just like any lease arrangement, the lessee’s business is not the responsibility of the lessor, and the lessee is solely responsible to the authorities for its activities, legal and illegal,” the company said in a separate statement. At the time of the sublease contract, Lopez was already appointed to the post by President Ferdinand Marcos Jr., or in November 2023. Before his PRA appointment, Lopez ran for mayor of Manila in the 2022 elections under Marcos’ party, Partido Federal ng Pilipinas (PFP). He lost. 3D Analyzer obtained an Internet Gaming License (IGL or the rebranded name of POGOs) in September 2023, which was valid until September 2025. According to the Philippine Amusement and Gaming Corporation (Pagcor), the company informed them that they had already ceased operations. It turned out not to be true. “Niloko nila ‘yung Pagcor, sabi nila hindi na sila operational. Puwede ba ‘yun? Eh may iba, bagong hire lang (They fooled Pagcor, they said they were non-operational. But how can that be? Some workers were newly hired),” Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio told Rappler in an earlier interview. A joint October 3 operation of PAOCC, the National Bureau of Investigation, and the Bureau of Immigration, discovered “red flags of love scamming that victimizes foreign nationals,” such as pre-registered sim cards, several phones per worker, and multiple windows open for Facebook, and secure messaging apps like Telegram and Signal. (Rappler sent messages on October 4 to 3D Analyzer via their listed email addresses in the Securities and Exchange Commission (SEC), but it has yet to reply.) 3D Analyzer’s corporate structure is composed mostly of Filipinos, except for one Chinese name who registered with the SEC as Filipino. Del Rosario said they were aware that they were leasing to a POGO licensee, adding “our property was open to everybody.” 3D Analyzer paid Lopez’s company P3.5 million in monthly rentals, according to the contract “ ‘Yung mga na-raid dati ‘yung mga iligal diba, ‘yung mga walang permit, but 3D Analyzer showed business permits from the LGU, gaming license from Pagcor and from there, it was on its face legitimate,” said Del Rosario. (The ones raided before were the illegal ones right, those that did not have permits, but 3D Analyzer showed business permits from the local government unit, gaming license from Pagcor and from there, it was on its face legitimate.) The biggest raided POGO hubs in Tarlac and Pampanga actually also had permits, which is why the local executives in Bamban and Porac were sanctioned. But 3D Analyzer’s operations stood out for their brazenness because at the time of the raid, all kinds of POGOs had already been banned by Marcos himself, and they were supposed to be already winding down. A total of 254 workers were caught in the raid, 190 of them were foreigners who had undergone inquest proceedings for violation of the country’s immigration law. “Pagdating namin dun isang araw, dalawang araw, tatlong linggo, nakita namin sa ID, mga bagong hire, kaya walang plano ang 3D Analyzer na tumigil ng operation, kaya hahabulin namin sila, hindi lang ang mga foreigners na ito ,” said Casio. (When we got there, they had just been there one day, two days, three weeks, we saw it in the IDs that they were just new hires, so there was really no plan by the 3D Analyzer to stop operations, so we are going after them, not just these foreigners.) Del Rosario said they also got in touch with 3D Analyzer when Marcos announced the all-out POGO ban in July. “Yes we sent them a letter reiterating President Marcos’ statement during his SONA [State of the Nation Address] that POGOs should wind down by December 2024… unfortunately no [they did not answer],” said Del Rosario. Del Rosario said they will cooperate in any investigation, but they have yet to receive any report from the raid. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>online scams</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>FACT CHECK: Video links CamSur politicians to POGOs without proof</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/fact-check/video-links-camarines-sur-politicians-pogos-without-proof/</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45575.2084375</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Claim: Alleged Pampanga gambling lord Rodolfo “Bong” Pineda is the financier of Camarines Sur provincial election candidates Bong Rodriguez, Fermin Mabulo, Arnie Fuentebella, and Philip Fortuno. The four politicians will set up Philippine offshore gaming operations (POGO) in Camarines Sur in return for Pineda’s support. Why we fact-checked this: The claim was made in a three-minute boosted video posted by Facebook page “Bicol Headlines” on July 14, which has garnered an estimated 10,000 reactions, 1,300 comments, 2,500 shares, and 2.1 million video views as of writing. The video could affect the outcome of the local races in Camarines Sur. Data on Meta’s Ads Library shows that the video was posted multiple times on Facebook with budgets per boost ranging from P15,000 to P40,000, with an estimated audience size of up to a million users per ad. The ads primarily target audiences from the Bicol region. Rodriguez, Mabulo, Fortuno, and Fuentebella recently filed their respective certificates of candidacies (COCs) for various positions in Camarines Sur. They belong to the same slate. Rodriguez is vying for provincial governor, Mabulo for 2nd District representative, Fortuno for 5th District representative, while Fuentebella is running for re-election as 4th District representative. The four will compete against members of the well-entrenched Villafuerte clan who filed their COCs last October 1. Incumbent 2nd District Representative LRay Villafuerte and his son, incumbent Camarines Sur Governor Luigi Villafuerte, are vying for the each other’s present position. Meanwhile, Luigi’s sibling, Migz Villafuerte, is running for 5th District representative. Actor-turned-politician Marco Gumabao is also on the Villafuerte slate, running as 4th District representative. The facts: The Bicol Headlines video is a hodge podge of video clips from various sources. It did not provide any evidence to support its claims. Bicol Headlines used two news reports from GMA Integrated News: one from a State of the Nation report and another from 24 Oras . Both were from June 2024 and showed alleged abuses and scamming activities in POGO hubs in Pampanga. The four Camarines Sur politicians were not mentioned in the two news reports. The vlogger featured in the video, Berteni “Toto” Causing, was previously disbarred by the Supreme Court for posting a defamatory Facebook post in 2019 in violation of the lawyer’s oath. In 2018, Camarines Sur Representative LRay Villafuerte accused alleged jueteng lord Pineda of being behind the operations of Evenchance Gaming Corp., a Small Town Lottery (STL) outlet in Camarines Sur. However, no credible news reports link Pineda with the politicians mentioned in the video. ‘Propaganda’ : Rodriguez laughed off the claim made in the video, calling it “fake news.” He said the POGO accusation was just one of the “illogical propaganda” proliferated against their team even before they announced their candidacies. Fuentebella also denied the accusations in an interview with a local radio station in Naga City on July 19. He said that he opposes POGOs, adding that he is one of the vice chairpersons of the committee on games and amusements in Congress investigating illegal POGO operations. Fuentebella said it was “funny” to find his name linked to POGOs. Fuentebella also wondered why a certain public figure in Pampanga was involved in the video. He suspects that it might be connected to the rivalry for the possession of an STL franchise in Camarines Sur. The congressman, however, did not directly mention the parties involved. “ Kung may dai pagkakaintindihan, ibabalita po. Garo may muyang magkua katong prangkisa, iyo na po ini. Nagulat lang po ako nakadamay pa ako (If there is a misunderstanding, it will be reported. It seems like someone wants to grab its franchise, that is it. I’m just surprised I got dragged to this),” Fuentebella said in the interview. – Angelee Kaye Abelinde/Rappler.com Angelee Kaye Abelinde, a campus journalist from Naga City, is a second-year Journalism student of Bicol University and the current copy editor of The Bicol Universitarian. She is also an Aries Rufo Journalism Fellow of Rappler for 2024. Keep us aware of suspicious Facebook pages, groups, accounts, websites, articles, or photos in your network by contacting us at factcheck@rappler.com. You may also report dubious claims to #FactsFirstPH tipline by messaging Rappler on Facebook or Newsbreak via Twitter direct message . You may also report through our Viber fact check chatbot . Let us battle disinformation one Fact Check at a time. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Camarines Sur,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Quiboloy cohort admits to US fraud scheme | The wRap</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/october-9-2024/</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45574.69831018519</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: One of doomsday preacher Apollo Quiboloy’s key associates in the United States breaks ranks. Alleged Hongsheng POGO incorporator Merlie Joy Castro surrenders to the National Bureau of Investigation on Tuesday, October 9. Tampa, Florida Mayor Jane Castor warns people against riding out Hurricane Milton, calling Hurricane Helene a mere wakeup call. There’s no animosity between popular Filipino sports champions EJ Obiena and Carlos Yulo. The pole vault star says all the stories of his rumored rift with the Olympic gymnastics champion are ‘fabricated’ and ‘misleading.’ P-pop group BINI is nominated for the Best Asia Act at the 2024 MTV Europe Music Awards or EMAs. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Filipino athletes,p-pop,POGOs,United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Porac mayor, vice mayor, councilors suspended over POGO</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/porac-pampanga-mayor-capil-officials-suspended-over-pogo/</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45574.3937962963</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO. A photo taken from inside the Lucky South 99 POGO compound during a recent operation in June 2024. Rappler MANILA, Philippines – The Office of the Ombudsman has ordered the preventive suspension of Porac, Pampanga officials led by Mayor Jaime Capil over the raided Philippine offshore gaming operator (POGO) in their town. In an order dated October 8, Ombudsman Samuel Martires ordered the preventive suspension of Capil and Vice Mayor Francis Laurence Tamayo in relation to the gross neglect of duty case filed by the Department of the Interior and Local Government (DILG). It also suspended the following councilors: The Ombudsman also suspended Emerald Vital, licensing assistant/business permit and licensing office acting chief. Capil, in a statement, said he acknowledged the Ombudsman’s decision, but clarified that the suspension did not equate to guilt. “ Sa kabila ng mga pagsubok na aming hinaharap nitong mga nakaraang buwan, patuloy kaming maglilingkod nang tapat at buong puso sa mga mamamayan ng Porac. Layunin din naming hindi lamang linisin ang aming pangalan kundi pati na rin itaas ang dangal ng Porac na naapektuhan ng isyung ito,” the suspended mayor said. (Despite the challenges we’ve faced in the last months, we will continue to serve with honesty and all our hearts to our citizens in Porac. We also aim to not only clear our names, but also to reclaim Porac’s dignity, which has been affected by this issue.) “ May tiwala ako sa batas, may tiwala ako sa katotohanan, at may tiwala ako sa Diyos. Gaya ng lahat ng pinagdaanan ko, makakaraos din tayo dito at kalaunan ay magiging panatag ang lahat ,” Capil added. (I have faith in our laws, in the truth, and in God. Like everything I’ve been through, we’ll get through this and everything will be alright soon.) Preventive suspension is a standard practice in investigations involving public officials to ensure the fairness of the probe, and to avoid the possibility of officials influencing the investigation through their position. The suspension is only temporary and will only last within the case’s duration, but should not exceed six months. “Further, given respondents’ power and authority, there is strong probability that they may influence witnesses or tamper with any evidence material to the case, and in order to likewise prevent any possible acts of malfeasance and/or misfeasance, hence, this Preventive Suspension,” the Ombudsman said. The suspension takes effect immediately. At this point of its probe, the Ombudsman said there are sufficient grounds to hold that the evidence of guilt is strong against the officials so they had to be suspended temporarily. The DILG’s case stems from the authorities’ operation against the Lucky South 99 POGO located in Porac, in June. Authorities raided the POGO due to allegations of human trafficking. POGO player Katherine Cassandra Ong , who is at the center of a legislative probe, was allegedly connected to Lucky South. In its case, the DILG said Capil failed to check the regularity of the documents in relation to the POGO’s business permit applications. There were irregularities in the types of permits the LGU issued to Lucky South. In 2020, Lucky South was classified, according to its permit, as a business processing outsource. However, for 2021, 2022, and 2023, the business was reclassified as a POGO. Under the rules, the reclassification should have required a new set of documents such as a letter of no objection, amended articles of incorporation, and registration documents from the Securities and Exchange Commission. Despite the absence of documents, Vital still recommended the issuance of a business permit. Capil, on his part, approved the issuance of the permit for three consecutive years even without the necessary documents. The DILG added that Capil committed neglect of duty when he signed the business permit for 2023 despite the expiration of the POGO’s Philippine Amusement and Gaming Corporation license. “In connection with this, he also failed to appropriately act upon the revocation of Lucky South 99’s business permit when its PAGCOR license ultimately expired,” the interior department said. “Mayor Capil also failed to act appropriately on the reports of criminal activities happening inside Lucky South 99’s premises. Notably, several validation requests and letters from the PNP concerning illegal activities such as serious illegal detention, cyber-related criminal activities, prostitution, were left unacted upon by Mayor,” it added. As to the suspended vice mayor and councilors, the DILG said they failed to exercise their power to protect the welfare of Porac and its citizens, and also to prevent criminal activities committed within the POGO premises. The department noted that the Porac council failed to check the activities of the POGO up to the time it was raided by the authorities. Capil is the second mayor suspended over illegal POGOs in the country. The first was former Bamban, Tarlac mayor Alice Guo due to her alleged ties with the Hongsheng/ Zun Yuan Technology, the POGO raided in Bamban. Guo already faces a pile of criminal cases, including trafficking and graft, and was earlier ordered dismissed by the Ombudsman. – with reports from Joann Manabat/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Central Luzon,LGUs in the Philippines,Office of the Ombudsman,Pampanga</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>'This ruined our lives': Bamban POGO 'ghost' owner surrenders</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/bamban-pogo-ghost-owner-merlie-joy-castro-surrenders/</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45573.61421296297</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SURRENDER. Merlie Joy Castro, an alleged POGO incorporator who maintains she's just a vendor whose identity was stolen, surrenders to the NBI on October 8, 2024. Photo by Ulysis Pontanares/Rappler MANILA, Philippines – When Merlie Joy Castro went to the Senate in Pasay City on Tuesday, October 8, she knew she was not going to come home at the end of the day. It had been two weeks since a court in Pasig ordered her arrest, and of 15 others for the non-bailable charges of qualified human trafficking over the illegal operations of the POGOs (Philippine offshore gaming operators) in Bamban, Tarlac. These are the POGOs that rented out of the compound of dismissed mayor Alice Guo, Chinese name Guo Hua Ping, which were found with evidence of scamming operations, and of trafficking and torturing workers. Castro explored her options in those two weeks with the help of a non-profit legal aid group, somehow still believing that a miracle can happen and she can be dropped from the charges. Her story, after all, seems believable — she claims she was a vendor in nearby Concepcion town in Tarlac turned business process outsourcing call center worker who had no idea about POGOs. Her identity, she had told the Senate three months ago, had been stolen effectively making her a ghost owner if her claim was true. But the day had come for her to surrender. The National Bureau of Investigation (NBI) was informed that after the Senate hearing on Tuesday, Castro would go with them. “ Takot para sa seguridad ng mga anak ko , iniwan ko sila na dalawa lang sila sa bahay (I am scared for the safety of my children, I left the two of them at home),” Castro told Rappler minutes before NBI whisked her away. When Castro first appeared in the Senate on June 26 , she said she wished that her name could soon be cleared, as she hoped she could come back to work. She had been put on remote work after her name came up as one of the incorporators of the POGO that was raided. On the spot in that hearing, a representative from the Bureau of Internal Revenue (BIR) said that the tax identification number (TIN) used for Castro in incorporating the Hongsheng POGO is non-existent. But the Department of Justice (DOJ) proceeded to charge her, claiming it has evidence that Castro and the three other Filipino incorporators of the Hongsheng POGO received payments so that their names can be be used by the company. This evidence, however, is not yet included in the DOJ indictment, nor in the Pasig court resolution ordering their arrest. “ Hindi ko kilala ang Hongsheng, hindi pa ako nakakarating sa lugar ng Bamban, wala silang ebidensyang makukuha sa akin dahil wala ako ni singkong natanggap para masabing incorporator nito,” Castro told Rappler. (I do not know Hongsheng, I have not been to Bamban, they cannot find any evidence against me because I did not receive a single cent to be considered an incorporator.) Before he left the session hall, Senator Joel Villanueva went to Castro. “I want to shake your hand, Merlie, and I am sorry sa nangyari sa’yo ( for what’s happening to you),” said the senator. “ But  nandito kami ha (we’re just here),” Villanueva added. Castro’s children, 10 and 16 years old, got to say goodbye, although she said they probably do not realize the full extent of their mother’s ordeal. “Paalam Mommy, ilaban mo ‘to para sa amin, kasi kailangan ka namin (Goodbye Mommy, fight this for us, because we need you),” Castro recalled her children’s last words before she left. She told the Senate panel during the hearing: “ Ito po ay nakapagpasira ng buhay ko, batid ko, hindi lang buhay ko, pati ang buhay po ng anak ko (This ruined my life and I think not just mine, but the lives of my children as well)” Castro also gave them a lead: “ Si Ms. Alice Guo, ang nasabing nagpasok ng pangalan ko, na ang ginamit niya ay si Ms. Gamo (Ms Alice Guo, the one who is said to have used my name, she used Ms. Gamo).” Gamo is Nancy Gamo, who appears in company records as a contact person for Zun Yuan, the POGO that operated out of Guo’s Baofu compound starting May 2023. Hongsheng was raided in February 2023, and the Presidential Anti-Organized Crime Commission (PAOCC) believes the operation just renamed, although the two companies had different incorporators when they registered. Gamo, because she is not an incorporator, was not included in the charges. That she named Gamo is what scares her, said Castro. “Hindi ko alam ano mangyayari pagkatapos ng pagsasalita ko, pagbitaw ng isang pangalan at kung sino ang gumamit ng pangalan ko,” Castro told Rappler. (I do not know what will happen after I spoke, after I named someone and who used my name.) The three other Filipino incorporators of Hongsheng are Rita Yturralde, Thelma Laranan, and Rowena Evangelista. They also claim that their identities were stolen through the data they submitted to lending companies. Castro says they know the three as vendors in Concepcion, too. The four had a brief conversation at the Senate on Tuesday. “Sabi nila sila’y hirap na hirap na raw sa kung ano nangyayari, ang sabi ko lang magsabi ng totoo, sabihin kung anong nararapat,” said Castro. (They said they’re suffering so much from what’s happening, I told them to just tell the truth, to tell what’s right.) Laranan, Yturralde and Evangelista earlier surrendered together to the NBI , as well as the three Filipino incorporators of Zun Yuan. Two of the Zun Yuan incorporators have offered to be state witnesses. Also ordered arrested but at large are the powerful Chinese incorporators: Huang Zhiyang, Singapore’s money laundering convicts Lin Baoying and Zhang Ruijin; and Yu Zheng Can who holds a joint bank account with Hongjiang Yang, the brother of former presidential economic adviser Michael Yang. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Police get backlash for enlisting 'dead' textbook scam suspect in Alice Guo arrest</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/police-get-backlash-textbook-scam-mary-ann-maslog-senate-hearing-october-8-2024/</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45573.48401620371</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. BACK FROM THE 'DEAD': Texbook scam suspect Mary Ann Maslog, who goes by the alias Jessica Francisco, answers queries during the continuation of the Senate hearing on illegal POGO operations on October 8, 2024. Photo by Angie de Silva/Rappler MANILA, Philippines – The Philippine police’s intelligence group got backlash at the Senate on Tuesday, October 8, for enlisting as an asset a woman named “Jessica Francisco” to intercede in the arrest of Alice Guo, despite the shady record of the woman who was later identified as textbook scam suspect Mary Ann Maslog. Maslog, who used Jessica Francisco as her alias, had been charged before the anti-graft court Sandiganbayan over the P24-million textbook scam, but she evaded those charges by faking her own death and fleeing to the United States. Maslog, now detained at the National Bureau of Investigation (NBI) after the court reissued the warrant against her, attended the Senate’s hearing on Tuesday. Maslog claimed that due to her contact with Sual, Pangasinan Mayor Liseldo “Dong” Calugay, the Philippine National Police Intelligence Group (PNP-IG) “tapped” her to convince Guo to surrender. Maslog also claimed that she was in Indonesia when Guo was arrested there, and that her flight expenses were reimbursed by the PNP. Bristling at the government expense, senators called in Maslog’s police contact, PNP-IG officer-in-charge Brigadier General Romeo Macapaz to the hearing via video call. Macapaz clarified that they did not reimburse Maslog for her Indonesia flight, and that “ hindi ko po talaga alam kung bakit siya nanduon sa Indonesia (I really do not know why she was there in Indonesia.)” Macapaz also said that it was Maslog who offered her intercession, not the other way around. In police operations, an asset like Maslog is treated as an “action agent.” Senators asked Macapaz why, despite resources and in spite of her record, they would still trust Maslog to be their agent. “From her statement, may direct contact siya sa attorney ng hinahanap natin, so we believed na positibo ‘yung ibibigay niya na impormasyon, dahil may abogado siyang kausap (From her statement, she has a direct contact to the attorney of the person we were looking for, so we believed she would give us positive information, because she was talking to a lawyer),” Macapaz said. The lawyer is Stephen David, whom, as senators pointed out, is very easily accessible. Even reporters have direct access to David. Maslog also said that she is able to directly contact the Indonesian police personnel who conducted the operation that led to Guo’s arrest in greater Jakarta on September 3. “Really?” Senators Risa Hontiveros, Jinggoy Estrada, and Joel Villanueva said in unison, in disbelief. This prompted more grilling of Macapaz on why he would allow Maslog such close access to police operations. As the hearings progressed, Maslog’s presence in the hearing became more apparent. Senator Ronald “Bato” dela Rosa said he had “A1 information” that “someone from Malacañang is instructing” Maslog to get Guo to sign an affidavit that would supposedly pin down former president Rodrigo Duterte, Dela Rosa, and others in the POGO mess. This was allegedly supposed to happen when Maslog visited Guo in her detention cell upon her return to the Philippines. Macapaz confirmed that they allowed Maslog to visit Guo in the PNP custodial center twice “out of gratitude.” “There is mishandling of an agent, o baka meron kang alam na mas mabigat na trabaho na ibinigay kay Mary Ann Maslog kaya wala kang control sa kanya (or maybe you know of bigger tasks given to Mary Ann Maslog so you have no control over her) because somebody above you is controlling Mary Ann Maslog,” said Dela Rosa. “I have an information, you cannot deny to me, na siya’y inuutusan ng (that she’s being instructed by) somebody from Malacañang to make Guo sign an affidavit implicating me, former president Duterte, Senator Bong Go, and [police major general Romeo] Caramat as people behind the POGO operations,” said Dela Rosa. “ Wala po akong alam diyan (I don’t know anything about that),” said Macapaz. Maslog also denied it. Maslog, however, wrote a name on a paper, which for a while appeared as sensitive information. She wrote “Faeldon,” referring to Duterte’s former Customs chief, Nicanor Faeldon . Guo clarified it immediately, saying that when Maslog visited her in jail, they got to talking about a photo that earlier circulated on social media showing her in a group photo with Duterte as well as Faeldon. Guo said that the photo was taken in July 2022, when Duterte was no longer president, and that she knew Faeldon as the former customs chief has a goat farm in Bamban, Tarlac. “We’re all being scammed,” Hontiveros sighed in frustration, revealing that Maslog “tried to pull a fast one” on the Senate yet again some time ago. Maslog, Hontiveros said, introduced herself to the Senate as a consultant of the Indonesian embassy to be able to join a meeting between senators and Indonesian representatives. “She is a scammer to the max,” said Estrada. But Dela Rosa insisted that “she’s not scamming, there’s something heavier here,” repeatedly mentioning his information about the alleged conduit from Malacañang. Upon further questioning, Macapaz said he was trying “to get other information” from Maslog. That piqued Dela Rosa’s curiosity once more, but Macapaz refused to say what that information was, requesting for an executive session instead. “Can I request for an executive session?” asked Macapaz, but senators quickly refused. Dela Rosa, claiming that he understood Macapaz’s dilemma as the senator was once in the police force, vouched for an executive session. However, the Senate hearing ended past 6:30 pm Tuesday, without clarity of Maslog’s true role in the story. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Alice Guo,crimes in the Philippines,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>She Zhijiang, the crime leader alleging Chinese espionage in PH through POGOs</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/she-zhijiang-crime-leader-alleging-chinese-espionage-philippines-through-pogos/</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45573.22898148148</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SPY OR CRIMINAL? A 2018 photo of She Zhijiang as it appears on a report by the United Nations Office on Drugs and Crime. MANILA, Philippines – She Zhijiang is Chinese born, but holds Cambodian citizenship, and owner of Yatai International Holding Group, a company that has been flagged by global anti-organized crime operatives for running a massive human trafficking and cyber fraud network. That he had an enterprise in the Philippines has been known. The United Nations Office on Drugs and Crime (UNODC) said in a 2024 report that the Philippines was among several Southeast Asian countries where She had “robust business and investment portfolio…spanning across industries including real estate, construction, entertainment, and blockchain technology.” She was arrested in 2022 by Thailand authorities over gambling-related crimes. Faced with possible extradition to China, where gambling is illegal, She granted unprecedented access to him and his files to a news team of international news group Al Jazeera . He said there that he is actually a Chinese spy, recruited by China in 2016 in the Philippines. She said that among his fellow spies in the Philippines is dismissed Bamban, mayor Alice Guo, whose Chinese name is Guo Hua Ping. She’s cellmate in Thailand was Chinese national Wang Fu Gui, who was detained there over credit card fraud. Wang has access to some of She’s decrypted files, including a dossier on Guo, which the dismissed mayor earlier denied. Senator Risa Hontiveros said on Tuesday, October 8, that they were able to interview Wang who is now in hiding for fear of his security after the documentary. Wang said, citing knowledge from She and his files, that Chinese espionage and Philippine Offshore Gaming Operators (POGOs) are “correlated.” “Of course, there is a correlation, it has a lot to do with the Chinese government’s exuberant intelligence… There’s also the fact that all of this is totally connected to the Belt and Road, which is also just part of a huge united front and intelligence strategic plan for the whole world, including foreign colonization tactics,” said Wang in Mandarin. The Belt and Road is China’s massive infrastructure program that spans countries, of which the Philippines is part of, especially during the Rodrigo Duterte government. “Guo Hua Ping was in the files but her profile did not particularly stand out. It just so happens there is a copy of her state security background there. And her situation with Mr. She has a lot of similarities,” Wang said through a Zoom call with Hontiveros’ office, a video of which was played during Tuesday’s hearing. She told Al Jazeera he was recruited as a spy in the Philippines in late 2016. Wang said She’s liaison to Guo is possibly a person named Ma Dongli. “He is Mr. She Zhijiang’s State security contact, he is the second generation of the Reds, he has an American identity, he is also the vice president of the Thai Chinese Association, he was the third highest ranking member of the Yatai before Mr. She Zhijiang was illegally entrapped, there is a high probability that he is also Guo Hua Ping’s handler, and that Mr. She Zhijiang’s contact with Guo Hua Ping is through Ma Dongli, that is the only thing that I can answer,” said Wang. Hontiveros showed travel records from the Bureau of Immigration to prove that She Zhijiang was in and out of the Philippines, using both his Chinese and Cambodian passports. In 2014, a company called Chong Hua General Enterprises Company Limited was registered with the Philippines’ Securities and Exchange Commission (SEC). The Chinese man who owns 40% of this company is named She Zhi Jiang. In 2015, Chong Hua General Enterprises Company Limited was reported to have employed 154 foreigners who were arrested, and then deported, over online gambling. In 2017, Chong Hua General Enterprises filed a dissolution of partnership with the SEC. Chong Hua’s She Zhijiang is likely the same person as the self-confessed spy because when we checked the company’s General Information Sheet (GIS) in 2022, the board had changed and one company officer is the Cambodian national Tang Kriangkai. This is She’s alias, according to the UNODC. In 2023, the United Kingdom (UK) sanctioned She under its global human rights mechanisms because “he has been responsible for, provided support for or obtained benefit from activity that violates the right not to be subjected to torture or cruel, inhuman or degrading treatment or punishment, or the right not to be free from slavery, not to be held in servitude or required to perform forced or compulsory labour.” The UK sanction also said that “She has been responsible for, provided support for or obtained benefit from the trafficking of individuals to KK Park or Shwe Kokko where they were forced to work as scammers targeting English-speaking individuals and were subject to torture, physical abuse and further cruel inhuman and degrading treatment.” This is the same criminal template found in the raided POGOs, including the Bamban hub leased by the company that Guo incorporated. Wang claimed that Guo’s “campaign itself was arranged by Chinese state security.” Guo denied this to the House of Representatives, disputing She’s claim that she asked him for campaign funds. “Hindi ko po siya kilala, at never po akong humingi ng campaign funds… I don’t know him, and I have never asked for campaign funds,” Guo told the House quad committee on September 27. “Mr. She is grateful to the Philippines and believes he has not harmed the Filipino people. … he is also willing to cooperate with the Philippine government,” said Wang. Hontiveros said they tried to access She, but his contact to the outside world has now been restricted by the Thai government, and that the Philippine embassy in Bangkok has yet to get feedback from the Department of Foreign Affairs on how to facilitate the request. Yatai refused Hontiveros’ requests, the senator said. “We know that Wang and She perhaps have their own agenda and interests, and we are in no way exculpating them from any crimes that may have been committed,” said Hontiveros. “ Ngunit kung mayroon silang sinasabing posibleng may implikasyon sa national security (But if they are saying something that has possible implications on our national security), it is our responsibility to listen and investigate further.” After a long executive session, Hontiveros showed Guo a photo of She and the supposed recruiter, Ma Dongli, but Guo asserted once again, “I do not know him.” “Humihingi po ako ng tulong ‘nyo [na mag-imbestiga]. Hindi po ako spy, para hindi rin po ako kawawa. Tingin ko po gusto niya lang din ng media mileage ko po ngayon,” said Guo. (I am asking for your help to investigate, I am not a spy, so I’m not at a disadvantage here. I think [She] just wanted to have my media mileage,” said Guo. DFA acting director Amer Tago said they will be looking at invoking the Treaty on Mutual Legal Assistance in Criminal Matters (MLAT) with Thailand so senators can reach She. “[The Philippine embassy in Bangkok] informed us that they relayed to you their concerns on certain political concerns that may have diplomatic consequences,” said Tago. – Rapper.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>China,crimes in the Philippines,Philippines-China relations</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Pasay scam hub 'fooled Pagcor,' has links to 'powerful Filipinos' – PAOCC</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/3d-analyzer-pasay-scam-hub-powerful-filipinos/</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45572.41292824074</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RAID. Philippine authorities raid a scam hub with a POGO license in Pasay on October 3, 2024. Lian Buan/Rappler MANILA, Philippines – The love scam hub near the World Trade Center recently busted in Pasay City lied to the Philippine Amusement and Gaming Corporation (Pagcor), and was possibly helped by “powerful Filipinos,” according to the Presidential Anti-Organized Crime Commission (PAOCC). “Puwedeng may makita rin tayong mga Pilipinong mga tumulong po rito, sapagkat may nakikita kaming link sa ilang mga Pilipinong makapangyarihan puwedeng nagma-may-ari at nagpapaupa sa Kimberhi Building,” P AOCC spokesperson Winston Casio told Rappler Monday, October 7. (We can see Filipinos who helped the hub, because we are seeing links to some powerful Filipinos who possibly own or were leasing Kimberhi building.) The first floor of the two-story Kimberhi Building along Macapagal Avenue in Pasay, ironically very near the Senate that’s investigating Philippine offshore gaming operators or POGOs, was raided last week, revealing a love scam operation. It displayed an IGL or internet gaming license — the new name of POGOs — from Pagcor, but the gaming regulator said the company, 3D Analyzer Information Technologies Incorporated, had been declared non-operational. “Niloko nila ‘yung Pagcor, sabi nila hindi na sila operational. Puwede ba ‘yun? Eh may iba, bagong hire lang, pagdating namin dun isang araw, dalawang araw, tatlong linggo, nakita namin sa ID, mga bagong hire, kaya walang plano ang 3D Analyzer na tumigil ng operation, kaya hahabulin namin sila, hindi lang ang mga foreigners na ito,” said Casio. (They fooled Pagcor, they said they were non-operational. But how can that be? Some workers were newly hired. When we got there, they had just been there one day, two days, three weeks, we saw it in the IDs that they were just new hires, so there was really no plan by the 3D Analyzer to stop operations, so we are going after them, not just these foreigners.) According to their company records filed with the Securities and Exchange Commission (SEC), 3D Analyzer was incorporated by five Filipinos in June 2016, and registered as a tech solutions company. It was only in March 2024 when 3D Analyzer amended its articles of incorporation so they could operate as a Business Process Outsourcing (BPO) “of interactive gaming websites.” According to the Pagcor permit it displayed on its office, it was given an IGL license in September 2023, valid until September 2024. From 2022 to 2024, the board members of 3D Analyzer changed a few times, but they were mostly Filipinos, and just one British citizen. In the 2022 General Information Sheet (GIS) of the company, one Chinese name was registered as an officer although that person registered as a Filipino. This person of Chinese descent has an address in Multinational Village in Parañaque, which has also been scrutinized for allegedly running POGOs from vacant homes of the wealthy. So far, the corporate structure of scam farms has been layered – one company, usually a real estate firm, leases the property to the POGO licensee. Casio said they are still looking into the structure of 3D Analyzer. “Pinag-aaralan pa po namin sapagkat ayon sa mga inisyal naming nakita, ‘yung main office ng 3D Analyzer hindi ‘yun ang Kimberhi building, meron pa silang main branch dito sa Aseana [City in Parañaque],” said Casio. (We are still studying it because according to what we initially saw, the main office of 3D Analyzer is not the Kimberhi building, they have a main branch in Aseana.) Indeed, the addresses in both the 2016 incorporation and the 2024 amended incorporation were not the Kimberhi building, but two different buildings in Makati City and Pasay City, respectively. POGOs or IGLs have been totally banned by President Ferdinand Marcos Jr., and they have been given until the end of the year to wind down operations. The 3D Analyzer company, therefore, was also supposed to be winding down. Rappler has sent a message to all the email addresses that 3D Analyzer listed with the SEC, but none has responded. A total of 254 workers, only 62 of them Filipinos, were caught in the raid. There were 191 foreigners, mostly Chinese, who underwent inquest proceedings on Monday for violation of the immigration law. Whether they had legitimate working visas are of no significance now because they were caught working for an illegal operation. The Filipinos were released because there are currently no basis to hold them. Filipino workers, Casio said, have been moving from one scam hub to another. “Patalon talon sila ng scam kaya duon ako nalulungkot kasi nanggaling sila sa iba’t ibang scam farms. Sabi ko nga siguro darating ang panahon na hindi dapat sila pinapakawalan lang nang ganon, kaya sila napapakawalan kasi wala tayong material time to develop cases against them,” said Casio. (They have been moving from one scam to another so that’s what saddens me because they came from different scam farms. As I said, there should come a time where they shouldn’t be released as easily, because they are being released for lack of material time to develop cases against them.) – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>online scams,Pagcor</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Despite ban, operatives bust a scam hub with POGO license</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/despite-ban-operatives-bust-pogo-scam-hub-october-3-2024/</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45568.59091435185</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RAID. Philippine authorities raid a scam hub with an IGL license in Pasay on October 3, 2024. Lian Buan/Rappler MANILA, Philippines – There is an all out ban on Philippine offshore gaming operators (POGOs) but a scam hub with a POGO license was able to continue operating in Pasay, just beside the World Trade Center. A joint operation on Thursday, October 3, busted a love scam hub operating on the first floor of a two-storey building. A total of 254 people were caught in the raid, according to updated data from the Presidential Anti-Organized Crime Commission (PAOCC). Of those, 190 were Chinese, 2 were Taiwanese and 62 were Filipinos. Majority of the workers were males, while 68 were females. By the entrance of the maze of quarters hang the permits: an Internet Gaming License (IGL) from the Philippine Amusement and Gaming Corporation (Pagcor) issued in September 2023 and valid until September 2025. IGL was the new name of POGO, but they are essentially the same . President Ferdinand Marcos Jr.’s all-out ban clearly covered IGL operators, and they were supposed to be already winding down by the end of the year. “They have allegedly a license from Pagcor, but we will still verify with Pagcor and even with the local government, they were showing a permit. But again, we still need to verify with the local government,” PAOCC chief Undersecretary Gilbert Cruz said. Cruz said that based on an initial sweep, there didn’t appear to be traces of torture and prostitution, unlike previous hubs raided. This was also a much smaller operation. Bureau of Immigration (BI) operatives interviewed the foreigners to determine whether they had proper documents to work in the Philippines. The raid’s legal basis was a mission order from the BI. Rappler saw traces of their operation, which seemed to have stopped midway when the raid happened. Facebook appeared to be one of the platforms they used to lure and scam victims. They also used secure messaging apps like Telegram and Signal. Pre-registered international and local sim cards were scattered in the offices, as well as multiple phones and computer screens per table, all “red flags of love scamming that victimizes foreign nationals,” according to the post-operation report sent to Malacañang. The hub did not have sleeping quarters, unlike other hubs that had their own complex. Cruz said they appear to be housed at a nearby condominium unit, and fetched to and from the building. Authorities also found a total of 11 vehicles. There were a couple who appeared to be bosses, said the operatives. “‘ Yun nga nakakalungkot, despite the pronouncement ng ating Pangulo and yet may ganito pa rin, they still continue to scam ,” said Cruz. (That’s what’s sad, despite the pronouncement of the President, this is still happening, they continue to scam.) The BI has called on POGO workers, even the legitimate ones, to volunteer downgrading their working visas to tourist visas. Ideally, there should no longer be IGL/POGO licensees by the end of the year. PAOCC spokesperson Winston Casio said if he were to compute, based on knowledge of how scam hubs operate, the 32 teams in this building can earn around P350 million a week. Like other scam hubs, victims are lured into investment schemes including cryptocurrency. The permits on the wall were eventually removed, and personnel from Pagcor arrived. They did not identify themselves to the media, but they said that based on their records, the hub has been declared non-operational. They could not offer more details. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[Rappler Investigates] The circus has arrived</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/newsletters/investigates-certificate-candidacy-filing-2025-vloggers-alice-guo/</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45568.41666666666</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Raffy de Guzman/Rappler It’s COC filing week — that’s certificate of candidacy for the uninitiated. This document signals a candidate’s intent to run for public office and declares his or her eligibility to seek a specific post. The document’s accuracy is sworn to by those who file it, and this includes name, citizenship, place and date of birth, among others. It’s supposed to be an authentic document that must not be trifled with. I can guess what’s running in your head. How could Guo Hua Ping ( aka Alice Guo) have run for mayor of Bamban, Tarlac, when she had to swear to the truthfulness of her COC that she filed in time for her 2022 candidacy? And what does the whole Guo sordid affair tell us about the Philippine electoral process? Our House and Commission on Elections reporter Dwight de Leon wrote about the COC filing for this year and answered common questions that included this: “Can the Comelec stop another Alice Guo situation?” This clearly alludes to her false claims about her Filipino identity and citizenship. Unfortunately, Comelec Chairman George Garcia said that the poll body’s role in accepting COCs is “purely ministerial.” He declared during Rappler’s Ask Your Comelec show: “We do not have the discretion to refuse, to analyze, to look at the person and ask them for some documents. Our role is merely to accept the certificate of candidacy.” This means that the Comelec cannot scrutinize documents nor demand for additional proof to establish the truthfulness of information stated in a filed COC. The poll body will need an enabling law or new legislation that will give it more teeth and more power that will allow it to be more than just a receptacle of COCs. Still on the COCs — to be expected, many newsrooms are abuzz with physical and online activity as they watch out for who’s running for which post, and under which particular party. In an online chat channel we have, reporters noticed that quite a number of vloggers and influencers, including TikTok content creators, have filed their COCs, signaling intent to run. This phenomenon was not as pronounced as it was this year, although it’s been pointed out that social media influencer and blogger/vlogger Mocha Uson , who announced she will be running for councilor of Manila in the 2025 elections, had tried but failed in 2019 to win as Kasosyo party-list representative . Surely, you haven’t forgotten that back then, Mocha Uson already had as many as five million followers on Facebook, and was appointed by former president Rodrigo Duterte as assistant secretary of the Presidential Communications Operations Office and then deputy administrator of the Overseas Workers Welfare Administration. The irony wasn’t lost on many who had criticized her for spreading false and misleading information, even tagging journalists as “presstitutes.” Now Uson is running under Aksyon Demokratiko, along with Isko Moreno, who’s seeking Manila’s mayoral post after a failed 2022 presidential bid. Uson is also sharing the same party platform with Antonio Trillanes IV, who had filed criminal charges against her way back in 2017 . The former senator is seeking the mayoral post in Caloocan. With the May 2025 midterm elections quickly approaching, those in the running, especially for the Senate, have likely been closely monitoring survey results of top polling firms Social Weather Stations and Pulse Asia. Senior editor Gani de Castro takes a close look at the September surveys and explains why results are different for some and similar, if not the same, for others. Read more here to make better sense of the polling world. And here’s a previously published story by researcher, Patrick Cruz, to remind us about the state of our Senate: The Philippine Senate: From statesmen to showmen If you want to read the latest news bits, commentaries, observations, and inside kuda , head over to the Rappler app and join the Philippine politics chat room . You’ll have to download the Rappler Communities app before you can join, however, so if you haven’t yet, go to the App Store and download. Ahead of the elections, many already anticipate the use of artificial intelligence and deepfakes in a treacherous bid to influence voters’ preferences or decisions. Technology editor Gelo Gonzales points to some telltale signs of deepfake videos that you can watch out for so you’re not easily deceived. As we enter Day 3 of the COC filing week, we expect to catch more photo ops and hear more noise. I, however, hope to see and to have more reason to be optimistic about the country’s political future. BEYOND ALICE GUO. After the filing of COCs — even if Congress is on break — investigations into Guo Hua Ping at the House of Representatives are expected to resume by the third or fourth week of October. Bizarre revelations fit for a movie have kept newshounds glued to the hearings. Even citizens have made them part of their almost-daily viewing habit as new characters with Chinese-sounding names that link to each other continue to emerge. If you want to catch up with this continuing saga of Guo and the network of Philippine offshore gaming operators (POGO), you can watch the latest episode of Newsbreak Chats later in the day. I’ll be hosting the chat and will be joined by reporters Lian Buan, Jairo Bolledo, John Sitchon (who’s based in Cebu), and Regions editor Herbie Gomez (who’s based in Cagayan de Oro). Yes, Cebu and Cagayan de Oro — all the way from Porac, Pampanga and Bamban, Tarlac. That’s how extensive the POGO web is, and who knows what other provinces are part of this network. Where will all this lead to? Is there a point person/s who somehow connect/s the different nodes and act/s as common denominator? Let’s jointly follow the trail. If you have information to share, email me or send details to investigative@rappler.com. Till Thursday after next! If you like what you’re reading on Rappler, help us continue doing these stories by supporting independent and quality journalism . Let us know, too, if there’s something we’re missing to write about. – Rappler.com Rappler Investigates is a bimonthly newsletter of our top picks delivered straight to your inbox every other Thursday. To subscribe, visit rappler.com/profile and click the Newsletters tab. You need a Rappler account and you must log in to manage your newsletter subscriptions. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025 Philippine elections,Alice Guo,Comelec,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Newsbreak Chats: The POGO world beyond Alice Guo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/podcasts-videos/discussion-philippine-offshore-gaming-operators-network-beyond-alice-guo/</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45568.33574074074</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bookmark this page to catch the discussion on Thursday, October 3, at 4 pm! MANILA, Philippines – A controversy that started with one mayor of a small town in Tarlac has unraveled into an issue that has exposed corruption and vulnerabilities of various sectors in the Philippines. But Alice Guo, the once-mayor of Bamban, is probably just a minor player in the network that has allowed  Philippine offshore gaming operators (POGO) to thrive with criminalities. On Thursday, October 3, Rappler investigative editor Chay Hofileña sits down with Mindanao bureau coordinator Herbie Gomez, investigative reporter Lian Buan, and multimedia reporters Jairo Bolledo and John Sitchon to explore who’s who in the controversial POGO network. What’s next for these individuals identified to have links with POGOs that have not only scammed people off of their money but also allegedly took part in human trafficking and other violence? How did this network come to be? Catch the discussion on Thursday, October 3, at 4 pm! – Rappler.com Watch other Newsbreak Chats episodes in 2024: How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Alice Guo,Newsbreak Chats</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[WATCH] Inside Track: Miao Miao, at ang big boss ng mga POGO</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/podcasts-videos/inside-track-miao-miao-big-boss-pogos/</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45568.15</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ano ‘tong “Miao” na lumabas sa bibig ng illegal alien na si Tony Yang sa Senate hearing on illegal POGOs kamakailan? Eto rin ba yung “Miao, Miao” na sinambit ng kapatid niyang si Michael Yang sa Senate hearing on Pharmally noon pang pandemic? Ano – o sino – ba itong “Miao” na ‘to? Si Mr. Miao ni Tony Yang, kasosyo niya sa isang pagawaan ng bakal sa Cagayan de Oro City, na ayon sa mga mambabatas ay may naganap na torture at minsan nang napagsuspetsahan na pinagpuslitan ng drug cargo. Ang Boss Miao naman ni Michael Yang ang tinuturo niyang nagpondo ng Pharmally, ‘yung contractor na kinasuhan na ng graft dahil sa mga substandard na PPE noong pandemic. Eh ano naman? Ang mga Boss Miao na ito ay kasama sa puzzle kung sino ba ang tunay daw na big boss ng POGO. Sanga-sanga na ang mga tao, and one way or another, kumu-konek siya kay former president Rodrigo Duterte. Si Michael Yang ay dating economic adviser ni Tatay Digong. And yet, bakit hindi pa rin ipinapatawag ng Senado o ng Kamara si Duterte? Panoorin ang Inside Track episode na ‘to para busisiin ang mga koneksyon, and hopefully malinawan sa kumplikado at nakakalitong isyu ng mga POGO. – Rappler.com Reporter: Lian Buan Producer, video editor, graphic artist: Cara Angeline Oliver Videographer: Ulyssis Pontanares Graphic artists: Alejandro Edoria, Alyssa Arizabal, David Castuciano Associate producer: JC Gotinga Supervising editor: Chay Hofileña Supervising producer: Beth Frondoso How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>crimes in the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[Closer Look] Garma PCSO stint fed hydra of crime under Duterte</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/closer-look-royina-garma-pcso-stint-fed-hydra-crime-under-rodrigo-duterte/</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45567.04166666666</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Alyssa Arizabal/Rappler Then-president Rodrigo Duterte’s 2019 appointment of favored cop Royina Garma as Philippine Charity Sweepstakes Office (PCSO) general manager cemented a key flank in the takeover of crime cartels. This underworld capture, for decades contained in Duterte’s home city of Davao, surged nationwide after 2016 as he hammered the country’s democratic institutions from all sides. Garma and Edilberto Leonardo, another retired pet cop, have been implicated in the 2016 murder of three Chinese nationals in the Davao penal colony. Now, senior police officers link both to other crimes, including murder in the PCSO, and possible money laundering. It’s a mosaic of gore and plunder. Duterte’s loyal lieutenants marched into key posts as a crime hydra, stretched its tentacles to snarf down new territories, helped along by a bloodbath extending from slum alleys to mountain hamlets. Executive branch officials and lawmakers — many of them former Duterte enablers — would have us believe that crime flourished because of weak laws. The big picture shows a different truth: Duterte’s best and brightest officers were criminals and many others, fools who followed orders blindly. Law enforcers committed monstrous deeds under the cover of governance, aided by a bureaucracy that ignored laws for the benefit of  Duterte and his bedfellows. In short, a whole-of-nation approach in the service of crime. Let’s break it down. Police Lieutenant Colonel Santie Mendoza confessed to planning the murder of PCSO board secretary Wesley Barayuga on orders of Leonardo, with  operational intelligence from Police Sergeant Enecito Ubales Jr., a first cousin who served in Garma’s security detail. Mendoza’s affidavit shows direct lines of communications with Leonardo and Garma’s security aide. It also shows how Duterte’s drug list was used to perpetrate and whitewash a crime. He describes in detail the levels of premeditation: the assignment of a vehicle for Barayuga when the latter’s use of public transportation made for difficult casing; last-minute tasks to give the hit team time to get into position; and, most chilling of all, the order to take him within the borders of Mandaluyong City, where Colonel Hector Grijaldo, Garma’s classmate at the Philippine National Police Academy (PNPA), headed the police force. Why did he do it? Because he was told Barayuga was on Duterte’s drug list, a refrain heard over and over in a year of hearings. The killing of a general normally sparks a massive hunt for the perpetrators. Grijaldo left a vague report, glossing over the small town lottery (STL) mess Barayuga was investigating, and instead highlighting, with no corroborating details, the victim’s supposed involvement in drugs. Then National Capital Region police director and later national police chief Debold Sinas, Garma’s Region VII boss, had also pushed that theory. Alive, Barayuga did not figure in any drug list. His name, PDEA officials say, appeared after the murder. Former PCSO chairperson Anselmo Simeon Pinili told House probers that the most probable motive for the murder was Barayuga’s refusal to issue certificates for new STL franchises without approval by all board directors. That is damning. Garma had shut down STLs for months, ostensibly to review corrupt deals. She placed Ubales’ wife, Emily, at the helm of the STL core group that greenlighted existing franchises and applicants. Lieutenant Colonel Chuck Barando, who served under Garma when she headed the Cebu City police force, was also in that tight circle. His wife was among the top nominees for the STL Partylist – Samahan ng Totoong Larong May Puso. Garma created the group and funneled at least P2 million to boost their 2022 campaign — a clear conflict of interest. Had the party-list organization won, it would have pushed to expand PCSO holdings to include then-illegal number games. Garma, Duterte’s hound dog, did not lift a finger to investigate murder in her house. Pinili, a retired officer and Barayuga’s “mistah” in the Philippine Military Academy Class (PMA) of ‘83, chose to bring his concerns to then special assistant to the president and now senator Bong Go, and then fell back into silence. Then-interior secretary and now National Security Adviser Eduardo Año, also from the same PMA class, had refuted Sinas’ claim, but otherwise did nothing. Duterte and Sinas stomped on protocol by foisting Garma on Cebu City, despite opposition from then-mayor Tommy Osmena. Explaining his stand, the former local executive presented lawmakers with a 2018 report indicating Garma received P1 million weekly in illegal gaming payola as head of the Davao PNP investigation and detection group. Osmeña personally informed Duterte of the information. The reply: talk to Bong Go. Go facilitated Garma’s application for the PCSO post. He was also responsible for her breezing in and out of Malacañang meetings with Duterte. In the PCSO, and in the Philippine online gaming operators (POGO) industry harboring other crime groups, the hydra trail is clear: drug monies underwrote the takeover of illegal gambling networks and, in the case of POGOs, exploited tech and business infrastructure for global fraud and money-laundering; law enforcement agencies acted as enforcers and protectors. The executive branch paved the way for legitimacy via policy and Duterte’s orders. The PCSO gave the government a deep well that lawmakers believe funded the PNP reward system for kills. The Commission on Audit has flagged the lack of reporting on the actual use of around P600 million in PNP charity funds. Another sinister side of the executive branch surfaced during the September 27 quad comm hearing at the House of Representatives, featuring Garma’s former husband, Colonel Roland Vilela. The couple’s marriage was annulled after he was linked twice to sexual abuse of women under his custody. That did not stop Vilela’s climb. He was appointed police attaché to the West Coast, where he bought into a branch of a popular restaurant. As lawmakers questioned the source of his funds, the use of the police diplomatic pouch for personal use emerged. So did revelations that Vilela and Garma continued to work together. Police Captain Delfinito Anuba admitted he changed pesos to dollars for the duo, with orders coming from Vilela via Viber calls. He got pesos for conversion from Ubelas “at the PCSO,” and then gave these back as US dollars. There was one bag with P30 million, another with P20 million, plus several other exchanges in smaller amounts. Anuba also converted a P500,000 packet sent through an emissary of Vilela’s current wife and delivered this to the police budget office in charge of sending funds to the US. Año was DILG secretary then, in charge of the PNP. Lawmakers should summon him, too, as they unravel the outbound path of millions from the PCSO. Duterte justified his bloodlust as a way of “saving” the country from turning into a narco state. We have since learned that his beloved cops and aides actually turned the Philippines into just that, adding illegal gambling and fraud into its superstructure. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Closer Look,DILG,illegal drugs,PCSO,Philippine National Police,POGOs,Rodrigo Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[EDITORIAL] Ang invasion ng Chinese undesirable aliens sa Pilipinas</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/editorials/invasion-chinese-undesirable-aliens-pogo-tony-michael-yang/</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45565.29336805556</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Guia Abogado Sa hearing ng quad comm sa Mababang Kapulungan , sinabi ng isang kongresista na mastermind si Michael Yang at ang kasama nitong si Allan Lim ng isang “ complex criminal network ” sa bansa. Sabi ni House Senior Deputy Speaker Aurelio “Dong” Gonzales Jr., “These Chinese nationals are setting up corporations all over the country, taking advantage of our laws by perpetrating and promoting illegal activities…” Sabi naman ni Deputy Speaker David Suarez , “layered” ang operasyon ng mga nagpapatakbo ng criminal network — gamit ang iba’t ibang kompanya upang ikubli ang ilegal na aktibidad. Gumagamit sila ng mga pekeng pangalan bilang nominee upang maitago ang kanilang pagmamay-ari. Gumagamit din sila ng mga lehitimong negosyo bilang fronts. Kung sinabi ito bago ang June 2, 2024, baka iisipin nating sa Netflix lang ito nangyayari. Pero noong June 2, ni-raid ang isang Bamban Philippine offshore gaming operator (POGO) hub at nasimulan ang paghahalungkat sa kung paano — gamit ang fraudulently-obtained birth certificate — naging mayor ang sinasabing Chinese na si Alice Guo. Sangkot umano siya sa ilegal na aktibidad ng mga POGO sa kanyang munisipalidad. Pang-mafia ang listahan ng mga krimeng ipinupukol sa mga criminal network na ito: drug trafficking, extrajudicial killings, money laundering, human trafficking, kidnapping, torture, DDOS attacks, at scamming. Nagsanga-sanga rin ang imbestigasyon, at lo and behold, bumalik tayo sa isang kilalang personalidad: si Michael Yang, dating economic adviser ni dating presidente Rodrigo Duterte. Ayon naman kay Deputy Speaker Suarez, si Tony Yang/Yang Jian Xin, nakatatandang kapatid ni Michael at kilala rin sa pangalang Antonio Maestrado Lim, ang mastermind umano ng mga operasyon at sindikato ng Yang brothers sa bansa. Ayon sa Presidential Anti-Organized Crime Commission (PAOCC), tinangkang gawin ng pamilya Yang na gawing “ kingdom ” nila ang Cagayan de Oro City. Isang 3,000-hectare government-owned industrial estate ang naging playground umano ng mga Yang doon, kung saan nagaganap ang drug trafficking, smuggling, and offshore gaming. (BASAHIN: How government land was allegedly turned into a crime hub by Michael Yang’s brother ) Aktibo si Yang sa local Chinese Filipino groups, at ipinakilala ang sarili bilang lehitimong businessman. “Kingpin” nga raw ang naging reputasyon niya. Walang kagatol-gatol na inamin niya sa harap ng mga kongresista na mayroon siyang Filipino birth certificate, habang nauna na niyang idineklara na isa siyang Chinese. Tulad ni dismissed Bamban, Tarlac mayor Alice Guo, at ng kapatid niyang si Michael, na-penetrate ni Tony Yang ang mga sirkulo ng local traders, government officials, at pulis. Ayon pa sa mga resource speaker ng Kamara, may business transactions daw si Tony Yang kay Alice Guo na nagkakahalagang P3.5 bilyon. Sumulpot din ang pangalan niya sa imbestigasyon sa Pharmally , ang maanomalyang kompanyang sangkot sa procurement ng overpriced medical supplies noong panahon ni Duterte. “Complex” talaga ang web ng sabwatan sa kuwento ng Yang brothers at Chinese cohorts nila sa bansa. Presidente si Tony Yang ng Oroone, isang service provider ng Xionwei. Ang Xionwei ay ni-rearrange na pangalan ni Lin Weixon, o si Allan Lim ng Pharmally. Ang pinakamalaking tanong: sino ang nag-empower sa mga Yang — maliban sa mga korap na pulis? Sino ang ninong ng pamilya Yang sa Pilipinas? For the record, itinatanggi ni Tony Yang na close sila ni dating pangulong Duterte. Pero, action speaks louder than words. May hihigit pa ba sa pagtatalaga sa kapatid niyang si Michael Yang na hindi Pilipino sa isang government post? Hindi ba’t ang photo-ops nila ni Duterte ang nag-set-up for success kay Michael? Tila tagos sa buto ng national life natin ang mga Chinese — mapa-West Philippine Sea, at maging sa internal politics tulad ng kaugnayan nila sa mga Duterte, at pati na rin sa organized crime. At anong hakbang ang gagawin ng gobyerno upang putulin ang pananamantala ng mahihina nating mga proseso at institusyon? Paano pipigilan ang invasion ng Chinese undesirable aliens sa bansa? Abangan ang susunod na kabanata. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Alice Guo,Michael Yang</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>In Cagayan de Oro, Tony Yang's businesses get entangled with drug issues</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/michael-yang-brother-tony-business-partner-person-interest-pdea/</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45563.07878472222</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ANOTHER YANG. Tony Yang attends the Congress quad committee hearing on illegal POGO activities, at the House of Representatives on September 27, 2024. HOR MANILA, Philippines – Controversial Chinese businessman Tony Yang, the brother of former presidential economic adviser Michael Yang, built a business empire in Cagayan de Oro City and the nearby Tagoloan town, but one that’s been entangled with issues related to drugs. This was center to the interpellation of Sta Rosa, Laguna Representative Dan Fernandez on Friday, September 27, as the House quad committee continued its investigation into the connection of POGOs (Philippine offshore gaming operators) and the illegal drug trade. The Philippine Drug Enforcement Agency (PDEA) confirmed to the quad committee that one of Tony Yang’s business partners in a Misamis Oriental gravel company, the Mis. Or. Sand and Gravel Corporation, is a person of interest to them. “He’s a person of interest, and we would like to request to submit a report instead so as not to compromise the operation,” PDEA chief retired police general Moro Virgilio Lazo. Among Yang’s biggest business in Misamis Oriental is the Philippine Sanjia Steel Corporation, which entered into a lease contract with the Philippine Veterans Investment Development Corporation or Phividec, a state agency in charge of developing lands into industrial estates. Yang’s Sanjia ran a steel operation out of the Phividec compound in Tagaloan, right next to Cagayan de Oro City. In January 2021, Sanjia was flagged for “alleged rice and drug smuggling” at their port inside Phividec, according to Phividec’s own report as read by Fernandez. Phividec held the cargo not only because of the suspicion of rice and drug smuggling, but also because Sanjia did not have a permit to operate a commercial port. The cargo came from a vessel from Vietnam that docked at Sanjia’s port. The report said that the cargo was subsequently released after K-9 dogs “cleared the cargo from possible illegal drugs.” During the quad committee hearing, the Phividec administrator at the time, Jose Gabriel “Pompee” La Viña, said that he was told by a Customs officer that he risked being sued if they didn’t release the cargo. “We were being threatened by the Bureau of Customs that if we don’t release the cargo, I will be liable for cases,” said La Viña, who was social media director of Rodrigo Duterte’s 2016 presidential campaign. Yang is being investigated over his links to the POGO criminalities , and possibly smuggling and drugs. Fernandez on Friday made the point that Yang entered into business with personalities being linked to drugs. Fernandez said Yang’s business partner in the company New Hope Flour Milling was Lin Weixiong alias Allan Lim. One of Yang’s businesses in Cagayan de Oro City was Oroone Inc., which was a certified service provider of the POGO Xionwei Technology, which is allegedly also run by Lim. Lin Weixiong/Allan Lim and Michael Yang had been linked to the drug trade by retired intelligence officer Eduardo Acierto. Save for a few confirmations, and denials, of the names of his business associates, Tony Yang did not say much, except to tell lawmakers to “not put Michael Yang with him because they’ve been separated for a long time,” as translated from Mandarin to English by the House interpreter. This undated photo shows Tony Yang, Michael Yang, and their other brother Hongjiang Yang, with Senator Alan Peter Cayetano. Rappler had reached out to Cayetano via his own mobile number and through a staff member since Thursday, September 26, to inquire about circumstances of the photo. His office acknowledged our message. We will update this story once the senator responds. Before the hearing ended Friday, the House quad committee had approved a motion to detain Tony Yang at the Quezon City Jail male dormitory over charges of contempt. But Yang had been held in custody by the Bureau of Immigration after he was arrested on September 19 for being an undesirable alien. Tony Yang had earlier told the Senate he obtained a fake Filipino birth certificate under the name Antonio Lim, an identity he used to register some of his businesses. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Cagayan de Oro City,Michael Yang,Misamis Oriental,PDEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Anti-drug cop claims Garma, Leonardo ordered PCSO exec killing | The wRap</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/september-27-2024/</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45562.60208333333</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Anti-drug police officer Santie Mendoza claims he was ordered by Napolcom Commissioner Edilberto Leonardo and former PCSO general manager Royina Garma to kill PCSO board secretary Wesley Barayuga in 2020. The two Filipino incorporators of the Zun Yuan POGO in Bamban, Tarlac – Roderick Pujante and Juan Miguel Alpas – want to turn state witnesses. To qualify as state witnesses, they must ‘not appear to be the most guilty.’ The House of Representatives approves on second reading the bill renewing the franchise of Meralco for another 25 years. A Russian resort owner in Murcia, Negros Occidental is in hot water for defacing a 40-meter stretch of riverbed to make the area colorful. PBA player John Amores and his brother John Red are freed on bail Friday, September 27. They paid P24,000 and P10,000, respectively. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Negros Occidental,Philippine basketball,POGOs,power and water</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Alice Guo riled up by report tagging her as Chinese spy: 'It's so unfair!'</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/alice-guo-riled-up-report-tagging-her-chinese-spy/</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45562.60023148148</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Alice Guo reacts to the Al Jazeera report of a Chinese crime gang leader accusing her of being a Chinese spy during the House Quad Committee hearing on September 27, 2024. Screenshot from House of Representatives stream MANILA, Philippines – Alice Guo, the disgraced former mayor of Bamban, Tarlac, was visibly riled up on Friday, September 27, when the House quad committee showed Al Jazeera’s  interview with Chinese crime gang leader She Zhijiang tagging her as a Chinese spy. Breaking away from her monotonic assertion of her right to remain silent, Guo was raring to answer interpellations Friday night about She Zhijiang, at one point even rolling her eyes. “Your honor, unfair naman po sa akin, hindi ko po siya kilala, at never po akong humingi ng campaign funds…Gusto ko rin pong iparating sa lahat ng kababayan ko at buong Pilipinas…hindi po ako spy, totally hindi po, hindi po ako spy,” Guo exclaimed. (Your honor, it’s so unfair to me, I don’t know him, and I have never asked for campaign funds. I want to tell my fellow townspeople and the entire country that I am not a spy, totally not, I am not a spy.) She Zhijiang, a known criminal gambling leader to world operatives, is detained at a jail in Thailand and is claiming that the reason why China is moving to expatriate him is it wants to kill him because he knows too much. The files that She Zhijiang showed included a dossier on Guo Hua Ping, the alleged real Chinese identity of Alice Guo. It showed a local address in Fujien province that’s supposedly a local office of the Chinese Communist Party. She Zhijiang alleged that Guo had also asked him for campaign funds. She Zhijiang said: “Guo Hua Ping, China cannot be trusted. The two of us once dedicated our lives to China’s Ministry of State Security. Look at what happened to me.” “If you don’t want to be eliminated, you should tell the world the truth,” said She Zhijiang. It was the most that Guo had said since she was arrested in Indonesia. She even threatened to find a way to sue the detained Zhijiang . “ Gusto ko po magdemanda (I want to sue),” said Guo. Guo was so riled up that PBA Partylist Representative Migs Nograles told her “to relax.” Interior Secretary Benhur Abalos told Rappler: “Definitely DILG-PNP [Department of the Interior and Local Government-Philippine National Police] should investigate these allegations.” The Presidential Anti-Organized Crime Commission (PAOCC) declined to comment. She Zhijiang is China-born but a Cambodian citizen. He owns the Yatai International Holding Group, and has been linked to human trafficking and cyber-fraud, much like what Guo is being accused of over her leasing of a compound that was used for an illegal POGO (Philippine offshore gaming operator) hub. Before She Zhijiang was arrested in August 2022, he was “known to have a robust business and investment portfolio across Southeast Asia, and particularly Cambodia, Myanmar, Thailand, and the Philippines, spanning across industries including real estate, construction, entertainment, and blockchain technology,” according to a 2024 report by the United Nations Office on Drugs and Crime (UNODC). In the Al Jazeera report, She Zhijiang said he was recruited to be a spy in the Philippines in 2016. She Zhijiang claims that because he was already a fugitive at that time — evading an arrest warrant from China over illegal gambling — his recruiter instead offered to drop the case in exchange for him turning into a spy. Nograles pointed out that She Zhijiang’s enterprise resembles what happened in Bamban, Tarlac — the hubs operated by him look like Guo’s Baofu, too. The pattern, Nograles said, was very apparent, including getting Filipinos as “dummies.” Guo’s rise to local politics in Bamban, Tarlac was baffling because she beat the dynastic bets there, winning as an independent candidate on her first try. While Guo claims she divested from Baofu before she ran for mayor, court certifications say this divestment was fake . Guo asserted once again on Friday that she is Filipino, and that Li Wen Yi, her alleged mother, is the partner of her Chinese father. “There seem to be steps, a standard, perhaps a mission order for spies, and it’s sad that they entered the Philippines, and we allowed them,” Nograles said in Filipino. “They took advantage of our country, our laws, our citizens and our resources,” said Nograles. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Filipino owners of Bamban POGO offer to be state witnesses</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/filipino-owners-bamban-pogo-zun-yuan-offer-state-witnesses/</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45562.37736111111</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Seven POGO incorporators including Roderick Pujante and Juan Miguel Alpas are presented by the National Bureau of Investigation on September 23, 2024. Rappler MANILA, Philippines – The two male Filipino incorporators of the Zun Yuan POGO (Philippine offshore gaming operator) in Bamban, Tarlac, want to turn state witnesses, an offer now being assessed by the Department of Justice (DOJ). “We are assessing them in coordination with their counsel,” said Justice Undersecretary Nicholas Ty, head of the Inter-Agency Council Against Trafficking. Roderick Pujante and Juan Miguel Alpas, who made the offer, were among the three incorporators of the Zun Yuan POGO, which was set up in June 2023. When they surrendered to the National Bureau of Investigation (NBI), they said that they were misled by the brother of their co-incorporator, Jamielyn Santos Cruz. The three of them, and dismissed Bamban Mayor Alice Guo, pleaded not guilty on Friday, September 27, to their human trafficking charge pending before the Pasig City Regional Trial Court Branch 167. It’s the prosecution, in this case the DOJ, which will decide if they are qualified to be state witnesses, and move the court to discharge them as such. To qualify as state witnesses, they must “not appear to be the most guilty,” according to the rules of criminal procedure. The rules also say that “there is absolute necessity for the testimony of the accused” and that “there is no other direct evidence available for the proper prosecution of the offense.” “ Ginamit lang po kami dito. Pinapirma po kami dito ni Jeremy Santos, si Jeremy Santos po asawa po siya ni Patty Santos, chief-of-staff ni Mayora Alice Guo. Si Jeremy Santos kapatid niya po si Jamielyn Santos, papatunayan na lang po namin, mag-eexplain na lang po kami sa court (We were used here. Jeremy Santos made us sign. Jeremy Santos’ wife is Patty Santos, who is the chief-of-staff of Mayor Alice Guo. Jeremy Santos is the brother of Jamielyn Santos. We will prove this, we will explain it to the court),” said one of the two male incorporators. The two males, wearing caps, masks, and sunglasses, were identified as Pujante and Alpas when they were presented by the NBI on September 23, but the one who spoke did not say who he was. Cruz, on the other hand, asserted that Zun Yuan’s business was legal. The raid on Zun Yuan in March 2024 found evidence of scamming operations, and torture. “Ang investment na po ito, noong inalok sa akin, for online gaming. Ngayon po, ‘nung ako po ay pumasok dito, ito po ay ligal, I myself go to Pagcor and meet the officials of the Offshore Gaming License Department,” said Cruz. (This investment that was offered to me was for online gaming. When I entered into this business, it was legal, I myself go to Pagcor to meet the officials of the offshore gaming license department.) Cruz said she only knows Guo because as a host of state-run PTV 4, she said she had featured Bamban in a tourism segment before. Cruz said Guo was not the one who encouraged her to “invest” in the POGO. Dennis Cunanan, the convicted pork barrel scam player who acted as consultant for the first Bamban POGO – Hongsheng – and the Porac POGO Lucky South, is not yet in custody. Cunanan filed a motion before the court for the outright dismissal of the case against him, saying that his being a consultant was not enough evidence to charge him for human trafficking. Cunanan as consultant assisted the POGOs to get their licenses from Pagcor. “Mr. Cunanan’s role may be likened to one who may have assisted a person in the processing of the latter’s gun license. If the gun is later used by such a person to kill another, should we indict Mr. Cunanan for facilitating the license? No, because the gun can be used even without such a license. The processing simply is irrelevant to the crime,” said Cunanan’s motion filed before the Pasig court. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Alice Guo</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Can people cited in contempt be detained in prisons?</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/explainers/can-people-cited-contempt-detained-prisons/</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45562.09684027778</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ONG. In this photo, Whirlwind and Lucky South 99 point person Cassandra Ong awaits the start of the Senate hearing on Philippine Offshore Gaming Operations (POGOs), human trafficking, cyber fraud and other criminal activities. Jire Carreon/Rappler After being detained within the premises of the House of Representatives for 30 days, Katherine Cassandra Ong was transferred to the Correctional Institute for Women (CIW) in Mandaluyong City where she will be held under custody for another 30 days. Ong, who was at the center of the House probe into Philippine offshore gaming operators (POGOs), was detained after she was cited in contempt by the quad committee for snubbing the prior legislative hearings. Originally, she was held within the House premises, which was more conducive and comfortable. However, lawmakers cited her in contempt for the second time for supposedly lying on September 19 and moved to transfer her to the CIW , the prison for women convicted of crimes. On Thursday, Bureau of Corrections (BuCor) chief Gregorio Catapang Jr. confirmed that Ong had already been transferred to the CIW. No less than the 1987 Constitution empowers legislative branches — the Senate and the House — to conduct probes in aid of legislation . These inquiries have to be based on legislative intent, or hinged on a law or a measure that the legislative wants to strengthen or make more efficient. In conducting probes, the legislative chambers may cite persons in contempt and detain them if they snub hearings or are uncooperative during inquiries, just like what happened to Ong. A person held in contempt may be held under custody “until he/she agrees to produce the required documents, or to be sworn or to testify, or otherwise purge himself/herself of that contempt.” “This coercive process is essential to the legislature’s discharge of its functions. This power permits either House or the Legislature to perform its duties without impediment as it enables the Senate or the House of Representatives to legislate wisely or effectively because they have the power to compel the availability of information necessary in shaping legislation,” the Supreme Court (SC) reiterated in its ruling on the petition filed by Linconn Ong with the High Court against the Senate. Ong is involved in the Pharmally mess and was detained by the Senate for a time as it probed into the scandal. “An arrest is necessary to carry out the coercive process of compelling attendance, testimony, and production of documents relevant and material in a legislative inquiry,” the SC added. Lawmakers usually set a period for detention and may lift their order once they find the resource person cooperative. This is what happened to Ronelyn Baterna, the corporate secretary of Lucky South 99 , the POGO in Porac, Pampanga, where Ong has also been implicated. Baterna was initially cited in contempt and detained by the House for inconsistent responses during the probe, but was later freed after she became more cooperative in the POGO inquiry. The BuCor oversees prisons which hold in custody persons convicted of crimes. Meanwhile, the Bureau of Jail Management and Penology manages jails that cater to persons deprived of liberty awaiting judgment or convicted of lesser offenses. If this is the case, why has Ong been transferred to the CIW, which is under the BuCor? Catapang said their facilities can cater to people ordered detained by Congress. He said the BuCor has a manual that allows them to hold people cited in contempt by the legislative branch. Rappler has already reached out to BuCor to inquire about the manual, but the bureau has yet to provide a definite answer to the query. “But [she] cannot be put together with the convicted people. Kasi naman, hindi pa naman siya rin convicted (Because she’s not yet convicted). So as a commitment order ng (of) Congress, we are just following the orders of Congress…. But we cannot allow [her] to mingle with those convicted people already. It might endanger her security and safety,” Catapang told reporters on Thursday, September 26. The BuCor chief said Ong will be detained in a facility which has its own comfort room. She can also be visited by her lawyers and was also allowed to have her cellular phone inside the facility. Catapang clarified that because Ong is not a PDL, she is entitled to still use her gadget. “The Bureau of Corrections recognizes the power of a legislative body to commit a witness for contempt and if we are given orders to safe keep a person held under custody for contempt by a competent authority, we have no recourse but to follow,” Catapang added. Unlike dismissed Bamban, Tarlac  mayor Alice Guo , who is detained in Pasig City Jail for alleged trafficking, there’s no warrant of arrest yet against Ong. Complaints for alleged money laundering and trafficking against Ong are still pending with the Department of Justice and have yet to reach the courts. Once the prosecutors finish the preliminary investigation and find sufficient evidence to indict Ong, they will then file cases with the courts. Only then will the judge determine if warrants should be issued or not. If PDLs have rights despite their detention or incarceration, more so people who are still being probed. Time and again, the SC has already said in several rulings that Congress’ contempt is limited. In the cases of Pharmally and the hazing death of University of Santo Tomas law student Atio Castillo, the SC said the Senate can detain a person held in contempt for only as long as the inquiry is ongoing. “Legislative inquiries do not share the same goals as the criminal trial process and cannot be punitive in the sense that they cannot result in legally binding deprivation of a person’s life, liberty or property,” the SC said in its decision on the Pharmally decision. “Thus, punishment for legislative contempt, albeit sui generis in character, must similarly observe the minimum requirements of due process.” “Although an inherent power of legislative contempt exists and is broad in scope, it is subject to limitations that safeguard constitutionally guaranteed freedoms,” Chief Justice Alexander Gesmundo said in his concurring opinion in the Pharmally decision. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Philippine jails,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Marcos bares admin coalition’s senatorial slate for 2025 elections | The wRap</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/september-26-2024/</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45561.59791666667</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: President Ferdinand Marcos Jr. announces his administration coalition’s 12 senatorial bets for the 2025 elections – five reelectionist senators, three former senators, two House lawmakers, a mayor, and a Cabinet official. Vice President Sara Duterte rejects calls for her resignation – noting millions of Filipino voters entrusted her with the country’s second highest position. Former PNP chief Benjamin Acorda Jr. denies allegations linking him to POGOs. He says he never tolerated or transacted illegal activities with his friends. PBA player John Amores and his brother voluntarily surrender to the police on Thursday, September 26, hours after a gun shooting incident in Laguna. Kim Chiu receives the Most Outstanding Asian Award at the Seoul International Drama Awards 2024. She was recognized for her role as Juliana Lualhati in the ABS-CBN drama series Linlang. Jeonghan, member of K-pop boy group SEVENTEEN, enlists in the South Korean military Thursday, September 26. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Ferdinand Marcos Jr.,Filipina actresses,k-pop,Philippine basketball,POGOs,Sara Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>NBI Cebu seize SIM, smartphones, passports from vaults in POGO raid</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/cebu-pogo-vaults-smartphones-passports-clues-scamming-operations/</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45561.29340277778</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. VAULT. NBI operatives use an electric handheld saw to open the sealed vaults of the Tourist Garden Hotel. John Sitchon/Rappler CEBU, Philippines – National Bureau of Investigation (NBI) operatives in Cebu found on Thursday, September 26, more than 200 used smartphones, SIM cards, and passports inside of three vaults from the raided illegal Philippine offshore gaming operator (POGO) hub in the Tourist Garden Hotel. This is the same hotel where authorities caught 169 foreign nationals on August 31 conducting love scams and cryptocurrency scams during an operation. On September 5, the NBI served a search warrant at the hotel in Barangay Agus, Lapu-Lapu City, and seized multiple computer sets, smartphones, documents, and the vaults. “All the things recovered inside the vaults can be used in our pending case, the qualified trafficking cases against 17 individuals,” NBI Central Visayas Regional Director Rennan Oliva said in a press conference. Oliva referred to the 16 foreign nationals and one Filipino identified as perpetrators of illegal scamming operations at the Cebu hotel who were sued for qualified trafficking in persons on September 3. Those arrested are facing cases for violating immigration laws and are now being held at the Presidential Anti-Organized Crime Commission (PAOCC) detention facility located at the Nasdake Building in Pasay City. The NBI regional director added that they will apply for a court order to examine the contents of the smartphones recovered from the vaults. The authorities are looking for possible evidence that can be used to file additional cases, including  money laundering and cybercrimes. Operatives discovered that the passports found in the vaults belonged to Indonesian nationals. “I can only speculate that these passports belong to the foreigners. I have not seen the passports yet but per testimonies of the rescued Indonesians, their passports were confiscated from them upon their arrival,” Oliva said. The August 31 operation stemmed from the rescue of two Indonesian nationals who escaped from another suspected POGO hub in Mandaue City. The Indonesian embassy requested the NBI Cebu District Office to help with the rescue of other Indonesian nationals that the escapees said were still held in captivity. During the operation at the Tourist Garden Hotel, officials rescued six of the eight Indonesians that the embassy requested. Oliva asked why the smartphones were hidden inside vaults. The NBI official said that the smartphones may have valuable information on the POGO’s illegal operations. “We’ll be applying before the courts a warrant for the disclosure of computer data. Together with the computers that we seized, we’ll be subjecting that, we’ll be coordinating with our Cybercrime Division in Manila for that examination,” Oliva said. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Cebu,Central Visayas,National Bureau of Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>FACT CHECK: Doc Willie Ong is not Cassandra Ong’s father</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/fact-check/doc-willie-not-cassandra-ong-father/</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45561.19754629629</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Claim: Cardiologist-turned-online health advocate Dr. Willie Ong is the father of Cassandra Ong, who is being investigated for her alleged ties to Philippine offshore gaming operators (POGOs). Why we fact-checked this: The YouTube video bearing the claim has 237,412 views and 1,900 likes as of writing. It was posted on September 22 by a channel with over 67,000 subscribers. The title of the video says: “Cassandra Ong, inaming anak ni Doc Willie Ong!” (Cassandra Ong admits she’s Doc Willie Ong’s daughter!) Images of the two, along with clips from a Senate hearing, were used in the video as the narrator discusses how Cassandra Ong revealed dismissed Bamban, Tarlac Mayor Alice Guo’s ties to illegal activities in the Philippines. The facts: Willie Ong is not Cassandra Ong’s father. Her father was Richard Ong Chao Hong, who reportedly sought naturalization in 1978 , according to Sta. Rosa Lone District Representative Dan Fernandez. Her mother, on the other hand, was Ying Xia Li. The misleading video even used clips from a Senate hearing last September 17 , where Ong explicitly stated her father’s name. However, the video’s title still said otherwise. The video was posted amid Willie Ong’s announcement last September 14 that he was suffering from a rare abdominal cancer, which was mere days before Cassandra Ong’s Senate hearing. Irregularities: During the Senate hearing, Senator Jinggoy Estrada questioned Ong on her birth certificate as there were dubious details, such as a non-existent home address and the unknown identity of the midwife mentioned in the document. The senator also said that the Philippine Statistics Authority (PSA) had no record of marriage between Ong’s parents. The PSA said it has already launched a fact-finding investigation into Ong’s case. Linked with POGOs: Ong is an officer of the Whirlwind real estate firm that leased its land to the Lucky South 99 POGO in Porac, Pampanga. The firm is being investigated following a government raid that revealed various illegal activities, including scamming, trafficking, and torture. (READ: Who is Cassandra Ong, the 24-year-old linked to the Bamban, Porac POGOs? ) Ong was caught in Indonesia together with Alice Guo’s alleged half-sister Shiela on August 21 amid authorities’ probes into Guo and illegal POGO activities . Ong is Guo’s alleged business partner and is the girlfriend of Guo’s brother Wesley. Ong faces a trafficking and money laundering complaint. On September 19, lawmakers ordered her 30-day detention at the Correctional Institute for Women after she was cited in contempt for a second time. Previous fact-checks: Rappler has published several fact-checks related to Willie Ong: – Barbra Althea Gavilan/Rappler.com Keep us aware of suspicious Facebook pages, groups, accounts, websites, articles, or photos in your network by contacting us at factcheck@rappler.com. Let us battle disinformation one Fact Check at a time. Barbra Althea Gavilan is a Rappler intern. She is a fourth year Journalism student at the University of Santo Tomas. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Alice Guo,Cassandra Ong,POGOs,Willie Ong</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Acorda denies POGO ties: 'I never tolerated illegal activities'</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/acorda-statement-denies-pogo-ties/</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45560.52243055555</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. EX-CHIEF. In this photo, then-PNP chief Benjamin Acorda attends the senate public inquiry into the alleged inhumane and irregular acts done by PNP officers and other individuals against Mayor Samson Dumanjug of Bonifacio, Misamis Occidental, on August 1, 2023. Angie de Silva/Rappler MANILA, Philippines – Former Philippine National Police (PNP) chief retired police general Benjamin Acorda Jr. denied the allegations linking him to Philippine offshore gaming operators (POGO). “ With regards to the picture na [ipinipilit] ako i-connect or ini-insinuate na i-connect doon sa illegal operations, wala akong masabi diyan. I never tolerated or transacted illegal activities with my friends…. Hindi ako nakikipag-transact sa illegal. ‘Yan lang ang masasabi ko ,” Acorda told reporters in a phone interview on Wednesday, September 25. (With regards to the picture, where they insist on connecting me or insinuate that I am connected to illegal operations, I have nothing to say about that. I never tolerated or transacted illegal activities with my friends. I don’t transact with illegal entities. That’s all I can say.) Questions were raised about Acorda’s possible connections to POGOs after photos of him with Chinese businessman Tony Yang were shown during the Senate inquiry on POGOs on Tuesday. Yang, the brother of former presidential adviser Michael Yang , has been suspected of shady activities, including faking his Filipino birth certificate. The Chinese businessman was arrested last week by authorities for being an undesirable alien. During the hearing, Yang said that he knew Acorda since the latter once served as Northern Mindanao regional police chief. Under his jurisdiction was Cagayan de Oro, where most of Yang’s businesses are located . “ As I have said, medyo masakit, hindi lang medyo, talagang masakit because for 37 years, I tried to keep my records clean pero just for one picture or many pictures and with so many innuendos, nasira kaagad. Pero kasama na ‘yan sa serbisyo ,” Acorda said. (As I have said, this hurts a bit, not just a bit, this really hurts because for 37 years, I tried to keep my records clean but just for one picture or many pictures and with so many innuendos, my reputation was tarnished. But that’s part of public service.) As the government continues its probe and crackdown against POGOs marred with allegations of human trafficking and other crimes, it was alleged that a former PNP chief allegedly aided dismissed Bamban, Tarlac mayor Alice Guo in escaping. Guo is at the center of the probe due to her ties with the POGO in her town raided due to allegations of human trafficking. The specific PNP chief was not named in the allegation, but Acorda also came clean and denied his involvement with the dismissed mayor. “ I can say to anybody, squarely eye to eye, without flinching an eye na masabi [ko na] malinis tayo diyan kay Alice Guo. Wala tayong pakialam diyan sa pagtakas niya. Hindi rin ako tumatanggap ng pera sa kanya ,” Acorda explained. “ Ako ang nagpa-operate sa Bamban. That is to [set] the record straight and ‘yan hindi tayo nakikipag-transaction, hindi tayo nakipag-negotiate kung whatever na gusto nilang i-insinuate .” (I can say to anybody, squarely eye to eye, without flinching an eye, that I am not involved in anything related to Alice Guo. We have nothing to do with her escape. I did not also receive money from her. I was the one who ordered to operate in Bamban. This is to set the record straight. I never made any transaction, and we never negotiated anything like what they want to insinuate.) Acorda, an Ilocano general, was President Ferdinand Marcos Jr.’s second PNP chief . He was appointed in April 2023 and was supposed to retire in December of that year, but the President extended his term. Acorda served until March 2024. Zun Yuan Technology Incorporated, the POGO located in Bamban, was raided by authorities under Acorda’s term. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Tony Yang rubbed elbows with Duterte, Bong Go, Cagayan de Oro political elite at 2023 VIP event</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/mindanao/tony-yang-rubbed-elbows-rodrigo-duterte-bong-go-cagayan-de-oro-event-2023/</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45560.30077546297</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. GRILLED. Yang Jian Xin, a Chinese also known as Tony Yang and Antonio Maestrado Lim, attends a Senate public hearing on September 24, 2024, regarding Philippine offshore gaming operators. He is the elder brother of Michael Yang, who served as an economic adviser to former President Rodrigo Duterte. Inoue Jaena/Rappler CAGAYAN DE ORO, Philippines — Controversial Chinese businessman Tony Yang was comfortably seated among the political elite of Cagayan de Oro and Misamis Oriental, including former president Rodrigo Duterte and Senator Christopher Lawrence Go, during a high-profile city hall event in early 2023 . The city government honored Duterte and Go as “adopted sons” of Cagayan de Oro in March 2023, following city council resolutions authored by two councilors closely tied to Duterte’s group in Davao. The 54-year-old Chinese businessman, who was arrested by immigration authorities on September 19, is the elder brother of Michael Yang who served as Duterte’s presidential adviser on economic affairs. Tony Yang’s case has drawn national attention, with his brother Michael being accused of leveraging his relationship with Duterte to secure lucrative business deals during the previous administration. Michael was behind Pharmally Pharmaceutical, which supplied the government with millions of pesos worth of substandard personal protective equipment (PPE) during the COVID-19 pandemic. He and his brothers, including Tony, have also been linked to the illegal drug trade and controversial offshore gaming operations. Councilor Yam Lam “Alam” Lim told Rappler on Wednesday, September 25, that Yang attended the city hall luncheon in honor of Duterte and Go at the Luxe Hotel, shook hands with them and local officials, and then joined them at the presidential table. “He came with the Chinese chamber. We cannot just tell him to go elsewhere. Out of respect, he was asked to join us at the table and he did,” Lim said. Yang sat a few seats away from Duterte and Go, across from where Cagayan de Oro Mayor Rolando Uy was seated. Next to Uy in the huge round table was Councilor Joyleen Mercedes “Girlie” Balaba, Duterte and Go. Also seated at the presidential table where Misamis Oriental Governor Peter Unabia, Councilor Romeo Calizo, and Lim. Balaba, who authored a separate resolution to honor Go, said she was unaware about who invited Yang to the event. “I just know him to be the brother of Michael Yang. I don’t know exactly who invited him to that event,” she said. Balaba and Lim authored two city council resolutions, which were sharply criticized by human rights activists and Duterte’s critics in Cagayan de Oro at that time. One resolution, authored by Lim, named Duterte an “adopted son” of Cagayan de Oro in recognition of his “Build, Build, Build” infrastructure push, his controversial war on drugs, and the government’s pandemic response. The other, pushed by Balaba, honored Go for setting up Malasakit Centers – one-stop hubs for medical and financial aid – across the country, including two in Cagayan de Oro. Balaba, a former ABS-CBN Davao broadcast journalist, is known for her very close ties to the former president, whom she said she frequently consults on legal matters. Meanwhile, Lim is the brother-in-law of Davao businessman Sammy Uy, reportedly one of Duterte’s key financial supporters in Davao City. Councilor Roger Abaday, who attended the event, said it was not the first time for Tony Yang to attend a city hall event. “He mingled and attended all kinds of events. He was everywhere, but little was known about him until now. I didn’t know who he was,” Abaday said. Balaba said she recalled Yang being introduced to her at the Army-owned golf course in Camp Evangelista in Patag, Cagayan de Oro. “I was playing golf, and he was with another group of golfers at that time,” she said. “He does not know me.” Tony Yang gained public attention after Santa Rosa City Representative Dan Fernandez linked him to alleged illegal drug and smuggling activities at a government-owned industrial complex in Tagoloan, Misamis Oriental, as well as a Philippine offshore gaming operator (POGO) in Cugman, Cagayan de Oro. Yang appeared before a Senate committee on Tuesday, September 24, where senators questioned him about his business dealings and alleged connections to criminal activities in Misamis Oriental and Cagayan de Oro. Yang told senators he moved to Cagayan de Oro six months after arriving in Manila from mainland China in the late 1990s, at the behest of his late grandfather, who wanted him to help a relative in the city’s textile business. He said it was his maternal grandfather who provided him with P800,000 to invest in business ventures in Cagayan de Oro. More than two decades later, Yang established an P800-million steel manufacturing plant, the Philippine Sanjia Steel Corporation, in Misamis Oriental. He also built another company that ran a POGO in a high-end mixed-used commercial and residential complex in Cagayan de Oro. The Philippine Anti-Organized Crime Commission (PAOCC) told senators that Sanjia Steel is currently operating with at least 300 workers from China. At its peak, the PAOCC said the steel manufacturer employed around 2,000 Chinese workers at its plant within the 3,000-hectare Phividec industrial estate in Misamis Oriental. Congressmen have alleged that Sanjia Steel, which has its own wharf, at the 3,000-hectare industrial estate of the Philippine Veterans Investment Development Corporation (Phividec) in Misamis Oriental, has been used as a drop-off point for illegal drugs, smuggled rice and other goods. Hontiveros said Yang, whose true name is Yang Jian Xin, managed to secure a Philippine birth certificate in the name of Antonio Maestrado Lim. He has also several business companies registered in the Security Exchange Commission (SEC) under his Filipino name. “For 25 years, Yang used his different fictitious names to make money from this country,” Hotiveros said at the Senate hearing. Hontiveros said Yang owns and is majority stockholder of Oroone Incorporated, a POGO service provider registered with the Philippine Amusement and Gaming Corporation (PAGCOR). On April 3, 2017, the Cagayan de Oro City Council passed Resolution No. 12660-2017, permitting the operation of Oroone at the Alwana Business Park in Barangay Cugman. Councilor Abaday said the local government was aware of the POGO operations in the city, but no local official had issues about it at that time “because Digong (Duterte) legitimized” offshore gaming operations. Another councilor, Ian Mark Nacaya, said there was no law making POGO operations illegal in the country until now. A document showed it was Nacaya who moved for the approval of the resolution in favor of Oroone’s operations in Cugman, but he told Rappler that he only did that as chairman of the city council’s laws and rules committee at that time, and because it was greenlit by the local committee on games and amusement. Before the Senate committee, Tony Yang denied he owns Oroone, and claimed that he merely served as a dummy, an assertion doubted by senators. Cagayan de Oro police director Colonel Salvador Radam said a police team that inspected the Oroone facilities recently found them empty, except for tables and chairs left behind by its occupants. During the hearing, Hontiveros showed photographs of police officers in Cagayan de Oro posing with Yang. Yang acknowledged knowing some of them, including former PNP chief General Benjamin Acorda Jr., who served as the police director for Northern Mindanao at the time one of the photos was taken. “Yang is very generous to everyone, especially the police officers,” Cagayan Oro Councilor George Goking told local broadcaster Magnum Radio on Tuesday. A police official in one of the photos, Colonel Lemuel Gonda, chief of the PNP Regional Anti-Cybercrime Unit, protested the showing of one of the photos during the Senate panel hearing, saying it put him in a bad light. Gonda was operations chief of the Cagayan de Oro police at that time the photo was taken. “People often come to me and ask to have their photos taken with me. It’s part of our community relations. We were providing security during the city hall event organized for former president Duterte. Yang approached us and asked if he could have a photo taken with us, and we agreed,” Gonda said. He urged Hontiveros to be “prudent,” adding that the senator’s researchers should determine the context of the photos they present in consideration of other people’s reputations. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bong Go,illegal drugs,LGUs in the Philippines,Michael Yang,Northern Mindanao,POGOs,Rodrigo Duterte,smuggling in the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Alice Guo vows to tell all in Senate executive session | The wRap</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/september-24-2024/</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45559.58263888889</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Alice Guo vows to tell all in an executive session with senators. She says Tuesday, September 24 she is not the mastermind, but merely a victim. Former PNP chief Benjamin Acorda is thrust into the limelight at a Senate hearing on Tuesday, September 24. Photos of Acorda with Chinese businessman Tony Yang are shown during the hearing on illegal POGOs. Tony Yang, elder brother of Michael Yang, admits faking a Filipino birth certificate with the name Antonio Maestrado Lim, supposedly born in Misamis Oriental. Chinese national Zhao Shouqi, one of the heads of an illegal POGO hub discovered in Cebu, confirms he tried to offer P1 million to the Presidential Anti-Organized Crime Commission, but denies it was a bribery attempt. Filipino singer Arnel Pineda, the frontman of the legendary American rock band Journey, responds to criticism of his performance at the Rock in Rio Music Festival on September 15. Miss Universe 2015 Pia Wurtzbach makes history anew as she became the first Filipina celebrity to join a runway show by a beauty brand at the Paris Fashion Week. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Cebu City,fashion shows,Philippine National Police,POGOs,singers</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Rappler Recap: Will Alice Guo finally tell all?</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/recap-will-alice-guo-tell-all-senate-executive-closed-door-session/</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45559.4356712963</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – Senators on Tuesday, September 24, agreed to hold an executive session with Alice Guo, hoping she will reveal details, including the identity of the mastermind behind the illegal activities of Philippine offshore gaming operators (POGOs). Guo, also known as Guo Hua Ping, has been the focus of the Senate probe into POGOs since May due to her use of a fake identity and forged government documents that allowed her to operate POGOs in Bamban, Tarlac. Tuesday’s Senate hearing marked the 14th session on POGOs and the 8th focused on Guo. Hontiveros said that her panel will hold at least one more hearing before finalizing the committee report. Rappler’s Senate reporter Bonz Magsambol gives a recap of the hearing. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Tony Yang, the 'architect' of an alleged shady Chinese network in the Philippines</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/who-is-michael-yang-brother-tony-shady-chinese-network-philippines/</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45559.43037037037</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. BROTHER. Yang Jian Xin aka Tony Yang and Antonio Maestrado Lim, brother of former President Duterte economic adviser Michael Yang, attends the Senate hearing on illegal POGO activities, on September 24, 2024. Senate Social Media Unit “ Hindi ito nakakatawa, seryoso itong usapin sa aming mga Pilipino (This is not a laughing matter, this is serious for us Filipinos),” opposition Senator Risa Hontiveros said, upset at the reaction of the Senate’s resource person, Tony Yang (Chinese name: Jianxin Yang), when the senator mentioned alleged incidents of torture inside one of Yang’s business establishments. “May dorm-style facilities, may restricted area na bawal kaming mga Pilipino, meron pang torturer, may taga-palo (there are dorm-style facilities, there is an area restricted to Filipinos, and there is a torturer in charge of paddling),” Hontiveros said. Hontiveros was describing the supposed operations of Sanjia Steel Corporation, which according to the company records, is owned by Yang and four other associates. Sanjia operates a steel mill out of the state-run Philippine Veterans Investment Development Corporation (Phividec) industrial compound in Baluarte, Tagoloan town in Misamis Oriental. The contract between Yang’s Sanjia and Phividec was signed in 2018 , when Rodrigo Duterte was already president. The investigations into illegal POGOs (Philippine offshore gaming operators) has now shifted to Yang, the elder brother of Michael Yang, who was Duterte’s economic adviser. Yang has been arrested on grounds of being an undesirable alien, a tactical strategy for Philippine authorities to keep him in custody, seeing that all of the wanted Chinese bosses in the POGO trafficking case are now nowhere to be found. “Ang katotohanan ay bagamat mas kilala si Michael, si Tony ang sinasabing totoong architect ng operations ng mga Yang (The truth is, even though Michael is more known, Tony is the true architect of the Yang operations),” said Hontiveros. Tony Yang came to the Philippines in 1998 or 1999, he told the Senate, which means he was 28 or 29 years old at the time, based on the date of birth in his Chinese passport. Yang, now 54 years old, said he does not have a Philippine passport, only a Chinese one. But he has a Filipino birth certificate under the name Antonio Maestrado Lim supposedly born in Misamis Oriental. This, Yang admitted, was fake. He was born in China, Yang said himself, specifically in Fujian province as stated in his passport. “It was my maternal grandfather who helped me process my birth certificate during the third or fourth year that I came here in the Philippines,” Yang said in Mandarin, as translated by the Senate’s interpreter. Fake birth certificate or not, Yang was able to establish himself in the business community, particularly in Cagayan de Oro, where he was close enough to top police officials to manage to be in one room with them, and take a group photo that’s more than just a casual groufie. His younger brother Michael was also in the Philippines around the same time, in 1999, and met a local VIP — then Davao City mayor, later turned president, Duterte. The former president’s friendship with Yang flourished through the years when Duterte said Yang was the gateway to business with China. What kind of business? Michael Yang was the financier of Pharmally Pharmaceutical , the undercapitalized business owned by a mix of Chinese and Singaporeans, and which bagged billions of pesos’ worth of pandemic contracts under Duterte, but whose PPEs (personal protective equipment) were substandard . A graft indictment had been issued against the Pharmally officials, and government officials who helped them. Michael Yang’s business expanded during Duterte’s term, even branching out to a POGO. (READ: Biggest pandemic supplier has links to ex-Duterte adviser Michael Yang ) Tony Yang’s empire also branched out to POGO via a company named Oroone located inside the Alwana business park in Cagayan de Oro City, near his steel mill. Oroone’s president, according to the company’s Securities and Exchange Commission (SEC) records, was Tony Yang. But he denied this during the hearing, and said Oroone “just rented from us…it was during that time that they needed help with their permits and all, that’s why I was connected with them,” the interpreter said, translating Tony Yang’s explanation. Oroone has a certificate of accreditation from the Philippine Amusement and Gaming Corporation (Pagcor) to be a customer relations service provider to Xionwei Technology Co. Ltd. Inc. Xionwei had a POGO license, according to a list from Pagcor. A previous Rappler investigation found that Xionwei is owned by Rose Nono Lin and Lin Weixiong. Lin Weixiong is an interesting figure because he is allegedly the same person as Allan Lim, who was tagged in the illegal drug trade along with Michael Yang by the former intelligence officer Eduardo Acierto, who’s still in hiding to this day, fearing that his revelations have put his life in danger. Tony Yang said he knows Lin Weixiong/Allan Lim only “through Chinese social events.” The Oroone-Xionwei connection is the direct link from Tony Yang to the Michael Yang network (aside from them being brothers). This, Hontiveros believes, is reason to believe that “ mukhang iisang network — o happy Pharmally — lang talaga ito (this looks like just one network — or just one happy Pharmally).” Hontiveros asked Tony Yang if the latter reported to anyone. “I don’t have a boss, I don’t report to anyone…These are all my own businesses, I don’t report to anyone,” said Yang through the Senate’s interpreter. When Tony Yang was arrested in a joint operation by the Bureau of Immigration and the Presidential Anti-Organized Crime Commission (PAOCC), he was carrying P1.4 million in wads of P1,000 bills. He was monitored from his flight in CDO until he landed at the Ninoy Aquino International Airport, where he was apprehended for violation of the immigration law through misrepresentation. Senator Joel Villanueva said Tony Yang was also found with at least six firearms. Tony Yang also often traveled to Manila, and his flight records indicated he was using a Special Resident Retiree’s Visa (SRRV). According to Hontiveros, there are at least 16 businesses traceable to Tony Yang, either through SEC registrations or trade names linked to Antonio Maestrado Lim’s tax identification number (TIN). Among these 16 are the condotel where Oroone operated from, the real estate firm Golden Citi much like how Alice Guo’s Baofu rented out property to a POGO, a rice mill, and a flour mill. PAOCC chief Undersecretary Gilbert Cruz said that Tony Yang’s Cagayan de Oro business employed around 2,000 Chinese nationals in its heyday but now down to 300 , but the businessman estimated he employed only around 100. Yang said they eventually let some Chinese workers go after training the Filipinos, because “we do not want the Chinese workers to work in our factory because there are a lot of factors, first we need to give them higher salary compared to the Filipino workers,” Yang’s interpreter said. “It is important to sift through the noise and remember what this hearing has always been about: human beings forced to work as slaves, and the ineptitude of Philippine law and government to prevent it,” said Hontiveros. At the House of Representatives quad committee, Sta Rosa City Representative Dan Fernandez said Tony Yang was caught in 2021 smuggling rice through Sanjia. Fernandez said they would soon reveal a matrix of financial transactions to link the Yang network to drugs, highlighting that Sanjia has its own port. “Na-establish na namin ‘yan noon pa eh, kasi si Michael Yang , ‘yung pagpasok nila ng drugs dito through the Customs, one of the entry point is itong nangyayari sa Cagayan de Oro City,” Fernandez told reporters after the quad committee’s September 19 hearing. (We established that before, because Michael Yang, their smuggling of drugs through Customs, one of the entry points is this port in Cagayan de Oro City.) Another Yang brother, the middle sibling Hongjiang Yang was found to have a joint bank account with one of the owners of the POGO in Bamban, Tarlac. Before the Senate’s hearing on Tuesday ended, Guo requested and was granted an executive session, where the disgraced mayor promised she would give a tell-all testimony and reveal who the “most guilty” is. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Alice Guo,House of Representatives,Michael Yang,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Cebu POGO head confirms P1-M offer to PAOCC but denies bribe try</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/cebu-pogo-head-zhao-denies-bribe-try-paocc/</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45559.40739583333</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Zhao Shouqi (center), alleged operator of an illegal POGO hub in Lapu-lapu City, Cebu, attends the senate hearing on illegal POGO activities, on September 24, 2024. Senate Social Media Unit CEBU, Philippines – Chinese national Zhao Shouqi, one of the heads of an illegal Philippine offshore gaming operator (POGO) hub discovered in Cebu, on Tuesday, September 24, confirmed that he tried to offer P1 million to the Presidential Anti-Organized Crime Commission (PAOCC) but denied that it was a bribery attempt. Zhao told the Senate panel investigating POGOs in the country that his million-peso offer was mean to  facilitate a “separate arrangement” for his wife and young granddaughter after the Lapu-Lapu POGO raid in late August. To recall, authorities apprehended Zhao and more than 160 foreign nationals who were found engaging in illegal scamming activities on August 31, at the Tourist Garden Hotel in Barangay Agus, Lapu-Lapu City. At the Senate hearing on Tuesday, Senator Risa Hontiveros asked Zhao to confirm reports that the Lapu-Lapu POGO operators tried to bribe personnel from the Presidential Anti-Organized Crime Commission (PAOCC), and that her granddaughter, who acted as the interpreter, was caught on camera asking law enforcers, “Can we fix this?” “This sum of money is not actually a bribe,” Zhao replied through an interpreter. Zhao explained that his 70-year-old wife “who had a weak body” and his granddaughter, a minor, were at the hotel during the August 31 operation and he wanted a “separate arrangement” for them. Zhao confirmed during the hearing that the P1 million came from his son, Zhao Long, identified as one of the chief operators of the Lucky South 99 POGO hub in Porac, Pampanga. Hontiveros scoffed at the insistence of Zhao that the P1 million was not a bribe and asked PAOCC spokesperson Winston Casio about it. “There is no other way to interpret that because they attempted three times,” Casio replied. Zhao, however, insisted that there was no attempt to bribe PAOCC. This time, he explained that he was merely transferring the money to government personnel for “safekeeping.” To this, Hontiveros said, “That’s what we call a bribe, offering money to Philippine government personnel who are perfectly capable of being humanitarian to a senior citizen, or minor, in exchange for special consideration.” When asked if he had bribed other government officials in the past, Zhao said that he did not and that he only “sponsored” some activities in the form of donations of computer sets and food since he owned a restaurant. Zhao and his son are known heads of the Lapu-Lapu City Philippines Tourism Ethnic Chinese Guild, an organization which has donated multiple computer sets, solar panels, and personal protective equipment (PPE) to Lapu-Lapu City since 2019 . Hontiveros cited the Anti-Graft and Corrupt Practices Act which has provisions on government officials “not accepting under very improper circumstances.” Zhao also denied having any knowledge about the illegal scamming operations that were happening in the Tourist Garden Hotel. “I am actually not aware that they are doing this POGO business…. On July 20, I was actually sick and never got down of my place or my bedroom and I was just surprised that on July 31, that they were looking for me and I was just wearing my sleeping wear,” Zhao said through an interpreter. An affidavit from one of the administrators of the Lucky South 99 POGO affirmed that their scamming operations in Porac transferred to Cebu City some time on June 8 or 9. The same affidavit stated that they moved foreign nationals to the Tourist Garden Hotel on August 2. During the hearing, Hontiveros asked Zhao Long if he knew Cassandra Ong and Alice Guo who were also in attendance, and he said he did not know either of them. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Alice Guo,Central Visayas,Lapu-Lapu City,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Alice Guo vows to reveal 'most guilty' in Senate closed-door session</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/alice-guo-vows-reveal-most-guilty-senate-closed-door-session/</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45559.32135416667</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. TELL ALL. Dismissed Bamban, Tarlac mayor Alice Guo attends the Senate hearing on illegal POGO activities, on September 24, 2024. Senate PRIB MANILA, Philippines – Will dismissed Bamban, Tarlac mayor Alice Guo, also known as Guo Hua Ping, finally tell all? Guo promised as much to the Senate panel probing illegal Philippine offshore gaming operators and her alleged ties to POGOs on Tuesday, September 24. “Ikaw ba ay mastermind? Willing ka ba magsabi kung mayroon nasa likuran ng whole operation na ito? (Are you the mastermind? Are you willing to say if someone is behind this whole operation)?” Senator JV Ejercito asked Guo. He was the last senator to question Guo before the hearing was suspended. “Hindi po ako mastermind. Masasabi ko po na ako ay victim (I am not the mastermind. I can say that I am a victim),” Guo responded. “Your honor, I think sa tagal na ng imbestigasyon, alam na po ng committee, especially chaired by our chairman, who’s really at the back of everything,” she added. (Your honor, I believe that after the length of this investigation, the committee, especially under our chairman, already knows who is really behind everything.) Ejercito then asked her if she would be willing to identify the “most guilty” in an executive session. “Kung sinsabi mo na ikaw ay biktima, maaawa rin tayo sa mga biktima ng POGO. .. Willing ka ba ilabas yung ‘most guilty’ sa isang executive session?” the senator asked. (If you say you are a victim, we will also feel for the victims of POGO… Are you willing to reveal the ‘most guilty’ in an executive session?) Guo replied in an affirmative: “Yes, your honor.” Senator Risa Hontiveros, who has been leading the probe since March, welcomed Guo’s statement,  indicating that her panel might have uncovered have some leads on those involved in the illegal POGOs. “It’s the first time na narinig ko na sinabi ni Guo Hua Ping na mayroon tayong natutumbok dito sa iligal operasyon ng POGO sa Pilipinas,” Hontiveros said. (It’s the first time I’ve heard Guo Hua Ping say that we’re getting closer to uncovering the illegal operations of POGOs in the Philippines.) After the hearing was suspended, the senators and Guo’s camp discussed whether to start the executive session immediately or continue next week. Initially, Guo was hesitant because her lead counsel was out of town and she wanted her lawyers present. After about 10 minutes of discussions, the senators proposed that her lead counsel join via Zoom to start the executive session, with plans to continue next week. Under the Constitution and Senate rules , senators can hold an executive session “when the security of the State, or the public interest so requires, and the President so states in writing.” The discussion is strictly confidential, requiring a two-thirds vote of all 24 senators to lift secrecy, rather than a simple majority. In this case, senators can choose to release a summary or share information in a subsequent hearing. Tuesday’s Senate hearing marked the 14th session on POGOs and the 8th focused on Guo. Hontiveros said that her panel will hold at least one more hearing before finalizing the committee report. The panel will invite former Philippine National Police chief Benjamin Acorda to the next hearing after his came up while senators grilled Michael Yang’s older brother, Chinese businessman Tony Yang. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Ex-PNP chief Acorda questioned for 'fraternizing' with Michael Yang's brother</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/senators-question-ex-pnp-chief-acorda-integrity-fraternizing-michael-yang-brother/</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45559.20641203703</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. 'FRATERNIZING?' A group photo showing former PNP chief Benjamin Acorda (in sky blue polo shirt) with the group of CDO-based businessman Tony Yang (in black blazer to the left of Acorda), brother of Duterte's former presidential adviser Michael Yang. Photo from Senator Risa Hontiveros MANILA, Philippines – Former Philippine National Police (PNP) chief Benjamin Acorda was thrust into the spotlight at a Senate hearing on Tuesday, September 24, after photos of him with Chinese businessman Tony Yang, suspected of shady activities including faking a Filipino birth certificate, were shown at the resumption of the inquiry into Philippine offshore gaming operators (POGOs). Tony Yang, whose real name Jianxin Yang, is the eldest brother of former Duterte presidential adviser Michael Yang. Yang was arrested last week for being an undesirable alien, as government investigators probe his businesses’ alleged links to POGOs and smuggling . When Senator Risa Hontiveros flashed group photos of Yang with Acorda, Yang confirmed he knew the retired police general as Acorda used to be regional police chief of Northern Mindanao, which covers Cagayan de Oro City where most of Yang’s businesses are located . Senator Jinggoy Estrada said the group photos were taken when Acorda was still Northern Mindanao chief, and not yet the PNP chief. When asked, Yang confirmed that he knew Acorda for quite some time. “As the police director, we know each other,” Yang said as translated by the Senate’s interpreter. Hontiveros said there’s a warrant of arrest out for Yang in China for fraud, but the businessman said he was not aware of this. “‘ Yung mga law enforcement authorities namin, mga high officials namin, alam nila ‘yung mga bagay na ‘yun (Our law enforcement authorities, our high officials, they know these things), so in relation to the photos I talked to you about — I really wonder what our high officials in government are doing, fraternizing with a wanted fugitive. It’s not just about integrity, which is the most important thing, but the perception of integrity is also important,” said Hontiveros. Acorda was not invited to Tuesday’s hearing. Rappler has reached out to Acorda for his statement, and we will update this story once he responds. Acorda, an Ilocano , was the second PNP chief under President Ferdinand Marcos Jr. A photo of Acorda with the group of Sual, Pangasinan Mayor Liseldo “Dong” Calugay was also shown. Calugay confirmed that the photo was taken inside Camp Crame when Acorda was already PNP chief. He was with Wesley Guo, the brother of dismissed Bamban, Tarlac Mayor Alice Guo and the boyfriend of the Porac, Pampanga POGO representative, Cassandra Ong. While responding to questions on why he paid a visit to Acorda, Calugay said that the then-PNP chief used to be the Sual police chief. Acorda retired on March 31, just two weeks after one of the biggest raids on POGOs, particularly in Bamban, Tarlac, which were joint operations of the Presidential Anti-Organized Commission (PAOCC) and the PNP Criminal Investigation and Detection Group (CIDG). The CIDG chief at the time of the Bamban raids, Major General Romeo Caramat, was already questioned for firing the raiding team instead of commending them for what lawmakers said was a job well done in busting the POGO. According to Caramat, he was kept in the dark about the raids and that he even confronted then-PNP chief Acorda about it. “To be honest, Mr. Chair, I was upset why I was not informed. It was a slap on my face as the director of the CIDG and they used my men in that raid and they didn’t bother to inform me so I was upset,” Caramat said during the last Senate hearing on September 17. It was also during the September 17 hearing that a Philippine Amusement and Gaming Corporation (Pagcor) executive, retired general Raul Villanueva, said that there’s a rumor within the intelligence community that a former PNP chief was on Alice Guo’s payroll. At the start of the hearing, Senator Ronald dela Rosa delivered a statement of a group of former PNP chiefs, of which he is part of, criticizing Villanueva was making an “irresponsible” claim. “The council of chiefs strongly condemns the irresponsible statement made by retired brigadier general now senior Pagcor official Raul Villanueva,” said Dela Rosa, reading the statement of the group. “This is a sweeping accusation that maligns and brings dishonor to all of us former chiefs who have dedicated the best years of our lives in the service of the Filipino nation,” said Dela Rosa, quoting again from the group’s statement. During the hearing, Dela Rosa asked Villanueva about his earlier statement. Villanueva reiterated that when he made the statement on a former PNP chief’s alleged involvement in Guo’s escape, he had already clarified at the time that it was based on unverified rumors and speculations from the intelligence community. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Philippine National Police,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Senate panel lifts contempt order against Shiela Guo</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/senate-panel-lifts-contempt-order-shiela-guo/</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45559.14699074074</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. QUIZZED. Shiela Guo, aka Zhang Mier, attends the Senate inquiry on how the Guos and Cassandra Li Ong were able to leave the country, on August 27, 2024. Angie de Silva/Rappler MANILA, Philippines – The Senate committee on women, children, family relations and gender equality on Tuesday, September 24 lifted the contempt order against Shiela Guo, the alleged sister of dismissed Bamban, Tarlac mayor Alice Guo, also known as Guo Hua Ping. Senator Risa Hontiveros, who chairs the panel, announced this during the start of the Senate probe into Alice’s fake identity and her ties to illegal Philippine offshore gaming operators or POGOs in Central Luzon. “Shiela Guo, the contempt order on you is lifted, and I direct the OSAA [Office of the Sergeant-at-Arms] to transfer your custody to the Bureau of Immigration pursuant to the Mission Order issued by the bureau against you,” Hontiveros said. Shiela was cited for contempt due to her absence at the Senate probes regarding her connections with POGOs. She was identified as an incorporator in businesses linked to Alice. For one, she is a co-incorporator of Baofu Land Development Incorporated, which leased its land to Hongsheng Gaming Technology Incorporated, later renamed Zun Yuan Technology. This company is the POGO in Bamban that was raided for human trafficking and other alleged violations. In her defense, Shiela said she was only asked to sign documents related to POGO operations by her sister or other family members. Sheila faces money laundering charges alongside her sister and other POGO personalities. The Department of Justice has also filed cases against her for disobeying summons issued by the Senate and for violating Republic Act 11983 by using a fake Philippine passport. Shiela and Cassandra Li Ong , tagged in a POGO operation in Porac, Pampanga, were arrested in Indonesia on August 21. Shiela has been kept in the Senate detention center, while Ong is in the custody of the House of Representatives, where a quad committee is investigating POGOs and other criminal activities. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>The saga of POGOs and Alice Guo</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/things-to-know-people-behind-pogos-alice-guo/</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45559.04166666666</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Gaming is legal in the Philippines by virtue of Republic Act 9487 — the amended version of all the laws before it that created the Philippine Amusement and Gaming Corporation (Pagcor), and which authorized the agency to regulate gaming and gambling. Nowhere in the law, however, was offshore gaming mentioned. But in September 2016, in the same period that former president Rodrigo Duterte was lambasting online gaming in his speeches, Pagcor, under its former chief Andrea Domingo created POGOs or Philippine offshore gaming operators. By February 2017, Duterte issued Executive Order No. 13 or EO 13 , which “clarified” online gaming jurisdictions. Rappler has traced the origins of the POGO saga, how it branched out to scamming and criminalities, and explains the role that dismissed Bamban, Tarlac mayor Alice Guo plays in it. Below we will show the timeline of developments based on information we’ve gathered from documents, congressional testimonies, interviews, and intelligence from sources inside and outside government. Bookmark this page as Rappler continues to follow and investigate the POGO issue. If you have tips or any other helpful information, you may share them with us via email: investigative@rappler.com EO 13, for many stakeholders, was the root of all evil. That is what Cagayan Economic Zone Authority (CEZA) blames. Its CEO, Katrina Ponce Enrile, said EO 13 resulted in the multi-layered design of offshore gaming, which criminal sub-licensees exploited. Good governance advocates had run to the Supreme Court as early as 2017 to void POGOs, saying that Pagcor had no authority to create and regulate online gambling. Only after six years did the Supreme Court decide the issue, but its decision was to junk all of these cases in April 2023 on procedural grounds, saying the petitioners did not follow the proper hierarchy of courts. The Supreme Court avoided, as it had on several occasions, discussing the constitutionality of a contentious issue. Before Duterte’s POGO, Cagayan had ‘i-Gaming.’ Where did it go wrong? A report from the United Nations Office on Drugs and Crime links casino syndicates to a company based in CEZA Without a court ban, POGOs were set up and thrived under Duterte. They had been scrutinized before, spurred by complaints of a sudden influx of Chinese who rented condominium units and other residential houses. Offshore gaming was a gray area, and it presented a billion-dollar opportunity to the Philippine economy. With betting done on the cloud, the Philippines could provide thousands of jobs to workers who would take care of the streaming, payroll, and other processes. It also presented the Philippines as the next destination of casino syndicates that were fleeing the Golden Triangle because of a strong crackdown by authorities there, particularly China and Cambodia. Reports from the Anti-Money Laundering Council saw a spike of suspicious transactions related to casinos by 2016. Opposition Senator Risa Hontiveros said, “We don’t even need to establish that [Duterte] is a protector dahil panahon talaga niya binuksan ang bansa natin sa POGO operations (because it was during his time that we opened our country to POGO operations).” Shades of gray: How PH ended up with a POGO crisis Offshore gaming was always a regulatory gray area. Soon, it mutated into criminal activities that put the Philippines on the global financial gray list. In the Golden Triangle, a Filipino was told ‘you will die here’ The scam business model in the Golden Triangle, where workers who use stolen identities to look for victims via online dating sites and lure them into cryptocurrency, was brought to the Philippines When Duterte finished his term, the Presidential Anti-Organized Crime Commission (PAOCC) under President Ferdinand Marcos Jr. intensified its crackdown on illegal POGOs. “Illegal” meant that these hubs obtained a POGO license (later renamed an Internet Gaming License or IGL) but were operating something else — often a scam hub that operated with criminal activities such as torture and prostitution. The POGO investigation heightened when PAOCC raided the Hongsheng Gaming Technology Inc. in Bamban, Tarlac in February 2023. A year after, in February 2024, PAOCC received information that a Vietnamese had escaped from a POGO called Zun Yuan Technology Inc., which was located in the same compound as Hongsheng. The Vietnamese wanted to be rescued. The gov’t raid that exposed Mayor Alice Guo’s link to POGOs Vietnamese Nguyen Minh Duc was able to mount a daring escape from the Baofu compound of Zun Yuan Technology Incorporated Zun Yuan Technology Inc. also operated from the same compound in Bamban. When operatives raided it, they found and seized evidence of torture and scamming activities — and discovered something else. Why were documents inside the compound naming the town mayor Alice Guo? The documents ranged from electric bills to a local government permit. Guo immediately became the central figure of what would become sensational and months-long congressional investigations. Investigators would also find out that Guo incorporated the real estate firm Baofu in 2019, which then leased the compound to POGOs. Bamban, Tarlac: Shaken by Alice Guo and a raid of a POGO fortress In a small, quiet town ruled successively by dynastic bets, a businesswoman of Chinese descent rises out of nowhere. Two years into her mayorship, a fortress masking illegal operations is raided. Guo’s entire life was picked apart. Who was her mother, her father, where did she grow up? All the government agencies that have been investigating her come to one conclusion: that Alice Guo is the Chinese national Guo Ha Ping. This discovery branched out to bigger questions of accountability: from the Philippine Statistics Authority (PSA), that allegedly gave Guo a late registration of birth despite questionable processes, the Bureau of Immigration (BI) for not being able to flag the presence in the country of personalities who turned out to be fugitives wanted in China and Singapore, and Pagcor for failing to do exhaustive probity checks on those who obtained licenses from them. The Securities and Exchange Commission (SEC) also faced questions for its failure to flag the Chinese fugitives who incorporated these companies. The Filipinos who registered the companies with the SEC are now claiming that their identities were stolen, and their signatures forged. In the end, when it was time to face the court for the non-bailable charge of human trafficking, only these Filipinos surrendered. Their Chinese bosses are nowhere to be found. Alice Guo’s fugitive business partner had 5 passports, and COVID travel pass Huang Zhiyang has Taiwanese, Chinese, and Cyprus passports, among others NBI confirms Mayor Alice Guo, Guo Hua Ping ‘one and the same person’ – Hontiveros The National Bureau of Investigation analyzed the fingerprints of the Bamban, Tarlac mayor and Chinese national Guo Hua Pin g Ghost owners of stolen identities only tip of a ‘deep, deadly’ POGO network Lazy regulation, lack of political will, or the intervention of a foreign state? PAOCC says whatever it is, it has allowed ‘dangerous criminals to hide in plain sight’ ‘Just explain in court’: Filipino ‘ghost owners’ of Bamban POGO surrender Three alleged POGO incorporators suspect their IDs were stolen from lending companies, as they often borrow to make ends meet With an arrest warrant from the Senate for contempt, Guo and her siblings fled the Philippines in late July. This irked not just senators, but President Marcos himself who promised that  those proven to have helped Guo escape would face charges . The government has not revealed who its suspects are, but Immigration Commissioner Norman Tansingco was fired because higher-ups were dissatisfied with his work. In less than a month, Indonesian authorities managed to do the job that Philippine authorities had failed to do:  catch Guo, her sister Shiela, and their alleged business associate, the 24-year-old Katherine Cassandra Li Ong. Ong has denied to this day being the operator of the Lucky South 99 POGO in Porac, Pampanga, despite documents showing her transacting with Pagcor on behalf of this POGO. By the time of the Porac raid, the business model became clearer — a real estate company sets up shop, and rents out its compound to the Pagcor licensees, thereby distancing itself from the POGOs and creating a layer that makes it hard for investigators to pin them down. A shady POGO rises fast, law enforcers scramble to pin it down The Porac POGO gets licenses to operate up to Ilocos Norte, and engages a convicted PDAF scam player for ‘government relations’ How did Alice go to Malaysia, Singapore, Indonesia? Someone dropped the ball, and agencies have been passing the buck How Alice Guo was caught by Indonesian police in only 18 days Guo hopped from one hideout to another to avoid being tracked by Indonesia, which at that point, was already on high alert Who is Cassandra Ong, the 24-year-old linked to the Bamban, Porac POGOs? Cassandra Li Ong is close to the wrong people. The big boss in Porac is her godfather. Alice Guo’s brother is her boyfriend. ‘I’m not a dummy’: Cassandra Ong denies running POGO despite records Lawmakers dangle a potential witness protection deal to get Cassandra Ong to ‘name names,’ but the 24-year-old does not budge Lawmakers have been pressuring Guo and Ong to name bigger fish. They have both refused to do so, maintaining their innocence and asserting their rights against self-incrimination. Guo is currently detained at the Pasig City Female Dormitory over the non-bailable charges of human trafficking, while the same complaint against Ong, and the money laundering complaints against both are still pending before prosecutors. Government officials have been dragged into the mess in varying capacities. For example, Guo’s divestment from Baofu was allegedly fake — who helped her? The local governments of Bamban and Porac are also in the hot seat for issuing the Letters of No Objection (LONO) to these POGOs. The Vietnamese victim in Zun Yuan in Bamban claimed that the local police had forced him to sign an affidavit promising not to sue the POGO. The former chief of the police Criminal Investigation and Detection Group (CIDG) was in hot water for firing the team that raided these POGOs. In a Senate hearing, a Pagcor official claimed that a former police chief was on Guo’s payroll. There’s also the mayor of Sual, Pangasinan, who allegedly has a relationship with Guo — something they have both denied. How Alice Guo concealed POGO link when she was mayor ‘Alice Guo never ceased to be a stockholder for Baofu’ even after she won the mayorship of Bamban, Tarlac, in 2022′ Bamban victim says cops ‘forced’ him to lie about POGO, gave him plane ticket to leave PH Bamban’s chief of police at the time, Police Major Perfecto de Mayo, denies the victim’s affidavit POGO probe turns to ex-CIDG chief for ‘firing’ raiding team Major General Romeo Caramat was a key drug war commander during Duterte’s time, and is among the cops ‘under suspicion’ by the ICC  Is a former PNP chief on Alice Guo’s payroll? Pagcor official Raul Villanueva says the unnamed ex-PNP official is the subject of ‘rumors within the intelligence community’ which are being validated by authorities Sual Mayor Dong Calugay’s assistant helped Alice Guo get counter affidavit notarized Guo had instructed a staff member to contact Calugay’s executive assistant, Cheryl Ordonia Medina, to help in getting the document notarized Both POGOs in Bamban and Porac hired one consultant to transact with Pagcor on their behalf: Dennis Cunanan, the former head of the state-run Technology and Livelihood Resource Center who had already been convicted of graft for his role in the pork barrel scam. Cunanan has likewise already been ordered arrested for the qualified trafficking charge pending in a Pasig court. The real estate firm in Porac, the equivalent of Guo’s Baofu, hired one high-profile lawyer to handle an ejectment suit — no less than Harry Roque, Duterte’s former presidential spokesperson. Roque turned out to have helped Ong set up the meetings with Pagcor when Lucky South 99 was renewing its POGO license. Moreover, Ong had allowed Roque’s former Malacañang assistant, student pilot AR dela Serna, to stay in the Porac compound for free. A Chinese man disguised as a Cambodian, and who is wanted in China for an investment scam, was caught in Roque’s house in Tuba, Benguet. Roque is evading a House of Representatives arrest warrant over contempt. Convicted pork scam player transacted in 2020 for POGOs in Porac, Bamban, Laoag Cunanan’s camp downplays his role in the registration of POGOs, saying these have been renewed without his participation. Documents show he transacted with Pagcor as a ‘key officer.’ Harry Roque’s wealth increase puts him in POGO probe hot list In 2017, Roque’s company Biancham went from having only P1.5 million in net cash to a P125-million cash flow in 2018. Roque attributes this to a sold family property . At this junction, here is what we know: the scam hub design is layered for a purpose, beginning with a lessor who could disassociate himself or herself from whatever crimes are alleged in operations. One would apply for a POGO license, and business process outsourcing (BPO) entities would pay to use the facilities, including strong internet connections. These BPOs could also be running some hubs. Sources privy to how this world works told Rappler that Guo and Ong may be minor players. Government investigators have yet to pinpoint the major players, but they are sure to be pursuing one lead – the Yang brothers, or the brothers of Duterte’s former economic adviser Michael Yang. The middle brother Hongjiang Yang has a joint bank account with Zhengcan Yu/Yu Zheng Can, one of the incorporators of Bamban’s Hongsheng, according to the Anti-Money Laundering Council. That account has been frozen by the Court of Appeals. The financial investigation also revealed that Guo’s other company once deposited a substantial amount to a company that has been flagged for illegal drug trade. The eldest brother, Jianxin Yang/Tony Yang, had just been arrested on the basis of being an undesirable alien, but he is also being investigated for being the lessor of a POGO in Cagayan de Oro City.  Tony Yang’s steel company, which has its own port, has also raised suspicions. Lawmakers believe they are close to exposing the big, bad world of POGOs, drugs, and Chinese criminals. In all of this, the losers are the honest-to-goodness laborers of POGOs, especially the legal ones, who face unemployment by the end of the year because of an all-out ban. The owners can just hop on to another type of gaming license. Tarlac POGO’s money trail links to brother of Duterte’s Chinese adviser Michael Yang’s brother Hongjiang Yang is connected to Pharmally, the anomalous contractor during the pandemic Making sense of the Alice Guo enterprise What is unclear is, between Alice Guo and Cassandra Ong, who helped who? Who had the original idea? Cagayan de Oro POGO linked to another brother of ex-Duterte adviser Michael Yang The Yangze building is supposedly owned by Golden Citi Development Inc, a leasing company. The setup is similar to how Alice Guo’s Baofu leased its compound to Hongsheng/Zun Yuan POGO in Bamban, Tarlac How government land was allegedly turned into a crime hub by Michael Yang’s brother When Tong Yang got a lease contract with Phividec in 2018, the estate was administered by former Iligan mayor Franklin Quijano, a staunch supporter of Duterte’s 2016 presidential bid Tony Yang, the ‘architect’ of an alleged shady Chinese network in the Philippines Tony Yang admits to faking a Filipino birth certificate, which he obtained two to three years after his arrival in the Philippines when he was 28 years old In Cagayan de Oro, Tony Yang’s businesses get entangled with drug issues Tony Yang distances himself from his brother, former presidential economic adviser Michael Yang She Zhijiang, a known criminal casino gang leader detained in Thailand, claims that he is a Chinese spy, and that Guo is a spy too. Guo has denied this. She Zhijiang had businesses in the Philippines, at one time even using a Cambodian alias that had also been flagged by global anti-organized crime operatives. Alice Guo riled up by report tagging her as Chinese spy: ‘It’s so unfair!’ The Philippine interior department says it will investigate the claim of a Chinese crime gang leader that Guo is a fellow spy She Zhijiang, the crime leader alleging Chinese espionage in PH through POGOs She, who says Alice Guo is a spy, extended his crime gang to the Philippines. ‘We are in no way exculpating them from any crimes that may have been committed,’ says Senator Risa Hontiveros – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Alice Guo,Duterte administration,Pagcor,Rodrigo Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>LIVESTREAM: Senate holds final hearing on Alice Guo, POGOs</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/video-senate-hearing-alice-guo-pogo-ties-september-24-2024/</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45559.03608796297</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – The Senate committee on women, children, family relations and gender equality and the committee on migrant workers on Tuesday, September 24, holds its final hearing on the fake identity of dismissed mayor Alice Guo of Bamban, Tarlac and her ties to illegal Philippine offshore gaming operators or POGOs in Central Luzon. Guo is currently detained in the Pasig City Jail Female Dormitory under a court commitment order due to non-bailable qualified human trafficking charges. Watch the Senate hearing live at 9 am on the Rappler website or head over to its Facebook and YouTube channels. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Senate to probe Michael Yang's brother Tony's business interests in Mindanao</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/senate-probe-michael-yang-brother-tony-business-interests-pogo/</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45559.03603009259</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. UNDESIRABLE ALIEN. Businessman Tony Yang, whom authorities say is the elder brother of ex-Duterte adviser Michael Yang, is arrested in NAIA by the Bureau of Immigration on September 19, 2024, on the basis of being an undesirable alien. Sourced photo CAGAYAN DE ORO, Philippines – Senator Risa Hontiveros said the Senate investigation on Philippine Offshore Gaming Operators (POGOs) would shift this week to this city and Misamis Oriental province where Tony Yang, elder brother of Michael Yang, has extensive business interests, including an P800-million steel manufacturing plant at a 3,000-hectare government-owned industrial estate. Hontiveros said they would investigate how Tony Yang, also known as Antonio Maestrado Lim in business circles here, was able to operate masquerading as a legitimate businessman who made friends with local traders, government officials, and the police. She said Yang, who also allegedly operated a POGO in an exclusive subdivision here, is linked to the controversial Pharmally Pharmaceutical Corporation that became involved in a multi-billion pesos scandal over allegations of overpriced medical supplies during the COVID-19 pandemic. “Yang is a colorful character. His name also cropped up during our investigation on Pharmally,” Hontiveros told reporters here on Monday, September 23 during the launch of the political campaign of former senators Bam Aquino, Kiko Pangilinan, and human rights lawyer Chel Diokno . Yang, elder brother of Michael Yang, the former Presidential Economic Adviser of former President Rodrigo Duterte, was arrested at the Ninoy Aquino International Airport (NAIA) right after his arrival from Cagayan de Oro last September 19. Hontiveros said her staff managed to get pictures of Yang with local officials, businessman and police, including photos which show that he went about presenting himself as a legitimate businessman in Cagayan de Oro. Among the officials who posed with Yang are Cagayan de Oro Mayor Rolando Uy and Philippine National Police (PNP) Region 10 Director Brigadier General Ricardo Layug. Both have denied any business dealings with Yang, in separate interviews with local radio stations. The staff of Senator Hontiveros also got copies of six gun permits from the PNP Firearms and Explosives Unit in Camp Alagar in this city. Honteveros said they will not invite any official from Cagayan de Oro regarding their connection with Yang. The real name of Tony Yang or Antonio Maestrado Lim is Yang Jian Xin, a Chinese. He was arrested last Thursday for being an undesirable alien. His arrest coincided with congressional hearings about allegations that drugs and contraband were moving through the Philippine Sanjia Steel Corporation, which also operates a 20-hectare port in the Philippine Veterans Investment Development Corporation in Misamis  Oriental. Sta. Rosa, Laguna Representative Dan Fernandez said Yang also operates a POGO in Alwana Subdivision, a high-end gated subdivision in Barangay Cugman this city. Cagayan de Oro  Councilor Romeo said he sponsored a resolution in 2022 calling for a police inspection of the facility but nothing came out of it . – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Misamis Oriental,Pharmally</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>'Just explain in court': Filipino 'ghost owners' of Bamban POGO surrender</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/filipino-ghost-owners-bamban-pogo-alice-guo-surrender/</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45558.38318287037</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO 'OWNERS'. Alleged co-incorporators, including a former TV host, of dismissed Bamban, Tarlac mayor Alice Guo, surrendered to the National Bureau of Investigation headquarters in Quezon City, on September 23, 2024. Rappler MANILA, Philippines – Listed Filipino owners of the shady Philippine offshore gaming operators (POGOs) in Bamban, Tarlac have turned themselves in to authorities even as they claimed that their signatures were either forged, or they were at the very least misled, in the operations of the hubs that allegedly trafficked, tortured, and scammed victims. For Hongsheng Gaming Technology Incorporated (Hongsheng) — the first iteration of the POGO in Bamban that rented the compound of Alice Guo’s Baofu — incorporators Rita Yturralde, Rowena Evangelista and Thelma Laranan surrendered to the NBI after they were included in the Pasig Regional Trial Court (RTC) order for the issuance of warrants for the non-bailable charge of human trafficking. Their defense is that they are just vendors incapable of running a POGO, and whose modest houses were previously shown in a Senate hearing. For Yun Zuan Technology — the second POGO whom authorities accused Hongsheng of just renaming — the two incorporators Roderick Pujante and Juan Miguel Alpas also surrendered, claiming they were misled by another Filipino who had the direct contact to Guo. “Maaaring ganun nga at ‘yan ay dapat maipaliwanag nila sa hukuman. Kasi as far as investigation is concerned, sila ang mga official ng mga corporations na ito na aming imbestigahan. Pagdating nila sa korte, dun nila sasabihin sa korte, bahala na ang korte kung ia-appreciate nila ang kanilang testimonies,” said NBI Director Jaime Santiago in a press conference on Monday, September 23. (That could be the case, and they should just explain to the court. Because as far as our investigation is concerned, they are the officials of the corporations we are investigating. When they face the court, that’s where they’ll tell the court and it’s up to the court if it would appreciate their testimonies.) Based on Securities and Exchange Commission (SEC) documents, Laranan, Evangelista and Yturralde are among the five incorporators of Hongsheng Gaming Technology, the POGO in Bamban. The other listed incorporator of Hongsheng, Merlie Joy Castro, previously appeared in a Senate investigation saying she is a mere vendor-turned-Business Process Outsourcing (BPO) worker and claimed she had no knowledge of the POGO. Castro said she knows Laranan, Evangelista and Yturralde because she has also bought goods from them in the wet market. Laranan, Evangelista and Yturralde told the Department of Justice (DOJ) during preliminary investigation that their identities must have been stolen from lending companies, as they often borrow to make ends meet. “Their economic situation would clearly show their financial incapacity to invest in Hongsheng Gaming. In fact, most of the time, said respondents are constrained to borrow money from different lending companies,” the three women claimed, according to the prosecutors’ resolution that included them in the charges. Yturralde also claimed that the Tax Identification Number (TIN) that appears in Hongsheng Securities and Exchange Commission (SEC) documents was not hers, and that Laranan and Evangelista do not even have TINs “as they have never been employed in any company,” said the resolution. Without specifying why they were not convinced of the three women’s claims, the prosecutors said “the key positions held by respondents Guo, Zhang, Lin, Carreon, Huang, Laranan, Evangelista, Yturralde, Castro, Can, Cruz, Pujante and Alpas in Baofu, Hongsheng Gaming and Yun Zuan Technology are integral for the organization of the said corporations.” “The incorporation of Baofu, Hongsheng Gaming and Yun Zuan Technology could not have been made possible without their participation to make it appear under Philippine Laws that the purpose of its incorporation is for a legitimate purpose,” said the resolution. The same resolution did not mention Laranan, Evangelista, Yturralde and Castro when it said that, “There exists prima facie evidence with reasonable certainty of conviction to indict respondents Guo, Huang, Carreon, Zhang, Lin, Yu, Cunanan, Cruz, Pujante, and Alpas.” Still, they were included in the recommendation for charges, and in the Pasig court’s order for warrants. DOJ Undersecretary Nicholas Ty, head of the Inter-Agency Council Against Trafficking (IACAT), told Rappler: “Their defense was mere denial which was unsubstantiated.” “There is evidence that the modus operandi of the Bamban POGO is to get individuals to front for them as incorporators, etc. in exchange for financial consideration,” said Ty. The fifth and last incorporator of Hongsheng — the only non-Filipino — is Yu Zheng Can, who is Chinese. The Anti-Money Laundering Council found a joint bank account of Can and Hongjiang Yang, a brother of Rodrigo Duterte’s former presidential economic adviser to Michael Yang. This bank account had been frozen by the Court of Appeals. In the money laundering complaint filed by investigators against the same people in the Bamban POGO, Laranan was named as an occupant of the POGO’s office in the compound, together with Can and Huang Zhiyang. Huang Zhiyang is also an incorporator of Baofu and remained to be an officer of the company even after Guo’s alleged divestment (investigators believe this was a fake divestment ), and he is believed to be the “boss of all POGOs.” Laranan, Yu Zheng Can, and Huang Zhiyang faced a separate complaint for violations of the Securities Code when Hongsheng was raided in early 2023, and in that indictment, the employees claimed that “the officers, owners and operators thereat required them to employ schemes to defraud unsuspecting victims.” It’s also Laranan who appears in more documents for Hongsheng, including a letter to former Philippine Amusement and Gaming Corporation (Pagcor) chair Andrea Domingo in September 2020 assigning former government official Dennis Cunanan to be Hongsheng’s authorized representative to regulators. Cunanan was also the government liaison for the Lucky South 99 POGO in Porac, Pampanga. Cunanan was also charged and ordered arrested in this trafficking case. Most of the Chinese ordered arrested are still at large. “ Hindi kami tumitigil sa paghahanap sa kanila (We continue to look for them),” said Santiago. Guo’s co-incorporator in Baofu, Rachelle Joan Malonzo Carreon, and the incorporators of Zun Yuan (supposedly the succeeding name of Hongsheng after it was raided) — Jamielyn Santos Cruz, Pujante, and Alpas — also surrendered to the NBI. They are all likewise charged and ordered arrested by the Pasig Regional Trial Court (RTC) Branch 167. Cruz, who identified herself as a host for state-run PTV, admitted she really did invest in the Zun Yuan POGO after she was offered to do so. Cruz said she met Guo through a tourism segment that they did in Bamban, but that it was not Guo who asked her to invest. Cruz told the DOJ during the preliminary investigation that she “admits [she is] the incorporator of Zun Yuan Technology but denies having any hand or involvement in the operations of the corporation.” During the NBI press conference, Cruz said: “ Wala pong trafficking na nangyayari dito, dahil lahat po ito ay allegations pa lamang, they have to prove it in court. Kaso dahil masyado na pong high-profile ang nangyayari, parang lahat po kami kasama ako ay masasamang tao at criminals. Sisiguraduhin ko po na hindi po ito totoo, kaming mga Pilipino.” (There’s no trafficking that happens here because all of it are just allegations, and they have to prove it in court. But because this case is already very high-profile, it’s as if all of us here are bad people and criminals. I will make sure these are disproven, for us Filipinos.) But Cruz’s co-incorporators, Pujante and Alpas, both Filipinos, pointed to Cruz and her brother. The two spoke in the press conference but did not identify themselves. One of them said Cruz’s brother, who is married to Guo’s chief-of-staff, was the one who asked them to sign papers. “Ginamit lang po kami dito..Papatunayan namin, mag-eexplain po kami sa court, para malinis po namin ang pangalan namin at takot na takot na po kami sa seguridad namin. Alam naman po nating hindi po biro ang mga nasa likod nito, ” said one of the male incorporators. (We were used here. We will prove it, we will explain it to the court, so we can clear our names because we are very scared for our security. We know that the people behind this are no joke.) Cruz said, in reaction: “ Siya po ay pumirma, inalok din po sila dito para mag-invest. Sila po ay nakakabasa, nakakasulat, nag-aral, siguro sa korte na lang po.” (He signed, they were offered to invest. They can read, they can write, they are educated, I’ll just explain it to the court.) The male incorporators said they preferred to stay in the NBI’s custody. Santiago said they will coordinate with the Pasig court to discuss the request. Guo was transferred to the Pasig City Jail Female Dormitory on Monday, following the court’s commitment order. – Rappler.com Read more stories on the ongoing POGO investigations: How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Alice Guo,Department of Justice,National Bureau of Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[Vantage Point] In contempt: When the course of justice is perverted</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/vantage-point-perversion-justice-alice-guo-cassandra-ong-cases/</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45558.375</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. What would it take for the likes of the Alice Guos and Cassandra Ongs of the world to tell the truth at a Senate or congressional hearing ? Definitely not through the use of interrogation techniques employed to break the will of terrorists, such as water boarding and physical abuse. But it seems that time and again, they’d rather be detained at the Senate quarters than rat on their benefactors who hide in the shadows. It also appears that the people like Alice Guo and Cassandra Ong have long been numb to the threat of being cited in contempt. Ferreting the truth from these dyed-in-the-wool cat’s paws is akin to digging through  a botlomless pit of sand just to find a single grain of rice. What makes it excruciatingly difficult for lawmakers is that these so-called resource persons — if you could call them that — are protected under the law. The right against self-incrimination is contained in Article 3, Section 17, of the Constitution: “No person shall be compelled to be a witness against himself.” This provision safeguards individuals from being forced to testify or provide information against their will. Self-incrimination refers to the intentional or unintentional act of providing information that suggests one’s involvement in a crime. Hence, Ms. Guo and Ms. Ong could expose themselves to criminal prosecution. They have the right not to be compelled to be a witness against themselves. Any witness, whether he or she is a party to a crime, has the right to refuse to answer any particularly incriminatory question: one that the answer to which may demonstrate his or her culpability. But the exercise of this right could collide with or obstruct the process of justice. When its exercise could mean the inability to extract the truth, whether in a congressional hearing or court of law, the congressional leaders, where in the Senate or House of Representatives, or those judges in court, could brandish their declaration “in contempt of court.” Lawyers whom Vantage Point talked to define this concept as the crime of being stubbornly disrespectful of Congress or a court of law. The refusal to make a statement or disclosure impedes the process of forming public policy in a congressional hearing or the dispensation of justice in a court of law. In the exercise of this contempt power, the judge or lawmaker can impose penalties in the form of fines and/or imprisonment. Contempt of court is a serious offense because it disrupts the judical process or interferes with the court’s authority. It may be committed by anyone involved in a court proceeding, whether as a lawyer, witness, or court personnel. There are two kinds of contempt of court: direct contempt and constructive or indirect contempt.  The first refers to being disrespectful to judges, law enforcers and other legal authorities in the courtroom, or to lawmakers, in their administration of justice. The second is the willful disobedience of the lawful process or a court order. Contempt proceedings enforce remedies, including injunctions. In court and congressinal hearings, contempt could include the refusal to respond to a subpoena or provide the required information. Overall, contempt charges are an important tool for ensuring the integrity of legal proceedings and compelling witnesses to fulfill their obligations. However, their use must be carefully balanced with protecting the rights of individuals and preventing abuse of power. Like contempt of court, perverting the course of justice, is also punishable with a fine or imprisonment.  This is because they make it difficult to discover who really committed a particular crime, for example, through the destruction of evidence, manufacture of false evidence, or lying to the police. If an accused refuses to tell the truth in court, there can be several consequences: It’s crucial to remember that while the accused has the right to remain silent, they do not have the right to lie under oath. Doing so can have serious legal and practical consequences for their case. But then again, since justice in this part of the world can be perverted, it is not surprising that many people doubt that these Senate and congressional inquiries in aid of legislation could really cure legal infirmities pervasive in the country’s justice system. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Alice Guo,Philippine justice system,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>How government land was allegedly turned into a crime hub by Michael Yang’s brother</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/mindanao/how-government-land-allegedly-turned-crime-hub-michael-yang-brother-tony/</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45558.17710648148</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO NO MORE. A building linked to Tony Yang, elder brother of former president Rodrigo Duterte's economic adviser Michael Yang, at the gated Alwana Business Park in Cagayan de Oro. The building was used for offshore gaming operations until 2023. Herbie Gomez/Rappler CAGAYAN DE ORO, Philippines – For years, illicit operations allegedly flourished under the radar of government agencies in Northern Mindanao. A 3,000-hectare government-owned industrial estate in Misamis Oriental, designed to boost the local economy, has allegedly become a playground for a Chinese crime syndicate involved in drug trafficking, smuggling, and offshore gaming. At the center of the controversy is Yang Jian Xin, a Chinese also known by aliases Antonio Maestrado Lim and Tony Yang. He is the elder brother of Michael Yang , a former economic adviser to ex-president Rodrigo Duterte. Tony Yang was arrested at the Ninoy Aquino International Airport (NAIA) on Thursday, September 19, for being an undesirable alien. His arrest coincided with congressional hearings about allegations that drugs and contraband were moving through the Philippine Veterans Investment Development Corporation (Phividec) industrial estate in Misamis Oriental, via Yang’s firm, Philippine Sanjia Steel Corporation. Northern Mindanao’s police director, Brigadier General Ricardo Layug, said Yang has been a businessman in Cagayan de Oro for about 20 years, interacting with local business circles, especially the Chinese Filipino community. Layug claimed that Yang’s involvement in illegal activities was unknown to him, as he had assumed Yang was a legitimate Chinese Filipino businessman. Yang’s company operates the steel mill at Phividec. The compound, which the firm has been leasing from the government since the Duterte administration, includes a wharf that Santa Rosa, Laguna Representative Dan Fernandez claimed was used for sneaking drugs, rice, and other goods into the country. In previous years, Fernandez said, smuggling operations were uncovered through Yang’s other businesses, Golden Sun Cargo Examination Services and Yangtze Rice Mill. Yang’s operations extended into offshore gaming, with officials linking him to a Philippine offshore gaming operator (POGO) that once operated at the gated Alwana Business Park in nearby Cugman, Cagayan de Oro. According to Fernandez, Yang also established many other companies through the years such as the Yangtze Trade Company Incorporated in 2000. The company later expanded into various firms such as: Fernandez and other congressmen said Yang’s network showed a web of connections between Chinese firms, POGOs, smuggling, and drug syndicates . In 2018, Yang’s group signed a memorandum of understanding with Phividec, allowing them to lease property at P30 per square meter. The firm broke ground the following year. At that time, the Phividec estate was administered by former Iligan mayor Franklin Quijano, a staunch supporter of Duterte’s 2016 presidential bid. Quijano was later appointed chairman of the National Commission of Senior Citizens by Duterte. Quijano’s successor, Jose Gabriel “Pompee” La Viña, who served as social media director for Duterte’s 2016 campaign, was appointed Phividec administrator in 2020. He stepped down in 2022 to run for Cagayan de Oro mayor, a race he lost. The current Phividec administrator is lawyer Joseph Donato “Cid” Bernedo, the husband of President Ferdinand Marcos Jr.’s youngest sister, Aimee. Bernedo has not responded to Rappler’s request for comment as of posting time. Layug said he has had dinner with Yang and local businessmen on several occasions and was unaware that the Chinese was involved in illegal activities. Layug added that he had assumed Yang was a Chinese Filipino, and was unaware that he was also known as Antonio Lim. “He was introduced to me as Mr. Yang. What I know is that his business involves buying scrap metal to produce construction materials,” Layug told local broadcaster DXCC-RMN on Sunday, September 22. He said Yang was actively involved with local Chinese Filipino groups, such as the Chinese Masons. A Cagayan de Oro councilor, speaking on condition of anonymity, told Rappler that Yang presented himself as a legitimate businessman, blending into the local Chinese Filipino business community. “He was active in one of the Chinese business groups and played golf even inside Camp Evangelista,” the councilor said. Camp Evangelista is the headquarters of the Army’s 4th Infantry Division in Cagayan de Oro, which has a golf course within the camp. Speaking on condition of anonymity, another official told Rappler that Yang developed a reputation as the “kingpin” of Chinese mainlanders in Cagayan de Oro. During the House quad committee hearing on Thursday, Fernandez said Yang is the president of Philippine Sanjia Steel, which operates the steel mill at the Phividec estate in Baluarte, Tagoloan town in Misamis Oriental. Speaking through an interpreter, Chen Xiang Ling, an engineer at the Sanjia Steel plant, told reporters on Saturday that Yang was no longer with the firm. The interpreter presented a document showing that Yang sold 35% of his shares to another company on August 12, 2024, or just over a month ago. Beneath the firm’s legitimate façade, a darker undercurrent has been raised: Fernandez said Sanjia Steel’s wharf at Phividec has allegedly served as a drop-off point for illegal drugs and smuggled goods, including rice. Sanjia Steel occupies 47 hectares of the Phividec estate in Tagoloan, a town in Misamis Oriental east of Cagayan de Oro. The town has been a strategic business hub since the 1970s, home to the Phividec estate, a massive industrial complex stretching into the neighboring town of Villanueva. The vast area, established in 1974 by the late dictator Ferdinand E. Marcos, was meant to benefit the country’s veterans and military retirees while bolstering rural development. Phividec, a government-owned and -controlled corporation (GOCC), profits from leasing land, collecting fees, and providing facilities to various industries. The businesses operating in the Misamis Oriental industrial estate range from power generation and petroleum to cement, food processing, and steel. Phividec’s infrastructure supports legitimate businesses, and it oversees one of Northern Mindanao’s major gateways, the Mindanao International Container Terminal (MICT). JV Vasallo, technical director of the Department of Labor and Employment (DOLE) in Northern Mindanao, said there were over 100 Chinese workers at the Sanjia Steel plant in Tagoloan during their inspection on Saturday, September 21. Vasallo said alien working permits were presented for at least 140 Chinese workers, but DOLE has yet to verify these, along with other documents. He said there were no indications that Sanjia Steel’s facilities at Phividec were used for offshore gaming operations, although he confirmed that the firm has its own wharf. In 2021, authorities uncovered rice smuggling operations at Sanjia Steel through two other firms allegedly owned by Yang — Golden Sun Cargo Examination Services Corporation and Yangtze Rice Mill, according to Fernandez. Yang’s business address is located at the privately owned Alwana Business Park in Cugman, eastern Cagayan de Oro, roughly a 30-minute drive from the Phividec estate. The Alwana complex is an approximately 20-hectare mixed-use private property developed by the Lims, a prominent Cagayan de Oro Chinese Filipino family. The Lim family is unrelated to Yang, who uses the alias Antonio Maestrado Lim. The gated Alwana complex includes residential areas, retail stores, office spaces, recreational amenities, wide-open spaces, and greenery. It is best known for the Marco Hotel, a frequent destination and meeting place of local and national politicians. At the rear of the complex is a chain of warehouses owned by various companies, including a multi-level building said to be owned by Yang, which was used for offshore gaming operations. Interestingly, the building plan submitted by Yang’s group to the local government was similar to the POGOs in Bamban, Tarlac, according to Fernandez. According to Layug, the POGO operated at Alwana until July 2023, two months before he assumed the role of police director for Northern Mindanao. “Many Chinese stayed there,” a boy living near the area told Rappler. A local vendor said they thought the building was a hotel built exclusively for Chinese people. “Last week, the police came. All the people staying there left after that. Some were Tagalog-speaking,” she said. In 2020, Cagayan de Oro Councilor Roger Abaday said a Bureau of Immigration (BI) official confirmed to the city council that around 2,000 Chinese were working at the Alwana POGO at the time. Fernandez accused Yang and other Chinese of disguising themselves as Filipinos to conduct illegal activities. Despite being Chinese, Yang holds a Philippine passport under the name Antonio Lim, according to Fernandez. He also claimed that Yang had financial transactions amounting to P3.5 billion with dismissed Bamban, Tarlac mayor Alice Guo, a claim Guo denied during the House quad committee hearing. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>illegal drugs,Michael Yang,Northern Mindanao,POGOs,smuggling in the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Lucky South 99 operator was president of ‘Chinese’ guild in Lapu-Lapu City</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/lucky-south-99-operator-zhao-long-lapu-city-chinese-guild-president/</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45555.91666666666</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Zhao Long, the same Chinese who was unmasked as one of the heads of Lucky South 99 ’s illegal scamming hubs during a September 17 Senate hearing, is the same person who headed the Lapu-Lapu City Chinese guild that had been donating computers to the city government since 2019. No other than Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio confirmed during the Senate hearing of the Committee on Women, Children, Family Relations and Gender Equality joint with the committees on Migrant Workers, and Public Order and Dangerous Drugs, that Zhao Long owned and operated one of the Lucky South 99 illegal scamming hubs. Rappler reviewed documents from the Securities Exchange Commission (SEC) that belonged to Zhao’s businesses and found that he had also been the chairman and president of the Lapu-Lapu City Philippines Tourism Ethnic Chinese Guild since 2019. The guild’s articles of incorporation revealed that it was formed on August 16, 2019. To recall, Lucky South 99 was set up in July 2019, according to business records — only a month apart from each other. The incorporators of the guild include Long’s father, Zhao Shouqi, Chinese nationals Yingpin Lin, Yangbao Wang, Yunyun Chang, and a Filipino citizen named Wilson Santos Chua. Shouqi was designated the guild’s chief financial officer. What’s interesting is that the purpose of the Cebu-based Chinese guild is something as innocuous as “to promote the Philippines as a tourism destination to the Chinese market.” This is exactly what is stated in the guild’s articles of incorporation. However, authorities were unconvinced. “These companies are suspected of being fronts to conceal scam operations conducted on the premises,” PAOCC’s video presentation narrated during the Senate hearing. The “Suwu” in “Royal 1 Suwu KTV Corporation” stands for Cebu. The KTV is just one of the many businesses inside the controversial Tourist Garden Hotel that was shut down on September 2 by Lapu-Lapu City Mayor Junard “Ahong” Chan right after 169 foreigners were caught on August 31 in the hotel compound running scam hubs. Affidavits from rescued Indonesians and an “administrator” pointed out that more than a hundred trafficked workers moved to the hotel compound months after the June 4 operation at the Lucky South 99 hub in Porac, Pampanga. But this particular KTV was already used as a site where malicious individuals could purchase women and bring them out for lascivious activities. A 2023 judgment by Regional Trial Court Branch 73 in Lapu-Lapu City detailed the events of an entrapment operation conducted by the National Bureau of Investigation (NBI) at the KTV lounge. On August 2, 2019, NBI operatives went undercover at the Royal 1 Suwu KTV. There, Chinese Zeng Dan and Quan Yi Qing offered the undercover operatives a selection of nine Chinese women whom they could “take out” for P30,000 each. Zeng and Quan were arrested immediately at the scene. The court ruled that Zeng and Quan were guilty of attempted trafficking and sentenced them to 15 years of imprisonment and a fine of P1 million. At least 34 Chinese women were rescued during the operation. During the Senate hearing, PAOCC officials revealed that these women had been lured from China with offers of legitimate employment in a Philippine offshore gaming operator (POGO) hub but were subsequently forced into sex work. “At that time, it happened in the KTV Bar. It was closed but they operated again because I think the case was dismissed,” the Lapu-Lapu City mayor told reporters in a press conference on September 2. Chan was present on August 6, 2019 at the hotel compound where the KTV is located. He personally conducted an inspection and found no reason to close the business establishment back then even when trafficking activities were being conducted onsite. According to the mayor’s office, the Royal One KTV was issued a business permit on February 26, 2020. A business permit pasted on the wall near the counter of the KTV showed that they were able to renew their license to operate on May 27, 2024. The mayor affirmed during the September 2 press conference that the city did its part in inspecting the hotel compound thoroughly and saw no anomalies. So when he shut down the KTV and other businesses at the hotel in September 2024, it was justified because “there were illegal activities conducted there.” “The permits they got from [the city], they used for these illegal activities,” Chan said during the press conference. The guild’s base of operations — Tourist Garden Hotel — started accommodating more than a hundred trafficked foreigners from Lucky South 99 on August 2, 2024, according to an administrator’s affidavit. “When we double-checked the Tourist Garden Hotel, it was still in booking websites…but it no longer had available rooms when we double-checked because all of it was used by the [POGO workers],” Casio told Rappler on Friday, September 20. The preferred modus operandi of the POGOs now, according to the PAOCC spokesperson, is to “disintegrate” into smaller units by spreading themselves to the provinces to lessen suspicion from residents and authorities. He explained that these hubs are able to “hide in plain sight” because of their sense of impunity. From 2019 to 2024, the guild, its connected businesses, and the hotel regularly paid taxes to the city government, according to the mayor. Now-deleted social media posts showed that the guild had also been a consistent donor of computer units to the Lapu-Lapu City government between 2019 and 2020. “I would like to believe that they’ve gotten complacent because they feel that they can bribe anybody and just about anybody in the Philippines…Organized crime will never be able to thrive in the Philippines without public corruption,” Casio said. While the “smaller units” continue to spread out to the provinces, the PAOCC spokesperson told Rappler that they’ve started working on “catching the bigger fish.” On Thursday night, September 19, authorities arrested Chinese businessman Tony Yang , also known as Yang Jian Xin, as he landed in Manila from Cagayan de Oro (CDO). Yang was caught on the basis of a mission order against an undesirable alien. He is the elder brother of former president Rodrigo Duterte’s economic adviser, Michael Yang, also known as Yang Hongming. During a congressional hearing on Thursday, Santa Rosa, Laguna Representative Dan Fernandez said that Yang Jian Xin owns Golden Citi Development Incorporated, which also owns the Yangze Building in CDO — the location of a POGO hub named Oroone Incorporated . The CDO city police confirmed at the hearing that Oroone Inc. had shut down operations in July 2023 before police got there. “By apprehending Tony Yang in Manila, that means to say we’ve alerted his managers in Cagayan de Oro so we would expect that the people in Cagayan de Oro are packing their bags now,” Casio said in a mix of English and Cebuano. As of this writing, authorities have managed to bust one POGO in the Visayas — to be precise, a part of the Lucky South 99 POGO from Porac, Pampanga. It’s small fry compared to the big fish that’s waiting in the vast Philippine archipelago, but as Casio put it, “We prefer to get the big boss rather than the small fries because we can get the small fry later on.” – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Cebu,Central Visayas,Lapu-Lapu City,Michael Yang</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Philippine immigration arrests Michael Yang’s brother | The wRap</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/september-20-2024/</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45555.59166666667</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Philippine immigration authorities arrest businessman Tony Yang, brother of Rodrigo Duterte’s economic adviser Michael Yang. He is being investigated for possible ties with illegal POGOs in the country. A Pasig court has issued warrants of arrest against Alice Guo for the non-bailable offense of qualified trafficking. She will also be transferred to the Pasig City Jail Female Dormitory. The House quad committee orders Cassandra Ong be sent to the Correctional Institute for Women in Mandaluyong for 30 days starting September 26. Former senator Leila de Lima announces her return to politics as lead nominee of Mamamayang Liberal, a party list under the Liberal Party. The Department of Environment and Natural Resources warns people in Sarangani Bay planning to capture a saltwater crocodile: Leave the task to professionals. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025 Philippine elections,Alice Guo,House of Representatives,Leila de Lima,Sarangani</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>In The Public Square with John Nery: What we know so far about alias Alice Guo and POGOs</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/in-the-public-square-episode-what-we-know-so-far-alice-guo-pogos/</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45555.45862268518</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – “Senateflix.” The word is Filipino wordplay combining the riveting Senate hearings on Philippine offshore gaming operators (POGOs) on the one hand and the streaming platform Netflix on the other. Through the Senate inquiries and the parallel hearings in the House of Representatives, we now have an almost complete picture not only of Guo Hua Ping alias Alice Guo but also of POGOs as a criminal enterprise. What do we know for certain and what are the unknowns that remain? Before “Senateflix” became popular viewing, only a few senators were doing the actual work of digging into the damage caused by POGOs. Senator Risa Hontiveros and Senator Sherwin Gatchalian were once voices in the wilderness. In this episode of In The Public Square , Rappler columnist and editorial consultant John Nery is joined by Gatchalian, one of the senators leading the investigations into illegal POGOs in the country. Watch this special episode on Friday, September 20, at 7 pm.  – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Court orders arrest of Alice Guo for non-bailable trafficking charges</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/pasig-court-orders-arrest-alice-guo-qualified-trafficking-september-2024/</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45555.13908564814</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ALICE GUO. Dismissed Bamban, Tarlac mayor Alice Guo confers with counsel Atty. Stephen David during the Congress quad committee hearing on illegal POGO activities on September 19, 2024. House of Representatives MANILA, Philippines – The Pasig Regional Trial Court (RTC) has ordered the issuance of warrants of arrest against dismissed Bamban, Tarlac mayor Alice Guo and other business partners over non-bailable charges of qualified trafficking. “After examining the five (5) Informations, the resolution, and all the documents presented during the Preliminary Investigation, the Court finds probable cause to hold accused Alice Leal Guo….for trial for the crime/s charged against them,” said Pasig City RTC Branch 167 Judge Annielyn Medes-Cabelis in an order dated September 19, obtained by Rappler on Friday, September 20. The judge ordered that the “corresponding warrant of arrest be issued” against Guo and 15 others, including the former mayor’s Chinese business partners, one of whom is Huang Zhiyang, the alleged big boss of POGOs (Philippine offshore gaming operations). BREAKING: Pasig Judge orders the issuance of an arrest warrant for Alice Guo et al for the non-bailable charge of trafficking @rapplerdotcom  pic.twitter.com/PzxFchrRZz Included in the order is Dennis Cunanan , the former chief of the state agency Technology and Livelihood Resource Center, who acted as a consultant for both the POGO in Bamban, Tarlac, and the POGO in Porac, Pampanga — both of which were raided after complaints of trafficking and torture. But this case is mostly a Bamban case as it does not include the trafficking complaint against Porac’s Cassandra Ong, which is still pending before the Department of Justice (DOJ). Guo was charged with trafficking for incorporating the Baofu real estate firm that leased its land to the Hongsheng POGO, later renamed Zun Yuan. Guo was accused of having a material role in making sure that Hongsheng and Zun Yuan got to operate in her compound . Although she claimed she had divested from Baofu, investigators secured a court certification that the divestment documents were fraudulent. The judge also ordered that Guo be transferred to the Pasig City Jail Female Dormitory. Guo is currently detained at the Philippine National Police custodial center in Camp Crame, which she preferred because she said she “feels safe” there. Guo opted not to post bail for her graft charge pending before the Valenzuela RTC (transferred from Capas, Tarlac), which lawmakers interpreted as her avoiding going into the custody of either the Senate or the House of Representatives. The lower house on Thursday, September 19, wanted to take over custody. “All the accused in these cases are not entitled to post bail as the charges against them are all non-bailable,” said the judge’s order. Guo’s lawyer Stephen David told Rappler they will file a petition for bail. A petition for bail is a resort for defendants in non-bailable charges. Previous famous examples of defendants who won their petitions for bail were Senator Jinggoy Estrada and Chief Presidential Legal Counsel Juan Ponce Enrile in their plunder charges over the pork barrel scam. The complaint against Guo for money laundering , which includes Ong, is pending at the DOJ. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Alice Guo,Central Luzon,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>House decides to send Cassandra Ong to Correctional, fights for Alice Guo's custody</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-sends-cassandra-ong-correctional-fights-alice-guo-custody/</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45554.6846875</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Dismissed Bamban, Tarlac mayor Alice Guo and alleged business associate Cassandra Ong attend the House of Representatives quad committee hearing the illegal POGO activities, on September 19, 2024. HOR MANILA, Philippines – Before its 13-hour-long hearing ended on Thursday, September 19, the House quad committee ordered to send Cassandra Ong to the Correctional Institute for Women (CIW) for 30 days, while fighting to take custody of dismissed Bamban, Tarlac mayor Alice Guo. Ong has been detained at the House for contempt, but on Thursday, agitated lawmakers decided to commit her to CIW beginning September 26 due to her lawyer Ferdinand Topacio’s statement that his client would rather be in Correctional “than be humiliated” by the committee. Ong explained that it was a statement she made to Topacio under stress. Ong has no court warrant yet, although she faces criminal investigations for human trafficking and money laundering. This House order came after Ong was cited in contempt for the second time, as her answers on where she went to school failed to satisfy lawmakers. “Since Miss Cassandra Ong was already cited in contempt, may I move that she be detained at the Correctional Institution for Women,” Antipolo City 2nd District Representative Romeo Acop moved, which was approved after no one objected. Ong is an officer of the Whirlwind real estate firm that leased its compound to the Lucky South 99 POGO, raided over allegations of trafficking and torture. Ong appears in many documents as the Lucky South representative, but the 24-year-old maintains she was merely a lessor. The complaints for money laundering allege that Ong was a business associate of Guo, which is a relationship deeper than what both women claim they have. Ong is the girlfriend of Guo’s brother Wesley. Guo, on the other hand, was cited in contempt again by the House, and as a result, was ordered detained in Batasan. However, this is a complication because the court in Capas, Tarlac (later transferred to Valenzuela) handling her bailable graft charge had already committed her to the custodial center of the Philippine National Police (PNP) in Camp Crame. Guo explained to the committee that not only does she “feel safe” in Camp Crame, she was also advised by lawyers to just wait for the other charges so they could post bail for all at the same time. Her trafficking charges were filed in a Pasig court this week, and if the judge finds merit to do so, the arrest warrant for that would be non-bailable. The committee decided to let Guo go back to Camp Crame Thursday night, but lawmakers are expecting her transfer to the House detention facilities after her arraignment in Valenzuela Friday morning, September 20. Guo’s lawyer Stephen David is confident that rules are on their side that a court commitment order takes precedence. It’s what the Senate followed too when they did not insist to take custody of her. “Criminal cases take precedence, the one that determines guilt or innocence is the court. The purpose of the House is to compel you to appear, but she will appear anyway,” said David. David said they will file a motion to lift the detention order on Friday before the House committee and if denied, “we will go to the Supreme Court.” Asked if he was anticipating a tense tug-of-war between the House and the court over custody on Friday, David said “no because the regional trial court is cognizant of its role to assert its jurisdiction.” Like Ong, Guo maintains she is only a lessor to the POGO in Bamban, Tarlac. Although she claims she divested from the real estate company when she ran and won as Bamban mayor, the complaint against her alleges that this divestment was fake.  – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Alice Guo,Cassandra Ong,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Michael Yang's brother arrested, as House links him to POGO and drugs</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/tony-michael-yang-brother-arrested-naia/</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45554.6299537037</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. UNDESIRABLE ALIEN. Businessman Tony Yang, whom authorities say is the elder brother of ex-Duterte adviser Michael Yang, is arrested in NAIA by the Bureau of Immigration on September 19, 2024, on the basis of being an undesirable alien. Sourced photo MANILA, Philippines – Philippine immigration authorities arrested late Thursday night, September 19, the businessman Tony Yang, who is the elder brother of former president Rodrigo Duterte’s economic adviser Michael Yang. “The Bureau of Immigration and Presidential Anti-Organized Crime Commission apprehend Yang Jian Xin at the NAIA T3. Yang is the elder brother of Hong Ming Yang or Michael Yang. He was caught on the basis of a mission order as an undesirable alien,” PAOCC Spokesperson Winston Casio said. Casio said Yang will be detained at a PAOCC facility. He was arrested carrying wads of cash worth P1.4 million as he landed in Manila from Cagayan de Oro (CDO). The arrest happened while the House quad committee hearing was still ongoing. Casio had to step out of the House of Representatives in Batasan early Thursday night to be at the Ninoy Aquino International Airport (NAIA) for the apprehension. PAOCC had been investigating Tony Yang for a while now, Rappler has learned, and on Thursday briefed the quad committee about his Cagayan de Oro City (CDO) operations. Earlier Thursday, Sta Rosa, Laguna Representative Dan Fernandez said that Yang is the same person as Jianxin Yang and also the same person as Antonio Lim who owns the the Golden Citi Development Inc,  which in turn owns the Yangze Building where a Philippine offshore gaming operator had operated before. The CDO city police confirmed that the Oroone Inc POGO had in fact been present in that building but ceased operations as early as July 2023. After Fernandez was informed that the apprehension in NAIA had been successful, the lawmaker continued his presentation on Tony Yang and linked the businessman as far as to drugs. Tony Yang also owns the Philippine Sanjia Steel Corporation, according to incorporation records, and is located within Phividec, the government agency that develops sites for industrial areas, also in CDO. Fernandez flagged this because Sanjia put up a port in the Phividec compound, “where ships carrying cargoes dock.” “All the cargoes of different goods go through that port,” Fernandez said. “I’m not going to show the different financial transactions wherein the different exchanges of money that involves those who are in the drug trade, we will withhold the showing of the matrix. I think PAOCC may have the proper knowledge of expressing the totality of this matrix,” he added. “Maybe the drugs of the country passed through that port hiding in legitimate business.” Tony Yang and other Sanjia incorporators have been invited to the House quad committee. “It means there is a real connection between POGO and drugs, and that’s what our people need to know, that there’s a real connection here between POGO, and drugs and Chinese syndicates,” said Manila 6th District Representative Benny Abante. Sanjia broke ground in Phividec in 2019 in Tagoloan, Misamis Oriental. Fernandez said that in 2021, Phividec authorities “caught Tony Yang smuggling rice through the port in Sanjia, these are documented.” “It means they are also the ones involved in rice cartel,” Abante said in Filipino. There have been labor violation complaints against Yang too, said the Bureau of Immigration (BI) on Friday. “Filipino employees of the said company were also said to have filed complaints for his non-remittance of their Social Security System (SSS), Pag-IBIG, and PhilHealth contributions,” the BI said in a release. The middle sibling of the Yang brothers is Hongjiang Yang, who has a joint bank account with Zhengcan Yu , one of the incorporators of Hongsheng Gaming Corporation — the POGO in Bamban, Tarlac inside the compound owned by Baofu, which Alice Guo incorporated. This joint bank account has been frozen by the Court of Appeals in connection with the Guo investigation. Guo on Thursday denied knowing any of the Yang brothers, including Hongjiang Yang. Senior Deputy Speaker Aurelio Gonzales Jr briefly presented a matrix linking Michael Yang through several degrees of Chinese associates to Empire 999 Realty “where the P3.6 billion shabu in Mexico, Pampanga was found .” – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Alice Guo,Philippines-China relations,war on drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Cagayan de Oro POGO linked to another brother of ex-Duterte adviser Michael Yang</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/cagayan-de-oro-pogo-linked-tony-yang-brother-michael-yang/</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45554.56862268518</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Brothers Hongjiang Yang, Jianxing Yang and Michael Yang. Photo from Representative Dan Fernandez. MANILA, Philippines – One lawmaker said a recently flagged Philippine offshore gaming operator (POGO) in Cagayan de Oro (CDO) has links to Tony Yang, believed to be the elder brother of Rodrigo Duterte’s former presidential economic adviser Michael Yang. Sta. Rosa, Laguna Representative Dan Fernandez made the remarks during the House quad committee hearing on Thursday, September 19, adding that Tony Yang was apprehended at the Ninoy Aquino International Airport (NAIA) before 10 pm the same day, and was taken into custody by the Bureau of Immigration. “This is owned by the same person, Philippine Sanjia Steel Corporation, and the one you have inspected…. It is owned by Mr. Tony Yang, the brother of Michael Yang, and the brother of Hongjiang Yang,” Fernandez told CDO City Police Chief Colonel Salvador Radam in a mix of English and Filipino. Radam confirmed to the House on Thursday that an operation it inspected on September 6 was indeed a POGO whose company name is Oroone Inc. The operation was already shut when police got there. “The POGO operations already ended last July 2023. There were still chairs and tables, no more computers,” said Radam. A police report said that the inspection was able to validate “that the specified gaming establishment has been closed.” Oroone Inc is located at the Yangze building in the Alwana compound in Barangay Cugman in CDO. It was given a certificate of accreditation and authority to operate in February 2019 by the Philippine Amusement and Gaming Corporation (Pagcor), specifically its gaming chief Andrea Domingo. The Yangze building is supposedly owned by the Golden Citi Development Inc, a leasing company, much like how Alice Guo’s Baofu leased its compound to Hongsheng/Zun Yuan POGO in Bamban, Tarlac, or Cassandra Ong’s Whirlwind leased its compound to Lucky South 99 POGO in Porac, Pampanga. Golden City’s incorporator is Antonio Lim, according to Securities and Exchange Commission (SEC) documents, and Lim is believed to be the same person as Tony Yang, his Chinese name being Jianxin Yang. Lim/Yang is also an incorporator of Philippine Sanjia Steel Corporation, based on SEC records, which is the company that Fernandez mentioned. Sanjia is around a 30-minute drive from the Yangze building, where the POGO was, but it is a noteworthy company because it is within Phividec, the government agency that develops sites for industrial areas. “In their pitch to Phividec, they said [Sanjia] is a Filipino corporation. But if we look at their president, Antonio Lim, the same person as Tony Yang and Jianxin Yang, he is a purely Chinese national,” said Fernandez in a mix of English and Filipino, showing a Chinese passport for Jianxin Yang. “Tony Yang is a Chinese national, how can he own a property and [buy] lands in Cagayan de Oro City, hundreds of hectares, for being a national. We can see here a Chinese national trying to be Filipino, getting a birth certificate from the PSA [Philippine Statistics Authority], and to transact or use a Philippine steel corporation as a front,” Fernandez added. Fernandez was alluding to the accusation that dismissed Bamban mayor Alice Guo bought a Filipino birth certificate to hide her Chinese citizenship – which later allowed her to run for mayor. There are multiple proceedings seeking to cancel not only Guo’s Filipino birth certificate, but also her election eligibility. This new revelation drags to the mess once again the businessman Michael Yang, the most prominent Yang brother by virtue of his closeness to former president Rodrigo Duterte. Michael Yang got a Malacañang contract as a presidential adviser, represented the Philippines in a 2017 Chinese Communist Party (CPP) event in Fujian, and expanded his business network under the Duterte presidency. According to their Chinese passports, Michael is the youngest, Hongjiang is the middle brother, and Tony is the eldest. Hongjiang Yang was found to have a joint bank account with Zhengcan Yu ,  one of the incorporators of Hongsheng Gaming Corporation — the POGO in Bamban, Tarlac inside the compound owned by Baofu, which Alice Guo incorporated. This joint bank account was among those frozen by the Court of Appeals as the investigation into the Guo network continues. The bank account of Hongjiang Yang and Zhengcan Yu had an almost P2 billion cash flow from 2018 to 2022. Guo on Thursday denied knowing Hongjiang Yang. “I have never transacted with him, your honor,” Guo said in Filipino. Hongjiang and Michael are also interconnected to the group that put up Pharmally, the company that cornered the biggest pandemic contracts for face masks and other personal protective equipment under the Duterte administration. Graft charges had been filed against Pharmally officials, and Duterte’s procurement chief that was involved in the scandal was arrested in Davao City on Wednesday, September 18. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Alice Guo,Michael Yang</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Bamban victim says cops 'forced' him to lie about POGO, gave him plane ticket to leave PH</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/victim-bamban-tarlac-says-cops-forced-lie-pogo-gave-plane-ticket/</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45554.4734837963</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. DENIAL. Police Major Perfecto de Mayo, the relieved former chief of police of Bamban, Tarlac, denies the victim's affidavit during the House Quad Committee hearing on September 19, 2024. Screenshot from House of Representatives MANILA, Philippines – A trafficked and tortured worker of the illegal Philippine offshore gaming operation (POGO) hub in Bamban, Tarlac, was “forced” by police officers to lie about the scamming operation inside a sprawling compound owned by its former mayor, Alice Guo, and then given a plane ticket to immediately leave the country, according to the victim’s affidavit. The victim was the Vietnamese national who pulled off an escape from the Zun Yuan compound on February 25, and was later rescued by the Presidential Anti-Organized Crime Commission (PAOCC) , leading to the pivotal raid that implicated Guo. But before the Vietnamese was rescued by PAOCC on February 28, he spent three days in a house nearby. He had run there and begged for help. The house owner, as expected, called the police. “I was forced by the police to sign an affidavit stating that I will not file any complaint against the company, and that I did not incur any physical injury, and that I [left] the place with my own free will, to which I did not agree,” the Vietnamese said in his affidavit, a copy of which was seen by Rappler. “There were four instances that different police officers forced to let me sign an affidavit of undertaking and/or desistance in exchange of my passport but I did not sign until I was taken by the personnel of PAOCC on February 28,” the Vietnamese said. The Vietnamese was also supposedly given a Cebu Pacific ticket to fly to Ho Chi Minh in Vietnam on February 28. Santa Rosa, Laguna Lone District Representative Dan Fernandez brought this up during the House Quad Committee hearing on Thursday, September 19, and grilled Bamban’s police chief at the time, Major Perfecto de Mayo. De Mayo and the entire station of Bamban were relieved after the Zun Yuan raid. “Did you know that [the victim] wanted to kill himself kaysa sumama sa inyo at ibalik sa Zun Yuan? (instead of going with you and being returned to Zun Yuan),” Fernandez asked De Mayo. In a video seen by Rappler, the Vietnamese could be heard saying, “I will kill myself. Please help,” as a Zun Yuan security guard chased him. De Mayo denied both forcing the Vietnamese to sign an affidavit of desistance and booking the Vietnam flight ticket. “No, [I did not], your honor,” De Mayo said. “Are you sure?” Fernandez asked. “Yes, your honor,” De Mayo said. “I am warning you, I have the ticket from Cebu Pacific, and we will find out from Cebu Pacific who purchased it. Somebody bought this,” Fernandez said. De Mayo said it was police officer Eduardo Hipolito who responded to the call of the house owner where the Vietnamese sought help. Still, he offered no further information about the Vietnamese’s accusations. Fernandez asked De Mayo if Guo, who was the Bamban mayor at the time, bought the ticket. Both Guo and De Mayo denied this. Fernandez then promised to get information from the airline Cebu Pacific. “We will be able to find out who bought this ticket,” Fernandez said. The Vietnamese’s rescue blew the lid open on the POGO scandal, which was followed months after by a raid of the POGO hub in Porac, Pampanga. The Vietnamese said that in Zun Yuan in Bamban, “we were beaten in times if we were not able to defraud lots of people and or we will complain about our health, hygiene, and freedom.” “I was slapped so hard that I was not able to eat for two days, and I was also electrocuted with high voltage,” said the Vietnamese. Charges of qualified human trafficking had been filed against Guo as the incorporator of Baofu, the real estate company that leased its compound to the Zun Yuan POGO, as well as the other officers of Zun Yuan and the previous iteration of the company, Hongsheng. Bamban Vice Mayor Leonardo “Ding” Anunciacion, Guo’s running mate in 2022, told the House on Thursday that the dismissed mayor of Bamban talked to a councilor in 2023 to make sure that Zun Yuan’s application for a permit was put on the agenda of the municipal council. Zun Yuan was eventually granted a Letter of No Objection, which is a requirement by the Philippine Amusement and Gaming Corporation to operate a POGO. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Alice Guo,Central Luzon,House of Representatives,human trafficking,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[Rappler Investigates] Those hearings in aid of legislation</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/newsletters/investigates-senate-house-hearings-aid-legislation-alice-guo-sara-duterte/</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45554.41666666666</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. BUDGET HEARING. Vice President Sara Duterte attends a hearing on the proposed 2025 budget of the Office of the Vice President, at the House of Representatives on August 27, 2024. Rappler How much do congressional committees spend on extended hearings or investigations they conduct in aid of legislation? How many “resource persons,” on average, are invited per hearing day, and how many work hours of government employees or officials, who are invited or subpoenaed, are lost, whenever they attend such long-winded hearings? It’s the same hearings that any epal legislator wouldn’t pass up for the fantastic opportunity to obtain free media exposure on television, radio, online, and even social media. Never mind if they have only nonsensical questions to ask because negative publicity, as they say, is still publicity. But more importantly, how many of these hearings actually produce committee reports that contain recommendations that aid the crafting of new, if not improved legislation? It’s not easy to get exact figures about actual cost — I saw a Freedom of Information request in 2021 for every Senate blue ribbon committee hearing expenditure. Guess what? The request was denied. But if it’s any indication, about 12 years ago, reports said the five-month prosecution of then-chief justice Renato Corona in the Senate impeachment court cost the lower chamber about P5.7 million . The upper chamber, for its part, claimed to have spent P3.5 million for the impeachment trial when it had budgeted as much as P5 million. In year 2000, the House of Representatives also allocated a P5-million budget for the prosecution of then-impeached ombudsman Merceditas Gutierrez, who just opted for resignation. That amount was based on a similar budget for the impeachment of then-president Joseph Estrada. More than a decade later, it’s easy to imagine how these numbers could easily inflate to more than double even for just committee hearings. The political wonks have coined the term “ Senateflix ,” which perfectly captures the series of hearings that have kept the curious, the FOMO-afflicted, and the civic-minded alike all glued to the hours-long live interrogations. Be sure to read this treasure trove of latest stories about the continuing mysteries and surprises of the Philippine offshore gaming operator (POGO) hubs, starring dismissed Bamban mayor Alice Guo, aka Guo Hua Ping , Cassandra Ong , and a whole cast of characters. From all these episodes, what senators have claimed to have established so far, with a combination of grilling, badgering, and a display of documents that only lawmakers (besides the courts, perhaps) could obtain through the power of a subpoena are the following: If you think about it, there’s really nothing new here, save for the personalities, amounts, and workflows of the corrupt and corrupted. If these are recurring issues, it means that deterrents in place aren’t working — at all. Let’s see what new legislation will emerge from all these. LOWER CHAMBER, TOO. The House of Representatives, for its part, would not be sidelined. The quad panel consisting of the committees on dangerous drugs, human rights, public accounts, and public order and safety, has been looking at connections between and among their areas of interest. Questions and answers appear headed in one direction, many have observed. Are they closing in on former president Rodrigo Duterte ? The elder Duterte is not alone. His daughter, Vice President Sara Duterte, made a surprise appearance at the House of Representatives only yesterday, September 18. It was truly dramatic, her refusal to take her oath before the House good government committee, anchored on the argument that she was invited as a “resource person” and not as a “witness.” The VP was likely advised to show up this time, after skipping budget hearings on her own Office of the Vice President, which she shouldn’t have done . That failure to defend and explain OVP expenditures, along with her new ask for 2025 put in clear view of the public her deficient skills as an executive. If everything was aboveboard and clearly defensible, the legitimate questions of the feisty women of the House should not have fazed the Veep into absence during the hearing. You don’t back down, you speak up. Otherwise you’re perceived as an entitled brat who can’t — and won’t — defend her actions and decisions. That’s failure in leadership right there. The VP has repeatedly said all this questioning in the House has but one intent: to impeach her. (You can watch what happened in the House yesterday here .) Probably right — given how rumors in this country turn out to be eventually true — but highly speculative at this point. What we saw yesterday was carefully scripted and planned, all the way to the ambush interview after the VP left without entertaining questions from lawmakers. She had a clear message for the President, which she made sure he wouldn’t miss: We never were, and never will be friends . Then exit. Was it a brilliant political move? We’ll see in the next survey. If you recall, Sara Duterte’s satisfaction rating plunged to its lowest in the June-July survey of Social Weather Stations. This was after she quit as education secretary. An August OCTA Research survey also showed a drop in her trust ratings from 68% to 65% . Surely, her media handlers saw the decline needed to be arrested and the Vice President needed to go on the offensive. That’s why she appeared in the House. Till Thursday after next! If you like what you’re reading on Rappler, help us continue doing these stories by supporting independent and quality journalism . – Rappler.com Rappler Investigates is a bimonthly newsletter of our top picks delivered straight to your inbox every other Thursday. To subscribe, visit rappler.com/profile and click the Newsletters tab. You need a Rappler account and you must log in to manage your newsletter subscriptions. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Alice Guo,Congress of the Philippines,House of Representatives,POGOs,Sara Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Guo as mayor endorsed POGO to municipal council – Bamban vice mayor</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/mayor-alice-guo-endorsed-zun-yuan-pogo-municipal-council/</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45554.37450231481</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. FIRST TIME. Dismissed Bamban, Tarlac mayor Alice Guo attends the House of Representatives quad committee hearing on illegal POGO activities, on September 19, 2024. HOR MANILA, Philippines – While she was a sitting mayor of Bamban, Tarlac , Alice Guo made sure that the request of the Zun Yuan POGO to secure a local government permit made it to the agenda of the municipal council, her own running mate and vice mayor said on Thursday, September 19. “ Kinausap po daw ni Mayor Alice Guo si Honorable Councilor Rainier Rivera para po ma-agenda ang Zun Yuan Technology (Mayor Alice Guo talked to Honorable Councilor Rainier Rivera to put Zun Yuan on the agenda),” Vice Mayor Leonardo “Ding” Anunciacion, Guo’s running mate in 2022 and also a former mayor of Bamban, told the House quad committee on Thursday. Anunciacion was referring to Zun Yuan’s request to secure a Letter of No Objection (LONO) from the municipality of Bamban. This is a requirement by the Philippine Amusement and Gaming Corporation (Pagcor) for its POGO licensees. Zun Yuan is the new name of the POGO, which filed fresh incorporation papers with the Securities and Exchange Commission (SEC) in June 2023, but stayed in the same compound of Baofu, the real estate firm incorporated by Guo. Investigators believe that Zun Yuan was just a reinvention of Hongsheng Gaming Corporation after it was raided in February 2023. This further implicates Guo in the POGO mess as Hongsheng, later renamed Zun Yuan, was found with evidence of trafficking and torture. Guo has always insisted that her business dealings had always just been with the leasing real estate firm Baofu. But Guo’s name previously appeared in Hongsheng’s LONO, given by the municipality in September 2020. Hongsheng’s LONO identified Guo as a representative of the POGO. Guo denied Anunciacion’s testimony, which agitated the interpellator, Manila 6th Distict Representative Benny Abante. It was Guo’s first appearance before the House quad committee. “ Nagsisinungaling ba siya o hindi? (Is he lying or not?) Answer me, you’re under oath,” said Abante. “ Hindi po ako ang nag-endorse (It wasn’t me who endorsed),” said Guo. This is the Letter of No Objection (LONO) by Bamban municipal govt to the Zun Yuan POGO in April 2023, when Guo was already mayor. VM Leonardo Anunciacion said Guo talked to a councilor to put Zun Yuan's LONO on agenda. Go to Rappler app, Justice Channel for more @rapplerdotcom  pic.twitter.com/Zk4dgfdbGm It was also revealed during Thursday’s hearing that Duanren Wu, the incorporator of the Whirlwind real estate firm that leased property to the POGO in Porac, Pampanga, was in Indonesia and joined Guo when she and her siblings fled the country to evade Senate warrants. Wu is the godfather of Cassandra Ong, and seems to be the big boss of the Porac operations . Ong said Wu was a former cop in China, but according to Senator Risa Hontiveros, Wu is also supposedly a fugitive in China. “ Opo nakasama po namin siya sa Indonesia (Yes he was with us in Indonesia),” said Guo. Although authorities still doubt Guo’s narration of how they fled the country, it was established that she was in Indonesia starting August 18 after getting on a ferry boat from Singapore. It was in Indonesia where Guo, Ong and Guo’s sister Shiela were arrested weeks apart. Guo said that in the times she met Wu in Bamban whenever Ong brought her godfather along, Wu had pitched to venture into a solar energy business. Ong is the girlfriend of Guo’s brother Wesley. Wu, Ong, and another Singaporean had also met about venturing into the solar energy business with former presidential spokesperson Harry Roque, said Ong. Roque is still evading a House arrest warrant for contempt. He has been ordered arrested by the House quad committee for not complying with the subpoena of his company records. Lawmakers had questioned an increase in Roque’s company assets from 2017 to 2018. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Alice Guo</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Alice Guo charged in court for trafficking</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/alice-guo-charged-court-trafficking/</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>45553.14114583333</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. FORMALLY CHARGED. Dismissed Bamban, Tarlac mayor Alice Guo attends the resumption of the senate hearing on illegal POGO activities and human trafficking, on September 17, 2024. Alecs Ongcal/Rappler MANILA, Philippines – The Department of Justice (DOJ) has formally charged dismissed Bamban, Tarlac mayor Alice Guo for trafficking. The DOJ filed the trafficking case with the Pasig City Regional Trial Court (RTC) on Tuesday afternoon, September 17. Once raffled to a branch, the presiding judge will decide whether or not to issue a warrant of arrest against the dismissed mayor. Trafficking is a non-bailable offense. Guo’s trafficking case stemmed from the complaint filed by the Presidential Anti-Organized Crime Commission and the Philippine National Police (PNP) against Guo and 13 others back in June over their ties with a Bamban Philippine offshore gaming operator (POGO). Guo was specifically implicated due to her incorporation of a leasing company called Baofu, which rented its spaces out to a POGO called HongSheng/Zun Yuan. Evidence of torture and trafficking were found at the POGO. The trafficking case was originally lodged in Capas, Tarlac, but the DOJ asked the Supreme Court (SC) to allow the transfer of the case to Metro Manila. In requesting the transfer, the DOJ cited the “pressing need to safeguard national interest and ensure fairness in the justice system considering these high-profile cases exceed local boundaries which affect national security and general policies.” The SC granted the DOJ’s request and ordered Capas, Tarlac Branch 66 to transfer all the files related to the cases to the Pasig City RTC. In indicting Guo, DOJ Undersecretary Nicholas Felix Ty explained that under the latest amendment to the anti-trafficking law, specifically section 4(l), organizing an establishment engaged in human trafficking is punishable: “ Doon talaga nadawit si [dismissed] mayor Guo at sa mga ibang co-respondent niya…. Kung mapakita na ikaw ang nag-organize ng isang negosyo na may madaming ganap na human trafficking, maaari kang kasuha n.” (This is where dismissed mayor Guo and her co-respondents were implicated. If it’s proven that you organized a business where human trafficking cases incidents happened, you can be charged.) The trafficking case is the lawsuit the senators have been waiting for. After the announcement of Guo’s escape in August, Senator Raffy Tulfo said that if the only case had been processed faster and a warrant  issued, it could have deterred Guo from escaping. The DOJ explained that although they wanted a fast resolution of Guo’s trafficking complaint, it said it cannot just strong-arm the process . Guo is currently detained at the Philippine National Police (PNP) Custodial Center after a Tarlac court issued an arrest warrant against her in relation to the graft case filed by the interior department. She did not post bail so she remained under police custody. Before the Tarlac court issued the warrant, the Senate had already ordered Guo’s arrest but this did not stop Guo from escaping. Guo was arrested in Indonesia and was deported to the Philippines on September 6 and has since been in PNP custody. Aside from trafficking and graft, Guo also faces two criminal investigations at the DOJ for tax evasion , and another one for money laundering . These are all related to her alleged ties with the Bamban POGO. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Alice Guo,Department of Justice,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ex-CIDG chief Caramat says he was kept in the dark about Bamban POGO raid</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/ex-pnp-cidg-chief-caramat-says-kept-dark-pogo-raid-bamban-tarlac/</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45553.10438657407</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. QUIZZED. Former CIDG chief MANILA, Philippines – Former Criminal Investigation and Detection Group (CIDG) chief Major General Romeo Caramat Jr. told a Senate panel investigating illegal Philippine offshore gaming operators that he was kept in the dark about the March 13 government raid on the Zun Yuan POGO in Bamban, Tarlac, linked to dismissed mayor Alice Guo. Caramat told senators on Tuesday, September 17, that he was so upset that he confronted then-Philippine National Police chief General Benjamin Acorda Jr. about why he was not informed about the raid when the operation tapped CIDG personnel. Senator Joel Villanueva asked Caramat at the Tuesday hearing if the Presidential Anti-Organized Crime Commission (PAOCC) had coordinated with him on the operation as he was CIDG chief at the time. (READ: Tracing the evidence: The gov’t raid that exposed Mayor Alice Guo’s link to POGOs ) Caramat said he was the CIDG chief when the first raid in Bamban happened in February 2023, but he was not informed about the second raid that the PAOCC and some CIDG personnel conducted in Bamban in March. “Did they ask help from you? Did you give any advice to PAOCC?” asked Villanueva. Caramat said that he was on leave during the raid and only learned about it three to four days after the raid. “To be honest, Mr. Chair, I was upset why I was not informed. It was a slap on my face as the director of the CIDG and they used my men in that raid and they didn’t bother to inform me so I was upset,” Caramat said. “But I understand my men that they are just following orders from the chief PNP (Philippine National Police) so I helped them in their investigation but even though, honestly, I was upset and I confronted the chief PNP why he didn’t inform me of that trade,” Caramat added. When asked, Caramat said the PNP chief at the time was Acorda, who retried on April 1, and was replaced by General Rommel Francisco Marbil. Asked what kind of assistance he offered to PAOCC officials after the raid, Caramat said that he directed CIDG investigators to assist in filing the case against the Bamban POGO operation. “This happened under your nose, so hindi ninyo po alam ito (so you didn’t know) when it happened? “ Villanueva asked him. “I don’t know the wisdom of the chief PNP and the PAOCC, why they didn’t inform me during that operation. Maybe because I am on leave, Mr. Chair,” Caramat said. Villanueva suggested that Caramat’s lack of knowledge about the raid might be due to possible suspicion about his involvement in the POGO operations. “Maybe you’re on leave or maybe it is because meron pong pangamba sa inyo (there’s suspicion) that you are part of this. Is that something that you thought about, Sir?” the senator asked Caramat said that he confronted then-PNP chief Acorda before to ask why he was kept in the dark about the raid, and that he should just be sacked if he didn’t have the PNP chief’s trust. “Ang sabi niya lang, nawala sa isip niya lang (He just said it slipped his mind),” Caramat recalled. In July, House lawmakers grilled Caramat over the relief and reassignment of CIDG personnel who took part in the March 13 POGO raid in Bamban. Villanueva questioned Caramat’s possible involvement with POGOs due to a photograph of him with businessman Jan Patrick “JP” Samson, Alice Guo’s co-incorporator of a company called Westcars. The photograph was presented during the last hearing on September 9. Villanueva asked Caramat: “Anong connection ‘nyo po sa kanya? Magkaibigan po kayo (What is your connection to him? Are you friends)?” Caramat said that when asked by House lawmakers conducting their own investigation, he had replied that he did not know the individual because he could not remember the name. “But when the photo was showed on the screen, I remember him,” he said, adding that Samson was introduced to him as the owner of  Baliwag Lechon. Villanueva pressed further, “Wala kayong pinagsamahan na anumang (You were not in any partnership) perhaps business interest or anything, Sir?” “No, Mr. Chair. That was the first time I saw that guy, Mr. Chair,” Caramat said. Caramat was also asked about his connection to Sual, Pangasinan Mayor Dong Calugay , who was also at the Senate hearing. He said that he was Calugay’s superior when both of them were assigned to the Pangasinan Provincial Police in Lingayen. Calugay was a cop before he joined politics. It was also revealed during the  September 17 hearing that authorities are looking into still unverified “rumors” that an unnamed former PNP chief was on Guo’s monthly payroll . – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Alice Guo,Central Luzon,Philippine National Police,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Senators try to establish links between Alice Guo, Sual Mayor Dong Calugay</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/senators-try-establish-more-links-between-alice-guo-sual-mayor-dong-calugay/</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45552.57900462963</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. WHAT ARE THEY? Senators on Tuesday, September 17, try to establish more links between dismissed mayor Alice Guo and Sual, Pangasinan Mayor Dong Calugay. Senate PRIB (composite image) MANILA, Philippines – Senators on Tuesday, September 17, tried to establish more links between dismissed Bamban, Tarlac mayor Alice Guo, also known as Guo Hua Ping , and Sual, Pangasinan Mayor Dong Calugay. Were they business partners? Were they romantic partners? Were they partners in crime? This was their line of questioning as Calugay faced intense scrutiny during his first appearance before the Senate. He was questioned about his connections with Guo and his links to illegal Philippine offshore gaming operators (POGOs) in Central Luzon. “Business partner po ba kayo ni Guo Hua Ping, Mayor (Are you a business partner of Guo Hua Ping, Mayor?)” Senator Risa Hontiveros asked. Calugay responded, saying: “Wala po kami kahit na isa po na business (We do not have even one business).” “Kunin ninyo ‘yung pagkakataon, ‘yung mga susunod kong tanong para sumagot nang totoo po. You are under oath at hindi lang po itong huling dokumento ipapakita ko at namin sa inyo,” Hontiveros said. (Take the opportunity with my next questions to answer truthfully. You are under oath, and this won’t be the last document we’ll show you.) Hontiveros then presented a number of businesses which seemed to be derived from Guo’s name (Alice) and Calugay’s name. Calugay denied owning any of the firms. “AC, I think, stands for Alice and Calugay,” quipped Senator Jinggoy Estrada, who first suggested the idea of Guo and Calugay being romantic partners back in May. Calugay also said that he neither runs nor is familiar with Alisel Consumer Goods Trading Hardware and Construction Supplies. Calugay’s executive assistant Cheryl Medina, listed as the owner of Dee Aqua Farm, denied ownership, stating the farm is non-operational. She explained that she applied for registration but did not proceed after discovering that government employees are prohibited from engaging in business. It was also revealed during the hearing that Medina provided help in getting Guo’s counter affidavit for a human trafficking case notarized even when she was no longer in the country. Hontiveros also tried to validate intel she received that Medina had allegedly told people about a child whose parents are supposedly Guo and Calugay. “In fact, may nakuha po kaming impormasyon na kayo mismo nagsabi sa kanila na girlfriend ni Mayor Calugay si Guo Hua Ping. Bukod pa diyan, kinuwinento niyo pa raw sa kanila na may anak silang dalawa,” Hontiveros said, addressing Medina. (In fact, we received information that you yourself told them that Guo Hua Ping is Mayor Calugay’s girlfriend. Furthermore, you supposedly also mentioned to them that they have a child together.) Medina, close aide of Calugay, denied knowing any romantic or business relationship between Guo and her boss. “Wala po, your honor (None, your honor),” Medina said. During the hearing, Calugay maintained that his relationship with Guo is strictly platonic, despite photos of them together at various events, and despite them wearing “couple shirts” in some of them. “Magkaibigan lang po kami (We are just friends),” said Calugay, when Hontiveros asked him to describe their relationship. Calugay, however, admitted that he gave Guo a bouquet of flowers for Valentine’s Day but insisted it was just a friendly gesture. He explained that he first met Guo in 2016 at her farm in Tarlac while searching for a poultry supplier. Hontiveros said that her line of questioning was meant not to determine not Guo and Calugay’s romantic relationship, but to check the possibility of their “criminal relationship.” “Kaya inuna na namin ‘yung mga tanong na ang dali sanang sagutin nang totoo sa mga litratong iyon. Ang pinaka-interest ko po ay kung may sabwatan kayong dalawa para sa kadiliman at kasamaan,” Hontiveros added. (That’s why we started with questions that would have been easy to answer truthfully given those photos. What I am most interested in is whether the two of you are involved in any collusion of dark and evil purposes.) Hontiveros then presented a photograph of Guo and Calugay with Wesley Guo, Cassandra Li Ong, and Duaren Wu, taken in February at a town wedding in Sual. Wesley is Alice’s sibling, Ong is associated with POGO in Porac, Pampanga, and Wu is reportedly the “big boss” of POGO. “Nandyan po sila sa kasalang bayan na kababanggit niyo lang. May photographic evidence. Naalala ninyo na po?” Hontiveros asked Calugay. (They are present at the town wedding you just mentioned. There is photographic evidence. Do you remember now?) “Noong kasalang bayan, marami pong kasama si Mayor Alice pero hindi ko po kilala yung iba,” C alugay replied. (At the town wedding, Mayor Alice had many people with her, but I don’t know the others.) Senators warned Calugay to say the truth; otherwise he would be cited in contempt. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Alice Guo,Pangasinan,POGOs,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Sual Mayor Dong Calugay's assistant helped Alice Guo get counter affidavit notarized</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/sual-pangasinan-mayor-calugay-staff-assisted-alice-guo-affidavit-notarization/</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45552.46208333333</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. QUIZZED. Dismissed Bamban, Tarlac mayor Alice Guo attends the resumption of the senate hearing on Philippine Offshore Gaming Operations (POGOs), human trafficking, cyber fraud and other criminal activities, on September 17, 2024. Alecs Ongcal/Rappler MANILA, Philippines – The executive assistant of Sual, Pangasinan Mayor Liseldo “Dong” Calugay  helped dismissed Bamban, Tarlac mayor Alice Guo in getting her counter affidavit for a human trafficking case notarized even when she was no longer in the country. During the Senate probe into Guo’s ties with Philippine offshore gaming operators (POGOs) on Tuesday, September 17, Guo’s staff members, Cath Salazar and Gee Pepito, narrated how they got Guo’s counter affidavit notarized on August 14. At the time, Guo had already fled the country. Salazar told the senators that Guo had instructed her through a phone call to contact Calugay’s executive assistant, Cheryl Ordonia Medina, to help in getting the document notarized. Salazar claimed she was not aware where Guo was at the time she called her. Senator Risa Hontiveros presented the sworn affidavit of “Ka Dante,” who claimed to have assisted Guo’s staff in having her counter-affidavit notarized. Ka Dante said that it was Medina who contacted him about looking for a notary public for Guo. According to Ka Dante’s affidavit, on August 12, Medina contacted him asking if he knew a notary public who could notarize an affidavit for an unnamed individual and requested help with the process. Ka Dante agreed to assist Medina, hoping it would improve his standing with Sual officials. On August 13, Ka Dante said Medina contacted him to arrange for the pick up of the document to be notarized. He was instructed to go to Concepcion Road in Concepcion, Tarlac, to meet the person whose affidavit needed notarization the following day. Ka Dante said Medina provided him with the contact number of a certain named  “Kat” (Guo’s staff, Cath) for coordination. On August 14, Ka Dante went to the meeting place early in the morning but got a call from Salazar past 11 am to inform him that Guo’s other assistant, Pepito, will bring the documents to him. It was only after he got the document from Pepito that he learned that the person seeking notarial services was Guo. He told Pepito that the document had to be signed so the latter crossed the street and handed the document to someone inside a vehicle. The passenger, he said, rolled down her window and waved at him. Ka Dante said the person resembled Guo, and he waved back. Pepito then returned with the signed document and then left in the vehicle supposedly bearing Guo. Ka Dante said that he went to lawyer Elmer Galicia ‘s office in San Jose del Monte, Bulacan, and was told that the document could not be notarized without the presence of Guo. “I called Kat (Cath) to request that Mayor Guo call me so that Atty. Galicia could be assured that the affidavit is executed voluntarily and that she is still in the Philippines. Mayor Alice Guo assured me and Atty. Galicia that she executed the affidavit and that she is in the country,” Ka Dante wrote in his affidavit. Responding to questions, Salazar said in Filipino that Guo wanted a lawyer outside Pangasinan as “when a lawyer sees her name, they say no, so the instruction was to call Ma’am Che,” referring to Medina. How did Guo sign the document if she was already out of the Philippines? Guo claimed that she had pre-signed the last page of the counter affidavit and left it in her office drawer before she fled the country. “‘Yung last page po ng document po nasign ko po. Nasign ko po bago po ako umalis (I signed the last page of the document. I signed it before I left), Guo said. Guo said she asked Salazar to get the pre-signed page in her drawer in QJJ farm, also her home, in Bamban, Tarlac. Salazar corroborated this, adding that she followed the directive of Guo to attach the signed page to her counter affidavit. Guo and her assistant’s version of how the document was signed is contrary to the earlier testimony of Galicia as well as Ka Dante that the last page of the affidavit was signed by someone “who looked like” Guo inside a vehicle. When Hontiveros asked Pepito who was in the vehicle who signed the document, Pepito said that she met with Ka Dante on instructions of Guo, as relayed by Salazar, in Rustica restaurant in Concepcion, Tarlac. While they were having lunch, she got another call from Salazar instructing her to have the driver pick up the signed document from her house, and that Pepito retrieved the document and later handed it over to Ka Dante. To this, Hontiveros said: “Sorry, Ms. Gee, kasi naniniwala na kami kay Ka Dante. At pinakita ko nga ‘yung kanyang affidavit na may pagpapayag ng kanyang abogado. Hindi lang si Ka Dante pati abogado niya ay naninindigan sa katotohanan ng kuwento niya na ‘yun. So bakit kami dapat maniwala sa inyo kaysa kay Ka Dante?” (Sorry, Ms. Gee, because we believe Ka Dante more. And I showed his affidavit with the consent of his lawyer. It’s not just Ka Dante but even his lawyer is standing behind the truth of his affidavit.  So why should we believe you over Ka Dante?) Hontiveros also asked Salazar whether she was the one who signed the counter affidavit. This is based on Ka Dante’s affidavit that someone who looked like Guo was in the vehicle that Pepito went to, to get the affidavit signed. Salazar denied this. Pressed by Senator Sherwin Gatchalian if she was able to review the August 14 counter-affidavit since she supposedly signed the last page before she fled the country in early July, Guo invoked her right against self-incrimination. Guo’s counter-affidavit was prepared by Gana, Atienza, Avisado Law Firm. Lawyer Ray Ann Co, a junior partner at the firm who worked on the affidavit, said that they sent the draft to Salazar on August 14. Co also mentioned that there was limited communication with Guo during that period, and the affidavit was also sent to Salazar on that same day. “We really had no knowledge,” Co said, when asked if he knew that Guo was already out of the Philippines when they prepared the counter-affidavit. Salazar said that the completed counter-affidavit was sent to Guo through messaging app WeChat. With this new revelation, Gatchalian said that Galicia apparently lied when he said that the dismissed mayor signed the affidavit in front of him. When asked about to respond to the testimony and evidence presented, Galicia said: “Biktima po ako (I am a victim here). I am invoking my right against self incrimination.” Hontiveros noted that with Calugay’s assistant assisting Guo in notarizing her counter-affidavit, it seems unlikely that they don’t have a close relationship, especially since their staff members are also closely connected. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Alice Guo,Pangasinan,POGOs,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Rappler Recap: Senators bare more links between Alice Guo, Dong Calugay</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/rappler-recap-senators-bare-links-alice-guo-dong-calugay/</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45552.34143518518</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – Senators on Tuesday, September 17, bared more links between dismissed Bamban, Tarlac mayor Alice Guo and Sual, Pangasinan Mayor Liseldo “Dong” Calugay as they continued their probe into illegal Philippine offshore gaming operators or POGOs in Bamban, Tarlac. Calugay finally appeared before the Senate after missing two previous hearings, citing dengue fever, which led the panel to issue a subpoena against him. He denied any romantic or business relationship with Guo, stating that they are merely “friends.” Rappler’s Senate reporter Bonz Magsambol gives a recap of Tuesday’s hearing. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Alice Guo,Pangasinan,POGOs,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Is a former PNP chief on Alice Guo’s payroll?</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/inside-track/former-police-chief-alice-guo-payroll/</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45552.28001157408</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SENATE HEARING. Dismissed Bamban Mayor Alice Guo attends the Senate hearing on illegal POGOs on September 17, 2024. Senate PRIB At the resumption of the Senate hearing on illegal POGOs on Tuesday, September 17, it was revealed that concerned agencies are in the process of validating “rumors” that a former Philippine National Police (PNP) chief helped dismissed Bamban, Tarlac mayor Alice Guo flee the country. Retired general Raul Villanueva, senior vice president of the security monitoring cluster of the Philippine Amusement and Gaming Corporation (Pagcor), said this while responding to Senator Risa Hontiveros’ questions about the veracity of rumors that Guo paid P200 million to a high-ranking immigration official, and if others in government were bribed to help her escape. Villanueva said the “rumors within the intelligence community” were not only about the alleged involvement of people in the Bureau of Immigration (BI) but also of “PNP officials.” When asked what PNP units were supposedly involved, Villanueva said in a mix of Filipino and English: “Not a PNP unit, Ma’am, but personalities…. I think it was mentioned, the former chief PNP.” Villanueva said he could not confirm what kind of support this former police chief allegedly provided to Guo, and whether this individual was offered an amount, or if he even accepted it. He also added that he could not ascertain the source of the report, but that this is being validated. “ Ang parang usapan doon, Ma’am, parang ‘yung parang nasa payroll, ‘yung monthly payroll ever since ,” he said. (The talk there, Ma’am, is that he seems to be on the payroll, the monthly payroll ever since.) Asked to identify the former PNP official or police involved to prevent the public from casting doubts on the entire organization, Villanueva said that no exact name was provided, just the description that the person possibly involved is a former PNP chief. “That’s why I said the intelligence community is still verifying it. They have to confirm it yet,” he added. Asked about the alleged bribery among government officials and the former police chief, Angelito Magno, National Bureau of Investigation deputy director for investigative services told the Senate panel: “Lahat po ‘yan ay tinitingnan po natin. But at this moment, we cannot comment on the investigation and intelligence gathering that we are conducting. Since sa binubuo po naming pag-backtrack at pag-iimbestiga ay kasama po naming tinitingnan iyan, Madam Chair.” (We are looking into all of that. But at this moment, we cannot comment on the investigation and intelligence gathering that we are conducting. This is part of the backtracking and investigation that we are pursuing.) On updates about the BI investigation of its officials possibly involved in Guo’s escape — which President Ferdinand Marcos Jr. had vowed to weed out — BI intelligence division chief Fortunato Manahan Jr. said that the probe is still ongoing. As the hearing began to wrap up, Senator Bato dela Rosa arrived and asked the chair to be allowed to ask a few questions. He initially asked Guo about her brother Wesley Guo who was still abroad, and whether she considered to return to China if she was not arrested in Indonesia. (She said planned to return to the Philippines all along.) Then, the question that apparently prompted the former PNP chief to join his colleagues in the hearing: “Merong sinabi si retired General Villanueva na meron daw isang former chief PNP receiving monthly payroll from you. Puwede bang malaman kung sino itong former chief PNP? I am concerned because I am a former chief PNP, baka mamaya may lalabas na script diyan na si Bato tumatanggap ng pera galing sa iyo.” (Retired General Villanueva earlier said that a former PNP chief received monthly payroll from you. Can I know who this former chief PNP is? I am concerned because I am a former chief PNP and a script might come out claiming that Bato gets money from you.) Guo said, “ Wala pong ganoong nangyayari (Nothing of that sort is happening).” Dela Rosa also asked Guo whether they had ever met or even just crossed paths in a mall, and Guo said the first time she saw Dela Rosa in person was when she appeared at the Senate hearings. Dela Rosa also asked Pagcor official Villanueva, to which the latter replied, “I don’t have any confirmation but I’m sure you’re not the one, I think.” – Mia M. Gonzalez/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Philippine National Police,POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>LIVESTREAM: Senate hearing on Alice Guo, POGOs</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/video-senate-hearing-alice-guo-pogo-ties-september-17-2024/</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45552.02701388889</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – The Senate committee on women, children, family relations and gender equality and the committee on migrant workers on Tuesday, September 17, resumes its hearing on the fake identity of dismissed mayor Alice Guo of Bamban, Tarlac and her ties to illegal Philippine offshore gaming operators or POGOs in Central Luzon. During the last hearing on September 9, the Senate panel again cited Guo in contempt for refusing to answer many of the lawmakers’ questions and for testifying falsely. Watch the Senate hearing live at 9 am on the Rappler website or head over to its Facebook and YouTube channels. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Alice Guo,Central Luzon,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Harry Roque's wealth increase puts him in POGO probe hot list</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/harry-roque-wealth-increase-pogo-investigation-hot-list/</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>45551.47527777778</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. PRESIDENTIAL SPOKESPERSON. A file photo of Rodrigo Duterte's former presidential spokesperson Harry Roque at a press briefing in Malacanang on April 20, 2018. Malaca/ñang On January 15, 2024, Harry Roque’s wife Mylah signed a lease contract with a Chinese woman named Yun Wan, for a family property — a house — in Tuba, Benguet. According to Roque, former presidential spokesperson to Duterte under whose term POGOs (or Philippine offshore gaming operators) were invented, Yun Wan had been persistent in wanting to rent that house. Roque said he liked to use that house during the holidays, so he adamantly resisted at first. He gave in eventually. Six months after, a Chinese fugitive was caught living inside that house. Sun Liming, whom Roque said was Yun Wan’s boyfriend/partner, is a red-notice fugitive wanted in China for defrauding 180,000 victims a total of CNY1.6 billion (P12 billion) through an investment scam via internet network marketing. Sun Liming would be identified iny the House quad committee hearings as an “IT employee for Lucky South” or the POGO in Porac, Pampanga. This detail came out of interrogation when Sun Liming was caught in Tuba, according to Rappler’s sources. This put Roque in the radar of the POGO investigations, even more than he already was, after the Presidential Anti-Organized Crime Commission (PAOCC) discovered that his former executive assistant in the Palace, student pilot AR dela Serna, lived for a while in the premises of the Lucky South 99 POGO compound, a raided scam hub that revealed traces of trafficking and torture, in Porac, Pampanga. Dela Serna had since revealed that it was the Roque connection that earned him rent-free stay there, and that he and Roque had a joint bank account. Roque is now on the hot list of the House of Representatives quad committee, so much so that the lower house, in conjunction with the police, is searching for him to enforce an arrest warrant for contempt. He has been ordered detained at the House. The quad committee consists of the committees on dangerous drugs, public accounts, public order and safety, and human rights. “Philippine National Police personnel are helping the House Sergeant At Arms staff in looking for Atty. Roque, 24/7,” House Secretary General Reginald Velasco told Rappler on Monday, September 16. Roque had said he would go to the Supreme Court to fight this warrant, telling reporters on September 12: “I will file the corresponding remedy at the Supreme Court malapit na (soon). Ipapaubaya ko na ang aking kalayaan sa ating hudikatura (I leave my freedom up to the hands of the judiciary).” The Tuba home is owned by one of Roque’s companies called PH2LOT37 Pinewood Holdings Inc., which in turn, is owned by Biancham Holdings and Tradings Inc, named after Roque’s children. Roque and his wife incorporated the two companies with not so much capital — only P125,300 for Biancham in 2014, and P1 million for PH2 in 2015. The other three incorporators were nominal shareholders, put there just to comply with the old rule that there should be five shareholders, Roque had confirmed to the House. The two companies had minimal activities, and its finances were just playing within the range of P1 million to P2 million, until 2018 when both PH2 and Biancham suddenly had more than P10 million in cash flow, according to the companies’ audited financial statements obtained by Rappler. In 2017, PH2 only had P745,000 in cash, and Biancham only had P1.5 million. Biancham amended its incorporation articles in 2017. Originally just a company to own, operate, and have interests in trading and merchandising of construction equipment, it became in 2017, mainly a holding company engaged in the investments of “any and all real and personal properties.” The following year, or in 2018, PH2 had a P16-million cash flow, and Biancham had a P125-million cash flow. By the end of 2018, PH2 had P1 million cash left, and Biancham had P67 million cash left. All of these contributed to Roque’s wealth, so that by 2020, he had a total net worth of P119.9 million, according to his Statement of Assets, Liabilities, and Net Worth (SALN) that year. This was based on a copy of his SALN on file. That amount represents a 21% increase from his P98.87 million net worth in 2017 when he joined the Duterte government as presidential spokesperson, based on his SALN for that year. (The Duterte government, aided by a circular from Ombudsman Samuel Martires, would later severely restrict media access to SALNs — a practice that the Marcos government has adopted.) This period in Roque’s wealth growth coincides with the rise of POGOs, beginning in September 2016 when it was invented by the Duterte government, and until 2019 when the Anti-Money Laundering Council (AMLC) noticed a spike in suspicious transactions from casino syndicates. POGOs would again thrive after a pause in 2019 caused by public scrutiny that year. The “circumstantial evidence” has raised alarm bells for the House quad comm. “Let the quad verify kung saan nanggaling ang mga perang ito (where this money came from),” said Batangas 2nd District Representative Gerville Luistro during the August 22 hearing of the House. Roque told Luistro that this was due to a sale of a family property in Multinational Village in Parañaque City, a subdivision where residents have already complained about their suspicions that their neighborhood had become a gambling village run by Chinese. Roque said this was a 1.8-hectare property that they sold for roughly P216 million “to the Velarde group, in turn the Velarde group swapped it to the SM group and our 1.8 hectares now is where the SM warehouse is located,” he told the quad comm. Roque said he further invested the proceeds in a company called First Bataan. “I will show a copy of the deed of sale to show that the money that we used to acquire the property in Bataan was legitimately sourced, and not coming from POGO,” Roque said on August 22. Roque promised to provide the quad comm not only that deed of sale, but also his SALNs since he was a party-list representative. He also agreed on August 22 to provide other company records. But he did not — and neither did he attend succeeding hearings, too, leading to a second contempt citation on September 12, that came with a detention order at the House premises. This is until he complies with the subpoena of his documents, or until the quad comm investigation ends. Roque is part of the POGO multiverse on account of his lawyering for the Whirlwind real estate company, the firm that leased its compound to the Lucky South 99 POGO in Porac. But Roque’s counsel was not limited to just handling the ejectment case against Whirlwind, as he helped set up meetings with the Philippine Amusement and Gaming Corporation (Pagcor) so Lucky South 99 could renew its offshore gaming licenses. Rappler checked with Pagcor if either PH2 or Biancham ever obtained any POGO license. Its Offshore Gaming Licensing Department (OGLD) told us there were none on their records. “We have established overwhelming circumstantial evidence showing the connection of Atty. Harry Roque to Lucky South 99 corporation which is a POGO operator which we have apprehended for…. human trafficking, murder, and internet scam,” said Luistro. The quad committee is interested to follow the money trail, noting that in 2020, Roque transferred his entire P12 million worth of shares in Biancham to Percival Ortega. Luistro wanted to check whether Ortega was a dummy, or if the necessary taxes were paid for the transfer of those shares, either by sale or by assignment. Roque explained that Ortega is a trusted law associate “who knows my aunt, who knows my siblings, and who knows me.” The aunt, Roque said, owns the estate and in the process of reorganizing family assets, including splitting proceeds among siblings, they decided to assign Ortega as a trustee. “ Kung sila ay nagsasabi na tumanggap ako ng pera sa POGO, sila ang mag-presenta ng ebidensiya. Mula’t mula, ang gusto nila ay ipakulong ako ,” Roque said on September 12. (If they say that I received money from a POGO, they should present evidence. From the start, they wanted to detain me.) Roque claims that the quad comm is just bent on “destroying” him as a Duterte ally. The quad comm is the convergence of four committees investigating extrajudicial killings under Duterte, POGOs, drug trade, and Chinese criminal gangs. “Kung sa tingin nila ay may nilabag akong batas, hindi Kongreso ang venue para diyan (If they think I violated a law, Congress is not the venue for that),” said Roque, who actively participated in the House hearings in 2016 that eventually sent Leila de Lima to jail for drug charges which have now all been junked . Roque became Duterte’s spokesperson after playing an active role in that House investigation. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>House of Representatives,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>From Pampanga to Cebu: How foreigners hid POGO hub and nearly got away with it</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/pampanga-cebu-how-foreigners-hid-pogo-hub/</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>45551.29027777778</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. A rescue operation on August 31 was all it took for state operatives to unmask a hotel compound as an illegal Philippine offshore gaming operator (POGO) hub — but before that could happen, two Indonesians needed to escape. On July 24, Mandaue City police rescued the two at Mango Green Village, along A.S. Fortuna Street. On the same day, the Mandaue City Prosecutor’s Office requested the National Bureau of Investigation (NBI) to take custody of the two Indonesians who filed slight illegal detention complaints against a Chinese national and his Filipina wife. “[The City Prosecutor’s Office] hinted at the possibility that these Indonesian nationals are possible victims of trafficking so, guided by that statement, we conducted further investigation…we were able to establish that they were victims of trafficking,” Arnel Pura, agent-in-charge of the NBI Cebu District Office, told reporters on September 3. On July 31, NBI National Director Jaime Santiago received a letter from the Indonesian embassy, urging the bureau to probe into reports of at least 40 Indonesians being forced to work as scammers. NBI agents, in a joint judicial affidavit of arrest dated September 3, revealed that the two Indonesians came from a POGO hub in Pampanga which was raided on June 4. The Indonesians eventually transferred to Cebu on June 8, together with 12 Chinese bosses who continued their operations at the LMSK Building, in Barangay Mabolo, Cebu City. “[The Indonesians] are trafficked persons for they have been recruited from Indonesia to work as Customer Care Representatives (CCR) here in the Philippines. Unfortunately, they ended up in a POGO hub named Xin Tian Di Gou Ji Group in Clark, Angeles City in Pampanga,” NBI personnel Agapito Gierran and Bienvenido Panican said in the affidavit. The NBI agents added that the Indonesians were being deprived of liberty, kept under guarded security and had their travel documents kept by their employer. “On June 24, the illegal operation again transferred to another location, particularly in a four-storey building located at No. 23, Mango Green [Village] Subdivision, A.S. Fortuna Street, Mandaue City,” the affidavit read. Based on a separate affidavit from one of the Cebu POGO hub administrators dated September 2, a certain Alona Capil Bautista, their scamming operations originated from Lucky South 99 in Porac, Pampanga. Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio also confirmed that the operations were from Lucky South 99 on a TeleRadyo Serbisyo radio program on September 4. Bautista, who was a resident of Tarlac City, started as an administrator of Lucky South 99 on April 23, 2024. The administrator was tasked with buying provisions and other needs of the foreigners who belonged to her “team.” According to Bautista, she bought the personal needs of the hired foreigners because they were not allowed to leave the premises of Lucky South 99 due to a restriction imposed by their head administrator, Thwe Thwe San. While in Porac, the administrator learned that the name of the manager of the company was a certain Jojo, with the Chinese name “Xiao Long,” according to what she heard. Bautista claimed that Xiao Long had other partners named Barbatos, DZ, Ba Hao, and Feayang. On September 3, NBI operatives identified Xiao Long as the Chinese Zhao Long — one of the heads of the Cebu POGO hub. Bautista said that they moved to Cebu in June after their previous workplace was raided on June 3. “Just before the raid of my previous workplace in Porac, our employer received a tip of the impending raid and so we were hurriedly brought to a hotel where we stayed for five days,” the administrator’s affidavit read. According to Bautista, her team leader, Jordan, promised to pay her a salary if she agreed to come with other members of her team to Cebu. At least 20 of them took a Philippine Airlines flight together on the evening of either June 8 or 9 from Pampanga to Cebu. Jordan is the nickname of Chinese Ron Mou Ke, who was included in the list of 16 foreigners being sued for qualified trafficking, according to the NBI. Also included in the list is Thwe Thwe San and Zhao Long. “Upon arrival in Cebu, we were brought to the LMSK Building in Mabolo, Cebu City where the other workers (members of another team) were also brought. At first, there were about 200 workers brought to Cebu from Porac. We stayed there for about three weeks,” Bautista said. After five days, the team worked on the fifth floor of the LMSK building from 11 am to 11 pm daily, using phones that were given to them back in Porac. Three weeks later, Bautista narrated, the company’s operations transferred to Mango Green Village in Mandaue City. After another two weeks, the workers transferred to another residential building near Pacha De Mactan in Barangay Soong, Lapu-Lapu City. “When the bosses learned about the raid in Mango Green Village on [July 22], the non-Filipino workers were transferred to another place near Robinsons Galleria in Cebu City. We [Filipino workers] were left in Pacha De Mactan,” Bautista said. The administrator confirmed that the foreign workers were transferred to the Tourist Garden Hotel in Barangay Agus, Lapu-Lapu City, on August 2. On August 29, NBI operatives conducted a surveillance operation inside the hotel and confirmed the identities of several Indonesian and Chinese citizens. On August 31, armed with a mission order, agents from the Philippine Anti-Organized Crime Commission (PAOCC), Bureau of Immigration (BI), and NBI conducted a rescue operation at both House No. 808 and the Tourist Garden Hotel. While they found no illegal activity at the residential building in Barangay Soong, Lapu-Lapu City, operatives discovered 169 foreigners conducting love scams and cryptocurrency scams at the Tourist Garden Hotel. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Cebu,Central Visayas,National Bureau of Investigation,Pampanga</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>How suspected POGO elements end up in your backyard</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/investigative/how-suspected-pogo-elements-end-up-your-backyard/</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45550.10416666666</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. PROTEST. Residents of the posh Ayala Alabang Village in Muntinlupa City hold a motorcade on July 13, 2024, and hang tarpaulins with the message: “NO POGO, BODYGUARDS, GAMBLING, to protest the presence of POGO elements in their subdivision. Rappler Boying Soriano has lived in Ayala Alabang Village (AAV) since 1981. “My children and my grandchildren grew up here.” He said he does not really concern himself with what’s happening inside the exclusive enclave — with nearly 5,000 households and is its own barangay. But a growing crime problem prompted him to speak up. “We just cannot sit on the fence because this is a serious matter that is affecting our village,” Soriano said. “If we don’t take our village back, then it’s all our fault. We had to take responsibility for what is happening.” AAV is home to big names in the entertainment industry, business, and politics. However, residents have recently been complaining that their village’s peace and safety have been compromised after Chinese nationals with suspected POGO ties began to settle there. About 25 kilometers away in neighboring Parañaque City, residents in Multinational Village also complain of the same problem : Some houses in their subdivision have likewise become havens for illegal gambling, and a portion of their village has been transformed into a little Chinatown . While some have viewed POGOs or Philippine offshore gaming operators as favorable for the country’s economy , contributing P104.5 billion at their peak in 2019 , this came at great cost — one shouldered by private citizens. Two weeks before President Ferdinand Marcos Jr.’s third State of the Nation Address, where he announced a surprise ban on POGOs , AAV residents organized a motorcade against neighbors who they suspect have connections to online gambling and other illegal activities. They stick out like a sore thumb, residents and the barangay said. Houses being monitored have banners with Chinese characters and red lanterns, with golf carts — said to be used for transporting security and house help or suspected sex workers in the wee hours of the day — parked just right outside on the street. And in the posh village, there are now stories of kidnapping and robbery incidents. Several Chinese nationals were arrested in 2023 after authorities raided a house along Guava Street and found illegal firearms and gambling paraphernalia. Meanwhile, on May 18, two policemen were caught moonlighting as private bodyguards of Chinese nationals residing along Balayan Street. The two, who were assigned to the 52nd and 55th PNP-Special Action Force, were arrested after they got into a fistfight inside the village, and the house photographed in the incident has now been listed for rent . In a letter written by Muntinlupa Mayor Ruffy Biazon to concerned residents, he noted that “these unwanted incidents concerning foreign nationals are confined to AAV.” He said the city has long phased out POGOs and only has one operating as of July 3. “It supports what I have been believing even before I became mayor that a combination of conditions inside the village have led to it being an attractive haven for foreign nationals whose behavior runs contrary to peace, tranquility, and safety that long-time residents have been used to,” Biazon said. The exclusivity of the Ayala Alabang village is reflected in the prices of its homes. In Lamudi Philippines, a four-bedroom house listed for rent costs P250,000 a month . Yet the suspected POGO elements paid for much more — in cold, hard cash. Rates would go for around P100,000 per bedroom, which means renting a five-bedroom house would have interested tenants shelling out P500,000 a month. This is similar to rental rates in Multinational Village at the peak of POGO operations. “If you are an owner of a property and you’re an empty nester, you’ll really be tempted,” Soriano said. After the houses would get leased, neighbors of the newcomers would notice that there would be a number of people going in and out of the house, on top of increased noise due to parties. “The problem was, the houses were initially rented out by a legal family unit only and then after a few months, it was turned into a staff house. That means 40, 50 people were in there,” Ayala Alabang barangay chairman Lester Suntay said. The barangay was able to create a system in collaboration with the homeowners association (HOA), which included introducing more stringent policies for lease contracts and conducting “surprise visits.” “What they did naman … they rented more houses,” Suntay said, saying they would leaase around 6 or 7 more homes. Authorities would point out the number of people in a house whenever they conduct their surprise visits, but those caught would just defend themselves by saying they live next door. AAV is currently monitoring 160 to 170 houses with reports of suspicious activity. In a town hall meeting, Suntay said 64 of these will have their leases expire by the end of 2024, while others will have leases expiring 2025 onwards. However, AAV’s problem does not end with the leases. “There are also about 19 houses that have been constructed or are being constructed by dummy corporations, which we think are being financed by Chinese money,” said Jun Gil, another concerned AAV resident. However, the barangay has noted that these developments are just allegations for now. “It’s really hard to prove,” Suntay said. “I’m hoping that the national agencies [would be] the ones who would push for looking at them, if they really are dummy or not.” There are 16 corporations said to be monitored by the village homeowners association after they bought AAV properties in the past two years. Meanwhile, another informed source provided an expanded list of alleged Chinese-owned companies that bought properties, which include five more corporations. The companies bought properties that are either on the same street or are near each other. According to the Securities and Exchange Commission documents obtained by Rappler, incorporators of the companies form a mix of Chinese and Filipino nationalities. Meanwhile, Multinational Village Homeowners’ Association Inc. (MVHAI)pPresident Julio Templonuevo said there are around 30 to 40 houses in their village that are also owned by corporations. It is not clear whether the individuals named in the documents are legitimate — especially after the Senate investigation on POGOs that led to the dismissal of Bamban mayor Alice Guo . One of the incorporators of the raided POGOs in Tarlac recently claimed that she and three other women got their identities stolen for the company’s official documents. If in AAV, residents, their HOA, and the barangay are working together, residents of Multinational Village are facing another battle, aside from the reported POGO infestation in their subdivision. Their POGO problem is a story similar to AAV — some houses built to be a family home are reportedly occupied by around 30 to 50 people. In a Senate probe in March 2020, residents said there were instances where electric cables would blow up because they could not handle the requirements of whatever the houses with suspicious activities were doing. There were also tenement houses being built inside the village, contrary to Multinational’s R1 classification that requires structures to be for single-family dwellings only. Multinational residents blame the deterioration of their village on the previous officers of their HOA. The two groups are in a bitter battle over the right to lead their village. “ During the time of Mr. [Arnel] Gacutan, pinayagan [‘yung suspected POGOs], so maraming nagparenta ng bahay. Ang rentahan nun, P500,000 a month ,” Templonuevo said in a Kapihan press conference on September 4 . (During the time of Mr. Arnel Gacutan, they allowed suspected POGOs, so there were a lot of people who allowed their houses to be rented out. The rates then stood at P500,000 a month.) Now, rental rates are at around P200,000 to P300,000 per month in Multinational Village. (READ: How China’s online gambling addiction is reshaping Manila ) “The old board was very tolerant. They looked the other way,” Gilbert Alcasid, a concerned Multinational Village resident told Rappler. In a July 6 MVHAI resolution that Rappler obtained, the association under Templonuevo’s leadership expelled Gacutan from the village HOA, given how he led it during his tenure. Multinational residents also pointed out that he “illegally” constructed a firing range inside the village without consultation and approval of majority of the association members. The firing range was mentioned in the 2020 Senate probe , where residents wondered and implied that it was built to cater to the uniformed Chinese: “ Baka nga mga ano ito, mga military (They say these might be from their military).” Meanwhile, in June 2020, the NBI raided a house in Multinational that was operating an underground hospital at the height of the COVID-19 pandemic. Most of its patients were POGO workers . Templonuevo said there are currently around 12,000 POGO workers in the village, most of whom are Chinese and Vietnamese. But after Marcos made the announcement of a full POGO ban come December, the HOA chief noted that some of the houses have already abandoned their make-shift staff houses in the village. Those with suspected ties to POGOs or illegal gambling can pay their way for access and take advantage of some who are in need. For instance, in AAV, the alleged POGO elements bribed their way into getting past some of the village rules. Identification cards given to bonafide residents of Ayala Alabang could be bought, therefore, legitimizing the extra undeclared people housed in their rentals. “Prior to the new admin of the village and the barangay, they can even buy IDs. They were able to corrupt the village association…. that’s why, [when] the new administration stepped in, there were a lot of employees who were fired,” Soriano said. Suntay said those removed were compromised heads of security in the village, employees from the architectural department who would approve house plans despite blatant violations of village rules, among others. He pointed out that the involvement of residents has helped clear and fix a few issues in the village so far. Meanwhile, in Multinational Village, some Filipinos who, residents suspect, are being used as fronts — and named by alleged criminal groups to be able to buy homes in the country — have been caught violating village rules. Alcasid recalled an incident with a Filipino who was the signatory of a P250,000-lease-contract despite being “merely” a company employee. “He cannot even afford to pay the fine of P15,000 for driving under the influence and overspeeding inside the village,” Alcasid said. “I told him, ‘If you want to sue us, I have the contract — it specifies that you are the one who actually leased the house and you’re paying the owner of the house P250,000’ and… he cannot even tell us what his source of income is.” It remains to be seen whether these groups would really be out of the country before the year ends, especially since the government plans to cancel their work visas by October . In a GMA News interview , Presidential Anti-Organized Crime Commission spokesman Winston Casio said the government agency is now monitoring areas in the south of Metro Manila, including the cities of Muntinlupa and Parañaque, as this is where the POGO workers went after authorities raided their POGO complex in Porac, Pampanga . “[Maybe] it has something to do with the proximity to the airport, proximity to the hotels and casinos,” Casio said. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>gambling,organized crime</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Rappler Talk: Franklin Drilon on Alice Guo, probe into POGOs</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/rappler-talk/interview-franklin-drilon-alice-guo-probe-pogos/</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>45549.51070601852</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – The Congress is leading the probe into illegal Philippine offshore gaming operators (POGO) , which has so far yielded complaints and cases filed against players like dismissed Bamban, Tarlac mayor Alice Guo . But as the Senate and House of Representatives continue the crackdown on these illegal businesses, more and more complications come into light. For example, there was contention on the jurisdiction of Guo’s graft case filed by the Office of the Ombudsman. Some argued that it should have been under the Sandiganbayan, while others believed it should be with the Regional Trial Court but not within Tarlac. In this episode of Rappler Talk , justice reporter Jairo Bolledo speaks with former Senate president and justice secretary Franklin Drilon to discuss how the government has been handling the POGO crackdown. Bookmark this page to watch the episode at 8 pm on Saturday, September 14. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Alice Guo,Congress of the Philippines,Franklin Drilon,House of Representatives,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[CLOSER LOOK] Strong law, corrupt system: How crime groups skirt money-laundering safeguards</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/closer-look-strong-law-corrupt-system-money-laundering-philippines/</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>45549.20833333334</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Nico Villarete The Anti-Money Laundering Council’s (AMLC) appeal for new legislation to strengthen the crackdown on money launderers ignores the elephant at the center of current legislative investigations. At the September 5 Senate hearing into Philippine offshore gaming operators (POGOs), AMLC Investigation and Enforcement Department Deputy Director Adrian Arpon said lifting the predicate-offense requirement for freeze order applications would hasten investigation and forfeiture proceedings. First things first: Republic Act No. 10365 , signed by then-president Benigno Aquino III on February 15, 2013, already strengthened RA 9160 or the Anti-Money Laundering Act of 2001. The new law increased anti-money laundering predicate offenses from 14 to 34. It expanded reporting entities. These reforms helped the country get out of the gray list in 2013. The country’s latest inclusion in the gray list came in 2022, following a POGO boom under then-president Rodrigo Duterte. Wrong diagnosis, wrong prescription: It’s not the predicate-offense requirement that hobbles money-laundering efforts. The culprit is the inky vortex where law enforcement and regulatory actions intersect with crime. Dismissed Bamban, Tarlac mayor Alice Guo started acquiring land in 2019 for the 36-building Baufu POGO complex. The AMLC did not go after her and others linked to global internet fraud, human trafficking, and the narcotics trade until the Presidential Anti-Organized Crime Council (PAOCC) raised the complex in March 2024 and the Senate investigation. Law enforcers in June filed qualified trafficking complaints against Guo and 13 others. The Court of Appeals then issued of a freeze order on her assets, as well as those owned by six others, including Chinese national Hongjiang Yang, brother of Duterte’s economic advisor Michael Yang. These developments prompted Guo to flee the country. On August 30, the AMLC, PAOCC, and the National Bureau of Investigation (NBI) filed money laundering complaints against Guo and 34 other individuals, including Cassandra Ong of the Lucky South 999 POGO in Porac, Pampanga. Guo sent hundreds of millions of pesos to family-owned QJJ Farm and QJJ Generics. These companies, in turn, used the money to pay for the power bills and other expenses of HongSheng Gaming Technology and its successor, Zun Yuan Technology. Rappler reports that in July 2020, QJJ Farm deposited P100 million to Baufu in just two days. Even split into 10 transactions, each deposit far exceeded the law’s P500,000 reporting threshold for banks and other covered institutions. The money flow from 2020 to 2024 also shows Guo did not divest from POGO-linked interests before, during, or after her successful 2022 mayoral run. The complaint represents a small part of  a huge money-laundering web, covering at least P7 billion, the Baufu complex’s estimated cost of construction. A four-committee probe at the House of Representatives estimates that Guo shuffled almost P30 billion worth of funds. Arpon says chasing after money-launderers is hard because the AMLC needs to establish that funds come from illegal sources and activities, and that subjects must have knowledge of this. Dropping the predicate-offense requirement would take away a safeguard aimed at protecting persons and corporations from, say, politically-motivated prosecution. Administration after administration have told citizens to accept draconian measures. Again and again, we are told these bitter pills are good for us. But we’ve seen the anti-cyber crime law used for political persecution and personal revenge. We’ve seen the military resort to anti-terror designations or anti-terror financing cases when courts dismiss trumped-up charges against activists. We’ve seen other methods of lawfare aimed at the demise of enemies of the powers-that-be. In the case of the POGOs, blame should be placed on negligence or collusion by government and private sector frontliners. Consider: There has been only one suspicious transaction report on Guo and her companies, in 2019, involving a land sale. That hints that banks handling the accounts Guo may have been remiss in their reporting duties. The lone suspicion transaction report on Guo languished in an intelligence wasteland. AMLC has a Financial Intelligence Unit (FIU) that receives and examines suspicious transaction reports and other information related to money-laundering, and works with members of the interagency Financial Action Task Force. The law mandates coordination among financial and securities bodies, law enforcement units, the military (for anti-terror financing, especially), and other agencies tasked to monitor and stop the crimes that fuel money-laundering. Had these agencies fulfilled their mandates, the AMLC could have confronted non-compliant banks. Then there’s the Philippine Amusement and Gaming Corporation (Pagcor). In 2020, Pagcor issued a Casino AML risk-rating system to help spot early warning signals, including inefficient boards and supervisors, and weak internal controls and audit. Its duties include physical checks on POGO premises and auditing  financial reports. It should have tracked the monies from QJJ Farm and QJJ Genetics, which are not registered service providers for POGOs. That would have led to Guo, Baufu’s representative in its 2020 application for a Letter of No Objection (LONO). Police raided HongSheng in February 2023 for operating a cryptocurrency investment scam. Instead of taking a forensics dive into the POGO’s books, PAGCOR gave a provisional license for Zun Yuan — still HongSheng in everything but name — until the March 13, 2024 raid. The Senate and House hearings feature a monstrous Gordian Knot of crime, with top law enforcers and elected politicians peeking out of every fold. Drug money built the POGOs, which laundered funds and provided new infrastructure for narcotics kingpins. Police served as security escorts and enforcers. Lawmakers say PNP units reported only a fraction of seized drugs. They disbursed a portion to fund rewards. The bulk found their way back to the streets or to warehouses in fortresses guarded from prying eyes If the government and citizens want to stop money laundering, the first step is ensuring the use of existing accountability mechanisms — and there are many — against the lords of this land. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Anti-Money Laundering Council,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>DOJ indicts Alice Guo for trafficking</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/doj-indicts-alice-guo-trafficking/</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>45548.48302083334</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. GUO. Dismissed Bamban, Tarlac mayor Alice Guo attends the Senate public hearing on human trafficking, cyber crimes, and other related abuses in connection with POGO operations, on September 9, 2024. Angie de Silva/Rappler MANILA, Philippines – The prosecutors handling dismissed Bamban, Tarlac mayor Alice Guo’s trafficking complaint have indicted her, the Department of Justice (DOJ) confirmed on Friday, September 13. “ Sa simpleng sabi na lang, ang hatol sa preliminary investigation laban kay [dismissed] mayor Guo ay may finding na may prima facie evidence for qualified trafficking in persons. At lumabas na ‘yong information at ipa-file namin next week sa korte ‘yong information na ito ,” DOJ Undersecretary Felix Nicholas Ty said in a press conference. (In simple words, the preliminary investigation into dismissed mayor Guo found that there’s prima facie evidence for qualified trafficking in persons. The information is already out, and we will file this information with the court next week.) Qualified trafficking is non-bailable and usually carries the penalty of life imprisonment. Ty explained that under the latest amendment of the anti-trafficking law, specifically section 4(l), organizing an establishment engaged in human trafficking is punishable: “ Doon talaga nadawit si [dismissed] mayor Guo at sa mga ibang co-respondent niya…. Kung mapakita na ikaw ang nag-organize ng isang negosyo na may madaming ganap na human trafficking, maaari kang kasuha n.” (This is where dismissed mayor Guo and her co-respondents were implicated. If it were proven that you organized a business where human trafficking cases happened, you could be charged.) The DOJ official in charge of the Inter-Agency Council Against Trafficking added that cases will also be filed against alleged POGO bosses Zhang Ruijin and Lin Baoying, and Dennis Cunanan, a former government official convicted in the pork barrel scam. “We have not yet received the DOJ resolution regarding this. Our comment is, this is totally unexpected because, if you read the complaint in all of the cases in the DOJ, there is absolutely no evidence that Dennis is a conspirator in any conspiracy,” Je Clerigo, Cunanan’s lawyer, said. The Presidential Anti-Organized Crime Commission and the Philippine National Police (PNP) filed the trafficking complaint against Guo and 13 others back in June over their ties with a Bamban Philippine offshore gaming operator (POGO). Guo was specifically implicated due to her incorporation of a leasing company called Baofu, which rented its spaces out to a POGO called HongSheng/Zun Yuan. Evidence of torture and trafficking had been found at the POGO. The dismissed mayor is currently detained at the PNP Custodial Center after a Tarlac court issued an arrest warrant against her in relation to the graft case filed by the interior department. Prior to the warrant, Guo flew from the Philippines and authorities only announced her escape after Senator Risa Hontiveros revealed that the dismissed mayor had already left the country in July. The PNP failed to catch her for nearly two months, or after the Senate ordered her arrest for snubbing the upper chamber’s hearings on POGOs. Guo was arrested in Indonesia and was deported back to the Philippines on September 6 and has been in the PNP custody since then. Aside from trafficking and graft, Guo also faces two criminal investigations at the Department of Justice for tax evasion , and another one for money laundering . These are all related to her alleged ties with the Bamban POGO. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Department of Justice,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FACT CHECK: Bong Go 'against' POGOs, but previously supported their operations in PH</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/fact-check/bong-go-previously-supported-pogos-now-against-operations/</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>45548.47100694444</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Claim: Senator Bong Go is against Philippine offshore gaming operators (POGOs). Why we fact-checked this: The X (formerly Twitter) post has garnered over 415 likes, 1,500 reposts and quotes, 1,200 replies, and 1.4 million views, as of writing. The senator posted the claim on his personal X account on September 9. The post says, “ Ako po mismo noon pa against po ako sa POGO pag-apektado na po ang peace and order. For the record, ayaw ko talaga ng POGO. ” (Even before, I was against POGOs when peace and order is already affected. For the record, I really don’t like POGOs.) Go also made the claim during the hearing on illegal POGO activities led by the Senate committee on women, children, family relations, and gender equality on Monday, September 9. The facts: While Go backed the Marcos administration’s move last July to ban POGOs , the senator has previously expressed support for POGOs and is alleged to have ties to POGO money during the bloody war on drugs of former president Rodrigo Duterte. Voted in favor: Go was one of 17 senators who voted in favor of Republic Act No. 11590 , the law taxing POGO operations . It was signed into law by the Duterte administration on September 22, 2021. Only Senator Risa Hontiveros and then-senators Francis “Kiko” Pangilinan and Frank Drilon opposed the measure. POGOs are online gambling companies based in the Philippines that offer services to customers abroad, particularly Chinese clients. These firms are licensed and regulated by the Philippine Amusement and Gaming Corporation (PAGCOR) to operate legally. While deemed to be beneficial to the country’s economy, POGOs are infamously linked to various crimes , including human trafficking, prostitution, money laundering, and tax evasion. Did not sign to phase out: In March 2023, Senator Sherwin Gatchalian, who heads the Senate committee on ways and means, urged the Marcos administration to ban POGOs to help maintain peace and order. In his chairman’s report, Gatchalian cited the risks of POGOs’ continued operations in the Philippines. (READ: [The Slingshot] Rodrigo Duterte created the POGO crimes and Alice Guo ) In September 2023, the Senate panel officially filed the recommendation through Committee Report No. 136 to recommend the immediate expulsion of POGOs. Gatchalian and nine other senators signed the report. Go was not among the signatories. Go on POGO during Marcos admin: In his third State of the Nation Address on July 22, President Ferdinand Marcos Jr. announced the complete ban on POGOs and instructed PAGCOR to cease POGO operations by the end of 2024. (READ: Which POGOs are affected by Marcos’ ban? ) Two days after Marcos’ announcement, Go issued a press release expressing his support for the POGO ban. The senator acknowledged the significant revenue and job contributions of the POGO industry, but said Filipinos’ security must be prioritized. He also said the administration should “ not be selective ” with the POGO ban. Alleged ties to POGO cash rewards: During a House mega panel hearing on August 28, Police Lieutenant Colonel Jovie Espenido named Go as a channel of the alleged P20,000 cash reward per kill given to cops under Duterte’s drug war. This money was allegedly sourced from POGOs and small town lotteries. Go denounced Espenido’s testimony as malicious and slanderous, asserting that he never managed any funds associated with the drug war and with POGOs. – Mariamne Yasmin Yap/Rappler.com Keep us aware of suspicious Facebook pages, groups, accounts, websites, articles, or photos in your network by contacting us at factcheck@rappler.com. Let us battle disinformation one Fact Check at a time. Mariamne Yasmin Yap is a Rappler volunteer. She is a third year journalism student at the University of Santo Tomas. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Bong Go,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Harry Roque to be detained in House again | The wRap</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/september-12-2024/</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>45547.59791666667</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: The House quad committee orders the detention of former presidential spokesperson Harry Roque Thursday, September 12 over contempt charges for failing to comply with the panel’s subpoena. Dismissed Bamban Mayor Alice Guo insists on the validity of her candidacy in the 2022 elections. The House appropriations committee recommends reducing the proposed 2025 budget of the Office of the Vice President to P733 million from the original request of P2 billion. Jeonghan of K-pop boy group SEVENTEEN will be starting his military service on September 26. Donald Trump responds to Taylor Swift’s disclosure that she will vote for the Harris-Walz ticket, saying ‘she’ll probably pay a price for it in the marketplace.’ Pop megastar Taylor Swift takes home seven trophies at MTV’s Video Music Awards. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Alice Guo,House of Representatives,k-pop,music awards,United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>POGO ban not end of the road for gaming operators</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/business/pogo-ban-not-end-road-gaming-operators/</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>45547.35040509259</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MANILA, Philippines – With the executive order banning Philippine offshore gaming operators (POGO) set to come out soon, it’s not yet clear which parts of the country’s multibillion gaming industry will be affected, though regulators are hopeful that e-gaming and support sectors will continue operating. Gilbert Cruz, chief of the Presidential Anti-Organized Crime Commission (PAOCC), said that the Executive Order (EO) banning POGOs will be announced in the next two weeks. Cruz said that the definitions and broad concepts of what will be banned are already in the draft, but details on the implementation are still being finalized. “After the drafting of the executive order, we’ll be calling for a technical working group, and that’s to include Pagcor [Philippine Amusement and Gaming Corporation] and other agencies, just to make sure na everything na kailangan sa (everything needed in the) executive order will be touched,” Cruz said in a Senate committee hearing chaired by Senator Sherwin Gatchalian. Although it’s clear that the ban announced by President Ferdinand Marcos Jr. will end the operations of POGOs and internet gaming licensees (IGL), it’s not yet certain whether that ban extends to other related sectors in the gaming industry that employ around 10,000 Filipinos. Currently, the gaming industry includes: All POGOs and IGLs will be ordered to wind down operations by the end of 2024, following Marcos’ directive. These are the offshore gaming operators which have acquired a negative reputation for engaging in scamming, human trafficking, and other illegal activities. (READ: Making sense of the Alice Guo enterprise ) SCBPOs, like the name suggests, are companies that act as BPOs for gaming companies abroad. Pagcor chairman Alejandro Tengco said in the Senate hearing that SCBPOs must submit their contracts with the offshore gaming companies they service before obtaining a license. “They do not accept any form of bets. The main thing that they do is serve as backroom operations of big, legitimate gaming companies based all over the world,” Tengco said. Tengco said that under his administration, 14 to 16 licenses have been given to these SCBPOs, which all serve overseas gaming companies. As of August 31, these companies employed a total of 5,038 workers, with 4,901 being Filipinos and 137 being foreign nationals. Asked whether the executive order will include a ban on the special class of BPOs, Tengco declined to comment, stating that he did not want to preempt the executive order. Aside from the SCBPOs, some companies which support gaming operators have also set up shop in areas managed by investment promotion agencies. For example, the Cagayan Economic Zone Authority (CEZA) plays host to what it calls “interactive gaming support service providers.” According to CEZA, these companies do not run any gaming operations, although they work with overseas gaming operators. “We just give content, technical support, and IT support. No bets at all because we don’t have inbound [internet traffic]. Our [internet service provider] is only outbound. We block any inbound traffic. That is the difference between Pagcor and us,” CEZA administrator Katrina Ponce Enrile said. Enrile said that CEZA has around 2,800 employees working in these companies. Meanwhile, the Authority of the Freeport Area of Bataan also has 3 service providers employing at least 1,700 Filipinos. But if these SCBPOs and service providers continue to exist after the POGO ban, could POGOs simply just switch to this sector? PAOCC thinks it’s unlikely. “It would be more comfortable to POGO workers and POGO operators na mag smaller version nila ng POGO hiding inside maybe a condominium or apartment, but not going doon sa mga special class BPOs na ‘yun kasi it’s already recorded e (to make smaller versions of POGOs hiding inside maybe a condominium or apartment, but not to go into those special class BPOs, because those are already being recorded),” PAOCC chief Cruz said. Even as POGOs close down, the gaming industry continues to thrive through its fast-growing and lucrative electronic gaming operations. Glitzy land-based casinos are also getting involved, with Tengco noting that all but one of the casinos in the Entertainment City area now have e-gaming operations. Until the executive order regarding POGOs comes out, there is still a possibility that the ban could extend to electronic gaming operations too, although Tengco built a strong case against it during the Senate hearing. In 2023, Pagcor earned a record P22.5 billion from online gaming fees alone. This year, Tengco estimates that online gaming fees could account for as much as 35% of Pagcor’s revenue. “This is the trend, and I think this will be the future of gaming,” Tengco said, adding that the revenues of integrated resorts and casinos are beginning to plateau. “Most jurisdictions around the world are legalizing online gaming, even the first world countries.” Tengco said that the rise of online gaming in other parts of the world could also further boost demand for SCBPOs in the Philippines, which he calls a “sunrise industry.” The Pagcor chief also argued that if the government decided not to regulate electronic gaming, it might only expand the already-existing gray market of illegal online gaming operators in the country. PAOCC Undersecretary Cruz said that a technical working group, which includes Pagcor, is still set to deliberate on whether e-gaming and SCBPOs will be included in the POGO ban. – with research from Christelle Velasquez/Rappler.com Christelle Velasquez is a Rappler intern taking up AB Journalism at the University of Santo Tomas. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>gambling,Pagcor</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Senateflix: Ang Pagbabalik ni Alice Guo</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/senateflix-return-alice-guo/</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45547.19559027778</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – Muling humarap sa Senado ang dating mayor ng Bamban, Tarlac na si Alice Guo para sa pagpapatuloy ng hearing sa kanyang fake identity at kaugnayan niya sa operasyon ng mga POGO o Philippine offshore gaming operators sa Central Luzon. Ngunit ang pagharap niya sa nitong Lunes, September 9, ay nagiwan ng maraming tanong kaysa kasagutan dahil sa kanyang pag-iwas sa mga tanong ng mga senador. Tumagal ang hearing ng halos anim na oras. Paano siya nakalabas ng bansa nung Hulyo? Sino ang tumulong sa kanya? Ano ang relasyon nila ni Sual, Pangasinan Mayor Dong Calugay? Sa video na ito, nagbigay ng buod ang aming Senate reporter na si Bonz Magsambol para himayin ang napagusapan sa hearing.  – Rappler.com Reporter: Bonz Magsambol Producer/Video editor: Cara Angeline Oliver Production specialist: Jeff Digma Supervising producer: Beth Frondoso How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>House panel orders Harry Roque detained once more</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-representatives-panel-orders-harry-roque-detained-again-september-12-2024/</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45547.1775462963</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. INVESTIGATION. Former presidential spokesperson Harry Roque testifies before a House committee on July 31, 2024. MANILA, Philippines – The House quad committee investigating illegal Philippine offshore gaming operators (POGOs) on Thursday, September 12, ordered to detain former presidential spokesperson Harry Roque over contempt charges due to his non-compliance to the panel’s subpoena. “There is a motion to detain Atty. Harry Roque at the House of Representatives detention facility. This was duly seconded, any objection, no objection, the motion is approved,” said the committee chairperson, Surigao del Norte 2nd District Representative Ace Barbers. The committee approved the motion of Bukidnon 2nd District Representative Jonathan Keith Flores to detain Roque at the lower house premises “out of deference for a former member” of Congress, overruling the motion of Manila 6th District Representative Bienvenido Abante to detain him at a regular detention cell in Bicutan. Roque was detained at the House for 24 hours in August , but this time, when is he taken into custody, he will be detained until the POGO hearings terminate, or until he complies with the subpoena, according to Barbers. There is already an immigration lookout on Roque , although this lookout cannot prohibit his overseas travel. Rappler has reached out to Roque for his statement, or plans. We will update this story once he responds. This second contempt order stemmed from Roque’s non-compliance to the committee’s subpoena on documents pertaining to his properties, and Statements of Assets, Liabilities, and Net Worth. Roque has filed a motion to quash the subpoena, which was already denied in the last hearing, but he submitted a fresh motion on Thursday. This prompted Flores to move for a second contempt, which was quickly approved. The committee wants to get copies of Roque’s SALNs, documents related to his family firm Biancham, a subsidiary in Benguet called PH2, and a deed of sale for a Parañaque property which Roque previously said was the source of his wealth. “As we investigate Biancham, we found out the sudden increase of his assets in 2018, coming from P125,000 before 2016 — in 2018 the current assets of Biancham rose to P125 million,” said Batangas 2nd District Representative Gerville Luistro. “There is a question on the source of the money of Biancham Corporation, which belongs to Atty. Harry Roque. If he will not be able to prove the legal and valid source of this sudden increase of assets of Biancham, then there is reasonable ground to believe that indeed he is connected with POGO operations, and this money possibly came from POGO operations,” said Luistro. Thursday’s hearing was the third snubbed by Roque. Roque is related to the POGO controversy for helping Cassandra Ong set up meetings with Philippine Amusement and Gaming Corp (Pagcor) initially in relation to Lucky South 99’s arrears with Pagcor totaling $500,000. Later, he helped follow up the Porac, Pampanga POGO’s bid to renew its gaming license which was rejected by Pagcor. Roque has admitted, on record, to being lawyer for Whirlwind, the company that is leasing its Porac compound to Lucky South 99. Ong is the secretary/treasurer of Whirlwind, but she admitted to transacting with Pagcor on behalf of Lucky South 99. Ong was not expected to appear before the House quad committee on Thursday, as the panel said they would focus on the extrajudicial killings/drug war part of the investigation. But Sta. Rosa Lone District Representative Dan Fernandez warned Ong’s lawyer, Ferdinand Topacio, over the latter’s statement that he will also cite the committee in contempt of court. Topacio had filed with the Supreme Court a petition seeking to compel the quad committee to respect Ong’s right to remain silent the next time she appears in the hearing. “We are guaranteed the right to give information to public, this must be recognized. This is very [offensive],” said Fernandez. “The committee is bound to take an action [on Topacio’s statements], but [we] will defer that for the moment so we can continue with the committee hearing proper,” said Barbers. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Harry Roque,House of Representatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Why does Cassandra Ong face a trafficking complaint?</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/why-cassandra-ong-faces-trafficking-complaint/</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>45547.17089120371</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ONG. Katherine Cassandra Li Ong testifies at the House quad committee hearing on Philippine Offshore Gaming Operators, on August 28, 2024. HOR Screengrab MANILA, Philippines – After facing arrest and the scrutiny of lawmakers, Katherine Cassandra Ong , who is being linked to a Porac, Pampanga Philippine offshore gaming operator (POGO), was slapped with a non-bailable complaint. The Philippine National Police Criminal Investigation and Detection Group (PNP CIDG) and the Presidential Anti-Organized Crime Commission (PAOCC) filed a trafficking complaint with the Department of Justice on Tuesday, September 10. The PNP CIDG and PAOCC lodged the suit for alleged violation of Republic Act No. 9208 or the Anti-Trafficking in Persons Act of 2003 as amended by RA No. 10364 and RA No. 11862. The complaint is based on Ong’s alleged ties to Lucky South 99 in Porac, which was raided by authorities due to allegations of human trafficking. In the filing of the complaint against her, authorities cited the following as reasons for her supposed connection to the POGO: Ong was invited by the House of Representatives months ago due to her ties with Lucky South 99, but failed to attend that’s why she was ordered arrested. Only after she was arrested in Indonesia, deported back to the Philippines , and put under House custody was Ong able to attend the hearing again. Ong is known to be the girlfriend of Wesley, brother of dismissed Bamban, Tarlac mayor Alice Guo , who’s implicated in Bamban POGO. Wesley remains in hiding, but according to his lawyer, wants to surrender . In total, the PNP CIDG and PAOCC named over 50 respondents in the trafficking complaint. But among these names, the biggest and most noticeable ones are the following: Zhang Jie Duanren Wu Ronelyn Baterna Dennis Cunanan The trafficking complaint is one of the gravest complaints filed against Ong in the months that the government has been trying to pin her over alleged ties to POGOs. On August 30, the Philippine government filed a money laundering complaint against her, Guo, and 32 others. Prior to that, Ong was charged with disobedience to authority and obstruction of justice, which are both bailable offenses. Trafficking, however, is not, which means she would be detained and put under police custody or put in jail should prosecutors find sufficient proof to charge her, and the court subsequently issues a warrant. Ong is also the alleged link between POGOs and former presidential spokesperson Harry Roque. It was Ong who hired Roque for Whirlwind, and later lawmakers said that the former official effectively lawyered for the Porac POGO.  Hontiveros earlier said that Ong was under close monitoring because she is essential in determining who should be implicated in relation to the Lucky South 99 POGO. At present, Ong has not only been invited by the House, but also by the Senate. On Wednesday, she filed a petition to the Supreme Court to seek its help so she can invoke her right to remain silent in the hearings. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Cassandra Ong,human trafficking</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Making sense of the Alice Guo enterprise</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/alice-guo-enterprise-pogos/</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45546.5049537037</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO TIES. Dismissed Bamban, Tarlac mayor Alice Guo attends the Senate public hearing on human trafficking, cyber crimes and other related abuses in connection with POGO operations, on September 9, 2024. Senate Social Media Unit If you are to believe the main cast of the POGO (Philippine offshore gaming operators) scandal — Alice Guo and Cassandra Li Ong — they are young Chinese-Filipino women who were just very business savvy. But a year’s worth of government investigation has revealed evidence of an alleged criminal enterprise that can produce tens of millions of pesos each day per scamming hub, according to operatives. While it is not yet clear who designed the criminal POGO masterplan — since it seems that the scamming infrastructure has long existed in the country — Guo and Ong remain at the center of human trafficking and money laundering suits. Lawmakers are hoping that both will eventually squeal and name bigger fish. In the meantime, the pieces of the puzzle reveal an intricate enterprise. These details are based on documents independently obtained by Rappler, presented by senators, and filed before prosecutors. Guo has not addressed many of these issues, often invoking her right against self-incrimination during her first appearance in the Senate on Monday, September 9, since her arrest in Indonesia. There are two hubs that have been raided: Both Guo and Ong claim they were just lessors. Ong told the House of Representatives that she is not close to Guo, and their relationship stops at Ong being the girlfriend of Guo’s brother, Wesley. Guo told the Senate that Ong introduced her to the supposed big boss of the Porac operations, Duanren Wu. (Wu is the incorporator of Whirlwind, and Ong’s godfather.) What do the documents and testimonies say? Although Whirlwind is based in Pampanga, it registered its company in the Securities and Exchange Commission (SEC) extension office in Tarlac, according to their 2019 incorporation records. Stephanie Mascareñas, who is registered as an incorporator of both Whirlwind and Lucky South 99, told the House they got their papers notarized in Bamban. “ Wala po ako ‘nung nag-notarize. Sa pagkakatanda ko, nag-notarize siya sa Bamban (I was not there when they notarized. If I recall, they notarized it in Bamban),” said Mascareñas. When Guo incorporated Baofu in May 2019, with Chinese fugitive Huang Zhiyang and Zhang Ruijin of the Singapore money laundering case, the company did not have enough capital “to afford the construction of the buildings worth hundreds of millions, or even billions, which were purportedly leased to Hong Sheng and Zun Yuan,” according to the money laundering complaint filed against Guo and Ong at the Department of Justice (DOJ). This is where Ong helped, according to investigators, because the 24-year-old allegedly was “also a silent partner in the Bamban Pogo, as she was the one who contributed in the construction of the Baofu compound,” said the same complaint. Here is how the hubs operate, according to operatives, as the POGO licensee is not the sole company. Instead, it rents out its infrastructure, strong internet connection in the bundle, to sub-licensees. These are Business Process Outsourcing (BPOs) acting as service providers. Ong indicated this design, too, to the House Quad Committee. “ Hindi ako part ng POGO operations…kasi si Lucky South pinaparenta lang niya sa mga POGO po.” (I am not part of the POGO operations, because Lucky South only rents it out to POGOs.) This layered design, which allows many sub-licensees, was unique to the POGO as invented by the Philippine Amusement and Gaming Corporation (Pagcor) under former president Rodrigo Duterte. This was according to Katrina Ponce Enrile of the Cagayan Economic Zone Authority (CEZA) which claims to have pioneered a profitable model for offshore gaming pre-Duterte. “POGOs sub-licensing model also allowed these all fly-by-night and scam operators to proliferate as Pagcor is no longer able to track how deep the sub-licenses go,” said Enrile during a July 31 House hearing. In the case of the Bamban hub at least, Guo added more layers. She had always admitted to owning multiple family-owned firms related to piggery, meat, and embroidery, and which she claimed, was the source of her wealth. One of those companies, QJJ Farm, deposited a total of P100 million worth of checks to Baofu, split over 10 transactions in just two days, from June 23 to 25 in 2020. “These transactions had no rational and underlying trade obligation between a piggery farm and a real estate company. The most logical interpretation of these transactions would either be QJJ Farm is financing Baofu or QJJ Farm is the pass-through entity for Baofu,” said the money-laundering complaint. Investigators also found that Baofu stopped using the formal banking system after September 2020, while Zun Yuan never opened any bank accounts. This bolsters their belief that QJJ was used as a pass-through. Another red flag for QJJ Farm is that it was used by Guo to deposit a total of P8 million in 2016 and 2017 to a company that is considered by the Anti-Money Laundering Council (AMLC) as a “person of interest for illegal drug activity,” according to the Court of Appeals’ resolution approving the request to freeze 90 bank accounts, 12 real properties, 12 vehicles, and one helicopter belonging to Guo and other business partners. The Bamban hub was worth at least P6 billion before it was raided and shut, according to Senator Sherwin Gatchalian. This money flow led investigators to this conclusion: “Alice Guo and her cohorts intended to create layers and layers of corporations to make it appear that they were engaged in profitable and legitimate businesses, but in fact, they are not.” Rappler earlier reported that Guo, according to court certifications, lied when she claimed that she divested from Baofu before she ran and won as mayor of Bamban in 2022. Ong, on the other hand, would have you believe that being an officer of the leasing company, and not the POGO licensee, isolates her from all the mess. She insisted on this even as she admitted that she was the one who tried to renew Lucky South’s license with Pagcor. She did so because if Lucky South loses business, Whirlwind also loses business. In fact, Whirlwind’s only reason for existence is for Lucky South to exist. That’s according to Harry Roque, former Duterte spokesperson, who figures in this scandal because he helped Ong set a meeting with Pagcor executives. “ Siguro naman maiintindihan ninyo na kapag may nangyari sa umuupa sa iyong property, na wala namang ibang purpose kundi para sa POGO, mawawalan ka ng kita,” said Roque during the July 31 hearing at the House. (Maybe you’d understand the fact that if something happens to the one renting your property, which has no other purpose than for POGO, you will lose profit.) In fact, Ong herself said Whirlwind and Lucky South used to be one entity. “ Nung una po, ‘yung Lucky South and Whirlwind po iisa, pero nung huli naibenta na po si Lucky South. [Naibenta] last year, ” said Ong. (At first, Lucky South and Whirlwind were one, but eventually Lucky South was sold. It was sold last year.) Were the operations of Bamban and Porac synced? Apart from the fact that Whirlwind’s papers were processed in Tarlac, both POGOs hired the same person to be its consultant to transact with government — Dennis Cunanan, a former government official convicted (and acquitted in some cases) for his role in the pork barrel scam. Documents obtained by Rappler prove his consultant capacities for both Hongsheng and Lucky South. What is not clear is between the two, who helped who? Who had the original idea? Based on SEC incorporation papers, Guo’s Baofu incorporated first, on May 3, 2019, after which Whirlwind incorporated on August 2, 2019. However, documents also showed that even before Baofu was incorporated in May, Guo was already signing deeds of sale as early as February that year to acquire the lands in the compound. By April, those deeds of sale had transferred to Baofu even though the company had yet to register with the SEC, according to the complaint. “The 05 April 2019 transactions were the basis of the transfer of the Certificates of Title to Baofu, as the same were attached to the Certificate Authorizing Registration issued by the Bureau of Internal Revenue. Emphasis must be made that Baofu is not yet incorporated. However, it already acquired properties through respondent Alice Guo,” said the complaint. The direction of the Senate’s investigation to get to the bottom of the POGO scandal is also headed in the direction of Guo and Bamban. Senator Jinggoy Estrada believes the big boss to be Huang Zhiyang, Guo’s co-incorporator in Baofu. Huang Zhiyang was also incorporator of Sun Valley, a previously raided POGO in Clark, Pampanga. Rappler’s sources inside and outside government who are privy to the gaming world believe that if not the big boss, the POGO patron in the Philippines is somebody else. It is someone who’s known to senators, and it appears that Senator Risa Hontiveros knows this person, too. She said on June 26: “ May kinalaman sa isang napakalaking imbestigasyon ng Senadong ito noong nakaraang Kongreso pa, ilalabas po natin ito sa tamang panahon.” (This is connected to an old big investigation by the Senate in the previous Congress, and we will reveal it at the proper time.) Are scam hubs a Philippine invention? Definitely not. The Philippines was just the next destination of criminal syndicates when China and Cambodia started a massive crackdown on casino scams in the Golden Triangle . In fact, AMLC noticed an uptick in casino-related suspicious transactions in 2020 , after Pagcor resumed issuing POGO licenses. (It was paused because POGOs had attracted scrutiny that year). Guo is facing at least four criminal investigations, one of which (for graft) has already been filed in court. The three others for qualified trafficking, money laundering, and tax evasion are pending before prosecutors. Ong is facing criminal investigations for qualified trafficking and money laundering, also both pending before prosecutors. President Ferdinand Marcos Jr. has banned all POGOs, and even those with no criminal scam operations have been instructed to wind down before the year ends. – with reports from Joann Manabat/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Alice Guo,Anti-Money Laundering Council,Pagcor</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Cassandra Ong runs to SC for right to remain silent. What does this mean?</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/iq/cassandra-ong-petition-supreme-court-right-remain-silent/</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>45546.44092592593</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CASSANDRA ONG. Katherine Cassandra Li Ong testifies at the House quad committee hearing on Philippine offshore gaming operators, on August 28, 2024. HOR Screengrab Katherine Cassandra Ong , linked to a Porac, Pampanga Philippine offshore gaming operator (POGO), is asking the Supreme Court’s (SC) for help so she can invoke her right to remain silent as she faces legislative hearings. Ong filed a petition for certiorari and prohibition with the High Court on Wednesday, September 11, asking the SC to issue a temporary restraining order against the legislative panels that are probing into POGOs. She was invited by the Senate and the House of Representatives in the ongoing probe into POGOs due to her ties to Lucky South 99 located in Porac. In the petition, Ong wants the Senate and the House committees investigating POGOs to refrain “from doing any act and thing violative of the Constitutional rights of the Petitioner to remain silent, from incriminating herself, and to have the advice of counsel in every step of the proceedings.” “ Kami po ay dadalo out of respect to both chambers of Congress. Kami po ay pupunta roon ngunit i-invoke po namin ‘yong right to remain silent ,” Topacio told reporters. “Once the right to remain silent is invoked ay no further questions should be made. Igalang po ‘yon .” (We will attend the hearings out of respect to both chambers of Congress. We will attend but we will invoke the right to remain silent. Once the right to remain silent has been invoked, no further questions should be made. They should respect that.) Just last Saturday, Topacio said Ong would rather go to jail than appear in legislative probes as she does not want to “be shamed” in public anymore. This opposes Topacio’s most recent remarks about Ong’s willingness to attend hearings. There was a contempt and arrest order issued against Ong because she failed to attend the House hearings in the lower chamber in the last months. Ong was compelled to attend the inquiries after she was arrested in Indonesia, deported back to the Philippines , and put under House custody in August. She was not as cooperative as other resource speakers, especially during the August 28 hearing, so lawmakers threatened her with another contempt charge for not answering queries. Lawmakers even scolded her lawyer, Topacio, for coaching her during the hearing. Come the next hearing on September 4, Ong was more cooperative, but did not finish the probe that day because she experienced dizziness due to low blood pressure and low sugar. The House had to wheel her out of the inquiry. Ong is currently detained at the House for her contempt order. Ong is Lucky South’s authorized representative and was the signatory in the POGO’s application for an Internet Gaming License with the Philippine Amusement and Gaming Corporation in 2023. Ong is also one of the 2024 officers of Whirlwind Corporation, the real estate corporation that leased its compound to Lucky South. Back in June, authorities said Lucky South 99’s POGO hubs were hotbeds for various illicit activities, including human trafficking, forced labor, and various scam activities. Ong now faces complaints for trafficking and money laundering . Ong is not the first person facing legislative probes to seek the High Court’s help. Dismissed mayor Alice Guo, implicated in the Bamban, Tarlac POGO, also filed a petition with the SC in July to block the Senate’s invitation. Ong’s request to the High Court is based on the protections provided by the 1987 Constitution. But can she invoke this right at this time? The following are collated information and arguments pertaining to the right to remain silent and the right against self-incrimination, and how they apply to legislative probes. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Cassandra Ong,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>After Alice Guo’s arrest, Indonesian 'scam university' survivors await justice</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/alice-guo-pogos-human-trafficking-indonesia-scam-university-survivors/</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>45546.1247337963</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. On Wednesday, September 4, Indonesian National Police arrested a fugitive from the Philippines, Alice Guo. The former mayor of Bamban, Tarlac is currently under investigation for her involvement in illegal online gambling operations. Known in the Philippines as POGOs (Philippine offshore gaming operators), these gambling hubs are also hotbeds for online fraud and human trafficking, according to investigations by Philippine law enforcement authorities. One of the victims forced to work on these hubs as online fraudsters was 27-year-old Rudi (not his real name). A former graphic design college graduate from Bandung, Indonesia, Rudi was one of 154 Indonesian citizens who was rescued by Philippine police authorities in a raid inside the Clark Freeport Zone, in Mabalacat, Pampanga. Rudi still recalls with terror the days he spent inside the POGO hub. Working 18 hours a day, he had to seduce people “in a very evil and cunning way,” pretending to be someone else, until the target finally invested in a fake crypto product. Financial losses in entrepreneurship during the COVID-19 pandemic led him to ask for help from a friend. The friend, an overseas worker who was one of his hangout buddies, was unable to offer a loan. However, he told Rudi he could help him find work abroad. “I don’t have money to lend but I can recommend you to my recruiter where I work now,” Rudi recalled his friend saying. Driven by hope, Rudi left for the Philippines towards the end of 2022. He believed an overseas job paying at least 22 million Indonesian rupiahs (roughly ₱80,437 or about US$1,436) monthly could erase his debts. Little did Rudi know that the kind offer was actually a trap. His hangout buddy stood to gain an extra 20 million Indonesian rupiahs (P73,132.154 or roughly US$1,305) for each successful recruit to what he later learned was a POGO operation. At first, Rudi suspected nothing. The recruitment procedures looked professional and the interview process was formal. The company that recruited him covered all travel expenses. Upon arrival at the Manila airport, he was picked up by a luxury car and was provided free meals throughout the three-hour journey to the company location in Clark city. Rudi was informed that he would be working on cryptocurrency investment. Before starting work, he was brought to a building called “university” where he and his fellow trainees were required to complete a week-long training program around the basics of finance, investing, and shopping habits in different cultures. The short course also covered effective communication skills and negotiation. “My position is in the marketing team, so I thought it’s natural to be taught how to speak. Everything seemed normal.” After completing the training period, Rudi and about 30 of his classmates were met with a jubilant reception when they entered the building. Hundreds of employees greeted the new graduates with cheers and gongs. There was also a big chart board. “There were company cheers that were chanted to go with our steps,” he said. Although lively, he saw it as an odd sight. The welcome party was very crowded and rowdy. On hindsight, Rudi noted that they acted “like gangsters.” Upon arriving at his designated work area, Rudi was led into a room to have a one-on-one talk with his prospective team leader, a man who came from Surabaya, the second largest city in Indonesia. This was the point when the nightmare started. With a threatening stare and intonation, Rudi’s team leader broke the bad news. “Lu udah tau kerja di sini apaan? Lu pasti gak tahu karena gak dijelasin di training!” (Do you already know what work here is? You definitely don’t know because it wasn’t explained in the training.) Rudi was then handed a stack of catalogs containing dozens of photographs of models along with work guides. The models were real people. It turned out that the job that the newly-arrived workers were supposed to do involved impersonating those in the catalog. Rudi was told to choose who he wants to be from the model catalog. There were also descriptions of each persona, but he was recommended to improvise based on his own character. The work guides described how to carry out specific schemes. Rudi was instructed to pick a scheme and learn how to do it. Rudi considered quitting. But the team leaders told him and his fellow recruits they will have to pay all recruitment and travel expenses plus the fine because all expenses were covered by the company. This is how the manipulation started. “There is no turning back after arriving here,” Rudi’s team leader told him. He felt he had no choice. After all he was there to make money to pay off his debts. From that point on, Rudi felt how fake and disgusting the days were. Implementing what he was taught a week earlier about investment, finance, communication, and manners, he was forced to target people daily and persuade them to invest in fraudulent schemes under the guise of crypto investment. He finally realized what the function of the gong and the big chart board displayed in the room was. “(It was) to celebrate if someone caught a victim.” Every achievement was celebrated with a gong. Achievers were given financial incentives. The group that Rudi worked for was not the only POGO operation in Clark City at the time he was there. Rudi recalled seeing a sprawling area with many buildings, a university where recruits were trained, and a restaurant. The area was guarded by armed security officers. Rudi’s friend was working in the same area but for a different group. The massive hub where Rudi was rescued from has been operating since 2021 . Each company’s fraud division operated secretly, without interacting with the others. Within the complex, the workers were identified by the color of their name tags/lanyards. A different color signaled a different group. Based on that, the security officers could see if employees were breaking the “no interaction” rule even from afar. Rudi knew that the perpetrators are mostly Chinese nationals and two of them are Indonesians. But he never who the owners were. He only knew the middle men and supervisors with whom he interacted. He also got to know the other Indonesians who were recruited into the operation. Employees of these scam companies were not allowed to interact with each other. If employees broke this “no interaction rule,” they were fined by their supervisor, with the fine deducted from their monthly salary. “I was placed in a cryptocurrency scam company. For love scams, online gambling, that’s different. We are not allowed to interact, because there are fines,” Rudi explained. After three months of work, Rudy finally resigned. “Deceiving people is against my conscience,” he explained. This act consigned him to an isolated building called the “resignation room,” the designated space for employees who wanted to quit. At the time he was rescued, Rudi was being held captive in this room along with other victims. They were told that they could only be released after paying steep fines. Trapped indoors without daylight, time blurred for Rudi and his colleagues, leaving them disoriented. “ Nggak tahu jam, nggak tahu tanggal, hidup di dalam gedung nggak boleh keluar. Kalau mau makan hanya menunggu makanan sisa katering hari itu dikirim dari kantin. ” (I didn’t know the time. I didn’t know the date. I lived in the building, not allowed to go out. If you wanted to eat, you just had to wait for the leftover food from that day’s catering to be sent from the canteen.) Desperate, they looked for ways to seek help from authorities. “We emailed and DM’d Indonesian influencers, sending messages to both Indonesia and Philippines officials, police officers, including Ibu Retno Marsudi (Indonesia’s foreign minister),” the 27-year-old youth told Tempo on September 6, 2024. Indonesia’s police coordinated with Philippine police to eventually rescue Rudi and his fellow human trafficking victims in the afternoon of Thursday, May 5, 2023 . Over 1,000 human trafficking victims from various countries were found in the sprawling Clark POGO hub that day. Apart from the Indonesians, other victims came from Vietnam, China, Nepal, Myanmar, Malaysia, Thailand, Bhutan, Hongkong, Morocco, and Taiwan. Rudi never heard anymore from the friend who recruited him. To this day, he is still waiting for the legal process of his case in Philippine courts. “There is no legal process taking place in Indonesia, except when I get an online court invitation from the Philippines,” he said. Not all victims are as lucky as Rudi. Among the victims from Myanmar or Cambodia who managed to return or escape, many chose not to report their recruiters because they did not want to deal with law enforcement. In July 2024, Philippine President Ferdinand Marcos Jr. announced that he is banning POGOs due to their links with organized crime. Marcos is expected to cancel the work visas of POGO employees by October 15. This is supposed to give them time to leave the Philippines without issue as their employers wind down operations. After Guo was arrested and deported by Indonesian authorities, the Philippine Senate resumed its investigations into her involvement in POGO operations in Pampanga. Whether these actions will ultimately address victimization similar to the one that Rudi experienced remains to be seen. – Rappler.com *US$1 = 15,456.014 Indonesian Rupiah  or P56 .00 Artika Farmita is a journalist and fact-checker at Tempo.co , based in Surabaya, Indonesia. She is one of Rappler’s #FactsMatter Fellows for 2024 How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>human trafficking,Indonesia,investment scams,organized crime,POGOs,Rappler fellowships,Southeast Asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Alice Guo had 'active participation' in POGO hub – Gatchalian</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/gatchalian-alice-guo-active-participant-pogo-hub/</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>45545.54800925926</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO HEARING. Senator Sherwin Gatchalian directs questions to resource persons during the June 26 Senate hearing. Angie de Silva/Rappler MANILA, Philippines – Citing documents his office obtained, Senator Sherwin Gatchalian said that dismissed mayor Alice Guo used her businesses to fund Philippine offshore gaming operators or POGOs in Bamban, Tarlac. Gatchalian revealed this during the Senate inquiry on Monday, September 9, as Guo faced the senators for the first time since May 22, and after she illegally left the Philippines in July. “Nakita rin namin na ginamit mo rin ‘yung mga kompanya ninyo para bayaran diretso ‘yung kuryente ng POGO hub sa Bamban gamit ang inyong mga korporasyon, ” Gatchalian said. (We also found that you used your companies to directly pay for the electricity of the POGO hub in Bamban using your corporations.) The senator presented the transaction history of Guo’s businesses directly funneling money to the Baofu compound of Zun Yuan Technology Incorporated , the POGO hub in Bamban. Guo earlier said that she had divested her shares in the real estate company before she won as mayor in 2022. Documents, however, suggested otherwise, as payments for electric bills of Baofu could still be traced to her. “For example, in 2020, ang QJJ Farm nagbayad ng kuryente in different dates, diretso sa Tarelco. In 2021, 2022, ang QJJ Farm rin nagbayad in those amounts rin iba-iba, no? May P1.3 million, P5 million, diretso to Tarelco,” Gatchalian said. (For example, in 2020, QJJ Farm paid for electricity on different dates directly to Tarelco. In 2021 and 2022, QJJ Farm also made payments in various amounts, such as P1.3 million and P5 million, directly to Tarelco.) “In 2023, ‘yung QC Genetics. Nagbayad rin ng different amounts, P6 million, P2.6 million, diretso to Tarelco,” he added. (In 2023, QC Genetics also made payments of different amounts, such as P6 million and P2.6 million, directly to Tarelco.) Tarelco is an electric cooperative in Tarlac province. QJJ Farm and QC Genetics are just two of the many businesses under Guo’s name. Asked if she is the company president of QC Genetics, Guo replied: “Ako po (I am).” While the ousted mayor has repeatedly denied her ties with POGO operations, documents presented during hearings pointed to her. “Gusto ko rin i-point out, 2023, mayor ka na nito. Presidente ka ng QC Genetics. Mayor ka na ng Bamban. Pero ginagamit mo ‘yung kompanya mo para bayaran ‘yung POGO hub sa Bamban. So ang punto ko dito, Madam Chair, na may active participation ka. Nagbabayad ka ng kuryente. ‘Yung kuryente, ‘yan ang isa sa pinakamahalagang aspeto ng POGO hub,” Gatchalian said. (I also want to point out that in 2023, you were already the mayor. You were the president of QC Genetics and the mayor of Bamban. Yet, you used your company to pay for the electricity of the POGO hub in Bamban. So my point, Madam Chair, is that you had active participation. You were paying for the electricity, which is one of the most crucial aspects of the POGO hub.) “Dahil kung walang kuryente, hindi tatakbo lahat ‘yan. Kaya ‘yung statement mo, na madalas mo marinig na wala kang participation, base sa dokumento, active participant ka,” the senator stressed. (Because without electricity, none of that would function. So your statement, which you often hear claiming that you had no participation, is contradicted by the documents, which show that you were an active participant.) The dismissed mayor replied by saying, “I think I have a pending case before the BIR (Bureau of Internal Revenue). I invoke my right against self-incrimination.” Aside from graft, Guo faces three other criminal investigations at the Department of Justice for qualified human trafficking , tax evasion , and money laundering . These are all related to her incorporation of a leasing company called Baofu Land Development Inc., which rented its spaces out to a POGO called HongSheng Gaming Technology Inc., later renamed Zun Yuan Technology Inc. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Alice Guo,Senate of the Philippines,Sherwin Gatchalian</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>FACT CHECK: Video of Alice Guo, Abalos, and Marbil ‘hugging’ is AI-manipulated</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/fact-check/alice-guo-abalos-marbil-hugging-video-ai-manipulated/</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>45545.52321759259</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Claim: Dismissed Bamban, Tarlac Mayor Alice Guo, Department of the Interior and Local Government Secretary Benjamin Abalos, and Philippine National Police chief Rommel Marbil are seen hugging each other. Why we fact-checked this: The TikTok video bearing the claim was posted on Sunday, September 8, and has 287,500 views, 6,101 likes, 2,017 comments, and 936 shares as of writing. The superimposed text on the video reads, “That’s what friends are for” and “ Pag ganito mukhang walang patutunguhan ang kaso ([If this is the situation] the case will lead nowhere).” The facts: The TikTok video was fabricated using AI technology. The photo of Guo, Abalos, and Marbil taken on September 5, 2024 was animated using the AI tool Runway. This logo is visible in the lower right corner of the video. Suspicious details, such as the sudden appearance of a hand on Marbil’s back, also suggest manipulation. To verify this, Rappler used the same AI tool and generated a similar result by instructing it to create a scene where the individuals “hug each other.” The tool yielded almost similar results as the video circulating on social media. AI-generated hugging videos trend: There’s a recent TikTok trend where users apply an AI filter or effect to a photo to make it appear as though they are hugging someone. Fans often use this feature with pictures of themselves and their favorite Kpop or Ppop idols to create the illusion of being in an embrace. Others use this effect on photos of themselves with loved ones who have passed away. Controversial photo: A photo of Abalos and Marbil smiling alongside Guo, who is grinning and making the peace sign, sparked public outrage for what seemed to be celebrity treatment of the dismissed mayor. The photo was taken in Jakarta, where Guo was arrested on September 4 after a months-long pursuit by the Philippine government. Guo faces graft charges and multiple complaints, including human trafficking and money laundering , related to her alleged links to illegal Philippine offshore gaming operators (POGOs). The controversial former mayor is also accused of faking her Filipino citizenship . Last June, Guo ditched Senate panel hearings on POGOs because she was “sick and stressed.” The Senate subpoenaed Guo to compel her to appear before the committee and later ordered her arrest for “unduly refusing to appear, despite due notices,” in the upper chamber’s probe. It was later revealed that Guo left the country on July 18, traveling to Malaysia, Singapore, and Indonesia. Following her arrest in Indonesia, Guo faced senators in a hearing on September 9, where she continued to evade questions and was again cited in contempt for testifying falsely. – James Patrick Cruz/Rappler.com Keep us aware of suspicious Facebook pages, groups, accounts, websites, articles, or photos in your network by contacting us at factcheck@rappler.com. Let us battle disinformation one Fact Check at a time. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Alice Guo,Benhur Abalos,Fact checks on AI-generated content,Philippine National Police,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Ex-mayor of Bamban, Tarlac says he issued COVID-19 travel passes without checking backgrounds</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/ex-mayor-bamban-tarlac-feliciano-says-issued-covid-19-travel-passes-without-checking-backgrounds/</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>45545.08333333334</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Former Bamban, Tarlac mayor Jose Antonio Feliciano answer a query during the public hearing on human trafficking, cyber crimes and other related abuses in connection with POGO operations, on September 9, 2024. Senate of the Philippines screengrab ANGELES CITY, Philippines – Former Bamban, Tarlac mayor Jose Antonio Feliciano admitted at the hearing Monday, September 9, of the Senate panel investigating illegal Philippine offshore gaming operators (POGOs) that he issued travel permits during the height of COVID 19 restrictions without checking the backgrounds of those requesting these passes. It was during Feliciano’s term that Baofu Land Development started investing in Bamban. He also admitted that he met Alice Guo, who introduced herself as a hog-raiser. Later, Feliciano said Guo  facilitated the permits for her real estate development company. In July, authorities recovered several travel passes issued by Feliciano in 2020 to Huang Zhiyang and his driver during a raid a residential villa in Fontana Leisure Parks and Casino in Clark Freeport. Huang is a business partner of Guo and a stockholder in Baofu Land Development. He holds 14% of the company’s shares, based on records from the Securities and Exhange Commission. Senator Jinggoy Estrada questioned Feliciano about his connection with Guo, how the Baofu Land Development started in Bamban, and noted that the former mayor should have done his due diligence on those applying for COVID 19 travel passes. Although Feliciano did not specify to whom he issued the travel passes, similar documents were found at the said villa including Huang’s two other passports. This means law enforcers have so far seized Huang’s five passports. The former mayor admitted to the senators that he did not check the backgrounds of those he issued travel permits to. “You’re a businessman then, they need to travel back and forth to Fontana,” said Feliciano. “Because during that time it was pandemic already. And you know, wala ng negosyo sa bayan. Pag-aaralan na po natin ngayon na dapat sa susunod bago tayo gumawa ng dokumento na ganon kailangan macheck natin sila ,” he added. (Because during that time, it was pandemic already. And you know, there were no businesses in our town. We will study that now so that next time before we make such documents, we need to check them.) According to Feliciano, Baofu Land began with the reclassification of land for lease rentals on March 8, 2019. He added that Guo facilitated in his office the permits, including those Hongsheng Gaming Incorporated. The former mayor described Guo as an investor who purchased land in their town and had investments in real estate development. “ Ang dinaanan ko lang diyan was Hongsheng. Sa Hongsheng, siya (Guo) rin ang nag request sa amin . She was just an investor in my town that she bought the land and then she had investors under her arm to put money in the town para patayo yung mga buildings for lease rental ng real estate property,” Feliciano said. (I only went through Hongsheng. In Hongsheng, she was also the one who requested from us. She was just an investor in my town when she bought the land and then she had investors under her arm to put money in the town to construct buildings for lease rental of the real estate property.) Feliciano said he first met Guo in 2016 when she, along with a group of hog raisers from Bamban, visited his office to address issues related to the hog-raising industry — foul odor from the pigpens and boosting the town’s income. “(We) first met around 2016 when she went to (the) office and a group of hog farmers in Bamban. To talk about the problem in the pig industry such as foul smell and increase the income of the town and lobbying them to help us out. That’s the only time we met,” Feliciano said. “Since she was a pig farmer. She has a pig farm. (During) my second term, she is coming to the office. She was just an ordinary person coming to my office getting permits,” he added. Estrada also questioned why Feliciano endorsed Guo instead of former barangay captain Joey Salting who ran against Guo in the 2022 elections and lost by some 400 votes. Feliciano said that Salting was supposed to his successor and said they was not aware that Guo intended to run for local office at that time. However, it took about two months for Guo to decide, he said. “But the problem was during my last term, I decided to run for congressman for the 3rd district. Unfortunately, I lost,” Feliciano said. “So on my part, since I don’t have a running-mate in my town, I decided I have to have a running-mate of myself. And so after that, I needed somebody on my side. As a former local chief executive, the local chief executive should be economic managers,” he said. Feliciano first ran for mayor in 2010 but lost. He ran again in 2013 and this time won. He won two more terms and served until 2022. He next ran for Congress but was unsuccessful. He denied that Guo funded his electoral campaigns. –Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Alice Guo,Central Luzon,LGUs in the Philippines,POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Who helped Alice Guo flee from the Philippines?</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/inside-track/who-helped-alice-guo-flee-philippines/</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>45544.9375</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Dismissed Bamban, Tarlac mayor Alice Guo attends the senate public hearing on human trafficking, cyber crimes and other related abuses in connection with POGO operations, on September 9, 2024. Senate PRIB Who could it have been? Speculation was rife over the identity of the mystery person who aided dismissed Bamban, Tarlac mayor Alice Guo , when she fled the Philippines last July. Senators who were probing into Philippine offshore gaming operators and the connections of Guo — believed to be one and the same person as Chinese Guo Hua Ping — did not publicly divulge who that person could be during the Senate hearing on Monday, September 9 . But a smattering of clues were dropped throughout the hours-long session that, when combined with other past disclosures in previous hearings, could be sufficient to determine the person’s identity. While Guo mentioned that there was an “ Asian woman ” who was with them on their way out of the country, she was careful to say that no Filipino citizen or government official was involved in her escape. She claimed that she did not bribe anyone to facilitate her departure. Repeated attempts by senators to squeeze information from Guo only left them more exasperated as she repeated almost by rote: “I invoke my right against self-incrimination.” She said she couldn’t reveal the person’s identity in public due to pending legal complaints against her and other safety concerns (Guo has been under the custody of the Philippine National Police ). But if you’ve been monitoring the long-running investigations in the Senate, you would have taken note of certain hints, just like we have — and just like us — you would perhaps come to the conclusion that there appears to be a much bigger fish in this story. What were some of the clues we picked up? And guess who recently made headlines for owning five passports? Huang Zhiyang, Guo’s business partner. During a raid on villas in Fontana, Clark, Pampanga, on June 27, the Presidential Anti-Organized Crime Commission seized five passports said to be owned by Huang Zhiyang. Could he be the elusive mastermind behind Guo’s escape? Let’s keep on guessing. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Bureau of Immigration,Jinggoy Estrada,POGOs,Risa Hontiveros</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Alice Guo faces furious senators, drops no bombshells</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/alice-guo-faces-furious-senators-drops-no-bombshells/</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>45544.54033564815</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. QUIZZED. Dismissed Bamban, Tarlac mayor Alice Guo attends the Senate public hearing on human trafficking, cyber crimes and other related abuses in connection with POGO operations, on September 9, 2024. Angie de Silva/Rappler MANILA, Philippines – Wearing a bullet-proof vest and a helmet, ousted mayor Alice Guo of Bamban, Tarlac returned to the Senate, the same chamber that exposed her fake identity and ties with illegal activities of Philippine offshore gaming operators or POGOs in Central Luzon. Guo arrived an hour ahead of the 10 am scheduled Senate hearing on Monday, September 9. She was heavily guarded by the Philippine National Police (PNP) — as if she was a star witness of the day’s probe, and did not escape Philippine authorities in July. “Kumpirmado na po ng National Bureau of Investigation na siya si Guo Hua Ping, isang Chinese national na pumasok dito noong 2003. Ibig sabihin humarap siya sa atın sa Senado at tahasang nagsinungaling. Ibig sabihin, humarap siya sa mamamayan ng Bamban at tahasang nagsinungaling,” Senator Risa Hontiveros, chair of the Senate committee conducting the probe, said, as she opened the almost six-hour long inquiry on Monday. Hontiveros heads the committee on women, children, family relations, and gender equality. (According to the NBI, it is confirmed that she is Guo Hua Ping, a Chinese national who entered the country in 2003. This means that when she appeared before the Senate, she was outright lying. It also means that when she faced the people of Bamban, she was outright lying.) She added: “This is why iyong tila celebrity treatment sa kanya ay di katanggap-tanggap. ‘Wag po tayong papabola. ‘Wag po tayo magpauto.” (This is why the apparent celebrity treatment accorded her is unacceptable. Let’s not be fooled. Let’s not be deceived.) It was Hontiveros who exposed Guo’s real identity after she requested the NBI to compare the dismissed mayor’s fingerprints to those of a certain Chinese national, Guo Hua Ping, confirming that the two are one and the same person. Senators spent an hour at the start of the probe asking Guo about her real identity so they could hear it straight from her. Despite records and documents that indicated she is Chinese, Guo told Hontiveros: “Hindi ko po alam paano nangyari. Pero ako po si Alice Guo.” (I don’t know how it happened. But I am Alice Guo.) She refused to respond to further questions regarding her identity, citing her pending court cases and invoking her right against self-incrimination. It was expected from the get-go that she would use this as an excuse to evade the Senate’s scrutiny, as she opted to be detained at the custodial center of the Philippine National Police. All other suspected offenders who had faced the Senate in the past — like pork-barrel scam queen Janet Napoles, who was later convicted of bribery and money laundering, among others — had used the same script. Senators also pressed Guo about her supposed death threat , which she told Interior and Local Government Secretary Benhur Abalos about when she was captured in Indonesia last September 5. “Sino ang nagbabanta sa ‘yo (Who is threatening you)?” asked Senate President Pro Tempore Jinggoy Estrada. But Guo refused to respond, saying that she fears for her safety if she were to reveal the name publicly. She then asked for a closed-door session with senators, which was eventually denied. “Ang problema kasi is kung ‘yung death threat na ‘yan ay totoo o hindi dahil ayaw niyang magsalita,” said Senator Joel Villanueva. (The problem is whether that death threat is real or not, because she refuses to answer.) As a compromise, Guo agreed to write the name of someone who turned out to be the same person who helped her escape. It wasn’t revealed during the hearing what name Guo wrote on the sheet of paper given to her. Estrada, however, hinted at the person’s possible identity, saying that the subject, according to information he had received, is in Taiwan possessing as many as five passports. At the center of the Senate probe was also Guo’s alleged link to Sual, Pangasinan Mayor Dong Calugay . She denied having a romantic relationship with Calugay. However, several photographs of them together, which Estrada showed during the hearing, suggested otherwise. “Kakilala ko po siya, kaibigan ko (I know him; he is my friend),” Guo said, when asked about her level of friendship with Calugay. Estrada first floated the idea of Guo having a romantic relationship with a Pangasinan mayor during the May 22 hearing, but didn’t name Calugay at that time. Calugay was named in the Senate hearing during the September 5 probe. He was invited to testify before the Senate, but he excused himself, saying he had dengue. Calugay also snubbed the probe on Monday, prompting senators to issue a subpoena against him. His executive assistant, Cheryl Medina, was present during the hearing. She said that she knew Guo since 2022. Guo, as well as her brother Wesley, were present in some Sual public events, as seen in photographs presented by Hontiveros during the hearing. Medina also denied that Sual town was issuing an Accounts Insurance Membership ID . It was the same ID that Shiela Guo, Alice’s sister, supposedly had. Medina said she was not part of the Sual government at the time the ID may have been issued. While Guo repeatedly denied her romantic relationship with Calugay, a farm in Sual named Alisel Aqua Farm seemed to be derived from Guo’s name (Alice) and Calugay’s real name (Liseldo). The farm is also registered under Shiela’s name. The Guo siblings denied the existence of the said farm. Hontiveros, however, presented a business permit from the Department of Trade and Industry to prove that it had been in existence since March 24, 2022, with a permit that would expire on March 24, 2027. The quest for truth behind Guo and her ties with POGO remains elusive. While the dismissed mayor has continuously evaded questions and has refused to cooperate with Philippine officials, Gatchalian said he remains hopeful that the Senate will get to the bottom of things. “We will just continue asking her. The evidence will speak for itself. Like the documents we presented earlier, all of them have supporting evidence. So even if she doesn’t speak or defend herself, we will present the evidence,” Gatchalian told Rappler after the Senate probe. Aside from graft, Guo faces three other criminal investigations at the Department of Justice for qualified human trafficking , tax evasion , and money laundering . These are all related to her incorporation of a leasing company called Baofu Land Development Inc., which rented its spaces out to a POGO called HongSheng Gaming Technology Inc., later renamed Zun Yuan Technology Inc. As she closed the Monday’s probe, Hontiveros said that the Senate will need to dig even deeper to find the truth. “I remind the resource persons and the body that the right against self-incrimination is not a magical amulet to avoid answering very simple questions from the Senate. Guo Hua Ping, don’t insult us completely,” she said in a mix of English and Filipino. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>POGOs,Risa Hontiveros,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Rappler Recap: Alice Guo insists no gov't official helped her escape</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/recap-senate-hearing-alice-guo-insists-no-government-helped-escape/</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>45544.43362268519</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – Dismissed mayor Alice Guo of Bamban, Tarlac on Monday, September 9, faced the Senate for the first time since May, after she illegally left the Philippines in July. The almost six-hour long Senate probe into the fake identity of Guo and her ties with the illegal Philippine offshore gaming operators or POGOs in Central Luzon revealed little to no new information because of the evasiveness of the dismissed mayor. She was once again cited in contempt for “testifying falsely and evasively before this committee,” Senator Risa Hontiveros, chair of the Senate committee on women, children, family relations and gender equality, declared on Monday. Guo denied that she had a romantic relationship with Sual, Pangasinan Mayor Dong Calugay, who has been dragged into the POGO mess. However, Senate President Pro Tempore Jinggoy Estrada presented photographs of the two together to suggest otherwise. Rappler’s Senate reporter Bonz Magsambol gives a recap of events in the Senate probe. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Senate cites Alice Guo in contempt again for lying</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/senate-cites-alice-guo-contempt-september-9-2024/</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>45544.19525462963</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. GUO. Dismissed Bamban, Tarlac mayor Alice Guo attends the Senate public hearing on human trafficking, cyber crimes, and other related abuses in connection with POGO operations, on September 9, 2024. Angie de Silva/Rappler MANILA, Philippines – The Senate committee on women, children, family relations and gender equality on Monday, September 9, cited in contempt dismissed mayor Alice Guo again for evading questions and testifying falsely. “I move to cite Guo Hua Ping, also known as Alice Guo, in contempt of the Senate for testifying falsely and evasively before this committee,” said Senator Risa Hontiveros, who chairs the panel. Her motion was seconded by Senator Joel Villanueva. Guo’s attendance on Monday’s hearing is the first since May 22. She had repeatedly snubbed Senate hearings, prompting the upper chamber to order her arrest. She was deported from Indonesia on Friday, September 6, after she illegally left the Philippines in July. Despite her fingerprints matching with those of a certain Chinese national Guo Hua Ping, the dismissed mayor maintained that she is Filipino. “Basta alam ko, alam ko ako po si Alice Guo. At pasensiya na rin po kung hindi kayo naniniwala,” Guo told senators. (I just want you to know that I am Alice Guo. And I apologize if you don’t believe me.) Guo is under the custody of the Philippine National Police after she declined to post bail for her graft charges. She appeared before the Senate inquiry on Monday after Tarlac Regional Trial Court Presiding Judge Sarah Vedaña-Delos Santos granted Hontiveros’ request. Hontiveros said that her panel will prepare the contempt order and coordinate with the proper courts to have Guo detained in the Senate until the conclusion of their probe. While the Senate panel cited Guo in contempt, Hontiveros clarified that the dismissed mayor will remain under the PNP custody. “ Nililinaw ko po, para sa kabatiran ng lahat, na habang si Ms Alice ay in contempt sa Senado, mananatili siya sa PNP custody. Kung mag-post bail siya, dadalhin na siya dito sa Senate ,” Hontiveros said. (I would like to clarify, for everyone’s information, that while Ms. Alice is in contempt of the Senate, she will remain in PNP custody. If she posts bail, she will be brought here to the Senate.) Meanwhile, the Senate panel also moved to issue a subpoena against Sual, Pangasinan Mayor Dong Calugay, who has been linked to Guo. Calugay skipped the Senate probe for the second time. On Thursday, September 5, he sent an excuse letter to the Senate, saying that he had dengue. He presented a medical certificate which he obtained from his town’s infirmary. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>LIVESTREAM: Senate resumes hearing on Alice Guo, POGO ties</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/livestream-senate-resumes-hearing-alice-guo-pogo-ties-september-9-2024/</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>45544.08377314815</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – The Senate committee on women, children, family relations and gender equality and the committee on migrant workers on Monday, September 9, resumes its hearing on dismissed mayor Alice Guo of Bamban, Tarlac and illegal Philippine offshore gaming operators or POGOs in Central Luzon. Tarlac Regional Trial Court Presiding Judge Sarah Vedaña-Delos Santos has allowed Guo to appear before the Senate inquiry at 10 am in response to the request of Senator Risa Hontiveros. (READ: Court allows Alice Guo to attend Senate hearing on September 9 ) Watch the Senate hearing live on the Rappler website or head over to its Facebook and YouTube channels. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>FAST FACTS: Who is Sual Mayor Dong Calugay of Pangasinan?</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/iq/fast-facts-sual-pangasinan-mayor-dong-calugay/</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>45543.50466435185</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MAYOR. Sual, Pangasinan Mayor Dong Calugay awards the attested appointment papers of 43 newly-promoted employees of Sual, Pangasinan, on August 19, 2024. Dong Calugay's Facebook page Aside from suspended Bamban, Tarlac Mayor Alice Guo , another local leader is under Senate scrutiny — Dong Calugay, also known as Liseldo de Quintos Calugay , the mayor of Sual, Pangasinan . A Senate panel hearing on Thursday, September 5, sought to know how Guo, along with her supposed siblings, escaped from the Philippines despite an arrest order. Guo has been linked to illegal operations of Philippine offshore gaming operators or POGOs. Calugay was born on August 18, 1971 in the municipality of Bugallon, Pangasinan, based on his certificate of candidacy filed in October 2021 and seen by Rappler.  Prior to being a politician, he served as a member of the Philippine National Police. In November 2017, Calugay and his brother, Danilo, relocated from Bugallon to Sual, temporarily residing in a bamboo house at Las Brisas Del Mar Subdivision in Barangay Poblacion while their new home was being built, a court document secured by Rappler showed. Sual, located 31.2 km (about a 46-minute drive) from Bugallon, has a population of 39,091 and relies on fishing and farming. Despite its modest size, it is one of the top 20 richest municipalities in the Philippines , with P2.6 billion in assets, according to the 2022 Commission on Audit Annual Financial Report. It is also home to the largest coal power plant in the country, the Sual Power Station. On July 3, 2018, Calugay officially transferred his voter registration from Bugallon to Sual. By August 2018, their two-story house was completed, and Calugay moved in with his family. Despite being relatively new in the town, Calugay, who ran under the Partido Demokratiko Pilipino, won with 12,101 votes. He was part of then-governor Amado “Pogi” Espino III’s slate, a member of the influential Espino political dynasty . Calugay defeated his only opponent, John Rodney Arcinue of the Nationalista Party, who garnered 10,434 votes. Before winning the mayoral seat, Calugay faced two legal petitions filed on February 1, 2019, which challenged his voter registration in Sual. On February 11, just 10 days after the cases were filed — and a day before the start of the local  election campaign — Judge Corazon Natividad D. Lopez-Oro of the 2nd Municipal Circuit Trial Court of Labrador-Sual swiftly dismissed them. In 2022 , Calugay sought reelection under the regional Espino -led party Abante Pangasinan Ilokano . HAPPENING NOW: Pangasinan Governor Amado 'Pogi' Espino III shows his support as he appears in the proclamation rally of incumbent Sual Mayor Liseldo 'Dong' Calugay. #PHVote  #WeDecide  https://t.co/X7fBurur4z Calugay garnered 14,735 votes, outpacing Nationalista Party bet Boying Celeste, his sole opponent, by 2,610 votes. Calugay’s political allies also succeeded, with his vice mayoral candidate and seven councilors securing their positions. Aside from his mayoral post, Calugay also serves as the vice president for operations of the Pangasinan chapter of the League of Municipalities of the Philippines. In 2018, Dong and his brother Danilo were embroiled in a legal issue involving an illegal cigarette factory raided in Bugallon. According to court documents, Danilo was accused of owning the unlicensed factory. However, the case was dismissed after the Court of Tax Appeals ruled that the search was invalid, noting that “no valid search warrant was issued by a judge, sanctioning said search and seizure.” Prosecutors argued that the raid was legal under Sections 15 and 171 of the National Internal Revenue Code, as amended, and fell under permissible warrantless searches, but the court disagreed. As a result, evidence collected by the Bureau of Internal Revenue Strike Team, police officers, barangay officials, and National Bureau of Investigation operatives was deemed inadmissible. The court documents revealed that Danilo’s camp had clarified that it was actually Dong — not Danilo — who was accused of possessing the counterfeit stamps and cigarettes. Dong was not charged in the case. Five Chinese nationals were also arrested by the government in the said factory, according to news reports from the Inquirer and Manila Standard . After a closed-door session on Thursday, Senator Risa Hontiveros hinted that a “clear link” between Calugay and Guo had emerged. “Even though Mayor Guo has been removed from her position, it appears that there is [a mayor] who may be using his power to help her hide and escape,” Hontiveros said . Government officials theorized that Alice, Shiela, and Wesley Guo may have traveled by boat, possibly departing from a port in either Pangasinan or Zambales. Shiela and Wesley are purported siblings of Alice. Calugay’s bailiwick Sual is about a three-hour drive from Guo’s hometown Bamban. According to Hontiveros, Alice Guo left the country as early as July 18, traveling first to Kuala Lumpur, Malaysia, then to Singapore, before moving on to Indonesia. Shiela and Katherine Cassandra Ong — tagged in the POGO in Porac, Pampanga — were arrested in Indonesia and deported back to the Philippines on August 22. A few days later, on September 4, Alice was also arrested by Indonesian authorities . She arrived in the country past midnight on Friday, September 6. Meanwhile, Wesley remains at large, although his lawyer had claimed he was willing to surrender. It was also disclosed during the Senate hearing that Shiela owns a company, Alisel Aqua Farm, in Sual. She reportedly holds an ID issued by the Sual municipal government for account insurance membership. There have been speculations that Calugay is Alice’s partner. But, according to Shiela, Alice and Calugay are just friends. Shiela mentioned that she first met Calugay at a restaurant in Pangasinan through Alice sometime in 2019. In his COC filed on October 8, 2021, Calugay indicated that he was single. However, in a 2019 court document, he “admitted being married to Analiza Sarmiento pending the Petition for Declaration of Nullity which he filed in San Carlos City.” Calugay was initially expected to testify at a Senate hearing last Thursday. However, a day before the hearing, he notified Hontiveros, the head of the Senate panel, that he had contracted dengue and required “immediate medical attention and rest.” Since the hearing, a photo of Alice and Calugay had surfaced on social media. Despite ongoing investigations, the nature of Calugay’s link to Alice remains unclear to the public. Will this connection be fully revealed when both Calugay and Alice appear before the Senate on Monday, September 9? – with reports from Lian Buan/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Alice Guo,Pangasinan,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>PH authorities arrest 2 Chinese in Subic POGO raid</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/authorities-arrest-chinese-subic-pogo-raid-september-2024/</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>45542.62210648148</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SUBIC RAID. A small illegal POGO is raided by authorities at Subic Freeport, Zambales, on September 4, 2024. Criminal Investigation and Detection Group PAMPANGA, Philippines – Philippine authorities have arrested two Chinese during a raid against an illegal Philippine offshore gaming operation (POGO) at the Subic Bay Freeport in Zambales this week, the Subic Bay Metropolitan Authority (SBMA) said. The Philippine National Police Criminal Investigation and Detection Group (PNP CIDG), in coordination with the SBMA law enforcement, implemented a search warrant on September 4 against the POGO due to reports of alleged violations such as human trafficking and cybercrime activities. The warrant was issued by Presiding Judge Melani Fay Tadili of the Olongapo City Regional Trial Court Branch 97. The POGO was not named in the search warrant, but compared to other establishments previously raided by authorities, the Subic POGO was much smaller. A source told Rappler that the POGO was allegedly unregistered and operating illegally inside a house. The arrested Chinese were identified as Bao Go and A Hai. Meanwhile, authorities rescued 18 other Chinese said to be victims of the scheme. PNP spokesperson Police Colonel Jean Fajardo told Rappler on Saturday, September 7, that the 18 rescued Chinese will be turned over to the Bureau of Immigration on Monday, September 9, while the two arrested will remain under the CIDG’s custody. Fajardo explained that the two suspects were indicted for three counts of trafficking after the prosecutor found evidence with reasonable certainty of conviction to indict them. Various gaming equipment were also seized from the POGO, including 18 desktop computers, laptops, SIM cards, as well as financial and travel documents, according to the police report. “The SBMA ensures the public that we are one with you in upholding justice and that offenders will never escape the long arm of the law,” SBMA Chairman Eduardo Alino said. Only two months ago, in July, SBMA Deputy Administrator for Business John Aquino had said that no POGOs existed in Subic, Zambales. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>POGOs,Zambales</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Abalos assures Alice Guo of 'best protection' as long as she tells all in Senate probe, court</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/abalos-assurance-protection-alice-guo-tell-truth-senate-hearings-court/</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>45542.26746527778</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ARRIVAL. Alice Guo covers her handcuffed hands as she faces the media in an orange detainee tshirt upon arrival at a Pasay private hangar. Lian Buan/Rappler MANILA, Philippines – Interior Secretary Benhur Abalos said on Saturday, September 7, that he will provide dismissed Bamban Mayor Alice Guo the “best protection” for as long as she tells all in court and when she again faces the Senate panel investigating illegal Philippine offshore gaming operator (POGOs) beginning Monday, September 9. Abalos said this at the Saturday News Forum on Saturday, September 7, on Guo’s arrest in Indonesia, her deportation to the Philippines, and other related issues. Responding to questions, Abalos said that as soon as Guo saw him in Indonesia, she requested a private meeting, which was also attended by Philippine National Police chief General Rommel Marbil and three Indonesian police officers. Abalos said that Guo talked about “malalaking tao” (prominent people) and that she feared for her safety as she received death threats . “Sabi ko kay Alice, simple lang. ‘Alice kung sino man itong mga taong ito na papatay sa iyo, we will assure you, ‘yung security mo we will give it to you, sabihin mo lang sa Senado, sabihin mo lang sa korte lahat ng nalalaman mo. Lahat,’” he said. (I told Alice, it’s simple. “Alice, whoever these people are who want you dead, we will assure you that we will provide you security for as long as you tell the Senate, the court, everything that you know. Everything.) Asked whether her assurance of protecting Guo in exchange for revealing the truth was part of some form of legal arrangement or plea bargain, Abalos clarified that it was just his personal assurance to Guo. “As far as the [PNP] chief is concerned, as far as I am concerned, we will give you the best protection for your life,” he said, referring to Guo, adding that “life is sacred.” Guo is under PNP custody as she opted not the post bail for graft charges when she appeared before Capas, Tarlac Regional Trial Court Branch 109 on Friday, September 6. The court granted the request of Senator Risa Hontiveros for Guo to appear at the Senate hearing on Monday. Abalos also confirmed that Guo’s brother, Wesley Guo , planned to surrender, as earlier shared by the Guos’ lawyer Stephen David. “Inaayos na rin namin ‘yan (We’re also working on that) — DILG, PNP, and the other camp, ” he said, but declined to give more details. “We’re asking Wesley, sumurender ka na rin. Kita mo naman importante, safe ka dito, maganda ang proseso ng Pilipinas. You have to face the Senate hearing, the court here. Maganda ang democratic process natin, our justice system. And we will just make sure na walang papatay sa iyo as far as I’m concerned,” the DILG chief added. (We’re asking Wesley, surrender as well. As you can see, the Philippines has a good process. You have to face the Senate hearing, the court here. We have a good democratic process, our justice system. And we will make sure that you will not be killed, as far as I’m concerned.) Responding to questions, Abalos said that if Wesley does not surrender, his arrest was just a matter of time considering his narrowing room for escape. “Maliit na ang iniikutan niya, mahuhuli at mahuhuli siya. Ganoon lang ‘yun kasimple. Maliit na ang kuwarto para magtago pa siya. Solid ang ating relasyon sa ibang bansa lalo na sa ASEAN, ” he said. (His world is getting smaller, he will be caught. It’s that simple. There’s little room for him to hide. Our relationship with other nations, especially in ASEAN, is solid.) Wesley is also the subject of the Senate arrest order for skipping the hearings on POGOs. During the Saturday briefing, Abalos reiterated his appealed to the public not to judge him just by “one photo,” referring to the viral photo of him, Guo, and Marbil looking chummy as they sat side by side in Indonesia. (READ: Inside Alice Guo’s deportation: A rushed flight, 1 pm deadline ) He said that for him, what was important is that it was “mission accomplished.” “ Naibalik namin siya (She was brought back) — that’s the most important thing. For me, that is the most important thing. If you are going to judge my character just with one picture, ‘wag naman ganoon (don’t be like that). He said the photo was only taken for documentation purpose, not for public release, and that he was not aware that Guo had made peace signs for the photo.  – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Benhur Abalos,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cassandra Ong no longer wants to testify in legislative probes – lawyers</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/cassandra-ong-no-longer-wants-testify-legislative-probes/</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>45542.23752314815</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CONGRESSIONAL PROBE. Cassandra Ong at the resumption of the House of Representatives quad committee hearing on extrajudicial killings and illegal POGOs, on September 4, 2024. House of Representatives MANILA, Philippines – Cassandra Li Ong , the young woman being questioned by lawmakers over her ties to a raided Philippine Offshore Gaming Operator (POGO) in Pampanga, would rather go to jail than appear in legislative probes as she does not want to “be shamed” in public anymore, her lawyers said on Saturday, September 7. Ong spoke through her lawyer Ferdinand Topacio at a media forum at the Kamuning Bakery Cafe in Quezon City, appealing to the Senate to allow her to be excused from the next hearing on Monday, September 9. “ Hindi na po kaya ni Ms. Cassandra Li Ong. Kung gusto ‘nyong ikulong, kulong ‘nyo na po, sabi niya. ‘Kahit sa women’s correctional, tatanggapin ko na, huwag lang akong pahiyain ‘nyo sa harap ng milyon-milyong mga tao.’ She does not want to testify,” said Topacio. (Ms. Cassandra Li Ong can no longer take it. If you want to send her to jail, send her to jail, she said. “Even in the Correctional Institution for Women, I will take it – just don’t publicly shame me in front of millions of people.”) Ong was excused from her last hearing in the House of Representatives on Wednesday, September 4, and left in a wheelchair because of low blood pressure and low blood sugar. She is confined in a hospital up until posting time and has been having multiple mental breakdowns, Topacio’s associate and Ong’s other counsel Raph Andrada said. Andrada said that it is “hard to say” what kind of mental disorder Ong may be experiencing, but “what we can say for certain is that the entire experience has certainly been traumatic.” “Because of this trauma, she’s been experiencing several breakdowns. In fact, when I visited her last night and gave her updates on the status of her cases, and she had another breakdown. And I [was] informed that this morning she received some more documents in relation to the proceedings…. But I was informed that she once again had another breakdown,” said Andrada. Topacio appealed to Senate Deputy Minority Leader Risa Hontiveros, who is leading the probe in the Senate as chairperson of the committee on women, as well as other lawmakers to recognize Ong’s plight. “ Ipakulong ‘nyo na po. Kung kakasuhan, kasuhan na po natin. Pero ‘wag na po sana itong dramang ito. Kawawa po ‘yung bata (Just send her to jail instead. If we’ll file a case against her, let’s do it. But let’s stop subjecting her to this drama. I feel pity for her),” said Topacio. Ong has denied being a dummy or an operator for the raided POGO in Porac, Pampanga named Lucky South 99, despite being named as its representative in numerous documents. She maintained that she was only a majority stockholder of Whirlwind, the real estate company that leased its compound to the POGO. Ong is among the 34 people named in a money laundering complaint , along with dismissed Bamban mayor Alice Guo. Ong and Shiela Guo, the sister of Alice Guo, were apprehended in Indonesia and brought back to the Philippines in August. Ong told House lawmakers that her boyfriend is Alice’s brother Wesley, but that she was not close to Alice, who similarly has ties to a raided POGO in her town. Alice Guo, who was also arrested in Indonesia on September 4, also earlier used mental health, particularly “stress” and “trauma” to try and excuse herself from Senate probes. When Philippine authorities came to fetch her from Indonesia, she told Interior Secretary Benhur Abalos that she was receiving death threats. Now back in the Philippines and under Philippine National Police custody , Guo is expected to testify at the Senate hearing on Monday. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Alice Guo,Cassandra Ong,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[Closer Look] Drugs, POGOs, Quiboloy: Duterte’s tyranny at the service of corruption</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/closer-look-illegal-drugs-pogos-quiboloy-duterte-tyranny-service-corruption/</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>45542.20833333334</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Alejandro Edoria “Drug money is the source of POGO money.” Sta. Rosa Representative Dan Fernandez on September 4 gave this blunt summary of the tangled skeins of offshore gaming hubs that Philippine lawmakers have been trying to unravel. Four years of legislative probes into offshore gaming hubs have spawned surreal narratives: As lawmakers in the capital hack at layers of POGO-linked corruption, thousands of cops in Davao City search for another fugitive, Apollo Quiboloy, the self-proclaimed son of God accused of the sexual abuse of women and minors, human trafficking, and money laundering. Police officials, quiescent for decades, say that Quiboloy’s 30-hectare complex hosts an underground labyrinth; a private taxiway leads to the Davao International Airport. Welcome to the portals of Rodrigo Duterte’s black holes. Davao, Central Luzon, Cebu, Metro Manila — the cities and regions where POGOs thrived were also epicenters of a “drug war” that killed thousands of Filipinos over decades. As mayor of Davao City and president of the country, Duterte oversaw an army of killers. He was the commander-in-chief of executioners and their unaccountable intelligence honcho. When he rattled off the names of local chief executives, businessmen, and foreigners, they faced three options: death, flight, or turn over everything. The similarities in the conduct of the drug war, the Davao church, and the transformation of POGOs into criminal empires are striking. Killers in uniforms and their vigilante cohorts hopped from one province to another, rewarded for kills and pressured to meet quotas. POGOs shuffled managers and trafficked workers who were beaten up if they failed to meet digital scam quotas. The believers who fed Quiboloy’s coffers chafed “donation” quotas across the Philippines and other countries to avoid torture and public humiliation. Billions of dollars flowed in and out of these profit centers through cash transactions, poorly regulated remittance avenues, and non-compliant banks. At the center of this apex of violence sat Duterte, who hammered critics to safeguard friends. Illegal gambling and narcotics money partly sustained drug war killings. Exempt from the dirty war were Duterte’s friends and fat cats who cut deals with the regime. Among those who danced away: the minders of huge narcotics shipments that landed in the national capital , and snaked out to Mindanao and central Visayan islands, before returning to Luzon. Just months after Duterte stepped down, almost a ton of shabu was found in Tondo , in premises frequented by a Philippine National Police (PNP) Drug Enforcement Group officer. Other anti-drug operations in 2022 and 2023, mostly in Pampanga, bagged a total haul worth P7.5 billion. Retired, dismissed, and active police have told the quad committee House of Representatives probe that Duterte’s actions actually strengthened the country’s drug woes. He also rolled out the red carpet for POGOs as the drug war took off, crowing about an economic bonanza. Barely eight years later, the Philippines features in a transnational crime web extending from Asia to western continents . Alarm bells rang early. Finance officials in 2017 warned that POGOs were becoming a money-laundering paradise, with anonymous users and service providers (SPs) that fell between the cracks of state regulation. From 2017 to 2019, the Anti-Money Laundering Council (AMLC) monitored P14 billion worth of suspicious transactions in the sector, including the SPs. Yet, as late as 2020, with dozens of abductions and killings and an AML risk assessment linking POGOs to drugs, Duterte insisted the industry was “clean.” As the COVID-19 pandemic and government’s draconian containment strategy dampened street sales in drugs, mobility curbs masked POGO networks’ cybercrime expansion and preparation for the coming narcotics trade resurgence. Pre- and post-pandemic, self-confessed enforcers of the Davao Death Squad tagged Duterte’s economic adviser, the Chinese national Michael Yang, as an important player in a drug cartel. When Yang hogged headlines as the Senate broke open the Pharmally scandal, Duterte defended him as a helpful “paymaster” of Chinese investors in the Philippines. The Cambridge Dictionary has a very clear definition of paymaster: “a person of an organization that pays for something to happen and therefore has or expects to have some control over it.” Yang helped Pharmally, a new firm with little capital and incorporators with fictitious addresses , bag P8 billion in pandemic contracts. That’s almost a mirror of the 10-year, P6-billion POGO revenue audit contract awarded to a firm with a fake capital claim certificate . Yang’s name has popped up anew as lawmakers track the Central Luzon narcotics and cybercrime networks. Yang’s brother, Hong Jiang Yang, had P3.3 billion worth of transactions with Guo. A Pharmally incorporator’s other firms link to Empire 999, which owned a warehouse in Mexico, Pampanga, that held more than 500 kilograms of shabu. The firm’s majority shareholder, who has fled the country, is a Chinese national who used a fraudulently acquired late-registration birth certificate to acquire land — just like the ousted Bamban mayor did. Duterte used to yammer about local thugs of Mexico’s Sinaloa cartel in justifying his heavy-fisted tactics. The exposed POGO estates could fit right in with cartel headquarters in Central America. Without Duterte, there would not be Bamban or Porac crime hubs, no sex and torture dens in Pasay, Makati, and Cavite. Six years of tyranny had one overarching goal: instill a climate of fear to stifle dissent and discourage inquiries into the contradictions of his drug-war policies and actions. Among the many Filipinos in and out of government who now rail at POGOs are those who once gave Duterte a free pass. Let’s not forget that. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Apollo Quiboloy,Closer Look,illegal drugs,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Alice Guo didn’t post bail, will face Senate on September 9 | The wRap</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/september-6-2024/</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>45541.60972222222</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Dismissed Bamban Mayor Alice Guo skips bail when she appears before the Tarlac court that ordered her arrest for graft charges. She was supposed to post bail of P180,000 to be granted temporary freedom. The Tarlac court that handles Alice’s Guo’s two graft cases allows the former Bamban mayor to face a Senate probe on Monday, September 9. ‘A mockery of the Filipino people.’ Social media users say this to describe how government officials treated Alice Guo during her arrest and deportation to the Philippines. A slow start dooms Filipino wheelchair racer Jerrold Mangliwan as he concludes his campaign in the Paris Paralympics. He misses the final of the men’s 100m T52 after placing sixth and last in his heat. SB19’s Josh Cullen releases his first-ever solo album Friday, September 6. Titled ‘Lost &amp; Found,’ the record reflects Josh’s ’emotional reality.’ – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Paris Paralympics,POGOs,SB19</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Bamban after Alice Guo: ‘She did some good, but we have to move on’</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/bamban-tarlac-residents-after-alice-guo-did-some-good-move-on/</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>45541.59901620371</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. WHITE MUNICIPAL HALL. The Bamban municipal hall has been repainted from its previous red and pink colors. Joann Manabat/Rappler TARLAC, Philippines – Had Alice Guo passed by the municipal hall of Bamban, Tarlac, on her way to the trial court in neighboring Capas on Friday, September 6, she would have seen the building now painted white. The munisipyu used to be an attention-grabber, its exterior walls painted pink with margins of red — colors closely associated with the dismissed mayor. This change in appearance signifies that the town is moving on, Acting Mayor Eraño Timbang told Rappler. The events of the past months had been dizzying for the sleepy town: an illegal Philippine offshore and gaming operation (POGO) hub just behind the town hall was raided, revealing scams and trafficking activities of Chinese criminals. They were all linked to then-mayor Guo, who was also unmasked in Senate hearings as a Chinese citizen not eligible for election to her post, and who was caught several times lying about her personal circumstances. After fleeing to and getting caught in Indonesia, Guo is currently detained at the Philippine National Police custodial center in Quezon City after making an appearance at the Capas Regional Trial Court Branch 109, which ordered her arrested for graft charges. “Siguro, sa pananaw ng tao, hindi natin mawawala na may minahal din tayo. Hindi natin makakalimutan na may ginawa rin siyang kabutihan sa ibang tao. Hindi natin matatanggal ’yung may nagsisimiyento, may naaawa sa kaniya. Natural sa isang Pilipino yun. Pero sa palagay ko ngayon kailangan mag-move on na kami,” Timbang said. (I guess you cannot take it away from people that we had loved someone. We cannot forget that she also did good to other people. We cannot deny their sentiments, that some feel sorry for her. That’s natural for us Filipinos. But I think now we all have to move on.) “Sa ngayon positibo ang pananaw namin sa buhay namin. [Ang] consituents ko, unti-unting bumabangon,” Timbang added. (Right now we have a positive outlook on our lives. My constituents, we are slowly rising up.) Despite Guo being linked to criminal activities of the POGOs found in a property she owned, most of the residents in Bamban continue to remember her as a mayor who served them well. “Ala na. Mayap ya kasi keti. Nung ali ya mekalkal ing POGO, palage ku derecho ya pamu rin pamagserbisyu. Ita mu pin ne, uling male tamu atin yang aliwang intensyun, eta balu nung makanyan pamu rin talaga. Oneng ala, reng bisang lukluk king lamesa once na melukluk la, maranup la naman,” tricycle driver Ronnie Castro told Rappler in Kapampangan language. (That’s just it. Because she was good here. If the POGO has not been dug up, I think she will continue to serve here. It’s just that, since we have no idea maybe she has a different intention, we don’t know if she will remain like that eventually. But, you know, those who want to have a seat at the table, once they sit down, you know, they are also hungry.) “ Kalingwan da na kami kalukluk da. Siguradu mu ita,” he added. (They will forget us once they take their seat. That’s for sure.) Fay, a former private school teacher, believes that increasing job opportunities in their town could bring progress for both the town and its residents. Fay grew up in Bamban. She recalled Bamban’s thriving state before the eruption of Mount Pinatubo in 1991. She said Bamban was making progress at that time, but had since been left behind. “Kanita, bayu ya mamakbung ing Pinatubo, masanting keti, masalese ngan ing biye. Manibat aniyang memakbung ya, ala na mu naman keti. Ena man masigla ne? Tahimik keti, mabagal ing biye. Oneng kailangan mu rin talaga ing obra. Dapat mika obra keti para kareng tau keni, ” Fay said in Kapampangan language. (Before Mount Pinatubo erupted, it was beautiful here. Life was good for everyone. Since its eruption, it’s all gone. It’s not even loud, right? It’s quiet here, slow-paced life. But you really need to work. There must also be job opportunities for the people here.) Timbang said they all need to move on and have a fresh start. He will serve as the acting mayor for three months, or until November 13. The vice mayor, Leonardo Anunciacon, along with nine municipal councilors have been suspended by the Ombudsman for approving of the POGO operations. Timbang, a councilor, was spared by the Office of the Ombudsman for being the only one who objected to the Guo-sponsored POGO. Anunciacion will take over as mayor after his suspension. – Rappler.com  How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Alice Guo,Central Luzon,LGUs in the Philippines,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[In This Economy] Alice Guo and the Philippines’ weak rule of law</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/in-this-economy-alice-guo-philippines-weak-rule-law/</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>45541.26700231482</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. DR CASTUCIANO Everyone’s talking now of Alice Guo, disgraced and dismissed mayor of Bamban, Tarlac, after she was arrested in Jakarta, Indonesia on September 4. On September 6, she was escorted back to the Philippines via a chartered flight by no less than Interior Secretary Benhur Abalos and Philippine National Police (PNP) Chief General Rommel Marbil. There are two aspects to Alice Guo’s fleeing the country that disturbs me as an economist. Both point to the fact that the Philippines still has a weak rule of law problem. No wonder, many would-be investors would rather not invest in the country (except Chinese POGO or Philippine offshore gaming operators, who presumably entered the country precisely because our weak rule of law would benefit them). The first aspect is the fact that Alice Guo was able to flee the country at all, right under the authorities’ noses. With all the Senate hearings devoted to her in recent months, her bizarre answers to even the most basic questions, and the increasing number of exposés linking her to POGO, Alice Guo has become a household name. But despite all the attention on her, she managed to slip out of the country sometime in July with her alleged siblings, Shiela and Wesley, “by boat.” Alice’s sister Shiela (along with Cassandra Ong, girlfriend of Wesley and one of the incorporators of a company that leased land to the Bamban POGO) was caught first in Indonesia on August 21. When she was asked by senators in a hearing on August 27, she said she and her siblings were fetched by a van from Tarlac, then they traveled by land. They then rode a small boat, a big boat, and another small boat in that order. Officials were admittedly “caught unaware[s]” and could only piece together theories about the Guo siblings’ exit route, positing that maybe the Guos were taken to Bongao, Tawi-Tawi, a stone’s throw away from Sabah, Malaysia. Authorities theorized that the Guos moved to Singapore, and then to Indonesia. But they couldn’t agree on some basic facts, like whether the Guos started their journey from Tarlac or somewhere else. The Guos’ escape calls to mind another fugitive, ex-congressman Arnolfo Teves, who allegedly masterminded the killing of Negros Oriental governor. He fled the country in February 2023 due to health reasons, but never came back. He was arrested in March, and his return to the country is underway. But the Guos’ case is much more disturbing. Using all their resources and networks, they arranged a logistically difficult escape. But of course their escape was made possible only because of the extreme porousness of our borders (from Tarlac all the way to Bongao), which is deeply unsettling, but by no means surprising. As exclaimed by Senator Risa Hontiveros, “Who allowed this travesty to happen? Who is responsible for this? Alice Guo wouldn’t have been able to leave without the assistance of government officials. It’s as if we’ve been fried in our own lard.” The second disturbing aspect to this drama comes by way of the smiles of Alice Guo when she was arrested. One photo surfaced on social media showing Alice Guo posing happily with Secretary Abalos and PNP Chief Marbil. If you didn’t know the context of the photo, you’d be forgiven for thinking they were three close friends who happened to be reunited at Jakarta. Another photo shows Alice Guo posing with National Bureau of Investigation (NBI) agents at the back of a vehicle, smiling as if they were besties on a road trip. In yet another photo , agents were taking a selfie with Alice Guo as though she were a celebrity. These photos are a stark contrast to images of former senator Leila de Lima, a political prisoner who was treated with icy coldness (even rudeness) by the police every time she attended her hearings and appeared before media. The Philippines is a place that likes to make celebrities out of dubious personalities. Senator Hontiveros said on social media and in Filipino: “Reminder to government officials: Alice Guo is a fugitive. She has a human trafficking case. She is not a celebrity.” On X, historian Manolo Quezon said , “Guo’s demeanor is making officialdom look clueless, hapless, and insinuates they are in cahoots with her — or that she expects to go scott free, all of which contributes to driving the public crazy. Can officialdom be so dense or is it the Instagram era permeating everything?” Of course, Alice Guo is innocent until proven guilty. But her decision to flee already raises serious doubts about her innocence. We also have to remember that this is the same country that elected the son of the dictator as president in a landslide win in 2022, with 31.6 million votes to boot. The idolatry and glorification of suspected and actual criminals is a Filipino thing. It’s what we do as a nation. All of the above points to a deep and systemic problem in the Philippines: our weak rule of law. Many times it’s not even weak; it’s non-existent. In the 2023 World Justice Project’s Rule of Law Index , the Philippines ranked 100 th out of 142 countries. Our rule of law score was lower than the average for East Asia and the Pacific, and in this region we fared better only compared to Myanmar and Cambodia. Weak rule of law is a problem for our economy because it incentivizes people to look for clever ways to avoid obeying the law. Everyone develops a mindset that the law can be bent if they know the right people, or if they have enough money to influence the right people. Weak rule of law also makes our society unpredictable: sometimes the law is obeyed (if the government so wishes, as in the case of Alice Guo), but other times it can look the other way. Investors hate unpredictability, and, holding other things constant, they would rather put their money in economies with a strong rule of law, where the rules can’t be changed in the middle of the game. No wonder they’d rather pour investments on other ASEAN countries like Singapore or Vietnam. Lastly, let me comment on the statement of President Ferdinand Marcos Jr. in light of the escape and arrest of Alice Guo. When Alice Guo fled, Marcos said emphatically, “The departure of Alice Guo has laid bare the corruption that undermines our justice system and erodes public trust. LET ME BE CLEAR: Heads will roll.” When Alice Guo was arrested, Marcos said , “Let this serve as a warning to those who attempt to evade justice: Such is an exercise in futility. The arm of the law is long, and it will reach you. This government continues in its duty to apply the rule of law.” But lest we forget, the Marcoses themselves have yet to return hundreds of billions of pesos of their ill-gotten wealth , looted during the reign of the dictator Ferdinand E. Marcos (1972-1986). Above and beyond that amount, they still haven’t paid at least P203 billion in estate tax liabilities they owe to the Bureau of Internal Revenue. So to correct the President: This is a country where heads have rolled too seldomly and selectively, and where the arm of the law is too short. – Rappler.com JC Punongbayan, PhD is an assistant professor at the UP School of Economics and the author of False Nostalgia: The Marcos “Golden Age” Myths and How to Debunk Them . In 2024, he received The Outstanding Young Men (TOYM) Award for economics. JC’s views are independent of his affiliations. Follow him on Twitter/X ( @jcpunongbayan ) and Usapang Econ Podcast . How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Corruption in the Philippines,foreign investments in the Philippines,Philippine economy,Philippine justice system,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Filipinos online slam gov't officials over ‘special treatment’ of Alice Guo</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/filipinos-online-reaction-officials-treatment-alice-guo-arrest-september-2024/</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>45541.23592592592</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RETURN. Dismissed Bamban, Tarlac Mayor Alice Guo arrives in the Philippines on September 6, 2024, after her deportation from Indonesia, where she had been arrested. Bureau of Immigration MANILA, Philippines – “A mockery of the Filipino people,” social media users said on Friday, September 6, in describing how government officials treated dismissed Bamban Mayor Alice Guo during her arrest and deportation to the Philippines  Users criticized Interior Secretary Benhur Abalos for treating Guo with “so much deference” and even posing for photos with her. I HAVE A LOT OF QUESTIONS! hello ang dami pong kaso ni alice guo a.k.a guo hua ping and you guys give her this kind of special treatment. hindi po artista si alice, kriminal po siya. 🤡 pic.twitter.com/6vvsiDI8i6 WTAF. Why is Abalos treating her with so much deference? Engaging her in social conversation? She’s being extradited for being on the run from our justice system, for gosh sakes! Pa cute pa?! Tangaaaaa! https://t.co/4cBoXXQI7l The Secretary of the Interior &amp; Local Government and the PNP Chief are having so much fun. Nevermind that Alice Guo escaping overseas is symbolic of their own failure. What a mockery of the Filipino people. ✌🏼✌🏼 pic.twitter.com/1nA2R4EOlZ Netizens also wondered aloud why Abalos even had conversation with Guo, who asked him for protection because of “death threats ,” despite her Senate-issued warrant of arrest for skipping the Senate hearings on illegal Philippine offshore gaming operators. She also faces graft charges and multiple complaints, including human trafficking and money laundering. Hindi ata aware si Benhur Abalos na naka-on mic niya. Special Treatment si Bamban Mayor Alice Guo kay DILG Sec. Benhur Abalos. Aba, nilalambing pala ang mga kriminal? pic.twitter.com/zcrlLlJYO4 Alice Guo has repeatedly lied in the past and yet, paniwalang-paniwala agad si Benhur Abalos sa claim ng suspendidong ex-fugitive mayora na may natatanggap siyang death threats.  Also, si Alice Guo na yata ang pinakamasayang taong may death threats. Ikaw talagaaa… pic.twitter.com/AukrS4iwY4 Abalos later denied that he was giving any special treatment to Guo, and called the comments “unfair.” Veteran journalist Lynda Jumilla-Abalos, meanwhile,  asked why officials decided to charter a flight to bring back Guo to the Philippines. She also suggested that the flight be charged to Guo’s frozen assets . Chartered flight? Wow, gumastos pa ang taumbayan dito. Let’s charge this to her frozen assets please. Thank you. https://t.co/anpH1IpOI1 Social media users said the treatment of Guo is a reflection of the Philippine justice system,  comparing it to how law enforcers arrest activists and government critics. Kapag ordinaryong tao vs operator ng POGO. Double standards ng hustisya sa Pilipinas pic.twitter.com/jAkVqBOHpO Philippine justice system is a circus. See how they arrested Reina Mae Nasino with made-up evidence vs Alice Guo with strong evidence of crime 🤡 pic.twitter.com/iAz8eICa4H Filipinos online were also disturbed by Guo’s demeanor following her arrest. “ Talagang mapagkakatiwalaan pa ba ang national authority kung makikita ang isang fugitive na ganito ka-comfortable matapos mahuli? Kadiri ,” X user @echoechonames said. (Can we really trust our national authorities if we see that a fugitive is feeling comfortable after getting caught? Disgusting.) Is it just me, or does it seem strange that Alice Guo is smiling and acting so chill, as if she hasn't done anything wrong? 🤔 pic.twitter.com/DtZW4Pu1zW Probably one of the MOST DISTURBING CLIP in the news right now. Paano nagagawang ngumiti at  kumindat na parang artista nitong si Alice Guo?? Talagang mapagkakatiwalaan pa ba ang national authority kung makikita ang isang fugitive na ganito ka-comfortable matapos mahuli? Kadiri! pic.twitter.com/qDPjhYyhMU Guo arrived in the country past 1 am on Friday, in a private hangar in Pasay after Indonesian authorities arrested her. She was ordered arrested by a Tarlac court for graft charges. – With reports from Patricia Kahanap/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Benhur Abalos,Bureau of Immigration,DILG,National Bureau of Investigation,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Inside Alice Guo's deportation: A rushed flight, a 1 pm deadline</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/how-marcos-jr-administration-officials-arranged-alice-guo-deportation-indonesia/</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>45540.82173611111</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ARRIVAL. Alice Guo covers her handcuffed hands as she faces the media in an orange detainee tshirt upon arrival at a Pasay private hangar. Lian Buan/Rappler In the morning of Thursday, September 5, Interior Secretary Benhur Abalos said he called President Ferdinand Marcos Jr. He wanted to go to Indonesia to get the hunted Alice Guo. He wanted for the police chief to go with him. “ Sige, puntahan ninyo para makuha si Alice Guo (Go, fetch her, so you can get Alice Guo),” Marcos said over the phone, according to Abalos. The Indonesian police gave them a deadline to get to Jakarta by 1pm, or else they would have to release Guo because they had no basis to hold her any longer. “ Hinahabol namin ni Secretary kasi wala naman siyang kaso, wala siyang kasong kriminal, only contempt. Kaya hinahabol namin kasi sabi ng Indonesian national police, wala silang jurisdiction kasi wala namang criminal case ,” said Philippine National Police (PNP) Chief General Rommel Marbil. (The Secretary and I were rushing because there was no criminal case against her, only contempt. We were rushing because the Indonesian national police said they had no jurisdiction because she does not have a criminal case.) When Guo was arrested at a villa in Jakarta on September 4, she only had a Senate arrest warrant out for her for contempt citation. That remained the situation until late afternoon of Thursday when a court in Capas, Tarlac, released buzzer-beating warrant of arrest for Guo for two counts of the criminal charges of graft. But before that Tarlac warrant, she could have walked free in Indonesia. “Anong oras namin nalaman [‘yung 1 pm deadline] pa-tanghalian na, kung maghahanap ka ng eroplano papunta ‘dun halos wala na, halos puno na. Pangatlo, mahirap kasi kukuha ka ng special permit kasi may kasama kang naka posas e,” said Abalos. (We found out about the 1 pm deadline around lunchtime, so if we look for a flight, almost everything was booked. It was also difficult to get a special permit to travel with someone who is handcuffed.) Abalos said he called in a favor to a friend to get chartered flights back and forth, adding that the government did not spend for the mission. Abalos and Marbil said they had to invoke police-to-police cooperation to move the deadline, which the Indonesian police allowed. Abalos said the reported prisoner swap deal for Australian national Gregor Johann Haas , wanted in Indonesia for drug smuggling, “was never the basis” for the deportation. “As far as Indonesia is concerned, it was mentioned that the death penalty for that person, they were not considering. It was never the basis,” said Abalos. Guo landed past 1 am on Friday, September 6, at a private hangar in Pasay handcuffed and wearing an orange detainee shirt. Guo invoked her right to remain silent, and only gave a few statements about the death threat she said she’d been getting. “I confirm everything the Secretary said, that I have death threats. Humihingi po ako ng tulong sa kanila, at masaya po akong nakita ko sila, I feel safe (I am asking help from them, and I’m happy I saw them, I feel safe),” said Guo. Photos of Guo with Abalos, Marbil, and several of the Philippine operatives who were part of the mission, showing them smiling, drew the ire of the public, which condemned what they said was special treatment for someone being linked to massive scamming, torture, trafficking, and money laundering. The accusations against Guo related to shady POGOs (Philippine Offshore Gaming Operation) are still at the prosecutorial level at the Department of Justice (DOJ). “She felt relieved,” said Abalos, but stopped short of saying if he was able to secure a commitment of cooperation from Guo insofar as naming the big fish behind POGOs, or at least those who helped her flee the country. “ Ang pinayo ko sa kanya, huwag siyang matakot sabihin ‘yung totoo, and we will take care of her security (I advised her not to fear saying the truth, and we will take care of her security),” said the interior chief. Because there’s now a criminal warrant for graft against Guo, Marbil said the PNP would keep her in custody until such time that she can post bail in Capas, Tarlac. Only when the court receives her P180,000 bail and issues a release order would the PNP turn her over to the Senate, where she has a warrant for contempt. Since operatives from both the National Bureau of Investigation and the Philippines’ Bureau of Immigration were already in Jakarta, why did it necessitate top executives like Abalos and Marbil to be there as well? Marbil said it was because it was a police-to-police matter. Indonesian police caught Guo, after its immigration force asked for help. Marbil said the arrest of Guo in a villa in Tangerang City was also “by chance.” “[The Indonesian police] took a risk by opening that house. It’s really more of a mutual agreement between us, kaya lang (it’s just that) the Indonesian police told us to go there right away because she has no case,” said Marbil. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Alice Guo</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Tarlac court orders Alice Guo’s arrest | The wRap</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/september-5-2024/</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>45540.6</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: A Tarlac court issues an arrest warrant against dismissed Bamban, Tarlac mayor Alice Guo for graft charges.  The court sets bail at P180,000 for two counts of the charge. Did the mayor of Sual town help dismissed Bamban Mayor Alice Guo flee the Philippines? This was a line pursued by Senator Risa Hontiveros as the Senate probed how the Guos were able to flee the country. The National Bureau of Investigation says 16 out of 169 foreign nationals caught in an illegal POGO hub in Cebu were sued for qualified trafficking. The MTRCB reclassifies the documentary film ‘Alipato at Muog’ from an X rating to an R-16 rating. It can now be screened in commercial cinemas. The Philippines wins big at the 31st Annual World Travel Awards with eight major titles under the Asia category. Cebu is crowned Asia’s Leading Wedding Destination. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Alice Guo,MTRCB,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Alice Guo ordered arrested by Tarlac court</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/tarlac-court-arrest-warrant-alice-guo/</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>45540.42650462963</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RETURNING TO PH. Dismissed Bamban, Tarlac mayor Alice Guo signs travel documents prior to her deportation back to the Philippines, in Jakarta, Indonesia, on September 5, 2024. Benhur Abalos' Facebook page MANILA, Philippines – A Tarlac court has issued an arrest warrant against dismissed Bamban, Tarlac mayor Alice Guo for graft charges, the Philippine National Police (PNP) confirmed on Thursday, September 5. PNP spokesperson Colonel Jean Fajardo confirmed that Capas, Tarlac Regional Trial Court (RTC) Branch 109 issued the warrant of arrest against Guo for two counts of alleged violation of the Anti-Graft and Corrupt Practices Act or Republic Act No. 3019, a bailable offense. The court set bail at P90,000 for each count. Ombudsman Samuel Martires confirmed to Rappler that his office filed a criminal case against Guo before the Tarlac court. This meant that the Ombudsman found sufficient evidence to indict Guo and pursue the case against her. This is the same office that suspended and later dismissed Guo over another set of administrative complaints filed by the Department of the Interior and Local Government (DILG). Guo is on her way back to the Philippines, following her arrest in Indonesia. She is expected to arrive in the country late Thursday night. Fajardo said on Thursday night that Guo will undergo regular booking like any other individual who faces a warrant of arrest. After her arrival, she will undergo a medical examination at Camp Crame, the PNP’s national headquarters. Fajardo said Guo will be turned over to the Senate due to the chamber’s standing arrest order against the mayor. The warrant stemmed from a complaint filed against Guo over her alleged involvement with an illegal Philippine offshore and gaming operator (POGO) in Bamban. The DILG argued that Guo failed to revoke the business permit of the illegal POGO even though its Philippine Amusement and Gaming Corporation license had already expired. This is the first court arrest order against Guo, who faces a string of allegations. There’s also a standing arrest order from the Senate against Guo for snubbing the upper chamber’s probe into POGOs. Guo faces at least three other criminal complaints pending before the Department of Justice: qualified human trafficking , tax evasion , and money laundering . These are all related to her incorporation of a leasing company called Baofu, which rented its spaces out to a POGO called HongSheng/Zun Yuan, which was found with evidence of torture and trafficking. Evidence submitted by several agencies to the DOJ claim Guo never divested from Baofu , contrary to her claim that she let go of her interest when she won as mayor of Bamban, Tarlac in May 2022. Guo’s sister Shiela said the dismissed mayor fled the Philippines by boat around July 14, and reached Sabah, Malaysia on July 18. However, several Philippine authorities have expressed doubts over Shiela’s testimony. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Central Luzon,Corruption in the Philippines,Philippine judiciary,POGOs,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Who was Alice Guo's partner? Was it a Pangasinan mayor who helped her flee?</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/inside-track/alice-guo-partner-sual-pangasinan-mayor-dong-calugay/</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>45540.38472222222</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. PANGASINAN MAYOR. Sual, Pangasinan Mayor Liseldo 'Dong' Calugay is invited to the Senate's POGO investigation to shed light on his relations with dismissed Bamban, Mayor Alice Guo. Photo from Mayor Calugay's Facebook Page Did Alice Guo flee the Philippines from Pangasinan, and did the mayor of Sual town help her? This was a line pursued by Senator Risa Hontiveros on Thursday, September 5, as the Senate resumed its investigation into how the Guos were able to leave the country in mid-July despite Senate warrants and an immigration lookout in relation to criminal investigations into shady POGOs (Philippine offshore gaming operators). Sual, Pangasinan Mayor Liseldo “Dong” Calugay, who had been photographed in the past with dismissed Bamban Mayor Alice Guo, was invited to the Senate on Thursday but he told the panel that he had been diagnosed with dengue “which requires immediate medical attention and rest.” In response to Hontiveros’ questions, Shiela Guo confirmed that she met Calugay in 2019 through her sister, Alice. She said they met in a restaurant in Pangasinan. “ May relasyon ba si Mayor Calugay at Alice? Magkasosyo ba sila sa business? ” asked Hontiveros. (Are Mayor Calugay and Alice in a relationship? Are they business partners?) “ Ang alam ko po, magkaibigan sila (From what I know, they’re friends),” said Shiela. Calugay’s involvement in Guo and POGOs, presumably, became less vague after the panel went into an executive session with an unnamed resource person. When the session resumed, Hontiveros later said: “I wish to share that the executive session has surfaced a clear link to Mayor Calugay of Sual…. I really, really hope that the good mayor will make himself available when he is called. ‘Wag po sanang bigla kayong umalis sa bansa, mayor (Please don’t leave the country, mayor).” She did not provide other details. In a Senate hearing in May, Senate President Pro Tempore Jinggoy Estrada had asked Alice Guo to confirm if she had a “live-in partner” who was a Pangasinan mayor and who also allegedly ran a POGO in her town. The dismissed Bamban mayor said she was single. Since then, various social media posts alleged that the Pangasinan mayor was Calugay. To further establish the Guos’ Sual link, Hontiveros brought out a Department of Trade and Industry (DTI) document showing that Shiela owns a company called Alisel Aqua Farm in Sual, and a photo ID of Shiela issued by the Sual municipal government for account insurance membership. Shiela denied what was in the documents, claiming that somebody might have used her identity. “ Wala po akong alam (I don’t know anything),” said Shiela. Unconvinced, Hontiveros told Shiela, “ I really regret na hindi kayo mas makatotohanan at mas helpful sa komiteng ito.” (I really regret that you have not been more truthful and helpful to this committee.) Shiela earlier said they fled the Philippines by boat starting from a point in Luzon, but she has not been able to specify which point. Theories abound about the Guos’ point of departure in the Philippines, whether it was Pangasinan or Zambales, where there was a supposed sighting of Alice Guo in a resort there on July 14. The owner of the Emon Pulo resort in San Antonio, Zambales, told the Senate on Thursday that someone there looked very much like Alice Guo, but was not the mayor. The owner did say that Alice Guo had been to their resort in May 2023 for a party of a business partner. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>[Rappler Investigates] Oh Alice, oh Sara, oh Francis</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/newsletters/investigates-oh-alice-guo-sara-duterte-pope-francis/</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>45540.375</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. This week has been action-packed and fast-paced, with events and stories coming in rapid succession. But first things, first. To quickly spare you from good old-fashioned FOMO, be sure to know what “shimenet” means and why it has suddenly become part of the Filipino political lexicon. Just read this: What is ‘shimenet’… in relation to Vice President Sara Duterte and it’ll bring you up to speed with the Gen Zs and avid social media users. Sara Duterte threatened to again dominate the news cycle the entire week — but there was intervention from Severe Tropical Storm Enteng (Yagi), which has fortunately already exited the Philippine Area of Responsibility but has since developed into a typhoon . Enteng left in its trail at least 15 dead , as of Wednesday afternoon, September 4, a grim reminder that deaths from disasters will be a recurring occurrence unless drastic steps are taken to reverse a worrying trend: metropolitan areas in the country are sinking owing to development and excessive groundwater extraction. Enteng had barely stepped out of the spotlight when dismissed Bamban mayor and fugitive Alice Guo snatched the limelight all to herself again, giving the countless “shimenet” TikTok creations serious competition. She may not admit it, but Duterte must have been thankful to Guo for that respite. Reporters Jairo Bolledo and Lian Buan scrambled early morning Wednesday to verify and confirm information that Alice Guo had indeed been arrested by Indonesian police. Confirmation came via the National Bureau of Investigation and then the Department of Justice. It took Indonesian authorities all of 18 days to track down and eventually arrest the woman who drew quick circles around Philippine law enforcement officials — including immigration and the police — who were either blind, incompetent, negligent, or simply complicit. Were they persuaded by extreme generosity on the part of Guo? For how else could one explain their dismal failure to find her over a two-month period and prevent her worthy-of-a-movie escape from the country? What happens next? According to Lian, there’s chatter that Jakarta is interested in a swap. Local media in Indonesia reported that there had been a request for an exchange involving a suspected Australian drug cartel syndicate member Gregor Johann Haas, who was arrested in Cebu only last May. The Australian had been on the Interpol’s radar and had been subject of a red alert that stemmed from a drug smuggling case in Indonesia, as reported by weekly magazine Tempo . Immigration Commissioner Norman Tansingco described Haas in a May 2024 Associated Press report , as a “high-profile fugitive for being an alleged member of the Sinaloa cartel, a large international organized crime syndicate based in Culiacan, Sinaloa, Mexico that specializes in drug trafficking and money laundering activities.” Could Guo be as high-value as Haas? ECLIPSED SARA. It’s easy to see how Sara Duterte could be eclipsed by Alice Guo. But the Vice President has had her unforgettable moments, too, in congressional hearings. Her supporters said she was just being authentic and that she “slayed” the inquisitorial lawmakers who were out to get her. Critics were quick to pounce on her bratty and defiant behavior, baring the real Duterte who showed how she regarded herself as the privileged daughter of a former president and as someone whom legislators had no right to question over her use of confidential funds. Accountability, transparency, checks and balances were just among the most common terms often tossed around during the hearings on the Office of the Vice President’s budget. The spectacle of a provocateur on the offensive, in the midst of members of Congress who were striving hard to remain respectable and restrained before the cameras, was both entertaining and annoying. You can catch the major events here and watch how you’d react: Will Sara Duterte survive these? POPE FRANCIS. To keep our sanity, let’s end on a more positive note. Pope Francis has embarked on a two-week trip to the Asia-Pacific region starting with Indonesia (no, it’s not the reason why Indonesian police arrested Alice Guo) in an apparent effort to encourage inter-religious dialogue and help lessen extremism. The journey of the 87-year-old pontiff will also bring him to Papua New Guinea, Timor-Leste, and Singapore. No Philippines in his itinerary this time because, according to religion reporter Paterno Esmaquel II, Pope Francis wants to focus on nations “where the Catholic Church has a smaller flock.” In the Philippines, according to the 2020 Census of Population and Housing , close to 80% of Filipinos belong to the Roman Catholic Church. No stronger evidence is there perhaps of the Philippine Catholic clout than Cardinal Luis Antonio Tagle himself, who has been by Francis’ side in most of his travels after being named in 2019 one of two pro-prefects of the Dicastery for Evangelization . As such, it is Tagle’s job to bring the Catholic faith to places where it’s not yet widely known nor accepted. In Indonesia, where he will be staying until Friday, September 6, Pope Francis opted for a non-luxe Toyota Innova to bring him around. It comes as no surprise as he was merely being consistent with his past self as Buenos Aires Bishop Jorge Mario Bergoglio, who took city buses to be “with people where they are.” As the young ones say, “ Sana all .” (We wish it were true for all.) Till Thursday after next! If you like what you’re reading on Rappler, help us continue doing these stories by supporting independent and quality journalism . – Rappler.com Rappler Investigates is a bimonthly newsletter of our top picks delivered straight to your inbox every other Thursday. To subscribe, visit rappler.com/profile and click the Newsletters tab. You need a Rappler account and you must log in to manage your newsletter subscriptions. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Budget Watch,Catholic Church,Department of Education,Faith and Spirituality,Office of the Vice President,POGOs,Pope Francis,Sara Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Wesley Guo wants to surrender – lawyer</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/wesley-guo-wants-surrender-says-lawyer/</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>45540.1362037037</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ALICE GUO'S LAWYER. Atty. Stephen David talks to reporters ahead of a Senate hearing on September 5, 2024 Angie de Silva/Rappler MANILA, Philippines – Wesley Guo, the brother of dismissed Bamban Mayor Alice Guo, wants to surrender, their lawyer Stephen David said on Thursday, September 5. David said this in an interview with reporters ahead of a Senate hearing which the lawyer was to attend. David said Wesley told him about his plan in a phone conversation on Wednesday, September 5, the same day his sister was arrested in Indonesia . “Gusto rin niyang sumuko. [Ang] detail hindi ko masasabi ,” David said. (He also wants to surrender. I can’t give the details.) Asked what prompted Wesley to consider this, David said: Siyempre dumadating sa point ng isang tao na nadidiscourage ka, ‘di  ba? Kasi, ‘yung mga kasama mo nandiyan na lahat. Human being that we are, dumarating ‘yung point ng kahinaan natin… . Which is actually ‘yun naman ang tamang gawin .” (Of course, there comes a point when you get discouraged. The others with him are all here. Being a human being, there comes a point of weakness…. Which is actually the right thing to do.) The lawyer said he had conveyed this to Philippine authorities. Senator Raffy Tulfo, chair of the Senate committee on public services, said in a statement that Alice Guo is expected to be brought back to the country past 6 pm on Thursday, via a chartered flight. She will be accompanied by Interior Secretary Benhur Abalos and Philippine National Police chief General Rommel Marbil “Bitbit ni SILG Abalos ang warrant of arrest  para ipatupad ang inisyung warrant ng Senado. Kasalukuyan ng pinoproseso si Guo ng Bureau of Immigration at NBI para sa kanyang pagbalik dito sa Pilipinas,” Tulfo added. (READ: How Alice Guo was caught by Indonesian police in only 18 days ) (SILG Abalos will bring with him the warrant of arrest to implement the warrant of the Senate. The Bureau of immigration and the NBI are currently processing Guo for her return to the Philippines.) Wesley fled the Philippines with Alice and their other sibling, Shiela, on July 18. They are the subjects of an arrest warrant from the Senate for “unduly refusing to appear, despite due notices,” in the upper chamber’s probe into illegal activities of Philippine Offshore Gaming Operator (POGOs). Shiela and Katherine Cassandra Ong , who is tagged in the raided Porac, Pampanga POGO , were arrested in Indonesia on August 21 and were brought back to the country on August 22. – With reports from Lian Buan, Bonz Magsambol/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Alice Guo</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>NBI: 16 foreigners caught in Cebu POGO hub charged with qualified trafficking</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/nbi-report-foreign-nationals-charged-qualified-trafficking-cebu-pogo-hub/</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>45539.51135416667</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. TRANSFER. 169 foreign nationals, along with 5 Filipinos, are transported from the Tourist Garden Hotel in Lapu-Lapu City to the Mactan–Benito Ebuen Air Base, where they would board two C-130 military aircrafts headed for Manila, on September 4, 2024. John Sitchon/Rappler CEBU, Philippines – The National Bureau of Investigation (NBI) said in a press conference on Tuesday, September 3, that 16 out of 169 foreign nationals caught in an illegal Philippine offshore gaming operator (POGO) hub in Cebu were sued for qualified trafficking. On Saturday, August 31, authorities arrested the foreigners — 69 Indonesians, 93 Chinese, 6 Burmese, and 1 Malaysian — during what was supposed to be a rescue operation on illegal scamming activities at the Tourist Garden Hotel in Lapu-Lapu City. “Assisted by lawyers from the Department of Justice’s (DOJ) Public Attorney’s Office (PAO), the respondents opted to submit the case for resolution,” NBI Central Visayas Regional Director Rennan Oliva said. Based on the results of the inquest proceedings conducted online before the National Prosecution Service, the 16 alleged traffickers were identified by other foreign nationals as their recruiters. “When they [foreign nationals] came here, their passports were taken from them so they cannot leave freely out of the country…so that’s why there are foreign nationals who are being charged for qualified trafficking in persons,” Oliva added. Those charged with qualified trafficking in persons are the following: Additionally, a Filipino named Zandrew Magdaluyo Cantarona was also sued for being an accessory to the crime. According to authorities, Cantarona arrived at the Tourist Garden Hotel on a motorcycle on Monday, September 2, bringing with him 51 passports owned by 51 Indonesian nationals under the custody of the NBI. “During the investigation, it was found out that he is working for his Chinese employer and we have all the reasons to believe that he is one of those recruiters who caused the trafficking of these Indonesian victims,” Arnel Pura, agent-in-charge of the NBI Cebu District Office, told reporters. Pura added that the passports were material evidence to the case, prompting authorities to arrest Cantarona. Authorities also apprehended a Filipino “helper” who attempted to smuggle P8 million from the hotel compound. According to Pura, they are not disclosing the identity of the helper as the latter has opted to become a witness in the case. Immigration law violation Jamar Matugas, head of the Bureau of Immigration (BI) Central Visayas regional intelligence operations unit, said in the press conference that all 169 foreign nationals were charged in violation of immigration laws. “All of them were charged for being undocumented and working without the proper visas and permits,” Matugas said. On Wednesday, September 4, the foreign nationals, along with 5 Filipinos, were transported from the Tourist Garden Hotel to the Mactan–Benito Ebuen Air Base, where they would board two C-130 military aircrafts headed for Manila. According to authorities, the accused foreign nationals will be turned over to the Presidential Anti-Organized Crime Commission (PAOCC) in Pasay City. To recall, the case stemmed from a request from the Indonesian Embassy to rescue at least 40 Indonesian nationals who were allegedly forced to work as scammers. This followed the recue of two Indonesians in Mandaue City. “Those who are charged have to face the cases filed against them before they can be deported,” Oliva told reporters. “They will be given their day in court, the opportunity to answer.” On Monday, Lapu-Lapu City Mayor Junard Chan ordered the closure of six business establishments that operated at the Tourist Garden Hotel compound. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Cebu,Central Visayas,Lapu-Lapu City,National Bureau of Investigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>'I'm not a dummy': Cassandra Ong denies running POGO despite records</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/cassandra-ong-not-dummy-denies-operating-pogo-despite-documents/</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>45539.49997685185</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. DOCUMENTS. Three documents name Katherine Cassandra Ong as a representative of Lucky South 99 POGO in Porac, Pampanga. MANILA, Philippines – It is the second House of Representatives hearing for the high-value witness Cassandra Ong, but lawmakers are driven to frustration because the 24-year-old refuses even offers of a potential witness protection and asserted on Wednesday, September 4, that she was not “a dummy” for the POGO (Philippine offshore gaming operation) in Porac, Pampanga. “ Hindi po ako dummy (I am not a dummy),” Ong said after being pummeled by questions aiming to establish her link to the POGO in Porac named Lucky South 99. It was already past 5 pm on Wednesday and several lawmakers have  already had outbursts over Ong’s “attitude,” but she did not budge, standing firm that she was only a majority stockholder (58%) of Whirlwind, the real estate company that leased its compound to Lucky South 99 POGO. Ong said she would answer all question in the proper venue—or in court if she is eventually charged for the money laundering complaint filed against her and dismissed mayor Alice Guo. “You don’t want to be protected by being cooperative with this committee, and you would rather face the music in the court… In other words, you would not cooperate by naming names?” said Sta Rosa, Laguna Representative Dan Fernandez. “ Wala po akong mabibigay na pangalan (I cannot give any names),” said Ong, as she was again threatened to be sent to the Correctional Institute for Women (CIW) in Mandaluyong, a facility for convicts. She is currently detained in the House of Representatives premises. “In the appropriate time, we will try to exhaust more ways to make Ong cooperate,” said Surigao del Norte 2nd District Representative Ace Barbers, shelving the motion to send her to the CIW. It was the raid in June of the Lucky South 99 POGO that revealed evidence of torture and trafficking was found. Ong, throughout the two hearings, denied being a Lucky South operator despite many documents naming her as the POGO’s representative. Rappler has seen three documents—1. A Letter of No Objection (LONO) from the Porac local government; 2. a board resolution of Lucky South 99; and 3. a lease agreement between Whirlwind and Lucky South 99—that named Ong as the POGO’s authorized representative. Ong has also confirmed paying Lucky South 99’s hundreds of thousand dollars worth of remittances to Philippine Amusement and Gaming Corporation (Pagcor), but for her, all of these do not amount to her being a POGO operator. Lawmakers spent a lot of time on this issue because for them, everything that Ong had done for Lucky South 99 made her directly involved with the POGO operations. “ Noong una po, ang Whirlwind at Lucky South 99 ay iisa. Pero ‘nung huli po naibenta na po ang Lucky South, last year (At first, Whirlwind and Lucky South 99 were one entity, but in the end, Lucky South 99 was sold, last year)” said Ong. Ong further distinguished Lucky South 99 from the POGO, saying “Lucky South is just renting out to POGOs,” and by POGOs she meant “the Chinese.” This could refer to the business process outsourcing (BPOs) acting as service providers, because that was how Pagcor designed offshore gaming, and precisely the design that was criticized as having allowed so many sub-licensees, including criminal ones. This was the line of questioning of Bukidnon 2nd District Representative Jonathan Keith Flores, but upon further interrogation, Ong wanted to consult her lawyer and double check her records. This agitated lawmakers, and Flores settled for another line of questioning, telling Ong: “Sometimes when we make up stories, it becomes more confusing. It makes it more difficult to answer.” Ong was arrested in Indonesia with Shiela Guo, the sister of Alice. Ong said she knew Alice Guo only because her boyfriend, Wesley Guo, was the brother of the former mayor of Bamban, Tarlac. But according to the money laundering complaint, Ong was also “a silent partner in the Bamban POGO, as she was the one who contributed in the construction of the Baofu compound.” Baofu is the leasing company incorporated by Guo and then later rented its Bamban compound to the Hongsheng/Zun Yuan POGO, similar to what Whirlwind was to the Lucky South 99 POGO in Porac. Past 6 pm, Wedensday, Ong complained of dizziness. The House physician reported that she had low blood sugar, and low blood pressure. The doctor recommended to excuse Ong, which the lawmakers supported, even proposing taking her to the hospital. With Ong excused, lawmakers started interrogation of AR Dela Serna, former executive assistant to Harry Roque. Roque was hired by Ong to lawyer for Whirlwind in an ejectment case.  Later Roque helped set up a meeting with Pagcor so Ong could reapply for Lucky South 99’s license. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Alice Guo,Cassandra Ong</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Marcos government to cancel POGO workers’ visas by October</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/marcos-government-cancel-pogo-workers-visa-october-2024/</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>45539.0041550926</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. FILE PHOTO. Authorities prepare 180 Chinese for deportation to Shanghai on December 14, 2023. The suspects were caught working at Smart Web Technology POGO hub without proper immigration documents and running an alleged prostitution den in Manila. Rappler MANILA, Philippines – The Marcos administration is set to cancel the work visas of Philippine Offshore Gaming Operators (POGO) employees by October 15, giving them time to leave the Philippines without issues as their employers wind down operations, Rappler has learned. The mostly Chinese POGO workers will lose their commercial 9G visas (also known as pre-arranged employment visas) by the said date. They can be granted tourist visas that will expire in 60 days, in time for the enforcement of the President’s total POGO ban by the end of 2024. Commercial 9G visas are given to foreigners who work in companies that have license to operate in the Philippines. This type of visa allows the holders to enter and exit the Philippines multiple times during their employment, and to stay here for a period that does not exceed their employment contracts. This visa can only be granted by immigration authorities if the applicant has an Alien Employment Permit issued by the Philippine labor department. Rappler has it on good authority that a decision was finalized after six or seven meetings that, at one point or another, included representatives from the justice, labor, and interior departments, as well as the Philippine Amusement and Gaming Corporation (Pagcor), the National Bureau of Investigation, and the Bureau of Immigration. The meetings started more than a week after President Ferdinand Marcos Jr. announced in his State of the Nation Address in July that all POGOs — renamed as internet gaming licensees since October 2023 — should be out of business in the Philippines by yearend. In at least one of the meetings, government officials sat down with the representatives of the six largest legal POGOs, which account for about 21,000 workers. The government is preparing to publish a notice in leading newspapers addressed to the affected foreign POGO workers. With text in English and Mandarin, the notice will provide information on the steps that the workers will have to take for a smooth transition. A Rappler source said the notice should help protect the affected workers from unscrupulous government workers or agents who might attempt to cite false guidelines, requirements, or violations to extort from the workers. Hotlines will be set up for the said workers. POGO workers can avail themselves of early repatriation before their work visas are even canceled. Those who will wait for their 9G visas to be canceled will be given 60-day tourist visas. That’s enough “due process” that will allow the workers to wind down their engagements in the country, said an informed source present in the meetings. Then, “they will all have to leave by December 31. Wala nang legal (They are all considered illegal) by December 31.” Government sources have been giving varying numbers of foreign workers at POGOs: Clearly, the revenue-generating agencies were citing figures based on the 43 POGOs still operating legally, while the law enforcers’ estimates include those from the 250 or so POGOs whose licenses had long been revoked and had been operating underground. The numbers of foreign workers in both legal and illegal POGOs were apparently considered in the meetings that led to the decision to cancel the commercial 9G visas. A time and motion study being done by the concerned agencies is based on around 100,000 POGO workers being repatriated by yearend. “There may not be enough [commercial] flights if we will have to repatriate 2,500 to 3,000 a day,” a source said. “Should we consider the chartered flights, which are more expensive? These are some of the details being ironed out.” In the past, the Chinese embassy in Manila had paid for the deportation of their citizens who were arrested in raids on illegal POGOs. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bureau of Immigration,PH immigration issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Alice Guo arrested in Indonesia</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/alice-guo-arrested-jakarta-indonesia/</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>45539.00219907407</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ARRESTED. Alice Guo is arrested by Indonesian immigration authorities in Greater Jakarta late night of September 3, 2024. Photo courtesy of Bureau of Immigration MANILA, Philippines – Dismissed Bamban, Tarlac Mayor Alice Guo has been arrested in the Greater Jakarta metropolitan area of Indonesia, the National Bureau of Investigation (NBI) said on Wednesday, September 4. NBI Director Jimmy Santiago confirmed to Rappler that Guo is now under the custody of Indonesian authorities. Guo was apprehended at 11:58 pm in Tangerang City, part of the Greater Jakarta area, also known as Jabodetabek, on September 3, Tuesday, the Department of Justice (DOJ) said. “This development has been verified by our counterparts in Immigration, who confirmed that Guo is currently under the custody of the Indonesian Police at Jatanras Mabes Polri,” said DOJ spokesperson Mico Clavano. “Immigration Commissioner Norman Tansingco is currently coordinating with the Indonesian immigration authorities for her possible return to the Philippines at the soonest possible time,” said Gilbert Cruz, chief of the Presidential Anti-Organized Crime Commission (PAOCC). “ Kung makuha namin sila, matapos ang BI, matapos sa amin , we will immediately turn her over to the Senate,” said Santiago who added the implementation of the plans would still have to depend on the weather. (If we get her, after the Bureau of Immigration, after us, we will immediately turn her over to the Senate) There are currently no court-issued warrants of arrest out for Guo, just a warrant from the Senate based on contempt. It is likely that Indonesian immigration authorities apprehended Guo for immigration violations, or offenses related to disobedience or obstruction of justice, like what happened to her sister Shiela Guo, and the family’s alleged close confidante Cassandra Ong. There are no exact details as of writing when Guo can be brought to the Philippines. Senator Risa Hontiveros said the Senate wants Guo present in their hearing on Thursday afternoon, September 5. “I’m really hoping makaharap na siya bukas. So, tinatarget namin (I’m really hoping she can appear tomorrow. So that’s what we’re targeting). But we can only target so much,” she said. Hontiveros said the Senate inquiry may be able to wrap up in four more hearings, but they’re aiming to establish a “bigger fish.” “Maaaring hindi siya yung pinakamataas pa. Maaaring hindi pa siya yung pinakamalaking isda dito. At yun yung gustong tumbukin ng Committee on Women bilang bahagi ng pag-wrap-up ng kabuuang apat na taon nang imbestigasyon laban sa POGOs,” said Hontiveros. (It’s possible she’s not the biggest fish here. And that’s what we want to find out in the Committee on Women as part of our wrapping up four years of POGO investigation.) Justice Secretary Jesus Crispin Remulla said the Indonesian government has been on top of the Guo situation ever since Shiela Guo and Ong were arrested on August 22. “We’re thinking of sending our prosecutors there [Indonesia],” said Remulla, adding that Guo is undergoing tactical interrogation in Indonesia. Senior NBI operatives will definitely be sent there too, Remulla said. Guo can be returned to the Philippines within the day, President Ferdinand Marcos Jr. told reporters. “(The timing) depends on the police investigation results,” Jakarta’s law minister, Supratman Andi Agtas, told Reuters. Because she was arrested without a warrant, Guo will be subjected to an inquest proceeding to give the Philippine government basis to hold her in custody. Her lawyers will likely invoke her rights against custodial investigation, which requires that she be charged within 36 hours, otherwise the continued detention can be invalidated. Remulla shrugged these off, saying that Guo’s legal situation is “very complicated” as she faces multiple investigations in the legislative, executive, judiciary, “even in constitutional commissions,” referring to the Commission on Elections. “Kaya kung merong abugadong magmamarunong diyan, marami silang sasabihin. Pero sasabihin nating hindi tama ang naging diskarte ni Alice Guo sa buhay niya, unang una, yung passport niya may problema tayo diyan, hindi lang natin kina-cancel kasi hindi kailangan pa,” said Remulla. (So any lawyer who would act smart, and say many things, I will say that Alice Guo miscalculated her moves. First of all, her passport has problems, although we are not canceling it.) Alice Guo faces two complaints at the Department of Justice (DOJ), one for qualified human trafficking , and another for money laundering , both related to her incorporation of a leasing company called Baofu. Evidence submitted by several agencies to the DOJ claim Guo never divested from Baofu , and that the company was a front for the illegal activities of Hong Sheng/Zun Yuan, the Philippine Offshore Gaming Operator (POGO) that leased it. Guo, at least according to her sister Shiela, fled the Philippines by boat around July 14, and reached Sabah, Malaysia on July 18. Several authorities have expressed doubt about the veracity of Shiela Guo’s testimony. This is a developing news. Refresh this page for updates. – With reports from Reuters/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Alice Guo,Indonesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>It was legal until it wasn’t? Cebu POGO hub controversy goes way back to 2019</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/inside-track/legal-until-not-cebu-pogo-hub-controversy-september-2024/</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>45538.97916666666</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SEALED. The exterior of the controversial Tourist Garden Hotel is sealed with a retractable railing and a sliding fence wall. Photo from Rappler John Sitchon/Rappler The discovery of an illegal Philippine offshore gaming operator (POGO) hub on August 31 in Barangay Agus, Lapu-Lapu City left many residents, especially public officials, scratching their heads over how exactly it appeared out of nowhere. On July 23, Lapu-Lapu City Mayor Junard Chan said on SunStar Cebu ’s online news program Beyond the Headlines that there weren’t any “legal” POGO hubs in his city and that they haven’t approved any application for one — a sentiment he reiterated in a press conference on Monday, September 2. A day after the discovery, Chan confirmed in a phone interview with Rappler on September 1, that he was blindsided by the existence of POGOs, adding that they have been closely monitoring suspicious foreigners since his first term as mayor in 2019. “My treasurer, their team, they go there to inspect the areas. They didn’t find illegal activities inside the compound…I was really surprised,” the mayor said during the press conference. “They are paying [taxes] from 2019 until this year but there is no [POGO] operation that we saw,” the mayor added. The thing is: rumors about the “underground” POGO hub in that same hotel go way back to 2019 — even the mayor knew about it. In the same press conference, Chan confirmed that it was the same hotel where officials from the National Bureau of Investigation (NBI) rescued women who were allegedly trafficked. “At that time, it happened in the KTV Bar. It was closed but they operated again because I think the case was dismissed,” the mayor told reporters. So why are we surprised? Benefit of the doubt? A SunStar Cebu article dated August 7, 2019, revealed that the NBI rescued 34 Chinese women during an entrapment operation days before, on August 2, against female Chinese named Zeng Dan, Quan Yiqing, Xiuzhu Wei, and Xiushen Wei inside the Royal One KTV located at the Tourist Garden Hotel. Then-NBI Central Visayas director Tomas Enrile was quoted in the article as saying that “they [the women] were recruited from China and were promised a job in a legal gaming operation for a Philippine offshore gaming operator, but they ended up in Cebu as high-class prostitutes.” The NBI filed a case of qualified trafficking of persons against the four Chinese women on August 5, 2019. The rescued women were later released to the care and custody of the Chinese consulate in Cebu. However, the Chinese consulate said in a statement that there was no evidence that the 34 Chinese women were involved in any illegal activity. On August 6, 2019, Chan personally inspected the hotel, checked the business permits and said that there wasn’t any reason to close the Tourist Garden Hotel. “ Naa naman na sa NBI that is under investigation naman na nila. But in terms sa permit, kompleto sila ug in order tanan, ” the mayor said in a 2019 SunStar Cebu article . (It is up to the NBI that is already investigating them. But in terms of permits, they are complete and all are in order.) Rappler reached out to the Lapu-Lapu City Prosecutor’s Office to get a copy of case no. R-LLP-19-01581-CR, which contains details about the trafficking case but was informed that only parties to the case could get a copy. On September 2, Chan shut down six businesses operating inside the Cebu POGO hub. The mayor didn’t see any need to order their closure in 2019 but after the recent rescue-operation-turned-POGO-discovery, it was all out from there. So what happened in between those years? Well, Chan, as mayor, welcomed the Chinese community to the grand opening of the Tourist Garden Hotel on September 13, 2019. “Thank you for choosing our city as the venue of your business. Rest assured that you are in the right place for your investment because the new administration is committed to keep Lapu-Lapu City a business-friendly city to the investors and workers alike,” the mayor said in his congratulatory speech. On September 19, 2019, the mayor thanked Chinese Zhao Shouqi, head of the Lapu-Lapu City Chinese Guild, for donating 22 computer units to the city’s e-library. Zhao Shouqi is the company president of the Tourist Garden Hotel who was also made the city’s consultant on Chinese business promotions, based on evidence recovered from the rescue operation. In a Facebook post on Friday, September 6, the mayor denied that the Tourist Garden Hotel president was made a consultant. He also said an identification card allegedly owned by the Chinese national, with the mayor’s signature and the title “consultant on Chinese business promotions,” was fake. The mayor attended the Spring Festival Gala Party Chinese New Year Celebration at the Tourist Garden Hotel on January 22, 2020. On February 13, 2020, Chan thanked the Lapu-Lapu City Chinese Guild for donating 18 computer units which were later turned over to the Lapu-Lapu City Police Office and Pangan-an Elementary School in Olango Island. On November 28, 2020, Chan thanked the Tourist Garden Hotel, along with the Lapu-Lapu City Chinese Guild and another business, for donating four solar panels and three computer units for schools in the city. The Facebook post containing details of the aforementioned donation was still available online on September 4 but has since been deleted. When asked about it, the mayor said during the September 2 press conference that Zhao and his organization are welcome to make donations if they fall under their group’s “corporate social responsibility.“ “As long as it’s legal, they are welcome but it’s a different story if you do illegal,” Chan told reporters. “There’s no space for illegal business in Lapu-Lapu City… tanang illegal nga himuon, drogas man o POGO, anything illegal kontra sa mayor (everything illegally done, whether drugs or POGO, anything illegal is the mayor’s enemy),” the mayor stressed during the presser. It’s not quite the usual friends-to-enemies trope but you know what they say? Keep your friends close, and your enemies closer. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Cebu,Central Visayas,Lapu-Lapu City,Local governments</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>FACT CHECK: Roque not sentenced to life in prison over alleged POGO links</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/fact-check/harry-roque-no-lifetime-sentence-alleged-pogo-links/</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>45538.12262731481</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Claim : Former presidential spokesperson Harry Roque will be imprisoned for life after a contempt citation from a House of Representatives mega panel investigating the proliferation of Philippine offshore gaming operators (POGOs). Why we fact-checked this: The video containing the claim was posted on August 25 by a YouTube channel with 178,000 subscribers. As of writing, the video has 41,218 views, 586 likes, and 104 comments. The video’s title implies Roque will be sentenced to life in prison: “Roque kakasuhan na? Habangbuhay makukulong. Dinawit pati pamilya ni Roque?” (Roque to be charged? [He] will be sentenced to life in prison. Roque’s family also implicated?) The video’s thumbnail includes text saying that the Presidential Anti-Organized Crime Commission (PAOCC) will file charges against Roque over his alleged connection with POGOs. It also features the images of PAOCC spokesperson Winston Casio and SAGIP Representative Rodante Marcoleta. The facts: No formal charges have been filed against Roque or a court decision sentencing him to life in prison. The misleading video did not provide evidence for its claim, merely showing clips from the House mega panel’s hearing on August 22 citing Roque in contempt. The power to cite a person in contempt is a “constitutional prerogative granted to Congress to ensure obedience and respect for its proceedings.” It does not equate to a court conviction or life imprisonment sentence. The misleading video also makes no mention of Roque’s family or Marcoleta being implicated in the issue, as falsely suggested in the thumbnail. Cited in contempt: Roque was cited in contempt on August 22 for lying before the quad committee about his absence at the committee’s first hearing on August 16. The former presidential spokesperson asked to be excused as he had to attend a hearing at a Manila court on the same date. Kabayan Partylist Representative Ron Salo, however, presented a copy of certification from the Manila Regional Trial Court showing that Roque had no hearing scheduled on August 16. Salo moved to cite Roque in contempt under Section 11 of the House’s Rules of Procedure Governing Inquiries in Aid of Legislation, which says that a House committee “may punish any person for contempt, by a vote of two-thirds (2/3) of the Members present, there being a quorum.” Among the grounds for citing a person in contempt is “acting in a disrespectful manner towards any Member of the committee or any misbehavior in the presence of the committee.” Roque later reasoned that it was an honest mistake and that he did not feel well during the first hearing. He was later detained for 24 hours in the House detention cell. Roque and POGOs: Roque has previously appeared before the House’s investigation into POGOs to defend himself from allegations that he lawyered for a raided POGO company in Porac, Pampanga. Roque and 11 others have also been put on immigration lookout over alleged POGO links. – Ramon Franco Verano/Rappler.com Keep us aware of suspicious Facebook pages, groups, accounts, websites, articles, or photos in your network by contacting us at factcheck@rappler.com. Let us battle disinformation one Fact Check at a time. Ramon Franco Verano is a Rappler volunteer. He is a fourth year History student at the University of Santo Tomas. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Harry Roque,House of Representatives,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>[Stakeout] Mga dorobo sa gobyerno hila sa ilong ng Tsino!</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/stakeout-corrupt-government-officials-influence-china/</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>45538.04166666666</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Raffy de Guzman (Unang bahagi) Matagal ko nang kinikimkim ang paniniwalang nakabaon sa utang na loob sa bansang China ang karamihan sa mga opisyal ng ating pamahalaan, kaya’t bulag at bingi ang mga ito sa kabulastugang pinaggagagawa ng mga ilegal na Tsino dito sa ating bansa. Sorry po, hindi ako bastos! Ang tinatawag kong ilegal na Tsino ay ‘yung mga abusadong Chinese, na kahit lubog sa mga ilegal na gawain dito sa atin, todo ang lakas ng loob at pagmamalaki dahil sa paniniwalang madaling paikutin sa kanilang mga palad ang mga opisyal ng ating gobyerno. Hindi naman ito kataka-taka para sa akin. Baon kasi sa utang na loob sa mga ilegal na Tsino ang karamihan sa kanila, kaya’t sa konting pakiusap na may kakambal pa na suhol, ayos na agad ang butu-buto! Sa madaling salita, hila-hila ng Tsino sa tungki ng kanilang ilong ang mga dorobong opisyal ng ating gobyerno! Bukod sa nakalulungkot ay nakaaalarma na ito, kahit na nga marami pa ring Tsino na may pagmamahal sa ating bayan ang naririto sa bansa. Sila ang grupong tinatawag kong mga Tsinoy — dahil kinakikitaan sila ng mataas na respeto sa ating kasarinlan. Sila ‘‘’yung may dugong Pinoy na naging bunga ng pagmamahalan ng mga Tsino — mga tumakas sa “Mainland” at lumikas sa ‘Pinas — at mga kababayan natin na naenganyo naman sa sipag magtrabaho at magnegosyo ng mga ito, kaya’t kanilang naging mga kinakasama o legal na asawa. Karamihan sa kanila ay naging maayos na pamilyang Pinoy, kaya walang duda na mahal nila ang bayan natin. Ang paniniwala kong ito hinggil sa mga ilegal na Tsino at mga dorobong opisyal ng gobyerno ay bunga ng napagtagni-tagni kong mga kuwento at confidential na impormasyon mula sa matitinik na kaibigang intel operative sa militar at pulis, na nakalubog sa mga kriminal na operasyon ng mga ilegal na Tsino bilang bahagi ng kanilang sleuth operation; at sa mga dating naging bata-bata ng mga mandurugas na pulitiko at opisyal sa pamahalaan. Dagdag pa rito ay mga impormasyong nakalap ko naman sa pakikipagkuwentuhan sa mga kababayan nating drayber ng Grab, taxi, at iba pang mga sasakyang pampubliko na aking sinasakyan kapag ako ay naglilibot sa matataong bangketa, eskinita, at kalyehon sa Metro Manila para mamulot ng mga firsthand na kuwento — pulso at damdamin ng ating mga lowly kababayan — hinggil sa mga nagaganap sa kanilang kapaligiran. Sila kasi ang grupo ng mga tao na punung-puno sa kasabikang maikuwento sa kilala at kaibigan nilang taga-media — pero naka-zipper ang mga labi nila kapag mga imbestigador ng gobyerno ang nagtatanong sa kanila — ang mga importanteng impormasyon na aksidente nilang nakukuha sa mismong mga lugar na iniikutan nila habang naghahanap-buhay. ‘Wag ’nyo maliitin ang “sources” na batang bangketa. Malaki ang sampalataya ko sa mga ito — security guard, palatak boys, vendor, street sweeper, taong grasa, batang kalye, at mga pulubi — dahil noong ako’y aktibong police beat reporter pa, galing sa kanila ang karamihan sa mga eksklusibo kong balita, ‘yung tinatawag na mga scoop. Ito ang sample na kuwento ng isang magaling at iginagalang na mataas na opisyal ng militar, noong ang kapulisan ay nasa ilalim pa ng Armed Forces of the Philippines. Hindi ko na babanggitin ang pangalan dahil pumanaw na siya. Sa tingin ko kasi’y napakaimportante nitong naging revelation niya sa akin, lalo na ngayong panahon ng pamamayani ng mga ilegal na sa ating bansa. Nagpapasarap ako sa mahabang bakasyon, dahil bagong retiro ako mula sa 12 taon na pagiging senior news editor sa GMA7 broadcasting network, nang makatanggap ako ng tawag mula sa naturang opisyal na babasangan kong “Boss Chief.” Mag-uusap kami para sa isang “sideline” na ibibigay niya sa akin. Aniya, “Tutal naman ay retarded (ang pabirong tawag sa mga retired sa serbisyo) ka na kapareho ko, tulungan mo ako, Dave, sa papasukin ko!” Nagkita kami sa bahay niya. Mahabang kuwentuhan. Masayang mga pagbabalik-tanaw sa nakaraang mga operasyon, na malaki ang naitulong ko sa kanya noong siya ay nasa Philippine Constabulary-Integrated National Police (PC-INP) pa, bago ito naging Philippine National Police (PNP) noong January 29, 1992. Muntik na akong mahulog sa aking silya nang bigla siyang magseryoso at sabihing, “Tulungan mo ako, Dave, sa darating na eleksiyon at taktakbo ako bilang senador!” Alam ko ang laro sa pulitika at alam ko na ‘di niya ito kakayanin — lalo pa’t ang pag-uusapan ay kung saan siya kukuha ng panggastos para itustos sa kanyang political campaign. Sabi ko agad sa kanya: “Gastos lang ‘yan na malaki. Sayang retirement benefits mo saka pension, mauubos lang diyan ‘tas ‘di ka naman sure na makalulusot.” Aba’y natawa siya sa sinabi ko at ito ang abot-tengang ngisi na tugon niya: “Sino me sabi sa ‘yo na gagastusin ko pera ko? Ni isang kusing mula sa savings ko ‘di ako durukot, pero siguradong malaki pa nga ang kikitain ko rito manalo at matalo man ako!” Dagdag pa niya, “’Pag nakuha ko campaign funds ko, ipagagawa ko agad na building itong bahay ko para lumaki at mapuwestuhan ng negosyo, ‘yung matitira lang ang gagamitin ko sa kampanya!” Nang sumunod na magkita kami ni Boss Chief ay busy na siya sa pag-aayos sa munting makinarya para sa kanyang pangangampanya. Dumating na kasi ‘yung inaasahan niyang suporta galing sa China.  Ramdam kong may “guilty feeling” siya — sa pagtanggap ng malaking halaga mula sa mga ilegal na Tsino — kaya’t nasabi niya rin sa akin na gaya-gaya lang siya sa natuklasan niyang ginagawang palabigasan ng tumatakbong kandidato tuwing halalan ang mga Tsino. Dito niya rin nalaman na talamak na ito, ‘di lamang dito sa Metro Manila, bagkus mas lalo pa sa mga lalawigan na patuloy na hinahawakan ng dynasty ng isang pamilya. Naikuwento niya sa akin ito nang buo, bago siya pumalaot sa magulong election bilang senador. Gaya ng inaasahan ko — dahil ‘di ko man lang naramdaman ang dibdiban niyang pangangampanya — natalo siya! ‘Yung kanyang bahay — eh ano pa nga ba — naging ilang palapag na gusali na noong huling tawagan niya ako para bisitahin siya! Ang pahimakas na payo sa akin ni Boss Chief noong huli kaming magkita: “May sources ka naman sa Bureau of Immigration, ‘di ba? Ipasilip mo ‘yung listahan ng mga pulitikong lumabas ng bansa, at siyempre, dumaan sa China bago mag-eleksiyon para “magmano” sa mga opisyal na nangako ng ‘suporta’ sa kanilang kandidatura. Siguradong magugulat ka sa dami nila at karamihan ay nakapuwesto na!” Ito na marahil ang sagot sa malaking question mark kung bakit sa mga lalawigan sa buong bansa ay namamayagpag sa kani-kanilang negosyo — kadalasan ay mga ilegal pa — ang mga ilegal na Tsino at natatabunan na nila ang kakumpetensiya na mga Tsinoy na legal ang pagnenegosyo. Namamayagpag ang mga iliegal na Tsino sa mga lugar na ang mga pulitiko ay hila-hila nila sa ilong. At ang mga lugar sa lalawigan na gustong-gusto na makontrol ng mga ilegal na Tsino, sa tulong ng mga “aso” nilang pulitiko at mga dorobo na opisyal ng local government units, ay ano pa nga ba kundi ‘yung mga coastal town para sa kanilang malakihang negosyo? Kayo na ang humusga kung anu-anong negosyo ang paldong pagkakitaan sa mga tabing-dagat na lalawigan! – Rappler.com ( Abangan ang ikalawa at huling bahagi!)  How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Corruption in the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Lapu-Lapu City mayor shuts down 6 businesses operating in Cebu POGO hub</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/lapu-lapu-city-mayor-junard-chan-shuts-down-businesses-cebu-pogo-september-2024/</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>45537.37982638889</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO. Lapu-Lapu City Mayor Junard Chan tells media on Monday, September 2, that they are ordering six businesses in the Tourist Garden Hotel to cease operations after an illegal POGO hub was discovered there. John Sitchon/Rappler CEBU, Philippines – Lapu-Lapu City Mayor Junard Chan ordered Tuesday, September 2, the immediate closure of six business establishments that were raided recently for being part of an illegal Philippine offshore gaming operator (POGO) hub in Barangay Agus. Law enforcement agencies busted Saturday, August 31, the establishments operating illegal scamming hubs inside the Tourist Garden Hotel complex in Lapu Lapu City . Chan’s cease and desist order included the Tourist Garden Hotel, whose complex housed the scam hubs. The mayor also ordered  the “cessation of  business operations” of Cyber Internet House Corporation, Nanyang Zhongjing Tobacco Corporation, Hwa Yan Realties Incorporated, Royal 1 Suwu KTV Corporation, and Asean Gufeng International Trade Corporation. “Because they are using their establishment, ang ilang gilukat nga mga permit diri, gigamit nila sa niining (the permits they got from here, they used for these) illegal activities, so for that we will issue a cease and desist order,” Chan said during a press conference on Monday morning. Lapu-Lapu City Mayor Junard Chan has issued a cease and desist order against six business establishments found in the controversial Tourist Garden Hotel where law enforcement found 162 foreign nationals operating an illegal POGO Hub on August 31. | via @TheJohnSitchon … pic.twitter.com/8g3FfAIPkH The mayor said each of the businesses have different owners and have a lease from the Tourist Garden Hotel. Chan, citing initial data from the Presidential Anti-Organized Crime Commission (PAOCC) and the National Bureau of Investigation (NBI), said that they found out that the POGO hub’s operators originated from Porac town in Pampanga and Bamban town in Tarlac . “I’m pretty sure because Lapu-Lapu [City] is the gateway, our airport is here, it’s the easiest place they could rush to,” the mayor said in a mix of English and Cebuano. The mayor’s order also revoked all permits acquired by the named businesses. JUST IN: Presidential Anti-Organized Crime Commission (PAOCC) Spox Winston Casio confirms on Saturday afternoon, August 31, that law enforcement agencies led a raid at an illegal POGO hub in Tourist Garden Hotel in Lapu Lapu City, Cebu. 📸 PAOCC | via @TheJohnSitchon  pic.twitter.com/z7oZtaPZIp Prior to the POGO hub’s discovery, the mayor already ordered the Lapu-Lapu City Police Office to profile foreigners residing in subdivisions within the city’s jurisdiction. The city has 30 barangays. Chan told Rappler on Sunday, September 1, that before President Ferdinand Marcos Jr.’s declaration of a nationwide ban against POGOs , there was one business that applied for a license to operate in the city. “ Meron kami dito sa City Time Square nag-apply for legal POGO (There was one in City Time Square that applied for a legal POGO). We don’t have a legal POGO in our city…I instructed police that we will not tolerate illegal POGOs,” he said. Chan added that the Tourist Garden Hotel did not apply for a license and confirmed that the illegal scamming activities were done underground. The mayor clarified in a Facebook post on Sunday that he issued the order to profile foreigners in the city right after the declaration of the POGO ban. Chan urged residents to report to their nearest police stations or send a message on his official Facebook page foreigners conducting suspicious activities within the city. Senator Risa Hontiveros said in a statement on Monday that the rescue of nearly 100 Indonesian nationals highlighted the need to enforce the Anti-Financial Account Scamming Act (AFASA). POACC listed 70 Indonesian nationals found inside the POGO hub. “ Sa mga hearing sa Senado, nabanggit na nabubuhay ang mga hubs na ito dahil sa forced labor ng mga biktima ng human trafficking, Pilipino man o dayuhan ,” the statement read. (In the Senate hearings, it was mentioned that the hubs thrive on forced labor of human trafficking victims, whether Filipino or foreigner) On July 20, the president signed the Anti-Financial Account Scamming Act into law. Hontiveros said that under the new law, the POGO hub’s operations can be considered economic sabotage. Section 4 of the AFASA describes economic sabotage as an offense committed by a syndicate, done in large scale, using tools used to send bulk emails to cause widespread damage to the public, executed by a group of foreign nationals operating inside or outside the Philippines, or committed through human trafficking. “AFASA also has a provision that allows the use of seized assets for victim protection. It is time we set the law in motion,” the senator said. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Cebu,Central Visayas,Lapu-Lapu City,LGUs in the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>WATCH: Inside the illegal POGO hub in Cebu</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/illegal-pogo-hub-lapu-lapu-city-cebu/</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>45536.14329861111</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CEBU, Philippines – Authorities found an illegal POGO hub during what was supposed to be a rescue operation at Tourist Garden Hotel in Lapu-Lapu City, Cebu on Saturday morning, August 31. Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio said in a press conference that a joint task force consisting of the PAOCC, the Inter-Agency Council Against Trafficking (IACAT), the Department of Justice (DOJ) and the National Bureau of Investigation (NBI) raided the hotel and found 162 foreign nationals working there. “ Eto ang first time namin sa PAOCC dito sa Cebu province (This is PAOCC’s first time here in Cebu province) but we have heard reports of other possible illegal POGOs in this region,” Casio told reporters. Get a closer look of the POGO hub inside Tourist Garden Hotel at the time of the raid on this video report by Rappler Visayas reporter John Sitchon. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Central Visayas,Lapu-Lapu City,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>162 foreigners rescued from illegal POGO hub in Cebu</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/visayas/foreign-nationals-rescued-illegal-pogo-hub-cebu/</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>45535.56290509259</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO. 162 foreign nationals were found inside scam hubs at the Tourist Garden Hotel in Barangay Agus, Lapu-Lapu City on Saturday, August 31. John Sitchon/Rappler CEBU, Philippines – Law enforcement agencies rescued 162 foreign nationals from an illegal Philippine offshore gaming operator (POGO) hub in the property of the Tourist Garden Hotel in Barangay Agus, Lapu-Lapu City, Cebu, on Saturday, August 31. Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio told reporters that initial reports of the POGO hub stemmed from a request from the Indonesian embassy. “There were three Indonesian nationals who escaped here July 21, then they sought the assistance of the embassy and the embassy informed us,” Casio said. Officials from the National Bureau of Investigation (NBI), Inter-Agency Council Against Trafficking (IACAT), and the Department of Justice (DOJ), among others worked on the rescue of the Indonesians  and executed the operation at around 6 am on Saturday. “We were just here to rescue the Indonesian nationals. Kaya lang, pagdating namin dito, in flagrante delicto — caught in the act — nakita namin merong mga scam farm dito (However, when we got here, in flagrante delicto — caught in the act — we found scam farms here),” Casio said. The property is composed of 10 multi-story buildings that house karaoke rooms, restaurant, swimming pool, hotel rooms, dormitory, bar, healthcare facility, and conference venues. During the operation, officials rescued six of the eight Indonesians that the Indonesian embassy requested to extract from the hub. According to the PAOCC, there were 162 foreign nationals found working on three different scam work areas: 83 Chinese, 70 Indonesian, 2 Taiwanese, 6 Burmese, and 1 Malaysian. Five Filipinos engaged in scamming activities were  also found. “All foreign nationals will be brought to Manila to face inquest proceedings for violation of immigration laws,” a statement from POACC sent to reporters read. Authorities seized computers, mobile phones, and other electronic devices used for “love scams” and cryptocurrency scams . Casio said that they found enough evidence to file complaints for facilitating cybercrime-related gambling and qualified trafficking. Based on initial interviews conducted by authorities, the POGO hub has five administrators that came all the way from Pampanga — mostly individuals who escaped raids conducted there . This is the first time that an illegal POGO hub raid was conducted in Cebu after President Ferdinand Marcos Jr. declared a nationwide ban during his State of the Nation Address (SONA) on July 22. Casio said that they have received reports about other POGO hubs in Cebu, which will be the subject of investigations in the coming days.  Authorities were still in the process of conducting an inventory of the property in preparation for an application of a warrant to search and examine computer data. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Cebu,Central Visayas,Lapu-Lapu City</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Lawmakers talk about lower budget, impeachment for Sara Duterte | The wRap</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/august-30-2024/</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>45534.60208333333</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Some congressmen are considering a lower budget for Vice President Sara Duterte’s office in 2025, and at least one lawmaker has brought up impeachment. Three government agencies file a money laundering complaint against 24 people, including dismissed Bamban Mayor Alice Guo and Cassandra Ong. The Bangko Sentral ng Pilipinas terminates its contract with the supplier of national IDs, All Card Incorporated. Sources tell Rappler the BSP’s Monetary Board decided on the termination a month ago. The members of Swedish pop group ABBA ask US Republican presidential candidate Donald Trump to stop using their music and videos at his campaign rallies. SB19’s Josh Cullen releases his new song ‘Silent Cries’ Friday, August 30. Described as an ‘emo-laced, guitar-driven song,’ the single comes ahead of his first solo album. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Alice Guo,Bangko Sentral ng Pilipinas,Donald Trump,POGOs,Sara Duterte,SB19</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Money laundering suit filed vs Alice Guo, Cassandra Ong, 32 others</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/money-laundering-complaint-alice-guo-cassandra-ong-august-30-2024/</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>45534.38149305555</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. HOT SEAT. Mayor Alice Guo answers questions from senators during the Senate hearing on the raided facility of a Philippine offshore gaming operator in Bamban, Tarlac, on May 22, 2024. Angie de Silva/Rappler MANILA, Philippines – Three government agencies on Friday, August 30, filed the much-awaited money laundering complaint against 34 people, including dismissed Bamban Mayor Alice Guo and Cassandra Ong. (Editor’s note: This update corrects the total number people included in the money laundering complaint — from 24 to 34.) “Alice Guo and her cohorts intended to create layers and layers of corporations to make it appear that they were engaged in profitable and legitimate businesses, but in fact, they are not,” said the 105-page complaint filed before the Department of Justice (DOJ) on Friday. It was filed through the joint efforts of the Anti-Money Laundering Council (AMLC), Presidential Anti-Organized Crime Commission (PAOCC), and the National Bureau of Investigation. While the complaint involves the operation of the raided Philippine Offshore Gaming Operator in Bamban, Tarlac, it included Ong who is an officer of a leasing company tied to another raided POGO in Porac, Pampanga. The complaint described Ong as “a silent partner in the Bamban Pogo, as she was the one who contributed in the construction of the Baofu compound.” Baofu is the leasing company incorporated by Guo, which rented its spaces to the Hongsheng/Zun Yuan POGO found to have trafficked and tortured workers. Ong told a House of Representatives panel that her only link to Guo is through the brother, Wesley Guo, who is her boyfriend. However, Ong was caught with another Guo sibling, Shiela, in Indonesia where Alice and Wesley are believed to have fled as well. Dennis Cunanan, a former government official who had been convicted for his role in the pork barrel scam, was also included in the complaint. Cunanan appears on some government forms as consultant for both Hongsheng/Zun Yuan in Bamban, and Lucky South 99 in Porac. The complaint said that the dozen businesses under Guo’s name were meant to conceal the true nature of their businesses and to make it appear that they are engaged in legitimate activities. Guo has been claiming that she was just a businesswoman engaged mostly in piggery and ventured into real estate before she was elected mayor of Bamban in 2022. Investigators said that Guo never divested from the real estate company Baofu. The complaint said “it is overly impossible for Baofu to afford the construction of the buildings worth hundreds of millions, or even billions, which were purportedly leased to Hong Sheng and Zun Yuan.” Investigators also said that Hong Sheng could also have not afforded the construction, based on its capitalization records. When Hong Sheng was raided in February 2023, another POGO, Zun Yuan, was incorporated. Authorities treat Hong Sheng and Zun Yuan as one. “With the huge capitalization of PHP100 million, it is extremely suspicious why Zun Yuan never opened any bank accounts for Zun Yuan,” said the complaint, adding that a background check on the incorporators reveal no financial capacity for such a business venture. The Senate panel investigating POGOs and Guo earlier presented an incorporator in Bamban who said her name was just used in the documents. The complaint also said that Guo did not declare 12 vehicles in her Statement of Assets, Liabilities and Net Worth (SALN). Guo has repeatedly denied any involvement in Hong Sheng, but the investigators said Guo paid Hong Sheng’s electric bills both with a check and cash until January 2024. Baofu also “stopped using the banking system after its transaction in September 2020  despite its continued operation,” said the complaint. “The following circumstances that would show the grand conspiracy between and among the incorporators, officers, and other individuals involved in the commission of unlawful activities, such as Qualified Trafficking in Persons, violation of Securities Regulations Code and Swindling or Estafa and in turn, Money Laundering,” said the complaint. Guo is facing a separate trafficking complaint before the DOJ. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Cassandra Ong,Department of Justice,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>60 police wounded in Quiboloy hunt | The wRap</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/august-29-2024/</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>45533.6</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: 60 policemen are wounded in the ongoing manhunt for fugitive preacher Apollo Quiboloy and four of his associates. The standoff has now entered the sixth day at the sprawling KOJC property in Davao City. Katherine Cassandra Li Ong, Cassy for short, is the point person of leasing company Whirlwind and the Lucky South 99 POGO. The big boss in Porac is her godfather. Alice Guo’s brother is her boyfriend. During deliberations on the OVP’s proposed 2025 budget, Vice President Sara Duterte wanted to ‘forgo the opportunity’ to defend her budget, but Marikina Representative Stella Quimbo did not allow her. Pope Francis is set to visit four island nations across southeast Asia to urge global action on climate change. From September 2 to 13, he will visit Indonesia, Papua New Guinea, East Timor and Singapore. Clad in colorful, ethnic-inspired outfits, Team Philippines march at the parade of nations during the opening ceremony of the 2024 Paris Paralympics Wednesday, August 28 or Thursday, August 29, Manila time. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Apollo Quiboloy,Paris Paralympics,Philippine national budget 2025,POGOs,Pope Francis,Sara Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Who is Cassandra Ong, the 24-year-old linked to the Bamban, Porac POGOs?</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/who-is-cassandra-ong-bamban-tarlac-porac-pampanga-pogos/</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>45533.459375</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Katherine Cassandra Li Ong confers with counsel Ferdinand Topacio, during the House quad committee hearing on Philippine offshore gaming operators, on August 28, 2024. HOR Screengrab PAMPANGA, Philippines – Katherine Cassandra Li Ong, Cassy for short, knew how to do business early on. She reportedly had her own milk tea shop in San Juan where she was born, until she found herself in Pampanga around 2019 or 2020. In Angeles City, Pampanga, Ong opened a pet-friendly aesthetic center. Talk in town is she also owned a cafe restaurant and resort in the city. Ong soon became the point person of leasing company Whirlwind, which was incorporated in Porac, Pampanga, in 2019 by her godfather, a Chinese named Duanren Wu. All before 24 years old, her current age. And, according to her, she was only able to graduate from elementary at a Chinese school in Binondo. When she was shown photos of her in what seemed like a high school graduation, she said she only attended a few classes in the Alternative Learning System and “ naki-picture lang ako sa graduation (I just asked to be part of the graduation photos).” On Wednesday, August 28, Ong faced an intimidating panel of lawmakers determined to make her squeal. “Qualified trafficking is non-bailable. It is a capital offense. With your direct participation, in the operation of Lucky South, there’s a strong probability you will be indicted as well for the crime of qualified trafficking. Do you understand that?” asked Batangas 2nd District Representative Gerville Luistro in the few portions of the hearing where Ong was visibly scared. Composed, and many times stoic, Ong knew when to demand to talk to her lawyer, scandal-veteran Ferdinand Topacio, and by the end of 13 long hours of hearing, they had managed to negotiate a status quo. Ong avoided the earlier proposal to send her to the Correctional Institute for Women, where female convicts go, and stay instead within the House premises where they’d have custody of her until the quad-committee inquiry ends — whenever that may be. Rappler has been reaching out to Ong since June, but she has never responded. Ong speaks Filipino and Chinese. She was born to Chinese parents Richard Ong Chao Hong and Ying Xia Li on May 23, 2000, in San Juan City in Metro Manila. Her father sought naturalization in 1978, according to Sta Rosa Lone District Representative Dan Fernandez. Ong did not reveal much on Wednesday, which is why there were many offers (and threats) on the table — does she want an executive session, or would she want to be sent to Correctional? But here are the established facts: Ong, 24 years old, acted as the point person of Whirlwind and the Lucky South 99 POGO (Philippine offshore gaming operator), which are being investigated after a government raid revealed evidence of massive scamming, trafficking, and torture. While Ong is not an incorporator of either Whirlwind or Lucky South, she is known to the staff of both. She often acted as translator/interpreter for Wu, said Stephanie Mascareñas, who is an incorporator of both Whirlwind and Lucky South 99. “Lagi siyang kasama sa mga meetings, until such time na siya na rin po ang nakikipag-deal sa kung sino ang dapat kausapin, ‘yung mga papers kinuha na rin po niya before ako tanggalin noong December,” said Mascareñas, who said Wu is their Chinese big boss. (She’s always in meetings, until such time that she’s also the one dealing with whoever we need to talk to, she also took the papers before I was fired in December.) Ong also hired former presidential spokesperson Harry Roque to be a lawyer for Whirlwind in an ongoing ejectment case against the company that was filed by the original Kapampangan landowners, Roque himself earlier told Rappler. When Lucky South 99’s remittances to Philippine Amusement and Gaming Corporation (Pagcor) were not paid, and they had to try to get a new gaming license, it was Ong who talked to Pagcor. Those discussions were set up by Roque , Pagcor officials told Congress. When AR Dela Serna, Roque’s former Malacañang assistant, needed a place to stay in Pampanga to attend aviation school — it was Ong who let him stay inside Lucky South’s premises for free. Ong said that Roque was introduced to her by Wu. Wu knew Roque through a Singaporean whose name Ong can no longer remember. It seems that after Big Boss Wu, and middle Chinese managers, it’s Ong who is next in command. “ Ang alam ko, si Mr. Wu and Cassy, and Chinese managers ang mga nag-uusap (From what I know, Mr. Wu, Cassy, and the Chinese managers are the ones always talking),” Mascareñas said, answering “yes” when she was asked pointedly if she agreed that Ong had her feet deep in the operations of Whirlwind and Lucky South. “ Best friend po siya [Wu] ng mommy ko (Wu is my mom’s best friend),” said Ong, who added that her mother has passed away. When Alice Guo’s sister Shiela was arrested in Indonesia, Ong was arrested along with her. Shiela told the Senate she and Ong were trying to return from Batam, Indonesia to Singapore when they were caught. Ong, it turns out, is the girlfriend of another Guo sibling, Wesley Guo. Ong confirmed this, but denied that she is close to the dismissed mayor of Bamban, Tarlac, who incorporated the leasing company Baofu, that rented its spaces to the raided POGO there, Hong Sheng/Zun Yuan. “ Kakilala ko siya kasi sister siya ni Wesley Guo (I know her because she is Wesley’s sister ) ,” Ong said. Her relationship to Alice Guo may not be as shallow as simply knowing each other, because Ong joined the dismissed mayor in a motorcade in January during the Bamban festival, Hontiveros said in a presentation during an earlier Senate hearing. Mascareñas also said that some of their papers were notarized in Bamban. Shiela Guo said that when she was in Batam, Indonesia , she stayed at the Harris Hotel. There is a booking for four rooms in the said hotel under the initial ZJ, according to Senator Risa Hontiveros. ZJ is believed to be Zhang Jie, the president of Lucky South 99’s 2022 board. All of these make Ong the most accessible common link between the POGOs in Bamban and Porac, the scam hubs that the Presidential Anti-Organized Crime Commission (PAOCC) described as the biggest hubs they dismantled. In an earlier hearing, PAOCC spokesperson Winston Casio described the Bamban and Porac masterminds as “no ordinary criminals.” “This is the first time that members of the commission and the secretariat are getting death threats that are nerve-wracking and chilling, because these are not ordinary money launderers,” said Casio at the Senate in June. When Fernandez was trying to convince Ong to answer questions, the lawmaker said, “ Tinext mo ko ayaw mong magipit sa nag-uumpugang malalaking bato .” (You texted me you did not want to get caught in a tight situation.) “ Hindi kita sinagot, kasi (I did not answer you, because) I want you to reveal it here,” said Fernandez, who repeatedly offered an executive session, or a closed-door session. Ong’s lawyer, Topacio, has threatened to reveal some dirt on the Marcos administration, using a photo going around the internet showing President Ferdinand Marcos Jr., First Lady Liza Araneta Marcos, in a big group photo with Ong in it. A presidential envoy has claimed that the photo was a casual photo that the group asked to take with the Marcoses. Ong has been charged with disobedience to authority and obstruction of justice, both bailable offenses. There is precedent of Congress detainees winning their petitions to be released from custody, even as the Supreme Court has released a lot of guidelines on what kind of behavior constitutes contempt that is worthy of detention. Topacio is no rookie to controversial cases. At present he handles the cases of two fugitives: Arnie Teves and Apollo Quiboloy. While the hearing was ongoing, Topacio kept ranting to media about how the lower house was violating his client’s rights. Topacio has already threatened to sue the Department of Justice for arresting Ong in Indonesia without a warrant. If Congress wants answers — they better find them fast. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Alice Guo,Cassandra Ong,Central Luzon,Pampanga,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>DOJ to charge Shiela Guo, Cassandra Ong for disobedience to summons</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/doj-charge-shiela-guo-cassandra-ong-disobedience-summons/</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>45532.13622685185</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ARRIVAL. Cassandra Ong and Shiela Guo arrive in the Philippines from Indonesia on August 22, 2024. Bureau of Immigration MANILA, Philippines – Department of Justice (DOJ) prosecutors moved to sue Shiela Guo (Zhang Mier) and Katherine Cassandra Ong over disobedience to summons. In addition, prosecutors also ordered the filing of a criminal charge against Guo for alleged violation of the Philippine passport act for using a false Filipino passport, according to a resolution made public on Wednesday, August 28. Ong, meanwhile, is also indicted for obstruction of justice. JUST IN. DOJ will file charges vs Sheila Guo, Cassandra Ong for disobedience to summons. Guo will face another case for alleged violation of Philippine passport act, while Ong will also be charged for obstruction of justice. @rapplerdotcom  pic.twitter.com/qm4yAwq1q5 The disobedience to summons charges stem from Guo and Ong’s evasion of arrest orders against them. Guo, along with her relatives, were ordered arrested and detained by the Senate for snubbing the inquiry probing Philippine offshore gaming operators (POGOs). Ong also snubbed the House hearing on POGOs so she was cited in contempt and was also ordered arrested and detained . All charges are bailable. Justice Undersecretary Nicholas Felix Ty said the charge sheet against the two have already been prepared. The cases will be filed within the day, he added. Shiela was first tagged as the sister of dismissed Bamban, Tarlac mayor Alice Guo . Shiela, like the dismissed mayor, is a co-incorporator in Baofu Land Development Incorporated, which leased its land to Hongsheng Gaming Technology Incorporated, later renamed Zun Yuan Technology . This is the POGO in Bamban raided over human trafficking and other alleged violations. Shiela revealed on Wednesday that she and her relatives fled the country by boat . She also revealed on Wednesday that the dismissed mayor is not her biological sister. Ong, meanwhile, has ties to the Lucky South 99 POGO in Porac, Pampanga. Authorities said the Porac POGO was a hotbed for various illicit activities, including human trafficking, forced labor, and scams. Ong hired former presidential spokesperson Harry Roque for the real estate firm Whirlwind that leased its land to the Porac POGO. The two were deported to the country last week after they were arrested by Indonesian authorities . The dismissed mayor, however, is still in hiding. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Alice Guo,Cassandra Ong,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>DOJ on 'slow' pace of Alice Guo case: 'We cannot strong-arm it'</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/doj-response-pace-alice-guo-case/</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>45532.10019675926</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. DOJ CASE. Dismissed mayor Alice Guo with her lawyer Alex Avisado whose firm is representing her in the qualified trafficking case in the DOJ. Angie de Silva/Rappler MANILA, Philippines – The Department of Justice (DOJ) defended its “strategy” in the qualified trafficking case against dismissed mayor Alice Guo, saying that although they ideally want a fast resolution, “ hindi namin basta-basta pwedeng ibraso ang kaso na ‘to (we cannot just strong-arm this case.” “ Kailangan din kami balanse, kailangan galangin din namin ang mga karapatan ng mga tao na dumadaan sa preliminary investigation sa amin. Hindi namin basta-basta pwedeng ibraso ang kaso na ‘to,” Justice Undersecretary Nicholas Ty told the Senate on Tuesday, August 27. (We also need to be balanced. We need to respect the rights of all the people undergoing preliminary investigation. We cannot just strong-arm this case.) Ty was responding to Senator Raffy Tulfo’s question, “ bakit mabagal ang usad ng kaso sa DOJ (why is the case in DOJ so slow).” Tulfo added: “ Kung naging maagap lang sana ang DOJ sa pagproseso ng kaso against Alice Guo at lumabas agad ang warrant of arrest at nakipag-coordinate tayo sa Interpol para malabas ang red notice, hindi na sana tayo nag uusap ngayon.” (If only the DOJ was efficient in processing the case against Alice Guo, and a warrant of arrest was issued, we could have coordinated with the Interpol to get a red notice, then we wouldn’t be talking here in the first place.) The qualified trafficking complaint was filed against Guo and others last June 21. It’s been submitted for resolution by the handling prosecutors, until Guo’s lawyers filed a motion to re-open on August 15, requesting to accept the dismissed mayor’s counter-affidavit. Ty said this was an example of “dilatory tactics employed by her lawyers” that contributed to the delay of the resolution. What the prosecutors could have done was ask for a precautionary Hold Departure Order or PHDO, a fairly new judiciary tool that is available to the prosecution upon request with a court. This was created precisely to prevent the flight of persons undergoing preliminary investigation. In normal procedure, HDOs are issued only when the case has been filed in court. The immigration lookout bulletin order [ILBO] against Guo could not prevent travel. But Ty said it was a strategy on their part not to ask for the PHDO. “Sabi sa akin ng mga humahawak na fiscal, na as a matter of strategy, hindi na muna nila sinalang ‘yung PHDO. Para sa amin, yung ILBO, kapag ipagsama ito sa [Senate] warrant of arrest ni Mayor Guo, pati dun na din sa pangangailangan niya ng travel authority para makalabas ng bansa bilang isang public official ay sapat na,” said Ty. (The handling fiscals told me that as a matter of strategy, they did not ask for the PHDO. For us, the ILBO combined with the Senate warrant of arrest, as well as the need to request for a travel authority to leave the country as a public official, were enough.) Guo left the country possibly around July 14, if we are to base on her sister Shiela Guo’s testimony that they traveled by sea on a boat for four days, and in the passport’s stamp that they reached Sabah, Malaysia on July 18. Another DOJ strategy is to not cancel Alice Guo’s Philippine passport yet, despite an earlier order from Malacañang to the Department of Foreign Affairs (DFA) to use a national security clause in the passport law to cancel the passport. “DFA and DOJ constituted a small committee including the National Bureau of Investigation (NBI) to act on this. Ngayon nagkasundo kami na baka mas mabuti na hinay-hinay muna, pero darating din tayo dun ,” Ty said on Tuesday. (We agreed that it’s wiser to take it slow, but we will get there.) DOJ Usec Nicholas Ty says the DOJ and the DFA have agreed to pause for now any action to cancel Alice Guo's passport. Ty said it would be the eventual action, but not for now as they try to locate and return her. @rapplerdotcom  pic.twitter.com/ZG1ytrgIR2 The working theory is that canceling Alice Guo’s Philippine passport would put her out of Philippine jurisdiction. The DOJ was much quicker with Shiela Guo, with Ty telling the Senate on Tuesday that they can request for a PHDO for her if necessary. By Wednesday morning, prosecutors had resolved Shiela Guo’s inquest to charge her over using a fraudulent Philippine passport. Cassandra Li Ong will also be charged for facilitating the escape of a criminal offender. The charges are bailable, but an HDO could be issued at this stage. Congress can keep both in custody if they use their powers to detain them for contempt. Shiela Guo is detained at the Senate. Senator Risa Hontiveros said Shiela needs to attend another hearing of another committee before the contempt is expunged. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Department of Justice,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Lawyer who notarized Alice Guo's counter affidavit may face sanctions – DOJ</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/lawyer-notary-public-alice-guo-face-sanctions/</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>45531.95833333334</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Shiela Guo, aka Zhang Mier, attends the senate inquiry on how the Guos and Cassandra Li Ong were able to leave the country, on August 27, 2024. Angie de Silva/Rappler CLARK FREEPORT, Philippines – The lawyer who notarized the counter affidavit of dismissed Bamban, Tarlac Mayor Alice Guo , may face sanctions over his lapses in the processing of the legal document, a Department of Justice (DOJ) official said. DOJ Undersecretary Nicolas Felix Ty said this after lawyer Elmer Galicia, while responding to questions of a Senate panel on Tuesday, August 27, revealed that Guo was not physically present when he notarized her counter-affidavit in relation to a human trafficking complaint filed against her by the DOJ. The counter-affidavit was signed on August 14, but Guo had already fled the country weeks earlie r, on July 18. Ty said that based on what Galicia said at the Senate hearing, penalties may be imposed on him by the Supreme Court including an administrative case that may result in the cancellation of his notarial register as well as disciplinary proceedings. “ Mayroon talagang requirement ano; may safeguards ito. Kasama doon sa safeguard ‘yung evidence of identity which is government ID, may pirma at litrato. At bukod doon, isa sa mga safeguards, ‘yung pipirma mismo sa notarial book ‘yung nagpanotaryo, ” Ty said. (There are really requirements; there are safeguards. Among the safeguards is the evidence of identity which is a government ID, with signature and a photo. On top of that, one of the safeguards is that the ones having a document notarized will sign the notarial book themselves.) The National Bureau of Investigation earlier said that Galicia may face a perjury case and even suspension if proven that he lied about meeting Guo for the notarization of the latter’s counter-affidavit on August 14. Galicia said that “Allan,” a member of his church, went to his office to facilitate the notarization and that he was surprised to find out that Guo was the one seeking his services. Galicia, the publisher of Dyaryo Arangkada , said he was not aware of the Senate-issued warrant of arrest against Guo as he was not keeping a close watch over the months-long Senate hearings on Philippine offshore gaming operators (POGOs) and Guo’s alleged links to them. He said that he did not ask Guo to leave her car and go to his office for the notarial process as he was embarrassed to ask her, thinking that it was the mayor herself. Asked whether he saw Guo in person that day, Galicia said that he could not say with all certainty that it was Guo but the person who appeared in front of him “looked” like the mayor. “Sa ngayon, ‘di ko na masabi kung talagang siya ‘yung nakita ko pero hawig po. Tinanong ko po kasi siya eh. ‘Mayor Alice Guo?’ Sabi niya sa akin, ‘Alice na lang po .'” (As of now, I can’t say that she was the one I saw but they look similar. I asked her, “Mayor Alice Guo?” She told me, “Just call me Alice.”) He added: “ Kung meron man pagkakamali on my part na i-identify si Alice Guo, ‘di ko alam na siya ‘yun o hindi siya ‘yun. Basta nagpakita po ng ID (driver’s license), inakala ko na siya .” (If there was a mistake on my part in identifying Alice Guo, I didn’t know if it was her or not. She showed me her ID, and I thought it was her.) Galicia said he was also taken aback that someone of such stature — a mayor — would seek his services. His office is in San Jose del Monte, Bulacan. He said that Allan brought the document for notarizing to him at his office, and then retrieved them after. “Hindi na siya nakapanumpa sa akin. Hindi na ako bumaba, hindi ko na alam anong nangyari, ” Galicia said. (I did not administer her oath. I didn’t go downstairs, I don’t know what happened.) Aside from failure to administer her oath for the affidavit, and collecting the notarial fee, Guo also failed to sign the notarial logbook. “ Wala naman akong pinapipirmahan na libro. ‘Pag tiningnan ‘yung form na sinusubmit namin, wala naman doon format na kinakailangan pumirma ‘yung nagpanotaryo, ” Galicia said. (I don’t have them sign any book. When you look at the form that we submit, the format does not require to be signed by the person asking something to be notarized.) “ Hindi ko siya intentional na inilibre. Hindi ko lang talaga siya nasingil. Wala namang nagbayad talaga. Marami akong nanonotaryo, wala naman bayad, ” Galicia said. (I did not intentionally exempt her from paying. I just wasn’t able to charge her. No one paid, really. I do a lot of notarization, but there is no fee.) During the Tuesday hearing, Guo’s sister, Shiela, narrated how they fled the Philippines by boat to Malaysia.  Shiela and Cassandra Ong were arrested by immigration authorities in Indonesia. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Alice Guo and siblings fled Philippines by boat</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/alice-guo-siblings-fled-by-boat/</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>45531.22260416667</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. QUIZZED. Shiela Guo, aka Zhang Mier, attends the Senate inquiry on how the Guos and Cassandra Li Ong were able to leave the country, on August 27, 2024. Angie de Silva/Rappler MANILA, Philippines – Dismissed Bamban, Tarlac Mayor Alice Guo and her two supposed siblings fled the Philippines by boat — that much Shiela Guo confirmed during a Senate inquiry on Tuesday, August 27. But the date and points of location are hazy at this point, because Shiela, Alice’s sister, said she could barely remember, leaving government operatives to build a theory based on Shiela’s confirmation. “ Sa isang maliit na boat, tapos malaking boat, tapos maliit na boat (We went on a small boat, then a big boat, then a small boat),” Shiela described the sea travel they went on, in response to senators’ questions. Shiela said she, Alice, and Wesley were fetched from their farmhouse in Tarlac by a van, after which they traveled by land for around five hours to reach a port. The location of this port, Shiela said she does not know. One theory is Zambales, because there was initial intelligence that some Chinese-looking people were sighted in a heavily guarded private resort in Zambales, according to the Presidential Anti-Organized Crime Commission (PAOCC). It could have been Pangasinan, said Senator Jinggoy Estrada, guessing that that’s where five hours from Tarlac can take you, and also citing his own information that some Chinese were sighted there. Justice Undersecretary Nicholas Felix Ty said a departure from Luzon is feasible, citing information from previously-rescued trafficked victims that there’s a backdoor from Luzon. Shiela said they rode a speedboat first from this Luzon point. After that, they rode a bigger boat for four days, then a small boat. The theory from this is that Guos may have been transported by a speedboat to reach Mindanao, possibly Bongao, Tawi-Tawi, because there’s also a back door there. “Ang theory namin ay gumamit ng backdoor, nag-travel ng four to six hours by bangka, speedboat, from Bongao to Sabah, dahil ‘yun ang pinakamalapit to Sabah,” said National Bureau of Investigation (NBI) chief Jaime Santiago. (Our theory is they used a backdoor, they traveled for to six hours by boat, by speedboat, from Bongao to Sabah, because that’s the nearest point to Sabah.) Shiela confirmed that the sea travel’s final destination was Malaysia. She mentioned a Chinese name, which Senator Risa Hontiveros said could have been the Chinese name for the Sipadan island in Sabah, Malaysia. This was corroborated by a July 18 Sabah stamp on Shiela’s Philippine passport. Several senators expressed disappointment that government agencies have not confirmed the route to this day. “Paulit-ulit na eh. ‘Yung huli, si Arnie Teves, ganoon din ang nangyari, undetected nakaalis ng bansa. Paulit-ulit na lang eh. In this 375 points of entry and exits, na-identify ‘nyo na ba ano ang notorious backdoor, mag-inspect tayo diyan,” said Senator Joel Villanueva. (This keeps on happening. The last was Arnie Teves who also left the country undetected. It just keeps on happening. In this 375 points of entry and exits, have you identified which is the most notorious backdoor, so we can inspect it.) Villanueva also questioned why the Guo farm in Tarlac was not monitored, where Shiela said was their point of origin before they left the Philippines. “I am alarmed…. Galing sila sa farm, magkakasama silang tatlo, umalis sila ng van patungong pantalan, and wala, walang nakabantay?” asked Villanueva. (They came from the farm, the three of them were together, they rode a van to a dock, and nobody was watching them?) “We cannot be sure that that is true [that they came from the farm]. I believe hindi sila galing sa farm [they did not come from the farm,” said Brigadier General Nicolas Salvador of the Philippine National Police (PNP) Intelligence Group. PAOCC’s initial information was that Alice Guo arrived in Kuala Lumpur, Malaysia, from Denpasar, Indonesia, on July 18, which is in conflict to arriving in Sabah by boat on the same day. PAOCC spokesperson Winston Casio said during the hearing: “I am also caught unaware as to how that happened…. My Malaysian counterparts stand by their statement that she was in Malaysia on July 18, 12 am thereabouts, coming from Denpasar.” Shiela asserted they really came from the Tarlac farm, although she said she went there on the day of departure also. She said she does not know how long Alice and Wesley had been there before they left. Upon interrogation, the PNP said that they could not monitor Guo’s possible whereabouts for 24 hours because they were only responding to a Senate request to enforce its warrant of arrest. It was the PNP’s Intelligence Group (PNP-IG) that  got wind of Guo’s overseas whereabouts first. On August 14, when Alice Guo supposedly appeared before a notary public in San Jose del Monte, Bulacan, the PNP-IG said they got information that there was a ticket booked from Singapore to Manila, but nobody boarded that flight. By August 15, this information had been sent to the Bureau of Immigration, after which Immigration chief Norman Tansingco said he alerted his foreign counterparts. This coordination led to the arrest of Shiela  and Cassandra Li Ong in Indonesia. According to PAOCC’s information, from Malaysia, the Guos went to Singapore. From Singapore, they took a ferry to Batam, Indonesia, on separate days. Shiela said they went to Batam because Wesley was “bored and wanted to go somewhere else.” Wesley went to Batam ahead on August 16, while Shiela, Alice, and Ong went to Batam on August 18. Shiela and Ong were arrested in Indonesia on August 21, when they tried to return to Singapore. The two were brought back to the Philippines on August 22. When asked by senators, Shiela consistently insisted that she was not aware of where they were heading to when they boarded the van in Tarlac. She said Alice had asked her to go to their Tarlac farm and told her to accompany her on a trip without giving details. Senators also scrutinized notary public Elmer Galicia because he took Alice Guo’s oath on August 14, to notarize a counter-affidavit to submit to the Department of Justice (DOJ). According to the itinerary, it as unlikely that Alice was in the Philippines on that day. Galicia claimed that he did not follow the Senate hearings and that he was not aware that there was a warrant out for Alice. “ Kung meron mang pagkakamali on my part na ma-identify ko po. na inakala ko pong si Alice Guo, hindi ko po alam kung siya o hindi siya ‘yun, basta nagpakita po ng ID at inakala kong siya ‘yun,” said Galicia. (If there was any shortcoming on my part, it was the failure to identify her, that I thought she was Alice Guo, but I’m not sure if that was really her. She showed an ID, and I thought it was her.) Alice Guo is currently in Jakarta, Indonesia, said Immigration chief Norman Tansingco. He added that there is a standing request for Indonesian immigration authorities to apprehend her, and return her to the Philippines. Wesley may have already entered Hong Kong, added Tansingco. Shiela said she does not know where Alice and Wesley were, and that they parted ways in Indonesia. Responding to senators’ questions, Shiela said she asked Alice where she was going and the latter told here that it was better for her not to know. But Hontiveros said there’s information that Zhang Jie , former president of the Porac POGO Lucky South 99, had booked four rooms at the Harris Hotel in Batam, Indonesia. Shiela confirmed she stayed at that hotel. Shiela, who is undergoing investigation for violating the passport law , also confirmed she has both Philippine and Chinese passports. She claimed she did not have any knowledge of Alice’s operations, because Alice lives in Tarlac, and she had always lived in Bulacan. Shiela said Alice is not her biological sister. Their father, as written on their birth certificates, is not her biological father, Shiela said. Shiela’s lawyer, Stephen David, asked right off the bat if his client can be heard in an executive session instead of a public hearing, citing right against self-incrimination. Although Hontiveros said they will discuss the request, they pushed through questioning Shiela in public. In Malacañang, President Ferdinand Marcos Jr. reiterated his assurance that heads will roll following the undetected exit of Guo from the country. Marcos said in a media interview with reporters that he met with Justice Secretary Jesus Crispin Remulla that day in relation to that investigation. “He’s almost finished with a very thorough investigation, and we will identify all of those who have, all of those who are involved in this and we will act very quickly,” Marcos said. He also said, in response to questions, that he had a “very good idea” of the Bureau of Immigration personnel involved. “There are no sacred cows,” the President added. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>POGOs,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Alice Guo's sister, Porac POGO staff to face Senate</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/alice-guo-cassandra-ong-face-senate-august-27/</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>45531.08552083333</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – After an embarrassing lapse that let dismissed mayor Alice Guo out of the country , Philippine agents pulled off in only a few days a cross-border operation to make up for it: get two other valuable people, and make them face Congress where the rules are more flexible. On Tuesday, August 27, Sheila Guo, Alice’s sister, and Cassandra Li Ong, the Porac Philippine Offshore Gaming Operator’s (POGO) government liaison, are set to appear before a Senate inquiry. Guo is already in the custody of the Senate where “a round-the-clock security team” is posted near her, said the Senate public information and media relations office. Ong, on the other hand, was transferred to the House of Representatives on Monday. The Senate has coordinated with the House to bring Ong from Batasan to Pasay on Tuesday. While Sheila Guo and Ong are expected to be interrogated on Tuesday, government agencies will also be under scrutiny for Alice Guo’s departure despite an immigration lookout and a Senate warrant. Immigration, transport, aviation, and foreign affairs officials were invited to Tuesday’s hearing. There’s a tussle now among government agencies whether or not to move to cancel Alice Guo’s Philippine passport. Malacañang has invoked the passport law provision that a threat to national security can be a basis, and asked the Department of Foreign Affairs (DFA) to cancel Alice Guo’s passport. However, after a few days, both the Department of Justice (DOJ) and the Presidential Anti-Organized Crime Commission (PAOCC) expressed apprehension, saying canceling Alice Guo’s passport would not be wise. The DFA has not commented on the issue as of writing. “We see that her having a valid Philippine passport will compel the host country to return her to the Philippines, and not to anywhere else,” said Immigration spokesperson Dana Sandoval on Monday. The working theory is that if the Philippine passport is canceled, Alice Guo would be pressed to acquire a Chinese or other passport through any means, which could put her outside of the Philippines’ reach. Ong’s lawyer Ferdinand Topacio said on Monday that the DOJ made a mockery of rules and processes when they detained the two at the National Bureau of Investigation (NBI) without a warrant. “That’s arbitrary detention,” said Topacio. The reason the two are now under congressional custody is because it’s the legally viable way to detain them. Both houses of Congress have powers to arrest and detain people found to be in contempt of these institutions. Sheila Guo and Ong are in contempt of Congress for snubbing invites to attend previous hearings into criminal syndicates masquerading as POGOs. To get a court warrant of arrest would mean going through prosecution. Neither Sheila Guo nor Ong were included in the qualified trafficking complaint filed against Alice Guo, which is currently being resolved by prosecutors. The National Bureau of Investigation (NBI) took them into custody after their return from Indonesia on August 22 following an immigration operation of both countries. Both of them underwent inquest on Friday, August 23, which is a procedure conducted if people were arrested without a warrant. The bases of the charges were immigration violation, violation of the passport law, and obstruction of justice, all of which are bailable offenses. Congress’ detention is a sure way to keep them in custody. “Walang warrant, walang kaso, ide-detain mo sa NBI, kung pagdating niya tinurn-over niyo sa House, wala namang problema diyan eh, wala namang kuwestiyon na may power ang House. Bakit binigyan nila ang sarili nila ng problema,” said Topacio. (There’s no warrant, there’s no charge, but you detained them at the NBI? If immediately upon their return, they turned them over to the House, there’s no problem there because there’s no question that the House has the power. Why did they give themselves a problem?) While Sheila Guo is not an owner or officer of any POGO, nor the real estate firm Baofu which Alice put up to lease its land in Bamban, Tarlac to the Hongsheng/Zun Yuan POGO, she is co-owner of at least 10 of the Guo family businesses. Ong, on the other hand, was the government representative of the Porac POGO Lucky South 99. She was also the one who hired former presidential spokesperson Harry Roque to lawyer for Whirlwind, the real estate firm that leased the land to Lucky South. Senator Risa Hontiveros expects the two could shed some light on some missing links, particularly with Roque. But if Topacio’s statements on Monday are any indication, it does not seem that Ong is going to implicate officials of the former administration of Rodrigo Duterte. Topacio showed on Monday a photo circulating on the internet showing Ong in a group that includes President Ferdinand Marcos Jr. and First Lady Liza Araneta Marcos. Topacio said Ong has confirmed the photo’s authenticity, and she “has some information regarding POGO operations and this picture may hold the clue as to why POGO operations, especially illegal POGO, multiplied during the time of President Marcos.” Marcos ordered a ban on all POGOs during his third State of the Nation Address last July. The Senate inquiry will start at 10 am on Tuesday, August 27. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Alice Guo</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Cassandra Ong, Sheila Guo in Congress custody | The wRap</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/august-26-2024/</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>45530.57847222222</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: The National Bureau of Investigation turns over Cassandra Li Ong to the House of Representatives on Monday, August 26. Sheila Guo, the sister of dismissed Bamban mayor Alice Guo, and POGO liaison Cassandra Li Ong are set to appear before a Senate inquiry on Tuesday, August 27. Police breach a barricade set up by fugitive preacher Apollo Quiboloy’s followers and supporters and arrest protesters Monday afternoon, August 26. The Department of Health reports two new cases of mpox in Metro Manila on Monday, August 26. OPM legend The Eraserheads are reuniting for a performance at the Araneta Coliseum on September 7 to kick off UAAP Season 87. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Apollo Quiboloy,Cassandra Ong,mpox,PH collegiate sports,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>In the Golden Triangle, a Filipino was told 'you will die here'</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/golden-triangle-trafficked-filipino-alice-guo/</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>45530.41099537037</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. GOLDEN TRIANGLE. The golden triangle is a cross-border zone covering Thailand, Myanmar, Laos and a little bit of China, notorious for being a crime fortress. Rappler You cannot go home, you will die here,” are words that Marie, not her real name, still remembers from the time she spent at a scam hub in an undisclosed area in Myanmar. She was trafficked to the Southeast Asian country from which she eventually escaped — but not after she suffered through nine days of torture. Marie was offered an encoder job in Thailand, which promised a P60,000 (US$1,000) monthly salary. She trusted the go-between, a Filipino, which is why she jumped on a plane from Manila to Bangkok in late 2022. From Bangkok, she was accompanied by someone, whom Marie says was a Chinese boss, to hop on another plane. The second destination was a border province in Thailand, where she could see the river. On the other side was Myanmar. Marie had unknowingly entered the golden triangle, a cross-border zone covering Thailand, Myanmar, Laos, and a little bit of the Yunnan province in China, an area which literally makes up a triangle. She was taken to a house in the Thai border where, after waiting, she was asked to exit from a window. “‘ Dun na ko kinabahan (That’s where I got really nervous),” Marie told Rappler. She crossed the river using a giant wheel with ropes being pulled from the Myanmar side. “ Dalawa ang nagtatawid sa akin. Tapos meron pa pong dalawa doon sa kabilang ilog. Yung dito po sa side ko, doon ko na napansin na mayroon siyang baril. Kaya, ano, wala na, hindi ka na mag-iisip na ano eh. Kasi maiisip mo baka mamaya ilubog na lang ako dito. O kaya, tirahin na lang ako dito, wala na, wala na magagawa,” Marie said. (Two people accompanied me crossing the river. There were two others waiting on the other side. On my side, I noticed one of them carrying a gun. So, I could no longer think of anything. I thought that they could just drown me, or shoot me, I was helpless.) What Marie remembers is that after eight months, she had escaped to Mae Sot, a Thai province that’s loosely part of the Golden Triangle. Historically, the Golden Triangle is where most of the world’s narcotics come from. It has long been monitored by the world’s most powerful law enforcement agents for being a crime fortress. This is where the drug trade supposedly thrives and, in recent years, where casino syndicates set up scam hubs mostly involving cryptocurrency. Dismissed Bamban, Mayor Alice Guo is supposedly trying to sneak in here, said the Presidential Anti-Organized Crime Commission (PAOCC), after she successfully left the country in July despite an immigration lookout and a Senate warrant of arrest. Within the area is the more clearly-demarcated Golden Triangle Special Economic Zone (GTSEZ) which covers only Laos, Myanmar and Thailand, not China. As with all economic zones, the GTSEZ is loosely regulated. The supposed head of the economic zone is the Chinese business tycoon Zhao Wei, who had been subjected to several Western government sanctions, but who largely remains untouched. The bordering countries lease property from Zhao Wei to operate in the GTSEZ. It is a fortress, with its own security, and access by law enforcement is “limited,” said the United Nations Office on Drugs and Crime (UNODC). “We are confident that [Alice Guo] is trying to get into the Golden Triangle,” PAOCC spokesperson Winston Casio said during a press conference on Saturday, August 24. “ Medyo mahihirapan tayo [hulihin siya doon], may giyera doon eh (We will have a hard time catching her there, there’s war there).” There is an ongoing civil war in Myanmar. Guo is believed to have entered Batam, Indonesia on August 18. Guo left the Philippines on July 18, according to authorities, and flew to Kuala Lumpur, Malaysia, flew again to Singapore, and then reached Batam by ferry boat. In the GTSEZ, the online casino platforms are under-regulated, and “misused extensively to co-mingle and disguise proceeds of crime as legitimate online gambling profits,” according to the UNODC. Marie was brought to a scam hub in Myanmar, the name of the company is being withheld upon her request, citing security reasons. There, Marie was given a script on how to lure rich people in the guise of online dating. The ultimate goal was to convince their online boyfriends/girlfriends to invest in cryptocurrency. Many Overseas Filipino Workers (OFWs) have fallen for this trafficking scheme. This is also how scam hubs operated in the Philippines, according to PAOCC, which had raided the biggest hubs masquerading as Philippine offshore gaming operators (POGOs). In some Philippine scam hubs, models whose only job is to pose for photos sent to victims being lured, and to appear in video calls when the victims request them, are hired. In Marie’s scam hub, where she spent eight months, she said they stole identities from rich-looking people on Instagram, and applied Artificial Intelligence (AI) to use the same faces and sync voices when it’s time for video calls. When these fail — sometimes due to lags caused by weak internet connections, or when the potential victim spots the mouth not synched with a voice — the workers are tortured. Marie said she deliberately made sure her victims didn’t invest, landing her on the hit list of her bosses. “ Ayoko siyang gawin. So, lagi akong sinisigawan. Laging pinapagalitan. Hindi rin ako nagko-convince. Tapos may style pa ako na pag alam kong super yaman, dini-delete ko ,” said Marie. (I did not want to do it. They always shouted at me. They always scolded me. I don’t convince. I also had a style wherein if I knew that the victim is very rich, I delete.) On her eighth month, after she suffered from severe hemorrhoids, Marie and others planned an escape. But after messaging a supposed cop, the plan was bungled, and they were detained and handcuffed in a room where they were beaten and starved. This indicates possible collusion with authorities in the zone. On the third day of detention, Marie was hit in the face with a metal tube. She was told that if she pays $7,000, she can go home. “ May nagbigay nung una. ‘Yung mga kasama ko. Ako wala talaga ,” Marie said. (Some of my companions gave money at first. I really had nothing.) In the following days, their wrists were shackled to the upper bunk which meant that they stood throughout the night. “Nagsusuka na ako nun eh. ‘Yung isa kong kasama, napalo siya isang beses lang, kinumbulsiyon na siya eh. Tapos ‘yung pagka-9 day, pagka-gabi, binigyan kami ng taning, [na] kailangan mabigay na ‘tong pera na ‘to. Eh ako, wala naman akong, walang mabigay ‘yung pamilya ko,” said Marie. (I was already throwing up then. One of my companions was hit only once, but she immediately had convulsions. On the ninth day, that night, we were given a deadline to give the money. But I couldn’t give anything, my family also couldn’t.) “Nagmamakaawa na ako na ganun. Kasi iba ‘yung pakiramdam ko doon na ‘yung mamatay ka na, na hindi ka na makakauwi. You cannot go home. Ginaganun ako. You will die here. You don’t have money,” Marie added. (I pleaded them. I was feeling very off at that time, that I would die and would not be able to come home. They told me, “You cannot go home, you will die here. You don’t have money.”) They filmed Marie being beaten up, which was sent to her family. Her family was able to send around $1,000 through mobile banking. When they still continued to beat her, Marie thought, “ Tanggap ko na, na dito ako mamamatay. Sabi ko, God, ikaw na lang bahala sa akin. ” (I accepted that I would die here. I said, God, my life is in your hands.) Marie’s outside communication resulted in a covert operation to negotiate her release, details of which could not be divulged for security reasons.  Marie described the next moments as being seemingly floating — she was slumped on a bed, exhausted from the beating, when her manager asked her: “Can you stand up?” “Siyempre kahit masuka-suka ako, tayo talaga ako. Pero inakay ako nung dalawang kasama. Kasi hindi na talaga ako makalakad eh. Sila na ‘yung nagbuhat sa akin eh. Iba na ‘yung, iba na ‘yung pakiramdam ko noon eh. Parang naka-drugs ka na hindi mo na, na ‘yung iapak mo, parang nakalutang ka na,” said Marie. (Even though I was very nauseous and wanted to throw up, I stood up. But I had to be carried by two others, because I really couldn’t walk. They carried me. I felt very bad that time. It felt like being on drugs and being unable to feel your step, like you’re floating.) A beaten-up Marie was put on to two vehicles until they reached a river — “a different river” — which they crossed using a small boat, not a wheel like the first time, and went on to enter the Thai side of Mae Sot. She was left there in a hotel, where she was fetched by authorities who arranged her repatriation. “ Doon na ‘ko nakahinga. Hinalikan ko ‘yung lupa ,” said Marie. (That’s when I was able to breathe. I kissed the ground.) Guo is linked to the POGO scam controversy for setting up a real estate firm called Baofu Land Development Incorporated , which leased a compound in Bamban, Tarlac to the raided scam hub Hongsheng Gaming Technology Inc./Zun Yuan Technology Inc. Court documents show Guo never divested from Baofu even when she won as Bamban mayor in 2022. If Guo is indeed heading for the Golden Triangle, then she is doing a trip that’s the reverse of the “exodus” from there to the Philippines. The UNODC said that when China and Cambodia stepped up their crackdown on casino scam syndicates, there was an exodus from the Golden Triangle. They diversified and went to the Philippines, where offshore gaming aka POGOs, a regulatory gray area , was beginning to rise, thanks in no small part to the Philippine Amusement and Gaming Corporation (Pagcor) under then-president Rodrigo Duterte. Marie has undergone psychosocial therapy and has found work. Aside from healing from trauma in Myanmar, she also needs to relearn how to trust — and forgive those who recruited her. She still has a copy of her video being tortured. “ Kapag pinapanood ko ‘yan ngayon, ang naiisip ko, ang tapang-tapang ko pala. Ang suwerte ko .” (Whenever I watch that, I think to myself, I was so brave. I am lucky). – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Alice Guo,human trafficking,investment scams,Myanmar,online scams,Thailand</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>House detains POGO worker Cassandra Ong</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-detains-raided-pogo-worker-cassandra-ong-august-2024/</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>45530.27648148148</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. IN HOUSE CUSTODY. The House of Representatives detains Cassandra Li Ong, a woman who has ties with the raided Philippine offshore gaming operator in Pampanga, on August 26, 2024. Sourced photo MANILA, Philippines – The National Bureau of Investigation (NBI) on Monday, August 26, turned over to the House of Representatives Katherine Cassandra Li Ong, the woman tied to the raided Philippine offshore gaming operator (POGO) in Porac, Pampanga. Rappler learned from sources that Ong is now inside the detention facility of the lower chamber in Quezon City,  a development that House dangerous drugs committee chairperson Ace Barbers later confirmed to the media. Ong has been identified as the one who represented Lucky South 99, the illegal POGO hub whose workers were allegedly trafficked and tortured, in submissions to the Philippine Amusement and Gaming Corporation. She was the woman who allegedly hired former Duterte spokesperson Harry Roque to lawyer for Whirlwind, the real estate firm that had leased its land to Lucky South. She was cited in contempt by the House committee investigating criminal activities tied to POGOs for snubbing the congressional inquiry she had been invited to. The lower chamber then issued an arrest order against her on August 21. She and Sheila Guo, sister of dismissed Bamban, Tarlac, mayor Alice Guo, were arrested by Indonesian immigration authorities on August 22, on the virtue of the legislative orders against them. They were deported back to the Philippines later the same day. Upon arrival in Manila, they were brought to the Bureau of Immigration for medical check-up and inquest, before being handed over to the NBI. Ong is expected to face future proceedings of the House quad committee , which is investigating the links between POGOs, extrajudicial killings, illegal drugs, and Chinese syndicates. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Cassandra Ong,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Harry Roque's 'footprint is everywhere' in POGO documents, testimonies – PAOCC</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/harry-roque-footprint-everywhere-pogo-documents-testimonies-paocc/</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>45528.45995370371</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ROQUE. Former presidential spokesman Harry Roque attends the resumption of the Senate investigation into Philippine offshore gaming operators on July 29, 2024. Angie de Silva/Rappler MANILA, Philippines – Former presidential spokesperson Harry Roque ‘s name consistently appears in documents and testimonies related to Philippine offshore gaming operators (POGO), the Presidential Anti-Organized Crime Commission (PAOCC) said on Saturday, August 24. “I would like to give reference to a former Cabinet official. So, Atty. Roque is a former Cabinet official. So, given the benefit of the doubt in relation to what he is saying, but then again now that his name keeps on cropping up in the documents, in the digital footprint, in the testimonial footprint,” PAOCC spokesperson Winston Casio said during the Saturday News Forum on August 24. “We cannot discount his possible involvement in all of these matters,” Casio added. “I don’t believe in coincidence anymore as far as Harry Roque is concerned…. His footprint is everywhere. But of course you have to put one plus equals two to create a case, complete a case.” Casio explained that the PAOCC, which leads the government’s crackdown against POGOs, is probing everyone whose name appears in the probe into the illegal industry. POGOs are now banned in the country , following the directive from President Ferdinand Marcos Jr. during his State of the Nation Address last July. The PAOCC official added that aside from Roque, other names also appear, like “bureaucrats, tenured officers, and former government officials.” When asked if Roque is the highest government official under probe, Casio refused to comment. “Again, we are not politically motivated. We are based on evidence. So, defer to their wisdom, in the time that they need to read through the evidence submitted by both parties and once they are finished going through the evidence, then I am confident that they would see the argument our way,” Casio added. In a message to Rappler, Roque pleaded to Casio to refrain from giving media interviews, adding that “baseless trial by publicity aimed at discrediting him” should be put to an end. “I ask the PAOCC to submit their evidence to the prosecutor’s office. Even without seeing them, the case against me is utterly bereft of merit since trafficking requires the act of recruiting persons through force or intimidation for the purpose of exploiting their labor,” Roque said. “I look forward to the day that I will face my accusers in the proper court. Haharapin ko kayo ng buong talino at buong tapang (I will face you with all my intellect and courage).…. File the case. So I can defend myself. I am waiting,” he added. Earlier this year, the Senate launched a probe into POGOs and the crimes linked to the industry. The House of Representatives later followed suit. The successive Senate hearings led to the discovery of officials involved in the industry, like dismissed Bamban, Tarlac Mayor Alice Guo , who is tagged in the Zun Yuan Technology POGO located in Bamban. The dismissed mayor’s nationality were questioned due to inconsistencies in her personal information, like details about her parents and education. Later, authorities found that Guo is actually Chinese, whose actual name is Guo Hua Ping. Guo has already left the country as early as July before the Senate could even arrest and detain her for snubbing the hearings. However, Guo’s sister, Sheila, and Katherine Cassandra Ong , a personality tagged in the Porac, Pampanga POGO, are now under the authorities’ custody and faces charges. ( READ: What happens now to Sheila Guo, Cassandra Ong? ) After Ong’s arrest this week, opposition Senator Risa Hontiveros, who is among the lawmakers leading the probe into POGOs, said Ong was under close monitoring because she is essential in determining who should be implicated in relation to the Lucky South 99 POGO. “What’s Ong’s ties with Alice Guo, Harry Roque, and others? Who let her and Alice Guo’s sister leave the country, and why is our immigration system full of loopholes? I believe all these questions will be answered in our next hearing,” Hontiveros said. Guo, meanwhile, faces trafficking and tax evasion complaints before the Department of Justice. There are also pending petitions seeking the cancellation of her birth certificate , as well as a quo warranto case that aims to invalidate her Filipino citizenship. To date, there is no judicial arrest warrant against Guo, only the Senate arrest order. Roque was embroiled in the POGO controversy when a document showed him as a legal representative of Lucky South 99, the POGO raided in Porac, Pampanga due to alleged human trafficking and torture. The former presidential spokesperson has maintained that he has no direct link to the company. A document obtained by Rappler showed that Roque was among the names listed as the officials of Lucky South 99. During a House probe into POGOs on July 10, Philippine Amusement and Gaming Corporation Chairman Alejandro Tengco said Roque is listed as Lucky South 99’s legal head . In a later House probe, lawmakers said that Roque “effectively” lawyered for POGO despite denials from the former official. Due to his alleged ties with the Porac POGO, Roque has been placed under the PAOCC’s probe since August. Later, Roque was placed under the immigration’s lookout bulletin . An Immigration Lookout Bulletin Order does not have the power to prohibit the subjects from traveling abroad; it merely places them on high alert with stricter mechanisms to monitor where they are going. Just this week, Roque was cited in contempt and was detained for a day after the House learned that he lied when he said a prior court commitment prevented him from attending a congressional inquiry on August 16.  He was detained for 24 hours. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Harry Roque</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Harry Roque, from party-list congressman to enemy of the House</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/profile-harry-roque-under-house-representatives-investigation-pogo/</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>45528.26741898148</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. DENIAL. Former presidential spokesperson Harry Roque attends the resumption of the Senate investigation on Philippine offshore gaming operators on July 29, 2024. Angie de Silva/Rappler Angie de Silva/Rappler In the words of Harry Roque, the House of Representatives used to be his “happy place.” These days, he condemns that same institution for subjecting him to an alleged “trial by publicity.” Lawmakers, for numerous hearings now, have been trying to establish a direct link between their former colleague and a raided Philippine offshore gaming operator in Porac, Pampanga . The inquiry is part of a larger attempt by Congress to uncover criminal activities tied to POGOs, which boomed under the previous administration, of which Roque was the spokesperson. The chamber is known for its spirit of collegiality, with lawmakers often giving preferential treatment to former members invited as resource speakers. Roque’s history as a lawmaker, however, was not enough to escape the contempt citation against him , as well as the rare punishment of detention imposed on a former member of Congress. So how did he get there? Critics have long derided the political transformation of Roque — from the human rights champion who strongly opposed Rodrigo Duterte’s presidential candidacy , to being the loyal mouthpiece and ardent defender of his policies. But often overlooked in his résumé is his brief stint in the House of Representatives, as congressman of the multi-sectoral party-list group Kabayan, from June 2016 to October 2017. Two interrelated events accentuated that episode in Roque’s political career. First was the role that he played in the House inquiry into the illegal drug trade in the New Bilibid Prison . The probe was seen as a means to persecute then-senator Leila de Lima , key critic of Duterte’s bloody anti-narcotics campaign, by digging into her track record as secretary of the Department of Justice, which supervises the state penitentiary. Roque was among the lawmakers whose line of questioning raised eyebrows, as he focused on De Lima’s supposed frailties as a woman. Interrogating her former lover Ronnie Dayan , Roque at one point quipped, “Do you think that you took advantage of Leila De Lima’s weakness as a woman when you had a relationship?” Second was the infighting within Roque’s party-list group, which resulted in efforts to kick him out of Kabayan , as well as the House. Roque’s enemies in the group cited as grounds for expulsion his disorderly behavior when he asked sexually-laden questions about De Lima. It was a feud that devolved into a messy legal battle and a public word war between Roque and his fellow Kabayan lawmaker Ron Salo, Roque’s godson and former law student. The spat hit a pause after Roque left Congress to serve in the Duterte Cabinet at the tail end of 2017. Roque, who has always nurtured his ambition for higher office, sought a senatorial seat in the 2022 elections under the ticket of dictator’s son Ferdinand Marcos Jr., even though he was once a staunch critic of the Marcos family. Marcos won the presidential election by a landslide , while Roque ranked 17th in a race for 12 senatorial spots. Roque’s efforts back then to cozy up to the Marcoses would eventually prove futile, following the President’s falling out with the Dutertes , to whom Roque continued to be loyal. Roque, in several appearances on the pro-Duterte television outlet SMNI, would repeatedly lambast his former colleagues in Congress, accusing them of engaging in institutional corruption. “Do you want me to expose where congressmen are getting their profits?” Roque dared one time. “In my case, I didn’t benefit from that scheme because even when I would be allocated a budget, it would be stolen by district congressmen who control district engineers.” The House would later remind Roque that it had not forgotten his combative tone. In July, both the House and the Senate separately sought Roque’s presence in their congressional inquiries into the POGO scandal. Roque was implicated in the controversy after a document showed he was listed as legal head of Lucky South 99 , a shady POGO hub in Pampanga whose workers were allegedly trafficked and tortured . He repeatedly dismissed allegations of direct ties with Lucky South, saying he didn’t consent to the inclusion of his name in any documentary submission by the POGO firm. The country’s gaming regulator chief insisted that Roque represented Lucky South 99 when it was trying to reapply for a license, but Roque claimed to have only lawyered for a real estate firm that had leased its land to the illegal POGO hub. “It seems that coincidence follows him around and could explain everything, but fact of the matter is, Lucky South 99 seems to hound Mr. Roque,” 1-Rider Representative Rodge Gutierrez said. “At best, there is a link with Lucky South 99. At worst, this a terrible string of coincidence.” The lawmakers’ interrogation of Roque expanded over time. At first, it was only about the Lucky South connection, as well as the house in Benguet where authorities caught a Chinese fugitive with suspected links to POGOs. But by the third hearing attended by Roque, House members were already sifting through financial documents of companies that he had ties with. Batangas 2nd District Representative Gerville Luistro even asked Roque for a copy of a trust agreement within the family over a Parañaque property. She argued that such a document could rule out doubts regarding the increase in the cash assets of Biancham, a holding company previously owned by Roque, from P125,300 in 2014 to P67 million in 2018. “This is a legislative inquiry on POGOs. I think it has become too personal already…. Family matters should be left alone already,” Roque said, to which Luistro replied: “Let the quad committee verify where all the money came from.” Lawmakers rarely raised their voice, but tense exchanges underscored Roque’s damaged relationship with members of Congress. Take for example other comments that some House members made towards Roque. Roque countered: “What evidence do you have that Lucky South was the one that financed the land that I purchased? I showed you I sold our 1.8 hectares of land and the money from that was used to purchase [another property]. You can have your own conclusions, but the question remains — what did I do wrong?” The gotcha moment of the nearly 11-hour hearing on August 22 — one of the longest yet in the 19th Congress — came from Roque’s political nemesis. Salo, whose feud with Roque remains unresolved to this day, presented to the panel a copy of a Manila court certification to debunk his former professor’s excuse for his absence from an August 16 congressional inquiry, to which he had been invited. Roque had said he had a scheduled court appearance on that day, a Friday; records show he didn’t. Salo accused Roque of lying to the committee; Roque said it was an honest mistake as he thought the congressional inquiry fell on a Thursday, the actual day of his court appearance. “I therefore move that Attorney Harry Roque be cited in contempt for disrespecting members of this committee,” Salo said. “ Maraming namamatay sa maling akala (Many people die from wrong assumptions). Bear that in mind,” House dangerous drugs committee vice chairperson Romeo Acop also told Roque. Deliberations that lasted for an hour ensued. House public order and safety committee chairperson Dan Fernandez found an opportunity to bring up Roque’s past remarks against the chamber. “You maligned each and every member of this House by [saying] that we are all corrupt…. We are very [hurt] by what you have said.” House human rights committee chairperson Bienvenido Abante and Deputy Minority Leader Paul Daza both initially expressed reservations about citing a former lawmaker in contempt, but ended up not contesting the motion. As there was no verbal objection to Salo’s motion, it was adopted without having to go through a vote. The irony is not lost on political spectators eight years since Roque became a lawmaker. In 2016, he was among the interpellators when the Duterte-allied House worked to destroy the political capital of Leila de Lima. In present day, the tables have turned. De Lima was recently cordially welcomed by the same chamber that once antagonized her as it sought her expertise on the excesses of Duterte’s drug war. Roque, on the other hand, got a brief taste of a life without freedom. For “lying” to the panel, Roque was punished with detention that lasted only 24 hours. He was released from House custody on the night of August 23. “This is a demolition job,” Roque said, insisting that his detention was meant to silence him for his defense of the Dutertes and criticism of the Marcos administration. “I will not wish, even to my fiercest political opponents, to be deprived of their personal liberty and freedom,” added Roque, who, once upon a time, infamously wished De Lima a lifetime in jail . The former senator was recently acquitted of all Duterte-era drug charges after spending nearly seven years behind bars. House insiders point to different reasons why Roque’s supposed comeuppance happened this way. Some say it’s the chamber’s way of sending a message to a man carelessly speaking ill of an institution he used to be part of. Others believe his barely one-year stint in the House was not enough to establish solid ties that could have gotten him out of trouble. One ranking House officer speaking to Rappler on condition of anonymity has this take: “Congressmen don’t like it when you have to remind them that just because you are formerly a House member, you cannot be detained. You can watch him lie through his teeth. He knows how to tell a lie; he’s been a spokesman for so many years.” House leaders are undeterred by criticisms of recklessness when it comes to issuing contempt citations. They say Roque is not above the law, and they don’t intend to hold back should Roque mislead the committee again. “This is not overkill, because if you try to look at the records of those who are detained, there were bases for their detention,” House dangerous drugs committee chairperson Ace Barbers said. Roque’s predicament in the House is far from over, as the chamber promises to conduct more marathon hearings into the country’s POGO situation. Can Roque survive — in his own words — the “character assassination”? – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>House of Representatives,POGOs,Rodrigo Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Shades of gray: How PH ended up with a POGO crisis</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/shades-gray-how-philippines-ended-up-pogo-crisis/</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>45528.0625</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGO HUB. A recreated POGO setup inside a raided building in Pasay, which PAOCC has repurposed into an office and detention facility. Ulysis Pontanares/Rappler It was June 30, 2016, when Rodrigo Duterte, the infamous mayor of Davao City, took his oath as 16th president of the Republic of the Philippines, and convened his Cabinet at the Aguinaldo State Dining Room in Malacañang. “Online gambling must stop,” Duterte told the Cabinet. It seemed like a tall order from the commander, but he would go back and forth on that issue in the following months. On December 22, 2016, the President made up his mind : “I am ordering the closure of all online gaming [firms]. Lahat. Walang silbi ito . (All. They’re useless.)” On the outside, that seemed like tough rhetoric against online gambling, but it was just semantics. Because  as early as September that year, his Philippine Amusement and Gaming Corporation (Pagcor) had already created the now reviled POGOs or Philippine offshore gaming operators. When Duterte ordered the closure of all online gaming in December, the Pagcor chairperson  at the time, Andrea Domingo, was gearing up to grow offshore gaming through POGOs. “This venture will cover what we lose from e-gaming and e-bingos,” Domingo said in 2016. Republic Act 9487 authorized Pagcor to regulate games of chance, games of cards, and games of numbers. Nowhere in this law is “offshore gaming” mentioned. This is why many petitions were filed challenging the constitutionality of POGOs, unresolved to this day. (A March 2024 Supreme Court decision junked one petition because of a technicality — violating the hierarchy of courts.) In the model of offshore gaming, the player who places the bet is abroad, and the betting is on the cloud, or the internet. It is why Chinese players can place bets even if they are in mainland China where gambling is illegal. The websites, livestreams, the table, its dealers, are what’s in the Philippines through business process outsourcing (BPO) units acting as service providers. This is also why gaming proponents would always say there is no online gaming in the Philippines — because technically the game is elsewhere. “It’s a gray market, it’s a gray area,” retired cop Wally Sombero told Rappler in an interview in 2017, before he was arrested and eventually convicted of plunder for bribing Immigration officials to release detained Chinese nationals working for gaming tycoon Jack Lam. “If there is no gray market, there is no opportunity,” Sombero, who calls himself a gaming advocate and strategist, said in that interview. This gray market opportunity existed before POGO, through the Cagayan Economic Zone Authority (CEZA) which is run by the Enriles. Economic zones like CEZA more or less operate outside strict national rules; they can even issue their own visas. At their peak, there were more or less 300 service providers sanctioned by CEZA, its chief executive officer Katrina Ponce Enrile told the House of Representatives . Enrile added that in 2007, they got the go-signal to use some of the Philippine Economic Zone Authority (PEZA) buildings in Metro Manila. CEZA’s first-ever master licensor was First Cagayan Leisure and Resort Corporation (FCLRC). The FCLRC appears in a 2024 report by the United Nations Office on Drugs and Crime (UNODC) as being linked to a criminal casino syndicate based in Kokang, a mountainous area in the border of Myanmar and China. Enrile said that Pagcor’s POGO rules edged out their CEZA licensees. “Definitely CEZA at that point could not compete because we were strictly abiding by our mandate in our charter,” she told a House committee on July 31. Pagcor’s immediate licensing of POGO operators in 2016 “introduced a host of issues, including baseless tax exemptions, bypassing of Bureau of Internal Revenue and Securities and Exchange Commission registrations, issuance of multiple sub-licenses and issuance of thousands of working visas without proper oversight,” said a group of gaming service providers, which Sombero is part of, that describes itself as a gaming advocacy group whose “voice has been stifled” by the recent POGO controversies. The creation of POGOs in 2016 could not have come at a worst time. China had just started its massive crackdown on illegal gambling that year, arresting 19,000 suspects in cross-border operations particularly with Cambodia. Before he was arrested in 2022, one of the Chinese gambling fugitives, She Zhijiang had already set up a “robust business and investment portfolio across Southeast Asia, and particularly Cambodia, Myanmar, Thailand, and the Philippines,” said the UNODC. Incidentally, from 2016, suspicious transaction reports (STRs) in the Philippines related to casino junkets went on a steady increase, according to the Anti-Money Laundering Council (AMLC). It declined in 2020, the height of the pandemic, but shot up for a steep incline since 2021. The pandemic wasn’t the only thing that happened between 2019 and 2020, which saw a drop in suspicious transactions. In 2019, amid POGO controversies during Duterte’s term, Pagcor froze the issuance of POGO licenses. The issuances resumed early 2020, which is also when China and Cambodia resumed inspections and bans on online gaming. China and Cambodia’s crackdown “prompted exodus,” said the UNODC. The exodus led to the Philippines. “Criminal groups were forced to innovate, digitize, and diversify their business model following the outbreak of COVID-19 to maintain revenue streams…more specifically, casino operators have moved bases of operation deeper into loosely regulated and highly vulnerable jurisdictions including Cambodia, Lao PDR, and the Philippines,” said the UNODC. By 2022, suspicious transaction reports were at a high, AMLC monitoring showed. The environment in the Philippines seemed prime to accept the exodus, because many foreign POGO workers, particularly Chinese, were “stuck” in the country during the pandemic. “Tourists could convert their visas into working visas with little scrutiny, leading to unregulated activities within exclusive hubs that local government units (LGUs) could not monitor due to the national character of the licenses,” said the gaming group. There were “180,000 to 200,000 Chinese nationals after 2019 — sila na ‘yung nagpaikot-ikot (they rotated around POGOs),” Winston Casio, spokesperson of the Presidential Anti-Organized Crime Commission (PAOCC), told Rappler in an interview done inside a former POGO hub in Pasay which they have seized and repurposed into an office and detention facility. One of those stuck, although he was not Chinese, was Jeremy, a Malaysian who was “working in a legal POGO” in the Philippines in 2021. In an interview with Rappler where he requested anonymity for fear of repercussions, he said that in February of 2024, or the Chinese New Year, he was invited by a friend to drive to Bamban, Tarlac, to eat. He was taken to the Hongsheng Gaming Technology Inc. (later renamed Zun Yuan Technology) POGO in the compound owned by Baofu Land Development Inc., a company that Alice Guo incorporated. “He just left me there, and then he was just gone,” Jeremy said. He was forced to work in the hub which was operating a love scam. The problem with POGOs was that their licenses were obtained by groups that turned out to have handled scams, and not online gaming, like Hongsheng/Zun Yuan. Jeremy said he used their “scam phone” to secretly download some messaging apps, where he was able to send out some details to his wife in Malaysia. These secret messages led to his rescue from Bamban. From “almost number one in online gaming almost equal to Gibraltar,” according to Sombero, where “no money comes out of the Philippines, it’s only coming in, and regulators must capture the opportunity growth,” the Philippines soon became “among the largest scam farms” in Southeast Asia, according to Casio. In June 2021, the Financial Action Task Force (FATF) included the Philippines in its gray list, which is an indication of how bad the country’s “deficiencies” were in tracking and preventing illicit financial flows. “What’s the effect if you’re on the gray list? If you are a Filipino importer, you would like to import consumer goods from abroad. You would have to spend more dollars as opposed to if we are not on that list,” said Casio. The Philippines promised it would be out of the gray list by 2024, but it failed. In June 2024, when FATF released its list, the Philippines was still on the list. AMLC said that among the mechanisms it needs to enhance is combating money laundering by casino junkets. That Alice Guo has been able to leave the country is a reflection of these deficiencies. Without a proper case buildup for a financial crime, the PAOCC was constrained to file a complaint only where they had evidence: trafficking. Besides, they had trafficked workers willing to speak. That trafficking complaint is still being resolved by prosecutors of the Department of Justice (DOJ), which is why there are no court-issued warrant and hold departure orders for her, making it easier to leave. The Bureau of Internal Revenue (BIR) had just filed its case for tax evasion against her. “Ang problema ng bansa natin, mahina tayo with regards to digital forensics. [When we raided] Sun Valley in May of 2023, ilang computers ang nakuha doon? Kasama ‘yun sa return ng search warrant doon sa korte. Sabi nung judge na may hawak, one year after the actual raid, hanggang ngayon, hindi pa sina-subject to digital forensic examination the computers doon,” said Casio. (Our country’s problem is, we are weak when it comes to digital forensics. When we raided Sun Valley in May of 2023, how many computers were seized? These were included in the return of the search warrant that needs to be filed with the court. The handling judge said, one year after the actual raid, until now, the computers still have not been subjected to digital forensic examination.) There are dozens of workers caught in the PAOCC raids who are held in custody in the Pasay facility, and some of them have started filing for writs of habeas corpus, or an extraordinary writ to compel release from detention. PAOCC balances treating some as suspects, some as witnesses, others as victims. “It’s a very tricky standard,” said Casio. Guo’s sister Sheila, and a Porac POGO worker, Cassandra Li Ong, were arrested in Indonesia and are being held by Philippine authorities without a court charge. Alice Guo is still on the run , although she, too, does not have a court charge. The problem that began in a gray area is also being handled in a gray area. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Rodrigo Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>House quad committee defends move to detain Harry Roque | The wRap</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/august-23-2024/</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>45527.60069444445</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Representatives Ace Barbers and Dan Fernandez say the 24-hour detention of former presidential spokesperson Harry Roque show VIPs or former members are not given special treatment. Travelers passing through the Ninoy Aquino International Airport Terminal 3 are told to wear light garments and bring fans, with the air conditioning system unavailable. Vice President Kamala Harris formally accepts the Democratic nomination for president of the United States. She calls for an end to the war in Gaza and vows to fight tyranny around the world. Filipino para athletes will be wearing re-imagined timeless national costumes designed by local sustainable fashion brand DITTA for the Paris Paralympics opening ceremony. P-pop groups SB19 and BINI are set to receive the ‘Voices Of Asia Award’ from Billboard Korea at its ‘Billboard K POWER 100’ event in Seoul, South Korea. SB19’s fandom, A’TIN, wins Billboard’s Fan Army Face-Off contest for the second year in a row. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>BINI,Kamala Harris,NAIA,p-pop,Paralympics,POGOs,SB19,United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Harry Roque released from House detention cell</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/harry-roque-released-after-detention-house-representatives-august-2024/</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>45527.56738425926</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. HARRY ROQUE. Former presidential spokesman Atty. Harry Roque, attends the resumption of the Senate investigation on POGOs, on July 29, 2024. Angie de Silva/Rappler MANILA, Philippines – Former presidential spokesperson Harry Roque walked free on Friday night, August 23, after spending one day in the detention cell of the House of Representatives. House Secretary General Reginald Velasco confirmed with Rappler that Roque had been released, quoting House Sergeant-at-Arms Napoleon Taas. Roque was detained on Thursday evening as punishment for the contempt citation slapped by lawmakers against him. Members of the so-called quad committee investigating the proliferation of offshore gambling in the country sanctioned Roque for lying about his unavailability on August 16, the committee’s first day of inquiry. Roque wrote to the committee on August 13, asking that he be excused during the August 16 congressional hearing, citing a court commitment in Manila on the same day. Kabayan Representative Ron Salo — Roque’s godson-turned-political nemesis — bared during Thursday’s hearing that Roque had no scheduled court appearance on August 16, a Friday, based on a certification he obtained from the Regional Trial Court of Manila. Roque explained that it was an “honest mistake,” saying that he thought that the hearing would fall on a Thursday. “I assumed that just like the first and the second hearing where I attended, that it would be on a Thursday,” Roque had said. “By the time I realized it was a Friday and there was in fact a hearing, it was already close to lunch time, and the hearing was in Pampanga.” Prior to his release, Roque’s Facebook page posted a statement decrying his detention. “There are only two reasons for my detention. First is to silence me as a critic of the administration and as a loyal ally of the Dutertes, and second is to prevent me from doing my job as lawyer of former president Rodrigo Duterte at the International Criminal Court,” read his statement posted on Friday morning. “It’s clear as day: this is a demolition job,” he added. House leaders, however, stood firm on their decision to cite Roque in contempt. “We are not being overzealous, this is not overkill. Because if you try to look at the records of those who are detained, there were bases for their detention,” said House dangerous drugs committee chair Ace Barbers. “We don’t issue contempt orders on a whim, and we are being consistent,” House public order and safety committee chairperson Dan Fernandez added. Barbers warned Roque of stiffer penalties — including longer detention — should he lie to the committee again. The House quad committee — composed of four individual panels convening together — has been probing the links between Philippine offshore gaming operators (POGOs), the illegal drug trade, and extrajudicial killings, but congressional leaders insisted the probe was not meant to target former president Duterte. Roque has appeared before the committee numerous times already to defend himself from allegations that he lawyered for a raided POGO firm in Pampanga . – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>House of Representatives,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>What happens now to Shiela Guo, Cassandra Ong?</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/explainers/what-happens-shiela-guo-cassandra-ong/</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>45527.52378472222</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ARRIVAL. Cassandra Ong and Shiela Guo arrive in the Philippines from Indonesia on August 22, 2024. Bureau of Immigration The Philippine offshore gaming operator (POGO) saga continues and this time, dismissed mayor Alice Guo’s companions are now under the government’s custody. Philippine authorities reported on August 22 that Guo’s sister, Shiela, and Katherine Cassandra Ong, who is tagged in the Porac, Pampanga POGO, were under Indonesia’s custody. The two were deported to the Philippines on Thursday afternoon, and have since been held by authorities. What happens to them and how can their arrest benefit authorities in tracing the whereabouts of Guo, who has been out of the country since last month? The two arrived in the Philippines past 5 pm and later were transported to the Bureau of Immigration’s (BI) main office in Manila. There, Guo and Ong underwent a medical check-up and inquest before the BI. Afterwards, they were transferred to the custody of the National Bureau of Investigation. Since there’s no warrant of arrest against the two, as they have no known violation, they underwent an inquest proceeding — an expedited type of preliminary investigation because they were detained without a warrant. Under the Revised Penal Code, a person arrested without a warrant should be brought to court within a maximum of 36 hours, and that’s already for grave violations. The only arrest order against the two were based on legislative orders: The Senate’s arrest order against Guo for snubbing the hearings, and the House order against Ong for doing the same. Based on the mugshots released by the NBI on Friday afternoon, Guo faces charges for alleged violation of Republic Act No. 11983 or the New Philippine Passport Act and article 172 of the Revised Penal Code or falsification of documents. Ong, meanwhile, is charged with obstruction of justice. On top of these criminal cases, BI spokesperson Dana Sandoval told Rappler that Guo allegedly committed an immigration violation, which stems from her true citizenship. Authorities said Guo faces an immigration charge for misrepresentation since she allegedly acquired her Philippine passport fraudulently and even holds a Chinese passport. Guo’s mugshot bore the name of “Zhang Mier,” which is her true identity according to the authorities. “Comparative fingerprint analysis shows that the Chinese Zhang Mier and Shiela L. Guo are one and the same person. So, iisa ‘yon. (They’re the same person.) So, we can conclude na si (that) Shiela L. Guo na nasa amin ngayon ay isang Chinese (who’s now with us is Chinese),” NBI Director Jaime Santiago said during a press conference on Friday, August 23. Ong has no immigration violation and holds a Philippine passport. Since the two were arrested by virtue of legislative arrest orders, they should be put under the custody of the Senate and House. However, Senate President Chiz Escudero clarified on Thursday afternoon that the two will be placed under the NBI’s custody so the BI and the NBI can conduct inquest proceedings. Opposition Senator Risa Hontiveros, among the legislators who led the probe into POGOs, said she’s expecting the two to attend the Senate hearing on Tuesday, August 28. “I think, on Tuesday, there’s a Senate hearing so we will bring them there,” Santiago said. Both Guo and Ong may be detained in the Senate and House premises as part of the punishments that come with being cited in contempt. The Senate arrest order did not explicitly state the duration of Guo’s detention in the Senate, but legislative bodies can only detain a person held in contempt for only as long as the inquiry is ongoing. LOOK: The House shares a copy of the arrest order vs Ong. She was earlier cited in contempt and ordered arrested for snubbing the House hearings on POGO. She will be detained within House premises for 30 days. pic.twitter.com/hmCbJo2xDO As for Ong, she may be detained in the House premises for 30 days, as stated in the arrest order. Despite the arrest and deportation of both Guo and Ong, the fact that Alice Guo is still free remains. Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio told reporters on Thursday that the dismissed mayor is still in Indonesia, while their brother, Wesley, is no longer in the neighboring nation, but in another “undisclosed” country. The BI has different information because Sandoval said on Friday that just like Alice, Wesley is still in Indonesia, too. It was Hontiveros who first revealed on Monday that Guo had already left the country , before immigration and law enforcement officials could even announce it. Citing her sources, Hontiveros said that Guo met with her father Guo Jian Zhong, mother Lin Wen Yi, her brother Wesley, and Ong in Singapore. So when exactly did immigration authorities know about Guo’s departure? “As far as the Bureau of Immigration is concerned, we got the information last August 15. And it just so happened that when we got that information, I was in Vietnam attending the annual conference of immigration authorities in ASEAN. So when we got the info, I already made initial verification with my counterparts for checking,” BI Commissioner Norman Tansingco said in a mix of Filipino and English. “We did not immediately issue any statement until we [had] validated the information, because we don’t want to spread disinformation. So we needed to validate first. So when we were able to validate that she’s in this specific place, I immediately sent a formal request to counterparts to give us assistance in recovering them,” the immigration chief added. Like her sister, the dismissed mayor of Bamban, Tarlac is covered by the Senate arrest order. There’s no warrant of arrest against her from the court yet because the prosecutors are processing the trafficking and tax evasion complaints filed against her. There are also pending petitions seeking the cancellation of her birth certificate , as well as a quo warranto case that aims to invalidate her Filipino citizenship. Guo is at the center of these controversies due to her alleged ties with an illegal POGO in her town. “The connection is there. It proves the connection between Bamban and Porac operations,” Justice Secretary Jesus Crispin “Boying” Remulla said, describing the supposed connection between the Guos and Ong. Aside from being a sister of the dismissed mayor, Shiela is also a co-incorporator in Baofu Land Development Incorporated, which leased its land to Hongsheng Gaming Technology Inc., later renamed Zun Yuan Technology. This is the raided POGO, with whom Guo has ties. Ong, meanwhile, has ties to the Lucky South 99 POGO in Porac, Pampanga. Authorities said the Porac POGO was a hotbed for various illicit activities, including human trafficking, forced labor, and scams. Ong hired former presidential spokesperson Harry Roque for the real estate firm Whirlwind that leased its land to the Porac POGO. The arrest of the two can further help in the probe into illegal POGOs. Hontiveros said Ong was under close monitoring because she is essential in determining who should be implicated in relation to the Lucky South 99 POGO. “What’s Ong’s ties with Alice Guo, Harry Roque, and others? Who let her and Alice Guo’s sister leave the country, and why is our immigration system full of loopholes? I believe all these questions will be answered in our next hearing,” Hontiveros said. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Alice Guo,Bureau of Immigration,Cassandra Ong,Risa Hontiveros,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>WATCH: Cassandra Ong, Sheila Guo arrive in PH from Indonesia</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/video-cassandra-ong-sheila-guo-arrive-from-indonesia-august-22-2024/</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>45526.46371527778</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ARRIVAL. Cassandra Ong and Shiela Guo arrive in the Philippines from Indonesia on August 22, 2024. Bureau of Immigration MANILA, Philippines – Katherine Cassandra Ong , tied to a Philippine offshore gaming operator (POGO) in Porac, Pampanga, and Sheila Guo, the sister of dismissed Bamban mayor Alice Guo, arrived in the Philippines from Indonesia on Thursday afternoon, August 22. The two arrived at Ninoy Aquino International Airport Terminal 1 past 5 pm on Thursday via Philippine Airlines flight PR 540 from Jakarta. Ong and Guo were nabbed in Indonesia and placed under the custody of Indonesian immigration authorities . The House of Representatives, the Department of the Interior and Local Government, and the Department of Justice (DOJ) confirmed the two’s detention on Thursday. Philippine authorities left the country on Thursday to pick up the two. Guo is covered by a Senate arrest order issued against her and her siblings due to their absences during the upper chamber’s hearings on POGOs. Ong, meanwhile, was ordered arrested by the House after she was cited in contempt last week for snubbing the lower chamber’s inquiry into POGOs. Ong is also under an immigration lookout bulletin for being a person of interest due to her POGO ties. In a statement, Immigration Commissioner Norman Tansingco said the bureau coordinated with its Indonesian counterpart after the Guos and Ong left the country. He said the Indonesian Inteldakim Officer of the Batam Immigration Office received the copy of their report and initiated a probe into the four’s whereabouts. Philippine authorities claimed Indonesians arrested Ong and Guo on the basis of being “illegal aliens because they were wanted in the Philippines,” according to Tansingco. But there are no court warrants against either of them — only the arrest orders from the Senate and the House. On Thursday afternoon, Presidential Anti-Organized Crime Commission Spokesperson Winston Casio said there was a request for an Interpol blue notice between Philippine and Indonesian immigration officials. It remained unclear what mechanism was used for the Indonesian arrest as Interpol notices are based on judicial warrants. The warrants for Ong and Guo were only legislative warrants for contempt. In addition, a blue notice is used to “collect additional information about a person’s identity, location, or activities in relation to a criminal investigation,” and not for arrest or detention. On Monday, August 19, Senator Risa Hontiveros revealed that the dismissed mayor had already left the country as early as July 18. Hontiveros said Guo met with her father Guo Jian Zhong, mother Lin Wen Yi, brother Wesley, and Ong in Singapore.  Citing intelligence information, Tansingco said Ong’s group was assisted by a Singaporean man who booked their stay in Indonesia. Ong, known either as Cassy Ong or Cassy Li, has ties to the Lucky South 99 POGO in Porac. House lawmakers said former presidential spokesperson Harry Roque “effectively” lawyered for Whirlwind Corporation , the real estate firm that leased its land to Lucky South. Back in June, authorities said Lucky South 99’s POGO hubs were hotbeds for various illicit activities, including human trafficking, forced labor, and scams. Meanwhile, dismissed mayor Guo faces a string of allegations, including trafficking and tax evasion complaints pending before the DOJ. There are also pending petitions seeking the cancellation of her birth certificate , as well as a quo warranto that aims to remove her Filipino citizenship. Malacañang has also ordered the Department of Foreign Affairs to cancel Guo’s passport. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Bureau of Immigration,Cassandra Ong</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>House detains Harry Roque for 'lying' to lawmakers</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-representatives-quad-committee-cites-harry-roque-contempt-august-2024/</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>45526.44934027778</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. HOT SEAT. Former presidential spokesman Harry Roque is interrogated over his supposed ties to the raided POGO firm Lucky South 99. House of Representatives MANILA, Philippines – A House mega panel investigating the proliferation of Philippine offshore gaming operators (POGOs) cited former presidential spokesperson Harry Roque in contempt on Thursday, August 22, for supposedly lying before the committee about his schedule. Lawmakers also voted to detain him within House premises for 24 hours as a penalty. The so-called quad committee invited Roque to attend House proceedings on August 16, but Roque asked on August 13 to be excused, citing a scheduled court hearing at a regional trial court (RTC) in Manila on the day of the congressional inquiry. Kabayan Representative Ron Salo, who raised the motion to cite Roque in contempt, said he had obtained from the clerk of court of the RTC of Manila a certification which stated that Roque had no scheduled court appearance on August 16. “I hate to say this, but clearly, Attorney Harry Roque, a former secretary and my former professor, lied to this committee, and that amounts to disrespect on the members of the committee which is contemptible,” Salo said. Roque claimed it was an “honest mistake,” explaining he had asked to be excused because he thought that the quad committee hearing was scheduled on August 15, a Thursday. “I’ve also been a member of this chamber. We don’t hold hearings on Friday. When I saw the notice of hearing, I assumed that just like the first and the second hearing where I attended, that it would be on a Thursday. And that is true, that I had a hearing both in the morning and the afternoon,” Roque said. “By the time I realized it was a Friday and there was in fact a hearing, it was already close to lunch time, and the hearing was in Pampanga. I apologize for the honest mistake,” he added. Roque has been a constant resource person during the House’s investigation into the rise of POGOs in the country, as lawmakers try to establish his ties to a raided POGO company in Porac, Pampanga. Roque had been a lawyer for real estate firm Whirlwind in August 2023 in an ejectment case. The company was connected to Lucky South 99 because it leased its land to the POGO firm. Roque was also hired for Whirlwind by Cassy Li Ong, who is Lucky South 99’s representative to the Philippine Amusement and Gaming Corporation (Pagcor). Roque later accompanied Ong to a meeting with Pagcor over Lucky South 99’s remittances, even though he insists to this day that he never lawyered for that firm. But Pagcor chief Alejandro Tengco said the discussion during that meeting never touched upon Whirlwind, because Pagcor had no relationship with Whirlwind. Roque has insisted that he did not commit any crime, and no paper trail established a direct lawyer-client relationship between him and Lucky South 99. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>House of Representatives,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Alice Guo's sister, Porac POGO worker Cassandra Ong now in PH custody</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/katherine-cassandra-ong-alice-guo-cohort-under-custody-indonesian-authorities/</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>45526.13130787037</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. DETAINED. Cassandra Ong and Sheila Guo (with faces blurred) detained in Indonesia, as shown in this photo provided by Senator Risa Hontiveros on August 22, 2024. Senator Risa Hontiveros Facebook page MANILA, Philippines – Katherine Cassandra Ong, tagged in the Philippine offshore gaming operation (POGO) in Porac, Pampanga, and the sister of dismissed Bamban, Tarlac, mayor Alice Guo, Sheila, are now under the custody of Philippine authorities. The two arrived in the country on Thursday afternoon, August 22, after they were initially held by immigration authorities of Indonesia, as confirmed by Justice Secretary Jesus Crispin Remulla. When asked earlier in the day if the ones held in Indonesia were Ong and Sheila, Remulla told reporters: “Yes, that’s true…. The connection is there. It proves the connection between Bamban and Porac operations.” Sheila is covered by the Senate arrest order issued by the upper chamber against her and her siblings for snubbing the hearings on POGOs. As to Ong, the House shared to reporters on Thursday a copy of the arrest order against her, after she was cited in contempt for snubbing the House’s POGO hearings. “Our immigration agents have already left and are on their way to Batam, Indonesia, to be able to bring back Cassy Li Ong and Sheila Guo to the Philippines. Hopefully by today or at the earliest tomorrow,” Presidential Anti-Organized Crime Commission (PAOCC) spokesperson Winston Casio told reporters in a mix of Filipino and English on Thursday. Senate President Chiz Escudero initially said Sheila will be arrested at the airport and then placed under Senate custody. The Senate is also in coordination with the House Sergeant-At-Arms as Ong will be held under House custody once police arrest her in the airport. On Thursday afternoon, however, Escudero clarified that Ong and Guo will first be put under the National Bureau of Investigation’s (NBI) custody. “We were informed that per guidance from the DOJ [Department of Justice], the NBI shall take custody of both Sheila and Cassandra in order for NBI to file cases against Cassandra and for BI [Bureau of Immigration] to conduct inquest proceedings against Shiela on immigration charges. Thereafter, the NBI will debrief them. Only thereafter shall they coordinate with the Senate and the House regarding the warrants issued by both Houses against them,” the Senate president said. Remulla told reporters that the two will be brought to the NBI for questioning, and then later for debriefing. “I’m asking the immigration people to prepare the cases that ought to be filed against them,” the DOJ chief said. Santa Rosa, Laguna Representative Dan Fernandez, House committee on public order and safety chairperson, revealed the arrest of Ong in Indonesia during the House mega-panel hearing earlier on Thursday, August 22. “Considering the communication that was sent to us as well that Cassandra Li Ong was already in the custody of the Bureau of Immigration of Indonesia. And as a matter of fact, our police attaché and the PNP chief [are] in coordination with the Bureau of Immigration of Indonesia,” Fernandez said. Fernandez, co-chairperson of the House “quad committee” probing illegal POGOs, extrajudicial killings, and Chinese syndicates, added that Philippine National Police chief Rommel Francisco Marbil and the country’s police attaché are already coordinating with Indonesian authorities to bring her to the Philippines. Ong, known either as Cassy Ong or Cassy Li, has ties to the Lucky South 99 POGO in Porac, Pampanga. House lawmakers said former presidential spokesperson Harry Roque “effectively” lawyered for Whirlwind Corporation , the real estate firm that leased its land to Lucky South. Back in June, authorities said the Lucky South 99’s POGO hubs were hotbeds for various illicit activities, including human trafficking, forced labor, and various scam activities. When Philippine authorities reported dismissed Alice Guo’s departure from the Philippines, opposition Senator Risa Hontiveros said that Guo met with her father Guo Jian Zhong, mother Lin Wen Yi, her brother Wesley Ong, and Ong in Singapore. Like Ong, Guo faces a string of allegations due to her alleged POGO ties. The House mega-panel, also known as the “quad comm,” probes the links among illegal POGOs, Chinese syndicates, illegal drug trade, and extrajudicial killings in the country. Ong never appeared in the legislative hearings, so she was cited in contempt by the House last week. Guo reportedly left the country in July and flew to Indonesia, Malaysia, and Singapore, as confirmed by several agencies. On Thursday, Casio said after they received the information about Ong and Sheila Guo’s detention in Indonesia, they also asked for information about the dismissed mayor and their brother, Wesley. The PAOCC official said they were told that Wesley is no longer in Indonesia, but in another “undisclosed” country. “Now for Alice Guo, she was not seen yesterday and earlier today in Batam, Indonesia. But there’s no information that she already left Indonesia, so we strongly believe that Guo Hua Ping is still in Indonesia,” Casio added. Hontiveros, among the legislators who led the probe into POGOs, commended  Indonesian authorities for Ong’s and Guo’s arrest. Hontiveros said Ong was under close monitoring because she is essential in determining who should be implicated in relation to the Lucky South 99 POGO. “What’s Ong’s ties with Alice Guo, Harry Roque, and others? Who let her and Alice Guo’s sister leave the country, and why is our immigration system full of loopholes? I believe all these questions will be answered in our next hearing,” Hontiveros said in Filipino. – With reports from Bonz Magsambol/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Alice Guo,Cassandra Ong,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>How did Alice go to Malaysia, Singapore, Indonesia?</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/how-bamban-mayor-alice-guo-escape-malaysia-singapore-indonesia/</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>45525.06793981481</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. A SPY? Bamban Mayor Alice Leal Guo answers questions from senators during the continuation of the public hearing on the raided Philippine Offshore Gaming Operator facility in Bamban, Tarlac, on May 22, 2024. Angie de Silva/Rappler The most controversial mayor in the Philippines, who faces a string of complaints, has evaded authorities and has successfully left the country. Dismissed Bamban, Tarlac mayor Alice Guo had already left the country as early as July 18, opposition Senator Risa revealed on Monday, August 19. Guo was able to travel abroad even though different government agencies are supposed to be tracking her. There are several actions and proceedings against Guo, yet not one agency was able to stop or catch her. Someone dropped the ball, and agencies have been passing the buck. Hontiveros said in a privilege speech that Guo, identified as Guo Hua Ping , flew to Kuala Lumpur in Malaysia. An intelligence source told Rappler that Guo arrived in Malaysia on July 18, then traveled to Singapore on July 21. Guo faces a qualified trafficking complaint at the Department of Justice (DOJ) over her alleged ties with the raided Philippine offshore gaming operators (POGO) in Bamban. The DOJ was the first place she should have showed up at, because unlike the Senate, this was a criminal action. But she never personally appeared there in the three preliminary investigation hearings conducted by prosecutors. It turns out that Guo missed the deadline to file her counter affidavit there, which is the time she should have appeared personally. The complaint was submitted for resolution without her submitting her defense, but on August 15, Guo, through her lawyers, filed a motion to reopen the preliminary investigation, saying it took her time to put together her counter affidavit. Counter affidavits should be sworn personally, usually before prosecutors handling the case. If they can cite valid reasons, persons who are the subject of a complaint can swear to the truthfulness of these before a notary public somewhere else. Guo’s counter affidavit shows she supposedly appeared before a notary public in Bulacan on August 14. But how did this happen if she had already left the country on July 18? DOJ prosecutor Sonny Ocampo said lawyer Elmer Galicia notarized Guo’s affidavit in Bulacan and Guo personally appeared before the lawyer. “It appears that on August 14, at around 7 pm, when Galicia arrived in his office, a land cruiser was already there and Guo was on board. Someone arranged and told him that someone will ask for notary. Now, he and Alice Guo talked downstairs. Guo presented her driver’s license, then he notarized the counter affidavit,” Ocampo told reporters in Filipino. There is a Senate arrest order against Guo for snubbing the hearings on illegal POGOs and an immigration lookout bulletin order (ILBO) . Neither of these two can prevent Guo from leaving the country. What could have stopped the dismissed mayor from going overseas is a hold departure order (HDO), but this can only be applied for when there’s a pending case before a court. But the qualified trafficking complaint is still pending before DOJ prosecutors. The DOJ’s other option was to apply for a precautionary HDO (PHDO). This is a fairly new HDO meant for prosecutors to prevent flight of a suspect while they resolve complaints. Yet the DOJ did not do this. “We didn’t file PHDO anymore. We just settled for the ILBO…. At the same time, there’s already an outstanding warrant addressed for Mayor Alice Guo…. And finally, she can’t really travel abroad because she needs travel [authorization] from the Secretary of the Interior,” DOJ Undersecretary Nicholas Felix Ty said on August 14. Guo traveled with her Philippine passport, authorities said. Why did she still have a passport? Because the right to travel is a constitutional right, and without a court case, Guo retained that right as a supposed Filipino citizen. On July 5, the Office of the Solicitor General (OSG) filed a petition before a local court in Tarlac, to cancel the birth certificate of Guo , citing irregularities in obtaining her late registration of birth. That is still pending. If that is granted, then Guo essentially would lose her supposed Filipino citizenship, which could potentially have been basis to cancel her passport. But this did not happen. Malacañang only acted on Tuesday, August 21, when Guo’s departure was made public. It ordered the Department of Foreign Affairs (DFA) to cancel Guo’s passport “in the interest of national security.” Section 4 of RA 11983 authorizes the foreign secretary to cancel a passport “in the interest of national security, public safety, and public health.” In all of this, the fact remains that there is a Senate warrant of arrest out for her. What did law enforcement like the Philippine National Police (PNP) do? PNP spokesperson Colonel Jean Fajardo said the national police did everything in its power to locate her. “We provided the necessary police assistance to the personnel of the Senate Sergeant-At-Arms and if there is any effort on the PNP that we can give, the PNP is willing to cooperate,” Fajardo added. How did Guo enter Indonesia on July 18? This part remains hazy. The Presidential Anti Organized Crime Commission (PAOCC) sent out initial information to media Monday evening that Guo’s route on July 18 was Denpasar, Indonesia to Kuala Lumpur, Malaysia via Batik Air 177. PAOCC was still confirming whether Guo really went to Denpasar first before Kuala Lumpur. If Guo flew Batik Air from the Philippines to Kuala Lumpur, that means she flew from the Ninoy Aquino International Airport (NAIA) from where Batik Air flies out. But according to the Bureau of Immigration (BI), there is no record of Guo’s departure from the Philippines on their centralized database. Yet the BI has records of Guo’s entry to the three ASEAN countries mentioned by the PAOCC — Kuala Lumpur, Malaysia on July 18, flight to Singapore on July 21, and ferry boat to Batam, Indonesia on August 18. There is a possibility that Guo left the Philippines by sea or via private plane, BI spokesperson Dana Sandoval said when asked by Rappler. “We are seeing those as among the possibilities that she utilized to leave the country without immigration, without immigration inspection. Because if she will pass through formal ports that have immigration presence, we can see her record,” Sandoval said in Filipino. “If Mayor Guo illegally left the country, meaning she did not undergo immigration inspection, then regardless of his/her derogatory record, they would be able to circumvent that because there’s no inspection conducted. That would not pop up in our database,” she added. BI Commissioner Norman Tansingco had earlier said that there were “informal exit points” not manned by the BI, but “are managed and monitored by other aviation or maritime agencies.” “For private aircrafts, like what has been mentioned in the Senate, they should have a processing center under the watch of several government agencies because they should have proper clearances before they can take off. For watercraft, a strengthened monitoring in our seas would help since the Philippines is very porous,” Sandoval explained. All these suggestions are in hindsight — after the Philippines’ most hunted at this time had already left. Justice Secretary Jesus Crispin “Boying” Remulla himself acknowledged that there are “some dishonest immigration personnel in the country.” After President Ferdinand Marcos Jr. announced the total ban on POGOs, Remulla reminded BI personnel to refrain from engaging in corrupt activities as the government processes the foreigners’ exit from the Philippines. In light of Guo’s escape, Remulla ordered the National Bureau of Investigation (NBI) and the BI to probe into the incident. “I am issuing this final warning against erring BI personnel who may have had a participation in the escape of Guo despite strict restrictions imposed by our government, it’s either you come out and unveil the truth or wait until I personally get to the bottom of this where heads will roll and all hell will break loose,” Remulla said in a statement on Tuesday. To be clear, there is no court-issued arrest warrant against Guo, which gives her legal leeway. When DOJ finally resolves the complaint, and in the event that they file a charge in court, a judge has to issue an arrest warrant. That court warrant can become basis to put out an Interpol red notice alert for her. Police in whichever country she’s in, and who are part of the Interpol, can take her into custody and extradite her to the Philippines. Indonesia, Malaysia, and Singapore are all member countries of the Interpol, like the Philippines. But without a court warrant, what’s the option? In the case of expelled Negros Oriental lawmaker Arnolfo “Arnie” Teves Jr , the DOJ requested the Interpol for a blue notice even without a court warrant. The blue notice is pretty much like an ILBO — it is used “to collect additional information about a person’s identity, location or activities in relation to a criminal investigation.” “ Hindi makakaalis si Alice Guo kung walang tumulong sa kanya na mga opisyales ng pamahalaan,” said Hontiveros, “ parang nagpasampal tayo sa dayuhang ito na paulit ulit na sinasaula ang ating mga batas, patakaran at proseso.” (She could not have left if government officials did not help her…It’s like we allowed ourselves to be slapped by this foreigner who repeatedly made a mockery of our laws, rules, and processes.) – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Marcos vows ‘heads will roll’ after Alice Guo’s PH exit</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/marcos-statement-heads-will-roll-alice-guo-departure/</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>45525.05298611111</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. POGOs. Mayor Alice Leal Guo answers questions from senators during the continuation of the public hearing on the raided Philippine Offshore Gaming Operators facility in Bamban, Tarlac, on May 22, 2024. Angie de Silva/Rappler MANILA, Philippines – President Ferdinand Marcos Jr. promised to “expose the culprits” who helped the Philippine exit of a dismissed town mayor accused of faking her Filipino citizenship and having links to Philippine Offshore Gaming Operators (POGOs) in her town. “The departure of Alice Guo has laid bare the corruption that undermines our justice system and erodes public trust. LET ME BE CLEAR: Heads will roll,” Marcos said in a statement released on his social media pages early morning Wednesday, August 21. Hours prior, Justice Secretary Jesus Crispin Remulla announced a “thorough investigation into the reported escape of Guo.” “We will expose the culprits who have betrayed the people’s trust and aided in her flight. A full-scale investigation is already underway, and those responsible will be suspended and will be held accountable to the fullest extent of the law,” said Marcos. Remulla earlier ordered Bureau of Immigration Commissioner Norman Tansingco to submit a report “immediately” on how Guo was able to exit the Philippines. Senator Risa Hontiveros, one of two legislators who spearheaded the probe into Guo and her POGO links, revealed on August 19 that the embattled former Bamban mayor had apparently exited the Philippines on July 18 via Kuala Lumpur, Malaysia. Rappler intelligence sources indicate that Guo then travelled to Singapore and eventually to Batam, Indonesia. “There is no room in this government for anyone who places personal interest above serving the Filipino people with honor, integrity and justice,” the President added. It is not clear, as of posting, if Marcos was also referring to the probe Remulla ordered, or if he wants a wider investigation that goes beyond the justice department. For instance, a probe could include police units who should have been keeping tabs on Guo’s whereabouts. Remulla has cast the probe’s net to include “the possibility that the camp or legal counsels of the embattled ex-mayor may have had a hand in her slippery exit from the Philippines.” “Let me reiterate that as much as lawyers have an obligation to protect the interests of their clients, they also have a broader responsibility to uphold the Rule of Law and safeguard public interest,” he said. Guo, elected mayor of Bamban town in 2022, faces a slew of cases and complaints following a law enforcement operation in her town and series of dramatic Senate probes where her links to POGOs in Bamban and questions about her real identity were first revealed. Guo has been accused of either being part of a large criminal scheme that involved the trafficking and torture of workers or being a spy for China. Senator Sherwin Gatchalian also previously revealed that Guo may have entered the Philippines as a Chinese national in the early 2000s . Ahead of her reported exit from the Philippines in mid-July, Guo or Guo Hua Ping, if documents unearthed by senators are to be believed, faced a barrage of cases and complaints — an arrest warrant issued by the Senate, a tax evasion complaint, a trafficking complaint over the raided POGO operation in Bamban, and a complaint that seeks to nullify her proclamation as mayor over her citizenship. She has since been dismissed by the Ombudsman over “ grave misconduct .” Marcos earlier expressed support for probes into Guo — by the Senate and the BI — pointing out that “none” of the politicians in the province of Tarlac knew where she came from. Guo, seemingly in response to Marcos’ statements in May, then posted photos of herself with Marcos taken during the 2022 campaign. Marcos belittled the importance of those photos , telling reporters in a subsequent chance interview that it “proves nothing” because he took “maybe a thousand” photos daily when he was running for president. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Alice Guo,Marcos Jr. administration,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>How Alice Guo concealed POGO link when she was mayor</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/inside-track/how-alice-guo-concealed-pogo-link-mayor/</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>45523.25586805555</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. MISSING. File photo of Mayor Alice Leal Guo attending a Senate hearing on May 22, 2024, before she disappeared from public view. Angie de Silva/Rappler Alice Guo, in her statements before she disappeared to evade a Senate arrest warrant, claimed she divested all of her shares in a real estate company called Baofu Land Development Incorporated (Baofu) when she won as mayor of Bamban, Tarlac in 2022. It turns out that wasn’t true, according to court documents. “Before I ran for public office, I already divested,” Guo told ABS-CBN anchor Karen Davila in her first and so far only sit-down interview since the Senate blew the lid open on her links to a Philippine offshore gaming operator in Bamban that was found to have trafficked and tortured workers. Baofu is the real estate firm that Guo co-incorporated in 2019 with foreign fugitives Lin Baoying,  Zhang Ruijin, and Zhiyang Huang. Baofu leased its land in Bamban to Hongsheng Gaming Technology Inc., later renamed Zun Yuan Technology, a POGO. But according to a document from a Tarlac City court, Guo’s September 21, 2021 deed of assignment transferring her Baofu shares to Quezon City-based businessman Jack Uy was “spurious and simulated.” The Court of Appeals (CA) resolution that froze her assets said “Alice Guo never ceased to be a stockholder for Baofu” even after she won the mayorship of Bamban in 2022. “Despite Guo’s glaring attempt to conceal her business interest with Baofu, her subsequent acts would readily reveal that she never actually divested her shares and still owns the controlling interest of Baofu,” said the CA resolution. Guo maintained in her counter-affidavit submitted to the Department of Justice (DOJ) on August 15 as an answer to a qualified trafficking complaint against her that she had “no more participation in the operations of Baofu as early as September 21, 2021.” Court documents show, however, that when the Bamban local government issued Baofu environmental and building permits, on October 2021 and July 1, 2022, respectively, Guo was still listed as owner of the company. Her own sworn statement showed the same. Both permits were issued to Baofu after Guo’s alleged deed of assignment to Jack Uy. By July 1, 2022, Guo was already mayor of Bamban, issuing a permit for her own business — a clear conflict of interest. The Bureau of Internal Revenue also found that when Guo supposedly transferred her shares to Uy, “no capital gains tax and documentary stamp tax returns were filed and paid.” The BIR has since filed a tax evasion complaint against Guo and Uy at the DOJ. Uy was not Baofu owner for very long because by October 2022, he passed the shares on to another businessman named Bernard Chua. The 2024 General Information Sheet (GIS) of Baofu indicates that Chua owns 50% of the company. On October 7, 2023, the Quezon City police arrested a businessman by the name of Bernard Chua for perjury. In its spot report, the cops said Chua reported a robbery in his car business in Quezon City (QC — P22.5 million in cash, P12.8 million worth of luxury watches, P10 million worth of diamonds, and P343,000 worth of guns were supposedly stolen. But an investigation “revealed that no incident transpired as reported. Moreover, footage from CCTVs, shows no record of the aforementioned incident. All the witnesses who are the employees of the suspect stated that they were forced by the latter to make fabricated facts to make it appear that indeed a robbery happened,” said the spot report. The address of the Chua mentioned in the QC police spot report was similar to that of Baofu’s Bernard Chua as shown in the company’s business records. The address indicated in the spot report is “130, Road 20 in Project 8 Quezon City,” while the address in business records is listed as “130, Road 29 in Project 8, QC.” The spot report address clearly exists, but a search on Google Maps showed that the road “A29” between Roads 1 and 10 in Project 8 does not have a property lot number 130. By the time of this apprehension by the Quezon City police, Chua was already a year into his beneficial ownership of Baofu, and Hongsheng had already been raided. (Hongsheng was raided February 2023. It had already been renamed Zun Yuan at the time it was raided in March 2024.) Whether or not she really divested from Baofu, Guo claims this does not make her liable for what Hongsheng/Zun Yuan did, even though she, as mayor, issued the business permit to Zun Yuan in June 2023, despite Hong Sheng being raided only four months earlier, in February 2023. “The issuance of the permit to Zun Yuan is simply a procedural administrative task and does not equate to involvement in human trafficking,” said Guo in her counter-affidavit sent to the DOJ. There is a Senate warrant out for Guo after she was held in contempt by the upper house, for snubbing the inquiries there. Authorities said they couldn’t find her. If her counter-affidavit is to be believed, Guo went to a notary public in San Jose del Monte in Bulacan on August 14. Maybe authorities can look there, too. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Ex-customs official links Dutertes, Michael Yang to illegal drugs</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/ex-customs-official-jimmy-guban-links-dutertes-michael-yang-illegal-drugs/</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>45520.56546296296</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. SURPRISE WITNESS. Jimmy Guban, former Bureau of Customs intelligence officer, arrives at the Villa de Bacolor Convention Center in Bacolor, Pampanga to give his testimony as witness during the joint public hearing by the quad committee of the House of Representatives on August 16, 2024 Joann Manabat/Rappler PAMPANGA, Philippines – Jimmy Guban , a former intelligence officer of the Bureau of Customs, implicated two members of the Duterte family and former presidential adviser Michael Yang to illegal drugs during the House quad committee ‘s inquiry in Bacolor, Pampanga on Friday, August 16. Guban, a surprise witness in the probe, accused Davao 1st District Representative Paolo Duterte, Vice President Sara Duterte’s husband Mans Carpio, and former economic adviser Yang of involvement in illegal drug importation. The former customs official claimed that the three owned the magnetic lifters which concealed P11-billion worth of illegal drugs that were seized in Cavite back in 2018. In his sworn statement, Guban also mentioned several others: Davao City Councilor Nilo Abellera Jr., former environment undersecretary Benny Antiporda, Presidential Task Force on Media Security Executive Director Paul Gutierrez, Ernan Abario, a Chinese national named “Henry,” and Poney Chen. The House panel has issued a show cause order to the personalities mentioned by Guban in his sworn statement. Dangerous drugs committee chairperson and Surigao del Norte 2nd District Representative Robert Ace Barbers said Guban’s revelation shows that some people are not just involved in smuggling, but rather to a broader network that might include other illegal practices such as money laundering. “Guban’s testimony on the container of drugs being allowed to slip through is really significant,” Barbers told Rappler in Filipino. “The significance in his statement is [identifying] the people allowing [the illegal drugs] to slip through.” “This came out just now. In the next hearing, the pieces in the puzzle will be completed and will substantiate our theory that drug money and proceeds of criminal activities are being used to corrupt government officials, including the purchase of land, and the establishment of businesses to launder money,” he added. Initially, Guban refrained from naming Duterte, Carpio, and Yang in his allegations. Instead, he pointed to former anti-drug cop Eduardo Acierto as having knowledge about the illegal drug shipments. Guban recanted his statements against Acierto in an affidavit submitted during a trial in 2023. Guban has been detained at the New Bilibid Prison in Muntinlupa City since 2018, following his alleged involvement in the shipment of magnetic filters found in Cavite. Former president Rodrigo Duterte ordered his arrest and he has been sentenced to life imprisonment since. There’s a standing arrest order against Yang , after he was cited in contempt by House committee on dangerous drugs for failing to attend the legislative probe. Yang has been invited by the House panel for his alleged involvement in a P3.6-billion drug bust in Mexico, Pampanga in 2023. Duterte’s former adviser was allegedly linked to the incorporator of Empire 999 Realty Corporation, a warehouse in the Pampanga town, where the multibillion-peso shabu was seized. Meanwhile, former senator Antonio Trillanes IV has filed a drug smuggling complaint against the younger Duterte and Carpio last July 31. Trillanes tagged Duterte and Carpio in the P6.4-billion shabu haul in Valenzuela City in 2017, through the testimony of customs broker Mark Ruben Taguba. Representative Duterte issued a statement later Friday denying Guban’s claims. “I don’t know Jimmy Guban and I am sure he doesn’t know me. We never had a transaction so there is no reason for him to be threatened should he bring my name up,” Duterte said in Filipino. Other men whose names were brought up by Guban in Friday’s inquiry also came forward to dispel the accusations. “Time and again, Guban has been proven to be an inveterate liar. Our lawmakers should therefore be forewarned in believing anything he says,” Gutierrez said. “As my conscience is clear, I am not bothered at all by all the lies Guban has been making nowadays.” “Mr. Guban’s allegations are lies of great magnitude as magnified by the fact that it lacks any evidentiary support but his self-serving allegations,” Antiporda added. – with reports from Jairo Bolledo, Dwight de Leon/Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Central Luzon,illegal drugs,Pampanga,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>House mega-panel cites Cassandra Ong, tied to Porac POGO, in contempt</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-panel-cites-cassandra-ong-tagged-porac-pampanga-pogo-contempt/</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>45520.46622685185</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. HEARING. The House's "quad comm" holds a hearing in Pampanga on Friday, August 16, 2024. Screenshot from House of Representatives/ YouTube MANILA, Philippines – The House of Representatives’ “quad comm” has cited Cassandra Ong , tagged in a Pampanga Philippine offshore gaming operator (POGO), in contempt. During the mega-panel’s inquiry on Friday, August 16, Surigao del Sur 2nd District Representative Johnny Pimentel moved for the issuance of contempt against Ong for her failure to attend legislative inquiries. The quad comm immediately approved the motion and issued the contempt order against Ong. In pushing for the contempt, Pimentel noted that during the House panel on public order’s hearing on July 31, they already issued a show-cause order against Ong for her absence. Later in the hearing, House panel on public accounts chairperson and Abang Lingkod Representative Joseph Paduano moved to detain Ong within the House premises for 30 days, following the contempt order. The mega-panel immediately approved the motion. What follows an issuance of contempt is an arrest order to detain the person cited by the chamber. The country’s legislative chambers have the power to order the arrest and detention of individuals who are cited in contempt. Among the offenses include uncooperativeness during legislative hearings or absence in probes, as in the case of Ong. As of June, the Presidential Anti-Organized Crime Commission said it was still on the lookout for Ong. The House mega-panel has been formed earlier this month to probe the links among illegal POGOs, Chinese syndicates, illegal drug trade, and extrajudicial killings in the country. The quad comm is composed of the House panel on dangerous drugs, human rights, public accounts, and public order and safety committee, which had previously and separately probed the issues. Ong, known either as Cassy Ong or Cassy Li, has ties with Lucky South 99 POGO in Porac, Pampanga. She also recruited former presidential spokesperson Harry Roque to lawyer for Whirlwind Corporation, the real estate firm that leased its land to Lucky South. Back in June, authorities said the Lucky South 99’s POGO hubs were hotbeds for various illicit activities including human trafficking, forced labor, and various scam activities. Rappler has learned that it was Ong who applied for the POGO’s Letter of No Objection (LONO) with Porac city hall. LONO is a requirement by the Philippine Amusement and Gaming Corporation for the establishing of a gaming site in the country, like POGOs. Lucky South 99’s corporate secretary Ronelyn Baterna said on Friday that she was “used” by Chinese to issue checks on behalf of the POGO. She said Ong was the one behind the said transaction. In last week’s hearing, Baterna frustrated lawmakers due to her inconsistent answers to their queries as the panel was looking into her alleged involvement with the Porac POGO. She was cited in contempt and was ordered detained for 30 days. Earlier, Baterna said she was just an employee who was asked by the human resource officer of their company to be Lucky South’s corporate secretary in 2022. She accepted the job, she said, because her salary will increase from P17,000 to P23,000 a month. Baterna’s statement on Friday was completely opposite from her tone in the previous hearing because she earlier claimed she did not know the owners of Lucky South. On Friday, Baterna was also asked if she is willing to sign a waiver for bank secrecy. The Lucky South’s corporate secretary then said she would agree to execute the said waiver, thus allowing the mega-panel to review her bank transactions. Passed in the 1950s, the country’s bank secrecy law prohibits the disclosure of or inquiry into deposits with any banking institution and covers “all deposits of whatever nature with banks or banking institutions in the Philippines.” There are exceptions to the law, such as when the depositor signs a waiver, cases of impeachment, or upon orders of a court in cases of bribery or dereliction of duty of public officials. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Cassandra Ong,Central Luzon,Pampanga,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>BIR files tax evasion complaint vs Mayor Alice Guo</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/bir-files-tax-evasion-complaint-vs-mayor-alice-guo/</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>45518.11091435186</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. TAX COMPLAINT. BIR Commissioner Romeo Lumagui Jr. shows the tax complaint filed against Bamban Mayor Alice Guo on August 14, 2024. Jairo Bolledo/ Rappler MANILA, Philippines – The Bureau of Internal Revenue (BIR) has filed a tax evasion complaint against Bamban, Tarlac Mayor Alice Guo , who is at large. BIR Commissioner Romeo Lumagui Jr. filed the complaint with the Department of Justice (DOJ) on Wednesday, August 14, on behalf of the commission. The commission also included Jack Uy, the buyer of Guo’s Baofu Land Development Incorporated shares, and Rachelle Joan Malonzo Carreon, Baofu’s corporate secretary, in the complaint. The BIR’s complaint stemmed from Guo’s transfer of her shares of to Uy. After an investigation, the BIR found that when Guo transferred her shares, there were no capital gains tax (CGT) and documentary stamp tax (DST) paid in relation to the transaction. Lumagui said Guo allegedly failed to pay P500,000 in taxes. Under tax rules, a person is required to pay capital gains tax when selling stocks of a private or close corporation. Meanwhile, documentary stamp tax is required in transactions like agreements to sell, deliveries or transfer of shares, among others. The three now face a criminal complaint for alleged violation of section 254 of the National Internal Revenue Code (NIRC) (attempt to evade or defeat tax) and section 255 of the NIRC (failure to file CGT and DST returns). Meanwhile, Carreon faces a separate complaint for alleged violation of section 250 (failure to file certain information returns). “While the parties to the transfer are Guo and Uy, Carreon, as the Corporate Secretary of Baofu Inc. will also face the same criminal case for tax evasion due to her deliberate failure to report the non-payment and non-filing of CGT and DST returns to the BIR. She even verified under oath the General Information Sheet reflecting the transfer even if no taxes were paid and no returns were filed,” Lumagui said. In addition, Lumagui said the bureau is auditing Guo’s business operations, but is still waiting for some documents to finalize its audit. This is Guo’s second criminal complaint after a trafficking complaint was filed against her earlier due to her alleged ties with the raided Philippine offshore gaming operator (POGO) in her town. Guo has yet to be arrested until now despite the Senate arrest order against her for snubbing the upper chamber’s probe into illegal POGOs. On Tuesday, the Office of the Ombudsman dismissed the mayor after she was found guilty of grave misconduct. The Ombudsman meted here the penalty of dismissal from service, with forfeiture of all her retirement benefits and perpetual disqualification from reentering government service. There’s no warrant of arrest yet against Guo because the DOJ has just submitted the trafficking complaint against Guo for resolution. This means that the prosecutors are almost done in deciding whether to bring the complaint to court or dismiss it.  If the prosecutors indict Guo, the case will be filed in court, after which the court will decide whether to issue a warrant against the local official. Guo is already on the Bureau of Immigration’s lookout bulletin order over her trafficking complaint. The Immigration Lookout Bulletin Order, however, is used for monitoring purposes only, and is not “a sufficient prohibition for a subject’s departure from the Philippines.” – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Alice Guo,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>5 key moments from Day 4 of House probe into POGOs</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-representatives-inquiry-pogos-highlights-key-moments-summary-august-7-2024/</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>45512.27513888889</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. PROBE. The House of Representatives holds a six-hour hearing on the criminal activities connected with Philippine offshore gaming operators on August 7, 2024. House of Representatives MANILA, Philippines – The fourth day of the House inquiry into the criminal activities surrounding Philippine offshore gaming operators (POGOs) dragged on for six hours on Wednesday, August 7. In that latest proceeding, one POGO officer was ordered detained, other alleged POGO hub incorporators were threatened with contempt citations, and a former presidential spokesman continued to face questions on his supposed POGO ties. Rappler breaks down some of the highlights of Wednesday’s hearing. Ronelyn Baterna, corporate secretary of raided Porac, Pampanga POGO Lucky South 99, drew the ire of lawmakers who believe she was lying under oath, resulting in a contempt citation and 30-day detention in the House of Representatives. She initially said that the legal counsel accompanying her to the hearing was someone she contacted in a personal capacity, but the lawyer later said that Baterna reached out to her as corporate secretary of Lucky South 99. For lawmakers, it seemed like Baterna was caught red-handed for trying to minimize her role in the company. Baterna, who said she didn’t know the owners of the firm, had claimed to be a mere employee promoted by HR to the corporate secretary position just to sign documents. “I didn’t know anything about the [documents] I signed,” Baterna said. “The resource persons are making us look stupid,” Bulacan 2nd District Representative Augustina Pancho said. Other documented officers of Lucky South 99 — Julian Linsangan, Edwin Ang, and Marion Ryan Chua — also graced Wednesday’s hearing, and had to grapple with threats of contempt citation by Manila 6th District Representative Bienvenido Abante. The three insisted that they were just employees of companies selling either fireworks or appliances, and never worked for the POGO firm that was found to have trafficked and tortured workers . Linsangan said they were victims of identity theft, which started after he and his two friends met in 2023 a certain Dan dela Cruz — a customer of Chua’s salted dried fish online business since 2019. Dela Cruz supposedly offered them a chance to be a part of an online gaming business he was building for an initial investment totaling P1.5 million. Chua said while they didn’t have the money, the offer piqued their interest, prompting them to submit their documents to the man whom they later lost contact with. The three insisted the signatures in government documents linking them to Lucky South 99 were forged, and denied knowing Baterna. Presidential Anti-Organized Crime Commission spokesman Winston Casio, however, told lawmakers they weren’t buying the three men’s story, and said PAOCC will not withdraw its recommendation to file charges against them. The second House hearing that Roque attended was more or less similar to the scenes during his first appearance, with Lanao del Sur 1st District Representative Zia Alonto Adiong leading the charge against the spokesperson of the Rodrigo Duterte administration. Roque had been a lawyer for real estate firm Whirlwind in August 2023 for an ejectment case. The company was connected to Lucky South 99 because it leased its land to the POGO firm. Roque was also hired for Whirlwind by Cassy Li Ong, who is Lucky South 99’s representative to the Philippine Amusement and Gaming Corporation (Pagcor). Roque later accompanied Ong to a meeting with Pagcor over Lucky South 99’s remittances, even though he insists to this day that he never lawyered for that firm. But Pagcor chief Alejandro Tengco said the discussion during that meeting never touched upon Whirlwind, because Pagcor had no relationship with Whirlwind. “Although I represented an agent of Lucky South, that did not make Lucky South my client,” Roque asserted, saying that he went to the meeting to ensure that Ong would be entertained, since she supposedly only became the firm’s representative to Pagcor a month after that meeting. “If we follow your logic and your justification that you are exclusively limiting your services to this particular case that you have filed involving eviction cases, why did you have to go to Pagcor’s meeting and then make some follow-ups?” Adiong pointed out. “He may not necessarily be hired directly by Lucky South 99, but his efforts went beyond overboard, beyond his call of duty.” Roque’s interrogator in the first hearing on July 31 was again a proactive participant of the latest hearing on POGOs. Batangas 2nd District Representative Gerville Luistro said she believes Executive Order 13 which was issued by Duterte in 2017 infringed upon the powers of Congress to legislate. EO 13 clarifies the extent of authority that gambling regulators have over online gambling/gaming operators. “When the President issued EO 13, providing for the term online gaming for the very first time, don’t you think that the President legislated?” Luistro asked Roque, who answered that he’s not familiar with the document, and that’s it’s not his area of expertise. “I humbly submit that EO 13 brings online gambling into life, and I do not understand why this should circumvent the law that was passed by Congress creating the Pagcor and providing the authorities to regulate all the gaming and gambling activities,” Luistro added. PAOCC and CIDG conducted a successful raid on Zun Yuan POGO hub in Bamban, Tarlac in March, yet, a month later, the chief of Criminal Investigation Detection Group in the National Capital Region (CIDG-NCR), Colonel George Buyacao, was relieved of his post . His exit was a result of the April 17 memo written by Police Brigadier General Matthew Baccay, then-OIC of the Directorate for Personal and Records Management. Bacay told lawmakers that the order came from then-newly installed Philippine National Police (PNP) chief Rommel Francisco Marbil. “Usually, the post is given to the choice of the chief PNP,” he said. “It has nothing to with the operations in Bamban led by Colonel Buyacao a month before.” Buyacao said he was not surprised by the order. “[Former PNP chief] Benjamin Acorda, who installed me in that post, was no longer in the PNP, so I expected that to happen,” Buyacao told lawmakers. “In the past, chiefs in the NCR are placed by the PNP.” Santa Rosa, Laguna Representative Dan Fernandez asked Buyacao if he felt bitter following the order, to which the police officer answered in the affirmative. “You get demoralized because you had a successful operation, and then you would abruptly be removed,” Fernandez said. “I hope that is not the procedure in the PNP.” The House hearing on POGOs resumes on August 15, but the “ quad comm ” composed of four panels will take over the investigation. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>House detains corporate secretary of raided POGO hub in Porac, Pampanga</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-representatives-detains-corporate-secretary-cited-contempt-lucky-south-99-pogo-pampanga/</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>45511.43266203703</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. LUCKY SOUTH. Photo taken inside the Lucky South 99 POGO compound in a recent operation in Porac, Pampanga. Rappler MANILA, Philippines – The House of Representatives has detained the corporate secretary of Lucky South 99 , after her inconsistent answers frustrated lawmakers who were looking into her ties with the raided Philippine offshore gaming operator (POGO) facility in Porac, Pampanga. Ronelyn Baterna will be under the custody of the lower chamber for the next 30 days, after the committee on games and amusement and the committee on public order and safety jointly cited her in contempt on Wednesday, August 7. Baterna insisted that she was just a mere employee — a receptionist in 2019 — who was asked by an HR officer from the company to be the corporate secretary in 2022. She said she viewed it as a promotion, with a pay bump from P17,000 to P23,000 per month. “The explanation to me is that I would just sign papers,” she said. “It doesn’t make sense that you would sign documents from the SEC (Securities and Exchange Commission) and Pagcor (Philippine Amusement and Gaming Corporation). You would think: what am I signing?” Santa Rosa, Laguna Representative Dan Fernandez told her. “I think you are educated to know that what you are signing is so important that what you are trying to manifest in this committee is unbelievable.” Baterna said she did not know the owners of Lucky South 99, and initially claimed that the lawyer who was with her was someone whom she personally hired. Her legal counsel, however, later told lawmakers that Baterna reached out to their law firm in her capacity as corporate secretary of the raided POGO firm to seek their services. “All the authority emanates from you,” Fernandez pointed out. “Earlier, you said you didn’t know anything… but now, they’re telling us that you’re the one coordinating, so we can see that you’re lying.” “The resource persons are making us look stupid. If that is really the lawyer [you hired], then how much did you pay her? Do you have the capacity to pay her professional fee?” Bulacan 2nd District Representative Augustina Pancho added. Baterna will be confined in the House’s new custodial center in Quezon City. Wednesday’s session was the fourth time the two committees convened to probe criminal activities related to POGOs. The inquiry will be continued by the newly formed mega panel called the “quad comm,” which will investigate the links between POGOs, drug trafficking, Chinese syndicates, and state-sanctioned killings. The “quad comm” will hold its first session on August 15. – Rappler.com (Quotes in Filipino were translated into English, and some were shortened for brevity.) How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>House of Representatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>House forms 'quad comm' to probe links between POGOs, EJKs, drugs, Chinese syndicates</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-representatives-forms-quad-committee-probe-links-pogos-ejks-drugs-chinese-syndicates/</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>45511.21666666667</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. OCULAR. Key officials of the House of Representatives led by Speaker Martin Romualdez visited two provinces in Central Luzon on Monday, August 5, to see what remained of facilities that housed Philippine offshore gaming operators (POGOs). Speaker Martin Romualdez's office MANILA, Philippines – The House of Representatives has formed a mega-panel to identify the links between Philippine offshore gaming operators (POGOs), Chinese syndicates, the illegal drug trade, and extrajudicial killings in the country. Lawmakers were quick to clarify that the move is not meant to investigate the controversies under the administration of former president Rodrigo Duterte. The so-called “quad comm” is composed of the following panels: In a press conference on Wednesday, August 7, Barbers explained that the four committees have “overlapping and commonalities” in the issues they are discussing. “There seems to be a criminal organization operating within the country where drug money is being used to corrupt certain government officials in order to secure fake and spurious documents to misrepresent themselves as Filipinos to be able to acquire properties or lands in the country…where legitimate fronts of POGOs are being built,” Barbers said. Abante also justified the inclusion of his committee — as well as the subject of EJKs — into the quad comm. “There might be a quota system in the Philippine National Police, number one. Number two, that means there is a reward system. That means if you kill a drug pusher, you get a reward,” Abante explained. “We would like to find out where the money is coming from, because we found out, that’s POGO money, that’s gambling money.” Abante’s committee has been conducting hearings to investigate state-sanctioned killings under the Duterte administration , while Fernandez’s and Paduano’s panels have been jointly holding proceedings to dig deeper into the criminal activities linked to POGOs . Individual committees are expected to wrap up their own hearings, and the “quad comm” is scheduled to formally convene on August 15. The “quad comm” will send invitations to former president Duterte and Senator Ronald “Bato” dela Rosa, who was Duterte’s first police chief and architect of his bloody drug war. During the Duterte administration, the number of POGOs – many of which were operated by Chinese businessmen and whose customers included people in China where gambling is illegal – grew exponentially. Both Duterte and Dela Rosa have showed unwillingness to participate in the House proceedings after snubbing the chamber’s drug war probe in recent months. Abante decided not to compel Duterte to explain his absence though, out of respect for the former president. But what if Duterte chooses not to show up again? “[In terms of] trying to issue a show-cause order, most likely we will be refraining from such an action. In the meantime, the chairman and the members are talking about different kinds of options. Let’s not talk about it for now. Let it flow the natural way,” Fernandez said. The “quad comm,” however, insisted that the probe is not meant to pin down the Dutertes, whose falling out with the Marcos family has spilled into public view in the past year. The House is led by Speaker Martin Romualdez, cousin of the President. “This has nothing to do with political or anything of the previous administration. No. It just so happens that the current administration is still new, and many are government agencies or personalities in the agencies that are mentioned to be involved in these shenanigans,” Barbers said. – Rappler.com (All quotes in Filipino have been translated into English, and some were shortened for brevity.) How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>extrajudicial killings,House of Representatives,organized crime,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>House panel links POGOs to drug operations in Central Luzon</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/house-panel-links-pogos-drug-operations-central-luzon/</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>45510.41319444445</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. WAREHOUSE 1. Key officials of the House of Representatives together with the Philippine Drug Enforcement Agency inspect Warehouse 1 on August 5, 2024 in Mexico, Pampanga in connection with their investigations on the illegal activities linked to POGOs. House of Representatives PAMPANGA, Philippines — There is a strong connection between Philippine offshore gaming operations (POGOs) and drug syndicates, according to House committee on dangerous drugs chairperson Robert Ace Barbers. Barbers made this claim on Monday, August 5, when key officials of the House of Representatives inspected Warehouse 1 in Mexico, Pampanga, as part of a broader ocular visit to raided POGOs: Zun Yuan Technology Incorporated at the Baofu compound in Bamban, Tarlac, and Lucky South 99 Gaming Incorporated at the Royal Thai Court in Porac, also in Pampanga. Warehouse 1 is owned by Empire 999 Realty Corporation, which is under investigation by the House committee on dangerous drugs. Authorities seized a total of 560 kilograms of smuggled narcotics worth P3.6 billion , which arrived at the Subic Port and ended at the warehouse last September 2023. In a press conference following the ocular inspection also on Monday, Santa Rosa Representative Dan Fernandez, who chairs the committee on public order and safety, pointed to the P29-billion financial trail that circulated through the bank accounts of Alice Guo. He noted that P3.3 billion of that amount were transferred to Hongjiang Yang , the brother of Michael Yang . “Yung P29 billion na pondo na umikot sa account ni Alice Guo sa 36 accounts niya, isa sa mga pinasukan ng pera ni Alice Guo ay si Hongjiang Yang. P3.3 billion ang umikot na account between the brother of Michael Yang and Alice Guo,” Fernandez said. (P29 billion circulated in Alice Guo’s 36 accounts. Part of that into Hongjiang Yang. P3.3 billion circulated between the brother of Michael Yang and Alice Guo.) “That was established by the AMLC (Anti-Money Laundering Council), and there is a case filed with the CA (Court of Appeals). We have seen there the money circulated between Alice Guo and Hongjiang Yang,” he added. Documents obtained by Rappler revealed that Hongjiang Yang shared two bank accounts with a Chinese national, Zhengcan Yu. These two bank accounts were included in the freeze order secured by the AMLC from the Court of Appeals in July together with 88 other bank accounts linked to Alice Guo . Zhengcan is among the incorporators of Hongsheng Gaming Incorporated with a 36.86% shares. He was also among the subjects implicated in the March 2024 raid at the Baofu compound, and with an address near the raided villas in Fontana in Clark Freeport. According to the documents, 364 financial transactions between 2018 and 2022 reveal a substantial amount of cash flows. The transactions suggest Zhengcan may have been a key financier for Hongsheng and potentially contributed to the development of the Baofu compound, the report stated. Barbers pointed out that certain corporations tied to POGOs share incorporators with companies linked to drug-related activities and broader criminal networks which involve scam operations and extrajudicial killings. He also said there is a possibility that drug syndicates are using POGOs as a means to launder money. “Meaning, the Empire 999, [which] owns drugs in Mexico, Pampanga, have partners in corporations where they have the same incorporators,” Barbers said in a mix of Filipino and English. “The interlocking incorporators is our link that these POGOs may be involved directly with Michael Yang through his brother, who remits money to the POGO in Bamban, Tarlac,” he added. “Personally, I believe there is a criminal organization operating in the country which involves illegal POGOs, scam hubs, drug syndicates, EJKs and all these. That goes altogether,” Barbers said. Four House committees — public safety and order, games and amusements, dangerous drugs, and human rights — have been investigating the connections between POGOs, the presence of illegal drugs, and extrajudicial killings. — Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Central Luzon,illegal drugs,Pampanga,POGOs,Tarlac</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Harry Roque is now on immigration lookout</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/harry-roque-immigration-lookout/</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>45510.35090277778</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ROQUE. Former presidential spokesman Harry Roque attends the resumption of the Senate investigation into Philippine offshore gaming operators on July 29, 2024. Angie de Silva/Rappler MANILA, Philippines – The Philippine government has put former presidential spokesperson Harry Roque on immigration lookout over his links to the raided POGO (Philippine offshore gaming operator), the Department of Justice (DOJ) confirmed on Tuesday, August 6. The DOJ forwarded the memorandum to the Bureau of Immigration (BI) Tuesday, putting Roque and 11 others on lookout. An Immigration Lookout Bulletin Order (ILBO) does not have the power to prohibit the subjects from traveling abroad; it merely places them on high alert with stricter mechanisms to monitor where they are going. The topmost subject of the ILBO, Katherine Cassandra Li Ong, has reportedly already left the country and is in Singapore, the BI earlier said. The DOJ will request a precautionary hold departure order (PHDO) against Roque, Ong and the others, the memorandum from Justice Secretary Jesus Crispin “Boying” Remulla said. If granted by a court, the PHDO is the one that will bar overseas travel. The PHDO is a fairly new instrument that allows prosecutors to ask for an HDO without a charge filed in court. The standard HDOs are only issued by judges when the charge has already been filed in court, which has not happened for Roque, or even suspended Bamban, Tarlac Mayor Alice Guo. “Considering the gravity of the possible charges, as well as the wide media coverage and public attention this has gained over the past months, there is a strong possibility that the abovementioned nationals may attempt to place themselves beyond the reach of the legal processes of this Department by leaving the country,” said Remulla’s memorandum. The challenge in the government’s POGO crackdown are foreign suspects fleeing the country because there are no HDOs. There have been suggestions to treat it as an immigration matter so BI can apprehend people and hold them in custody, for example Guo as an alleged Chinese with no status to stay here, but any such action will be exposed to legal contention. An ILBO is so far the strongest action against Roque, a Filipino, after the Presidential Anti-Organized Crime Commission (PAOCC) officially included him in its continuing POGO investigation. Roque is a lawyer for Whirlwind Corporation, a real estate firm that leased its land to the Lucky South 99 POGO in Porac, Pampanga. Congressional investigations have discovered that Roque assisted Ong so Lucky South 99 could process its license with the Philippine Amusement and Gaming Corporation (PAGCOR). This, according to lawmakers, meant that Roque effectively lawyered for the Lucky South 99 POGO. A Chinese fugitive , wanted in China over fraudulent internet P2P business, was also caught in his home in Tuba, Benguet, although Roque distances himself from the house because it was leased to a Chinese woman at the time of the apprehension. Roque has cast doubt on this operation because BI had neither an arrest warrant or a search warrant. The ILBO includes Dennis Cunanan , who acted as consultant for Lucky South 99, and is being accused of pocketing the POGO’s PAGCOR regulatory fee. Cunanan has denied this accusation. The full list of the ILBO is as follows: -Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Bureau of Immigration,Harry Roque,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Rappler Recap: In Central Luzon visit, House leaders check what's left of raided POGO hubs</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/video-recap-house-representatives-inspect-raided-pogo-hubs-pampanga-tarlac-august-2024/</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>45509.57741898148</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAMPANGA, Philippines – Key officials of the House of Representatives led by Speaker Martin Romualdez visited two provinces in Central Luzon on Monday, August 5, to see what remained of facilities that housed Philippine offshore gaming operators (POGOs). The inspection came two weeks after President Ferdinand Marcos Jr. announced a ban on POGOs , as its links to organized crime made national headlines in recent months. Among the sites visited by the lawmakers were the raided Zun Yuan Technology Incorporated in Bamban, Tarlac, and Lucky South 99 Gaming Incorporated in Porac, Pampanga. The House leaders toured the villas and the tunnel at the Baofu compound of Zun Yuan in Bamban, as well as alleged torture rooms and other areas at the Royal Thai Court of Lucky South 99 in Porac. They found military uniforms, baseball bats, and SIM card that were left behind after the raids. Watch the Rappler Recap here. Romualdez has already ordered congressmen to pass an enabling measure banning POGOs, and he reiterated on Monday the lower chamber’s commitment to swiftly address the issue. “We have bills that have already been filed that we are consolidating so that we can wind up these illegal activities. It’s not just illegal gambling. We also see connections to illegal activities, so it’s good that we look at everything to see the root of all these activities,” Romualdez said in a mix of English and Filipino on Monday. As of writing, three House bills have been filed seeking to ban POGOs or declare them illegal, with one introduced after the President’s televised speech in July. All of the measures are pending in their respective committees, although the committees on public safety and order, and games and amusement, have launched a joint inquiry in aid of legislation into the proliferation of criminal activities linked to POGOs. Other lawmakers who joined the ocular inspection on Monday include public order and safety committee chairperson Dan Fernandez, games and amusement committee chairperson Antonio Ferrer, dangerous drugs committee chairperson Robert Ace Barbers, and public accounts committee chairperson Stephen Paduano. Also present were lawmakers Johnny Pimentel, Janette Garin, and Romeo Acop. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>House of Representatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>House probe: Roque ‘effectively’ lawyered for POGO</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/inside-track/house-hearing-harry-roque-lawyered-porac-pogo/</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>45506.59038194444</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. INVESTIGATION. Former presidential spokesperson Harry Roque testifies before a House committee on July 31, 2024. Harry Roque, a former human rights lawyer and spokesperson of former president Rodrigo Duterte, would recite a bunch of legal terms in one breath, and would often say that had he been a lawyer for the Lucky South 99 POGO (Philippine offshore gaming operator), he would have easily quashed the search warrant against it. But he would also say, with so much legalese, that he is, and never was, a lawyer for the POGO. “Roque was lawyering for Whirlwind company, but the effect, the implication of lawyering for this company, will in effect benefit Lucky South 99,” said  Lanao del Sur 1st District Representative Zia Alonto Adiong. Here’s what we know because Roque confirmed it himself. He was hired as a lawyer for real estate firm Whirlwind for an ongoing ejectment case. Whirlwind leased its land in Porac, Pampanga to Lucky South 99, the erstwhile POGO found to have trafficked and tortured workers. He was hired for Whirlwind by Katherine Cassandra “Cassy” Li Ong, who is Lucky South’s representative to regulator Philippine Amusement and Gaming Corporation (Pagcor). Most importantly, Roque also admits to accompanying Ong to a meeting with Pagcor over Lucky South’s remittances. In that meeting, Ong explained to Pagcor that their consultant, Dennis Cunanan , had run away with the remittances. Cunanan denies this. Roque’s best defense is this: No paper, no contract, no anything establishes a lawyer-client relationship between him and Lucky South. (There is a Lucky South organizational chart that names him as a legal representative, but he says he has “no idea why” his name was there.) “ Wala po akong attorney-client relationship sa kahit sino na shareholder or officer ng Lucky South (I do not have an attorney-client relationship with any shareholder or officer of Lucky South),” Roque told the House committee investigating POGOs on Wednesday, July 31. Roque would cockily go with this explanation for hours, as he did with the Senate days earlier, until Batangas 2nd District Representative Gerville Luistro found a “gotcha” Supreme Court case. “I wish to share to the committee the case of Eusebio Sison vs Atty. Lourdes Dumlao, this is A.C. 11959, April 28, 2021, if I may quote, ‘a lawyer-client relationship is established when lawyers consistently manifest to a person consulting them that they would provide legal representation or assistance regardless of the close ties between the parties or the lack of written contract, or the non-payment of legal fees.’ It is very clear, Mr. Chair, that from the definition of a lawyer-client relationship, kahit walang kontrata, kahit walang payment of legal fees (even though there is no contract, even though there is no payment of legal fees), the moment the client starts seeking advice and the lawyer starts giving advice, a client-attorney relationship is created,” said Luistro. That case, a resolution by the Supreme Court Third Division , further says: “If a person, in respect to business affairs or troubles of any kind, consults a lawyer with a view to obtaining professional advice or assistance, and the attorney voluntarily permits or acquiesces with the consultation, then the professional employment is established.” Because not only did Roque set the meeting with Pagcor chief Alejandro Tengco so Ong could discuss Lucky South’s business, particularly the non-payment of regulatory fees, the former Palace executive also repeatedly made calls to a Pagcor executive on behalf of Ong. And nowhere in those calls was Whirlwind, Roque’s client, mentioned, said Pagcor’s assistant vice president for offshore gaming Jessa Fernandez. “Around 5-6 calls, but I missed two….. [Roque] was asking if there are any more lacking documents by Lucky South,” Fernandez said. “So [the call] is about the new accreditation of Lucky South?” Bukidnon 2nd District Representative Jonathan Keith Flores asked. “Yes, for the ongoing application of Lucky South for an Internet Gaming License (IGL),” said Fernandez. “No discussions were made as far as Whirlwind is concerned?” Flores asked. “None, because Whirlwind does not have any relationship, accreditation, or contractual relationship with Pagcor,” said Fernandez. Roque maintained that what he did was not a consultation for Lucky South, but just a consultation for Ong. To repeat, Ong is a representative of Lucky South. That is established by Pagcor documents, seen by Rappler, and established by Pagcor officials who had discussions with her. But Roque would have you believe that Ong represented Lucky South only because Cunanan allegedly bungled their Pagcor application. And Ong, as the lessee from Whirlwind, had to step in because if Lucky South loses business, Whirlwind loses business, too. “ Siguro naman maiintindihan ninyo na kapag may nangyari sa umuupa sa iyong property, na wala namang ibang purpose kundi para sa POGO, mawawalan ka ng kita,” said Roque. (Maybe you’d understand the fact that if something happens to the one renting your property, which has no other purpose than for POGO, you will lose profit.) But Ong could not clarify any of these because she couldn’t be found. She is reportedly in Singapore. As Senator Risa Hontiveros put it, “Ayaw ‘nyo mang aminin na abogado kayo ng POGO, malinaw na abogado kayo ng taga-areglo ng POGO.” (While you may not want to admit that you’re a lawyer for a POGO, it is clear that you are a lawyer for a POGO fixer.) At the very least, it can be influence-peddling. “Naniniwala ba kayo dun sa tinatawag nating political influence? ” Manila 6th District Representative Bienvenido Abante asked. Roque said he and Tengco do not know each other. “But you are a known personality, alam natin ‘yan (we know that). You’re nationally known, I’m sure pag pupunta kayo sa meeting, I’m sure ‘yung kausap ‘nyo po ay magtatanong, bakit kayo nandun? ” Adiong said. (I’m sure if you go to a meeting, I’m sure the person you’re talking to would ask why you’re there.) Roque would also deny that he owns the home in Tuba, Benguet where Immigration agents caught a person carrying a Cambodian passport, who turned out to be a Chinese national wanted for fraud over internet P2P business. The Bureau of Immigration was acting on intelligence that a house occupant was linked to the POGO in Bamban, Tarlac. Roque repeatedly said that the house is owned by a company and by law, a juridical entity is distinct from the human person. Why does he have to make that distinction? Because he has “an interest” in the company. The house is owned by a company called PH2. PH2 is owned by Biancham Holdings. Roque owns Biancham Holdings, and on his way to owning PH2 in whole. “In fact, in the near future, I am concluding a transaction na kukunin ko ‘yung buong korporasyon na may-ari ng bahay na yan (where I will acquire the whole corporation who owns that house),” Roque told the Senate. PH2 owns the house on paper. At the time when the Chinese fugitive was caught, the house was being rented by a Chinese woman. Roque said this means he was not in possession of the house. But does he consider it his house? “ Hindi ko naman po tinatanggi ‘yan (I do not deny it),” said Roque. “Sila po ay mapursigi na gusto nilang umupa. Noong una, ako po ay ayaw ko talaga, kasi gustong-gusto ko po ‘yung bahay ko, at palagi ako sa lugar na ‘yun. Pero nagpumilit,” said Roque. (They were persistent in renting the house. At first, I didn’t want to because I really like my house, and I’m always there. But they insisted.) Their renter, it turns out, is in a relationship with the Chinese fugitive. Why is Roque in such close proximity to shady foreigners with suspected links to POGOs? We may soon find out. “With this development, we will include former spokesperson Harry Roque in our investigation,” said Presidential Anti-Organized Crime Commission (PAOCC) chief Gilbert Cruz. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Duterte administration,Harry Roque,House of Representatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>[WATCH] Inside Track: Who fired the Bamban POGO raiding team?</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/podcasts-videos/video-inside-track-who-fired-bamban-pogo-police-raiding-team/</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>45506.47881944444</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Presidential Anti-Organized Crime Commission or PAOCC has been leading the hunt for illegal Philippine offshore gaming operators or POGO. Being a lean agency, PAOCC needs the help of the uniformed services — the police, in particular — when carrying out searches of POGO hubs or arresting suspects. They need the police’s muscle and firepower. It was thanks to a team from the Philippine National Police’s Criminal Investigation and Detection Group or PNP-CIDG that Mayor Alice Guo of Bamban, Tarlac, was busted, that we learned of her foreign business partners with unsavory backstories, that we’re finally getting to the underbelly of what now appears to be an elaborate network of power, money, and crime. The PNP-CIDG team at the very least deserves commendation, and yet what followed the high-yield operation in Bamban was a series of sackings and reassignments — punishments — of members of that team. Why would they get into trouble for having taken the trouble of helping PAOCC carry out its job? The clue is in who fired the cops . — Rappler.com Presenter, writer: Lian Buan Producer, video editor, graphics: Cara Angeline Oliver Videographer: Naoki Mengua Additional graphics: Marian Hukom Associate producer: JC Gotinga Supervising editor: Chay Hofileña Supervising producer: Beth Frondoso How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Alice Guo,Philippine National Police,war on drugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Before Duterte's POGO, Cagayan had 'i-Gaming.' Where did it go wrong?</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/in-depth/before-rodrigo-duterte-pogo-cagayan-internet-gaming-where-did-go-wrong/</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>45505.48954861111</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. ENRILES. CEZA chief Katrina Ponce Enrile and her father, chief presidential legal counsel Juan Ponce Enrile attend the House committee hearing on July 31, 2024. Screenshot from House of Representatives Livestream Ulysis, not his real name, tried to uncuff himself from his bed on the night of June 5. He was trying to escape from the Lucky South 99 POGO — or Philippine offshore gaming operator — where many Chinese like him and other foreigners are trafficked and tortured to work at its scam hub in Porac, Pampanga. For seven hours, Ulysis tried to unshackle himself, but only managed to remove part of the bed frame where his handcuff was connected to. When it was already early morning of June 6, he decided it was time to go. Ulysis, 36, said he came to the Philippines as a tourist but “it was difficult to come back to China in 2020 [during the pandemic] so I made an online shop here.” According to him, he was in Pasay when he was abducted and taken to Porac where he was extorted for money. When he couldn’t give any, he was forced to work in Lucky South. “I was there for three days. But in those three days, I didn’t do the operation, the work, the chatting. I was hungry for the two days. They beat me on the first day, and locked me in the room for the next two days,” Ulysis told Rappler through an interpreter. He walked out of his building in the dark, still attached to his bed frame, and in five minutes got to the compound grounds where an operation was already underway. When operatives saw him, he had a black eye and large bruises on his left arm and across his back. For the Presidential Anti-Organized Crime Commission (PAOCC), Ulysis’ abduction shows how the criminal activities of shady POGOs are a threat to national security. “There are so many crimes associated with [POGOs] — kidnapping, murder, trafficking. Wherever there is money, gun runs. How many times have we seen shooting incidents in Makati, BGC, if [Filipinos] get caught in the crossfire, does that remain to be a foreign problem?” PAOCC spokesperson Winston Casio told Rappler. So when President Ferdinand Marcos Jr. announced a total ban on POGOs, he was trying to slay a monster that has mutated through time. At least according to the former gaming regulation chief, the germ started with Marcos Jr.’s father, the dictator Ferdinand E. Marcos, when the latter legalized gambling and created the Philippine Amusement and Gaming Corporation (Pagcor) in 1977, through Presidential Decree (PD) 1869. “ Nag-regulate lang po si President Ferdinand Marcos noon ng mga casinos (it was only then that President Ferdinand Marcos regulated casinos) because they thought, instead of putting them down, I guess it was a very difficult task, they actually legalized it by creating Pagcor to regulate the gaming industry,” Andrea Domingo, Pagcor chair during the Duterte administration, told a House committee on Wednesday, July 31. But if you ask the Enriles, who run the Cagayan Economic Zone Authority (CEZA), it was Domingo and Duterte who created the monster. “Yes, [it was a mistake],” said CEZA chief executive officer Katrina Ponce Enrile when asked during the House hearing whether Duterte’s policy was a mistake. “Such menacing activities…were wrought, not only by the criminal designs of syndicates, but also clearly by failure, if not total breakdown, of regulation,” she added. The Enriles were at the hearing to defend CEZA, which had online gaming way before the Duterte government created POGOs. Let’s backtrack. Pagcor’s charter, which was amended by RA 9487 in 2007, has no mention of offshore gaming. In fact, its provisions always emphasize that Pagcor’s authority is “within the territorial jurisdiction of the Republic of the Philippines.” To this day, there are petitions before the Supreme Court questioning the constitutionality of offshore gaming. One petition, Evangelista vs Pagcor , was dismissed by the Supreme Court in 2023 but on a technicality — that the petitioners had no legal standing to question the legality of POGOs. Still, Domingo likes to mention that case because in the discussion of the merits, the Supreme Court said POGOs were created “pursuant to Pagcor’s power under Section 8 of P.D. No. 1869 to promulgate rules and regulations relevant to the registration of persons engaged in gambling.” “ Hindi po ako abogado pero tinanong ko po sa mga kasamahan ko, ang sabi po nila (I am not a lawyer but I asked my colleagues and they told me) notably it was a recognition of the Supreme Court that the authority of Pagcor extends to online gaming ,” said Domingo. As pointed out to her by Surigao del Norte 2nd District Representative Robert Ace Barbers, that part was not a ruling of the Supreme Court, because the ruling was to dismiss the petition based on lack of legal standing. In short, the Supreme Court did not make a constitutional ruling of POGOs. POGOs — referring to the term itself and their regulation — were created first in 2016 when the Domingo-led Pagcor board issued the rules and regulations for POGOs or RR-POGOs. This is what is being contested in the Supreme Court. But even before 2016, CEZA already had i-Gaming or interactive gaming. CEZA is a special economic zone, and as such, is allowed more or less to operate outside of the strict trade and immigration laws, provided it still complies with the Constitution. This is why CEZA was able to create, more or less, an offshore gaming system. One of CEZA’s powers is granting visas and permanent residence status to foreigners in its own capacity. Katrina said they issue working visas “in coordination with the Bureau of Immigration.” The Philippine Economic Zone Authority (PEZA) said it had issued 17,000 visas to foreigners since 2021. Congressional committees have yet to pin down the source of fraudulent visas because fugitives were able to enter and operate within the country using fake passports and visas. Katrina said CEZA “has been regulating and licensing iGaming for more than 20 years.” In Ceza’s iGaming, there is a master licensor which would set up a a dedicated data center to help ensure that all licensees are regulated. These licensees operate from within CEZA and they would offer their services to offshore gaming operators. These local service providers are called “locators” because they are located within CEZA “where we are able to closely monitor them as well as enforce our rules,” said Katrina. In 2007, CEZA secured an opinion from the Office of the Government Corporate Counsel (OGCC) that says their service providers can set up shop outside the boundaries of the economic zone. After this, CEZA service providers operated in Metro Manila sky rise buildings. Katrina said all these buildings were registered with PEZA. CEZA’s i-Gaming, Katrina said, was copied by Pagcor when it instituted POGO in 2016. “But it was a flawed replica,” she added. By February 2017, Duterte issued Executive Order No. 13 or EO 13 which “clarified” online gaming jurisdictions. One of the provisions, under Section 3, was to limit online gaming operations to only the jurisdiction of the authority that issued its license. This meant that CEZA service providers could no longer work in Metro Manila. They had to go back to Cagayan. According to Katrina, this meant CEZA could no longer compete with Pagcor, so their licensees preferred to just register with Pagcor. “From CEZA’s 300 interactive gaming support service providers and IG licensees, CEZA was down to approximately 30. Definitely CEZA at that point could not compete because we were strictly abiding by our mandate in our charter,” she said. “Domingo was supposed to give POGO licenses to just 25 operators. But she eventually expanded it. Obviously, they were already dictating the rules on how offshore gaming was to be operated. With all the iterations and mutations from the original concept, it actually transformed into something else that was not anymore reflective of what was being done within CEZA,” she added. “May I beg — those who have in their minds to destroy CEZA, stop it. There is a purpose for CEZA, until today that purpose is being pursued,” said Juan Ponce Enrile, who authored the CEZA charter as a lawmaker in 1995, and who is now chief presidential legal adviser to Marcos. CEZA is implicated in the controversy due to reports that there are also shady POGOs in their territory . The CEZA CEO denied this. “ Wala pong POGO sa CEZA (there is no POGO in CEZA). Again, there never was and there never will be.” “For more than 20 years that CEZA has been regulating and licensing iGaming and interactive gaming support service provider, it never had any instances of kidnapping, human trafficking, torture, scams, and murder,” Katrina said. But according to a 2024 report of the United Nations Office on Drugs and Crime (UNODC), a criminal syndicate is linked through layers of companies to an online casino “which was owned and operated by Suncity Group in the First Cagayan Special Economic Zone in the Philippines.” The same UNODC document says that another syndicate group based in Kokang, a mountainous area in the border of Myanmar and China, is “licensed to operate under the Cagayan Economic Zone Authority (CEZA) and First Cagayan Leisure and Resort Corporation (FCLRC) in the Philippines.” First Cagayan Leisure was CEZA’s first-ever master licensor, Katrina herself confirmed to the House committee. But the House hearing did not go very far in exploring the issues surrounding CEZA because many lawmakers passionately moved that the Enriles, and other economic zone representatives, be excused. Among those who fervently, and successfully, convinced the committee to lay off economic zones at least for that day were Isabela First District Representative Antonio Albano, Abang-Lingkod Representative Joseph Stephen Paduano, and Lanao del Sur 1st District Representative Zia Alonto Adiong. Rappler has requested the CEZA CEO to comment on the UNODC report though intermediaries. We will update this story once she responds. If you ask Katrina Enrile, one of the main problems of Pagcor’s POGO design was that they were issuing sub-licenses. Under Pagcor rules, different licenses are issued to the operator, the agent representing an offshore-based operator, and the service providers. Service providers are those who provide, for example, software for the streaming feature of online gaming. “POGOs sub-licensing model also allowed these all fly-by-night and scam operators to proliferate as Pagcor is no longer able to track how deep the sub-licenses go,” said Katrina. “Each POGO has to apply for the accreditation of its service providers to be able to operate. There are five services: customer service, strategic support, IT support, gaming software platform provider, and live studio streaming entities. Pinaghihiwa-hiwalay po talaga namin ‘yan dahil hindi po puwedeng kumuha ng taya ang isa na standalone, kailangan mayroon lahat ng services na ito para makakuha ng taya, at ang integrator ng services na ito ay ‘yung POGO licensee ,” said Domingo. (We really separate them because one cannot take a bet on its own, it needs to have all of these services to be able to take a bet, and the integrator of these services is the POGO licensee.) It didn’t help that Pagcor’s contractor to vet licensees “was a failure,” as House commitee chairperson Sta. Rosa Representative Dan Fernandez said. The Marcos-time Pagcor scrapped its contract with Global ComRCI in March 2023. By October 2023, due to the many controversies surrounding POGOs, Pagcor chief Alejandro Tengco renamed POGOs as internet gaming licensees or IGLs. Domingo defended the contractor, saying that during her time, the contractor was able to take down suspicious IP addresses. The POGO that trafficked Ulysis had, at one point, a Pagcor license, but only for one building. In fact, there are Pagcor personnel inside the Lucky South compound. The multi-body investigations into POGOs have revealed different problems from different points in the process: consular, immigration, regulation, local government and even law enforcement. There is even frustration over the pace of investigation. “They hide under all these RAs (Republic Acts), which we created,” said Fernandez. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Cagayan,Cagayan Valley,House of Representatives,Juan Ponce Enrile,organized crime,Rodrigo Duterte</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>BPOs, corporate firms expected to offset office vacancies following POGO ban</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/business/bpos-traditional-companies-expected-offset-vacancies-pogo-ban/</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>45504.5177662037</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. BUSINESS DISTRICT. The skyline of Bonifacio Global City. Patrick Roque/Wikimedia Commons MANILA, Philippines – Although Philippine offshore gaming operators (POGOs) were key drivers of the property sector’s office market at one point, their exit is not expected to be as significant, according to JLL Philippines. JLL Philippines head of research and consulting Janlo de los Reyes said the effects of the POGO ban are “not going to be as huge now” since most of the entities have already left. Some did not renew their leases back in 2021 , while others left the country as early as 2020 . Business process outsourcing (BPO) companies and traditional corporate firms are also seen to offset the vacancies. The trend can already be seen in leasing transactions from the first half of 2024. BPOs had the most deals, making up almost 40% of transactions, followed by corporate or traditional firms with 34.9% of the deals. POGOs only made up 25.2% from January to June 2024. “We expect this distribution to revert to pre-pandemic or to the previous quarters, wherein we saw around 70% BPOs and 30% for the corporate occupiers in terms of demand distribution,” De Los Reyes said in a media briefing on Wednesday, July 31. “Developers who have lost out on these POGOs, who are going to vacate their spaces, will likely target this true and tested office demand over the [next] couple of years,” he added. In President Ferdinand Marcos Jr.’s third State of the Nation Address, he announced a ban on POGOs , ordering authorities to make sure the entities are out by the end of 2024. Lawmakers have pointed out that the country’s economic losses from banning POGOs can easily be recovered through other means. De Los Reyes sees the exit of POGOs having an effect on the property market for at least two to three years, particularly on residential and office spaces. For Metro Manila, this would lead to a “tenant-favorable market” as demand remains weak when compared to the number of new office spaces. Developers are adjusting to attract tenants. JLL Philippines expects offices to be taken up at cheaper rates and with better leasing conditions. “We’re still seeing a lot of concessions still and also longer lease terms for a lot of companies,” De Los Reyes said. Overall rent for office space currently stands at P991 per square meter monthly. JLL Philippines estimates rates may go up to around P1,000 by the end of the year. Metro Manila has around 11.09 million square meters of office space, and another 1.2 million square meters is expected to be constructed by 2028. Office vacancy declined to 19.5%, although JLL Philippines sees this going up to 22% by the end of the year because of new office spaces being built in Metro Manila despite weak demand. “We anticipate around 460,000 square meters of new supply,” De Los Reyes said. “These have low pre-commitment levels, meaning the take-up in these buildings [has] not been robust compared to pre-pandemic.” Many companies have either retained a work-from-home arrangement or shifted to hybrid operations. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>No POGOs inside Cagayan special economic zone, says CEZA</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/ceza-says-no-pogos-inside-cagayan-special-economic-zone/</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>45504.40304398148</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. 'NO POGOS IN CEZA.' Cagayan Economic Zone Authority administrator and chief executive officer, Katrina Ponce Enrile delivers her 20-minute opening remark at the third joint committee hearing of the House on public order and safety, and games and amusement on July 31, 2024. Screenshot via House of Representatives YouTube PAMPANGA, Philippines – “There are no POGOs (Philippine offshore gaming operations) in the Cagayan special economic zone and freeport. There never was and never will be.” This was part of the 20-minute opening statement of Katrina Ponce Enrile, administrator and chief executive officer of the Cagayan Economic Zone Authority (CEZA) during the joint hearing on Wednesday, July 31, of the House committees on public order and safety, and games and amusement. Also in the hearing was her father, Chief Presidential Legal Counsel and former senator Juan Ponce Enrile. The Enrile patriarch authored Republic Act 7922 or the Cagayan Special Economic Zone Act of 1995. This law established CEZA as both a gaming authority and a special economic zone. CEZA oversees and regulates offshore interactive gaming (iGaming) operations which predates the Philippine Amusement and Gaming Corporation’s (Pagcor) POGOs by over a decade. Katrina said CEZA maintained a record free of the criminal activities associated with POGOs such as kidnapping, torture, human trafficking, and murder. “There has not even a single instance of crimes associated with POGOs under CEZA’s watch. It never had any instances of kidnapping, human trafficking, torture, scams, and murder,” she said. “CEZA established itself as the first interactive gaming jurisdiction in Asia and stood at the forefront of regulatory innovation. The intention was to attract established and credible gaming operators in Europe and North America to outsource their services,” she said. Katrina presented in the hearing a dozen key distinctions between the CEZA’s regulation of iGaming operations and POGOs. “”I believe that the distinction between CEZA and PAGCOR are some of the keys to our orderly regulation of iGaming,” she said. The distinction she referred were: The Cagayan special economic zone also hosts  seaport operations, tourism, real estate development, and upcoming industrial parks. Meanwhile, House Deputy Speaker and Isabela 1st District Representative Antonio Albano asked the Presidential Anti-Organized Crime Commission (PAOCC) to issue a public apology on the alleged presence of POGOs near Enhanced Defense Cooperation Agreement (EDCA) sites . The Camilo Osias Naval Base Camilo in Sta. Ana town in Cagayan province is about 7.8 kilometers from CEZA according to Google Maps. Although PAOCC refused to provide comment as of this writing, PAOCC spokesperson Winston Casio has said the information was based on intelligence reports and documents from the Securities and Exchange Commission. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Cagayan Valley,House of Representatives,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>10 Chinese POGO workers rescued in Clark</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/luzon/chinese-pogo-workers-rescued-clark-freeport-zone-pampanga-july-2024/</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>45504.13491898148</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. RESCUE. The Philippine National Police Criminal Investigation and Detection Group implements seven search warrants in an alleged small-scale POGO in a villa at The Villages in Clark Freeport, Pampanga on July 30, 2024. Joann Manabat/Rappler CLARK FREEPORT, Philippines – Ten Chinese men who had escaped from a Philippine Offshore Gaming Operator (POGO) were rescued by the Philippine National Police (PNP) Criminal Investigation and Detection Group (CIDG) in a villa in Clark Freeport Zone in Pampanga on Tuesday, July 30. The CIDG carried out the operation in coordination with the Public Safety Division (PSD) of the Clark Development Corporation (CDC) after securing seven warrants to search alleged small-scale POGOs in The Villages along Prince Balagtas Avenue in the former US military air base. Authorities believe the Chinese are victims of human trafficking who escaped from the POGO Lucky South 99 Gaming Incorporated in Porac last June. The ten Chinese were in Room 701 of Family Tree Building of The Villages, where authorities also found and confiscated various computers and gadgets used in POGO activities. Following their rescue, the individuals were brought to Camp Crame in Quezon City and were set to be handed over to the Bureau of Immigration (BI) for profiling and verification. As of 10 pm Tuesday, no Chinese had yet been transferred to the BI, according to spokesperson Dana Sandoval. Two Chinese women, the mothers of three babies, along with their three Filipino helpers, were left in the villa with representatives from the Department of Social Welfare and Development (DSWD) due to their family status. Other buildings were still being searched by the CIDG, as of writing. Lucky South 99 and Zun Yuan Technology Incorporated in Bamban, Tarlac are under investigation by the Senate. Both were raided earlier this year by an inter-agency team led by the Presidential Anti-Organized Crime Commission (PAOCC) and CIDG for alleged illegal detention, torture, human trafficking, and scam operations. Authorities seized eight safety vaults, documents, cellphones, computers, and other gadgets used in POGO operations during that raid. Rappler reached out to CDC for information on Tuesday’s operation, but it declined to comment as of writing. The crackdown follows President Ferdinand Marcos Jr.’s recent order to ban all POGOs which was announced during his third State of the Nation Address last July 22. –Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Central Luzon,Clark Freeport Zone,Pampanga,Philippine National Police</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Petition to unseat Alice Guo as Bamban mayor filed | The wRap</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/july-29-2024/</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>45502.59513888889</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: The Office of the Solicitor General files a quo warranto petition with a local court to unseat Alice Guo or Guo Ha Ping’s proclamation as mayor of Bamban, Tarlac. The Philippine Coast Guard says siphoning of industrial fuel oil from the sunken MT Terranova may start as soon as Tuesday, July 30. Education Secretary Sonny Angara gets a glimpse of the distressing situation in schools when it rains. Simon Biles makes her long-awaited Olympic return at the Paris Games, Sunday, July 28 drawing cheers from a star-studded crowd giving the US gymnasts the lead in women’s qualifying. Team Philippines delivers valiant, historic marks on the first weekend of the 2024 Paris Olympics. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Alice Guo,education in the Philippines,fisherfolk in the Philippines,Paris Olympics,Philippine Coast Guard</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Chinese fugitive caught in Benguet house linked to Harry Roque</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/chinese-fugitive-caught-tuba-benguet-house-linked-harry-roque/</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>45502.50572916667</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. CHINESE? Senator Risa Hontiveros says Khuon Moeurn is a false identity being used by a Chinese fugitive. Sourced photo MANILA, Philippines – The man caught in a house in Tuba, Benguet, on Saturday, July 27, was not Cambodian but a Chinese fugitive, according to Senator Risa Hontiveros. “The Cambodian passport held by the man is fake. He’s really Chinese and as per our Chinese informant, he’s a red notice fugitive, very high-level, and he has already defrauded 100,000 people,” Hontiveros said on Monday, July 29, as the Senate continued its inquiry into illegal Philippine offshore gaming operators (POGOs). The Bureau of Immigration executed a mission order to raid a house in Barangay Poblacion in Tuba, Benguet, on Saturday. The BI said it was acting on information that one of the house occupants was a Chinese woman who is a person of interest in the Bamban, Tarlac POGO investigation. The BI found instead a supposed Cambodian, Khuon Moeurn, and a Chinese woman named Wang Keping, neither of whom was the target of the operation. Moeurn is really Sun Liming, who, Rappler has learned, is on the red notice list of the Interpol for financial fraud in China over internet P2P business. Sun Liming is known as an expert in how to develop apps, which could have been used for scamming operations, according to Presidential Anti Organized Crime Commission (PAOCC) chief Gilbert Cruz. Harry Roque, who was spokesperson for former president Rodrigo Duterte, confirmed to the Senate that he “has interest” in the Tuba house. It is owned by a corporation called PH2, which is owned by Roque’s family corporation, Biancham Holdings and Trading. Roque said, however, that the house has been leased to a Chinese national named Wan Yun. Roque told a House panel on Wednesday, July 31, that he has since found out that his lessee is in a relationship with Moeurn/Sun Liming. The lease contract was signed in January 2024, said Roque. “ Tinirahan ko po ‘yan nung ako po’y umalis ng gobyerno, and I do have an interest in the corporation that owns it. Pero wala po sa akin ang possession ng bahay na ‘yan,” said Roque. (I once lived in that house when I left the government, and I do have an interest in the corporation that owns it. But I do not have possession of that house.) When BI agents got there, they apprehended a man carrying a supposed Cambodian passport, who turned out to be Chinese. They also apprehended the female Chinese who was with him for allegedly harboring an illegal alien. The BI confirmed to the Senate that their personnel neither had a search nor arrest warrant during the raid, which Roque continuously pointed out as a violation of constitutional rights. This shows the quandary of law enforcement in cracking down on POGO suspects. If they apply for a warrant, they risk a leak or waiting too long that the suspects already flee. But if they conduct an operation without a warrant, they court legal trouble. “Nang sinabi nila na sinalakay ang bahay ko at may mga wanted na mga POGO bosses doon, eh ako po’y talagang nag-conclude na meron talagang pilit na naninira sa akin (When they said my house was raided because there were wanted POGO bosses there, I concluded that there really was a demolition job against me),” Roque said during the Senate hearing, which got heated between him and Hontiveros. Senator Sherwin Gatchalian had to intervene and tell Roque that if he “disrespects” Hontiveros one more time, “I will cite you in contempt.” Biancham was incorporated by Roque, his wife Mylah, his former law firm partner Joel Butuyan, and two others. Roque’s former assistant, Alberto Rodulfo “AR” dela Serna, was a qualifying stockholder. It means that these were stockholders with minimal shares, and tapped only to comply with the requirement that there should be five stockholders. Roque said that because a one-person corporation is now allowed, he is on his way to buying out everybody in Biancham. Dela Serna is the aide whom Roque sponsored for a visa to Europe in 2023. Dela Serna was present in Monday’s hearing and he said his visa documents were found in the Lucky South 99 POGO in Porac, Pampanga , because he used to be a boarder there while attending a flying school in the province. Dela Serna said he did not know that there was a POGO there, and that he lodged for free because he requested Katherine Cassandra Li Ong or Cassy Li Ong to be able to board rent-free. Prompted by Hontiveros’ interpellation, Dela Serna said he knew Ong through Roque. Ong may be the next most hunted after Bamban Mayor Alice Guo. Ong, who is now in Singapore according to the BI, is an owner of a POGO called Xinsheng which preceded Lucky South. For Lucky South, Ong appears in some Philippine Amusement and Gaming Corporation (Pagcor) documents as having transacted for them. It was also Ong who got Roque as a lawyer for Whirlwind Corporation, the real estate firm that leased its Porac compound to Lucky South. Roque maintained he is a lawyer only for Whirlwind, and not for the Lucky South POGO even though an organizational chart names him as legal representative . According to Pagcor chief Alejandro Tengco, Ong had said before that the fee meant to be remitted to Pagcor by Lucky South, totaling $900,000, had been pocketed by their consultant, Dennis Cunanan. Cunanan is a former government official who had been convicted for his role in the pork barrel scam. He is the common link for the Porac and Bamban POGOs. On Monday, Cunanan appeared in the Senate for the first time, where he confirmed that he consulted for the two POGOs, but denied that he pocketed the Pagcor fee. “If that happened, there are only two things that can happen to me: either I am dead by now, or two, I may have a court case already happening,” said Cunanan. Senator Jinggoy Estrada paid much attention to Cunanan because the latter testified against him during the pork barrel scam trial. Roque is still linked to the accusation against Cunanan. It was the former presidential spokesperson who had accompanied Ong to meet with Pagcor’s Tengco to complain that Cunanan had not been remitting Lucky South’s fees. Roque said this did not mean he lawyered for Lucky South because he just accompanied Ong to a meeting with Pagcor. Hontiveros said, “Ayaw ‘nyo mang aminin na abogado kayo ng POGO, malinaw na abogado kayo ng taga-areglo ng POGO.” (While you may not want to admit that you’re a lawyer for a POGO, it is clear that you are a lawyer for a POGO fixer.) Hontiveros pointed out that Lucky South was already raided as early as 2022. The senator asked Roque why he would want to be involved in a POGO that already has a shady record. “Wala naman akong nalaman na na-raid sila noon dahil nakilala ko sila matapos ang eleksiyon noong 2022,” said Roque. (I did not know they were raided because I met them after the elections in 2022.) During the House hearing on Wednesday, a Pagcor executive revealed that aside from facilitating a meeting, Roque also made at least six calls on behalf of Ong. Never was Whirlwind mentioned in these conversations, only Lucky South, said Pagcor’s offshore gaming department assistant vice president, Jessa Fernandez. Despite this, Roque invoked his strict definition of a client-lawyer relationship, which is one that exists only on contract — the one he has with Whirlwind. Lawmakers spent time pointing out that someone as prominent as Roque who deals with Pagcor on behalf of a POGO representative, “by common sense,” may be a form of using “political influence.” – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Benguet,Bureau of Immigration,Cordillera Administrative Region,Duterte administration,Harry Roque</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Pagcor: Internet Gaming Licensees covered by Marcos' POGO ban</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/pagcor-says-internet-gaming-licenses-covered-marcos-jr-pogo-ban/</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>45502.23667824074</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. IGLs BANNED. Pagcor chief Alejandro Tengco says that Internet Gaming Licensees or IGLs are covered by the POGO ban, on July 29, 2025. Screenshot from Senate livestream MANILA, Philippines – The 44 Internet Gaming Licensees (IGLs) are all covered by the presidential ban on Philippine Offshore Gaming Operators (POGOs), said the chief of the Philippine Amusement and Gaming Corporation (Pagcor). “The ban is for all, very clear. Maliwanag po ang utos ng Pangulo, ‘I am ordering Pagcor to wind down.’ Ang iwa-wind down ko po ay ang existing, and that refers to the 44 IGLs ,” Pagcor chief Alejandro Tengco told the Senate on Monday, July 29, during the continuation of the upper house’s inquiry into illegal POGOs. (The order of the president was very clear: ‘I am ordering Pagcor to wind down.’ So we will wind down the existing ones, and that refers to the 44 IGLs.) President Ferdinand Marcos Jr. announced the total ban on POGOs in his third State of the Nation Address (SONA) on July 22, an announcement applauded even by the political opposition due to the sensational discoveries of corruption, trafficking and torture inside the POGO hubs. Marcos ordered to wind down all POGOs by the end of the year. But the announcement was quickly marred by some confusion because POGOs have ceased to exist since 2023 when Pagcor renamed it IGL. There were no more POGOs to speak of since then, although the media, law enforcement, and Congress continued to use the term “POGO.” There were speculations that IGLs may not be covered by the ban. “The mandate of the President is very clear, Pagcor is mandated to wind down the operations, in reference to even those who have license we have re-issued, I’m referring to the IGLs,” Tengco repeated. The speculation was partly due to a 2023 news item that spread online. But the news item was precisely on the announcement of the renaming to IGLs in 2023, way before the SONA. “We really have to ignore those influence operations,” said Senator Risa Hontiveros. Solicitor General Menardo Guevarra said he believes that the ban covers IGLs. “ Bagamat one-liner lang siya, maliwanag naman ang policy statement ang kanyang sinabi, without qualification that all POGOs are banned effective immediately (Although it was just a one-liner, the policy statement was clear, all POGOs are banned effectively immediately without qualification),” he said. When Hontiveros asked if the all-out ban also covered offshore gaming operations inside economic zones and export processing zones, Guevarra said “ ganun po ang dating sa amin (that’s what it seemed to us) that all POGOs are banned without classification.” However, Tengco pointed out that the Cagayan Economic Zone Authority (CEZA) has its own charter and can issue its own licenses. CEZA, Tengco said, is unique among the other economic zones in that respect. Hontiveros said Pagcor should update the Senate on how CEZA’s charter can figure into Marcos’ all-out ban. “ Dun lang po ako nakakakita ng kumplikasyon (That’s the only area where I can see a complication), but we will see how we can cover,” said Tengco. POGOs have been controversial since the term of former president Rodrigo Duterte, and there were close to 300 POGO licenses issued during his time. When Pagcor renamed POGOs to IGLs during the Marcos presidency, the licenses were cut down to only 44. All those operating without license, or the illegal POGOs, “are not under our jurisdiction,” said Tengco. Tengco said there are around 32,000 IGL workers, and around 8,000 Business Process Outsourcing or BPO workers, or a total of 40,000 workers who will be displaced by the ban. Tengco said inter-agency meetings will begin this week, starting with the Department of Labor and Employment (DOLE) to make sure that the displaced workers have other job opportunities. “I just got word that [Justice] Secretary Boying Remulla is calling for a meeting together with Pagcor, [i.e. with Presidential Anti-Organized Crime Commission,  Bureau of Immigration, and Department of Justice] so we could start formulating guidelines on how to deal with winding up of operations of all,” said Tengco. Tengco said Pagcor will be giving a monthly report on the winding down operations. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Pagcor,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Philippine gov't seeks to unseat Alice Guo as mayor 'because she is Chinese'</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/office-solicitor-general-quo-warranto-petition-alice-guo-bamban-tarlac-mayor/</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>45502.14429398148</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. HOT SEAT. Mayor Alice Guo answers questions from senators during the Senate hearing on the raided facility of a Philippine offshore gaming operator in Bamban, Tarlac, on May 22, 2024. Angie de Silva/Rappler MANILA, Philippines – The Philippine government has filed an application with a local court to unseat Alice Guo or Guo Ha Ping as mayor of Bamban, Tarlac because “she is not a Filipino citizen but a Chinese national.” The Office of the Solicitor General (OSG) filed a quo warranto petition on Monday, July 29, before the Manila Regional Trial Court (RTC) seeking to “declare as null and void” Guo’s 2022 proclamation as Bamban mayor. Guo is embroiled in the Philippine Offshore Gaming Operators (POGO) scandal for being co-owner of the real estate firm Baofu. Baofu leased its compound in Bamban to the shady POGO Hongsheng/Zun Yuan, which was found to have trafficked and tortured workers in a scam hub operation. Guo divested from Baofu when she ran, and then won as mayor of Bamban in 2022. The OSG’s petition cites earlier evidence that Guo is the Chinese Guo Ha Ping who holds a Chinese passport, and appears in Philippine government’s visa application records as the daughter of two Chinese citizens Lin Wenyi and Guo Jian Zhong. Guo Ha Ping is registered in Philippine immigration records as having arrived in the Philippines in 1999 as a 9-year-old, contrary to her earlier testimony in the Senate that she was born here and grew up in a farm. The National Bureau of Investigation (NBI) has also confirmed that the fingerprints on Guo Ha Ping’s records match Alice Guo’s fingerprints. “Even international law enforcement authorities use fingerprint identification, given that no two individuals, not even identical twins, have the same fingerprints. Neither do fingerprints change, even as an individual gets older, unless the deeper “basal” layer is destroyed or intentionally changed by plastic surgery,” said the OSG’s petition. “Guo Hua Ping is not a Filipino citizen by birth or by naturalization,” said the OSG. In the Philippines, the citizenship of the child follows the citizenship of the parents regardless if they were born in the country. This is the jus sanguinis principle, as opposed to other countries like the United States which follows jus soli or citizenship in the place where they were born. “There is no factual basis to support respondent Guo Hua Ping’s Filipino citizenship. The inevitable conclusion that follows is that she is not a Filipino citizen, a mandatory requirement under Section 39 of [the local government code]. Thus, respondent Guo Hua Ping is illegally holding her position and must be ousted therefrom,” said the petition. Quo warranto is a unique proceeding in the rules of court to unseat someone from public office on the basis of, among others, unlawful occupation. This was the same petition used to oust former chief justice Maria Lourdes Sereno, although Sereno’s was controversial because she was an impeachable official. The OSG also earlier applied to cancel Guo’s Filipino birth certificate, based on irregular procedures to obtain a late registration. When the birth certificate is canceled, it would essentially remove Guo’s Filipino citizenship, and having no status in the Philippines, a deportation may follow after. But Philippine government officials said they would keep Guo in the Philippines to stand trial for the complaints filed against her. There is currently a qualified trafficking complaint against Guo filed at the Department of Justice (DOJ). There is no court-issued warrant of arrest on that complaint yet. Guo has so far evaded the Senate-issued warrant of arrest for contempt. The quo warranto proceeding would give Guo a chance to present her side to the court. “You may be able to hide now, but you will not be able to hide forever,” said Senator Risa Hontiveros on Monday as the Senate continued its POGO inquiry. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Alice Guo,LGUs in the Philippines,Office of the Solicitor General,Senate of the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>[In This Economy] Marcos’ POGO ban is popular, but will it work?</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/thought-leaders/in-this-economy-marcos-pogo-ban-popular-work/</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>45499.29166666666</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. “Effective today, all POGOs are banned.” That’s the resounding climax of President Ferdinand Marcos Jr.’s third State of the Nation Address (SONA) on Monday, July 22. POGO stands for Philippine offshore gaming operators: essentially foreign direct investments in gambling operations that Chinese entrepreneurs (or syndicates) can’t otherwise do in their home country. Flourishing during the time of former president Rodrigo Duterte , POGOs are now being unmasked as hosts of myriad crimes like human trafficking and prostitution, thanks to a series of public investigations led by Senator Risa Hontiveros and Senator Sherwin Gatchalian. As the President himself said in his SONA, “Disguising as legitimate entities, their operations have ventured into illicit areas furthest from gaming such as financial scamming, money laundering, prostitution, human trafficking, kidnapping, brutal torture, even murder.” Alongside his blanket ban, the President on Monday instructed the Philippine Amusement and Gaming Corporation (Pagcor), a government corporation, to “wind down and cease” POGOs by yearend. Marcos believes “this will solve many of the problems that we are encountering…but it will not solve all of them.” Marcos’ pronouncement was met with nearly universal acclaim, even from otherwise critical netizens to Senator Hontiveros herself, who joined the standing ovation in the Batasang Pambansa. I’m not so confident, however, that such a POGO ban will solve any problem at all. The economics of bans tells us that such a policy will, in fact, most likely backfire. History tells us that bans never work to eradicate the thing being banned. People get insanely creative around bans, and will find ways to skirt them one way or another. Take for instance Duterte’s war on drugs, a bloody crackdown on illicit drugs. Years after such an aggressively enforced ban, and thousands of extrajudicial killings later, the drug trade is as lively as ever. The main reason is that any drug war spells massive revenues and profits for drug producers and distributors. As seen in many other countries, drug supply interdiction sustains rather than suppresses the drug trade. (I explained this in my very first Thought Leaders piece back in 2016.) Authorities, too, create perverse incentives that justify the ban. Reports indicated that police on the ground planted evidence everywhere, while their leaders imposed quotas and distributed cash rewards throughout their hierarchy. Police also often cited “drug personalities who died in anti-drug operations” among their metrics of success. To take another example, consider the recent law banning unregistered SIM cards . Like the Duterte war on drugs, this ban was well-meaning. But all the law did was to create an underground market for pre-registered SIMs. Text and call scams — the very thing the law intended to eradicate — seem to have spread even more. The same fate will likely meet Marcos’ popular POGO ban. To begin with, it isn’t really clear what the President was referring to. In August 2023, Pagcor said that POGOs will need to “reapply for licenses,” and when granted such licenses, they will need to follow new rules and regulations. In May 2024, Pagcor issued 40 regular licenses to what it now calls “ internet gaming licensees ” or IGLs. It also issued nine provisional IGLs. Fast-forward to July, Pagcor says 38 IGLs have regular licenses, and only seven have provisional licenses — for a total of 45. However, Pagcor itself admits that this group of 45 is but a small portion of total number of POGOs out there, many of which did not at all choose to apply for licenses and simply went underground. Pagcor chief Alejandro Tengco says there could be as many as 250 of these underground POGOs still in operation. Meanwhile, the Presidential Anti-Organized Crime Commission (PAOCC) says they’re monitoring at least 58 POGOs that have moved underground in the aftermath of the widely-publicized raids on the POGO hubs in Bamban, Tarlac and Porac, Pampanga. As it is then, POGOs were already going underground even before Marcos’ blanket ban. Implementing that ban will only put the remaining IGLs well outside the reach of state regulators, and therefore harder (if not impossible) to monitor and control. Once the ban is in effect, the remaining IGLs might disperse and simply set up shop, albeit at smaller scales of operation. Note that POGOs are mostly back office operations housed in office buildings. So it’s fairly easy to disguise them as typical offices, similar to business process outsourcing (BPO) offices. More importantly, the POGO ban puts much of the responsibility on local officials and law enforcement agencies. Marcos himself acknowledged this in his SONA: “To solve all the problems that we have been suffering under, all officials, law enforcers, workers in government, and most of all the citizenry, must always be vigilant, principled, and think of the health of the nation.” But the billions of pesos flowing into POGOs, coupled with the Philippines’ weak rule of law, could mean that POGOs may continue by inducing local officials and law enforcement agencies to turn a blind eye to their businesses. That’s exactly what’s happening now. Bamban’s mayor herself, Alice Guo, a purported Chinese national with an allegedly fake birth certificate, appears to have deep ties with POGO investors. Meanwhile, Porac’s mayor, Jaime Capil, feigned ignorance about a massive POGO hub located in his municipality called Lucky South 99. But that POGO hub was located very near an extension office of Porac’s municipal government. (Shortly after the raid, signs of that extension office were quickly taken down.) At any rate, do law enforcement agencies have enough resources to sweep the country and monitor suspected POGOs? And how easy will it be to raid these suspected POGOs? Note that the big raids at Bamban and Porac stemmed from human trafficking complaints . Absent such triggers, securing court orders may be more difficult. The President himself doesn’t have the moral ascendancy to implement the law strictly. Remember that they still refuse to pay P203 billion of estate taxes they owe to the Bureau of Internal Revenue. All this leads me to think and bet that in the 2025 SONA, Marcos’ ban will have proven futile, and POGOs will still be around. POGOs are a type of foreign direct investment (FDI): they bring in billions of dollars into the country, build huge complexes, hire thousands of people (including many Filipinos), and create a multiplier effect in the economy by inducing new local businesses (like restaurants) that cater to POGO workers. But just as it’s easy to attract POGOs, the government for the longest time has been struggling to attract other types of that want to do honest-to-goodness business in the country, and aren’t crime-ridden. Are POGOs the easiest type of FDIs we can attract? Can’t we attract the better ones (like those in manufacturing or industry)? Come to think of it, maybe it’s easy for POGOs to decide to locate in the Philippines because they know that our laws and regulations are malleable, and they can get away with various crimes, thanks to our weak rule of law. That makes me utterly sad. That also suggests that the proliferation of POGOs is more of a symptom rather than a cause of the many ills of Philippine society. For more, watch our almost hour-long discussion of this issue in Newsbreak Chats: POGO ban — making it happen . – Rappler.com JC Punongbayan, PhD is an assistant professor at the UP School of Economics and the author of False Nostalgia: The Marcos “Golden Age” Myths and How to Debunk Them . In 2024, he received The Outstanding Young Men (TOYM) Award for economics. JC’s views are independent of his affiliations. Follow him on Twitter/X ( @jcpunongbayan ) and Usapang Econ Podcast . How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Ferdinand Marcos Jr.,Pagcor,SONA 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[Rappler Investigates] POGOs no-go as Typhoon Carina exits</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/voices/investigates-pogo-ban-carina-southwest-monsoon/</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>45499.08333333334</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. Alejandro Edoria/Rappler I hope you and members of your family are all safe and secure as you read this newsletter. Tuesday and Wednesday were rather intense in terms of rain and flooding that were reminiscent, for some, of Tropical Storm Ondoy (Ketsana) in 2009. By Wednesday afternoon, Carina had developed into a super typhoon . You can catch the latest updates here , including relief efforts and ways to help. Just three months ago in April, we published a story that warned about the perils of La Niña and which found that 20% of the metropolis’ land area are “high-risk flood zones.” That same story said “more than half” of Marikina and Pasig city residents live in areas that are highly flood-prone. Fast-forward to July and we see photos of flooding in these same areas — unthinkable when it was excruciatingly hot in April. Know how susceptible or vulnerable you are to flooding here . These weather swings are likely to continue and probably even worsen in the years to come. (READ: Devastating floods, heat, droughts to worsen in PH for next 30 years – UN report ) A few days back on the fourth Monday of July — following the mandate of the Constitution — President Ferdinand Marcos Jr. delivered his State of the Nation Address (SONA). It was his third since assuming the presidency in June 2022. The Rappler newsroom was at almost-full capacity, with reporters, editors, interns, production specialists, and guest analysts all in eager anticipation of what the President would say as he approached mid-term. Post-pandemic, the newsroom is agog with activity mostly during monthly general assembly meetings or simultaneous cluster huddles, but they’re nothing close to the adrenaline surge caused by election coverage or, to a lesser extent, by SONA reportage. It’s not unusual to hear collective groans, boisterous laughter, spontaneous commentary or approval, and even caustic remarks triggered by the usual chest-beating claims in presidential speeches. This year, however, after more than an hour of listening to a litany of numbers and statistics, many were lamenting the seeming demise of speechwriters who injected elegance in otherwise dry and trite presidential pronouncements. Listening to Bongbong Marcos was such a pain because he was, well…boring. If you missed it, you can catch our SONA 2024 live updates . The draft copy of his speech that went around close to the 90-minute mark indicated an abrupt and unimaginative ending about rice. That’s why when he went on and on to signal that he wasn’t through yet, everyone started to listen intently. (READ the full text of Marcos’ SONA 2024 ) As it turns out, the end was the best part of the speech that woke up the newsroom and obviously legislators at the Batasang Pambansa. Marcos declared: “The grave abuse and disrespect to our system of laws must stop. Kailangan nang itigil ang panggugulo nito sa ating lipunan at paglapastangan sa ating bansa. Effective today, all POGOs [Philippine offshore gaming operators] are banned. I hereby instruct PAGCOR [Philippine Amusement and Gaming Corporation] to wind down and cease the operations of POGOs by the end of the year.” Even opposition senator Risa Hontiveros applauded the President and joined her colleagues in giving him a standing ovation . This was on the horizon as revenue managers weighed in and said costs actually outweighed the benefits of continuing POGO operations. But gaming regulation chief Al Tengco wanted some clarification over terms — did the President’s ban cover internet gaming licenses or IGLs since there were no more POGOs on their list? Find out more about this issue by watching the latest episode of Newsbreak Chats: POGO ban — making it happen . Will the ban and subsequent departure of IGLs (or POGOs) adversely affect the real property market ? Experts say that because the market has not been that ultra-dependent on them, the expected dent that the ban will cause won’t be that devastating. In short, the property market will survive, Lance Spencer Yu reports. Interestingly, if POGOs are a no-no as far as the President is concerned, how come personnel of the Criminal Investigation Detection Group (CIDG) who raided the notorious POGO in Bamban, Tarlac, were relieved from their posts and reassigned elsewhere by their former chief, Major General Romeo Caramat Jr. ? Not long after those mysterious reassignments — only weeks later, in fact — Caramat himself got a dose of his own medicine and got reassigned. Do you smell something fishy here? I do 🙂. Let me know if you have information to share. If you’ve been a regular reader of Inside Track under our Newsbreak section, you would have noticed that we’ve started a video version of it, featuring senior reporter Lian Buan . Inside Track features inside information and gossip on the burning issues of the day. Lian’s very first topic? You guessed it right: the ever-hot POGOs and their incredible network that lead to persons of interest who figured in past controversies. Connect the dots and follow the money trail . I tell you, we have lots of material for a blockbuster movie. Be sure to watch this: Bamban POGO scandal: There’s a bigger fish than Alice Guo . Here are other Inside Track stories you shouldn’t miss, along with our latest investigation into the drug war killings. Findings refute claims that the justice system is working in exacting accountability from policemen involved in the indiscriminate killings. This is being trumpeted as the reason why there’s no need for the International Criminal Court to be involved in the drug war probes. But out of at least 7,000 documented killings in police operations, only 52 cases were reinvestigated in 2020, with about 62% closed without the filing of any criminal complaint. Call this working justice? Help us continue doing our job well by supporting independent and quality journalism . Till Thursday after next! – Rappler.com Rappler Investigates is a bimonthly newsletter of our top picks delivered straight to your inbox every other Thursday. To subscribe, visit rappler.com/profile and click the Newsletters tab. You need a Rappler account and you must log in to manage your newsletter subscriptions. How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>flood,POGOs,SONA 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Newsbreak Chats: POGO ban — making it happen</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/newsbreak/podcasts-videos/discussion-pogo-ban-philippines-marcos-jr-administration/</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>45498.33333333334</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MANILA, Philippines – President Ferdinand Marcos Jr. ended his third State of the Nation Address (SONA) with an unexpected but not surprising announcement: a complete ban of Philippine offshore gaming operators (POGOs). He ordered the Philippine Amusement and Gaming Corporation (Pagcor) to “wind down and cease the operations of POGOs by the end of the year.” This move came as controversies after controversies surrounding POGOs continue to surface, including allegations of money laundering, human trafficking, torture, and illegal recruitment, among others. On Thursday, July 25, Rappler managing editor Miriam Grace Go sits down with multimedia reporters Dwight de Leon and Jairo Bolledo, and Rappler resident economist JC Punongbayan to discuss the POGO ban and the possible challenges it could face. De Leon covers the Marcos presidency while Bolledo follows justice and crime. How will the transition towards a complete POGO ban look like? How will it impact the economy? Catch the discussion on Thursday, July 25, at 4 pm! – Rappler.com Watch other Newsbreak Chats episodes in 2024: How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Ferdinand Marcos Jr.,Marcos Jr. administration,Newsbreak Chats,SONA 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Metro Manila under state of calamity | The wRap</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/july-24-2024/</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>45497.61589120371</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Metro Manila is under a state of calamity due to heavy rain and flood brought by the southwest monsoon or habagat enhanced by Super Typhoon Carina, international name Gaemi. Pushed by the strong current, a drifting barge narrowly misses a bridge connecting Eulogio Amang Rodriguez Avenue in Pasig and Calle Industria in Quezon City around 2:30 pm Wednesday, July 24. Vice President Sara Duterte says the Philippine National Police has removed 75 of its personnel from her security detail. The Bureau of Immigration orders foreigners working in Philippine offshore gaming operators or POGOs to leave the country in two months’ time, following President Ferdinand Marcos Jr.’s ban on POGOs. U.S. Secret Service Director Kimberly Cheatle resigns as the agency comes under harsh bipartisan scrutiny for failure to stop a would-be Donald Trump assassin. An old video of Donald Trump’s running mate J.D. Vance goes viral where he calls Vice President Kamala Harris and 2 democrats ‘childless cat ladies’ who don’t have a ‘direct stake’ in America. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Hollywood celebrities,POGOs,Sara Duterte,United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Philippines orders foreign workers in offshore gaming hubs to leave in 2 months</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/foreign-workers-offshore-gaming-hubs-ordered-to-leave/</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>45497.27380787037</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. GAMBLING IN THE PHILIPPINES. A casino trainee demonstrates how to play a slot machine in the  Philippines, April 16, 2015. Erik De Castro/Reuters MANILA, Philippines – The Philippines has ordered foreigners working in offshore gambling firms to leave the country in two months’ time, its immigration bureau said on Wednesday, July 24, following President Ferdinand Marcos Jr.’s decision to stamp out the operators. Marcos has banned Philippine Offshore Gaming Operators (POGOs) for their alleged links to crimes, human trafficking, and financial scams, and gave the gaming regulator until the end of the year to shut down these businesses. Philippine immigration chief Norman Tansingco said in a statement foreign workers had 59 days to leave the country. Around 20,000 people are expected to be affected by the order, most of them Chinese citizens. Workers who stay in the country beyond the two-month period will be deported, he added. The Chinese embassy in Manila did not immediately respond to a request for comment. POGOs emerged in 2016 and boomed in just a few years as companies capitalized on liberal laws to target customers in China, where gambling is banned. At their peak, some 300 POGOs operated in the Philippines, but the coronavirus pandemic and tighter tax rules forced many to relocate or go underground. Only 42 mostly Chinese firms have kept their licenses, directly and indirectly employing around 63,000 Filipino and foreign workers. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>DOLE to help find jobs for displaced POGO workers</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/business/dole-help-find-jobs-displaced-pogo-workers/</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>45497.24927083333</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. JOB FAIR. People attend the Toril District Jobs Fair at Crossing Bayabas Gym, Toril, Davao City, on February 9, 2024. City Government of Davao MANILA, Philippines – The Department of Labor and Employment (DOLE) is in the process of finding jobs for the thousands of workers expected to be displaced from the total ban President Ferdinand Marcos Jr. imposed on Philippine offshore gaming operators (POGOs). Marcos announced the ban in his third State of the Nation Address (SONA) on Monday, July 22, and directed the DOLE to assist workers who will be displaced. In the session of the post-SONA discussions on education and workers on Wednesday, July 24, Labor Secretary Bienvenido Laguesma elaborated on the DOLE’s plans in carrying out the President’s order. Laguesma explained that the first order of business for the DOLE was to conduct “profiling” of the affected workers, which means finding out what skills they have, their current positions, current salaries, preferred work, and possible interventions. The process of profiling involves asking for a list of workers from their employers, POGOs, or what were rebranded as Internet Gaming Licensees (IGLs), Laguesma said. Regional DOLE implementors are in charge of collecting submissions from the IGLs. The Philippine Amusement and Gaming Corporation’s (Pagcor) Offshore Gaming Licensing Department has a list of 45 IGLs, of which 43 were operating as of July 16. (READ: Which POGOs are affected by Marcos’ ban? ) Laguesma said the department’s initial information so far is from Metro Manila, where most of the POGOs have transitioned into IGLs, as well as in Calabarzon or the Southern Luzon region and Central Luzon. A total of 34 IGLs reported least 15,000 workers in Metro Manila. Other IGLs reported another 5,000 in Calabarzon. Laguesma said the number of affected workers is “moving.” “ Noong tiningnan ng DOLE-NCR (National Capital Region) ‘yung listahan ng mga manggagawa na ipinagkaloob ng mga kumpanya, malaking bahagi doon ay nandodoon sa encoders. Ibig sabihin, puwede talagang i-link up sa ating IT (information technology), BPO (business process outsourcing) management sector, ” said Laguesma. (When the DOLE-NCR looked at the list of workers from the companies, many of them were encoders. This means there is an opportunity to link them up to the IT and BPO management sector.) Possible interventions include referral to existing vacancies for those who have skills that match these, or job fairs. But if skills are lacking in the job market’s vacancies, the DOLE has upskilling programs and job-hunting guidance. Laguesma also mentioned a DOLE program that allows workers to start businesses instead of going back to being employees, if this is their preference. “DOLE will always be seriously concerned, even if just one job is lost… Other than job creation, we would also like to emphasize job preservation,” Laguesma said in a mix of English and Filipino. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Philippine labor,POGOs</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Marcos’ POGO ban welcomed by Filipinos | The wRap</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/video/daily-wrap/july-23-2024/</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>45496.59444444445</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Here are today’s headlines – the latest news in the Philippines and around the world: Filipinos online welcome President Ferdinand Marcos’ pronouncements on banning POGOs in the country. POGO ranks third on Philippine trends on X after the President’s SONA Monday, July 22. House Speaker Martin Romualdez gives marching orders to House leaders and top secretariat officials to introduce a measure to ban Philippine offshore gaming operators or POGOs in the country. Independent monitoring by the Dahas Project says the anti-illegal drug campaign under President Ferdinand Marcos Jr. is nowhere near ‘bloodless’ as he claimed during his third SONA. The US House of Representatives Homeland Security Committee sends a letter to CrowdStrike CEO George Kurtz asking him to testify on the global tech outage last July 19. Fundraisers and celebrities from rapper Cardi B to Oscar winner Jamie Lee Curtis endorse Kamala Harris as the next Democratic nominee for US president, ending a Hollywood ‘Dembargo’ on political donations. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Ferdinand Marcos Jr.,Kamala Harris,Martin Romualdez,Philippine drug war victims,United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Romualdez orders House leaders to introduce measure enabling POGO ban</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://www.rappler.com/philippines/house-speaker-romualdez-wants-measure-enabling-pogo-ban-2024/</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>45496.34333333333</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMMARY This is AI generated summarization, which may have errors. For context, always refer to the full article. COUSINS. President Ferdinand Marcos Jr. and House Speaker Martin Romualdez during a roundtable meeting with heads of the Malaysian Chambers of Commerce in Kuala Lumpur, Malaysia in July 2023. House website MANILA, Philippines – House Speaker Martin Romualdez has given marching orders to House leaders and top secretariat officials to introduce a measure that would enable President Ferdinand Marcos Jr.’s announcement to ban Philippine offshore gaming operators (POGOs) in the country. “This, however, will not stop the ongoing House investigation on the criminal and other illegal activities linked to POGO,” Romualdez said. “Hopefully, the House can learn from the hearings – on their modus operandi and the brains behind these activities – as part of inputs for the proposed measure that we will be crafting,” he added. This all comes after Marcos, in his third State of the Nation Address on Monday, July 22, ordered the Philippine Amusement and Gaming Corporation (Pagcor) “wind down and ‘cease’ the operations of POGOs by the end of the year.” Romualdez said he has already met with House leaders and top secretariat officials, who told him there are already measures filed at the House of Representatives targeting to halt POGO operations in the country. “I am requesting all the committee chairs concerned to give this a priority,” Romualdez said. “For the House Committee on Public Order and Security to submit their comprehensive report and recommendations to the Committee on Games and Amusement as soon as possible,” he added, saying that he expects the games and amusement panel to come up with a committee report soon for plenary deliberation. Romualdez wants that the enabling law should cover “all bases” of the total ban on POGOs. “ Gusto naming maging legacy ito ng Pangulong Marcos Jr. (We want this to be the legacy of President Marcos Jr.),” said Romualdez, who initially did not favor a total ban on POGOs . As early as September 2022, Manila 6th District Representative Bienvenido “Benny” Abante Jr. filed a bill seeking to ban and declare POGOs illegal in the country. Abante, who also chairs the human rights panel, noted that POGOs are a “ social menace that dissipates the energy and resources of the people .” Cagayan de Oro 2nd District Representative Rufus Rodriguez filed in August 2023 a resolution urging Pagcor to ban POGOs. Rodriguez cited the proliferation of POGO-related crimes such as kidnappings, reports of illegal detainment, human trafficking and prostitution. In House Resolution 1197, Rodriguez said that “the country should not sacrifice the welfare and safety of its citizens for revenue” and that “these POGOs do not contribute anything else to the Philippines and they only operate here because they are banned in their own countries.” Both are pending before the House games and amusements committee. In June 2024, Makabayan bloc lawmakers also filed a bill seeking to ban and criminalize POGOs , ordering government agencies to stop issuing work permits to anyone engaged in POGOs. The bill also seeks to categorize employment of POGOs as a human trafficking offense. – Rappler.com How does this make you feel? </t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Martin Romualdez,POGOs</t>
         </is>
       </c>
     </row>
